--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA9AA7F-390C-45CB-8E32-242B78BAA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E77DA5D-FAEE-462E-AD92-BC532F036A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58170" yWindow="570" windowWidth="38700" windowHeight="15315" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17429" uniqueCount="3476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17429" uniqueCount="3478">
   <si>
     <t>date:</t>
   </si>
@@ -10484,6 +10484,12 @@
   </si>
   <si>
     <t>gogo_der_mime</t>
+  </si>
+  <si>
+    <t>['Gogo Der Mime']</t>
+  </si>
+  <si>
+    <t>['Trinität Der Sucher']</t>
   </si>
 </sst>
 </file>
@@ -11474,7 +11480,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AT266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C385" sqref="C385"/>
+      <selection pane="bottomRight" activeCell="AY329" sqref="AY329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -65635,7 +65641,7 @@
         <v>3470</v>
       </c>
       <c r="AY328" s="28" t="s">
-        <v>941</v>
+        <v>3477</v>
       </c>
       <c r="AZ328" s="28" t="s">
         <v>941</v>
@@ -65757,7 +65763,7 @@
         <v>3472</v>
       </c>
       <c r="AY329" s="28" t="s">
-        <v>941</v>
+        <v>3477</v>
       </c>
       <c r="AZ329" s="28" t="s">
         <v>941</v>
@@ -74483,7 +74489,7 @@
         <v>2317</v>
       </c>
       <c r="AY385" s="70" t="s">
-        <v>941</v>
+        <v>3476</v>
       </c>
       <c r="AZ385" s="70" t="s">
         <v>941</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E77DA5D-FAEE-462E-AD92-BC532F036A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FCF6FE-CB7C-48E9-BF63-CF2276D80931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58170" yWindow="570" windowWidth="38700" windowHeight="15315" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="4720" yWindow="550" windowWidth="30810" windowHeight="19020" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17429" uniqueCount="3478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17429" uniqueCount="3479">
   <si>
     <t>date:</t>
   </si>
@@ -10490,6 +10490,9 @@
   </si>
   <si>
     <t>['Trinität Der Sucher']</t>
+  </si>
+  <si>
+    <t>['Trinität Der Sucher', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Kriegsgöttin']</t>
   </si>
 </sst>
 </file>
@@ -11480,7 +11483,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AT266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY329" sqref="AY329"/>
+      <selection pane="bottomRight" activeCell="AT326" sqref="AT326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -65641,7 +65644,7 @@
         <v>3470</v>
       </c>
       <c r="AY328" s="28" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="AZ328" s="28" t="s">
         <v>941</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FCF6FE-CB7C-48E9-BF63-CF2276D80931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CC500-2519-4494-9634-AE8E16A5F28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="550" windowWidth="30810" windowHeight="19020" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$387</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$388</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17429" uniqueCount="3479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17433" uniqueCount="3483">
   <si>
     <t>date:</t>
   </si>
@@ -10489,10 +10489,22 @@
     <t>['Gogo Der Mime']</t>
   </si>
   <si>
-    <t>['Trinität Der Sucher']</t>
-  </si>
-  <si>
     <t>['Trinität Der Sucher', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Kriegsgöttin']</t>
+  </si>
+  <si>
+    <t>Anything_Gogo's</t>
+  </si>
+  <si>
+    <t>Delubrum_Reginae</t>
+  </si>
+  <si>
+    <t>Delubrum_Reginae_(Savage)</t>
+  </si>
+  <si>
+    <t>ShB Feldexkursion</t>
+  </si>
+  <si>
+    <t>['Trinität Der Sucher', 'Krieger-Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
   </si>
 </sst>
 </file>
@@ -10880,7 +10892,17 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11477,13 +11499,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:BF387"/>
+  <dimension ref="A1:BF388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AT266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AO34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT326" sqref="AT326"/>
+      <selection pane="bottomRight" activeCell="AY238" sqref="AY238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -65644,7 +65666,7 @@
         <v>3470</v>
       </c>
       <c r="AY328" s="28" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="AZ328" s="28" t="s">
         <v>941</v>
@@ -65657,10 +65679,12 @@
       </c>
       <c r="BC328" s="28"/>
       <c r="BD328" s="28"/>
-      <c r="BE328" s="28"/>
+      <c r="BE328" s="28" t="s">
+        <v>3479</v>
+      </c>
       <c r="BF328" s="28"/>
     </row>
-    <row r="329" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A329" s="28"/>
       <c r="B329" s="35">
         <v>44229</v>
@@ -65766,7 +65790,7 @@
         <v>3472</v>
       </c>
       <c r="AY329" s="28" t="s">
-        <v>3477</v>
+        <v>3482</v>
       </c>
       <c r="AZ329" s="28" t="s">
         <v>941</v>
@@ -65779,174 +65803,72 @@
       </c>
       <c r="BC329" s="28"/>
       <c r="BD329" s="28"/>
-      <c r="BE329" s="28"/>
+      <c r="BE329" s="28" t="s">
+        <v>3480</v>
+      </c>
       <c r="BF329" s="28"/>
     </row>
-    <row r="330" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="6"/>
-      <c r="B330" s="7">
-        <v>41513</v>
-      </c>
-      <c r="C330" s="8">
-        <v>1</v>
-      </c>
-      <c r="D330" s="81" t="s">
-        <v>833</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F330" s="6" t="s">
-        <v>2294</v>
-      </c>
-      <c r="G330" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="H330" s="9" t="s">
-        <v>2390</v>
-      </c>
-      <c r="I330" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J330" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K330" s="8">
-        <v>10</v>
-      </c>
-      <c r="L330" s="8" t="s">
-        <v>2309</v>
-      </c>
-      <c r="M330" s="8">
-        <v>0</v>
-      </c>
-      <c r="N330" s="8">
-        <v>0</v>
-      </c>
-      <c r="O330" s="8"/>
-      <c r="P330" s="8"/>
-      <c r="Q330" s="8"/>
-      <c r="R330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="T330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="U330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="V330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="W330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="X330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="Y330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="Z330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AA330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AB330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AC330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AD330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AE330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AF330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AG330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AH330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AI330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AJ330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AK330" s="8" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AL330" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="AM330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP330" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="AQ330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU330" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="AV330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW330" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX330" s="6" t="s">
-        <v>2295</v>
-      </c>
-      <c r="AY330" s="6" t="s">
-        <v>2852</v>
-      </c>
-      <c r="AZ330" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA330" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB330" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC330" s="6">
-        <v>10001</v>
-      </c>
-      <c r="BD330" s="6">
-        <v>10001</v>
-      </c>
-      <c r="BE330" s="6" t="s">
-        <v>3117</v>
-      </c>
-      <c r="BF330" s="6"/>
+    <row r="330" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A330" s="35" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B330" s="35"/>
+      <c r="C330" s="28"/>
+      <c r="D330" s="83"/>
+      <c r="E330" s="28"/>
+      <c r="F330" s="28"/>
+      <c r="G330" s="28"/>
+      <c r="H330" s="59"/>
+      <c r="I330" s="28"/>
+      <c r="J330" s="28"/>
+      <c r="K330" s="28"/>
+      <c r="L330" s="28"/>
+      <c r="M330" s="28"/>
+      <c r="N330" s="28"/>
+      <c r="O330" s="32"/>
+      <c r="P330" s="32"/>
+      <c r="Q330" s="32"/>
+      <c r="R330" s="32"/>
+      <c r="S330" s="32"/>
+      <c r="T330" s="32"/>
+      <c r="U330" s="28"/>
+      <c r="V330" s="28"/>
+      <c r="W330" s="28"/>
+      <c r="X330" s="28"/>
+      <c r="Y330" s="28"/>
+      <c r="Z330" s="28"/>
+      <c r="AA330" s="28"/>
+      <c r="AB330" s="28"/>
+      <c r="AC330" s="28"/>
+      <c r="AD330" s="28"/>
+      <c r="AE330" s="28"/>
+      <c r="AF330" s="28"/>
+      <c r="AG330" s="28"/>
+      <c r="AH330" s="28"/>
+      <c r="AI330" s="28"/>
+      <c r="AJ330" s="28"/>
+      <c r="AK330" s="28"/>
+      <c r="AL330" s="32"/>
+      <c r="AM330" s="28"/>
+      <c r="AN330" s="28"/>
+      <c r="AO330" s="28"/>
+      <c r="AP330" s="28"/>
+      <c r="AQ330" s="28"/>
+      <c r="AR330" s="28"/>
+      <c r="AS330" s="28"/>
+      <c r="AT330" s="28"/>
+      <c r="AU330" s="28"/>
+      <c r="AV330" s="28"/>
+      <c r="AW330" s="28"/>
+      <c r="AX330" s="28"/>
+      <c r="AY330" s="28"/>
+      <c r="AZ330" s="28"/>
+      <c r="BA330" s="28"/>
+      <c r="BB330" s="28"/>
+      <c r="BC330" s="28"/>
+      <c r="BD330" s="28"/>
+      <c r="BE330" s="28"/>
+      <c r="BF330" s="28"/>
     </row>
     <row r="331" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6"/>
@@ -65954,19 +65876,19 @@
         <v>41513</v>
       </c>
       <c r="C331" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D331" s="81" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E331" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>836</v>
+        <v>2294</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H331" s="9" t="s">
         <v>2390</v>
@@ -66089,10 +66011,10 @@
         <v>888</v>
       </c>
       <c r="AX331" s="6" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AY331" s="6" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="AZ331" s="6" t="s">
         <v>941</v>
@@ -66104,13 +66026,13 @@
         <v>941</v>
       </c>
       <c r="BC331" s="6">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="BD331" s="6">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="BE331" s="6" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="BF331" s="6"/>
     </row>
@@ -66120,19 +66042,19 @@
         <v>41513</v>
       </c>
       <c r="C332" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" s="81" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E332" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H332" s="9" t="s">
         <v>2390</v>
@@ -66144,10 +66066,10 @@
         <v>75</v>
       </c>
       <c r="K332" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L332" s="8" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="M332" s="8">
         <v>0</v>
@@ -66255,10 +66177,10 @@
         <v>888</v>
       </c>
       <c r="AX332" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="AY332" s="6" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="AZ332" s="6" t="s">
         <v>941</v>
@@ -66270,13 +66192,13 @@
         <v>941</v>
       </c>
       <c r="BC332" s="6">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="BD332" s="6">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="BE332" s="6" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="BF332" s="6"/>
     </row>
@@ -66286,19 +66208,19 @@
         <v>41513</v>
       </c>
       <c r="C333" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D333" s="81" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E333" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H333" s="9" t="s">
         <v>2390</v>
@@ -66421,10 +66343,10 @@
         <v>888</v>
       </c>
       <c r="AX333" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="AY333" s="6" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="AZ333" s="6" t="s">
         <v>941</v>
@@ -66436,13 +66358,13 @@
         <v>941</v>
       </c>
       <c r="BC333" s="6">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="BD333" s="6">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="BE333" s="6" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="BF333" s="6"/>
     </row>
@@ -66452,19 +66374,19 @@
         <v>41513</v>
       </c>
       <c r="C334" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D334" s="81" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E334" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F334" s="6" t="s">
-        <v>1429</v>
+        <v>842</v>
       </c>
       <c r="G334" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H334" s="9" t="s">
         <v>2390</v>
@@ -66476,10 +66398,10 @@
         <v>75</v>
       </c>
       <c r="K334" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L334" s="8" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="M334" s="8">
         <v>0</v>
@@ -66587,10 +66509,10 @@
         <v>888</v>
       </c>
       <c r="AX334" s="6" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="AY334" s="6" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="AZ334" s="6" t="s">
         <v>941</v>
@@ -66602,13 +66524,13 @@
         <v>941</v>
       </c>
       <c r="BC334" s="6">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="BD334" s="6">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="BE334" s="6" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="BF334" s="6"/>
     </row>
@@ -66618,19 +66540,19 @@
         <v>41513</v>
       </c>
       <c r="C335" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D335" s="81" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E335" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>847</v>
+        <v>1429</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H335" s="9" t="s">
         <v>2390</v>
@@ -66753,10 +66675,10 @@
         <v>888</v>
       </c>
       <c r="AX335" s="6" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="AY335" s="6" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="AZ335" s="6" t="s">
         <v>941</v>
@@ -66768,13 +66690,13 @@
         <v>941</v>
       </c>
       <c r="BC335" s="6">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="BD335" s="6">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="BE335" s="6" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="BF335" s="6"/>
     </row>
@@ -66784,19 +66706,19 @@
         <v>41513</v>
       </c>
       <c r="C336" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D336" s="81" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E336" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H336" s="9" t="s">
         <v>2390</v>
@@ -66808,10 +66730,10 @@
         <v>75</v>
       </c>
       <c r="K336" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L336" s="8" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="M336" s="8">
         <v>0</v>
@@ -66919,10 +66841,10 @@
         <v>888</v>
       </c>
       <c r="AX336" s="6" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="AY336" s="6" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="AZ336" s="6" t="s">
         <v>941</v>
@@ -66934,13 +66856,13 @@
         <v>941</v>
       </c>
       <c r="BC336" s="6">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="BD336" s="6">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="BE336" s="6" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="BF336" s="6"/>
     </row>
@@ -66950,19 +66872,19 @@
         <v>41513</v>
       </c>
       <c r="C337" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D337" s="81" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E337" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H337" s="9" t="s">
         <v>2390</v>
@@ -67085,10 +67007,10 @@
         <v>888</v>
       </c>
       <c r="AX337" s="6" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="AY337" s="6" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="AZ337" s="6" t="s">
         <v>941</v>
@@ -67100,13 +67022,13 @@
         <v>941</v>
       </c>
       <c r="BC337" s="6">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="BD337" s="6">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="BE337" s="6" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="BF337" s="6"/>
     </row>
@@ -67116,19 +67038,19 @@
         <v>41513</v>
       </c>
       <c r="C338" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D338" s="81" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E338" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F338" s="6" t="s">
-        <v>1428</v>
+        <v>853</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H338" s="9" t="s">
         <v>2390</v>
@@ -67140,10 +67062,10 @@
         <v>75</v>
       </c>
       <c r="K338" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L338" s="8" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="M338" s="8">
         <v>0</v>
@@ -67251,10 +67173,10 @@
         <v>888</v>
       </c>
       <c r="AX338" s="6" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="AY338" s="6" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="AZ338" s="6" t="s">
         <v>941</v>
@@ -67266,13 +67188,13 @@
         <v>941</v>
       </c>
       <c r="BC338" s="6">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="BD338" s="6">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="BE338" s="6" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="BF338" s="6"/>
     </row>
@@ -67282,19 +67204,19 @@
         <v>41513</v>
       </c>
       <c r="C339" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D339" s="81" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F339" s="6" t="s">
-        <v>858</v>
+        <v>1428</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H339" s="9" t="s">
         <v>2390</v>
@@ -67417,10 +67339,10 @@
         <v>888</v>
       </c>
       <c r="AX339" s="6" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="AY339" s="6" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="AZ339" s="6" t="s">
         <v>941</v>
@@ -67432,13 +67354,13 @@
         <v>941</v>
       </c>
       <c r="BC339" s="6">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="BD339" s="6">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="BE339" s="6" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="BF339" s="6"/>
     </row>
@@ -67448,19 +67370,19 @@
         <v>41513</v>
       </c>
       <c r="C340" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D340" s="81" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E340" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H340" s="9" t="s">
         <v>2390</v>
@@ -67472,10 +67394,10 @@
         <v>75</v>
       </c>
       <c r="K340" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L340" s="8" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="M340" s="8">
         <v>0</v>
@@ -67583,10 +67505,10 @@
         <v>888</v>
       </c>
       <c r="AX340" s="6" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AY340" s="6" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="AZ340" s="6" t="s">
         <v>941</v>
@@ -67598,13 +67520,13 @@
         <v>941</v>
       </c>
       <c r="BC340" s="6">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="BD340" s="6">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="BE340" s="6" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="BF340" s="6"/>
     </row>
@@ -67614,19 +67536,19 @@
         <v>41513</v>
       </c>
       <c r="C341" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D341" s="81" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E341" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="H341" s="9" t="s">
         <v>2390</v>
@@ -67749,10 +67671,10 @@
         <v>888</v>
       </c>
       <c r="AX341" s="6" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="AY341" s="6" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="AZ341" s="6" t="s">
         <v>941</v>
@@ -67764,13 +67686,13 @@
         <v>941</v>
       </c>
       <c r="BC341" s="6">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="BD341" s="6">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="BE341" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="BF341" s="6"/>
     </row>
@@ -67780,19 +67702,19 @@
         <v>41513</v>
       </c>
       <c r="C342" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D342" s="81" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E342" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H342" s="9" t="s">
         <v>2390</v>
@@ -67804,10 +67726,10 @@
         <v>75</v>
       </c>
       <c r="K342" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L342" s="8" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="M342" s="8">
         <v>0</v>
@@ -67915,10 +67837,10 @@
         <v>888</v>
       </c>
       <c r="AX342" s="6" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="AY342" s="6" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="AZ342" s="6" t="s">
         <v>941</v>
@@ -67930,13 +67852,13 @@
         <v>941</v>
       </c>
       <c r="BC342" s="6">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="BD342" s="6">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="BE342" s="6" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="BF342" s="6"/>
     </row>
@@ -67946,19 +67868,19 @@
         <v>41513</v>
       </c>
       <c r="C343" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D343" s="81" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E343" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H343" s="9" t="s">
         <v>2390</v>
@@ -68081,10 +68003,10 @@
         <v>888</v>
       </c>
       <c r="AX343" s="6" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="AY343" s="6" t="s">
-        <v>2494</v>
+        <v>2864</v>
       </c>
       <c r="AZ343" s="6" t="s">
         <v>941</v>
@@ -68096,237 +68018,301 @@
         <v>941</v>
       </c>
       <c r="BC343" s="6">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="BD343" s="6">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="BE343" s="6" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="BF343" s="6"/>
     </row>
-    <row r="344" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="6" t="s">
-        <v>2369</v>
-      </c>
-      <c r="B344" s="7"/>
-      <c r="C344" s="8"/>
-      <c r="D344" s="81"/>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
-      <c r="H344" s="9"/>
-      <c r="I344" s="6"/>
-      <c r="J344" s="6"/>
-      <c r="K344" s="8"/>
-      <c r="L344" s="8"/>
-      <c r="M344" s="8"/>
-      <c r="N344" s="8"/>
+    <row r="344" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="6"/>
+      <c r="B344" s="7">
+        <v>41513</v>
+      </c>
+      <c r="C344" s="8">
+        <v>14</v>
+      </c>
+      <c r="D344" s="81" t="s">
+        <v>869</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="H344" s="9" t="s">
+        <v>2390</v>
+      </c>
+      <c r="I344" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J344" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K344" s="8">
+        <v>40</v>
+      </c>
+      <c r="L344" s="8" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M344" s="8">
+        <v>0</v>
+      </c>
+      <c r="N344" s="8">
+        <v>0</v>
+      </c>
       <c r="O344" s="8"/>
       <c r="P344" s="8"/>
       <c r="Q344" s="8"/>
-      <c r="R344" s="8"/>
-      <c r="S344" s="8"/>
-      <c r="T344" s="8"/>
-      <c r="U344" s="6"/>
-      <c r="V344" s="6"/>
-      <c r="W344" s="6"/>
-      <c r="X344" s="6"/>
-      <c r="Y344" s="6"/>
-      <c r="Z344" s="6"/>
-      <c r="AA344" s="6"/>
-      <c r="AB344" s="6"/>
-      <c r="AC344" s="6"/>
-      <c r="AD344" s="6"/>
-      <c r="AE344" s="6"/>
-      <c r="AF344" s="6"/>
-      <c r="AG344" s="6"/>
-      <c r="AH344" s="6"/>
-      <c r="AI344" s="6"/>
-      <c r="AJ344" s="6"/>
-      <c r="AK344" s="6"/>
-      <c r="AL344" s="6"/>
-      <c r="AM344" s="6"/>
-      <c r="AN344" s="6"/>
-      <c r="AO344" s="6"/>
-      <c r="AP344" s="6"/>
-      <c r="AQ344" s="6"/>
-      <c r="AR344" s="6"/>
-      <c r="AS344" s="6"/>
-      <c r="AT344" s="6"/>
-      <c r="AU344" s="6"/>
-      <c r="AV344" s="6"/>
-      <c r="AW344" s="6"/>
-      <c r="AX344" s="6"/>
-      <c r="AY344" s="6"/>
-      <c r="AZ344" s="6"/>
-      <c r="BA344" s="6"/>
-      <c r="BB344" s="6"/>
-      <c r="BC344" s="6"/>
-      <c r="BD344" s="6"/>
-      <c r="BE344" s="6"/>
+      <c r="R344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AC344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AD344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AE344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AF344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK344" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AL344" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="AM344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP344" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AQ344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU344" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW344" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX344" s="6" t="s">
+        <v>2308</v>
+      </c>
+      <c r="AY344" s="6" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AZ344" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA344" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB344" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC344" s="6">
+        <v>10014</v>
+      </c>
+      <c r="BD344" s="6">
+        <v>10014</v>
+      </c>
+      <c r="BE344" s="6" t="s">
+        <v>3130</v>
+      </c>
       <c r="BF344" s="6"/>
     </row>
-    <row r="345" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="14"/>
-      <c r="B345" s="15">
+    <row r="345" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="6" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B345" s="7"/>
+      <c r="C345" s="8"/>
+      <c r="D345" s="81"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="9"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="6"/>
+      <c r="K345" s="8"/>
+      <c r="L345" s="8"/>
+      <c r="M345" s="8"/>
+      <c r="N345" s="8"/>
+      <c r="O345" s="8"/>
+      <c r="P345" s="8"/>
+      <c r="Q345" s="8"/>
+      <c r="R345" s="8"/>
+      <c r="S345" s="8"/>
+      <c r="T345" s="8"/>
+      <c r="U345" s="6"/>
+      <c r="V345" s="6"/>
+      <c r="W345" s="6"/>
+      <c r="X345" s="6"/>
+      <c r="Y345" s="6"/>
+      <c r="Z345" s="6"/>
+      <c r="AA345" s="6"/>
+      <c r="AB345" s="6"/>
+      <c r="AC345" s="6"/>
+      <c r="AD345" s="6"/>
+      <c r="AE345" s="6"/>
+      <c r="AF345" s="6"/>
+      <c r="AG345" s="6"/>
+      <c r="AH345" s="6"/>
+      <c r="AI345" s="6"/>
+      <c r="AJ345" s="6"/>
+      <c r="AK345" s="6"/>
+      <c r="AL345" s="6"/>
+      <c r="AM345" s="6"/>
+      <c r="AN345" s="6"/>
+      <c r="AO345" s="6"/>
+      <c r="AP345" s="6"/>
+      <c r="AQ345" s="6"/>
+      <c r="AR345" s="6"/>
+      <c r="AS345" s="6"/>
+      <c r="AT345" s="6"/>
+      <c r="AU345" s="6"/>
+      <c r="AV345" s="6"/>
+      <c r="AW345" s="6"/>
+      <c r="AX345" s="6"/>
+      <c r="AY345" s="6"/>
+      <c r="AZ345" s="6"/>
+      <c r="BA345" s="6"/>
+      <c r="BB345" s="6"/>
+      <c r="BC345" s="6"/>
+      <c r="BD345" s="6"/>
+      <c r="BE345" s="6"/>
+      <c r="BF345" s="6"/>
+    </row>
+    <row r="346" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="14"/>
+      <c r="B346" s="15">
         <v>42528</v>
       </c>
-      <c r="C345" s="14">
+      <c r="C346" s="14">
         <v>0</v>
       </c>
-      <c r="D345" s="43" t="s">
+      <c r="D346" s="43" t="s">
         <v>1384</v>
       </c>
-      <c r="E345" s="14" t="s">
+      <c r="E346" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F345" s="14" t="s">
+      <c r="F346" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="G345" s="14"/>
-      <c r="H345" s="53" t="s">
+      <c r="G346" s="14"/>
+      <c r="H346" s="53" t="s">
         <v>2406</v>
       </c>
-      <c r="I345" s="14" t="s">
+      <c r="I346" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J345" s="14" t="s">
+      <c r="J346" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K345" s="14">
+      <c r="K346" s="14">
         <v>1</v>
       </c>
-      <c r="L345" s="14" t="s">
+      <c r="L346" s="14" t="s">
         <v>2318</v>
       </c>
-      <c r="M345" s="14">
+      <c r="M346" s="14">
         <v>0</v>
       </c>
-      <c r="N345" s="14">
+      <c r="N346" s="14">
         <v>180</v>
       </c>
-      <c r="O345" s="14" t="s">
+      <c r="O346" s="14" t="s">
         <v>2370</v>
       </c>
-      <c r="P345" s="14" t="s">
+      <c r="P346" s="14" t="s">
         <v>2372</v>
       </c>
-      <c r="Q345" s="14" t="s">
+      <c r="Q346" s="14" t="s">
         <v>2371</v>
       </c>
-      <c r="R345" s="14" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S345" s="14" t="s">
-        <v>3179</v>
-      </c>
-      <c r="T345" s="14" t="s">
-        <v>3179</v>
-      </c>
-      <c r="U345" s="14"/>
-      <c r="V345" s="14"/>
-      <c r="W345" s="14"/>
-      <c r="X345" s="14"/>
-      <c r="Y345" s="14"/>
-      <c r="Z345" s="14"/>
-      <c r="AA345" s="14"/>
-      <c r="AB345" s="14"/>
-      <c r="AC345" s="14"/>
-      <c r="AD345" s="14"/>
-      <c r="AE345" s="14"/>
-      <c r="AF345" s="14"/>
-      <c r="AG345" s="14"/>
-      <c r="AH345" s="14"/>
-      <c r="AI345" s="14"/>
-      <c r="AJ345" s="14"/>
-      <c r="AK345" s="14"/>
-      <c r="AL345" s="14" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AM345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW345" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX345" s="14" t="s">
-        <v>1387</v>
-      </c>
-      <c r="AY345" s="14" t="s">
-        <v>2867</v>
-      </c>
-      <c r="AZ345" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA345" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB345" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC345" s="14">
-        <v>55001</v>
-      </c>
-      <c r="BD345" s="14">
-        <v>55001</v>
-      </c>
-      <c r="BE345" s="14" t="s">
-        <v>3174</v>
-      </c>
-      <c r="BF345" s="14"/>
-    </row>
-    <row r="346" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="14" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B346" s="15"/>
-      <c r="C346" s="14"/>
-      <c r="D346" s="43"/>
-      <c r="E346" s="14"/>
-      <c r="F346" s="14"/>
-      <c r="G346" s="14"/>
-      <c r="H346" s="53"/>
-      <c r="I346" s="14"/>
-      <c r="J346" s="14"/>
-      <c r="K346" s="14"/>
-      <c r="L346" s="14"/>
-      <c r="M346" s="14"/>
-      <c r="N346" s="14"/>
-      <c r="O346" s="14"/>
-      <c r="P346" s="14"/>
-      <c r="Q346" s="14"/>
-      <c r="R346" s="14"/>
-      <c r="S346" s="14"/>
-      <c r="T346" s="14"/>
+      <c r="R346" s="14" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S346" s="14" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T346" s="14" t="s">
+        <v>3179</v>
+      </c>
       <c r="U346" s="14"/>
       <c r="V346" s="14"/>
       <c r="W346" s="14"/>
@@ -68344,187 +68330,153 @@
       <c r="AI346" s="14"/>
       <c r="AJ346" s="14"/>
       <c r="AK346" s="14"/>
-      <c r="AL346" s="14"/>
-      <c r="AM346" s="14"/>
-      <c r="AN346" s="14"/>
-      <c r="AO346" s="14"/>
-      <c r="AP346" s="14"/>
-      <c r="AQ346" s="14"/>
-      <c r="AR346" s="14"/>
-      <c r="AS346" s="14"/>
-      <c r="AT346" s="14"/>
-      <c r="AU346" s="14"/>
-      <c r="AV346" s="14"/>
-      <c r="AW346" s="14"/>
-      <c r="AX346" s="14"/>
-      <c r="AY346" s="14"/>
-      <c r="AZ346" s="14"/>
-      <c r="BA346" s="14"/>
-      <c r="BB346" s="14"/>
-      <c r="BC346" s="14"/>
-      <c r="BD346" s="14"/>
-      <c r="BE346" s="14"/>
+      <c r="AL346" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AM346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW346" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX346" s="14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AY346" s="14" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AZ346" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA346" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB346" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC346" s="14">
+        <v>55001</v>
+      </c>
+      <c r="BD346" s="14">
+        <v>55001</v>
+      </c>
+      <c r="BE346" s="14" t="s">
+        <v>3174</v>
+      </c>
       <c r="BF346" s="14"/>
     </row>
-    <row r="347" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="20"/>
-      <c r="B347" s="21">
-        <v>42934</v>
-      </c>
-      <c r="C347" s="20">
-        <v>0</v>
-      </c>
-      <c r="D347" s="48" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E347" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F347" s="20" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G347" s="20"/>
-      <c r="H347" s="54" t="s">
-        <v>2449</v>
-      </c>
-      <c r="I347" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J347" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K347" s="20">
-        <v>1</v>
-      </c>
-      <c r="L347" s="20" t="s">
-        <v>2319</v>
-      </c>
-      <c r="M347" s="20">
-        <v>0</v>
-      </c>
-      <c r="N347" s="20">
-        <v>370</v>
-      </c>
-      <c r="O347" s="20" t="s">
-        <v>2370</v>
-      </c>
-      <c r="P347" s="20" t="s">
-        <v>2372</v>
-      </c>
-      <c r="Q347" s="20" t="s">
-        <v>2371</v>
-      </c>
-      <c r="R347" s="20" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S347" s="20" t="s">
-        <v>3179</v>
-      </c>
-      <c r="T347" s="20" t="s">
-        <v>3179</v>
-      </c>
-      <c r="U347" s="20"/>
-      <c r="V347" s="20"/>
-      <c r="W347" s="20"/>
-      <c r="X347" s="20"/>
-      <c r="Y347" s="20"/>
-      <c r="Z347" s="20"/>
-      <c r="AA347" s="20"/>
-      <c r="AB347" s="20"/>
-      <c r="AC347" s="20"/>
-      <c r="AD347" s="20"/>
-      <c r="AE347" s="20"/>
-      <c r="AF347" s="20"/>
-      <c r="AG347" s="20"/>
-      <c r="AH347" s="20"/>
-      <c r="AI347" s="20"/>
-      <c r="AJ347" s="20"/>
-      <c r="AK347" s="20"/>
-      <c r="AL347" s="20" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AM347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW347" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX347" s="20" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AY347" s="20" t="s">
-        <v>2868</v>
-      </c>
-      <c r="AZ347" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA347" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB347" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC347" s="20">
-        <v>55002</v>
-      </c>
-      <c r="BD347" s="20">
-        <v>55002</v>
-      </c>
-      <c r="BE347" s="20" t="s">
-        <v>3175</v>
-      </c>
-      <c r="BF347" s="20"/>
+    <row r="347" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="14" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B347" s="15"/>
+      <c r="C347" s="14"/>
+      <c r="D347" s="43"/>
+      <c r="E347" s="14"/>
+      <c r="F347" s="14"/>
+      <c r="G347" s="14"/>
+      <c r="H347" s="53"/>
+      <c r="I347" s="14"/>
+      <c r="J347" s="14"/>
+      <c r="K347" s="14"/>
+      <c r="L347" s="14"/>
+      <c r="M347" s="14"/>
+      <c r="N347" s="14"/>
+      <c r="O347" s="14"/>
+      <c r="P347" s="14"/>
+      <c r="Q347" s="14"/>
+      <c r="R347" s="14"/>
+      <c r="S347" s="14"/>
+      <c r="T347" s="14"/>
+      <c r="U347" s="14"/>
+      <c r="V347" s="14"/>
+      <c r="W347" s="14"/>
+      <c r="X347" s="14"/>
+      <c r="Y347" s="14"/>
+      <c r="Z347" s="14"/>
+      <c r="AA347" s="14"/>
+      <c r="AB347" s="14"/>
+      <c r="AC347" s="14"/>
+      <c r="AD347" s="14"/>
+      <c r="AE347" s="14"/>
+      <c r="AF347" s="14"/>
+      <c r="AG347" s="14"/>
+      <c r="AH347" s="14"/>
+      <c r="AI347" s="14"/>
+      <c r="AJ347" s="14"/>
+      <c r="AK347" s="14"/>
+      <c r="AL347" s="14"/>
+      <c r="AM347" s="14"/>
+      <c r="AN347" s="14"/>
+      <c r="AO347" s="14"/>
+      <c r="AP347" s="14"/>
+      <c r="AQ347" s="14"/>
+      <c r="AR347" s="14"/>
+      <c r="AS347" s="14"/>
+      <c r="AT347" s="14"/>
+      <c r="AU347" s="14"/>
+      <c r="AV347" s="14"/>
+      <c r="AW347" s="14"/>
+      <c r="AX347" s="14"/>
+      <c r="AY347" s="14"/>
+      <c r="AZ347" s="14"/>
+      <c r="BA347" s="14"/>
+      <c r="BB347" s="14"/>
+      <c r="BC347" s="14"/>
+      <c r="BD347" s="14"/>
+      <c r="BE347" s="14"/>
+      <c r="BF347" s="14"/>
     </row>
     <row r="348" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A348" s="20"/>
       <c r="B348" s="21">
-        <v>43018</v>
+        <v>42934</v>
       </c>
       <c r="C348" s="20">
         <v>0</v>
       </c>
       <c r="D348" s="48" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E348" s="20" t="s">
         <v>74</v>
       </c>
       <c r="F348" s="20" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G348" s="20"/>
       <c r="H348" s="54" t="s">
-        <v>2383</v>
+        <v>2449</v>
       </c>
       <c r="I348" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J348" s="20" t="s">
         <v>75</v>
@@ -68613,10 +68565,10 @@
         <v>888</v>
       </c>
       <c r="AX348" s="20" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="AY348" s="20" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="AZ348" s="20" t="s">
         <v>941</v>
@@ -68628,39 +68580,39 @@
         <v>941</v>
       </c>
       <c r="BC348" s="20">
-        <v>55003</v>
+        <v>55002</v>
       </c>
       <c r="BD348" s="20">
-        <v>55003</v>
+        <v>55002</v>
       </c>
       <c r="BE348" s="20" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="BF348" s="20"/>
     </row>
     <row r="349" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A349" s="20"/>
       <c r="B349" s="21">
-        <v>43361</v>
+        <v>43018</v>
       </c>
       <c r="C349" s="20">
         <v>0</v>
       </c>
       <c r="D349" s="48" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E349" s="20" t="s">
         <v>74</v>
       </c>
       <c r="F349" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="G349" s="20"/>
       <c r="H349" s="54" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="I349" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J349" s="20" t="s">
         <v>75</v>
@@ -68749,10 +68701,10 @@
         <v>888</v>
       </c>
       <c r="AX349" s="20" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AY349" s="20" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="AZ349" s="20" t="s">
         <v>941</v>
@@ -68764,39 +68716,73 @@
         <v>941</v>
       </c>
       <c r="BC349" s="20">
-        <v>55004</v>
+        <v>55003</v>
       </c>
       <c r="BD349" s="20">
-        <v>55004</v>
+        <v>55003</v>
       </c>
       <c r="BE349" s="20" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="BF349" s="20"/>
     </row>
-    <row r="350" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="20" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B350" s="21"/>
-      <c r="C350" s="20"/>
-      <c r="D350" s="48"/>
-      <c r="E350" s="20"/>
-      <c r="F350" s="20"/>
+    <row r="350" spans="1:58" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="20"/>
+      <c r="B350" s="21">
+        <v>43361</v>
+      </c>
+      <c r="C350" s="20">
+        <v>0</v>
+      </c>
+      <c r="D350" s="48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E350" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F350" s="20" t="s">
+        <v>1395</v>
+      </c>
       <c r="G350" s="20"/>
-      <c r="H350" s="54"/>
-      <c r="I350" s="20"/>
-      <c r="J350" s="20"/>
-      <c r="K350" s="20"/>
-      <c r="L350" s="20"/>
-      <c r="M350" s="20"/>
-      <c r="N350" s="20"/>
-      <c r="O350" s="20"/>
-      <c r="P350" s="20"/>
-      <c r="Q350" s="20"/>
-      <c r="R350" s="20"/>
-      <c r="S350" s="20"/>
-      <c r="T350" s="20"/>
+      <c r="H350" s="54" t="s">
+        <v>2386</v>
+      </c>
+      <c r="I350" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J350" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K350" s="20">
+        <v>1</v>
+      </c>
+      <c r="L350" s="20" t="s">
+        <v>2319</v>
+      </c>
+      <c r="M350" s="20">
+        <v>0</v>
+      </c>
+      <c r="N350" s="20">
+        <v>370</v>
+      </c>
+      <c r="O350" s="20" t="s">
+        <v>2370</v>
+      </c>
+      <c r="P350" s="20" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q350" s="20" t="s">
+        <v>2371</v>
+      </c>
+      <c r="R350" s="20" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S350" s="20" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T350" s="20" t="s">
+        <v>3179</v>
+      </c>
       <c r="U350" s="20"/>
       <c r="V350" s="20"/>
       <c r="W350" s="20"/>
@@ -68814,196 +68800,162 @@
       <c r="AI350" s="20"/>
       <c r="AJ350" s="20"/>
       <c r="AK350" s="20"/>
-      <c r="AL350" s="20"/>
-      <c r="AM350" s="20"/>
-      <c r="AN350" s="20"/>
-      <c r="AO350" s="20"/>
-      <c r="AP350" s="20"/>
-      <c r="AQ350" s="20"/>
-      <c r="AR350" s="20"/>
-      <c r="AS350" s="20"/>
-      <c r="AT350" s="20"/>
-      <c r="AU350" s="20"/>
-      <c r="AV350" s="20"/>
-      <c r="AW350" s="20"/>
-      <c r="AX350" s="20"/>
-      <c r="AY350" s="20"/>
-      <c r="AZ350" s="20"/>
-      <c r="BA350" s="20"/>
-      <c r="BB350" s="20"/>
-      <c r="BC350" s="20"/>
-      <c r="BD350" s="20"/>
-      <c r="BE350" s="20"/>
+      <c r="AL350" s="20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AM350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW350" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX350" s="20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AY350" s="20" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AZ350" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA350" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB350" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC350" s="20">
+        <v>55004</v>
+      </c>
+      <c r="BD350" s="20">
+        <v>55004</v>
+      </c>
+      <c r="BE350" s="20" t="s">
+        <v>3177</v>
+      </c>
       <c r="BF350" s="20"/>
     </row>
-    <row r="351" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="28"/>
-      <c r="B351" s="35">
-        <v>43676</v>
-      </c>
-      <c r="C351" s="28">
-        <v>0</v>
-      </c>
-      <c r="D351" s="83" t="s">
-        <v>2755</v>
-      </c>
-      <c r="E351" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="F351" s="28" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G351" s="28"/>
-      <c r="H351" s="59" t="s">
-        <v>2454</v>
-      </c>
-      <c r="I351" s="28" t="s">
-        <v>820</v>
-      </c>
-      <c r="J351" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K351" s="28">
-        <v>1</v>
-      </c>
-      <c r="L351" s="28" t="s">
-        <v>1876</v>
-      </c>
-      <c r="M351" s="28">
-        <v>0</v>
-      </c>
-      <c r="N351" s="28">
-        <v>505</v>
-      </c>
-      <c r="O351" s="28" t="s">
-        <v>2370</v>
-      </c>
-      <c r="P351" s="28" t="s">
-        <v>2372</v>
-      </c>
-      <c r="Q351" s="28" t="s">
-        <v>2371</v>
-      </c>
-      <c r="R351" s="28" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S351" s="28" t="s">
-        <v>3179</v>
-      </c>
-      <c r="T351" s="28" t="s">
-        <v>3179</v>
-      </c>
-      <c r="U351" s="28"/>
-      <c r="V351" s="28"/>
-      <c r="W351" s="28"/>
-      <c r="X351" s="28"/>
-      <c r="Y351" s="28"/>
-      <c r="Z351" s="28"/>
-      <c r="AA351" s="28"/>
-      <c r="AB351" s="28"/>
-      <c r="AC351" s="28"/>
-      <c r="AD351" s="28"/>
-      <c r="AE351" s="28"/>
-      <c r="AF351" s="28"/>
-      <c r="AG351" s="28"/>
-      <c r="AH351" s="28"/>
-      <c r="AI351" s="28"/>
-      <c r="AJ351" s="28"/>
-      <c r="AK351" s="28"/>
-      <c r="AL351" s="28" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AM351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW351" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX351" s="28" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AY351" s="28" t="s">
-        <v>2871</v>
-      </c>
-      <c r="AZ351" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA351" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB351" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC351" s="28">
-        <v>55006</v>
-      </c>
-      <c r="BD351" s="28">
-        <v>55006</v>
-      </c>
-      <c r="BE351" s="28" t="s">
-        <v>3164</v>
-      </c>
-      <c r="BF351" s="28"/>
+    <row r="351" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="20" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B351" s="21"/>
+      <c r="C351" s="20"/>
+      <c r="D351" s="48"/>
+      <c r="E351" s="20"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="20"/>
+      <c r="H351" s="54"/>
+      <c r="I351" s="20"/>
+      <c r="J351" s="20"/>
+      <c r="K351" s="20"/>
+      <c r="L351" s="20"/>
+      <c r="M351" s="20"/>
+      <c r="N351" s="20"/>
+      <c r="O351" s="20"/>
+      <c r="P351" s="20"/>
+      <c r="Q351" s="20"/>
+      <c r="R351" s="20"/>
+      <c r="S351" s="20"/>
+      <c r="T351" s="20"/>
+      <c r="U351" s="20"/>
+      <c r="V351" s="20"/>
+      <c r="W351" s="20"/>
+      <c r="X351" s="20"/>
+      <c r="Y351" s="20"/>
+      <c r="Z351" s="20"/>
+      <c r="AA351" s="20"/>
+      <c r="AB351" s="20"/>
+      <c r="AC351" s="20"/>
+      <c r="AD351" s="20"/>
+      <c r="AE351" s="20"/>
+      <c r="AF351" s="20"/>
+      <c r="AG351" s="20"/>
+      <c r="AH351" s="20"/>
+      <c r="AI351" s="20"/>
+      <c r="AJ351" s="20"/>
+      <c r="AK351" s="20"/>
+      <c r="AL351" s="20"/>
+      <c r="AM351" s="20"/>
+      <c r="AN351" s="20"/>
+      <c r="AO351" s="20"/>
+      <c r="AP351" s="20"/>
+      <c r="AQ351" s="20"/>
+      <c r="AR351" s="20"/>
+      <c r="AS351" s="20"/>
+      <c r="AT351" s="20"/>
+      <c r="AU351" s="20"/>
+      <c r="AV351" s="20"/>
+      <c r="AW351" s="20"/>
+      <c r="AX351" s="20"/>
+      <c r="AY351" s="20"/>
+      <c r="AZ351" s="20"/>
+      <c r="BA351" s="20"/>
+      <c r="BB351" s="20"/>
+      <c r="BC351" s="20"/>
+      <c r="BD351" s="20"/>
+      <c r="BE351" s="20"/>
+      <c r="BF351" s="20"/>
     </row>
     <row r="352" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
-        <v>44173</v>
+        <v>43676</v>
       </c>
       <c r="C352" s="28">
         <v>0</v>
       </c>
       <c r="D352" s="83" t="s">
-        <v>3274</v>
+        <v>2755</v>
       </c>
       <c r="E352" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F352" s="28" t="s">
-        <v>3386</v>
+        <v>1397</v>
       </c>
       <c r="G352" s="28"/>
       <c r="H352" s="59" t="s">
-        <v>3355</v>
+        <v>2454</v>
       </c>
       <c r="I352" s="28" t="s">
-        <v>3354</v>
+        <v>820</v>
       </c>
       <c r="J352" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K352" s="28" t="s">
-        <v>3387</v>
-      </c>
-      <c r="L352" s="28">
-        <v>80</v>
+      <c r="K352" s="28">
+        <v>1</v>
+      </c>
+      <c r="L352" s="28" t="s">
+        <v>1876</v>
       </c>
       <c r="M352" s="28">
         <v>0</v>
@@ -69020,9 +68972,15 @@
       <c r="Q352" s="28" t="s">
         <v>2371</v>
       </c>
-      <c r="R352" s="28"/>
-      <c r="S352" s="28"/>
-      <c r="T352" s="28"/>
+      <c r="R352" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S352" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T352" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="U352" s="28"/>
       <c r="V352" s="28"/>
       <c r="W352" s="28"/>
@@ -69077,10 +69035,10 @@
         <v>888</v>
       </c>
       <c r="AX352" s="28" t="s">
-        <v>3388</v>
+        <v>1398</v>
       </c>
       <c r="AY352" s="28" t="s">
-        <v>941</v>
+        <v>2871</v>
       </c>
       <c r="AZ352" s="28" t="s">
         <v>941</v>
@@ -69092,39 +69050,67 @@
         <v>941</v>
       </c>
       <c r="BC352" s="28">
-        <v>55008</v>
+        <v>55006</v>
       </c>
       <c r="BD352" s="28">
-        <v>55008</v>
+        <v>55006</v>
       </c>
       <c r="BE352" s="28" t="s">
-        <v>941</v>
+        <v>3164</v>
       </c>
       <c r="BF352" s="28"/>
     </row>
-    <row r="353" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="28" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B353" s="35"/>
-      <c r="C353" s="32"/>
-      <c r="D353" s="82"/>
-      <c r="E353" s="28"/>
-      <c r="F353" s="28"/>
+    <row r="353" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="28"/>
+      <c r="B353" s="35">
+        <v>44173</v>
+      </c>
+      <c r="C353" s="28">
+        <v>0</v>
+      </c>
+      <c r="D353" s="83" t="s">
+        <v>3274</v>
+      </c>
+      <c r="E353" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="F353" s="28" t="s">
+        <v>3386</v>
+      </c>
       <c r="G353" s="28"/>
-      <c r="H353" s="31"/>
-      <c r="I353" s="28"/>
-      <c r="J353" s="28"/>
-      <c r="K353" s="32"/>
-      <c r="L353" s="32"/>
-      <c r="M353" s="32"/>
-      <c r="N353" s="32"/>
-      <c r="O353" s="32"/>
-      <c r="P353" s="32"/>
-      <c r="Q353" s="32"/>
-      <c r="R353" s="32"/>
-      <c r="S353" s="32"/>
-      <c r="T353" s="32"/>
+      <c r="H353" s="59" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I353" s="28" t="s">
+        <v>3354</v>
+      </c>
+      <c r="J353" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K353" s="28" t="s">
+        <v>3387</v>
+      </c>
+      <c r="L353" s="28">
+        <v>80</v>
+      </c>
+      <c r="M353" s="28">
+        <v>0</v>
+      </c>
+      <c r="N353" s="28">
+        <v>505</v>
+      </c>
+      <c r="O353" s="28" t="s">
+        <v>2370</v>
+      </c>
+      <c r="P353" s="28" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q353" s="28" t="s">
+        <v>2371</v>
+      </c>
+      <c r="R353" s="28"/>
+      <c r="S353" s="28"/>
+      <c r="T353" s="28"/>
       <c r="U353" s="28"/>
       <c r="V353" s="28"/>
       <c r="W353" s="28"/>
@@ -69133,8 +69119,8 @@
       <c r="Z353" s="28"/>
       <c r="AA353" s="28"/>
       <c r="AB353" s="28"/>
-      <c r="AC353" s="33"/>
-      <c r="AD353" s="33"/>
+      <c r="AC353" s="28"/>
+      <c r="AD353" s="28"/>
       <c r="AE353" s="28"/>
       <c r="AF353" s="28"/>
       <c r="AG353" s="28"/>
@@ -69142,199 +69128,129 @@
       <c r="AI353" s="28"/>
       <c r="AJ353" s="28"/>
       <c r="AK353" s="28"/>
-      <c r="AL353" s="28"/>
-      <c r="AM353" s="28"/>
-      <c r="AN353" s="28"/>
-      <c r="AO353" s="28"/>
-      <c r="AP353" s="28"/>
-      <c r="AQ353" s="28"/>
-      <c r="AR353" s="28"/>
-      <c r="AS353" s="28"/>
-      <c r="AT353" s="28"/>
-      <c r="AU353" s="28"/>
-      <c r="AV353" s="28"/>
-      <c r="AW353" s="28"/>
-      <c r="AX353" s="28"/>
-      <c r="AY353" s="28"/>
-      <c r="AZ353" s="28"/>
-      <c r="BA353" s="28"/>
-      <c r="BB353" s="28"/>
-      <c r="BC353" s="28"/>
-      <c r="BD353" s="28"/>
-      <c r="BE353" s="28"/>
+      <c r="AL353" s="28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AM353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW353" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX353" s="28" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AY353" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ353" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA353" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB353" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC353" s="28">
+        <v>55008</v>
+      </c>
+      <c r="BD353" s="28">
+        <v>55008</v>
+      </c>
+      <c r="BE353" s="28" t="s">
+        <v>941</v>
+      </c>
       <c r="BF353" s="28"/>
     </row>
-    <row r="354" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="70"/>
-      <c r="B354" s="71">
-        <v>43473</v>
-      </c>
-      <c r="C354" s="70">
-        <v>1</v>
-      </c>
-      <c r="D354" s="84" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E354" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="F354" s="70" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G354" s="70" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H354" s="75" t="s">
-        <v>2387</v>
-      </c>
-      <c r="I354" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="J354" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="K354" s="72">
-        <v>50</v>
-      </c>
-      <c r="L354" s="72" t="s">
-        <v>2393</v>
-      </c>
-      <c r="M354" s="72">
-        <v>0</v>
-      </c>
-      <c r="N354" s="72">
-        <v>0</v>
-      </c>
-      <c r="O354" s="76" t="s">
-        <v>1867</v>
-      </c>
-      <c r="P354" s="76" t="s">
-        <v>1868</v>
-      </c>
-      <c r="Q354" s="76" t="s">
-        <v>1869</v>
-      </c>
-      <c r="R354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="T354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="U354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="V354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="W354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="X354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="Y354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="Z354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AA354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AB354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AC354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AD354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AE354" s="70" t="s">
-        <v>2262</v>
-      </c>
-      <c r="AF354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AG354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AH354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AI354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AJ354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AK354" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AL354" s="70" t="s">
-        <v>1870</v>
-      </c>
-      <c r="AM354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW354" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX354" s="70" t="s">
-        <v>2317</v>
-      </c>
-      <c r="AY354" s="70" t="s">
-        <v>2828</v>
-      </c>
-      <c r="AZ354" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA354" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB354" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC354" s="70">
-        <v>35001</v>
-      </c>
-      <c r="BD354" s="70">
-        <v>35001</v>
-      </c>
-      <c r="BE354" s="70" t="s">
-        <v>3135</v>
-      </c>
-      <c r="BF354" s="70"/>
+    <row r="354" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="28" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B354" s="35"/>
+      <c r="C354" s="32"/>
+      <c r="D354" s="82"/>
+      <c r="E354" s="28"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
+      <c r="H354" s="31"/>
+      <c r="I354" s="28"/>
+      <c r="J354" s="28"/>
+      <c r="K354" s="32"/>
+      <c r="L354" s="32"/>
+      <c r="M354" s="32"/>
+      <c r="N354" s="32"/>
+      <c r="O354" s="32"/>
+      <c r="P354" s="32"/>
+      <c r="Q354" s="32"/>
+      <c r="R354" s="32"/>
+      <c r="S354" s="32"/>
+      <c r="T354" s="32"/>
+      <c r="U354" s="28"/>
+      <c r="V354" s="28"/>
+      <c r="W354" s="28"/>
+      <c r="X354" s="28"/>
+      <c r="Y354" s="28"/>
+      <c r="Z354" s="28"/>
+      <c r="AA354" s="28"/>
+      <c r="AB354" s="28"/>
+      <c r="AC354" s="33"/>
+      <c r="AD354" s="33"/>
+      <c r="AE354" s="28"/>
+      <c r="AF354" s="28"/>
+      <c r="AG354" s="28"/>
+      <c r="AH354" s="28"/>
+      <c r="AI354" s="28"/>
+      <c r="AJ354" s="28"/>
+      <c r="AK354" s="28"/>
+      <c r="AL354" s="28"/>
+      <c r="AM354" s="28"/>
+      <c r="AN354" s="28"/>
+      <c r="AO354" s="28"/>
+      <c r="AP354" s="28"/>
+      <c r="AQ354" s="28"/>
+      <c r="AR354" s="28"/>
+      <c r="AS354" s="28"/>
+      <c r="AT354" s="28"/>
+      <c r="AU354" s="28"/>
+      <c r="AV354" s="28"/>
+      <c r="AW354" s="28"/>
+      <c r="AX354" s="28"/>
+      <c r="AY354" s="28"/>
+      <c r="AZ354" s="28"/>
+      <c r="BA354" s="28"/>
+      <c r="BB354" s="28"/>
+      <c r="BC354" s="28"/>
+      <c r="BD354" s="28"/>
+      <c r="BE354" s="28"/>
+      <c r="BF354" s="28"/>
     </row>
     <row r="355" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A355" s="70"/>
@@ -69342,16 +69258,16 @@
         <v>43473</v>
       </c>
       <c r="C355" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D355" s="84" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E355" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F355" s="70" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G355" s="70" t="s">
         <v>1865</v>
@@ -69486,7 +69402,7 @@
         <v>2317</v>
       </c>
       <c r="AY355" s="70" t="s">
-        <v>941</v>
+        <v>2828</v>
       </c>
       <c r="AZ355" s="70" t="s">
         <v>941</v>
@@ -69498,13 +69414,13 @@
         <v>941</v>
       </c>
       <c r="BC355" s="70">
-        <v>35002</v>
+        <v>35001</v>
       </c>
       <c r="BD355" s="70">
-        <v>35002</v>
+        <v>35001</v>
       </c>
       <c r="BE355" s="70" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="BF355" s="70"/>
     </row>
@@ -69514,16 +69430,16 @@
         <v>43473</v>
       </c>
       <c r="C356" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D356" s="84" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E356" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F356" s="70" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G356" s="70" t="s">
         <v>1865</v>
@@ -69658,7 +69574,7 @@
         <v>2317</v>
       </c>
       <c r="AY356" s="70" t="s">
-        <v>2829</v>
+        <v>941</v>
       </c>
       <c r="AZ356" s="70" t="s">
         <v>941</v>
@@ -69670,13 +69586,13 @@
         <v>941</v>
       </c>
       <c r="BC356" s="70">
-        <v>35003</v>
+        <v>35002</v>
       </c>
       <c r="BD356" s="70">
-        <v>35003</v>
+        <v>35002</v>
       </c>
       <c r="BE356" s="70" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="BF356" s="70"/>
     </row>
@@ -69686,16 +69602,16 @@
         <v>43473</v>
       </c>
       <c r="C357" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" s="84" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E357" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F357" s="70" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G357" s="70" t="s">
         <v>1865</v>
@@ -69830,7 +69746,7 @@
         <v>2317</v>
       </c>
       <c r="AY357" s="70" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AZ357" s="70" t="s">
         <v>941</v>
@@ -69842,13 +69758,13 @@
         <v>941</v>
       </c>
       <c r="BC357" s="70">
-        <v>35004</v>
+        <v>35003</v>
       </c>
       <c r="BD357" s="70">
-        <v>35004</v>
+        <v>35003</v>
       </c>
       <c r="BE357" s="70" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="BF357" s="70"/>
     </row>
@@ -69858,16 +69774,16 @@
         <v>43473</v>
       </c>
       <c r="C358" s="70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D358" s="84" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E358" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F358" s="70" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G358" s="70" t="s">
         <v>1865</v>
@@ -70002,7 +69918,7 @@
         <v>2317</v>
       </c>
       <c r="AY358" s="70" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="AZ358" s="70" t="s">
         <v>941</v>
@@ -70014,13 +69930,13 @@
         <v>941</v>
       </c>
       <c r="BC358" s="70">
-        <v>35005</v>
+        <v>35004</v>
       </c>
       <c r="BD358" s="70">
-        <v>35005</v>
+        <v>35004</v>
       </c>
       <c r="BE358" s="70" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="BF358" s="70"/>
     </row>
@@ -70030,16 +69946,16 @@
         <v>43473</v>
       </c>
       <c r="C359" s="70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D359" s="84" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E359" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F359" s="70" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G359" s="70" t="s">
         <v>1865</v>
@@ -70174,7 +70090,7 @@
         <v>2317</v>
       </c>
       <c r="AY359" s="70" t="s">
-        <v>941</v>
+        <v>2831</v>
       </c>
       <c r="AZ359" s="70" t="s">
         <v>941</v>
@@ -70186,13 +70102,13 @@
         <v>941</v>
       </c>
       <c r="BC359" s="70">
-        <v>35006</v>
+        <v>35005</v>
       </c>
       <c r="BD359" s="70">
-        <v>35006</v>
+        <v>35005</v>
       </c>
       <c r="BE359" s="70" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="BF359" s="70"/>
     </row>
@@ -70202,16 +70118,16 @@
         <v>43473</v>
       </c>
       <c r="C360" s="70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D360" s="84" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E360" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F360" s="70" t="s">
-        <v>2465</v>
+        <v>1846</v>
       </c>
       <c r="G360" s="70" t="s">
         <v>1865</v>
@@ -70358,13 +70274,13 @@
         <v>941</v>
       </c>
       <c r="BC360" s="70">
-        <v>35007</v>
+        <v>35006</v>
       </c>
       <c r="BD360" s="70">
-        <v>35007</v>
+        <v>35006</v>
       </c>
       <c r="BE360" s="70" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="BF360" s="70"/>
     </row>
@@ -70374,16 +70290,16 @@
         <v>43473</v>
       </c>
       <c r="C361" s="70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D361" s="84" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E361" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F361" s="70" t="s">
-        <v>1847</v>
+        <v>2465</v>
       </c>
       <c r="G361" s="70" t="s">
         <v>1865</v>
@@ -70518,7 +70434,7 @@
         <v>2317</v>
       </c>
       <c r="AY361" s="70" t="s">
-        <v>2832</v>
+        <v>941</v>
       </c>
       <c r="AZ361" s="70" t="s">
         <v>941</v>
@@ -70530,13 +70446,13 @@
         <v>941</v>
       </c>
       <c r="BC361" s="70">
-        <v>35008</v>
+        <v>35007</v>
       </c>
       <c r="BD361" s="70">
-        <v>35008</v>
+        <v>35007</v>
       </c>
       <c r="BE361" s="70" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="BF361" s="70"/>
     </row>
@@ -70546,16 +70462,16 @@
         <v>43473</v>
       </c>
       <c r="C362" s="70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D362" s="84" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E362" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F362" s="70" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G362" s="70" t="s">
         <v>1865</v>
@@ -70690,7 +70606,7 @@
         <v>2317</v>
       </c>
       <c r="AY362" s="70" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="AZ362" s="70" t="s">
         <v>941</v>
@@ -70702,13 +70618,13 @@
         <v>941</v>
       </c>
       <c r="BC362" s="70">
-        <v>35009</v>
+        <v>35008</v>
       </c>
       <c r="BD362" s="70">
-        <v>35009</v>
+        <v>35008</v>
       </c>
       <c r="BE362" s="70" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="BF362" s="70"/>
     </row>
@@ -70718,16 +70634,16 @@
         <v>43473</v>
       </c>
       <c r="C363" s="70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D363" s="84" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E363" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F363" s="70" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G363" s="70" t="s">
         <v>1865</v>
@@ -70862,7 +70778,7 @@
         <v>2317</v>
       </c>
       <c r="AY363" s="70" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="AZ363" s="70" t="s">
         <v>941</v>
@@ -70874,13 +70790,13 @@
         <v>941</v>
       </c>
       <c r="BC363" s="70">
-        <v>35010</v>
+        <v>35009</v>
       </c>
       <c r="BD363" s="70">
-        <v>35010</v>
+        <v>35009</v>
       </c>
       <c r="BE363" s="70" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="BF363" s="70"/>
     </row>
@@ -70890,16 +70806,16 @@
         <v>43473</v>
       </c>
       <c r="C364" s="70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D364" s="84" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E364" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F364" s="70" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G364" s="70" t="s">
         <v>1865</v>
@@ -71034,7 +70950,7 @@
         <v>2317</v>
       </c>
       <c r="AY364" s="70" t="s">
-        <v>941</v>
+        <v>2834</v>
       </c>
       <c r="AZ364" s="70" t="s">
         <v>941</v>
@@ -71046,13 +70962,13 @@
         <v>941</v>
       </c>
       <c r="BC364" s="70">
-        <v>35011</v>
+        <v>35010</v>
       </c>
       <c r="BD364" s="70">
-        <v>35011</v>
+        <v>35010</v>
       </c>
       <c r="BE364" s="70" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="BF364" s="70"/>
     </row>
@@ -71062,16 +70978,16 @@
         <v>43473</v>
       </c>
       <c r="C365" s="70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D365" s="84" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E365" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F365" s="70" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G365" s="70" t="s">
         <v>1865</v>
@@ -71206,7 +71122,7 @@
         <v>2317</v>
       </c>
       <c r="AY365" s="70" t="s">
-        <v>2835</v>
+        <v>941</v>
       </c>
       <c r="AZ365" s="70" t="s">
         <v>941</v>
@@ -71218,13 +71134,13 @@
         <v>941</v>
       </c>
       <c r="BC365" s="70">
-        <v>35012</v>
+        <v>35011</v>
       </c>
       <c r="BD365" s="70">
-        <v>35012</v>
+        <v>35011</v>
       </c>
       <c r="BE365" s="70" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="BF365" s="70"/>
     </row>
@@ -71234,16 +71150,16 @@
         <v>43473</v>
       </c>
       <c r="C366" s="70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D366" s="84" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E366" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F366" s="70" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G366" s="70" t="s">
         <v>1865</v>
@@ -71378,7 +71294,7 @@
         <v>2317</v>
       </c>
       <c r="AY366" s="70" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="AZ366" s="70" t="s">
         <v>941</v>
@@ -71390,13 +71306,13 @@
         <v>941</v>
       </c>
       <c r="BC366" s="70">
-        <v>35013</v>
+        <v>35012</v>
       </c>
       <c r="BD366" s="70">
-        <v>35013</v>
+        <v>35012</v>
       </c>
       <c r="BE366" s="70" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="BF366" s="70"/>
     </row>
@@ -71406,16 +71322,16 @@
         <v>43473</v>
       </c>
       <c r="C367" s="70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D367" s="84" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E367" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F367" s="70" t="s">
-        <v>2466</v>
+        <v>1852</v>
       </c>
       <c r="G367" s="70" t="s">
         <v>1865</v>
@@ -71550,7 +71466,7 @@
         <v>2317</v>
       </c>
       <c r="AY367" s="70" t="s">
-        <v>941</v>
+        <v>2836</v>
       </c>
       <c r="AZ367" s="70" t="s">
         <v>941</v>
@@ -71562,13 +71478,13 @@
         <v>941</v>
       </c>
       <c r="BC367" s="70">
-        <v>35014</v>
+        <v>35013</v>
       </c>
       <c r="BD367" s="70">
-        <v>35014</v>
+        <v>35013</v>
       </c>
       <c r="BE367" s="70" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="BF367" s="70"/>
     </row>
@@ -71578,16 +71494,16 @@
         <v>43473</v>
       </c>
       <c r="C368" s="70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D368" s="84" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E368" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F368" s="70" t="s">
-        <v>1853</v>
+        <v>2466</v>
       </c>
       <c r="G368" s="70" t="s">
         <v>1865</v>
@@ -71722,7 +71638,7 @@
         <v>2317</v>
       </c>
       <c r="AY368" s="70" t="s">
-        <v>2837</v>
+        <v>941</v>
       </c>
       <c r="AZ368" s="70" t="s">
         <v>941</v>
@@ -71734,13 +71650,13 @@
         <v>941</v>
       </c>
       <c r="BC368" s="70">
-        <v>35015</v>
+        <v>35014</v>
       </c>
       <c r="BD368" s="70">
-        <v>35015</v>
+        <v>35014</v>
       </c>
       <c r="BE368" s="70" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="BF368" s="70"/>
     </row>
@@ -71750,16 +71666,16 @@
         <v>43473</v>
       </c>
       <c r="C369" s="70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D369" s="84" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E369" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F369" s="70" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G369" s="70" t="s">
         <v>1865</v>
@@ -71894,7 +71810,7 @@
         <v>2317</v>
       </c>
       <c r="AY369" s="70" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="AZ369" s="70" t="s">
         <v>941</v>
@@ -71906,13 +71822,13 @@
         <v>941</v>
       </c>
       <c r="BC369" s="70">
-        <v>35016</v>
+        <v>35015</v>
       </c>
       <c r="BD369" s="70">
-        <v>35016</v>
+        <v>35015</v>
       </c>
       <c r="BE369" s="70" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="BF369" s="70"/>
     </row>
@@ -71922,16 +71838,16 @@
         <v>43473</v>
       </c>
       <c r="C370" s="70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D370" s="84" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E370" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F370" s="70" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G370" s="70" t="s">
         <v>1865</v>
@@ -72066,7 +71982,7 @@
         <v>2317</v>
       </c>
       <c r="AY370" s="70" t="s">
-        <v>2830</v>
+        <v>2838</v>
       </c>
       <c r="AZ370" s="70" t="s">
         <v>941</v>
@@ -72078,13 +71994,13 @@
         <v>941</v>
       </c>
       <c r="BC370" s="70">
-        <v>35017</v>
+        <v>35016</v>
       </c>
       <c r="BD370" s="70">
-        <v>35017</v>
+        <v>35016</v>
       </c>
       <c r="BE370" s="70" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="BF370" s="70"/>
     </row>
@@ -72094,16 +72010,16 @@
         <v>43473</v>
       </c>
       <c r="C371" s="70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D371" s="84" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E371" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F371" s="70" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G371" s="70" t="s">
         <v>1865</v>
@@ -72238,7 +72154,7 @@
         <v>2317</v>
       </c>
       <c r="AY371" s="70" t="s">
-        <v>2839</v>
+        <v>2830</v>
       </c>
       <c r="AZ371" s="70" t="s">
         <v>941</v>
@@ -72250,13 +72166,13 @@
         <v>941</v>
       </c>
       <c r="BC371" s="70">
-        <v>35018</v>
+        <v>35017</v>
       </c>
       <c r="BD371" s="70">
-        <v>35018</v>
+        <v>35017</v>
       </c>
       <c r="BE371" s="70" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="BF371" s="70"/>
     </row>
@@ -72266,16 +72182,16 @@
         <v>43473</v>
       </c>
       <c r="C372" s="70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D372" s="84" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E372" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F372" s="70" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G372" s="70" t="s">
         <v>1865</v>
@@ -72410,7 +72326,7 @@
         <v>2317</v>
       </c>
       <c r="AY372" s="70" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AZ372" s="70" t="s">
         <v>941</v>
@@ -72422,13 +72338,13 @@
         <v>941</v>
       </c>
       <c r="BC372" s="70">
-        <v>35019</v>
+        <v>35018</v>
       </c>
       <c r="BD372" s="70">
-        <v>35019</v>
+        <v>35018</v>
       </c>
       <c r="BE372" s="70" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="BF372" s="70"/>
     </row>
@@ -72438,16 +72354,16 @@
         <v>43473</v>
       </c>
       <c r="C373" s="70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D373" s="84" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E373" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F373" s="70" t="s">
-        <v>2467</v>
+        <v>1857</v>
       </c>
       <c r="G373" s="70" t="s">
         <v>1865</v>
@@ -72582,7 +72498,7 @@
         <v>2317</v>
       </c>
       <c r="AY373" s="70" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="AZ373" s="70" t="s">
         <v>941</v>
@@ -72594,13 +72510,13 @@
         <v>941</v>
       </c>
       <c r="BC373" s="70">
-        <v>35020</v>
+        <v>35019</v>
       </c>
       <c r="BD373" s="70">
-        <v>35020</v>
+        <v>35019</v>
       </c>
       <c r="BE373" s="70" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="BF373" s="70"/>
     </row>
@@ -72610,16 +72526,16 @@
         <v>43473</v>
       </c>
       <c r="C374" s="70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D374" s="84" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E374" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F374" s="70" t="s">
-        <v>1858</v>
+        <v>2467</v>
       </c>
       <c r="G374" s="70" t="s">
         <v>1865</v>
@@ -72754,7 +72670,7 @@
         <v>2317</v>
       </c>
       <c r="AY374" s="70" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="AZ374" s="70" t="s">
         <v>941</v>
@@ -72766,13 +72682,13 @@
         <v>941</v>
       </c>
       <c r="BC374" s="70">
-        <v>35021</v>
+        <v>35020</v>
       </c>
       <c r="BD374" s="70">
-        <v>35021</v>
+        <v>35020</v>
       </c>
       <c r="BE374" s="70" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="BF374" s="70"/>
     </row>
@@ -72782,16 +72698,16 @@
         <v>43473</v>
       </c>
       <c r="C375" s="70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D375" s="84" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E375" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F375" s="70" t="s">
-        <v>2468</v>
+        <v>1858</v>
       </c>
       <c r="G375" s="70" t="s">
         <v>1865</v>
@@ -72926,7 +72842,7 @@
         <v>2317</v>
       </c>
       <c r="AY375" s="70" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="AZ375" s="70" t="s">
         <v>941</v>
@@ -72938,13 +72854,13 @@
         <v>941</v>
       </c>
       <c r="BC375" s="70">
-        <v>35022</v>
+        <v>35021</v>
       </c>
       <c r="BD375" s="70">
-        <v>35022</v>
+        <v>35021</v>
       </c>
       <c r="BE375" s="70" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="BF375" s="70"/>
     </row>
@@ -72954,16 +72870,16 @@
         <v>43473</v>
       </c>
       <c r="C376" s="70">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D376" s="84" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E376" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F376" s="70" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="G376" s="70" t="s">
         <v>1865</v>
@@ -73098,7 +73014,7 @@
         <v>2317</v>
       </c>
       <c r="AY376" s="70" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="AZ376" s="70" t="s">
         <v>941</v>
@@ -73110,13 +73026,13 @@
         <v>941</v>
       </c>
       <c r="BC376" s="70">
-        <v>35023</v>
+        <v>35022</v>
       </c>
       <c r="BD376" s="70">
-        <v>35023</v>
+        <v>35022</v>
       </c>
       <c r="BE376" s="70" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="BF376" s="70"/>
     </row>
@@ -73126,16 +73042,16 @@
         <v>43473</v>
       </c>
       <c r="C377" s="70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D377" s="84" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E377" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F377" s="70" t="s">
-        <v>1859</v>
+        <v>2469</v>
       </c>
       <c r="G377" s="70" t="s">
         <v>1865</v>
@@ -73270,7 +73186,7 @@
         <v>2317</v>
       </c>
       <c r="AY377" s="70" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="AZ377" s="70" t="s">
         <v>941</v>
@@ -73282,13 +73198,13 @@
         <v>941</v>
       </c>
       <c r="BC377" s="70">
-        <v>35024</v>
+        <v>35023</v>
       </c>
       <c r="BD377" s="70">
-        <v>35024</v>
+        <v>35023</v>
       </c>
       <c r="BE377" s="70" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="BF377" s="70"/>
     </row>
@@ -73298,16 +73214,16 @@
         <v>43473</v>
       </c>
       <c r="C378" s="70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D378" s="84" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E378" s="70" t="s">
         <v>74</v>
       </c>
       <c r="F378" s="70" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G378" s="70" t="s">
         <v>1865</v>
@@ -73442,7 +73358,7 @@
         <v>2317</v>
       </c>
       <c r="AY378" s="70" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="AZ378" s="70" t="s">
         <v>941</v>
@@ -73454,266 +73370,266 @@
         <v>941</v>
       </c>
       <c r="BC378" s="70">
-        <v>35025</v>
+        <v>35024</v>
       </c>
       <c r="BD378" s="70">
-        <v>35025</v>
+        <v>35024</v>
       </c>
       <c r="BE378" s="70" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="BF378" s="70"/>
     </row>
-    <row r="379" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="70" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B379" s="71"/>
-      <c r="C379" s="70"/>
-      <c r="D379" s="84"/>
-      <c r="E379" s="70"/>
-      <c r="F379" s="70"/>
-      <c r="G379" s="70"/>
-      <c r="H379" s="75"/>
-      <c r="I379" s="70"/>
-      <c r="J379" s="70"/>
-      <c r="K379" s="72"/>
-      <c r="L379" s="72"/>
-      <c r="M379" s="72"/>
-      <c r="N379" s="72"/>
-      <c r="O379" s="72"/>
-      <c r="P379" s="72"/>
-      <c r="Q379" s="72"/>
-      <c r="R379" s="76"/>
-      <c r="S379" s="76"/>
-      <c r="T379" s="76"/>
-      <c r="U379" s="76"/>
-      <c r="V379" s="76"/>
-      <c r="W379" s="76"/>
-      <c r="X379" s="70"/>
-      <c r="Y379" s="70"/>
-      <c r="Z379" s="76"/>
-      <c r="AA379" s="76"/>
-      <c r="AB379" s="76"/>
-      <c r="AC379" s="74"/>
-      <c r="AD379" s="74"/>
-      <c r="AE379" s="70"/>
-      <c r="AF379" s="70"/>
-      <c r="AG379" s="76"/>
-      <c r="AH379" s="76"/>
-      <c r="AI379" s="76"/>
-      <c r="AJ379" s="76"/>
-      <c r="AK379" s="76"/>
-      <c r="AL379" s="70"/>
-      <c r="AM379" s="70"/>
-      <c r="AN379" s="70"/>
-      <c r="AO379" s="70"/>
-      <c r="AP379" s="70"/>
-      <c r="AQ379" s="70"/>
-      <c r="AR379" s="70"/>
-      <c r="AS379" s="70"/>
-      <c r="AT379" s="70"/>
-      <c r="AU379" s="70"/>
-      <c r="AV379" s="70"/>
-      <c r="AW379" s="70"/>
-      <c r="AX379" s="70"/>
-      <c r="AY379" s="70"/>
-      <c r="AZ379" s="70"/>
-      <c r="BA379" s="70"/>
-      <c r="BB379" s="70"/>
-      <c r="BC379" s="70"/>
-      <c r="BD379" s="70"/>
-      <c r="BE379" s="70"/>
+    <row r="379" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="70"/>
+      <c r="B379" s="71">
+        <v>43473</v>
+      </c>
+      <c r="C379" s="70">
+        <v>25</v>
+      </c>
+      <c r="D379" s="84" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E379" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F379" s="70" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G379" s="70" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H379" s="75" t="s">
+        <v>2387</v>
+      </c>
+      <c r="I379" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="J379" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K379" s="72">
+        <v>50</v>
+      </c>
+      <c r="L379" s="72" t="s">
+        <v>2393</v>
+      </c>
+      <c r="M379" s="72">
+        <v>0</v>
+      </c>
+      <c r="N379" s="72">
+        <v>0</v>
+      </c>
+      <c r="O379" s="76" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P379" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="Q379" s="76" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AC379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AD379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AE379" s="70" t="s">
+        <v>2262</v>
+      </c>
+      <c r="AF379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK379" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AL379" s="70" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AM379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW379" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX379" s="70" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AY379" s="70" t="s">
+        <v>2846</v>
+      </c>
+      <c r="AZ379" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA379" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB379" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC379" s="70">
+        <v>35025</v>
+      </c>
+      <c r="BD379" s="70">
+        <v>35025</v>
+      </c>
+      <c r="BE379" s="70" t="s">
+        <v>3159</v>
+      </c>
       <c r="BF379" s="70"/>
     </row>
-    <row r="380" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="70"/>
-      <c r="B380" s="71">
-        <v>43809</v>
-      </c>
-      <c r="C380" s="70">
-        <v>26</v>
-      </c>
-      <c r="D380" s="84" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E380" s="70" t="s">
-        <v>782</v>
-      </c>
-      <c r="F380" s="70" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G380" s="70" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H380" s="75" t="s">
-        <v>2463</v>
-      </c>
-      <c r="I380" s="70" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J380" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="K380" s="72">
-        <v>60</v>
-      </c>
-      <c r="L380" s="72" t="s">
-        <v>2318</v>
-      </c>
-      <c r="M380" s="72">
-        <v>0</v>
-      </c>
-      <c r="N380" s="72">
-        <v>0</v>
-      </c>
-      <c r="O380" s="76" t="s">
-        <v>1867</v>
-      </c>
-      <c r="P380" s="76" t="s">
-        <v>1868</v>
-      </c>
-      <c r="Q380" s="76" t="s">
-        <v>1869</v>
-      </c>
-      <c r="R380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="T380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="U380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="V380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="W380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="X380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="Y380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="Z380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AA380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AB380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AC380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AD380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AE380" s="70" t="s">
-        <v>2263</v>
-      </c>
-      <c r="AF380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AG380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AH380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AI380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AJ380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AK380" s="76" t="s">
-        <v>3179</v>
-      </c>
-      <c r="AL380" s="70" t="s">
-        <v>1870</v>
-      </c>
-      <c r="AM380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW380" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX380" s="70" t="s">
-        <v>2317</v>
-      </c>
-      <c r="AY380" s="70" t="s">
-        <v>2847</v>
-      </c>
-      <c r="AZ380" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA380" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB380" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC380" s="70">
-        <v>35026</v>
-      </c>
-      <c r="BD380" s="70">
-        <v>35026</v>
-      </c>
-      <c r="BE380" s="70" t="s">
-        <v>1835</v>
-      </c>
+    <row r="380" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="70" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B380" s="71"/>
+      <c r="C380" s="70"/>
+      <c r="D380" s="84"/>
+      <c r="E380" s="70"/>
+      <c r="F380" s="70"/>
+      <c r="G380" s="70"/>
+      <c r="H380" s="75"/>
+      <c r="I380" s="70"/>
+      <c r="J380" s="70"/>
+      <c r="K380" s="72"/>
+      <c r="L380" s="72"/>
+      <c r="M380" s="72"/>
+      <c r="N380" s="72"/>
+      <c r="O380" s="72"/>
+      <c r="P380" s="72"/>
+      <c r="Q380" s="72"/>
+      <c r="R380" s="76"/>
+      <c r="S380" s="76"/>
+      <c r="T380" s="76"/>
+      <c r="U380" s="76"/>
+      <c r="V380" s="76"/>
+      <c r="W380" s="76"/>
+      <c r="X380" s="70"/>
+      <c r="Y380" s="70"/>
+      <c r="Z380" s="76"/>
+      <c r="AA380" s="76"/>
+      <c r="AB380" s="76"/>
+      <c r="AC380" s="74"/>
+      <c r="AD380" s="74"/>
+      <c r="AE380" s="70"/>
+      <c r="AF380" s="70"/>
+      <c r="AG380" s="76"/>
+      <c r="AH380" s="76"/>
+      <c r="AI380" s="76"/>
+      <c r="AJ380" s="76"/>
+      <c r="AK380" s="76"/>
+      <c r="AL380" s="70"/>
+      <c r="AM380" s="70"/>
+      <c r="AN380" s="70"/>
+      <c r="AO380" s="70"/>
+      <c r="AP380" s="70"/>
+      <c r="AQ380" s="70"/>
+      <c r="AR380" s="70"/>
+      <c r="AS380" s="70"/>
+      <c r="AT380" s="70"/>
+      <c r="AU380" s="70"/>
+      <c r="AV380" s="70"/>
+      <c r="AW380" s="70"/>
+      <c r="AX380" s="70"/>
+      <c r="AY380" s="70"/>
+      <c r="AZ380" s="70"/>
+      <c r="BA380" s="70"/>
+      <c r="BB380" s="70"/>
+      <c r="BC380" s="70"/>
+      <c r="BD380" s="70"/>
+      <c r="BE380" s="70"/>
       <c r="BF380" s="70"/>
     </row>
-    <row r="381" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A381" s="70"/>
       <c r="B381" s="71">
         <v>43809</v>
       </c>
       <c r="C381" s="70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D381" s="84" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E381" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F381" s="70" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G381" s="70" t="s">
         <v>1865</v>
@@ -73848,7 +73764,7 @@
         <v>2317</v>
       </c>
       <c r="AY381" s="70" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="AZ381" s="70" t="s">
         <v>941</v>
@@ -73860,32 +73776,32 @@
         <v>941</v>
       </c>
       <c r="BC381" s="70">
-        <v>35027</v>
+        <v>35026</v>
       </c>
       <c r="BD381" s="70">
-        <v>35027</v>
+        <v>35026</v>
       </c>
       <c r="BE381" s="70" t="s">
-        <v>3160</v>
+        <v>1835</v>
       </c>
       <c r="BF381" s="70"/>
     </row>
-    <row r="382" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A382" s="70"/>
       <c r="B382" s="71">
         <v>43809</v>
       </c>
       <c r="C382" s="70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D382" s="84" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E382" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F382" s="70" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G382" s="70" t="s">
         <v>1865</v>
@@ -74020,7 +73936,7 @@
         <v>2317</v>
       </c>
       <c r="AY382" s="70" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="AZ382" s="70" t="s">
         <v>941</v>
@@ -74032,32 +73948,32 @@
         <v>941</v>
       </c>
       <c r="BC382" s="70">
-        <v>35028</v>
+        <v>35027</v>
       </c>
       <c r="BD382" s="70">
-        <v>35028</v>
+        <v>35027</v>
       </c>
       <c r="BE382" s="70" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="BF382" s="70"/>
     </row>
-    <row r="383" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A383" s="70"/>
       <c r="B383" s="71">
         <v>43809</v>
       </c>
       <c r="C383" s="70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D383" s="84" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E383" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F383" s="70" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G383" s="70" t="s">
         <v>1865</v>
@@ -74192,7 +74108,7 @@
         <v>2317</v>
       </c>
       <c r="AY383" s="70" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AZ383" s="70" t="s">
         <v>941</v>
@@ -74204,32 +74120,32 @@
         <v>941</v>
       </c>
       <c r="BC383" s="70">
-        <v>35029</v>
+        <v>35028</v>
       </c>
       <c r="BD383" s="70">
-        <v>35029</v>
+        <v>35028</v>
       </c>
       <c r="BE383" s="70" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="BF383" s="70"/>
     </row>
-    <row r="384" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A384" s="70"/>
       <c r="B384" s="71">
         <v>43809</v>
       </c>
       <c r="C384" s="70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D384" s="84" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E384" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F384" s="70" t="s">
-        <v>2464</v>
+        <v>1864</v>
       </c>
       <c r="G384" s="70" t="s">
         <v>1865</v>
@@ -74364,7 +74280,7 @@
         <v>2317</v>
       </c>
       <c r="AY384" s="70" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="AZ384" s="70" t="s">
         <v>941</v>
@@ -74376,50 +74292,50 @@
         <v>941</v>
       </c>
       <c r="BC384" s="70">
-        <v>35030</v>
+        <v>35029</v>
       </c>
       <c r="BD384" s="70">
-        <v>35030</v>
+        <v>35029</v>
       </c>
       <c r="BE384" s="70" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="BF384" s="70"/>
     </row>
-    <row r="385" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A385" s="70"/>
       <c r="B385" s="71">
-        <v>44229</v>
+        <v>43809</v>
       </c>
       <c r="C385" s="70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D385" s="84" t="s">
-        <v>3465</v>
+        <v>1839</v>
       </c>
       <c r="E385" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F385" s="70" t="s">
-        <v>3475</v>
+        <v>2464</v>
       </c>
       <c r="G385" s="70" t="s">
         <v>1865</v>
       </c>
       <c r="H385" s="75" t="s">
-        <v>3473</v>
+        <v>2463</v>
       </c>
       <c r="I385" s="70" t="s">
-        <v>3354</v>
+        <v>1417</v>
       </c>
       <c r="J385" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="K385" s="72" t="s">
-        <v>2319</v>
-      </c>
-      <c r="L385" s="72">
-        <v>70</v>
+      <c r="K385" s="72">
+        <v>60</v>
+      </c>
+      <c r="L385" s="72" t="s">
+        <v>2318</v>
       </c>
       <c r="M385" s="72">
         <v>0</v>
@@ -74428,30 +74344,74 @@
         <v>0</v>
       </c>
       <c r="O385" s="76" t="s">
-        <v>3469</v>
-      </c>
-      <c r="P385" s="76"/>
-      <c r="Q385" s="76"/>
-      <c r="R385" s="76"/>
-      <c r="S385" s="76"/>
-      <c r="T385" s="76"/>
-      <c r="U385" s="76"/>
-      <c r="V385" s="76"/>
-      <c r="W385" s="76"/>
-      <c r="X385" s="76"/>
-      <c r="Y385" s="76"/>
-      <c r="Z385" s="76"/>
-      <c r="AA385" s="76"/>
-      <c r="AB385" s="76"/>
-      <c r="AC385" s="76"/>
-      <c r="AD385" s="76"/>
-      <c r="AE385" s="70"/>
-      <c r="AF385" s="76"/>
-      <c r="AG385" s="76"/>
-      <c r="AH385" s="76"/>
-      <c r="AI385" s="76"/>
-      <c r="AJ385" s="76"/>
-      <c r="AK385" s="76"/>
+        <v>1867</v>
+      </c>
+      <c r="P385" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="Q385" s="76" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AC385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AD385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AE385" s="70" t="s">
+        <v>2263</v>
+      </c>
+      <c r="AF385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ385" s="76" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK385" s="76" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL385" s="70" t="s">
         <v>1870</v>
       </c>
@@ -74492,7 +74452,7 @@
         <v>2317</v>
       </c>
       <c r="AY385" s="70" t="s">
-        <v>3476</v>
+        <v>2851</v>
       </c>
       <c r="AZ385" s="70" t="s">
         <v>941</v>
@@ -74503,219 +74463,356 @@
       <c r="BB385" s="70" t="s">
         <v>941</v>
       </c>
-      <c r="BC385" s="70"/>
-      <c r="BD385" s="70"/>
-      <c r="BE385" s="70"/>
+      <c r="BC385" s="70">
+        <v>35030</v>
+      </c>
+      <c r="BD385" s="70">
+        <v>35030</v>
+      </c>
+      <c r="BE385" s="70" t="s">
+        <v>3163</v>
+      </c>
       <c r="BF385" s="70"/>
     </row>
-    <row r="386" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A386" s="70" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B386" s="71"/>
-      <c r="C386" s="70"/>
-      <c r="D386" s="84"/>
-      <c r="E386" s="70"/>
-      <c r="F386" s="70"/>
-      <c r="G386" s="70"/>
-      <c r="H386" s="73"/>
-      <c r="I386" s="70"/>
-      <c r="J386" s="70"/>
-      <c r="K386" s="72"/>
-      <c r="L386" s="72"/>
-      <c r="M386" s="72"/>
-      <c r="N386" s="72"/>
-      <c r="O386" s="72"/>
-      <c r="P386" s="72"/>
-      <c r="Q386" s="72"/>
-      <c r="R386" s="72"/>
-      <c r="S386" s="72"/>
-      <c r="T386" s="72"/>
-      <c r="U386" s="70"/>
-      <c r="V386" s="70"/>
-      <c r="W386" s="70"/>
-      <c r="X386" s="70"/>
-      <c r="Y386" s="70"/>
-      <c r="Z386" s="70"/>
-      <c r="AA386" s="70"/>
-      <c r="AB386" s="70"/>
-      <c r="AC386" s="74"/>
-      <c r="AD386" s="74"/>
+    <row r="386" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="70"/>
+      <c r="B386" s="71">
+        <v>44229</v>
+      </c>
+      <c r="C386" s="70">
+        <v>31</v>
+      </c>
+      <c r="D386" s="84" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E386" s="70" t="s">
+        <v>782</v>
+      </c>
+      <c r="F386" s="70" t="s">
+        <v>3475</v>
+      </c>
+      <c r="G386" s="70" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H386" s="75" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I386" s="70" t="s">
+        <v>3354</v>
+      </c>
+      <c r="J386" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K386" s="72" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L386" s="72">
+        <v>70</v>
+      </c>
+      <c r="M386" s="72">
+        <v>0</v>
+      </c>
+      <c r="N386" s="72">
+        <v>0</v>
+      </c>
+      <c r="O386" s="76" t="s">
+        <v>3469</v>
+      </c>
+      <c r="P386" s="76"/>
+      <c r="Q386" s="76"/>
+      <c r="R386" s="76"/>
+      <c r="S386" s="76"/>
+      <c r="T386" s="76"/>
+      <c r="U386" s="76"/>
+      <c r="V386" s="76"/>
+      <c r="W386" s="76"/>
+      <c r="X386" s="76"/>
+      <c r="Y386" s="76"/>
+      <c r="Z386" s="76"/>
+      <c r="AA386" s="76"/>
+      <c r="AB386" s="76"/>
+      <c r="AC386" s="76"/>
+      <c r="AD386" s="76"/>
       <c r="AE386" s="70"/>
-      <c r="AF386" s="70"/>
-      <c r="AG386" s="70"/>
-      <c r="AH386" s="70"/>
-      <c r="AI386" s="70"/>
-      <c r="AJ386" s="70"/>
-      <c r="AK386" s="70"/>
-      <c r="AL386" s="70"/>
-      <c r="AM386" s="70"/>
-      <c r="AN386" s="70"/>
-      <c r="AO386" s="70"/>
-      <c r="AP386" s="70"/>
-      <c r="AQ386" s="70"/>
-      <c r="AR386" s="70"/>
-      <c r="AS386" s="70"/>
-      <c r="AT386" s="70"/>
-      <c r="AU386" s="70"/>
-      <c r="AV386" s="70"/>
-      <c r="AW386" s="70"/>
-      <c r="AX386" s="70"/>
-      <c r="AY386" s="70"/>
-      <c r="AZ386" s="70"/>
-      <c r="BA386" s="70"/>
-      <c r="BB386" s="70"/>
-      <c r="BC386" s="70"/>
-      <c r="BD386" s="70"/>
-      <c r="BE386" s="70"/>
+      <c r="AF386" s="76"/>
+      <c r="AG386" s="76"/>
+      <c r="AH386" s="76"/>
+      <c r="AI386" s="76"/>
+      <c r="AJ386" s="76"/>
+      <c r="AK386" s="76"/>
+      <c r="AL386" s="70" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AM386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW386" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX386" s="70" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AY386" s="70" t="s">
+        <v>3476</v>
+      </c>
+      <c r="AZ386" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA386" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB386" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC386" s="70">
+        <v>35031</v>
+      </c>
+      <c r="BD386" s="70">
+        <v>35031</v>
+      </c>
+      <c r="BE386" s="70" t="s">
+        <v>3478</v>
+      </c>
       <c r="BF386" s="70"/>
     </row>
-    <row r="387" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A387" s="56" t="s">
+    <row r="387" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="70" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B387" s="71"/>
+      <c r="C387" s="70"/>
+      <c r="D387" s="84"/>
+      <c r="E387" s="70"/>
+      <c r="F387" s="70"/>
+      <c r="G387" s="70"/>
+      <c r="H387" s="73"/>
+      <c r="I387" s="70"/>
+      <c r="J387" s="70"/>
+      <c r="K387" s="72"/>
+      <c r="L387" s="72"/>
+      <c r="M387" s="72"/>
+      <c r="N387" s="72"/>
+      <c r="O387" s="72"/>
+      <c r="P387" s="72"/>
+      <c r="Q387" s="72"/>
+      <c r="R387" s="72"/>
+      <c r="S387" s="72"/>
+      <c r="T387" s="72"/>
+      <c r="U387" s="70"/>
+      <c r="V387" s="70"/>
+      <c r="W387" s="70"/>
+      <c r="X387" s="70"/>
+      <c r="Y387" s="70"/>
+      <c r="Z387" s="70"/>
+      <c r="AA387" s="70"/>
+      <c r="AB387" s="70"/>
+      <c r="AC387" s="74"/>
+      <c r="AD387" s="74"/>
+      <c r="AE387" s="70"/>
+      <c r="AF387" s="70"/>
+      <c r="AG387" s="70"/>
+      <c r="AH387" s="70"/>
+      <c r="AI387" s="70"/>
+      <c r="AJ387" s="70"/>
+      <c r="AK387" s="70"/>
+      <c r="AL387" s="70"/>
+      <c r="AM387" s="70"/>
+      <c r="AN387" s="70"/>
+      <c r="AO387" s="70"/>
+      <c r="AP387" s="70"/>
+      <c r="AQ387" s="70"/>
+      <c r="AR387" s="70"/>
+      <c r="AS387" s="70"/>
+      <c r="AT387" s="70"/>
+      <c r="AU387" s="70"/>
+      <c r="AV387" s="70"/>
+      <c r="AW387" s="70"/>
+      <c r="AX387" s="70"/>
+      <c r="AY387" s="70"/>
+      <c r="AZ387" s="70"/>
+      <c r="BA387" s="70"/>
+      <c r="BB387" s="70"/>
+      <c r="BC387" s="70"/>
+      <c r="BD387" s="70"/>
+      <c r="BE387" s="70"/>
+      <c r="BF387" s="70"/>
+    </row>
+    <row r="388" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A388" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B387" s="57"/>
-      <c r="C387" s="56"/>
-      <c r="D387" s="85"/>
-      <c r="E387" s="56"/>
-      <c r="F387" s="56"/>
-      <c r="G387" s="56"/>
-      <c r="H387" s="58"/>
-      <c r="I387" s="56"/>
-      <c r="J387" s="56"/>
-      <c r="K387" s="56"/>
-      <c r="L387" s="56"/>
-      <c r="M387" s="56"/>
-      <c r="N387" s="56"/>
-      <c r="O387" s="56"/>
-      <c r="P387" s="56"/>
-      <c r="Q387" s="56"/>
-      <c r="R387" s="56"/>
-      <c r="S387" s="56"/>
-      <c r="T387" s="56"/>
-      <c r="U387" s="56"/>
-      <c r="V387" s="56"/>
-      <c r="W387" s="56"/>
-      <c r="X387" s="56"/>
-      <c r="Y387" s="56"/>
-      <c r="Z387" s="56"/>
-      <c r="AA387" s="56"/>
-      <c r="AB387" s="56"/>
-      <c r="AC387" s="56"/>
-      <c r="AD387" s="56"/>
-      <c r="AE387" s="56"/>
-      <c r="AF387" s="56"/>
-      <c r="AG387" s="56"/>
-      <c r="AH387" s="56"/>
-      <c r="AI387" s="56"/>
-      <c r="AJ387" s="56"/>
-      <c r="AK387" s="56"/>
-      <c r="AL387" s="56"/>
-      <c r="AM387" s="56"/>
-      <c r="AN387" s="56"/>
-      <c r="AO387" s="56"/>
-      <c r="AP387" s="56"/>
-      <c r="AQ387" s="56"/>
-      <c r="AR387" s="56"/>
-      <c r="AS387" s="56"/>
-      <c r="AT387" s="56"/>
-      <c r="AU387" s="56"/>
-      <c r="AV387" s="56"/>
-      <c r="AW387" s="56"/>
-      <c r="AX387" s="56"/>
-      <c r="AY387" s="56"/>
-      <c r="AZ387" s="56"/>
-      <c r="BA387" s="56"/>
-      <c r="BB387" s="56"/>
-      <c r="BC387" s="56"/>
-      <c r="BD387" s="56"/>
-      <c r="BE387" s="56"/>
-      <c r="BF387" s="56"/>
+      <c r="B388" s="57"/>
+      <c r="C388" s="56"/>
+      <c r="D388" s="85"/>
+      <c r="E388" s="56"/>
+      <c r="F388" s="56"/>
+      <c r="G388" s="56"/>
+      <c r="H388" s="58"/>
+      <c r="I388" s="56"/>
+      <c r="J388" s="56"/>
+      <c r="K388" s="56"/>
+      <c r="L388" s="56"/>
+      <c r="M388" s="56"/>
+      <c r="N388" s="56"/>
+      <c r="O388" s="56"/>
+      <c r="P388" s="56"/>
+      <c r="Q388" s="56"/>
+      <c r="R388" s="56"/>
+      <c r="S388" s="56"/>
+      <c r="T388" s="56"/>
+      <c r="U388" s="56"/>
+      <c r="V388" s="56"/>
+      <c r="W388" s="56"/>
+      <c r="X388" s="56"/>
+      <c r="Y388" s="56"/>
+      <c r="Z388" s="56"/>
+      <c r="AA388" s="56"/>
+      <c r="AB388" s="56"/>
+      <c r="AC388" s="56"/>
+      <c r="AD388" s="56"/>
+      <c r="AE388" s="56"/>
+      <c r="AF388" s="56"/>
+      <c r="AG388" s="56"/>
+      <c r="AH388" s="56"/>
+      <c r="AI388" s="56"/>
+      <c r="AJ388" s="56"/>
+      <c r="AK388" s="56"/>
+      <c r="AL388" s="56"/>
+      <c r="AM388" s="56"/>
+      <c r="AN388" s="56"/>
+      <c r="AO388" s="56"/>
+      <c r="AP388" s="56"/>
+      <c r="AQ388" s="56"/>
+      <c r="AR388" s="56"/>
+      <c r="AS388" s="56"/>
+      <c r="AT388" s="56"/>
+      <c r="AU388" s="56"/>
+      <c r="AV388" s="56"/>
+      <c r="AW388" s="56"/>
+      <c r="AX388" s="56"/>
+      <c r="AY388" s="56"/>
+      <c r="AZ388" s="56"/>
+      <c r="BA388" s="56"/>
+      <c r="BB388" s="56"/>
+      <c r="BC388" s="56"/>
+      <c r="BD388" s="56"/>
+      <c r="BE388" s="56"/>
+      <c r="BF388" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF387" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
-  <conditionalFormatting sqref="F387:F1048576 F324:F325 F1 F160:F238 F287:F317 F82:F143 F320:F322 F3:F77">
-    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
+  <autoFilter ref="A1:BF388" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <conditionalFormatting sqref="F388:F1048576 F324:F325 F1 F160:F238 F287:F317 F82:F143 F320:F322 F3:F77">
+    <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F323">
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159 F144">
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="duplicateValues" dxfId="24" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F240:F246">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F344">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+  <conditionalFormatting sqref="F345">
+    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F330:F343">
-    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+  <conditionalFormatting sqref="F331:F344">
+    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="20" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F351">
+    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F354 F367:F379 F387 F381:F384">
+    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F350">
+    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F350">
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F353 F366:F378 F386 F380:F383">
-    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F347:F349">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F345">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247:F265">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F81">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F319">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F354:F365">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  <conditionalFormatting sqref="F355:F366">
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F384:F385">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  <conditionalFormatting sqref="F385:F386">
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F379">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  <conditionalFormatting sqref="F380">
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F267:F286">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O330:O351 O1:O157 O261:O325 O159:O259 O353:O1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="O354:O1048576 O1:O157 O261:O325 O159:O259 O331:O352">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O326:O327">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O260">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O158">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O353">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O327:O330">
+    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O330">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O329">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O326">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O327:O328">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O260">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O158">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O352">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CC500-2519-4494-9634-AE8E16A5F28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208E349-E753-417E-A1D9-20661732F995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="550" windowWidth="30810" windowHeight="19020" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17433" uniqueCount="3483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17463" uniqueCount="3489">
   <si>
     <t>date:</t>
   </si>
@@ -10505,6 +10505,24 @@
   </si>
   <si>
     <t>['Trinität Der Sucher', 'Krieger-Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
+  </si>
+  <si>
+    <t>Prinzessinnenwache</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>The Sochen Cave Palace (Zodiac Age Version)</t>
+  </si>
+  <si>
+    <t>Giving Chase (Zodiac Age Version)</t>
+  </si>
+  <si>
+    <t>Gabriel III</t>
+  </si>
+  <si>
+    <t>The Queen Awakens</t>
   </si>
 </sst>
 </file>
@@ -11502,10 +11520,10 @@
   <dimension ref="A1:BF388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AO34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY238" sqref="AY238"/>
+      <selection pane="bottomRight" activeCell="R329" sqref="R329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -23101,7 +23119,7 @@
       <c r="BE69" s="20"/>
       <c r="BF69" s="20"/>
     </row>
-    <row r="70" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="28"/>
       <c r="B70" s="29">
         <v>43644</v>
@@ -23273,7 +23291,7 @@
       </c>
       <c r="BF70" s="28"/>
     </row>
-    <row r="71" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28"/>
       <c r="B71" s="29">
         <v>43644</v>
@@ -23445,7 +23463,7 @@
       </c>
       <c r="BF71" s="28"/>
     </row>
-    <row r="72" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A72" s="28"/>
       <c r="B72" s="29">
         <v>43644</v>
@@ -23617,7 +23635,7 @@
       </c>
       <c r="BF72" s="28"/>
     </row>
-    <row r="73" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" s="28"/>
       <c r="B73" s="29">
         <v>43644</v>
@@ -23789,7 +23807,7 @@
       </c>
       <c r="BF73" s="28"/>
     </row>
-    <row r="74" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" s="28"/>
       <c r="B74" s="29">
         <v>43644</v>
@@ -23961,7 +23979,7 @@
       </c>
       <c r="BF74" s="28"/>
     </row>
-    <row r="75" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A75" s="28"/>
       <c r="B75" s="29">
         <v>43644</v>
@@ -24133,7 +24151,7 @@
       </c>
       <c r="BF75" s="28"/>
     </row>
-    <row r="76" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28"/>
       <c r="B76" s="29">
         <v>43644</v>
@@ -24305,7 +24323,7 @@
       </c>
       <c r="BF76" s="28"/>
     </row>
-    <row r="77" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A77" s="28"/>
       <c r="B77" s="29">
         <v>43644</v>
@@ -24477,7 +24495,7 @@
       </c>
       <c r="BF77" s="28"/>
     </row>
-    <row r="78" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28"/>
       <c r="B78" s="29">
         <v>43767</v>
@@ -24649,7 +24667,7 @@
       </c>
       <c r="BF78" s="28"/>
     </row>
-    <row r="79" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A79" s="28"/>
       <c r="B79" s="29">
         <v>43848</v>
@@ -24821,7 +24839,7 @@
       </c>
       <c r="BF79" s="28"/>
     </row>
-    <row r="80" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A80" s="28"/>
       <c r="B80" s="29">
         <v>44054</v>
@@ -24993,7 +25011,7 @@
       </c>
       <c r="BF80" s="28"/>
     </row>
-    <row r="81" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A81" s="28"/>
       <c r="B81" s="29">
         <v>44173</v>
@@ -25165,7 +25183,7 @@
       </c>
       <c r="BF81" s="28"/>
     </row>
-    <row r="82" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A82" s="28" t="s">
         <v>779</v>
       </c>
@@ -35390,7 +35408,7 @@
       <c r="BE143" s="20"/>
       <c r="BF143" s="20"/>
     </row>
-    <row r="144" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="28"/>
       <c r="B144" s="38">
         <v>43644</v>
@@ -35562,7 +35580,7 @@
       </c>
       <c r="BF144" s="28"/>
     </row>
-    <row r="145" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A145" s="28"/>
       <c r="B145" s="38">
         <v>43644</v>
@@ -35734,7 +35752,7 @@
       </c>
       <c r="BF145" s="28"/>
     </row>
-    <row r="146" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" s="28"/>
       <c r="B146" s="38">
         <v>43644</v>
@@ -35906,7 +35924,7 @@
       </c>
       <c r="BF146" s="28"/>
     </row>
-    <row r="147" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="28"/>
       <c r="B147" s="38">
         <v>43644</v>
@@ -36078,7 +36096,7 @@
       </c>
       <c r="BF147" s="28"/>
     </row>
-    <row r="148" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A148" s="28"/>
       <c r="B148" s="38">
         <v>43644</v>
@@ -36250,7 +36268,7 @@
       </c>
       <c r="BF148" s="28"/>
     </row>
-    <row r="149" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" s="28"/>
       <c r="B149" s="38">
         <v>43767</v>
@@ -36420,7 +36438,7 @@
       </c>
       <c r="BF149" s="28"/>
     </row>
-    <row r="150" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A150" s="28"/>
       <c r="B150" s="38">
         <v>43848</v>
@@ -36592,7 +36610,7 @@
       </c>
       <c r="BF150" s="28"/>
     </row>
-    <row r="151" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A151" s="28"/>
       <c r="B151" s="38">
         <v>43848</v>
@@ -36764,7 +36782,7 @@
       </c>
       <c r="BF151" s="28"/>
     </row>
-    <row r="152" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A152" s="28"/>
       <c r="B152" s="38">
         <v>43928</v>
@@ -36936,7 +36954,7 @@
       </c>
       <c r="BF152" s="28"/>
     </row>
-    <row r="153" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A153" s="28"/>
       <c r="B153" s="38">
         <v>44054</v>
@@ -37108,7 +37126,7 @@
       </c>
       <c r="BF153" s="28"/>
     </row>
-    <row r="154" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A154" s="28"/>
       <c r="B154" s="38">
         <v>44054</v>
@@ -37280,7 +37298,7 @@
       </c>
       <c r="BF154" s="28"/>
     </row>
-    <row r="155" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A155" s="28"/>
       <c r="B155" s="38">
         <v>44054</v>
@@ -37454,7 +37472,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="156" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A156" s="28"/>
       <c r="B156" s="38">
         <v>44173</v>
@@ -37626,7 +37644,7 @@
       </c>
       <c r="BF156" s="28"/>
     </row>
-    <row r="157" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A157" s="28"/>
       <c r="B157" s="38">
         <v>44173</v>
@@ -37796,7 +37814,7 @@
       </c>
       <c r="BF157" s="28"/>
     </row>
-    <row r="158" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" s="28"/>
       <c r="B158" s="38">
         <v>44173</v>
@@ -37954,7 +37972,7 @@
       </c>
       <c r="BF158" s="28"/>
     </row>
-    <row r="159" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
         <v>780</v>
       </c>
@@ -51276,7 +51294,7 @@
       <c r="BE238" s="20"/>
       <c r="BF238" s="20"/>
     </row>
-    <row r="239" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A239" s="28"/>
       <c r="B239" s="35">
         <v>43767</v>
@@ -51448,7 +51466,7 @@
       </c>
       <c r="BF239" s="28"/>
     </row>
-    <row r="240" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A240" s="28"/>
       <c r="B240" s="35">
         <v>44054</v>
@@ -51618,7 +51636,7 @@
       </c>
       <c r="BF240" s="28"/>
     </row>
-    <row r="241" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A241" s="28"/>
       <c r="B241" s="35">
         <v>43662</v>
@@ -51790,7 +51808,7 @@
       </c>
       <c r="BF241" s="28"/>
     </row>
-    <row r="242" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A242" s="28"/>
       <c r="B242" s="35">
         <v>43662</v>
@@ -51962,7 +51980,7 @@
       </c>
       <c r="BF242" s="28"/>
     </row>
-    <row r="243" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A243" s="28"/>
       <c r="B243" s="35">
         <v>43662</v>
@@ -52134,7 +52152,7 @@
       </c>
       <c r="BF243" s="28"/>
     </row>
-    <row r="244" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A244" s="28"/>
       <c r="B244" s="35">
         <v>43662</v>
@@ -52306,7 +52324,7 @@
       </c>
       <c r="BF244" s="28"/>
     </row>
-    <row r="245" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A245" s="28"/>
       <c r="B245" s="35">
         <v>43676</v>
@@ -52478,7 +52496,7 @@
       </c>
       <c r="BF245" s="28"/>
     </row>
-    <row r="246" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A246" s="28"/>
       <c r="B246" s="35">
         <v>43676</v>
@@ -52650,7 +52668,7 @@
       </c>
       <c r="BF246" s="28"/>
     </row>
-    <row r="247" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A247" s="28"/>
       <c r="B247" s="35">
         <v>43676</v>
@@ -52822,7 +52840,7 @@
       </c>
       <c r="BF247" s="28"/>
     </row>
-    <row r="248" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A248" s="28"/>
       <c r="B248" s="35">
         <v>43676</v>
@@ -52994,7 +53012,7 @@
       </c>
       <c r="BF248" s="28"/>
     </row>
-    <row r="249" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A249" s="28"/>
       <c r="B249" s="35">
         <v>43848</v>
@@ -53166,7 +53184,7 @@
       </c>
       <c r="BF249" s="28"/>
     </row>
-    <row r="250" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A250" s="28"/>
       <c r="B250" s="35">
         <v>43848</v>
@@ -53338,7 +53356,7 @@
       </c>
       <c r="BF250" s="28"/>
     </row>
-    <row r="251" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A251" s="28"/>
       <c r="B251" s="35">
         <v>43848</v>
@@ -53510,7 +53528,7 @@
       </c>
       <c r="BF251" s="28"/>
     </row>
-    <row r="252" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A252" s="28"/>
       <c r="B252" s="35">
         <v>43848</v>
@@ -53682,7 +53700,7 @@
       </c>
       <c r="BF252" s="28"/>
     </row>
-    <row r="253" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A253" s="28"/>
       <c r="B253" s="35">
         <v>43848</v>
@@ -53854,7 +53872,7 @@
       </c>
       <c r="BF253" s="28"/>
     </row>
-    <row r="254" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A254" s="28"/>
       <c r="B254" s="35">
         <v>43848</v>
@@ -54026,7 +54044,7 @@
       </c>
       <c r="BF254" s="28"/>
     </row>
-    <row r="255" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A255" s="28"/>
       <c r="B255" s="35">
         <v>43848</v>
@@ -54198,7 +54216,7 @@
       </c>
       <c r="BF255" s="28"/>
     </row>
-    <row r="256" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A256" s="28"/>
       <c r="B256" s="35">
         <v>43848</v>
@@ -54370,7 +54388,7 @@
       </c>
       <c r="BF256" s="28"/>
     </row>
-    <row r="257" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A257" s="28"/>
       <c r="B257" s="35">
         <v>44173</v>
@@ -54540,7 +54558,7 @@
       </c>
       <c r="BF257" s="28"/>
     </row>
-    <row r="258" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A258" s="28"/>
       <c r="B258" s="35">
         <v>44173</v>
@@ -54712,7 +54730,7 @@
       </c>
       <c r="BF258" s="28"/>
     </row>
-    <row r="259" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A259" s="28"/>
       <c r="B259" s="35">
         <v>44173</v>
@@ -54884,7 +54902,7 @@
       </c>
       <c r="BF259" s="28"/>
     </row>
-    <row r="260" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A260" s="28"/>
       <c r="B260" s="35">
         <v>44173</v>
@@ -55056,7 +55074,7 @@
       </c>
       <c r="BF260" s="28"/>
     </row>
-    <row r="261" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A261" s="28"/>
       <c r="B261" s="35">
         <v>44173</v>
@@ -55228,7 +55246,7 @@
       </c>
       <c r="BF261" s="28"/>
     </row>
-    <row r="262" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A262" s="28"/>
       <c r="B262" s="35">
         <v>44173</v>
@@ -55400,7 +55418,7 @@
       </c>
       <c r="BF262" s="28"/>
     </row>
-    <row r="263" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A263" s="28"/>
       <c r="B263" s="35">
         <v>44173</v>
@@ -55572,7 +55590,7 @@
       </c>
       <c r="BF263" s="28"/>
     </row>
-    <row r="264" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A264" s="28"/>
       <c r="B264" s="35">
         <v>44173</v>
@@ -55744,7 +55762,7 @@
       </c>
       <c r="BF264" s="28"/>
     </row>
-    <row r="265" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A265" s="28"/>
       <c r="B265" s="35">
         <v>43781</v>
@@ -55916,7 +55934,7 @@
       </c>
       <c r="BF265" s="28"/>
     </row>
-    <row r="266" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A266" s="28" t="s">
         <v>781</v>
       </c>
@@ -65607,25 +65625,55 @@
       <c r="P328" s="32"/>
       <c r="Q328" s="32"/>
       <c r="R328" s="32"/>
-      <c r="S328" s="32"/>
-      <c r="T328" s="32"/>
-      <c r="U328" s="28"/>
-      <c r="V328" s="28"/>
-      <c r="W328" s="28"/>
-      <c r="X328" s="32"/>
-      <c r="Y328" s="32"/>
-      <c r="Z328" s="32"/>
-      <c r="AA328" s="32"/>
-      <c r="AB328" s="32"/>
+      <c r="S328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U328" s="28" t="s">
+        <v>3485</v>
+      </c>
+      <c r="V328" s="28" t="s">
+        <v>3486</v>
+      </c>
+      <c r="W328" s="28" t="s">
+        <v>3488</v>
+      </c>
+      <c r="X328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB328" s="32" t="s">
+        <v>3179</v>
+      </c>
       <c r="AC328" s="32"/>
       <c r="AD328" s="32"/>
-      <c r="AE328" s="28"/>
+      <c r="AE328" s="32"/>
       <c r="AF328" s="32"/>
-      <c r="AG328" s="32"/>
-      <c r="AH328" s="32"/>
-      <c r="AI328" s="28"/>
-      <c r="AJ328" s="32"/>
-      <c r="AK328" s="32"/>
+      <c r="AG328" s="32" t="s">
+        <v>3487</v>
+      </c>
+      <c r="AH328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ328" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK328" s="32" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL328" s="32" t="s">
         <v>2752</v>
       </c>
@@ -65731,25 +65779,55 @@
       <c r="P329" s="32"/>
       <c r="Q329" s="32"/>
       <c r="R329" s="32"/>
-      <c r="S329" s="32"/>
-      <c r="T329" s="32"/>
-      <c r="U329" s="28"/>
-      <c r="V329" s="28"/>
-      <c r="W329" s="28"/>
-      <c r="X329" s="28"/>
-      <c r="Y329" s="28"/>
-      <c r="Z329" s="28"/>
-      <c r="AA329" s="28"/>
-      <c r="AB329" s="28"/>
-      <c r="AC329" s="28"/>
-      <c r="AD329" s="28"/>
-      <c r="AE329" s="28"/>
+      <c r="S329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AC329" s="32"/>
+      <c r="AD329" s="32"/>
+      <c r="AE329" s="32"/>
       <c r="AF329" s="28"/>
-      <c r="AG329" s="28"/>
-      <c r="AH329" s="28"/>
-      <c r="AI329" s="28"/>
-      <c r="AJ329" s="28"/>
-      <c r="AK329" s="28"/>
+      <c r="AG329" s="28" t="s">
+        <v>3484</v>
+      </c>
+      <c r="AH329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI329" s="28" t="s">
+        <v>3483</v>
+      </c>
+      <c r="AJ329" s="32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK329" s="32" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL329" s="32" t="s">
         <v>2752</v>
       </c>
@@ -68924,7 +69002,7 @@
       <c r="BE351" s="20"/>
       <c r="BF351" s="20"/>
     </row>
-    <row r="352" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
         <v>43676</v>
@@ -69060,7 +69138,7 @@
       </c>
       <c r="BF352" s="28"/>
     </row>
-    <row r="353" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A353" s="28"/>
       <c r="B353" s="35">
         <v>44173</v>
@@ -69190,7 +69268,7 @@
       </c>
       <c r="BF353" s="28"/>
     </row>
-    <row r="354" spans="1:58" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A354" s="28" t="s">
         <v>1413</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208E349-E753-417E-A1D9-20661732F995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14481FF6-04B8-4578-AA8C-10E52942BC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="76935" yWindow="5355" windowWidth="27825" windowHeight="13635" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -11520,10 +11520,10 @@
   <dimension ref="A1:BF388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R329" sqref="R329"/>
+      <selection pane="bottomRight" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.35"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2271C1-6DB5-482C-8DA0-FFD27209E200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C36379-689D-46A7-9EC2-370B762B0505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17496" uniqueCount="3499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17498" uniqueCount="3501">
   <si>
     <t>date:</t>
   </si>
@@ -10553,6 +10553,12 @@
   </si>
   <si>
     <t>traumpruefung_leviathan</t>
+  </si>
+  <si>
+    <t>Der Turm, Paradigmenbrecher</t>
+  </si>
+  <si>
+    <t>der_turm_paradigmenbrecher</t>
   </si>
 </sst>
 </file>
@@ -11550,10 +11556,10 @@
   <dimension ref="A1:BF393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D335" sqref="D335"/>
+      <selection pane="bottomRight" activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -68416,11 +68422,15 @@
       <c r="C349" s="32">
         <v>97</v>
       </c>
-      <c r="D349" s="82"/>
+      <c r="D349" s="82" t="s">
+        <v>3499</v>
+      </c>
       <c r="E349" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="F349" s="28"/>
+      <c r="F349" s="28" t="s">
+        <v>3500</v>
+      </c>
       <c r="G349" s="28"/>
       <c r="H349" s="63" t="s">
         <v>3491</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C36379-689D-46A7-9EC2-370B762B0505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF736AB5-2FEA-403F-A779-7704050B45E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17498" uniqueCount="3501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17589" uniqueCount="3515">
   <si>
     <t>date:</t>
   </si>
@@ -10528,9 +10528,6 @@
     <t>Die Goldene Ebene von Paglth'an</t>
   </si>
   <si>
-    <t>die_goldeneebene_von_paglthan</t>
-  </si>
-  <si>
     <t>5.5</t>
   </si>
   <si>
@@ -10558,14 +10555,59 @@
     <t>Der Turm, Paradigmenbrecher</t>
   </si>
   <si>
-    <t>der_turm_paradigmenbrecher</t>
+    <t>ui/icon/112000/112433.tex</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112429.tex</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112430.tex</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112428.tex</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112431.tex</t>
+  </si>
+  <si>
+    <t>der_turm,_paradigmenbrecher</t>
+  </si>
+  <si>
+    <t>n4r3</t>
+  </si>
+  <si>
+    <t>die_goldene_ebene_von_paglthan</t>
+  </si>
+  <si>
+    <t>w4d1</t>
+  </si>
+  <si>
+    <t>n4fh</t>
+  </si>
+  <si>
+    <t>n4fh_2</t>
+  </si>
+  <si>
+    <t>Unreal</t>
+  </si>
+  <si>
+    <t>o1fa_3</t>
+  </si>
+  <si>
+    <t>['Diamant-Waffe']</t>
+  </si>
+  <si>
+    <t>['Herzbube', 'Hänsel &amp; Gretel', 'Hänsel', 'Gretel', 'Xun-Zi', 'Rotes Mädchen', 'Ihre Abgöttlichkeit', 'Ihre Infloreszenz']</t>
+  </si>
+  <si>
+    <t>['Amhuluk', 'Magitek-Reaktor', 'Luna-Bahamut']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10603,6 +10645,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11556,10 +11604,10 @@
   <dimension ref="A1:BF393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AW353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F350" sqref="F350"/>
+      <selection pane="bottomRight" activeCell="AY368" sqref="AY368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -65087,22 +65135,32 @@
         <v>782</v>
       </c>
       <c r="F326" s="28" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G326" s="28" t="s">
+        <v>3502</v>
+      </c>
+      <c r="H326" s="63" t="s">
         <v>3490</v>
       </c>
-      <c r="G326" s="28"/>
-      <c r="H326" s="63" t="s">
+      <c r="I326" s="28" t="s">
         <v>3491</v>
-      </c>
-      <c r="I326" s="28" t="s">
-        <v>3492</v>
       </c>
       <c r="J326" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K326" s="67"/>
-      <c r="L326" s="77"/>
-      <c r="M326" s="32"/>
-      <c r="N326" s="32"/>
+      <c r="K326" s="67" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L326" s="77">
+        <v>80</v>
+      </c>
+      <c r="M326" s="32">
+        <v>490</v>
+      </c>
+      <c r="N326" s="32">
+        <v>0</v>
+      </c>
       <c r="O326" s="30"/>
       <c r="P326" s="30"/>
       <c r="Q326" s="30"/>
@@ -65129,22 +65187,54 @@
       <c r="AL326" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="AM326" s="28"/>
-      <c r="AN326" s="28"/>
-      <c r="AO326" s="28"/>
-      <c r="AP326" s="28"/>
-      <c r="AQ326" s="28"/>
-      <c r="AR326" s="28"/>
-      <c r="AS326" s="28"/>
-      <c r="AT326" s="28"/>
-      <c r="AU326" s="28"/>
-      <c r="AV326" s="28"/>
-      <c r="AW326" s="28"/>
-      <c r="AX326" s="28"/>
-      <c r="AY326" s="28"/>
-      <c r="AZ326" s="28"/>
-      <c r="BA326" s="28"/>
-      <c r="BB326" s="28"/>
+      <c r="AM326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP326" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="AQ326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW326" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX326" s="28" t="s">
+        <v>3507</v>
+      </c>
+      <c r="AY326" s="28" t="s">
+        <v>3514</v>
+      </c>
+      <c r="AZ326" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA326" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB326" s="28" t="s">
+        <v>941</v>
+      </c>
       <c r="BC326" s="28"/>
       <c r="BD326" s="28"/>
       <c r="BE326" s="28"/>
@@ -67303,7 +67393,7 @@
         <v>3354</v>
       </c>
       <c r="J340" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K340" s="67" t="s">
         <v>1876</v>
@@ -67475,7 +67565,7 @@
         <v>3354</v>
       </c>
       <c r="J341" s="28" t="s">
-        <v>76</v>
+        <v>2325</v>
       </c>
       <c r="K341" s="67" t="s">
         <v>1876</v>
@@ -67774,7 +67864,9 @@
       <c r="BE342" s="28" t="s">
         <v>3396</v>
       </c>
-      <c r="BF342" s="28"/>
+      <c r="BF342" s="28" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="343" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
@@ -67785,28 +67877,38 @@
         <v>191</v>
       </c>
       <c r="D343" s="82" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="E343" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F343" s="82" t="s">
-        <v>3495</v>
-      </c>
-      <c r="G343" s="28"/>
+        <v>3494</v>
+      </c>
+      <c r="G343" s="28" t="s">
+        <v>3500</v>
+      </c>
       <c r="H343" s="63" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I343" s="28" t="s">
         <v>3491</v>
       </c>
-      <c r="I343" s="28" t="s">
-        <v>3492</v>
-      </c>
       <c r="J343" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K343" s="67"/>
-      <c r="L343" s="32"/>
-      <c r="M343" s="32"/>
-      <c r="N343" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="K343" s="67" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L343" s="32">
+        <v>80</v>
+      </c>
+      <c r="M343" s="32">
+        <v>495</v>
+      </c>
+      <c r="N343" s="32">
+        <v>0</v>
+      </c>
       <c r="O343" s="30"/>
       <c r="P343" s="30"/>
       <c r="Q343" s="30"/>
@@ -67833,22 +67935,54 @@
       <c r="AL343" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AM343" s="28"/>
-      <c r="AN343" s="28"/>
-      <c r="AO343" s="28"/>
-      <c r="AP343" s="28"/>
-      <c r="AQ343" s="28"/>
-      <c r="AR343" s="28"/>
-      <c r="AS343" s="28"/>
-      <c r="AT343" s="28"/>
-      <c r="AU343" s="28"/>
-      <c r="AV343" s="28"/>
-      <c r="AW343" s="28"/>
-      <c r="AX343" s="28"/>
-      <c r="AY343" s="28"/>
-      <c r="AZ343" s="28"/>
-      <c r="BA343" s="28"/>
-      <c r="BB343" s="28"/>
+      <c r="AM343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO343" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW343" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX343" s="28" t="s">
+        <v>3508</v>
+      </c>
+      <c r="AY343" s="28" t="s">
+        <v>3512</v>
+      </c>
+      <c r="AZ343" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA343" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB343" s="28" t="s">
+        <v>2293</v>
+      </c>
       <c r="BC343" s="28"/>
       <c r="BD343" s="28"/>
       <c r="BE343" s="28"/>
@@ -67863,28 +67997,38 @@
         <v>192</v>
       </c>
       <c r="D344" s="82" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E344" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F344" s="82" t="s">
-        <v>3496</v>
-      </c>
-      <c r="G344" s="28"/>
+        <v>3495</v>
+      </c>
+      <c r="G344" s="28" t="s">
+        <v>3501</v>
+      </c>
       <c r="H344" s="63" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I344" s="28" t="s">
         <v>3491</v>
       </c>
-      <c r="I344" s="28" t="s">
-        <v>3492</v>
-      </c>
       <c r="J344" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K344" s="67"/>
-      <c r="L344" s="32"/>
-      <c r="M344" s="32"/>
-      <c r="N344" s="32"/>
+        <v>2325</v>
+      </c>
+      <c r="K344" s="67" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L344" s="32">
+        <v>80</v>
+      </c>
+      <c r="M344" s="32">
+        <v>510</v>
+      </c>
+      <c r="N344" s="32">
+        <v>0</v>
+      </c>
       <c r="O344" s="30"/>
       <c r="P344" s="30"/>
       <c r="Q344" s="30"/>
@@ -67911,22 +68055,54 @@
       <c r="AL344" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AM344" s="28"/>
-      <c r="AN344" s="28"/>
-      <c r="AO344" s="28"/>
-      <c r="AP344" s="28"/>
-      <c r="AQ344" s="28"/>
-      <c r="AR344" s="28"/>
-      <c r="AS344" s="28"/>
-      <c r="AT344" s="28"/>
-      <c r="AU344" s="28"/>
-      <c r="AV344" s="28"/>
-      <c r="AW344" s="28"/>
-      <c r="AX344" s="28"/>
-      <c r="AY344" s="28"/>
-      <c r="AZ344" s="28"/>
-      <c r="BA344" s="28"/>
-      <c r="BB344" s="28"/>
+      <c r="AM344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW344" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX344" s="28" t="s">
+        <v>3509</v>
+      </c>
+      <c r="AY344" s="28" t="s">
+        <v>3512</v>
+      </c>
+      <c r="AZ344" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA344" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB344" s="28" t="s">
+        <v>2292</v>
+      </c>
       <c r="BC344" s="28"/>
       <c r="BD344" s="28"/>
       <c r="BE344" s="28"/>
@@ -67941,28 +68117,38 @@
         <v>193</v>
       </c>
       <c r="D345" s="82" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="E345" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F345" s="30" t="s">
-        <v>3498</v>
-      </c>
-      <c r="G345" s="28"/>
+        <v>3497</v>
+      </c>
+      <c r="G345" s="28" t="s">
+        <v>3499</v>
+      </c>
       <c r="H345" s="63" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I345" s="28" t="s">
         <v>3491</v>
       </c>
-      <c r="I345" s="28" t="s">
-        <v>3492</v>
-      </c>
       <c r="J345" s="28" t="s">
-        <v>1922</v>
-      </c>
-      <c r="K345" s="67"/>
-      <c r="L345" s="32"/>
-      <c r="M345" s="32"/>
-      <c r="N345" s="32"/>
+        <v>3510</v>
+      </c>
+      <c r="K345" s="67" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L345" s="32">
+        <v>80</v>
+      </c>
+      <c r="M345" s="32">
+        <v>430</v>
+      </c>
+      <c r="N345" s="32">
+        <v>435</v>
+      </c>
       <c r="O345" s="30"/>
       <c r="P345" s="30"/>
       <c r="Q345" s="30"/>
@@ -67989,22 +68175,54 @@
       <c r="AL345" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AM345" s="28"/>
-      <c r="AN345" s="28"/>
-      <c r="AO345" s="28"/>
-      <c r="AP345" s="28"/>
-      <c r="AQ345" s="28"/>
-      <c r="AR345" s="28"/>
-      <c r="AS345" s="28"/>
-      <c r="AT345" s="28"/>
-      <c r="AU345" s="28"/>
-      <c r="AV345" s="28"/>
-      <c r="AW345" s="28"/>
-      <c r="AX345" s="28"/>
-      <c r="AY345" s="28"/>
-      <c r="AZ345" s="28"/>
-      <c r="BA345" s="28"/>
-      <c r="BB345" s="28"/>
+      <c r="AM345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW345" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX345" s="28" t="s">
+        <v>3511</v>
+      </c>
+      <c r="AY345" s="28" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AZ345" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA345" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB345" s="28" t="s">
+        <v>2333</v>
+      </c>
       <c r="BC345" s="28"/>
       <c r="BD345" s="28"/>
       <c r="BE345" s="28"/>
@@ -68423,28 +68641,38 @@
         <v>97</v>
       </c>
       <c r="D349" s="82" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="E349" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F349" s="28" t="s">
-        <v>3500</v>
-      </c>
-      <c r="G349" s="28"/>
-      <c r="H349" s="63" t="s">
+        <v>3504</v>
+      </c>
+      <c r="G349" s="28" t="s">
+        <v>3503</v>
+      </c>
+      <c r="H349" s="68" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I349" s="28" t="s">
         <v>3491</v>
-      </c>
-      <c r="I349" s="28" t="s">
-        <v>3492</v>
       </c>
       <c r="J349" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K349" s="32"/>
-      <c r="L349" s="32"/>
-      <c r="M349" s="32"/>
-      <c r="N349" s="32"/>
+      <c r="K349" s="32" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L349" s="32">
+        <v>80</v>
+      </c>
+      <c r="M349" s="32">
+        <v>495</v>
+      </c>
+      <c r="N349" s="32">
+        <v>0</v>
+      </c>
       <c r="O349" s="30"/>
       <c r="P349" s="30"/>
       <c r="Q349" s="30"/>
@@ -68471,22 +68699,54 @@
       <c r="AL349" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="AM349" s="28"/>
-      <c r="AN349" s="28"/>
-      <c r="AO349" s="28"/>
-      <c r="AP349" s="28"/>
-      <c r="AQ349" s="28"/>
-      <c r="AR349" s="28"/>
-      <c r="AS349" s="28"/>
-      <c r="AT349" s="28"/>
-      <c r="AU349" s="28"/>
-      <c r="AV349" s="28"/>
-      <c r="AW349" s="28"/>
-      <c r="AX349" s="28"/>
-      <c r="AY349" s="28"/>
-      <c r="AZ349" s="28"/>
-      <c r="BA349" s="28"/>
-      <c r="BB349" s="28"/>
+      <c r="AM349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW349" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX349" s="28" t="s">
+        <v>3505</v>
+      </c>
+      <c r="AY349" s="28" t="s">
+        <v>3513</v>
+      </c>
+      <c r="AZ349" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA349" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB349" s="28" t="s">
+        <v>941</v>
+      </c>
       <c r="BC349" s="28"/>
       <c r="BD349" s="28"/>
       <c r="BE349" s="28"/>
@@ -75232,6 +75492,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BF393" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
     <cfRule type="duplicateValues" dxfId="28" priority="33"/>
   </conditionalFormatting>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF736AB5-2FEA-403F-A779-7704050B45E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC0A51-3308-4551-BE5B-DE155750D790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17589" uniqueCount="3515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17707" uniqueCount="3540">
   <si>
     <t>date:</t>
   </si>
@@ -10601,6 +10603,81 @@
   </si>
   <si>
     <t>['Amhuluk', 'Magitek-Reaktor', 'Luna-Bahamut']</t>
+  </si>
+  <si>
+    <t>The_Cloud_Deck</t>
+  </si>
+  <si>
+    <t>The_Cloud_Deck_(Extreme)</t>
+  </si>
+  <si>
+    <t>The_Whorleater_(Unreal)</t>
+  </si>
+  <si>
+    <t>The_Tower_at_Paradigm's_Breach</t>
+  </si>
+  <si>
+    <t>Paglth'an_(Duty)</t>
+  </si>
+  <si>
+    <t>Paglth'an</t>
+  </si>
+  <si>
+    <t>Luna-Bahamut</t>
+  </si>
+  <si>
+    <t>Seven Flames</t>
+  </si>
+  <si>
+    <t>A-Magitek-Prädator</t>
+  </si>
+  <si>
+    <t>Goldene Flammen</t>
+  </si>
+  <si>
+    <t>Des Schicksals grausam Ränke</t>
+  </si>
+  <si>
+    <t>Androiden</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>The Sound of the End</t>
+  </si>
+  <si>
+    <t>Emil (Despair)</t>
+  </si>
+  <si>
+    <t>Kainé (Final Fantasy Main Theme Version)</t>
+  </si>
+  <si>
+    <t>Mourning</t>
+  </si>
+  <si>
+    <t>The Sound of the End: 8bit</t>
+  </si>
+  <si>
+    <t>Maschinenwesen-Puppe</t>
+  </si>
+  <si>
+    <t>Aufzieh-9S</t>
+  </si>
+  <si>
+    <t>Diamant-Waffen</t>
+  </si>
+  <si>
+    <t>Diamant-Gwiber</t>
+  </si>
+  <si>
+    <t>In the Arms of War</t>
+  </si>
+  <si>
+    <t>Zeta-Diamant</t>
+  </si>
+  <si>
+    <t>Gleißendes Leben</t>
   </si>
 </sst>
 </file>
@@ -10994,7 +11071,37 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11604,10 +11711,10 @@
   <dimension ref="A1:BF393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AW353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AX258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY368" sqref="AY368"/>
+      <selection pane="bottomRight" activeCell="AY342" sqref="AY342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -63056,7 +63163,7 @@
       <c r="BE313" s="70"/>
       <c r="BF313" s="70"/>
     </row>
-    <row r="314" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="28"/>
       <c r="B314" s="29">
         <v>43644</v>
@@ -63228,7 +63335,7 @@
       </c>
       <c r="BF314" s="28"/>
     </row>
-    <row r="315" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="28"/>
       <c r="B315" s="29">
         <v>43644</v>
@@ -63400,7 +63507,7 @@
       </c>
       <c r="BF315" s="28"/>
     </row>
-    <row r="316" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="28"/>
       <c r="B316" s="29">
         <v>43644</v>
@@ -63572,7 +63679,7 @@
       </c>
       <c r="BF316" s="28"/>
     </row>
-    <row r="317" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="28"/>
       <c r="B317" s="29">
         <v>43644</v>
@@ -63744,7 +63851,7 @@
       </c>
       <c r="BF317" s="28"/>
     </row>
-    <row r="318" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
       <c r="B318" s="29">
         <v>43644</v>
@@ -63916,7 +64023,7 @@
       </c>
       <c r="BF318" s="28"/>
     </row>
-    <row r="319" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28"/>
       <c r="B319" s="29">
         <v>43644</v>
@@ -64088,7 +64195,7 @@
       </c>
       <c r="BF319" s="28"/>
     </row>
-    <row r="320" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28"/>
       <c r="B320" s="29">
         <v>43644</v>
@@ -64260,7 +64367,7 @@
       </c>
       <c r="BF320" s="28"/>
     </row>
-    <row r="321" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
       <c r="B321" s="29">
         <v>43644</v>
@@ -64432,7 +64539,7 @@
       </c>
       <c r="BF321" s="28"/>
     </row>
-    <row r="322" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
       <c r="B322" s="29">
         <v>43767</v>
@@ -64604,7 +64711,7 @@
       </c>
       <c r="BF322" s="28"/>
     </row>
-    <row r="323" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28"/>
       <c r="B323" s="29">
         <v>43848</v>
@@ -64776,7 +64883,7 @@
       </c>
       <c r="BF323" s="28"/>
     </row>
-    <row r="324" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28"/>
       <c r="B324" s="29">
         <v>44054</v>
@@ -64948,7 +65055,7 @@
       </c>
       <c r="BF324" s="28"/>
     </row>
-    <row r="325" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="29">
         <v>44173</v>
@@ -65120,7 +65227,7 @@
       </c>
       <c r="BF325" s="28"/>
     </row>
-    <row r="326" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
       <c r="B326" s="29">
         <v>44299</v>
@@ -65161,29 +65268,69 @@
       <c r="N326" s="32">
         <v>0</v>
       </c>
-      <c r="O326" s="30"/>
+      <c r="O326" s="30" t="s">
+        <v>3524</v>
+      </c>
       <c r="P326" s="30"/>
       <c r="Q326" s="30"/>
-      <c r="R326" s="30"/>
-      <c r="S326" s="30"/>
-      <c r="T326" s="30"/>
-      <c r="U326" s="28"/>
-      <c r="V326" s="28"/>
-      <c r="W326" s="28"/>
-      <c r="X326" s="30"/>
-      <c r="Y326" s="30"/>
-      <c r="Z326" s="28"/>
-      <c r="AA326" s="28"/>
-      <c r="AB326" s="28"/>
+      <c r="R326" s="30" t="s">
+        <v>3520</v>
+      </c>
+      <c r="S326" s="30" t="s">
+        <v>3521</v>
+      </c>
+      <c r="T326" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U326" s="28" t="s">
+        <v>3522</v>
+      </c>
+      <c r="V326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB326" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AC326" s="33"/>
-      <c r="AD326" s="30"/>
-      <c r="AE326" s="30"/>
-      <c r="AF326" s="30"/>
-      <c r="AG326" s="28"/>
-      <c r="AH326" s="28"/>
-      <c r="AI326" s="28"/>
-      <c r="AJ326" s="28"/>
-      <c r="AK326" s="30"/>
+      <c r="AD326" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AE326" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AF326" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI326" s="28" t="s">
+        <v>3523</v>
+      </c>
+      <c r="AJ326" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK326" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL326" s="28" t="s">
         <v>85</v>
       </c>
@@ -65235,12 +65382,18 @@
       <c r="BB326" s="28" t="s">
         <v>941</v>
       </c>
-      <c r="BC326" s="28"/>
-      <c r="BD326" s="28"/>
-      <c r="BE326" s="28"/>
+      <c r="BC326" s="28">
+        <v>77</v>
+      </c>
+      <c r="BD326" s="28">
+        <v>77</v>
+      </c>
+      <c r="BE326" s="28" t="s">
+        <v>3519</v>
+      </c>
       <c r="BF326" s="28"/>
     </row>
-    <row r="327" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>779</v>
       </c>
@@ -67579,7 +67732,9 @@
       <c r="N341" s="32">
         <v>0</v>
       </c>
-      <c r="O341" s="30"/>
+      <c r="O341" s="30" t="s">
+        <v>2342</v>
+      </c>
       <c r="P341" s="30" t="s">
         <v>2345</v>
       </c>
@@ -67794,16 +67949,30 @@
       <c r="AC342" s="28" t="s">
         <v>2055</v>
       </c>
-      <c r="AD342" s="28"/>
+      <c r="AD342" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AE342" s="28" t="s">
         <v>2056</v>
       </c>
-      <c r="AF342" s="28"/>
-      <c r="AG342" s="30"/>
-      <c r="AH342" s="30"/>
-      <c r="AI342" s="30"/>
-      <c r="AJ342" s="30"/>
-      <c r="AK342" s="30"/>
+      <c r="AF342" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG342" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH342" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI342" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ342" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK342" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL342" s="28" t="s">
         <v>186</v>
       </c>
@@ -67909,29 +68078,71 @@
       <c r="N343" s="32">
         <v>0</v>
       </c>
-      <c r="O343" s="30"/>
-      <c r="P343" s="30"/>
-      <c r="Q343" s="30"/>
-      <c r="R343" s="30"/>
-      <c r="S343" s="30"/>
-      <c r="T343" s="30"/>
-      <c r="U343" s="30"/>
-      <c r="V343" s="30"/>
-      <c r="W343" s="30"/>
-      <c r="X343" s="30"/>
-      <c r="Y343" s="30"/>
-      <c r="Z343" s="30"/>
-      <c r="AA343" s="30"/>
-      <c r="AB343" s="30"/>
+      <c r="O343" s="30" t="s">
+        <v>3539</v>
+      </c>
+      <c r="P343" s="30" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q343" s="30" t="s">
+        <v>3436</v>
+      </c>
+      <c r="R343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S343" s="30" t="s">
+        <v>3535</v>
+      </c>
+      <c r="T343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA343" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB343" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AC343" s="28"/>
-      <c r="AD343" s="28"/>
+      <c r="AD343" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AE343" s="28"/>
-      <c r="AF343" s="28"/>
-      <c r="AG343" s="30"/>
-      <c r="AH343" s="30"/>
-      <c r="AI343" s="30"/>
-      <c r="AJ343" s="30"/>
-      <c r="AK343" s="30"/>
+      <c r="AF343" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG343" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH343" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI343" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ343" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK343" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL343" s="28" t="s">
         <v>186</v>
       </c>
@@ -67983,9 +68194,15 @@
       <c r="BB343" s="28" t="s">
         <v>2293</v>
       </c>
-      <c r="BC343" s="28"/>
-      <c r="BD343" s="28"/>
-      <c r="BE343" s="28"/>
+      <c r="BC343" s="28">
+        <v>20075</v>
+      </c>
+      <c r="BD343" s="28">
+        <v>20075</v>
+      </c>
+      <c r="BE343" s="28" t="s">
+        <v>3515</v>
+      </c>
       <c r="BF343" s="28"/>
     </row>
     <row r="344" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -68029,29 +68246,71 @@
       <c r="N344" s="32">
         <v>0</v>
       </c>
-      <c r="O344" s="30"/>
-      <c r="P344" s="30"/>
-      <c r="Q344" s="30"/>
-      <c r="R344" s="30"/>
-      <c r="S344" s="30"/>
-      <c r="T344" s="30"/>
-      <c r="U344" s="30"/>
-      <c r="V344" s="30"/>
-      <c r="W344" s="30"/>
-      <c r="X344" s="30"/>
-      <c r="Y344" s="30"/>
-      <c r="Z344" s="30"/>
-      <c r="AA344" s="30"/>
-      <c r="AB344" s="30"/>
+      <c r="O344" s="30" t="s">
+        <v>2342</v>
+      </c>
+      <c r="P344" s="30" t="s">
+        <v>2345</v>
+      </c>
+      <c r="Q344" s="30" t="s">
+        <v>2349</v>
+      </c>
+      <c r="R344" s="30" t="s">
+        <v>3538</v>
+      </c>
+      <c r="S344" s="30" t="s">
+        <v>3535</v>
+      </c>
+      <c r="T344" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U344" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V344" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W344" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X344" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y344" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z344" s="30" t="s">
+        <v>3537</v>
+      </c>
+      <c r="AA344" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB344" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AC344" s="28"/>
-      <c r="AD344" s="28"/>
+      <c r="AD344" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AE344" s="28"/>
-      <c r="AF344" s="28"/>
-      <c r="AG344" s="30"/>
-      <c r="AH344" s="30"/>
-      <c r="AI344" s="30"/>
-      <c r="AJ344" s="30"/>
-      <c r="AK344" s="30"/>
+      <c r="AF344" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG344" s="30" t="s">
+        <v>3536</v>
+      </c>
+      <c r="AH344" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI344" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ344" s="28" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK344" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL344" s="28" t="s">
         <v>186</v>
       </c>
@@ -68103,9 +68362,15 @@
       <c r="BB344" s="28" t="s">
         <v>2292</v>
       </c>
-      <c r="BC344" s="28"/>
-      <c r="BD344" s="28"/>
-      <c r="BE344" s="28"/>
+      <c r="BC344" s="28">
+        <v>20076</v>
+      </c>
+      <c r="BD344" s="28">
+        <v>20076</v>
+      </c>
+      <c r="BE344" s="28" t="s">
+        <v>3516</v>
+      </c>
       <c r="BF344" s="28"/>
     </row>
     <row r="345" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -68149,29 +68414,71 @@
       <c r="N345" s="32">
         <v>435</v>
       </c>
-      <c r="O345" s="30"/>
-      <c r="P345" s="30"/>
-      <c r="Q345" s="30"/>
-      <c r="R345" s="30"/>
-      <c r="S345" s="30"/>
-      <c r="T345" s="30"/>
-      <c r="U345" s="30"/>
-      <c r="V345" s="30"/>
-      <c r="W345" s="30"/>
-      <c r="X345" s="30"/>
-      <c r="Y345" s="30"/>
-      <c r="Z345" s="30"/>
-      <c r="AA345" s="30"/>
-      <c r="AB345" s="30"/>
+      <c r="O345" s="30" t="s">
+        <v>2339</v>
+      </c>
+      <c r="P345" s="30" t="s">
+        <v>2347</v>
+      </c>
+      <c r="Q345" s="30" t="s">
+        <v>2351</v>
+      </c>
+      <c r="R345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="S345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="T345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="V345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="X345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Y345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Z345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB345" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AC345" s="28"/>
-      <c r="AD345" s="28"/>
+      <c r="AD345" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AE345" s="28"/>
-      <c r="AF345" s="28"/>
-      <c r="AG345" s="30"/>
-      <c r="AH345" s="30"/>
-      <c r="AI345" s="30"/>
-      <c r="AJ345" s="30"/>
-      <c r="AK345" s="30"/>
+      <c r="AF345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AJ345" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AK345" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL345" s="28" t="s">
         <v>186</v>
       </c>
@@ -68223,9 +68530,15 @@
       <c r="BB345" s="28" t="s">
         <v>2333</v>
       </c>
-      <c r="BC345" s="28"/>
-      <c r="BD345" s="28"/>
-      <c r="BE345" s="28"/>
+      <c r="BC345" s="28">
+        <v>64003</v>
+      </c>
+      <c r="BD345" s="28">
+        <v>64003</v>
+      </c>
+      <c r="BE345" s="28" t="s">
+        <v>3517</v>
+      </c>
       <c r="BF345" s="28"/>
     </row>
     <row r="346" spans="1:58" x14ac:dyDescent="0.25">
@@ -68290,7 +68603,7 @@
       <c r="BE346" s="28"/>
       <c r="BF346" s="28"/>
     </row>
-    <row r="347" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="28"/>
       <c r="B347" s="35">
         <v>43767</v>
@@ -68462,7 +68775,7 @@
       </c>
       <c r="BF347" s="28"/>
     </row>
-    <row r="348" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="28"/>
       <c r="B348" s="35">
         <v>44054</v>
@@ -68533,7 +68846,9 @@
       <c r="X348" s="28" t="s">
         <v>3302</v>
       </c>
-      <c r="Y348" s="28"/>
+      <c r="Y348" s="28" t="s">
+        <v>3179</v>
+      </c>
       <c r="Z348" s="30" t="s">
         <v>3179</v>
       </c>
@@ -68632,7 +68947,7 @@
       </c>
       <c r="BF348" s="28"/>
     </row>
-    <row r="349" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="28"/>
       <c r="B349" s="29">
         <v>44299</v>
@@ -68673,29 +68988,71 @@
       <c r="N349" s="32">
         <v>0</v>
       </c>
-      <c r="O349" s="30"/>
-      <c r="P349" s="30"/>
-      <c r="Q349" s="30"/>
-      <c r="R349" s="30"/>
-      <c r="S349" s="30"/>
-      <c r="T349" s="30"/>
-      <c r="U349" s="28"/>
-      <c r="V349" s="28"/>
-      <c r="W349" s="28"/>
-      <c r="X349" s="28"/>
-      <c r="Y349" s="28"/>
-      <c r="Z349" s="30"/>
-      <c r="AA349" s="30"/>
-      <c r="AB349" s="30"/>
+      <c r="O349" s="30" t="s">
+        <v>3525</v>
+      </c>
+      <c r="P349" s="30" t="s">
+        <v>1807</v>
+      </c>
+      <c r="Q349" s="30" t="s">
+        <v>2363</v>
+      </c>
+      <c r="R349" s="30" t="s">
+        <v>3526</v>
+      </c>
+      <c r="S349" s="30" t="s">
+        <v>3527</v>
+      </c>
+      <c r="T349" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="U349" s="28" t="s">
+        <v>3528</v>
+      </c>
+      <c r="V349" s="28" t="s">
+        <v>3529</v>
+      </c>
+      <c r="W349" s="28" t="s">
+        <v>3530</v>
+      </c>
+      <c r="X349" s="28" t="s">
+        <v>3531</v>
+      </c>
+      <c r="Y349" s="28" t="s">
+        <v>3532</v>
+      </c>
+      <c r="Z349" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AA349" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AB349" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AC349" s="33"/>
-      <c r="AD349" s="30"/>
+      <c r="AD349" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AE349" s="30"/>
-      <c r="AF349" s="30"/>
-      <c r="AG349" s="30"/>
-      <c r="AH349" s="30"/>
-      <c r="AI349" s="28"/>
-      <c r="AJ349" s="28"/>
-      <c r="AK349" s="30"/>
+      <c r="AF349" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AG349" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AH349" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AI349" s="28" t="s">
+        <v>3533</v>
+      </c>
+      <c r="AJ349" s="28" t="s">
+        <v>3534</v>
+      </c>
+      <c r="AK349" s="30" t="s">
+        <v>3179</v>
+      </c>
       <c r="AL349" s="28" t="s">
         <v>574</v>
       </c>
@@ -68747,12 +69104,18 @@
       <c r="BB349" s="28" t="s">
         <v>941</v>
       </c>
-      <c r="BC349" s="28"/>
-      <c r="BD349" s="28"/>
-      <c r="BE349" s="28"/>
+      <c r="BC349" s="28">
+        <v>30105</v>
+      </c>
+      <c r="BD349" s="28">
+        <v>30105</v>
+      </c>
+      <c r="BE349" s="28" t="s">
+        <v>3518</v>
+      </c>
       <c r="BF349" s="28"/>
     </row>
-    <row r="350" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28"/>
       <c r="B350" s="35">
         <v>43662</v>
@@ -68924,7 +69287,7 @@
       </c>
       <c r="BF350" s="28"/>
     </row>
-    <row r="351" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="28"/>
       <c r="B351" s="35">
         <v>43662</v>
@@ -69096,7 +69459,7 @@
       </c>
       <c r="BF351" s="28"/>
     </row>
-    <row r="352" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
         <v>43662</v>
@@ -69268,7 +69631,7 @@
       </c>
       <c r="BF352" s="28"/>
     </row>
-    <row r="353" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="28"/>
       <c r="B353" s="35">
         <v>43662</v>
@@ -69440,7 +69803,7 @@
       </c>
       <c r="BF353" s="28"/>
     </row>
-    <row r="354" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="28"/>
       <c r="B354" s="35">
         <v>43676</v>
@@ -69612,7 +69975,7 @@
       </c>
       <c r="BF354" s="28"/>
     </row>
-    <row r="355" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="28"/>
       <c r="B355" s="35">
         <v>43676</v>
@@ -69784,7 +70147,7 @@
       </c>
       <c r="BF355" s="28"/>
     </row>
-    <row r="356" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="28"/>
       <c r="B356" s="35">
         <v>43676</v>
@@ -69956,7 +70319,7 @@
       </c>
       <c r="BF356" s="28"/>
     </row>
-    <row r="357" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="28"/>
       <c r="B357" s="35">
         <v>43676</v>
@@ -70128,7 +70491,7 @@
       </c>
       <c r="BF357" s="28"/>
     </row>
-    <row r="358" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="28"/>
       <c r="B358" s="35">
         <v>43848</v>
@@ -70300,7 +70663,7 @@
       </c>
       <c r="BF358" s="28"/>
     </row>
-    <row r="359" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="28"/>
       <c r="B359" s="35">
         <v>43848</v>
@@ -70472,7 +70835,7 @@
       </c>
       <c r="BF359" s="28"/>
     </row>
-    <row r="360" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28"/>
       <c r="B360" s="35">
         <v>43848</v>
@@ -70644,7 +71007,7 @@
       </c>
       <c r="BF360" s="28"/>
     </row>
-    <row r="361" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="28"/>
       <c r="B361" s="35">
         <v>43848</v>
@@ -70816,7 +71179,7 @@
       </c>
       <c r="BF361" s="28"/>
     </row>
-    <row r="362" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="28"/>
       <c r="B362" s="35">
         <v>43848</v>
@@ -70988,7 +71351,7 @@
       </c>
       <c r="BF362" s="28"/>
     </row>
-    <row r="363" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="28"/>
       <c r="B363" s="35">
         <v>43848</v>
@@ -71160,7 +71523,7 @@
       </c>
       <c r="BF363" s="28"/>
     </row>
-    <row r="364" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="28"/>
       <c r="B364" s="35">
         <v>43848</v>
@@ -71332,7 +71695,7 @@
       </c>
       <c r="BF364" s="28"/>
     </row>
-    <row r="365" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A365" s="28"/>
       <c r="B365" s="35">
         <v>43848</v>
@@ -71504,7 +71867,7 @@
       </c>
       <c r="BF365" s="28"/>
     </row>
-    <row r="366" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A366" s="28"/>
       <c r="B366" s="35">
         <v>44173</v>
@@ -71674,7 +72037,7 @@
       </c>
       <c r="BF366" s="28"/>
     </row>
-    <row r="367" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A367" s="28"/>
       <c r="B367" s="35">
         <v>44173</v>
@@ -71846,7 +72209,7 @@
       </c>
       <c r="BF367" s="28"/>
     </row>
-    <row r="368" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
       <c r="B368" s="35">
         <v>44173</v>
@@ -72018,7 +72381,7 @@
       </c>
       <c r="BF368" s="28"/>
     </row>
-    <row r="369" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
       <c r="B369" s="35">
         <v>44173</v>
@@ -72190,7 +72553,7 @@
       </c>
       <c r="BF369" s="28"/>
     </row>
-    <row r="370" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28"/>
       <c r="B370" s="35">
         <v>44173</v>
@@ -72362,7 +72725,7 @@
       </c>
       <c r="BF370" s="28"/>
     </row>
-    <row r="371" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28"/>
       <c r="B371" s="35">
         <v>44173</v>
@@ -72534,7 +72897,7 @@
       </c>
       <c r="BF371" s="28"/>
     </row>
-    <row r="372" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
       <c r="B372" s="35">
         <v>44173</v>
@@ -72706,7 +73069,7 @@
       </c>
       <c r="BF372" s="28"/>
     </row>
-    <row r="373" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
       <c r="B373" s="35">
         <v>44173</v>
@@ -72878,7 +73241,7 @@
       </c>
       <c r="BF373" s="28"/>
     </row>
-    <row r="374" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A374" s="28"/>
       <c r="B374" s="35">
         <v>43781</v>
@@ -73050,7 +73413,7 @@
       </c>
       <c r="BF374" s="28"/>
     </row>
-    <row r="375" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>781</v>
       </c>
@@ -75494,91 +75857,100 @@
   <autoFilter ref="A1:BF393" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
-    <cfRule type="duplicateValues" dxfId="28" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="26" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F355">
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:F99">
     <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348:F355">
+  <conditionalFormatting sqref="F194">
     <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F287">
     <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F99">
+  <conditionalFormatting sqref="F392 F300:F312 F385:F389">
     <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="F284:F286">
     <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+  <conditionalFormatting sqref="F193">
     <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F392 F300:F312 F385:F389">
+  <conditionalFormatting sqref="F356:F374">
     <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F286">
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+  <conditionalFormatting sqref="F322:F326">
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
+  <conditionalFormatting sqref="F377">
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322:F326">
+  <conditionalFormatting sqref="F288:F299">
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F377">
+  <conditionalFormatting sqref="F390:F391">
     <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F299">
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F390:F391">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O342:O345">
+  <conditionalFormatting sqref="O342:O343">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O384">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O379:O382">
+    <cfRule type="duplicateValues" dxfId="7" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O382">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O384">
+  <conditionalFormatting sqref="O381">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O379:O382">
-    <cfRule type="duplicateValues" dxfId="4" priority="52"/>
+  <conditionalFormatting sqref="F393:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
+    <cfRule type="duplicateValues" dxfId="4" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O382">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="O385:O1048576 O346:O368 O383 O370:O377 O1:O340">
+    <cfRule type="duplicateValues" dxfId="3" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="O345">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F393:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  <conditionalFormatting sqref="O341">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O385:O1048576 O346:O368 O383 O370:O377 O1:O341">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+  <conditionalFormatting sqref="O344">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DevFFXIVPocketGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC0A51-3308-4551-BE5B-DE155750D790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB27196-6FDA-43C1-B6B1-ECCA77284279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15315" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17707" uniqueCount="3540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17724" uniqueCount="3540">
   <si>
     <t>date:</t>
   </si>
@@ -11711,10 +11709,10 @@
   <dimension ref="A1:BF393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AX258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY342" sqref="AY342"/>
+      <selection pane="bottomRight" activeCell="BF84" sqref="BF84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -25879,7 +25877,9 @@
       <c r="BE84" s="6" t="s">
         <v>3132</v>
       </c>
-      <c r="BF84" s="6"/>
+      <c r="BF84" s="6" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="85" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -42336,7 +42336,9 @@
       <c r="BE184" s="14" t="s">
         <v>3133</v>
       </c>
-      <c r="BF184" s="14"/>
+      <c r="BF184" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="185" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
@@ -42506,7 +42508,9 @@
         <v>40010</v>
       </c>
       <c r="BE185" s="14"/>
-      <c r="BF185" s="14"/>
+      <c r="BF185" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="186" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
@@ -42676,7 +42680,9 @@
         <v>40008</v>
       </c>
       <c r="BE186" s="14"/>
-      <c r="BF186" s="14"/>
+      <c r="BF186" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="187" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
@@ -42848,7 +42854,9 @@
       <c r="BE187" s="14" t="s">
         <v>3134</v>
       </c>
-      <c r="BF187" s="14"/>
+      <c r="BF187" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="188" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
@@ -43018,7 +43026,9 @@
         <v>40014</v>
       </c>
       <c r="BE188" s="14"/>
-      <c r="BF188" s="14"/>
+      <c r="BF188" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="189" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
@@ -43188,7 +43198,9 @@
         <v>40018</v>
       </c>
       <c r="BE189" s="14"/>
-      <c r="BF189" s="14"/>
+      <c r="BF189" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="190" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
@@ -43358,7 +43370,9 @@
         <v>40016</v>
       </c>
       <c r="BE190" s="14"/>
-      <c r="BF190" s="14"/>
+      <c r="BF190" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="191" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
@@ -43528,7 +43542,9 @@
         <v>40021</v>
       </c>
       <c r="BE191" s="14"/>
-      <c r="BF191" s="14"/>
+      <c r="BF191" s="14" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="192" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
@@ -56421,7 +56437,9 @@
       <c r="BE270" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="BF270" s="20"/>
+      <c r="BF270" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="271" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
@@ -56591,7 +56609,9 @@
         <v>40025</v>
       </c>
       <c r="BE271" s="20"/>
-      <c r="BF271" s="20"/>
+      <c r="BF271" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="272" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
@@ -56761,7 +56781,9 @@
         <v>40022</v>
       </c>
       <c r="BE272" s="20"/>
-      <c r="BF272" s="20"/>
+      <c r="BF272" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="273" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
@@ -56931,7 +56953,9 @@
         <v>40023</v>
       </c>
       <c r="BE273" s="20"/>
-      <c r="BF273" s="20"/>
+      <c r="BF273" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="274" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
@@ -57101,7 +57125,9 @@
         <v>40024</v>
       </c>
       <c r="BE274" s="20"/>
-      <c r="BF274" s="20"/>
+      <c r="BF274" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="275" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
@@ -57271,7 +57297,9 @@
         <v>40026</v>
       </c>
       <c r="BE275" s="20"/>
-      <c r="BF275" s="20"/>
+      <c r="BF275" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="276" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
@@ -57443,7 +57471,9 @@
       <c r="BE276" s="20" t="s">
         <v>3131</v>
       </c>
-      <c r="BF276" s="20"/>
+      <c r="BF276" s="20" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="277" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20" t="s">
@@ -65455,7 +65485,7 @@
       <c r="BE327" s="28"/>
       <c r="BF327" s="28"/>
     </row>
-    <row r="328" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -65627,7 +65657,7 @@
       </c>
       <c r="BF328" s="28"/>
     </row>
-    <row r="329" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -65799,7 +65829,7 @@
       </c>
       <c r="BF329" s="28"/>
     </row>
-    <row r="330" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -65971,7 +66001,7 @@
       </c>
       <c r="BF330" s="28"/>
     </row>
-    <row r="331" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -66143,7 +66173,7 @@
       </c>
       <c r="BF331" s="28"/>
     </row>
-    <row r="332" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -66315,7 +66345,7 @@
       </c>
       <c r="BF332" s="28"/>
     </row>
-    <row r="333" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -66485,7 +66515,7 @@
       </c>
       <c r="BF333" s="28"/>
     </row>
-    <row r="334" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -66657,7 +66687,7 @@
       </c>
       <c r="BF334" s="28"/>
     </row>
-    <row r="335" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -66829,7 +66859,7 @@
       </c>
       <c r="BF335" s="28"/>
     </row>
-    <row r="336" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -67001,7 +67031,7 @@
       </c>
       <c r="BF336" s="28"/>
     </row>
-    <row r="337" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -67173,7 +67203,7 @@
       </c>
       <c r="BF337" s="28"/>
     </row>
-    <row r="338" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -67345,7 +67375,7 @@
       </c>
       <c r="BF338" s="28"/>
     </row>
-    <row r="339" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -67519,7 +67549,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="340" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -67691,7 +67721,7 @@
       </c>
       <c r="BF340" s="28"/>
     </row>
-    <row r="341" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -67863,7 +67893,7 @@
       </c>
       <c r="BF341" s="28"/>
     </row>
-    <row r="342" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -68037,7 +68067,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="343" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -68205,7 +68235,7 @@
       </c>
       <c r="BF343" s="28"/>
     </row>
-    <row r="344" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -68373,7 +68403,7 @@
       </c>
       <c r="BF344" s="28"/>
     </row>
-    <row r="345" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -68541,7 +68571,7 @@
       </c>
       <c r="BF345" s="28"/>
     </row>
-    <row r="346" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -73643,7 +73673,9 @@
         <v>50006</v>
       </c>
       <c r="BE376" s="28"/>
-      <c r="BF376" s="28"/>
+      <c r="BF376" s="28" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="377" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB27196-6FDA-43C1-B6B1-ECCA77284279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D22280-DA5D-4807-B8B5-48B33859DB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15315" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="1830" yWindow="2850" windowWidth="32640" windowHeight="15375" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17724" uniqueCount="3540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17729" uniqueCount="3546">
   <si>
     <t>date:</t>
   </si>
@@ -10676,6 +10676,24 @@
   </si>
   <si>
     <t>Gleißendes Leben</t>
+  </si>
+  <si>
+    <t>apFP4v_zcCg</t>
+  </si>
+  <si>
+    <t>XlMEzOaO_eQ</t>
+  </si>
+  <si>
+    <t>fM4Nz8-3I4A</t>
+  </si>
+  <si>
+    <t>kmNz10AGer0</t>
+  </si>
+  <si>
+    <t>Jmq-zDBcc0s</t>
+  </si>
+  <si>
+    <t>BED7fIMOzts</t>
   </si>
 </sst>
 </file>
@@ -11709,10 +11727,10 @@
   <dimension ref="A1:BF393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Y328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF84" sqref="BF84"/>
+      <selection pane="bottomRight" activeCell="AH339" sqref="AH339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -63193,7 +63211,7 @@
       <c r="BE313" s="70"/>
       <c r="BF313" s="70"/>
     </row>
-    <row r="314" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="28"/>
       <c r="B314" s="29">
         <v>43644</v>
@@ -63365,7 +63383,7 @@
       </c>
       <c r="BF314" s="28"/>
     </row>
-    <row r="315" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="28"/>
       <c r="B315" s="29">
         <v>43644</v>
@@ -63537,7 +63555,7 @@
       </c>
       <c r="BF315" s="28"/>
     </row>
-    <row r="316" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="28"/>
       <c r="B316" s="29">
         <v>43644</v>
@@ -63709,7 +63727,7 @@
       </c>
       <c r="BF316" s="28"/>
     </row>
-    <row r="317" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="28"/>
       <c r="B317" s="29">
         <v>43644</v>
@@ -63881,7 +63899,7 @@
       </c>
       <c r="BF317" s="28"/>
     </row>
-    <row r="318" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
       <c r="B318" s="29">
         <v>43644</v>
@@ -64053,7 +64071,7 @@
       </c>
       <c r="BF318" s="28"/>
     </row>
-    <row r="319" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28"/>
       <c r="B319" s="29">
         <v>43644</v>
@@ -64225,7 +64243,7 @@
       </c>
       <c r="BF319" s="28"/>
     </row>
-    <row r="320" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28"/>
       <c r="B320" s="29">
         <v>43644</v>
@@ -64397,7 +64415,7 @@
       </c>
       <c r="BF320" s="28"/>
     </row>
-    <row r="321" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
       <c r="B321" s="29">
         <v>43644</v>
@@ -64569,7 +64587,7 @@
       </c>
       <c r="BF321" s="28"/>
     </row>
-    <row r="322" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
       <c r="B322" s="29">
         <v>43767</v>
@@ -64741,7 +64759,7 @@
       </c>
       <c r="BF322" s="28"/>
     </row>
-    <row r="323" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28"/>
       <c r="B323" s="29">
         <v>43848</v>
@@ -64913,7 +64931,7 @@
       </c>
       <c r="BF323" s="28"/>
     </row>
-    <row r="324" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28"/>
       <c r="B324" s="29">
         <v>44054</v>
@@ -65085,7 +65103,7 @@
       </c>
       <c r="BF324" s="28"/>
     </row>
-    <row r="325" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="29">
         <v>44173</v>
@@ -65257,7 +65275,7 @@
       </c>
       <c r="BF325" s="28"/>
     </row>
-    <row r="326" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
       <c r="B326" s="29">
         <v>44299</v>
@@ -65336,12 +65354,14 @@
       <c r="AB326" s="28" t="s">
         <v>3179</v>
       </c>
-      <c r="AC326" s="33"/>
+      <c r="AC326" s="33" t="s">
+        <v>3540</v>
+      </c>
       <c r="AD326" s="30" t="s">
         <v>3179</v>
       </c>
       <c r="AE326" s="30" t="s">
-        <v>3179</v>
+        <v>3544</v>
       </c>
       <c r="AF326" s="30" t="s">
         <v>3179</v>
@@ -65423,7 +65443,7 @@
       </c>
       <c r="BF326" s="28"/>
     </row>
-    <row r="327" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>779</v>
       </c>
@@ -65485,7 +65505,7 @@
       <c r="BE327" s="28"/>
       <c r="BF327" s="28"/>
     </row>
-    <row r="328" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -65657,7 +65677,7 @@
       </c>
       <c r="BF328" s="28"/>
     </row>
-    <row r="329" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -65829,7 +65849,7 @@
       </c>
       <c r="BF329" s="28"/>
     </row>
-    <row r="330" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -66001,7 +66021,7 @@
       </c>
       <c r="BF330" s="28"/>
     </row>
-    <row r="331" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -66173,7 +66193,7 @@
       </c>
       <c r="BF331" s="28"/>
     </row>
-    <row r="332" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -66345,7 +66365,7 @@
       </c>
       <c r="BF332" s="28"/>
     </row>
-    <row r="333" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -66515,7 +66535,7 @@
       </c>
       <c r="BF333" s="28"/>
     </row>
-    <row r="334" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -66687,7 +66707,7 @@
       </c>
       <c r="BF334" s="28"/>
     </row>
-    <row r="335" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -66859,7 +66879,7 @@
       </c>
       <c r="BF335" s="28"/>
     </row>
-    <row r="336" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -67031,7 +67051,7 @@
       </c>
       <c r="BF336" s="28"/>
     </row>
-    <row r="337" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -67203,7 +67223,7 @@
       </c>
       <c r="BF337" s="28"/>
     </row>
-    <row r="338" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -67375,7 +67395,7 @@
       </c>
       <c r="BF338" s="28"/>
     </row>
-    <row r="339" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -67549,7 +67569,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="340" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -67721,7 +67741,7 @@
       </c>
       <c r="BF340" s="28"/>
     </row>
-    <row r="341" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -67893,7 +67913,7 @@
       </c>
       <c r="BF341" s="28"/>
     </row>
-    <row r="342" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -68067,7 +68087,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="343" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -68150,7 +68170,9 @@
       <c r="AB343" s="30" t="s">
         <v>3179</v>
       </c>
-      <c r="AC343" s="28"/>
+      <c r="AC343" s="28" t="s">
+        <v>3541</v>
+      </c>
       <c r="AD343" s="28" t="s">
         <v>3179</v>
       </c>
@@ -68235,7 +68257,7 @@
       </c>
       <c r="BF343" s="28"/>
     </row>
-    <row r="344" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -68322,7 +68344,9 @@
       <c r="AD344" s="28" t="s">
         <v>3179</v>
       </c>
-      <c r="AE344" s="28"/>
+      <c r="AE344" s="28" t="s">
+        <v>3543</v>
+      </c>
       <c r="AF344" s="28" t="s">
         <v>3179</v>
       </c>
@@ -68403,7 +68427,7 @@
       </c>
       <c r="BF344" s="28"/>
     </row>
-    <row r="345" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -68571,7 +68595,7 @@
       </c>
       <c r="BF345" s="28"/>
     </row>
-    <row r="346" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -68633,7 +68657,7 @@
       <c r="BE346" s="28"/>
       <c r="BF346" s="28"/>
     </row>
-    <row r="347" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="28"/>
       <c r="B347" s="35">
         <v>43767</v>
@@ -68805,7 +68829,7 @@
       </c>
       <c r="BF347" s="28"/>
     </row>
-    <row r="348" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="28"/>
       <c r="B348" s="35">
         <v>44054</v>
@@ -68977,7 +69001,7 @@
       </c>
       <c r="BF348" s="28"/>
     </row>
-    <row r="349" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="28"/>
       <c r="B349" s="29">
         <v>44299</v>
@@ -69060,11 +69084,15 @@
       <c r="AB349" s="30" t="s">
         <v>3179</v>
       </c>
-      <c r="AC349" s="33"/>
+      <c r="AC349" s="33" t="s">
+        <v>3542</v>
+      </c>
       <c r="AD349" s="30" t="s">
         <v>3179</v>
       </c>
-      <c r="AE349" s="30"/>
+      <c r="AE349" s="30" t="s">
+        <v>3545</v>
+      </c>
       <c r="AF349" s="30" t="s">
         <v>3179</v>
       </c>
@@ -69145,7 +69173,7 @@
       </c>
       <c r="BF349" s="28"/>
     </row>
-    <row r="350" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28"/>
       <c r="B350" s="35">
         <v>43662</v>
@@ -69317,7 +69345,7 @@
       </c>
       <c r="BF350" s="28"/>
     </row>
-    <row r="351" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="28"/>
       <c r="B351" s="35">
         <v>43662</v>
@@ -69489,7 +69517,7 @@
       </c>
       <c r="BF351" s="28"/>
     </row>
-    <row r="352" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
         <v>43662</v>
@@ -69661,7 +69689,7 @@
       </c>
       <c r="BF352" s="28"/>
     </row>
-    <row r="353" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="28"/>
       <c r="B353" s="35">
         <v>43662</v>
@@ -69833,7 +69861,7 @@
       </c>
       <c r="BF353" s="28"/>
     </row>
-    <row r="354" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="28"/>
       <c r="B354" s="35">
         <v>43676</v>
@@ -70005,7 +70033,7 @@
       </c>
       <c r="BF354" s="28"/>
     </row>
-    <row r="355" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="28"/>
       <c r="B355" s="35">
         <v>43676</v>
@@ -70177,7 +70205,7 @@
       </c>
       <c r="BF355" s="28"/>
     </row>
-    <row r="356" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="28"/>
       <c r="B356" s="35">
         <v>43676</v>
@@ -70349,7 +70377,7 @@
       </c>
       <c r="BF356" s="28"/>
     </row>
-    <row r="357" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="28"/>
       <c r="B357" s="35">
         <v>43676</v>
@@ -70521,7 +70549,7 @@
       </c>
       <c r="BF357" s="28"/>
     </row>
-    <row r="358" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="28"/>
       <c r="B358" s="35">
         <v>43848</v>
@@ -70693,7 +70721,7 @@
       </c>
       <c r="BF358" s="28"/>
     </row>
-    <row r="359" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="28"/>
       <c r="B359" s="35">
         <v>43848</v>
@@ -70865,7 +70893,7 @@
       </c>
       <c r="BF359" s="28"/>
     </row>
-    <row r="360" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28"/>
       <c r="B360" s="35">
         <v>43848</v>
@@ -71037,7 +71065,7 @@
       </c>
       <c r="BF360" s="28"/>
     </row>
-    <row r="361" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="28"/>
       <c r="B361" s="35">
         <v>43848</v>
@@ -71209,7 +71237,7 @@
       </c>
       <c r="BF361" s="28"/>
     </row>
-    <row r="362" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="28"/>
       <c r="B362" s="35">
         <v>43848</v>
@@ -71381,7 +71409,7 @@
       </c>
       <c r="BF362" s="28"/>
     </row>
-    <row r="363" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="28"/>
       <c r="B363" s="35">
         <v>43848</v>
@@ -71553,7 +71581,7 @@
       </c>
       <c r="BF363" s="28"/>
     </row>
-    <row r="364" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="28"/>
       <c r="B364" s="35">
         <v>43848</v>
@@ -71725,7 +71753,7 @@
       </c>
       <c r="BF364" s="28"/>
     </row>
-    <row r="365" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A365" s="28"/>
       <c r="B365" s="35">
         <v>43848</v>
@@ -71897,7 +71925,7 @@
       </c>
       <c r="BF365" s="28"/>
     </row>
-    <row r="366" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A366" s="28"/>
       <c r="B366" s="35">
         <v>44173</v>
@@ -72067,7 +72095,7 @@
       </c>
       <c r="BF366" s="28"/>
     </row>
-    <row r="367" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A367" s="28"/>
       <c r="B367" s="35">
         <v>44173</v>
@@ -72239,7 +72267,7 @@
       </c>
       <c r="BF367" s="28"/>
     </row>
-    <row r="368" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
       <c r="B368" s="35">
         <v>44173</v>
@@ -72411,7 +72439,7 @@
       </c>
       <c r="BF368" s="28"/>
     </row>
-    <row r="369" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
       <c r="B369" s="35">
         <v>44173</v>
@@ -72583,7 +72611,7 @@
       </c>
       <c r="BF369" s="28"/>
     </row>
-    <row r="370" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28"/>
       <c r="B370" s="35">
         <v>44173</v>
@@ -72755,7 +72783,7 @@
       </c>
       <c r="BF370" s="28"/>
     </row>
-    <row r="371" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28"/>
       <c r="B371" s="35">
         <v>44173</v>
@@ -72927,7 +72955,7 @@
       </c>
       <c r="BF371" s="28"/>
     </row>
-    <row r="372" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
       <c r="B372" s="35">
         <v>44173</v>
@@ -73099,7 +73127,7 @@
       </c>
       <c r="BF372" s="28"/>
     </row>
-    <row r="373" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
       <c r="B373" s="35">
         <v>44173</v>
@@ -73271,7 +73299,7 @@
       </c>
       <c r="BF373" s="28"/>
     </row>
-    <row r="374" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A374" s="28"/>
       <c r="B374" s="35">
         <v>43781</v>
@@ -73443,7 +73471,7 @@
       </c>
       <c r="BF374" s="28"/>
     </row>
-    <row r="375" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>781</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8308CA7-86B1-473C-BA3A-23C9157A631C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38855-51B4-4176-A117-FF98846136C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40290" yWindow="4410" windowWidth="38310" windowHeight="15375" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="50145" yWindow="1470" windowWidth="33120" windowHeight="18420" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$395</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17729" uniqueCount="3546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17786" uniqueCount="3554">
   <si>
     <t>date:</t>
   </si>
@@ -10694,6 +10694,30 @@
   </si>
   <si>
     <t>['Nihil-Thanatos', 'Nihil-Ferdiad', 'Scathach', 'Diabolos']</t>
+  </si>
+  <si>
+    <t>Die Dalriada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadnor-Hochebene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zadnor_hochebene </t>
+  </si>
+  <si>
+    <t>die_dalriada</t>
+  </si>
+  <si>
+    <t>'5.55</t>
+  </si>
+  <si>
+    <t>['Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
+  </si>
+  <si>
+    <t>Zadnor</t>
+  </si>
+  <si>
+    <t>The_Dalriada</t>
   </si>
 </sst>
 </file>
@@ -11087,7 +11111,27 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11724,13 +11768,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:BF393"/>
+  <dimension ref="A1:BF395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AZ83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY137" sqref="AY137"/>
+      <selection pane="bottomRight" activeCell="BE384" sqref="BE384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -33976,7 +34020,7 @@
       <c r="BE134" s="14"/>
       <c r="BF134" s="14"/>
     </row>
-    <row r="135" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="15">
         <v>42318</v>
@@ -34148,7 +34192,7 @@
       </c>
       <c r="BF135" s="14"/>
     </row>
-    <row r="136" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="15">
         <v>42528</v>
@@ -34320,7 +34364,7 @@
       </c>
       <c r="BF136" s="14"/>
     </row>
-    <row r="137" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="15">
         <v>42752</v>
@@ -34492,7 +34536,7 @@
       </c>
       <c r="BF137" s="14"/>
     </row>
-    <row r="138" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="15">
         <v>42192</v>
@@ -34664,7 +34708,7 @@
       </c>
       <c r="BF138" s="14"/>
     </row>
-    <row r="139" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="15">
         <v>42192</v>
@@ -34836,7 +34880,7 @@
       </c>
       <c r="BF139" s="14"/>
     </row>
-    <row r="140" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="15">
         <v>42192</v>
@@ -35008,7 +35052,7 @@
       </c>
       <c r="BF140" s="14"/>
     </row>
-    <row r="141" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="15">
         <v>42192</v>
@@ -35180,7 +35224,7 @@
       </c>
       <c r="BF141" s="14"/>
     </row>
-    <row r="142" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="15">
         <v>42206</v>
@@ -35352,7 +35396,7 @@
       </c>
       <c r="BF142" s="14"/>
     </row>
-    <row r="143" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="15">
         <v>42206</v>
@@ -35524,7 +35568,7 @@
       </c>
       <c r="BF143" s="14"/>
     </row>
-    <row r="144" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="15">
         <v>42206</v>
@@ -35696,7 +35740,7 @@
       </c>
       <c r="BF144" s="14"/>
     </row>
-    <row r="145" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="15">
         <v>42206</v>
@@ -35868,7 +35912,7 @@
       </c>
       <c r="BF145" s="14"/>
     </row>
-    <row r="146" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="15">
         <v>42423</v>
@@ -36040,7 +36084,7 @@
       </c>
       <c r="BF146" s="14"/>
     </row>
-    <row r="147" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="15">
         <v>42423</v>
@@ -36212,7 +36256,7 @@
       </c>
       <c r="BF147" s="14"/>
     </row>
-    <row r="148" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="15">
         <v>42423</v>
@@ -36384,7 +36428,7 @@
       </c>
       <c r="BF148" s="14"/>
     </row>
-    <row r="149" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="15">
         <v>42423</v>
@@ -36556,7 +36600,7 @@
       </c>
       <c r="BF149" s="14"/>
     </row>
-    <row r="150" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="15">
         <v>42423</v>
@@ -36728,7 +36772,7 @@
       </c>
       <c r="BF150" s="14"/>
     </row>
-    <row r="151" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="15">
         <v>42423</v>
@@ -36900,7 +36944,7 @@
       </c>
       <c r="BF151" s="14"/>
     </row>
-    <row r="152" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="15">
         <v>42423</v>
@@ -37072,7 +37116,7 @@
       </c>
       <c r="BF152" s="14"/>
     </row>
-    <row r="153" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="15">
         <v>42423</v>
@@ -37244,7 +37288,7 @@
       </c>
       <c r="BF153" s="14"/>
     </row>
-    <row r="154" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="15">
         <v>42640</v>
@@ -37416,7 +37460,7 @@
       </c>
       <c r="BF154" s="14"/>
     </row>
-    <row r="155" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="15">
         <v>42640</v>
@@ -37588,7 +37632,7 @@
       </c>
       <c r="BF155" s="14"/>
     </row>
-    <row r="156" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="15">
         <v>42640</v>
@@ -37760,7 +37804,7 @@
       </c>
       <c r="BF156" s="14"/>
     </row>
-    <row r="157" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="15">
         <v>42640</v>
@@ -37932,7 +37976,7 @@
       </c>
       <c r="BF157" s="14"/>
     </row>
-    <row r="158" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="15">
         <v>42640</v>
@@ -38104,7 +38148,7 @@
       </c>
       <c r="BF158" s="14"/>
     </row>
-    <row r="159" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="15">
         <v>42640</v>
@@ -38276,7 +38320,7 @@
       </c>
       <c r="BF159" s="14"/>
     </row>
-    <row r="160" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="15">
         <v>42640</v>
@@ -38448,7 +38492,7 @@
       </c>
       <c r="BF160" s="14"/>
     </row>
-    <row r="161" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="15">
         <v>42640</v>
@@ -38620,7 +38664,7 @@
       </c>
       <c r="BF161" s="14"/>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>773</v>
       </c>
@@ -73767,7 +73811,7 @@
       <c r="BE377" s="28"/>
       <c r="BF377" s="28"/>
     </row>
-    <row r="378" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A378" s="28"/>
       <c r="B378" s="35">
         <v>44117</v>
@@ -73935,7 +73979,7 @@
       </c>
       <c r="BF378" s="28"/>
     </row>
-    <row r="379" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="28"/>
       <c r="B379" s="35">
         <v>44117</v>
@@ -74103,7 +74147,7 @@
       </c>
       <c r="BF379" s="28"/>
     </row>
-    <row r="380" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A380" s="28"/>
       <c r="B380" s="35">
         <v>44229</v>
@@ -74257,7 +74301,7 @@
       </c>
       <c r="BF380" s="28"/>
     </row>
-    <row r="381" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A381" s="28"/>
       <c r="B381" s="35">
         <v>44229</v>
@@ -74411,97 +74455,161 @@
       </c>
       <c r="BF381" s="28"/>
     </row>
-    <row r="382" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="35" t="s">
-        <v>3480</v>
-      </c>
-      <c r="B382" s="35"/>
-      <c r="C382" s="28"/>
-      <c r="D382" s="83"/>
-      <c r="E382" s="28"/>
-      <c r="F382" s="28"/>
+    <row r="382" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="28"/>
+      <c r="B382" s="35">
+        <v>44117</v>
+      </c>
+      <c r="C382" s="28">
+        <v>9</v>
+      </c>
+      <c r="D382" s="83" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E382" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="F382" s="28" t="s">
+        <v>3548</v>
+      </c>
       <c r="G382" s="28"/>
-      <c r="H382" s="59"/>
-      <c r="I382" s="28"/>
-      <c r="J382" s="28"/>
-      <c r="K382" s="28"/>
-      <c r="L382" s="28"/>
-      <c r="M382" s="28"/>
-      <c r="N382" s="28"/>
-      <c r="O382" s="32"/>
-      <c r="P382" s="32"/>
-      <c r="Q382" s="32"/>
+      <c r="H382" s="59" t="s">
+        <v>3550</v>
+      </c>
+      <c r="I382" s="28" t="s">
+        <v>3490</v>
+      </c>
+      <c r="J382" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K382" s="28">
+        <v>71</v>
+      </c>
+      <c r="L382" s="28" t="s">
+        <v>1876</v>
+      </c>
+      <c r="M382" s="28">
+        <v>0</v>
+      </c>
+      <c r="N382" s="28">
+        <v>430</v>
+      </c>
+      <c r="O382" s="32" t="s">
+        <v>2747</v>
+      </c>
+      <c r="P382" s="32" t="s">
+        <v>2749</v>
+      </c>
+      <c r="Q382" s="32" t="s">
+        <v>2748</v>
+      </c>
       <c r="R382" s="32"/>
       <c r="S382" s="32"/>
       <c r="T382" s="32"/>
       <c r="U382" s="28"/>
-      <c r="V382" s="28"/>
-      <c r="W382" s="28"/>
-      <c r="X382" s="28"/>
-      <c r="Y382" s="28"/>
-      <c r="Z382" s="28"/>
-      <c r="AA382" s="28"/>
-      <c r="AB382" s="28"/>
-      <c r="AC382" s="28"/>
-      <c r="AD382" s="28"/>
+      <c r="V382" s="32"/>
+      <c r="W382" s="32"/>
+      <c r="X382" s="32"/>
+      <c r="Y382" s="32"/>
+      <c r="Z382" s="32"/>
+      <c r="AA382" s="32"/>
+      <c r="AB382" s="32"/>
+      <c r="AC382" s="32"/>
+      <c r="AD382" s="32"/>
       <c r="AE382" s="28"/>
-      <c r="AF382" s="28"/>
+      <c r="AF382" s="32"/>
       <c r="AG382" s="28"/>
-      <c r="AH382" s="28"/>
+      <c r="AH382" s="32"/>
       <c r="AI382" s="28"/>
-      <c r="AJ382" s="28"/>
-      <c r="AK382" s="28"/>
-      <c r="AL382" s="32"/>
-      <c r="AM382" s="28"/>
-      <c r="AN382" s="28"/>
-      <c r="AO382" s="28"/>
-      <c r="AP382" s="28"/>
-      <c r="AQ382" s="28"/>
-      <c r="AR382" s="28"/>
-      <c r="AS382" s="28"/>
-      <c r="AT382" s="28"/>
-      <c r="AU382" s="28"/>
-      <c r="AV382" s="28"/>
-      <c r="AW382" s="28"/>
-      <c r="AX382" s="28"/>
-      <c r="AY382" s="28"/>
-      <c r="AZ382" s="28"/>
-      <c r="BA382" s="28"/>
-      <c r="BB382" s="28"/>
+      <c r="AJ382" s="32"/>
+      <c r="AK382" s="32"/>
+      <c r="AL382" s="32" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AM382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW382" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX382" s="28" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AY382" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ382" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA382" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB382" s="28" t="s">
+        <v>941</v>
+      </c>
       <c r="BC382" s="28"/>
       <c r="BD382" s="28"/>
-      <c r="BE382" s="28"/>
+      <c r="BE382" s="28" t="s">
+        <v>3552</v>
+      </c>
       <c r="BF382" s="28"/>
     </row>
-    <row r="383" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A383" s="28"/>
       <c r="B383" s="35">
-        <v>43676</v>
+        <v>44117</v>
       </c>
       <c r="C383" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D383" s="83" t="s">
-        <v>2754</v>
+        <v>3546</v>
       </c>
       <c r="E383" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="F383" s="28" t="s">
-        <v>1397</v>
+      <c r="F383" s="83" t="s">
+        <v>3549</v>
       </c>
       <c r="G383" s="28"/>
       <c r="H383" s="59" t="s">
-        <v>2454</v>
+        <v>3550</v>
       </c>
       <c r="I383" s="28" t="s">
-        <v>820</v>
+        <v>3490</v>
       </c>
       <c r="J383" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K383" s="28">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="L383" s="28" t="s">
         <v>1876</v>
@@ -74510,45 +74618,41 @@
         <v>0</v>
       </c>
       <c r="N383" s="28">
-        <v>505</v>
-      </c>
-      <c r="O383" s="28" t="s">
-        <v>2370</v>
-      </c>
-      <c r="P383" s="28" t="s">
-        <v>2372</v>
-      </c>
-      <c r="Q383" s="28" t="s">
-        <v>2371</v>
-      </c>
-      <c r="R383" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="S383" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="T383" s="28" t="s">
-        <v>3178</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O383" s="32" t="s">
+        <v>2747</v>
+      </c>
+      <c r="P383" s="32" t="s">
+        <v>2749</v>
+      </c>
+      <c r="Q383" s="32" t="s">
+        <v>2748</v>
+      </c>
+      <c r="R383" s="32" t="s">
+        <v>3178</v>
+      </c>
+      <c r="S383" s="32"/>
+      <c r="T383" s="32"/>
       <c r="U383" s="28"/>
       <c r="V383" s="28"/>
       <c r="W383" s="28"/>
-      <c r="X383" s="28"/>
-      <c r="Y383" s="28"/>
-      <c r="Z383" s="28"/>
-      <c r="AA383" s="28"/>
-      <c r="AB383" s="28"/>
-      <c r="AC383" s="28"/>
-      <c r="AD383" s="28"/>
+      <c r="X383" s="32"/>
+      <c r="Y383" s="32"/>
+      <c r="Z383" s="32"/>
+      <c r="AA383" s="32"/>
+      <c r="AB383" s="32"/>
+      <c r="AC383" s="32"/>
+      <c r="AD383" s="32"/>
       <c r="AE383" s="28"/>
-      <c r="AF383" s="28"/>
-      <c r="AG383" s="28"/>
-      <c r="AH383" s="28"/>
+      <c r="AF383" s="32"/>
+      <c r="AG383" s="32"/>
+      <c r="AH383" s="32"/>
       <c r="AI383" s="28"/>
-      <c r="AJ383" s="28"/>
-      <c r="AK383" s="28"/>
-      <c r="AL383" s="28" t="s">
-        <v>1386</v>
+      <c r="AJ383" s="32"/>
+      <c r="AK383" s="32"/>
+      <c r="AL383" s="32" t="s">
+        <v>2751</v>
       </c>
       <c r="AM383" s="28" t="s">
         <v>888</v>
@@ -74584,10 +74688,10 @@
         <v>888</v>
       </c>
       <c r="AX383" s="28" t="s">
-        <v>1398</v>
+        <v>2744</v>
       </c>
       <c r="AY383" s="28" t="s">
-        <v>2870</v>
+        <v>3551</v>
       </c>
       <c r="AZ383" s="28" t="s">
         <v>941</v>
@@ -74598,68 +74702,36 @@
       <c r="BB383" s="28" t="s">
         <v>941</v>
       </c>
-      <c r="BC383" s="28">
-        <v>55006</v>
-      </c>
-      <c r="BD383" s="28">
-        <v>55006</v>
-      </c>
+      <c r="BC383" s="28"/>
+      <c r="BD383" s="28"/>
       <c r="BE383" s="28" t="s">
-        <v>3163</v>
+        <v>3553</v>
       </c>
       <c r="BF383" s="28"/>
     </row>
-    <row r="384" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="28"/>
-      <c r="B384" s="35">
-        <v>44173</v>
-      </c>
-      <c r="C384" s="28">
-        <v>0</v>
-      </c>
-      <c r="D384" s="83" t="s">
-        <v>3273</v>
-      </c>
-      <c r="E384" s="28" t="s">
-        <v>782</v>
-      </c>
-      <c r="F384" s="28" t="s">
-        <v>3385</v>
-      </c>
+    <row r="384" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A384" s="35" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B384" s="35"/>
+      <c r="C384" s="28"/>
+      <c r="D384" s="83"/>
+      <c r="E384" s="28"/>
+      <c r="F384" s="28"/>
       <c r="G384" s="28"/>
-      <c r="H384" s="59" t="s">
-        <v>3354</v>
-      </c>
-      <c r="I384" s="28" t="s">
-        <v>3353</v>
-      </c>
-      <c r="J384" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K384" s="28" t="s">
-        <v>3386</v>
-      </c>
-      <c r="L384" s="28">
-        <v>80</v>
-      </c>
-      <c r="M384" s="28">
-        <v>0</v>
-      </c>
-      <c r="N384" s="28">
-        <v>505</v>
-      </c>
-      <c r="O384" s="28" t="s">
-        <v>2370</v>
-      </c>
-      <c r="P384" s="28" t="s">
-        <v>2372</v>
-      </c>
-      <c r="Q384" s="28" t="s">
-        <v>2371</v>
-      </c>
-      <c r="R384" s="28"/>
-      <c r="S384" s="28"/>
-      <c r="T384" s="28"/>
+      <c r="H384" s="59"/>
+      <c r="I384" s="28"/>
+      <c r="J384" s="28"/>
+      <c r="K384" s="28"/>
+      <c r="L384" s="28"/>
+      <c r="M384" s="28"/>
+      <c r="N384" s="28"/>
+      <c r="O384" s="32"/>
+      <c r="P384" s="32"/>
+      <c r="Q384" s="32"/>
+      <c r="R384" s="32"/>
+      <c r="S384" s="32"/>
+      <c r="T384" s="32"/>
       <c r="U384" s="28"/>
       <c r="V384" s="28"/>
       <c r="W384" s="28"/>
@@ -74677,91 +74749,85 @@
       <c r="AI384" s="28"/>
       <c r="AJ384" s="28"/>
       <c r="AK384" s="28"/>
-      <c r="AL384" s="28" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AM384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW384" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX384" s="28" t="s">
-        <v>3387</v>
-      </c>
-      <c r="AY384" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="AZ384" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA384" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB384" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC384" s="28">
-        <v>55008</v>
-      </c>
-      <c r="BD384" s="28">
-        <v>55008</v>
-      </c>
-      <c r="BE384" s="28" t="s">
-        <v>941</v>
-      </c>
+      <c r="AL384" s="32"/>
+      <c r="AM384" s="28"/>
+      <c r="AN384" s="28"/>
+      <c r="AO384" s="28"/>
+      <c r="AP384" s="28"/>
+      <c r="AQ384" s="28"/>
+      <c r="AR384" s="28"/>
+      <c r="AS384" s="28"/>
+      <c r="AT384" s="28"/>
+      <c r="AU384" s="28"/>
+      <c r="AV384" s="28"/>
+      <c r="AW384" s="28"/>
+      <c r="AX384" s="28"/>
+      <c r="AY384" s="28"/>
+      <c r="AZ384" s="28"/>
+      <c r="BA384" s="28"/>
+      <c r="BB384" s="28"/>
+      <c r="BC384" s="28"/>
+      <c r="BD384" s="28"/>
+      <c r="BE384" s="28"/>
       <c r="BF384" s="28"/>
     </row>
-    <row r="385" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="28" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B385" s="35"/>
-      <c r="C385" s="32"/>
-      <c r="D385" s="82"/>
-      <c r="E385" s="28"/>
-      <c r="F385" s="28"/>
+    <row r="385" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="28"/>
+      <c r="B385" s="35">
+        <v>43676</v>
+      </c>
+      <c r="C385" s="28">
+        <v>0</v>
+      </c>
+      <c r="D385" s="83" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E385" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="F385" s="28" t="s">
+        <v>1397</v>
+      </c>
       <c r="G385" s="28"/>
-      <c r="H385" s="31"/>
-      <c r="I385" s="28"/>
-      <c r="J385" s="28"/>
-      <c r="K385" s="32"/>
-      <c r="L385" s="32"/>
-      <c r="M385" s="32"/>
-      <c r="N385" s="32"/>
-      <c r="O385" s="32"/>
-      <c r="P385" s="32"/>
-      <c r="Q385" s="32"/>
-      <c r="R385" s="32"/>
-      <c r="S385" s="32"/>
-      <c r="T385" s="32"/>
+      <c r="H385" s="59" t="s">
+        <v>2454</v>
+      </c>
+      <c r="I385" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="J385" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K385" s="28">
+        <v>1</v>
+      </c>
+      <c r="L385" s="28" t="s">
+        <v>1876</v>
+      </c>
+      <c r="M385" s="28">
+        <v>0</v>
+      </c>
+      <c r="N385" s="28">
+        <v>505</v>
+      </c>
+      <c r="O385" s="28" t="s">
+        <v>2370</v>
+      </c>
+      <c r="P385" s="28" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q385" s="28" t="s">
+        <v>2371</v>
+      </c>
+      <c r="R385" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="S385" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="T385" s="28" t="s">
+        <v>3178</v>
+      </c>
       <c r="U385" s="28"/>
       <c r="V385" s="28"/>
       <c r="W385" s="28"/>
@@ -74770,8 +74836,8 @@
       <c r="Z385" s="28"/>
       <c r="AA385" s="28"/>
       <c r="AB385" s="28"/>
-      <c r="AC385" s="33"/>
-      <c r="AD385" s="33"/>
+      <c r="AC385" s="28"/>
+      <c r="AD385" s="28"/>
       <c r="AE385" s="28"/>
       <c r="AF385" s="28"/>
       <c r="AG385" s="28"/>
@@ -74779,371 +74845,259 @@
       <c r="AI385" s="28"/>
       <c r="AJ385" s="28"/>
       <c r="AK385" s="28"/>
-      <c r="AL385" s="28"/>
-      <c r="AM385" s="28"/>
-      <c r="AN385" s="28"/>
-      <c r="AO385" s="28"/>
-      <c r="AP385" s="28"/>
-      <c r="AQ385" s="28"/>
-      <c r="AR385" s="28"/>
-      <c r="AS385" s="28"/>
-      <c r="AT385" s="28"/>
-      <c r="AU385" s="28"/>
-      <c r="AV385" s="28"/>
-      <c r="AW385" s="28"/>
-      <c r="AX385" s="28"/>
-      <c r="AY385" s="28"/>
-      <c r="AZ385" s="28"/>
-      <c r="BA385" s="28"/>
-      <c r="BB385" s="28"/>
-      <c r="BC385" s="28"/>
-      <c r="BD385" s="28"/>
-      <c r="BE385" s="28"/>
+      <c r="AL385" s="28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AM385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW385" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX385" s="28" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AY385" s="28" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AZ385" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA385" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB385" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC385" s="28">
+        <v>55006</v>
+      </c>
+      <c r="BD385" s="28">
+        <v>55006</v>
+      </c>
+      <c r="BE385" s="28" t="s">
+        <v>3163</v>
+      </c>
       <c r="BF385" s="28"/>
     </row>
     <row r="386" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="70"/>
-      <c r="B386" s="71">
-        <v>43809</v>
-      </c>
-      <c r="C386" s="70">
-        <v>26</v>
-      </c>
-      <c r="D386" s="84" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E386" s="70" t="s">
+      <c r="A386" s="28"/>
+      <c r="B386" s="35">
+        <v>44173</v>
+      </c>
+      <c r="C386" s="28">
+        <v>0</v>
+      </c>
+      <c r="D386" s="83" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E386" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="F386" s="70" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G386" s="70" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H386" s="75" t="s">
-        <v>2463</v>
-      </c>
-      <c r="I386" s="70" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J386" s="70" t="s">
+      <c r="F386" s="28" t="s">
+        <v>3385</v>
+      </c>
+      <c r="G386" s="28"/>
+      <c r="H386" s="59" t="s">
+        <v>3354</v>
+      </c>
+      <c r="I386" s="28" t="s">
+        <v>3353</v>
+      </c>
+      <c r="J386" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K386" s="72">
-        <v>60</v>
-      </c>
-      <c r="L386" s="72" t="s">
-        <v>2318</v>
-      </c>
-      <c r="M386" s="72">
+      <c r="K386" s="28" t="s">
+        <v>3386</v>
+      </c>
+      <c r="L386" s="28">
+        <v>80</v>
+      </c>
+      <c r="M386" s="28">
         <v>0</v>
       </c>
-      <c r="N386" s="72">
-        <v>0</v>
-      </c>
-      <c r="O386" s="76" t="s">
-        <v>1867</v>
-      </c>
-      <c r="P386" s="76" t="s">
-        <v>1868</v>
-      </c>
-      <c r="Q386" s="76" t="s">
-        <v>1869</v>
-      </c>
-      <c r="R386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="S386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="T386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="U386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="V386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="W386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="X386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="Y386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="Z386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AA386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AB386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AC386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AD386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AE386" s="70" t="s">
-        <v>2263</v>
-      </c>
-      <c r="AF386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AG386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AH386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AI386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AJ386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AK386" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AL386" s="70" t="s">
-        <v>1870</v>
-      </c>
-      <c r="AM386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW386" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX386" s="70" t="s">
-        <v>2317</v>
-      </c>
-      <c r="AY386" s="70" t="s">
-        <v>2846</v>
-      </c>
-      <c r="AZ386" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA386" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB386" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC386" s="70">
-        <v>35026</v>
-      </c>
-      <c r="BD386" s="70">
-        <v>35026</v>
-      </c>
-      <c r="BE386" s="70" t="s">
-        <v>1835</v>
-      </c>
-      <c r="BF386" s="70"/>
+      <c r="N386" s="28">
+        <v>505</v>
+      </c>
+      <c r="O386" s="28" t="s">
+        <v>2370</v>
+      </c>
+      <c r="P386" s="28" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q386" s="28" t="s">
+        <v>2371</v>
+      </c>
+      <c r="R386" s="28"/>
+      <c r="S386" s="28"/>
+      <c r="T386" s="28"/>
+      <c r="U386" s="28"/>
+      <c r="V386" s="28"/>
+      <c r="W386" s="28"/>
+      <c r="X386" s="28"/>
+      <c r="Y386" s="28"/>
+      <c r="Z386" s="28"/>
+      <c r="AA386" s="28"/>
+      <c r="AB386" s="28"/>
+      <c r="AC386" s="28"/>
+      <c r="AD386" s="28"/>
+      <c r="AE386" s="28"/>
+      <c r="AF386" s="28"/>
+      <c r="AG386" s="28"/>
+      <c r="AH386" s="28"/>
+      <c r="AI386" s="28"/>
+      <c r="AJ386" s="28"/>
+      <c r="AK386" s="28"/>
+      <c r="AL386" s="28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AM386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW386" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX386" s="28" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AY386" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ386" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA386" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB386" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC386" s="28">
+        <v>55008</v>
+      </c>
+      <c r="BD386" s="28">
+        <v>55008</v>
+      </c>
+      <c r="BE386" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BF386" s="28"/>
     </row>
-    <row r="387" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="70"/>
-      <c r="B387" s="71">
-        <v>43809</v>
-      </c>
-      <c r="C387" s="70">
-        <v>27</v>
-      </c>
-      <c r="D387" s="84" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E387" s="70" t="s">
-        <v>782</v>
-      </c>
-      <c r="F387" s="70" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G387" s="70" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H387" s="75" t="s">
-        <v>2463</v>
-      </c>
-      <c r="I387" s="70" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J387" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="K387" s="72">
-        <v>60</v>
-      </c>
-      <c r="L387" s="72" t="s">
-        <v>2318</v>
-      </c>
-      <c r="M387" s="72">
-        <v>0</v>
-      </c>
-      <c r="N387" s="72">
-        <v>0</v>
-      </c>
-      <c r="O387" s="76" t="s">
-        <v>1867</v>
-      </c>
-      <c r="P387" s="76" t="s">
-        <v>1868</v>
-      </c>
-      <c r="Q387" s="76" t="s">
-        <v>1869</v>
-      </c>
-      <c r="R387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="S387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="T387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="U387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="V387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="W387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="X387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="Y387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="Z387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AA387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AB387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AC387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AD387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AE387" s="70" t="s">
-        <v>2263</v>
-      </c>
-      <c r="AF387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AG387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AH387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AI387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AJ387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AK387" s="76" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AL387" s="70" t="s">
-        <v>1870</v>
-      </c>
-      <c r="AM387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AN387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AP387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AQ387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AR387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AS387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AT387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AV387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AW387" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="AX387" s="70" t="s">
-        <v>2317</v>
-      </c>
-      <c r="AY387" s="70" t="s">
-        <v>2847</v>
-      </c>
-      <c r="AZ387" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BA387" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BB387" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC387" s="70">
-        <v>35027</v>
-      </c>
-      <c r="BD387" s="70">
-        <v>35027</v>
-      </c>
-      <c r="BE387" s="70" t="s">
-        <v>3159</v>
-      </c>
-      <c r="BF387" s="70"/>
+    <row r="387" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="28" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B387" s="35"/>
+      <c r="C387" s="32"/>
+      <c r="D387" s="82"/>
+      <c r="E387" s="28"/>
+      <c r="F387" s="28"/>
+      <c r="G387" s="28"/>
+      <c r="H387" s="31"/>
+      <c r="I387" s="28"/>
+      <c r="J387" s="28"/>
+      <c r="K387" s="32"/>
+      <c r="L387" s="32"/>
+      <c r="M387" s="32"/>
+      <c r="N387" s="32"/>
+      <c r="O387" s="32"/>
+      <c r="P387" s="32"/>
+      <c r="Q387" s="32"/>
+      <c r="R387" s="32"/>
+      <c r="S387" s="32"/>
+      <c r="T387" s="32"/>
+      <c r="U387" s="28"/>
+      <c r="V387" s="28"/>
+      <c r="W387" s="28"/>
+      <c r="X387" s="28"/>
+      <c r="Y387" s="28"/>
+      <c r="Z387" s="28"/>
+      <c r="AA387" s="28"/>
+      <c r="AB387" s="28"/>
+      <c r="AC387" s="33"/>
+      <c r="AD387" s="33"/>
+      <c r="AE387" s="28"/>
+      <c r="AF387" s="28"/>
+      <c r="AG387" s="28"/>
+      <c r="AH387" s="28"/>
+      <c r="AI387" s="28"/>
+      <c r="AJ387" s="28"/>
+      <c r="AK387" s="28"/>
+      <c r="AL387" s="28"/>
+      <c r="AM387" s="28"/>
+      <c r="AN387" s="28"/>
+      <c r="AO387" s="28"/>
+      <c r="AP387" s="28"/>
+      <c r="AQ387" s="28"/>
+      <c r="AR387" s="28"/>
+      <c r="AS387" s="28"/>
+      <c r="AT387" s="28"/>
+      <c r="AU387" s="28"/>
+      <c r="AV387" s="28"/>
+      <c r="AW387" s="28"/>
+      <c r="AX387" s="28"/>
+      <c r="AY387" s="28"/>
+      <c r="AZ387" s="28"/>
+      <c r="BA387" s="28"/>
+      <c r="BB387" s="28"/>
+      <c r="BC387" s="28"/>
+      <c r="BD387" s="28"/>
+      <c r="BE387" s="28"/>
+      <c r="BF387" s="28"/>
     </row>
     <row r="388" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A388" s="70"/>
@@ -75151,16 +75105,16 @@
         <v>43809</v>
       </c>
       <c r="C388" s="70">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D388" s="84" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E388" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F388" s="70" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="G388" s="70" t="s">
         <v>1865</v>
@@ -75295,7 +75249,7 @@
         <v>2317</v>
       </c>
       <c r="AY388" s="70" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="AZ388" s="70" t="s">
         <v>941</v>
@@ -75307,13 +75261,13 @@
         <v>941</v>
       </c>
       <c r="BC388" s="70">
-        <v>35028</v>
+        <v>35026</v>
       </c>
       <c r="BD388" s="70">
-        <v>35028</v>
+        <v>35026</v>
       </c>
       <c r="BE388" s="70" t="s">
-        <v>3160</v>
+        <v>1835</v>
       </c>
       <c r="BF388" s="70"/>
     </row>
@@ -75323,16 +75277,16 @@
         <v>43809</v>
       </c>
       <c r="C389" s="70">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D389" s="84" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E389" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F389" s="70" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="G389" s="70" t="s">
         <v>1865</v>
@@ -75467,7 +75421,7 @@
         <v>2317</v>
       </c>
       <c r="AY389" s="70" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AZ389" s="70" t="s">
         <v>941</v>
@@ -75479,13 +75433,13 @@
         <v>941</v>
       </c>
       <c r="BC389" s="70">
-        <v>35029</v>
+        <v>35027</v>
       </c>
       <c r="BD389" s="70">
-        <v>35029</v>
+        <v>35027</v>
       </c>
       <c r="BE389" s="70" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="BF389" s="70"/>
     </row>
@@ -75495,16 +75449,16 @@
         <v>43809</v>
       </c>
       <c r="C390" s="70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D390" s="84" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E390" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F390" s="70" t="s">
-        <v>2464</v>
+        <v>1863</v>
       </c>
       <c r="G390" s="70" t="s">
         <v>1865</v>
@@ -75639,7 +75593,7 @@
         <v>2317</v>
       </c>
       <c r="AY390" s="70" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="AZ390" s="70" t="s">
         <v>941</v>
@@ -75651,50 +75605,50 @@
         <v>941</v>
       </c>
       <c r="BC390" s="70">
-        <v>35030</v>
+        <v>35028</v>
       </c>
       <c r="BD390" s="70">
-        <v>35030</v>
+        <v>35028</v>
       </c>
       <c r="BE390" s="70" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="BF390" s="70"/>
     </row>
     <row r="391" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A391" s="70"/>
       <c r="B391" s="71">
-        <v>44229</v>
+        <v>43809</v>
       </c>
       <c r="C391" s="70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D391" s="84" t="s">
-        <v>3464</v>
+        <v>1838</v>
       </c>
       <c r="E391" s="70" t="s">
         <v>782</v>
       </c>
       <c r="F391" s="70" t="s">
-        <v>3474</v>
+        <v>1864</v>
       </c>
       <c r="G391" s="70" t="s">
         <v>1865</v>
       </c>
       <c r="H391" s="75" t="s">
-        <v>3472</v>
+        <v>2463</v>
       </c>
       <c r="I391" s="70" t="s">
-        <v>3353</v>
+        <v>1417</v>
       </c>
       <c r="J391" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="K391" s="72" t="s">
-        <v>2319</v>
-      </c>
-      <c r="L391" s="72">
-        <v>70</v>
+      <c r="K391" s="72">
+        <v>60</v>
+      </c>
+      <c r="L391" s="72" t="s">
+        <v>2318</v>
       </c>
       <c r="M391" s="72">
         <v>0</v>
@@ -75703,30 +75657,74 @@
         <v>0</v>
       </c>
       <c r="O391" s="76" t="s">
-        <v>3468</v>
-      </c>
-      <c r="P391" s="76"/>
-      <c r="Q391" s="76"/>
-      <c r="R391" s="76"/>
-      <c r="S391" s="76"/>
-      <c r="T391" s="76"/>
-      <c r="U391" s="76"/>
-      <c r="V391" s="76"/>
-      <c r="W391" s="76"/>
-      <c r="X391" s="76"/>
-      <c r="Y391" s="76"/>
-      <c r="Z391" s="76"/>
-      <c r="AA391" s="76"/>
-      <c r="AB391" s="76"/>
-      <c r="AC391" s="76"/>
-      <c r="AD391" s="76"/>
-      <c r="AE391" s="70"/>
-      <c r="AF391" s="76"/>
-      <c r="AG391" s="76"/>
-      <c r="AH391" s="76"/>
-      <c r="AI391" s="76"/>
-      <c r="AJ391" s="76"/>
-      <c r="AK391" s="76"/>
+        <v>1867</v>
+      </c>
+      <c r="P391" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="Q391" s="76" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="S391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="T391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="U391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="V391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="W391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="X391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Y391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Z391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AA391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AB391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AC391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AD391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AE391" s="70" t="s">
+        <v>2263</v>
+      </c>
+      <c r="AF391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AG391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AH391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AI391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AJ391" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AK391" s="76" t="s">
+        <v>3178</v>
+      </c>
       <c r="AL391" s="70" t="s">
         <v>1870</v>
       </c>
@@ -75767,7 +75765,7 @@
         <v>2317</v>
       </c>
       <c r="AY391" s="70" t="s">
-        <v>3475</v>
+        <v>2849</v>
       </c>
       <c r="AZ391" s="70" t="s">
         <v>941</v>
@@ -75779,238 +75777,544 @@
         <v>941</v>
       </c>
       <c r="BC391" s="70">
-        <v>35031</v>
+        <v>35029</v>
       </c>
       <c r="BD391" s="70">
-        <v>35031</v>
+        <v>35029</v>
       </c>
       <c r="BE391" s="70" t="s">
-        <v>3477</v>
+        <v>3161</v>
       </c>
       <c r="BF391" s="70"/>
     </row>
-    <row r="392" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="70" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B392" s="71"/>
-      <c r="C392" s="70"/>
-      <c r="D392" s="84"/>
-      <c r="E392" s="70"/>
-      <c r="F392" s="70"/>
-      <c r="G392" s="70"/>
-      <c r="H392" s="73"/>
-      <c r="I392" s="70"/>
-      <c r="J392" s="70"/>
-      <c r="K392" s="72"/>
-      <c r="L392" s="72"/>
-      <c r="M392" s="72"/>
-      <c r="N392" s="72"/>
-      <c r="O392" s="72"/>
-      <c r="P392" s="72"/>
-      <c r="Q392" s="72"/>
-      <c r="R392" s="72"/>
-      <c r="S392" s="72"/>
-      <c r="T392" s="72"/>
-      <c r="U392" s="70"/>
-      <c r="V392" s="70"/>
-      <c r="W392" s="70"/>
-      <c r="X392" s="70"/>
-      <c r="Y392" s="70"/>
-      <c r="Z392" s="70"/>
-      <c r="AA392" s="70"/>
-      <c r="AB392" s="70"/>
-      <c r="AC392" s="74"/>
-      <c r="AD392" s="74"/>
-      <c r="AE392" s="70"/>
-      <c r="AF392" s="70"/>
-      <c r="AG392" s="70"/>
-      <c r="AH392" s="70"/>
-      <c r="AI392" s="70"/>
-      <c r="AJ392" s="70"/>
-      <c r="AK392" s="70"/>
-      <c r="AL392" s="70"/>
-      <c r="AM392" s="70"/>
-      <c r="AN392" s="70"/>
-      <c r="AO392" s="70"/>
-      <c r="AP392" s="70"/>
-      <c r="AQ392" s="70"/>
-      <c r="AR392" s="70"/>
-      <c r="AS392" s="70"/>
-      <c r="AT392" s="70"/>
-      <c r="AU392" s="70"/>
-      <c r="AV392" s="70"/>
-      <c r="AW392" s="70"/>
-      <c r="AX392" s="70"/>
-      <c r="AY392" s="70"/>
-      <c r="AZ392" s="70"/>
-      <c r="BA392" s="70"/>
-      <c r="BB392" s="70"/>
-      <c r="BC392" s="70"/>
-      <c r="BD392" s="70"/>
-      <c r="BE392" s="70"/>
+    <row r="392" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="70"/>
+      <c r="B392" s="71">
+        <v>43809</v>
+      </c>
+      <c r="C392" s="70">
+        <v>30</v>
+      </c>
+      <c r="D392" s="84" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E392" s="70" t="s">
+        <v>782</v>
+      </c>
+      <c r="F392" s="70" t="s">
+        <v>2464</v>
+      </c>
+      <c r="G392" s="70" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H392" s="75" t="s">
+        <v>2463</v>
+      </c>
+      <c r="I392" s="70" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J392" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K392" s="72">
+        <v>60</v>
+      </c>
+      <c r="L392" s="72" t="s">
+        <v>2318</v>
+      </c>
+      <c r="M392" s="72">
+        <v>0</v>
+      </c>
+      <c r="N392" s="72">
+        <v>0</v>
+      </c>
+      <c r="O392" s="76" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P392" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="Q392" s="76" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="S392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="T392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="U392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="V392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="W392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="X392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Y392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Z392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AA392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AB392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AC392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AD392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AE392" s="70" t="s">
+        <v>2263</v>
+      </c>
+      <c r="AF392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AG392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AH392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AI392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AJ392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AK392" s="76" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AL392" s="70" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AM392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW392" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX392" s="70" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AY392" s="70" t="s">
+        <v>2850</v>
+      </c>
+      <c r="AZ392" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA392" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB392" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC392" s="70">
+        <v>35030</v>
+      </c>
+      <c r="BD392" s="70">
+        <v>35030</v>
+      </c>
+      <c r="BE392" s="70" t="s">
+        <v>3162</v>
+      </c>
       <c r="BF392" s="70"/>
     </row>
-    <row r="393" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A393" s="56" t="s">
+    <row r="393" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="70"/>
+      <c r="B393" s="71">
+        <v>44229</v>
+      </c>
+      <c r="C393" s="70">
+        <v>31</v>
+      </c>
+      <c r="D393" s="84" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E393" s="70" t="s">
+        <v>782</v>
+      </c>
+      <c r="F393" s="70" t="s">
+        <v>3474</v>
+      </c>
+      <c r="G393" s="70" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H393" s="75" t="s">
+        <v>3472</v>
+      </c>
+      <c r="I393" s="70" t="s">
+        <v>3353</v>
+      </c>
+      <c r="J393" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K393" s="72" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L393" s="72">
+        <v>70</v>
+      </c>
+      <c r="M393" s="72">
+        <v>0</v>
+      </c>
+      <c r="N393" s="72">
+        <v>0</v>
+      </c>
+      <c r="O393" s="76" t="s">
+        <v>3468</v>
+      </c>
+      <c r="P393" s="76"/>
+      <c r="Q393" s="76"/>
+      <c r="R393" s="76"/>
+      <c r="S393" s="76"/>
+      <c r="T393" s="76"/>
+      <c r="U393" s="76"/>
+      <c r="V393" s="76"/>
+      <c r="W393" s="76"/>
+      <c r="X393" s="76"/>
+      <c r="Y393" s="76"/>
+      <c r="Z393" s="76"/>
+      <c r="AA393" s="76"/>
+      <c r="AB393" s="76"/>
+      <c r="AC393" s="76"/>
+      <c r="AD393" s="76"/>
+      <c r="AE393" s="70"/>
+      <c r="AF393" s="76"/>
+      <c r="AG393" s="76"/>
+      <c r="AH393" s="76"/>
+      <c r="AI393" s="76"/>
+      <c r="AJ393" s="76"/>
+      <c r="AK393" s="76"/>
+      <c r="AL393" s="70" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AM393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW393" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX393" s="70" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AY393" s="70" t="s">
+        <v>3475</v>
+      </c>
+      <c r="AZ393" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA393" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB393" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC393" s="70">
+        <v>35031</v>
+      </c>
+      <c r="BD393" s="70">
+        <v>35031</v>
+      </c>
+      <c r="BE393" s="70" t="s">
+        <v>3477</v>
+      </c>
+      <c r="BF393" s="70"/>
+    </row>
+    <row r="394" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="70" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B394" s="71"/>
+      <c r="C394" s="70"/>
+      <c r="D394" s="84"/>
+      <c r="E394" s="70"/>
+      <c r="F394" s="70"/>
+      <c r="G394" s="70"/>
+      <c r="H394" s="73"/>
+      <c r="I394" s="70"/>
+      <c r="J394" s="70"/>
+      <c r="K394" s="72"/>
+      <c r="L394" s="72"/>
+      <c r="M394" s="72"/>
+      <c r="N394" s="72"/>
+      <c r="O394" s="72"/>
+      <c r="P394" s="72"/>
+      <c r="Q394" s="72"/>
+      <c r="R394" s="72"/>
+      <c r="S394" s="72"/>
+      <c r="T394" s="72"/>
+      <c r="U394" s="70"/>
+      <c r="V394" s="70"/>
+      <c r="W394" s="70"/>
+      <c r="X394" s="70"/>
+      <c r="Y394" s="70"/>
+      <c r="Z394" s="70"/>
+      <c r="AA394" s="70"/>
+      <c r="AB394" s="70"/>
+      <c r="AC394" s="74"/>
+      <c r="AD394" s="74"/>
+      <c r="AE394" s="70"/>
+      <c r="AF394" s="70"/>
+      <c r="AG394" s="70"/>
+      <c r="AH394" s="70"/>
+      <c r="AI394" s="70"/>
+      <c r="AJ394" s="70"/>
+      <c r="AK394" s="70"/>
+      <c r="AL394" s="70"/>
+      <c r="AM394" s="70"/>
+      <c r="AN394" s="70"/>
+      <c r="AO394" s="70"/>
+      <c r="AP394" s="70"/>
+      <c r="AQ394" s="70"/>
+      <c r="AR394" s="70"/>
+      <c r="AS394" s="70"/>
+      <c r="AT394" s="70"/>
+      <c r="AU394" s="70"/>
+      <c r="AV394" s="70"/>
+      <c r="AW394" s="70"/>
+      <c r="AX394" s="70"/>
+      <c r="AY394" s="70"/>
+      <c r="AZ394" s="70"/>
+      <c r="BA394" s="70"/>
+      <c r="BB394" s="70"/>
+      <c r="BC394" s="70"/>
+      <c r="BD394" s="70"/>
+      <c r="BE394" s="70"/>
+      <c r="BF394" s="70"/>
+    </row>
+    <row r="395" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A395" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B393" s="57"/>
-      <c r="C393" s="56"/>
-      <c r="D393" s="85"/>
-      <c r="E393" s="56"/>
-      <c r="F393" s="56"/>
-      <c r="G393" s="56"/>
-      <c r="H393" s="58"/>
-      <c r="I393" s="56"/>
-      <c r="J393" s="56"/>
-      <c r="K393" s="56"/>
-      <c r="L393" s="56"/>
-      <c r="M393" s="56"/>
-      <c r="N393" s="56"/>
-      <c r="O393" s="56"/>
-      <c r="P393" s="56"/>
-      <c r="Q393" s="56"/>
-      <c r="R393" s="56"/>
-      <c r="S393" s="56"/>
-      <c r="T393" s="56"/>
-      <c r="U393" s="56"/>
-      <c r="V393" s="56"/>
-      <c r="W393" s="56"/>
-      <c r="X393" s="56"/>
-      <c r="Y393" s="56"/>
-      <c r="Z393" s="56"/>
-      <c r="AA393" s="56"/>
-      <c r="AB393" s="56"/>
-      <c r="AC393" s="56"/>
-      <c r="AD393" s="56"/>
-      <c r="AE393" s="56"/>
-      <c r="AF393" s="56"/>
-      <c r="AG393" s="56"/>
-      <c r="AH393" s="56"/>
-      <c r="AI393" s="56"/>
-      <c r="AJ393" s="56"/>
-      <c r="AK393" s="56"/>
-      <c r="AL393" s="56"/>
-      <c r="AM393" s="56"/>
-      <c r="AN393" s="56"/>
-      <c r="AO393" s="56"/>
-      <c r="AP393" s="56"/>
-      <c r="AQ393" s="56"/>
-      <c r="AR393" s="56"/>
-      <c r="AS393" s="56"/>
-      <c r="AT393" s="56"/>
-      <c r="AU393" s="56"/>
-      <c r="AV393" s="56"/>
-      <c r="AW393" s="56"/>
-      <c r="AX393" s="56"/>
-      <c r="AY393" s="56"/>
-      <c r="AZ393" s="56"/>
-      <c r="BA393" s="56"/>
-      <c r="BB393" s="56"/>
-      <c r="BC393" s="56"/>
-      <c r="BD393" s="56"/>
-      <c r="BE393" s="56"/>
-      <c r="BF393" s="56"/>
+      <c r="B395" s="57"/>
+      <c r="C395" s="56"/>
+      <c r="D395" s="85"/>
+      <c r="E395" s="56"/>
+      <c r="F395" s="56"/>
+      <c r="G395" s="56"/>
+      <c r="H395" s="58"/>
+      <c r="I395" s="56"/>
+      <c r="J395" s="56"/>
+      <c r="K395" s="56"/>
+      <c r="L395" s="56"/>
+      <c r="M395" s="56"/>
+      <c r="N395" s="56"/>
+      <c r="O395" s="56"/>
+      <c r="P395" s="56"/>
+      <c r="Q395" s="56"/>
+      <c r="R395" s="56"/>
+      <c r="S395" s="56"/>
+      <c r="T395" s="56"/>
+      <c r="U395" s="56"/>
+      <c r="V395" s="56"/>
+      <c r="W395" s="56"/>
+      <c r="X395" s="56"/>
+      <c r="Y395" s="56"/>
+      <c r="Z395" s="56"/>
+      <c r="AA395" s="56"/>
+      <c r="AB395" s="56"/>
+      <c r="AC395" s="56"/>
+      <c r="AD395" s="56"/>
+      <c r="AE395" s="56"/>
+      <c r="AF395" s="56"/>
+      <c r="AG395" s="56"/>
+      <c r="AH395" s="56"/>
+      <c r="AI395" s="56"/>
+      <c r="AJ395" s="56"/>
+      <c r="AK395" s="56"/>
+      <c r="AL395" s="56"/>
+      <c r="AM395" s="56"/>
+      <c r="AN395" s="56"/>
+      <c r="AO395" s="56"/>
+      <c r="AP395" s="56"/>
+      <c r="AQ395" s="56"/>
+      <c r="AR395" s="56"/>
+      <c r="AS395" s="56"/>
+      <c r="AT395" s="56"/>
+      <c r="AU395" s="56"/>
+      <c r="AV395" s="56"/>
+      <c r="AW395" s="56"/>
+      <c r="AX395" s="56"/>
+      <c r="AY395" s="56"/>
+      <c r="AZ395" s="56"/>
+      <c r="BA395" s="56"/>
+      <c r="BB395" s="56"/>
+      <c r="BC395" s="56"/>
+      <c r="BD395" s="56"/>
+      <c r="BE395" s="56"/>
+      <c r="BF395" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF393" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:BF395" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
-    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F355">
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
     <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348:F355">
+  <conditionalFormatting sqref="F86:F99">
     <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F194">
     <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F99">
+  <conditionalFormatting sqref="F287">
     <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="F394 F300:F312 F387:F391">
     <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+  <conditionalFormatting sqref="F284:F286">
     <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F392 F300:F312 F385:F389">
+  <conditionalFormatting sqref="F193">
     <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F286">
+  <conditionalFormatting sqref="F356:F374">
     <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+  <conditionalFormatting sqref="F322:F326">
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+  <conditionalFormatting sqref="F377">
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322:F326">
+  <conditionalFormatting sqref="F2">
     <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F377">
+  <conditionalFormatting sqref="F288:F299">
     <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F392:F393">
     <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F299">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F390:F391">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O342:O343">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O386">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O342:O343">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  <conditionalFormatting sqref="O379:O381 O384">
+    <cfRule type="duplicateValues" dxfId="9" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O379:O382">
-    <cfRule type="duplicateValues" dxfId="7" priority="55"/>
+  <conditionalFormatting sqref="O381">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O382">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="F395:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
+    <cfRule type="duplicateValues" dxfId="6" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F393:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="4" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O385:O1048576 O346:O368 O383 O370:O377 O1:O340">
-    <cfRule type="duplicateValues" dxfId="3" priority="75"/>
+  <conditionalFormatting sqref="O387:O1048576 O346:O368 O385 O370:O377 O1:O340">
+    <cfRule type="duplicateValues" dxfId="5" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O341">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O344">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O341">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="O382:O383">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O344">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="O383">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38855-51B4-4176-A117-FF98846136C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0486B40-867B-4ECE-9A29-62D81445A00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50145" yWindow="1470" windowWidth="33120" windowHeight="18420" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -10711,13 +10711,13 @@
     <t>'5.55</t>
   </si>
   <si>
-    <t>['Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
-  </si>
-  <si>
     <t>Zadnor</t>
   </si>
   <si>
     <t>The_Dalriada</t>
+  </si>
+  <si>
+    <t>['Sartauvoir Eisenfeuer', 'Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
   </si>
 </sst>
 </file>
@@ -11771,10 +11771,10 @@
   <dimension ref="A1:BF395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AZ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AX83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE384" sqref="BE384"/>
+      <selection pane="bottomRight" activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -74577,7 +74577,7 @@
       <c r="BC382" s="28"/>
       <c r="BD382" s="28"/>
       <c r="BE382" s="28" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="BF382" s="28"/>
     </row>
@@ -74691,7 +74691,7 @@
         <v>2744</v>
       </c>
       <c r="AY383" s="28" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="AZ383" s="28" t="s">
         <v>941</v>
@@ -74705,7 +74705,7 @@
       <c r="BC383" s="28"/>
       <c r="BD383" s="28"/>
       <c r="BE383" s="28" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="BF383" s="28"/>
     </row>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0486B40-867B-4ECE-9A29-62D81445A00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A6E2A-FE2E-4796-B75F-DCD07E4BD773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50145" yWindow="1470" windowWidth="33120" windowHeight="18420" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17786" uniqueCount="3554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17788" uniqueCount="3555">
   <si>
     <t>date:</t>
   </si>
@@ -10718,6 +10718,9 @@
   </si>
   <si>
     <t>['Sartauvoir Eisenfeuer', 'Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112432.tex</t>
   </si>
 </sst>
 </file>
@@ -11771,10 +11774,10 @@
   <dimension ref="A1:BF395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AX83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D228" sqref="D228"/>
+      <selection pane="bottomRight" activeCell="G383" sqref="G383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -74472,7 +74475,9 @@
       <c r="F382" s="28" t="s">
         <v>3548</v>
       </c>
-      <c r="G382" s="28"/>
+      <c r="G382" s="28" t="s">
+        <v>3554</v>
+      </c>
       <c r="H382" s="59" t="s">
         <v>3550</v>
       </c>
@@ -74598,7 +74603,9 @@
       <c r="F383" s="83" t="s">
         <v>3549</v>
       </c>
-      <c r="G383" s="28"/>
+      <c r="G383" s="28" t="s">
+        <v>3554</v>
+      </c>
       <c r="H383" s="59" t="s">
         <v>3550</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A6E2A-FE2E-4796-B75F-DCD07E4BD773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1771835B-F152-4500-8491-2179F50F12DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50145" yWindow="1470" windowWidth="33120" windowHeight="18420" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -10717,10 +10717,10 @@
     <t>The_Dalriada</t>
   </si>
   <si>
-    <t>['Sartauvoir Eisenfeuer', 'Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
-  </si>
-  <si>
     <t>ui/icon/112000/112432.tex</t>
+  </si>
+  <si>
+    <t>['Sartauvoir Eisenfeuer', 'Schwarzbrand Der IV. Legion', 'Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
   </si>
 </sst>
 </file>
@@ -11774,10 +11774,10 @@
   <dimension ref="A1:BF395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AP83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G383" sqref="G383"/>
+      <selection pane="bottomRight" activeCell="AY384" sqref="AY384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -74476,7 +74476,7 @@
         <v>3548</v>
       </c>
       <c r="G382" s="28" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="H382" s="59" t="s">
         <v>3550</v>
@@ -74604,7 +74604,7 @@
         <v>3549</v>
       </c>
       <c r="G383" s="28" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="H383" s="59" t="s">
         <v>3550</v>
@@ -74698,7 +74698,7 @@
         <v>2744</v>
       </c>
       <c r="AY383" s="28" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="AZ383" s="28" t="s">
         <v>941</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1771835B-F152-4500-8491-2179F50F12DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1653DBA-809B-4E9F-B689-A883FE8503B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50145" yWindow="1470" windowWidth="33120" windowHeight="18420" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="59205" yWindow="2115" windowWidth="28920" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10501,9 +10501,6 @@
     <t>ShB Feldexkursion</t>
   </si>
   <si>
-    <t>['Trinität Der Sucher', 'Krieger-Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
-  </si>
-  <si>
     <t>Prinzessinnenwache</t>
   </si>
   <si>
@@ -10721,6 +10718,9 @@
   </si>
   <si>
     <t>['Sartauvoir Eisenfeuer', 'Schwarzbrand Der IV. Legion', 'Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
+  </si>
+  <si>
+    <t>['Zweifarbiger Golem', 'Zähes Blutgerinsel', 'Trinität Der Sucher', 'Krieger-Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
   </si>
 </sst>
 </file>
@@ -11777,7 +11777,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AP83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY384" sqref="AY384"/>
+      <selection pane="bottomRight" activeCell="AY381" sqref="AY381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -34517,7 +34517,7 @@
         <v>2442</v>
       </c>
       <c r="AY137" s="14" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="AZ137" s="14" t="s">
         <v>941</v>
@@ -65331,22 +65331,22 @@
         <v>86</v>
       </c>
       <c r="D326" s="82" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="E326" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F326" s="28" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="G326" s="28" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="H326" s="63" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I326" s="28" t="s">
         <v>3489</v>
-      </c>
-      <c r="I326" s="28" t="s">
-        <v>3490</v>
       </c>
       <c r="J326" s="28" t="s">
         <v>75</v>
@@ -65364,63 +65364,63 @@
         <v>0</v>
       </c>
       <c r="O326" s="30" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="P326" s="30"/>
       <c r="Q326" s="30"/>
       <c r="R326" s="30" t="s">
+        <v>3518</v>
+      </c>
+      <c r="S326" s="30" t="s">
         <v>3519</v>
       </c>
-      <c r="S326" s="30" t="s">
+      <c r="T326" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="U326" s="28" t="s">
         <v>3520</v>
       </c>
-      <c r="T326" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="U326" s="28" t="s">
+      <c r="V326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="W326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="X326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Y326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Z326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AA326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AB326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AC326" s="33" t="s">
+        <v>3538</v>
+      </c>
+      <c r="AD326" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AE326" s="30" t="s">
+        <v>3542</v>
+      </c>
+      <c r="AF326" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AG326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AH326" s="28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AI326" s="28" t="s">
         <v>3521</v>
-      </c>
-      <c r="V326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="W326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="X326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="Y326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="Z326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AA326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AB326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AC326" s="33" t="s">
-        <v>3539</v>
-      </c>
-      <c r="AD326" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AE326" s="30" t="s">
-        <v>3543</v>
-      </c>
-      <c r="AF326" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AG326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AH326" s="28" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AI326" s="28" t="s">
-        <v>3522</v>
       </c>
       <c r="AJ326" s="28" t="s">
         <v>3178</v>
@@ -65465,10 +65465,10 @@
         <v>888</v>
       </c>
       <c r="AX326" s="28" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="AY326" s="28" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="AZ326" s="28" t="s">
         <v>941</v>
@@ -65486,7 +65486,7 @@
         <v>77</v>
       </c>
       <c r="BE326" s="28" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="BF326" s="28"/>
     </row>
@@ -68143,22 +68143,22 @@
         <v>191</v>
       </c>
       <c r="D343" s="82" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="E343" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F343" s="82" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="G343" s="28" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="H343" s="63" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I343" s="28" t="s">
         <v>3489</v>
-      </c>
-      <c r="I343" s="28" t="s">
-        <v>3490</v>
       </c>
       <c r="J343" s="28" t="s">
         <v>76</v>
@@ -68176,7 +68176,7 @@
         <v>0</v>
       </c>
       <c r="O343" s="30" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="P343" s="30" t="s">
         <v>2344</v>
@@ -68188,7 +68188,7 @@
         <v>3178</v>
       </c>
       <c r="S343" s="30" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="T343" s="30" t="s">
         <v>3178</v>
@@ -68218,7 +68218,7 @@
         <v>3178</v>
       </c>
       <c r="AC343" s="28" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="AD343" s="28" t="s">
         <v>3178</v>
@@ -68279,10 +68279,10 @@
         <v>888</v>
       </c>
       <c r="AX343" s="28" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="AY343" s="28" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="AZ343" s="28" t="s">
         <v>941</v>
@@ -68300,7 +68300,7 @@
         <v>20075</v>
       </c>
       <c r="BE343" s="28" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="BF343" s="28"/>
     </row>
@@ -68313,22 +68313,22 @@
         <v>192</v>
       </c>
       <c r="D344" s="82" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E344" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F344" s="82" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="G344" s="28" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="H344" s="63" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I344" s="28" t="s">
         <v>3489</v>
-      </c>
-      <c r="I344" s="28" t="s">
-        <v>3490</v>
       </c>
       <c r="J344" s="28" t="s">
         <v>2325</v>
@@ -68355,10 +68355,10 @@
         <v>2349</v>
       </c>
       <c r="R344" s="30" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="S344" s="30" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="T344" s="30" t="s">
         <v>3178</v>
@@ -68379,7 +68379,7 @@
         <v>3178</v>
       </c>
       <c r="Z344" s="30" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="AA344" s="28" t="s">
         <v>3178</v>
@@ -68392,13 +68392,13 @@
         <v>3178</v>
       </c>
       <c r="AE344" s="28" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="AF344" s="28" t="s">
         <v>3178</v>
       </c>
       <c r="AG344" s="30" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="AH344" s="28" t="s">
         <v>3178</v>
@@ -68449,10 +68449,10 @@
         <v>888</v>
       </c>
       <c r="AX344" s="28" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="AY344" s="28" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="AZ344" s="28" t="s">
         <v>941</v>
@@ -68470,7 +68470,7 @@
         <v>20076</v>
       </c>
       <c r="BE344" s="28" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="BF344" s="28"/>
     </row>
@@ -68483,25 +68483,25 @@
         <v>193</v>
       </c>
       <c r="D345" s="82" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="E345" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F345" s="30" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="G345" s="28" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="H345" s="63" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I345" s="28" t="s">
         <v>3489</v>
       </c>
-      <c r="I345" s="28" t="s">
-        <v>3490</v>
-      </c>
       <c r="J345" s="28" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="K345" s="67" t="s">
         <v>1876</v>
@@ -68617,7 +68617,7 @@
         <v>888</v>
       </c>
       <c r="AX345" s="28" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="AY345" s="28" t="s">
         <v>1181</v>
@@ -68638,7 +68638,7 @@
         <v>64003</v>
       </c>
       <c r="BE345" s="28" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="BF345" s="28"/>
     </row>
@@ -69057,22 +69057,22 @@
         <v>97</v>
       </c>
       <c r="D349" s="82" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="E349" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F349" s="28" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="G349" s="28" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="H349" s="68" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I349" s="28" t="s">
         <v>3489</v>
-      </c>
-      <c r="I349" s="28" t="s">
-        <v>3490</v>
       </c>
       <c r="J349" s="28" t="s">
         <v>75</v>
@@ -69090,7 +69090,7 @@
         <v>0</v>
       </c>
       <c r="O349" s="30" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="P349" s="30" t="s">
         <v>1807</v>
@@ -69099,61 +69099,61 @@
         <v>2363</v>
       </c>
       <c r="R349" s="30" t="s">
+        <v>3524</v>
+      </c>
+      <c r="S349" s="30" t="s">
         <v>3525</v>
       </c>
-      <c r="S349" s="30" t="s">
+      <c r="T349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="U349" s="28" t="s">
         <v>3526</v>
       </c>
-      <c r="T349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="U349" s="28" t="s">
+      <c r="V349" s="28" t="s">
         <v>3527</v>
       </c>
-      <c r="V349" s="28" t="s">
+      <c r="W349" s="28" t="s">
         <v>3528</v>
       </c>
-      <c r="W349" s="28" t="s">
+      <c r="X349" s="28" t="s">
         <v>3529</v>
       </c>
-      <c r="X349" s="28" t="s">
+      <c r="Y349" s="28" t="s">
         <v>3530</v>
       </c>
-      <c r="Y349" s="28" t="s">
+      <c r="Z349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AA349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AB349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AC349" s="33" t="s">
+        <v>3540</v>
+      </c>
+      <c r="AD349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AE349" s="30" t="s">
+        <v>3543</v>
+      </c>
+      <c r="AF349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AG349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AH349" s="30" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AI349" s="28" t="s">
         <v>3531</v>
       </c>
-      <c r="Z349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AA349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AB349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AC349" s="33" t="s">
-        <v>3541</v>
-      </c>
-      <c r="AD349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AE349" s="30" t="s">
-        <v>3544</v>
-      </c>
-      <c r="AF349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AG349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AH349" s="30" t="s">
-        <v>3178</v>
-      </c>
-      <c r="AI349" s="28" t="s">
+      <c r="AJ349" s="28" t="s">
         <v>3532</v>
-      </c>
-      <c r="AJ349" s="28" t="s">
-        <v>3533</v>
       </c>
       <c r="AK349" s="30" t="s">
         <v>3178</v>
@@ -69195,10 +69195,10 @@
         <v>888</v>
       </c>
       <c r="AX349" s="28" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="AY349" s="28" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="AZ349" s="28" t="s">
         <v>941</v>
@@ -69216,7 +69216,7 @@
         <v>30105</v>
       </c>
       <c r="BE349" s="28" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="BF349" s="28"/>
     </row>
@@ -74204,13 +74204,13 @@
         <v>3178</v>
       </c>
       <c r="U380" s="28" t="s">
+        <v>3483</v>
+      </c>
+      <c r="V380" s="28" t="s">
         <v>3484</v>
       </c>
-      <c r="V380" s="28" t="s">
-        <v>3485</v>
-      </c>
       <c r="W380" s="28" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="X380" s="32" t="s">
         <v>3178</v>
@@ -74232,7 +74232,7 @@
       <c r="AE380" s="32"/>
       <c r="AF380" s="32"/>
       <c r="AG380" s="32" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="AH380" s="32" t="s">
         <v>3178</v>
@@ -74386,13 +74386,13 @@
       <c r="AE381" s="32"/>
       <c r="AF381" s="28"/>
       <c r="AG381" s="28" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="AH381" s="32" t="s">
         <v>3178</v>
       </c>
       <c r="AI381" s="28" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="AJ381" s="32" t="s">
         <v>3178</v>
@@ -74440,7 +74440,7 @@
         <v>3471</v>
       </c>
       <c r="AY381" s="28" t="s">
-        <v>3481</v>
+        <v>3554</v>
       </c>
       <c r="AZ381" s="28" t="s">
         <v>941</v>
@@ -74467,22 +74467,22 @@
         <v>9</v>
       </c>
       <c r="D382" s="83" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="E382" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="G382" s="28" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="H382" s="59" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="I382" s="28" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="J382" s="28" t="s">
         <v>75</v>
@@ -74582,7 +74582,7 @@
       <c r="BC382" s="28"/>
       <c r="BD382" s="28"/>
       <c r="BE382" s="28" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="BF382" s="28"/>
     </row>
@@ -74595,22 +74595,22 @@
         <v>10</v>
       </c>
       <c r="D383" s="83" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="E383" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F383" s="83" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G383" s="28" t="s">
+        <v>3552</v>
+      </c>
+      <c r="H383" s="59" t="s">
         <v>3549</v>
       </c>
-      <c r="G383" s="28" t="s">
-        <v>3553</v>
-      </c>
-      <c r="H383" s="59" t="s">
-        <v>3550</v>
-      </c>
       <c r="I383" s="28" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="J383" s="28" t="s">
         <v>76</v>
@@ -74698,7 +74698,7 @@
         <v>2744</v>
       </c>
       <c r="AY383" s="28" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="AZ383" s="28" t="s">
         <v>941</v>
@@ -74712,7 +74712,7 @@
       <c r="BC383" s="28"/>
       <c r="BD383" s="28"/>
       <c r="BE383" s="28" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="BF383" s="28"/>
     </row>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1653DBA-809B-4E9F-B689-A883FE8503B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A644F3-511A-4973-990F-465535A562DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59205" yWindow="2115" windowWidth="28920" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="41520" yWindow="3120" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10720,7 +10720,7 @@
     <t>['Sartauvoir Eisenfeuer', 'Schwarzbrand Der IV. Legion', 'Augur Der IV. Legion', 'Gebändigte Aaskrähe', 'Gebändigter Alkonost', 'Skorpion Der IV. Legion', 'Cuchulainn Der IV. Legion', 'Saunion', 'Dawon Junior', 'Diablo-Armament']</t>
   </si>
   <si>
-    <t>['Zweifarbiger Golem', 'Zähes Blutgerinsel', 'Trinität Der Sucher', 'Krieger-Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
+    <t>['Zweifarbiger Golem', 'Zähes Blutgerinsel', 'Trinität Der Sucher', 'Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
   </si>
 </sst>
 </file>
@@ -11777,7 +11777,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AP83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY381" sqref="AY381"/>
+      <selection pane="bottomRight" activeCell="AY382" sqref="AY382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\DevFFXIVPocketGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A644F3-511A-4973-990F-465535A562DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8986D21-D37C-43D2-9F8D-DC661D3A6C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41520" yWindow="3120" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17788" uniqueCount="3555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17793" uniqueCount="3558">
   <si>
     <t>date:</t>
   </si>
@@ -10721,6 +10721,15 @@
   </si>
   <si>
     <t>['Zweifarbiger Golem', 'Zähes Blutgerinsel', 'Trinität Der Sucher', 'Stygimoloch', 'Dahu', 'Schütze der Königin', 'Ritter der Königin', 'Soldat der Königin', 'Kriegerin der Königin', 'Bozja-Phantom', 'Trinität der Eingeschworenen', 'Anführer-Stygimoloch', 'Kriegsgöttin']</t>
+  </si>
+  <si>
+    <t>gearset</t>
+  </si>
+  <si>
+    <t>tt_card2</t>
+  </si>
+  <si>
+    <t>gamerscapelink</t>
   </si>
 </sst>
 </file>
@@ -11774,10 +11783,10 @@
   <dimension ref="A1:BF395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AP83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY382" sqref="AY382"/>
+      <selection pane="bottomRight" activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -12017,7 +12026,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7">
         <v>25569</v>
@@ -12067,11 +12076,15 @@
       <c r="Q2" s="13" t="s">
         <v>1459</v>
       </c>
-      <c r="R2" s="13"/>
+      <c r="R2" s="13" t="s">
+        <v>3555</v>
+      </c>
       <c r="S2" s="8" t="s">
         <v>2516</v>
       </c>
-      <c r="T2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>3556</v>
+      </c>
       <c r="U2" s="6" t="s">
         <v>2478</v>
       </c>
@@ -12174,12 +12187,18 @@
       <c r="BB2" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
+      <c r="BC2" s="6" t="s">
+        <v>2875</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>2876</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>3557</v>
+      </c>
       <c r="BF2" s="6"/>
     </row>
-    <row r="3" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>41513</v>
@@ -12351,7 +12370,7 @@
       </c>
       <c r="BF3" s="6"/>
     </row>
-    <row r="4" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>41513</v>
@@ -12523,7 +12542,7 @@
       </c>
       <c r="BF4" s="6"/>
     </row>
-    <row r="5" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>41513</v>
@@ -12695,7 +12714,7 @@
       </c>
       <c r="BF5" s="6"/>
     </row>
-    <row r="6" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>41513</v>
@@ -12867,7 +12886,7 @@
       </c>
       <c r="BF6" s="6"/>
     </row>
-    <row r="7" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>41513</v>
@@ -13039,7 +13058,7 @@
       </c>
       <c r="BF7" s="6"/>
     </row>
-    <row r="8" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>41513</v>
@@ -13211,7 +13230,7 @@
       </c>
       <c r="BF8" s="6"/>
     </row>
-    <row r="9" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>41513</v>
@@ -13383,7 +13402,7 @@
       </c>
       <c r="BF9" s="6"/>
     </row>
-    <row r="10" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>41513</v>
@@ -13555,7 +13574,7 @@
       </c>
       <c r="BF10" s="6"/>
     </row>
-    <row r="11" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>41513</v>
@@ -13727,7 +13746,7 @@
       </c>
       <c r="BF11" s="6"/>
     </row>
-    <row r="12" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>41513</v>
@@ -13899,7 +13918,7 @@
       </c>
       <c r="BF12" s="6"/>
     </row>
-    <row r="13" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>41513</v>
@@ -14071,7 +14090,7 @@
       </c>
       <c r="BF13" s="6"/>
     </row>
-    <row r="14" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>41513</v>
@@ -14243,7 +14262,7 @@
       </c>
       <c r="BF14" s="6"/>
     </row>
-    <row r="15" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>41513</v>
@@ -14415,7 +14434,7 @@
       </c>
       <c r="BF15" s="6"/>
     </row>
-    <row r="16" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>41513</v>
@@ -14587,7 +14606,7 @@
       </c>
       <c r="BF16" s="6"/>
     </row>
-    <row r="17" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>41513</v>
@@ -14759,7 +14778,7 @@
       </c>
       <c r="BF17" s="6"/>
     </row>
-    <row r="18" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>41625</v>
@@ -14931,7 +14950,7 @@
       </c>
       <c r="BF18" s="6"/>
     </row>
-    <row r="19" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7">
         <v>41625</v>
@@ -15103,7 +15122,7 @@
       </c>
       <c r="BF19" s="6"/>
     </row>
-    <row r="20" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7">
         <v>41625</v>
@@ -15275,7 +15294,7 @@
       </c>
       <c r="BF20" s="6"/>
     </row>
-    <row r="21" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>41625</v>
@@ -15447,7 +15466,7 @@
       </c>
       <c r="BF21" s="6"/>
     </row>
-    <row r="22" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>41753</v>
@@ -15619,7 +15638,7 @@
       </c>
       <c r="BF22" s="6"/>
     </row>
-    <row r="23" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>41753</v>
@@ -15791,7 +15810,7 @@
       </c>
       <c r="BF23" s="6"/>
     </row>
-    <row r="24" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>41753</v>
@@ -15963,7 +15982,7 @@
       </c>
       <c r="BF24" s="6"/>
     </row>
-    <row r="25" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>41828</v>
@@ -16135,7 +16154,7 @@
       </c>
       <c r="BF25" s="6"/>
     </row>
-    <row r="26" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>41828</v>
@@ -16307,7 +16326,7 @@
       </c>
       <c r="BF26" s="6"/>
     </row>
-    <row r="27" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>41828</v>
@@ -16479,7 +16498,7 @@
       </c>
       <c r="BF27" s="6"/>
     </row>
-    <row r="28" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>41940</v>
@@ -16651,7 +16670,7 @@
       </c>
       <c r="BF28" s="6"/>
     </row>
-    <row r="29" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7">
         <v>41940</v>
@@ -16823,7 +16842,7 @@
       </c>
       <c r="BF29" s="6"/>
     </row>
-    <row r="30" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7">
         <v>41940</v>
@@ -16995,7 +17014,7 @@
       </c>
       <c r="BF30" s="6"/>
     </row>
-    <row r="31" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>42024</v>
@@ -17167,7 +17186,7 @@
       </c>
       <c r="BF31" s="6"/>
     </row>
-    <row r="32" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>42024</v>
@@ -17339,7 +17358,7 @@
       </c>
       <c r="BF32" s="6"/>
     </row>
-    <row r="33" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>42024</v>
@@ -17511,7 +17530,7 @@
       </c>
       <c r="BF33" s="6"/>
     </row>
-    <row r="34" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>766</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A595F-4724-4CC8-ABE3-EE6B4AE95533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1DE34-839E-45DF-96FA-29B436B7A72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1DE34-839E-45DF-96FA-29B436B7A72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D87504-1BC3-4A58-BDFB-81275C89EA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -11786,7 +11786,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="BC134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF282" sqref="BF282"/>
+      <selection pane="bottomRight" activeCell="BF283" sqref="BF283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\DevFFXIVPocketGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54217D4F-1DD9-407C-A3CC-F358E6D656C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776B737-CDD8-499A-AAAD-FA3DAD9498FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="38640" windowHeight="20715" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$395</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$400</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17793" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17798" uniqueCount="3563">
   <si>
     <t>date:</t>
   </si>
@@ -10730,6 +10733,21 @@
   </si>
   <si>
     <t>['Schlachter', 'Blaster', 'Blechbrecher', 'Schwindler', 'Wirbler', 'Brutalus']</t>
+  </si>
+  <si>
+    <t>EW Dungeon</t>
+  </si>
+  <si>
+    <t>EW Trials</t>
+  </si>
+  <si>
+    <t>EW Raids</t>
+  </si>
+  <si>
+    <t>EW PVP</t>
+  </si>
+  <si>
+    <t>EW Treasure</t>
   </si>
 </sst>
 </file>
@@ -10785,7 +10803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10827,6 +10845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -10858,7 +10882,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11116,6 +11140,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -11123,7 +11165,27 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11780,13 +11842,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:BF395"/>
+  <dimension ref="A1:BF400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AR85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AT85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY149" sqref="AY149"/>
+      <selection pane="bottomRight" activeCell="A400" sqref="A400:XFD400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -34042,7 +34104,7 @@
       <c r="BE134" s="14"/>
       <c r="BF134" s="14"/>
     </row>
-    <row r="135" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="15">
         <v>42318</v>
@@ -34214,7 +34276,7 @@
       </c>
       <c r="BF135" s="14"/>
     </row>
-    <row r="136" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="15">
         <v>42528</v>
@@ -34386,7 +34448,7 @@
       </c>
       <c r="BF136" s="14"/>
     </row>
-    <row r="137" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="15">
         <v>42752</v>
@@ -34558,7 +34620,7 @@
       </c>
       <c r="BF137" s="14"/>
     </row>
-    <row r="138" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="15">
         <v>42192</v>
@@ -34730,7 +34792,7 @@
       </c>
       <c r="BF138" s="14"/>
     </row>
-    <row r="139" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="15">
         <v>42192</v>
@@ -34902,7 +34964,7 @@
       </c>
       <c r="BF139" s="14"/>
     </row>
-    <row r="140" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="15">
         <v>42192</v>
@@ -35074,7 +35136,7 @@
       </c>
       <c r="BF140" s="14"/>
     </row>
-    <row r="141" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="15">
         <v>42192</v>
@@ -35246,7 +35308,7 @@
       </c>
       <c r="BF141" s="14"/>
     </row>
-    <row r="142" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="15">
         <v>42206</v>
@@ -35418,7 +35480,7 @@
       </c>
       <c r="BF142" s="14"/>
     </row>
-    <row r="143" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="15">
         <v>42206</v>
@@ -35590,7 +35652,7 @@
       </c>
       <c r="BF143" s="14"/>
     </row>
-    <row r="144" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="15">
         <v>42206</v>
@@ -35762,7 +35824,7 @@
       </c>
       <c r="BF144" s="14"/>
     </row>
-    <row r="145" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="15">
         <v>42206</v>
@@ -35934,7 +35996,7 @@
       </c>
       <c r="BF145" s="14"/>
     </row>
-    <row r="146" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="15">
         <v>42423</v>
@@ -36106,7 +36168,7 @@
       </c>
       <c r="BF146" s="14"/>
     </row>
-    <row r="147" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="15">
         <v>42423</v>
@@ -36278,7 +36340,7 @@
       </c>
       <c r="BF147" s="14"/>
     </row>
-    <row r="148" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="15">
         <v>42423</v>
@@ -36450,7 +36512,7 @@
       </c>
       <c r="BF148" s="14"/>
     </row>
-    <row r="149" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="15">
         <v>42423</v>
@@ -36622,7 +36684,7 @@
       </c>
       <c r="BF149" s="14"/>
     </row>
-    <row r="150" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="15">
         <v>42423</v>
@@ -36794,7 +36856,7 @@
       </c>
       <c r="BF150" s="14"/>
     </row>
-    <row r="151" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="15">
         <v>42423</v>
@@ -36966,7 +37028,7 @@
       </c>
       <c r="BF151" s="14"/>
     </row>
-    <row r="152" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="15">
         <v>42423</v>
@@ -37138,7 +37200,7 @@
       </c>
       <c r="BF152" s="14"/>
     </row>
-    <row r="153" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="15">
         <v>42423</v>
@@ -37310,7 +37372,7 @@
       </c>
       <c r="BF153" s="14"/>
     </row>
-    <row r="154" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="15">
         <v>42640</v>
@@ -37482,7 +37544,7 @@
       </c>
       <c r="BF154" s="14"/>
     </row>
-    <row r="155" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="15">
         <v>42640</v>
@@ -37654,7 +37716,7 @@
       </c>
       <c r="BF155" s="14"/>
     </row>
-    <row r="156" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="15">
         <v>42640</v>
@@ -37826,7 +37888,7 @@
       </c>
       <c r="BF156" s="14"/>
     </row>
-    <row r="157" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="15">
         <v>42640</v>
@@ -37998,7 +38060,7 @@
       </c>
       <c r="BF157" s="14"/>
     </row>
-    <row r="158" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="15">
         <v>42640</v>
@@ -38170,7 +38232,7 @@
       </c>
       <c r="BF158" s="14"/>
     </row>
-    <row r="159" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="15">
         <v>42640</v>
@@ -38342,7 +38404,7 @@
       </c>
       <c r="BF159" s="14"/>
     </row>
-    <row r="160" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="15">
         <v>42640</v>
@@ -38514,7 +38576,7 @@
       </c>
       <c r="BF160" s="14"/>
     </row>
-    <row r="161" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="15">
         <v>42640</v>
@@ -38686,7 +38748,7 @@
       </c>
       <c r="BF161" s="14"/>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>773</v>
       </c>
@@ -76176,171 +76238,487 @@
       <c r="BF394" s="70"/>
     </row>
     <row r="395" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A395" s="56" t="s">
+      <c r="A395" s="87" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B395" s="88"/>
+      <c r="C395" s="87"/>
+      <c r="D395" s="89"/>
+      <c r="E395" s="87"/>
+      <c r="F395" s="87"/>
+      <c r="G395" s="87"/>
+      <c r="H395" s="90"/>
+      <c r="I395" s="87"/>
+      <c r="J395" s="87"/>
+      <c r="K395" s="91"/>
+      <c r="L395" s="91"/>
+      <c r="M395" s="91"/>
+      <c r="N395" s="91"/>
+      <c r="O395" s="91"/>
+      <c r="P395" s="91"/>
+      <c r="Q395" s="91"/>
+      <c r="R395" s="91"/>
+      <c r="S395" s="91"/>
+      <c r="T395" s="91"/>
+      <c r="U395" s="87"/>
+      <c r="V395" s="87"/>
+      <c r="W395" s="87"/>
+      <c r="X395" s="87"/>
+      <c r="Y395" s="87"/>
+      <c r="Z395" s="87"/>
+      <c r="AA395" s="87"/>
+      <c r="AB395" s="87"/>
+      <c r="AC395" s="92"/>
+      <c r="AD395" s="92"/>
+      <c r="AE395" s="87"/>
+      <c r="AF395" s="87"/>
+      <c r="AG395" s="87"/>
+      <c r="AH395" s="87"/>
+      <c r="AI395" s="87"/>
+      <c r="AJ395" s="87"/>
+      <c r="AK395" s="87"/>
+      <c r="AL395" s="87"/>
+      <c r="AM395" s="87"/>
+      <c r="AN395" s="87"/>
+      <c r="AO395" s="87"/>
+      <c r="AP395" s="87"/>
+      <c r="AQ395" s="87"/>
+      <c r="AR395" s="87"/>
+      <c r="AS395" s="87"/>
+      <c r="AT395" s="87"/>
+      <c r="AU395" s="87"/>
+      <c r="AV395" s="87"/>
+      <c r="AW395" s="87"/>
+      <c r="AX395" s="87"/>
+      <c r="AY395" s="87"/>
+      <c r="AZ395" s="87"/>
+      <c r="BA395" s="87"/>
+      <c r="BB395" s="87"/>
+      <c r="BC395" s="87"/>
+      <c r="BD395" s="87"/>
+      <c r="BE395" s="87"/>
+      <c r="BF395" s="87"/>
+    </row>
+    <row r="396" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A396" s="87" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B396" s="88"/>
+      <c r="C396" s="87"/>
+      <c r="D396" s="89"/>
+      <c r="E396" s="87"/>
+      <c r="F396" s="87"/>
+      <c r="G396" s="87"/>
+      <c r="H396" s="90"/>
+      <c r="I396" s="87"/>
+      <c r="J396" s="87"/>
+      <c r="K396" s="91"/>
+      <c r="L396" s="91"/>
+      <c r="M396" s="91"/>
+      <c r="N396" s="91"/>
+      <c r="O396" s="91"/>
+      <c r="P396" s="91"/>
+      <c r="Q396" s="91"/>
+      <c r="R396" s="91"/>
+      <c r="S396" s="91"/>
+      <c r="T396" s="91"/>
+      <c r="U396" s="87"/>
+      <c r="V396" s="87"/>
+      <c r="W396" s="87"/>
+      <c r="X396" s="87"/>
+      <c r="Y396" s="87"/>
+      <c r="Z396" s="87"/>
+      <c r="AA396" s="87"/>
+      <c r="AB396" s="87"/>
+      <c r="AC396" s="92"/>
+      <c r="AD396" s="92"/>
+      <c r="AE396" s="87"/>
+      <c r="AF396" s="87"/>
+      <c r="AG396" s="87"/>
+      <c r="AH396" s="87"/>
+      <c r="AI396" s="87"/>
+      <c r="AJ396" s="87"/>
+      <c r="AK396" s="87"/>
+      <c r="AL396" s="87"/>
+      <c r="AM396" s="87"/>
+      <c r="AN396" s="87"/>
+      <c r="AO396" s="87"/>
+      <c r="AP396" s="87"/>
+      <c r="AQ396" s="87"/>
+      <c r="AR396" s="87"/>
+      <c r="AS396" s="87"/>
+      <c r="AT396" s="87"/>
+      <c r="AU396" s="87"/>
+      <c r="AV396" s="87"/>
+      <c r="AW396" s="87"/>
+      <c r="AX396" s="87"/>
+      <c r="AY396" s="87"/>
+      <c r="AZ396" s="87"/>
+      <c r="BA396" s="87"/>
+      <c r="BB396" s="87"/>
+      <c r="BC396" s="87"/>
+      <c r="BD396" s="87"/>
+      <c r="BE396" s="87"/>
+      <c r="BF396" s="87"/>
+    </row>
+    <row r="397" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A397" s="87" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B397" s="88"/>
+      <c r="C397" s="87"/>
+      <c r="D397" s="89"/>
+      <c r="E397" s="87"/>
+      <c r="F397" s="87"/>
+      <c r="G397" s="87"/>
+      <c r="H397" s="90"/>
+      <c r="I397" s="87"/>
+      <c r="J397" s="87"/>
+      <c r="K397" s="91"/>
+      <c r="L397" s="91"/>
+      <c r="M397" s="91"/>
+      <c r="N397" s="91"/>
+      <c r="O397" s="91"/>
+      <c r="P397" s="91"/>
+      <c r="Q397" s="91"/>
+      <c r="R397" s="91"/>
+      <c r="S397" s="91"/>
+      <c r="T397" s="91"/>
+      <c r="U397" s="87"/>
+      <c r="V397" s="87"/>
+      <c r="W397" s="87"/>
+      <c r="X397" s="87"/>
+      <c r="Y397" s="87"/>
+      <c r="Z397" s="87"/>
+      <c r="AA397" s="87"/>
+      <c r="AB397" s="87"/>
+      <c r="AC397" s="92"/>
+      <c r="AD397" s="92"/>
+      <c r="AE397" s="87"/>
+      <c r="AF397" s="87"/>
+      <c r="AG397" s="87"/>
+      <c r="AH397" s="87"/>
+      <c r="AI397" s="87"/>
+      <c r="AJ397" s="87"/>
+      <c r="AK397" s="87"/>
+      <c r="AL397" s="87"/>
+      <c r="AM397" s="87"/>
+      <c r="AN397" s="87"/>
+      <c r="AO397" s="87"/>
+      <c r="AP397" s="87"/>
+      <c r="AQ397" s="87"/>
+      <c r="AR397" s="87"/>
+      <c r="AS397" s="87"/>
+      <c r="AT397" s="87"/>
+      <c r="AU397" s="87"/>
+      <c r="AV397" s="87"/>
+      <c r="AW397" s="87"/>
+      <c r="AX397" s="87"/>
+      <c r="AY397" s="87"/>
+      <c r="AZ397" s="87"/>
+      <c r="BA397" s="87"/>
+      <c r="BB397" s="87"/>
+      <c r="BC397" s="87"/>
+      <c r="BD397" s="87"/>
+      <c r="BE397" s="87"/>
+      <c r="BF397" s="87"/>
+    </row>
+    <row r="398" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A398" s="87" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B398" s="88"/>
+      <c r="C398" s="87"/>
+      <c r="D398" s="89"/>
+      <c r="E398" s="87"/>
+      <c r="F398" s="87"/>
+      <c r="G398" s="87"/>
+      <c r="H398" s="90"/>
+      <c r="I398" s="87"/>
+      <c r="J398" s="87"/>
+      <c r="K398" s="91"/>
+      <c r="L398" s="91"/>
+      <c r="M398" s="91"/>
+      <c r="N398" s="91"/>
+      <c r="O398" s="91"/>
+      <c r="P398" s="91"/>
+      <c r="Q398" s="91"/>
+      <c r="R398" s="91"/>
+      <c r="S398" s="91"/>
+      <c r="T398" s="91"/>
+      <c r="U398" s="87"/>
+      <c r="V398" s="87"/>
+      <c r="W398" s="87"/>
+      <c r="X398" s="87"/>
+      <c r="Y398" s="87"/>
+      <c r="Z398" s="87"/>
+      <c r="AA398" s="87"/>
+      <c r="AB398" s="87"/>
+      <c r="AC398" s="92"/>
+      <c r="AD398" s="92"/>
+      <c r="AE398" s="87"/>
+      <c r="AF398" s="87"/>
+      <c r="AG398" s="87"/>
+      <c r="AH398" s="87"/>
+      <c r="AI398" s="87"/>
+      <c r="AJ398" s="87"/>
+      <c r="AK398" s="87"/>
+      <c r="AL398" s="87"/>
+      <c r="AM398" s="87"/>
+      <c r="AN398" s="87"/>
+      <c r="AO398" s="87"/>
+      <c r="AP398" s="87"/>
+      <c r="AQ398" s="87"/>
+      <c r="AR398" s="87"/>
+      <c r="AS398" s="87"/>
+      <c r="AT398" s="87"/>
+      <c r="AU398" s="87"/>
+      <c r="AV398" s="87"/>
+      <c r="AW398" s="87"/>
+      <c r="AX398" s="87"/>
+      <c r="AY398" s="87"/>
+      <c r="AZ398" s="87"/>
+      <c r="BA398" s="87"/>
+      <c r="BB398" s="87"/>
+      <c r="BC398" s="87"/>
+      <c r="BD398" s="87"/>
+      <c r="BE398" s="87"/>
+      <c r="BF398" s="87"/>
+    </row>
+    <row r="399" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A399" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B399" s="88"/>
+      <c r="C399" s="87"/>
+      <c r="D399" s="89"/>
+      <c r="E399" s="87"/>
+      <c r="F399" s="87"/>
+      <c r="G399" s="87"/>
+      <c r="H399" s="90"/>
+      <c r="I399" s="87"/>
+      <c r="J399" s="87"/>
+      <c r="K399" s="91"/>
+      <c r="L399" s="91"/>
+      <c r="M399" s="91"/>
+      <c r="N399" s="91"/>
+      <c r="O399" s="91"/>
+      <c r="P399" s="91"/>
+      <c r="Q399" s="91"/>
+      <c r="R399" s="91"/>
+      <c r="S399" s="91"/>
+      <c r="T399" s="91"/>
+      <c r="U399" s="87"/>
+      <c r="V399" s="87"/>
+      <c r="W399" s="87"/>
+      <c r="X399" s="87"/>
+      <c r="Y399" s="87"/>
+      <c r="Z399" s="87"/>
+      <c r="AA399" s="87"/>
+      <c r="AB399" s="87"/>
+      <c r="AC399" s="92"/>
+      <c r="AD399" s="92"/>
+      <c r="AE399" s="87"/>
+      <c r="AF399" s="87"/>
+      <c r="AG399" s="87"/>
+      <c r="AH399" s="87"/>
+      <c r="AI399" s="87"/>
+      <c r="AJ399" s="87"/>
+      <c r="AK399" s="87"/>
+      <c r="AL399" s="87"/>
+      <c r="AM399" s="87"/>
+      <c r="AN399" s="87"/>
+      <c r="AO399" s="87"/>
+      <c r="AP399" s="87"/>
+      <c r="AQ399" s="87"/>
+      <c r="AR399" s="87"/>
+      <c r="AS399" s="87"/>
+      <c r="AT399" s="87"/>
+      <c r="AU399" s="87"/>
+      <c r="AV399" s="87"/>
+      <c r="AW399" s="87"/>
+      <c r="AX399" s="87"/>
+      <c r="AY399" s="87"/>
+      <c r="AZ399" s="87"/>
+      <c r="BA399" s="87"/>
+      <c r="BB399" s="87"/>
+      <c r="BC399" s="87"/>
+      <c r="BD399" s="87"/>
+      <c r="BE399" s="87"/>
+      <c r="BF399" s="87"/>
+    </row>
+    <row r="400" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A400" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B395" s="57"/>
-      <c r="C395" s="56"/>
-      <c r="D395" s="85"/>
-      <c r="E395" s="56"/>
-      <c r="F395" s="56"/>
-      <c r="G395" s="56"/>
-      <c r="H395" s="58"/>
-      <c r="I395" s="56"/>
-      <c r="J395" s="56"/>
-      <c r="K395" s="56"/>
-      <c r="L395" s="56"/>
-      <c r="M395" s="56"/>
-      <c r="N395" s="56"/>
-      <c r="O395" s="56"/>
-      <c r="P395" s="56"/>
-      <c r="Q395" s="56"/>
-      <c r="R395" s="56"/>
-      <c r="S395" s="56"/>
-      <c r="T395" s="56"/>
-      <c r="U395" s="56"/>
-      <c r="V395" s="56"/>
-      <c r="W395" s="56"/>
-      <c r="X395" s="56"/>
-      <c r="Y395" s="56"/>
-      <c r="Z395" s="56"/>
-      <c r="AA395" s="56"/>
-      <c r="AB395" s="56"/>
-      <c r="AC395" s="56"/>
-      <c r="AD395" s="56"/>
-      <c r="AE395" s="56"/>
-      <c r="AF395" s="56"/>
-      <c r="AG395" s="56"/>
-      <c r="AH395" s="56"/>
-      <c r="AI395" s="56"/>
-      <c r="AJ395" s="56"/>
-      <c r="AK395" s="56"/>
-      <c r="AL395" s="56"/>
-      <c r="AM395" s="56"/>
-      <c r="AN395" s="56"/>
-      <c r="AO395" s="56"/>
-      <c r="AP395" s="56"/>
-      <c r="AQ395" s="56"/>
-      <c r="AR395" s="56"/>
-      <c r="AS395" s="56"/>
-      <c r="AT395" s="56"/>
-      <c r="AU395" s="56"/>
-      <c r="AV395" s="56"/>
-      <c r="AW395" s="56"/>
-      <c r="AX395" s="56"/>
-      <c r="AY395" s="56"/>
-      <c r="AZ395" s="56"/>
-      <c r="BA395" s="56"/>
-      <c r="BB395" s="56"/>
-      <c r="BC395" s="56"/>
-      <c r="BD395" s="56"/>
-      <c r="BE395" s="56"/>
-      <c r="BF395" s="56"/>
+      <c r="B400" s="57"/>
+      <c r="C400" s="56"/>
+      <c r="D400" s="85"/>
+      <c r="E400" s="56"/>
+      <c r="F400" s="56"/>
+      <c r="G400" s="56"/>
+      <c r="H400" s="58"/>
+      <c r="I400" s="56"/>
+      <c r="J400" s="56"/>
+      <c r="K400" s="56"/>
+      <c r="L400" s="56"/>
+      <c r="M400" s="56"/>
+      <c r="N400" s="56"/>
+      <c r="O400" s="56"/>
+      <c r="P400" s="56"/>
+      <c r="Q400" s="56"/>
+      <c r="R400" s="56"/>
+      <c r="S400" s="56"/>
+      <c r="T400" s="56"/>
+      <c r="U400" s="56"/>
+      <c r="V400" s="56"/>
+      <c r="W400" s="56"/>
+      <c r="X400" s="56"/>
+      <c r="Y400" s="56"/>
+      <c r="Z400" s="56"/>
+      <c r="AA400" s="56"/>
+      <c r="AB400" s="56"/>
+      <c r="AC400" s="56"/>
+      <c r="AD400" s="56"/>
+      <c r="AE400" s="56"/>
+      <c r="AF400" s="56"/>
+      <c r="AG400" s="56"/>
+      <c r="AH400" s="56"/>
+      <c r="AI400" s="56"/>
+      <c r="AJ400" s="56"/>
+      <c r="AK400" s="56"/>
+      <c r="AL400" s="56"/>
+      <c r="AM400" s="56"/>
+      <c r="AN400" s="56"/>
+      <c r="AO400" s="56"/>
+      <c r="AP400" s="56"/>
+      <c r="AQ400" s="56"/>
+      <c r="AR400" s="56"/>
+      <c r="AS400" s="56"/>
+      <c r="AT400" s="56"/>
+      <c r="AU400" s="56"/>
+      <c r="AV400" s="56"/>
+      <c r="AW400" s="56"/>
+      <c r="AX400" s="56"/>
+      <c r="AY400" s="56"/>
+      <c r="AZ400" s="56"/>
+      <c r="BA400" s="56"/>
+      <c r="BB400" s="56"/>
+      <c r="BC400" s="56"/>
+      <c r="BD400" s="56"/>
+      <c r="BE400" s="56"/>
+      <c r="BF400" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF395" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:BF400" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
-    <cfRule type="duplicateValues" dxfId="33" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="31" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F355">
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
     <cfRule type="duplicateValues" dxfId="30" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348:F355">
+  <conditionalFormatting sqref="F86:F99">
     <cfRule type="duplicateValues" dxfId="29" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F194">
     <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F99">
+  <conditionalFormatting sqref="F287">
     <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F394 F300:F312 F387:F391">
-    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F284:F286">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193">
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F322:F326">
-    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F377">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288:F299">
-    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F392:F393">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O342:O343">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O386">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O379:O381 O384">
-    <cfRule type="duplicateValues" dxfId="9" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F395:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="6" priority="67"/>
+  <conditionalFormatting sqref="F400:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
+    <cfRule type="duplicateValues" dxfId="9" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O387:O1048576 O346:O368 O385 O370:O377 O1:O340">
-    <cfRule type="duplicateValues" dxfId="5" priority="77"/>
+  <conditionalFormatting sqref="O400:O1048576 O387:O398 O346:O368 O385 O370:O377 O1:O340">
+    <cfRule type="duplicateValues" dxfId="8" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O341">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O344">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O382:O383">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O383">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O344">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="F399">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O382:O383">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="O399">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O383">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="F394:F398 F300:F312 F387:F391">
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776B737-CDD8-499A-AAAD-FA3DAD9498FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9553D1-E146-4C03-8693-54F0299F30FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="38640" windowHeight="20715" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$400</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$413</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17798" uniqueCount="3563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18136" uniqueCount="3624">
   <si>
     <t>date:</t>
   </si>
@@ -10748,6 +10748,189 @@
   </si>
   <si>
     <t>EW Treasure</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112439.tex</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Endwalker</t>
+  </si>
+  <si>
+    <t>'89</t>
+  </si>
+  <si>
+    <t>k5d1</t>
+  </si>
+  <si>
+    <t>Das Sternengrab</t>
+  </si>
+  <si>
+    <t>das_sternengrab</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112440.tex</t>
+  </si>
+  <si>
+    <t>'90</t>
+  </si>
+  <si>
+    <t>u5d1</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112436.tex</t>
+  </si>
+  <si>
+    <t>'83</t>
+  </si>
+  <si>
+    <t>m5d2</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112435.tex</t>
+  </si>
+  <si>
+    <t>'81</t>
+  </si>
+  <si>
+    <t>m5d1</t>
+  </si>
+  <si>
+    <t>Ktisis Hyperboreia</t>
+  </si>
+  <si>
+    <t>ktisis_hyperboreia</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112438.tex</t>
+  </si>
+  <si>
+    <t>'87</t>
+  </si>
+  <si>
+    <t>n5d1</t>
+  </si>
+  <si>
+    <t>Smileton</t>
+  </si>
+  <si>
+    <t>smileton</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112441.tex</t>
+  </si>
+  <si>
+    <t>u5d2</t>
+  </si>
+  <si>
+    <t>Stigma-Holometrie</t>
+  </si>
+  <si>
+    <t>stigma_holometrie</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112442.tex</t>
+  </si>
+  <si>
+    <t>u5d3</t>
+  </si>
+  <si>
+    <t>Vanaspati</t>
+  </si>
+  <si>
+    <t>vanaspati</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112437.tex</t>
+  </si>
+  <si>
+    <t>'85</t>
+  </si>
+  <si>
+    <t>m5d3</t>
+  </si>
+  <si>
+    <t>Eschatos - Hydaelyn</t>
+  </si>
+  <si>
+    <t>eschatos_hydaelyn</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112446.tex</t>
+  </si>
+  <si>
+    <t>k5fa_2</t>
+  </si>
+  <si>
+    <t>Eschatos - Zodiark</t>
+  </si>
+  <si>
+    <t>eschatos_zodiark</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112444.tex</t>
+  </si>
+  <si>
+    <t>u5fa_2</t>
+  </si>
+  <si>
+    <t>Prophetie - Endsängerin</t>
+  </si>
+  <si>
+    <t>prophetie_endsaengerin</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112447.tex</t>
+  </si>
+  <si>
+    <t>u5fb</t>
+  </si>
+  <si>
+    <t>Prophetie - Hydaelyn</t>
+  </si>
+  <si>
+    <t>prophetie_hydaelyn</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112445.tex</t>
+  </si>
+  <si>
+    <t>k5fa</t>
+  </si>
+  <si>
+    <t>Prophetie - Zodiark</t>
+  </si>
+  <si>
+    <t>prophetie_zodiark</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112443.tex</t>
+  </si>
+  <si>
+    <t>u5fa</t>
+  </si>
+  <si>
+    <t>Aitiaskop</t>
+  </si>
+  <si>
+    <t>aitiaskop</t>
+  </si>
+  <si>
+    <t>Turm von Babil</t>
+  </si>
+  <si>
+    <t>Turm von Zot</t>
+  </si>
+  <si>
+    <t>turm_von_zot</t>
+  </si>
+  <si>
+    <t>turm_von_babil</t>
   </si>
 </sst>
 </file>
@@ -11165,7 +11348,47 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11842,20 +12065,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:BF400"/>
+  <dimension ref="A1:BF413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AT85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A400" sqref="A400:XFD400"/>
+      <selection pane="bottomRight" activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="43.140625" style="86" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="44.28515625" style="1" customWidth="1" outlineLevel="1"/>
@@ -76300,28 +76523,54 @@
       <c r="BF395" s="87"/>
     </row>
     <row r="396" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A396" s="87" t="s">
-        <v>3559</v>
-      </c>
-      <c r="B396" s="88"/>
-      <c r="C396" s="87"/>
-      <c r="D396" s="89"/>
-      <c r="E396" s="87"/>
-      <c r="F396" s="87"/>
-      <c r="G396" s="87"/>
-      <c r="H396" s="90"/>
-      <c r="I396" s="87"/>
-      <c r="J396" s="87"/>
-      <c r="K396" s="91"/>
-      <c r="L396" s="91"/>
-      <c r="M396" s="91"/>
-      <c r="N396" s="91"/>
-      <c r="O396" s="91"/>
-      <c r="P396" s="91"/>
-      <c r="Q396" s="91"/>
-      <c r="R396" s="91"/>
-      <c r="S396" s="91"/>
-      <c r="T396" s="91"/>
+      <c r="A396" s="87"/>
+      <c r="B396" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C396" s="87">
+        <v>87</v>
+      </c>
+      <c r="D396" s="89" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E396" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F396" s="87" t="s">
+        <v>3619</v>
+      </c>
+      <c r="G396" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="H396" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I396" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J396" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K396" s="87" t="s">
+        <v>3567</v>
+      </c>
+      <c r="L396" s="87">
+        <v>90</v>
+      </c>
+      <c r="M396" s="87">
+        <v>520</v>
+      </c>
+      <c r="N396" s="87">
+        <v>550</v>
+      </c>
+      <c r="O396" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P396" s="87"/>
+      <c r="Q396" s="87"/>
+      <c r="R396" s="87"/>
+      <c r="S396" s="87"/>
+      <c r="T396" s="87"/>
       <c r="U396" s="87"/>
       <c r="V396" s="87"/>
       <c r="W396" s="87"/>
@@ -76330,8 +76579,8 @@
       <c r="Z396" s="87"/>
       <c r="AA396" s="87"/>
       <c r="AB396" s="87"/>
-      <c r="AC396" s="92"/>
-      <c r="AD396" s="92"/>
+      <c r="AC396" s="87"/>
+      <c r="AD396" s="87"/>
       <c r="AE396" s="87"/>
       <c r="AF396" s="87"/>
       <c r="AG396" s="87"/>
@@ -76339,51 +76588,111 @@
       <c r="AI396" s="87"/>
       <c r="AJ396" s="87"/>
       <c r="AK396" s="87"/>
-      <c r="AL396" s="87"/>
-      <c r="AM396" s="87"/>
-      <c r="AN396" s="87"/>
-      <c r="AO396" s="87"/>
-      <c r="AP396" s="87"/>
-      <c r="AQ396" s="87"/>
-      <c r="AR396" s="87"/>
-      <c r="AS396" s="87"/>
-      <c r="AT396" s="87"/>
-      <c r="AU396" s="87"/>
-      <c r="AV396" s="87"/>
-      <c r="AW396" s="87"/>
-      <c r="AX396" s="87"/>
-      <c r="AY396" s="87"/>
-      <c r="AZ396" s="87"/>
-      <c r="BA396" s="87"/>
-      <c r="BB396" s="87"/>
+      <c r="AL396" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU396" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW396" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX396" s="87" t="s">
+        <v>3568</v>
+      </c>
+      <c r="AY396" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ396" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA396" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB396" s="87" t="s">
+        <v>941</v>
+      </c>
       <c r="BC396" s="87"/>
       <c r="BD396" s="87"/>
       <c r="BE396" s="87"/>
       <c r="BF396" s="87"/>
     </row>
     <row r="397" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A397" s="87" t="s">
-        <v>3560</v>
-      </c>
-      <c r="B397" s="88"/>
-      <c r="C397" s="87"/>
-      <c r="D397" s="89"/>
-      <c r="E397" s="87"/>
-      <c r="F397" s="87"/>
-      <c r="G397" s="87"/>
-      <c r="H397" s="90"/>
-      <c r="I397" s="87"/>
-      <c r="J397" s="87"/>
-      <c r="K397" s="91"/>
-      <c r="L397" s="91"/>
-      <c r="M397" s="91"/>
-      <c r="N397" s="91"/>
-      <c r="O397" s="91"/>
-      <c r="P397" s="91"/>
-      <c r="Q397" s="91"/>
-      <c r="R397" s="91"/>
-      <c r="S397" s="91"/>
-      <c r="T397" s="91"/>
+      <c r="A397" s="87"/>
+      <c r="B397" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C397" s="87">
+        <v>88</v>
+      </c>
+      <c r="D397" s="89" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E397" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F397" s="87" t="s">
+        <v>3570</v>
+      </c>
+      <c r="G397" s="87" t="s">
+        <v>3571</v>
+      </c>
+      <c r="H397" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I397" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J397" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K397" s="87" t="s">
+        <v>3572</v>
+      </c>
+      <c r="L397" s="87">
+        <v>90</v>
+      </c>
+      <c r="M397" s="87">
+        <v>540</v>
+      </c>
+      <c r="N397" s="87">
+        <v>570</v>
+      </c>
+      <c r="O397" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P397" s="87"/>
+      <c r="Q397" s="87"/>
+      <c r="R397" s="87"/>
+      <c r="S397" s="87"/>
+      <c r="T397" s="87"/>
       <c r="U397" s="87"/>
       <c r="V397" s="87"/>
       <c r="W397" s="87"/>
@@ -76392,8 +76701,8 @@
       <c r="Z397" s="87"/>
       <c r="AA397" s="87"/>
       <c r="AB397" s="87"/>
-      <c r="AC397" s="92"/>
-      <c r="AD397" s="92"/>
+      <c r="AC397" s="87"/>
+      <c r="AD397" s="87"/>
       <c r="AE397" s="87"/>
       <c r="AF397" s="87"/>
       <c r="AG397" s="87"/>
@@ -76401,51 +76710,111 @@
       <c r="AI397" s="87"/>
       <c r="AJ397" s="87"/>
       <c r="AK397" s="87"/>
-      <c r="AL397" s="87"/>
-      <c r="AM397" s="87"/>
-      <c r="AN397" s="87"/>
-      <c r="AO397" s="87"/>
-      <c r="AP397" s="87"/>
-      <c r="AQ397" s="87"/>
-      <c r="AR397" s="87"/>
-      <c r="AS397" s="87"/>
-      <c r="AT397" s="87"/>
-      <c r="AU397" s="87"/>
-      <c r="AV397" s="87"/>
-      <c r="AW397" s="87"/>
-      <c r="AX397" s="87"/>
-      <c r="AY397" s="87"/>
-      <c r="AZ397" s="87"/>
-      <c r="BA397" s="87"/>
-      <c r="BB397" s="87"/>
+      <c r="AL397" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO397" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU397" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW397" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX397" s="87" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AY397" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ397" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA397" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB397" s="87" t="s">
+        <v>941</v>
+      </c>
       <c r="BC397" s="87"/>
       <c r="BD397" s="87"/>
       <c r="BE397" s="87"/>
       <c r="BF397" s="87"/>
     </row>
     <row r="398" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A398" s="87" t="s">
-        <v>3561</v>
-      </c>
-      <c r="B398" s="88"/>
-      <c r="C398" s="87"/>
-      <c r="D398" s="89"/>
-      <c r="E398" s="87"/>
-      <c r="F398" s="87"/>
-      <c r="G398" s="87"/>
-      <c r="H398" s="90"/>
-      <c r="I398" s="87"/>
-      <c r="J398" s="87"/>
-      <c r="K398" s="91"/>
-      <c r="L398" s="91"/>
-      <c r="M398" s="91"/>
-      <c r="N398" s="91"/>
-      <c r="O398" s="91"/>
-      <c r="P398" s="91"/>
-      <c r="Q398" s="91"/>
-      <c r="R398" s="91"/>
-      <c r="S398" s="91"/>
-      <c r="T398" s="91"/>
+      <c r="A398" s="87"/>
+      <c r="B398" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C398" s="87">
+        <v>89</v>
+      </c>
+      <c r="D398" s="89" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E398" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F398" s="87" t="s">
+        <v>3623</v>
+      </c>
+      <c r="G398" s="87" t="s">
+        <v>3574</v>
+      </c>
+      <c r="H398" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I398" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J398" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K398" s="87" t="s">
+        <v>3575</v>
+      </c>
+      <c r="L398" s="87">
+        <v>84</v>
+      </c>
+      <c r="M398" s="87">
+        <v>505</v>
+      </c>
+      <c r="N398" s="87">
+        <v>0</v>
+      </c>
+      <c r="O398" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P398" s="87"/>
+      <c r="Q398" s="87"/>
+      <c r="R398" s="87"/>
+      <c r="S398" s="87"/>
+      <c r="T398" s="87"/>
       <c r="U398" s="87"/>
       <c r="V398" s="87"/>
       <c r="W398" s="87"/>
@@ -76454,8 +76823,8 @@
       <c r="Z398" s="87"/>
       <c r="AA398" s="87"/>
       <c r="AB398" s="87"/>
-      <c r="AC398" s="92"/>
-      <c r="AD398" s="92"/>
+      <c r="AC398" s="87"/>
+      <c r="AD398" s="87"/>
       <c r="AE398" s="87"/>
       <c r="AF398" s="87"/>
       <c r="AG398" s="87"/>
@@ -76463,51 +76832,111 @@
       <c r="AI398" s="87"/>
       <c r="AJ398" s="87"/>
       <c r="AK398" s="87"/>
-      <c r="AL398" s="87"/>
-      <c r="AM398" s="87"/>
-      <c r="AN398" s="87"/>
-      <c r="AO398" s="87"/>
-      <c r="AP398" s="87"/>
-      <c r="AQ398" s="87"/>
-      <c r="AR398" s="87"/>
-      <c r="AS398" s="87"/>
-      <c r="AT398" s="87"/>
-      <c r="AU398" s="87"/>
-      <c r="AV398" s="87"/>
-      <c r="AW398" s="87"/>
-      <c r="AX398" s="87"/>
-      <c r="AY398" s="87"/>
-      <c r="AZ398" s="87"/>
-      <c r="BA398" s="87"/>
-      <c r="BB398" s="87"/>
+      <c r="AL398" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU398" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW398" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX398" s="87" t="s">
+        <v>3576</v>
+      </c>
+      <c r="AY398" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ398" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA398" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB398" s="87" t="s">
+        <v>941</v>
+      </c>
       <c r="BC398" s="87"/>
       <c r="BD398" s="87"/>
       <c r="BE398" s="87"/>
       <c r="BF398" s="87"/>
     </row>
     <row r="399" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A399" s="87" t="s">
-        <v>3562</v>
-      </c>
-      <c r="B399" s="88"/>
-      <c r="C399" s="87"/>
-      <c r="D399" s="89"/>
-      <c r="E399" s="87"/>
-      <c r="F399" s="87"/>
-      <c r="G399" s="87"/>
-      <c r="H399" s="90"/>
-      <c r="I399" s="87"/>
-      <c r="J399" s="87"/>
-      <c r="K399" s="91"/>
-      <c r="L399" s="91"/>
-      <c r="M399" s="91"/>
-      <c r="N399" s="91"/>
-      <c r="O399" s="91"/>
-      <c r="P399" s="91"/>
-      <c r="Q399" s="91"/>
-      <c r="R399" s="91"/>
-      <c r="S399" s="91"/>
-      <c r="T399" s="91"/>
+      <c r="A399" s="87"/>
+      <c r="B399" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C399" s="87">
+        <v>90</v>
+      </c>
+      <c r="D399" s="89" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E399" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F399" s="87" t="s">
+        <v>3622</v>
+      </c>
+      <c r="G399" s="87" t="s">
+        <v>3577</v>
+      </c>
+      <c r="H399" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I399" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J399" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K399" s="87" t="s">
+        <v>3578</v>
+      </c>
+      <c r="L399" s="87">
+        <v>82</v>
+      </c>
+      <c r="M399" s="87">
+        <v>500</v>
+      </c>
+      <c r="N399" s="87">
+        <v>0</v>
+      </c>
+      <c r="O399" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P399" s="87"/>
+      <c r="Q399" s="87"/>
+      <c r="R399" s="87"/>
+      <c r="S399" s="87"/>
+      <c r="T399" s="87"/>
       <c r="U399" s="87"/>
       <c r="V399" s="87"/>
       <c r="W399" s="87"/>
@@ -76516,8 +76945,8 @@
       <c r="Z399" s="87"/>
       <c r="AA399" s="87"/>
       <c r="AB399" s="87"/>
-      <c r="AC399" s="92"/>
-      <c r="AD399" s="92"/>
+      <c r="AC399" s="87"/>
+      <c r="AD399" s="87"/>
       <c r="AE399" s="87"/>
       <c r="AF399" s="87"/>
       <c r="AG399" s="87"/>
@@ -76525,200 +76954,1592 @@
       <c r="AI399" s="87"/>
       <c r="AJ399" s="87"/>
       <c r="AK399" s="87"/>
-      <c r="AL399" s="87"/>
-      <c r="AM399" s="87"/>
-      <c r="AN399" s="87"/>
-      <c r="AO399" s="87"/>
-      <c r="AP399" s="87"/>
-      <c r="AQ399" s="87"/>
-      <c r="AR399" s="87"/>
-      <c r="AS399" s="87"/>
-      <c r="AT399" s="87"/>
-      <c r="AU399" s="87"/>
-      <c r="AV399" s="87"/>
-      <c r="AW399" s="87"/>
-      <c r="AX399" s="87"/>
-      <c r="AY399" s="87"/>
-      <c r="AZ399" s="87"/>
-      <c r="BA399" s="87"/>
-      <c r="BB399" s="87"/>
+      <c r="AL399" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU399" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW399" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX399" s="87" t="s">
+        <v>3579</v>
+      </c>
+      <c r="AY399" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ399" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA399" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB399" s="87" t="s">
+        <v>941</v>
+      </c>
       <c r="BC399" s="87"/>
       <c r="BD399" s="87"/>
       <c r="BE399" s="87"/>
       <c r="BF399" s="87"/>
     </row>
     <row r="400" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A400" s="56" t="s">
+      <c r="A400" s="87"/>
+      <c r="B400" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C400" s="87">
+        <v>91</v>
+      </c>
+      <c r="D400" s="89" t="s">
+        <v>3580</v>
+      </c>
+      <c r="E400" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F400" s="87" t="s">
+        <v>3581</v>
+      </c>
+      <c r="G400" s="87" t="s">
+        <v>3582</v>
+      </c>
+      <c r="H400" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I400" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J400" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K400" s="87" t="s">
+        <v>3583</v>
+      </c>
+      <c r="L400" s="87">
+        <v>88</v>
+      </c>
+      <c r="M400" s="87">
+        <v>515</v>
+      </c>
+      <c r="N400" s="87">
+        <v>0</v>
+      </c>
+      <c r="O400" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P400" s="87"/>
+      <c r="Q400" s="87"/>
+      <c r="R400" s="87"/>
+      <c r="S400" s="87"/>
+      <c r="T400" s="87"/>
+      <c r="U400" s="87"/>
+      <c r="V400" s="87"/>
+      <c r="W400" s="87"/>
+      <c r="X400" s="87"/>
+      <c r="Y400" s="87"/>
+      <c r="Z400" s="87"/>
+      <c r="AA400" s="87"/>
+      <c r="AB400" s="87"/>
+      <c r="AC400" s="87"/>
+      <c r="AD400" s="87"/>
+      <c r="AE400" s="87"/>
+      <c r="AF400" s="87"/>
+      <c r="AG400" s="87"/>
+      <c r="AH400" s="87"/>
+      <c r="AI400" s="87"/>
+      <c r="AJ400" s="87"/>
+      <c r="AK400" s="87"/>
+      <c r="AL400" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU400" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW400" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX400" s="87" t="s">
+        <v>3584</v>
+      </c>
+      <c r="AY400" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ400" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA400" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB400" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC400" s="87"/>
+      <c r="BD400" s="87"/>
+      <c r="BE400" s="87"/>
+      <c r="BF400" s="87"/>
+    </row>
+    <row r="401" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A401" s="87"/>
+      <c r="B401" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C401" s="87">
+        <v>92</v>
+      </c>
+      <c r="D401" s="89" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E401" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F401" s="87" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G401" s="87" t="s">
+        <v>3587</v>
+      </c>
+      <c r="H401" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I401" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J401" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K401" s="87" t="s">
+        <v>3572</v>
+      </c>
+      <c r="L401" s="87">
+        <v>90</v>
+      </c>
+      <c r="M401" s="87">
+        <v>540</v>
+      </c>
+      <c r="N401" s="87">
+        <v>0</v>
+      </c>
+      <c r="O401" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P401" s="87"/>
+      <c r="Q401" s="87"/>
+      <c r="R401" s="87"/>
+      <c r="S401" s="87"/>
+      <c r="T401" s="87"/>
+      <c r="U401" s="87"/>
+      <c r="V401" s="87"/>
+      <c r="W401" s="87"/>
+      <c r="X401" s="87"/>
+      <c r="Y401" s="87"/>
+      <c r="Z401" s="87"/>
+      <c r="AA401" s="87"/>
+      <c r="AB401" s="87"/>
+      <c r="AC401" s="87"/>
+      <c r="AD401" s="87"/>
+      <c r="AE401" s="87"/>
+      <c r="AF401" s="87"/>
+      <c r="AG401" s="87"/>
+      <c r="AH401" s="87"/>
+      <c r="AI401" s="87"/>
+      <c r="AJ401" s="87"/>
+      <c r="AK401" s="87"/>
+      <c r="AL401" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO401" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU401" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW401" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX401" s="87" t="s">
+        <v>3588</v>
+      </c>
+      <c r="AY401" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ401" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA401" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB401" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC401" s="87"/>
+      <c r="BD401" s="87"/>
+      <c r="BE401" s="87"/>
+      <c r="BF401" s="87"/>
+    </row>
+    <row r="402" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A402" s="87"/>
+      <c r="B402" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C402" s="87">
+        <v>93</v>
+      </c>
+      <c r="D402" s="89" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E402" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F402" s="87" t="s">
+        <v>3590</v>
+      </c>
+      <c r="G402" s="87" t="s">
+        <v>3591</v>
+      </c>
+      <c r="H402" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I402" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J402" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K402" s="87" t="s">
+        <v>3572</v>
+      </c>
+      <c r="L402" s="87">
+        <v>90</v>
+      </c>
+      <c r="M402" s="87">
+        <v>540</v>
+      </c>
+      <c r="N402" s="87">
+        <v>0</v>
+      </c>
+      <c r="O402" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P402" s="87"/>
+      <c r="Q402" s="87"/>
+      <c r="R402" s="87"/>
+      <c r="S402" s="87"/>
+      <c r="T402" s="87"/>
+      <c r="U402" s="87"/>
+      <c r="V402" s="87"/>
+      <c r="W402" s="87"/>
+      <c r="X402" s="87"/>
+      <c r="Y402" s="87"/>
+      <c r="Z402" s="87"/>
+      <c r="AA402" s="87"/>
+      <c r="AB402" s="87"/>
+      <c r="AC402" s="87"/>
+      <c r="AD402" s="87"/>
+      <c r="AE402" s="87"/>
+      <c r="AF402" s="87"/>
+      <c r="AG402" s="87"/>
+      <c r="AH402" s="87"/>
+      <c r="AI402" s="87"/>
+      <c r="AJ402" s="87"/>
+      <c r="AK402" s="87"/>
+      <c r="AL402" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO402" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU402" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW402" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX402" s="87" t="s">
+        <v>3592</v>
+      </c>
+      <c r="AY402" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ402" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA402" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB402" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC402" s="87"/>
+      <c r="BD402" s="87"/>
+      <c r="BE402" s="87"/>
+      <c r="BF402" s="87"/>
+    </row>
+    <row r="403" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A403" s="87"/>
+      <c r="B403" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C403" s="87">
+        <v>94</v>
+      </c>
+      <c r="D403" s="89" t="s">
+        <v>3593</v>
+      </c>
+      <c r="E403" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F403" s="87" t="s">
+        <v>3594</v>
+      </c>
+      <c r="G403" s="87" t="s">
+        <v>3595</v>
+      </c>
+      <c r="H403" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I403" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J403" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K403" s="87" t="s">
+        <v>3596</v>
+      </c>
+      <c r="L403" s="87">
+        <v>86</v>
+      </c>
+      <c r="M403" s="87">
+        <v>510</v>
+      </c>
+      <c r="N403" s="87">
+        <v>0</v>
+      </c>
+      <c r="O403" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P403" s="87"/>
+      <c r="Q403" s="87"/>
+      <c r="R403" s="87"/>
+      <c r="S403" s="87"/>
+      <c r="T403" s="87"/>
+      <c r="U403" s="87"/>
+      <c r="V403" s="87"/>
+      <c r="W403" s="87"/>
+      <c r="X403" s="87"/>
+      <c r="Y403" s="87"/>
+      <c r="Z403" s="87"/>
+      <c r="AA403" s="87"/>
+      <c r="AB403" s="87"/>
+      <c r="AC403" s="87"/>
+      <c r="AD403" s="87"/>
+      <c r="AE403" s="87"/>
+      <c r="AF403" s="87"/>
+      <c r="AG403" s="87"/>
+      <c r="AH403" s="87"/>
+      <c r="AI403" s="87"/>
+      <c r="AJ403" s="87"/>
+      <c r="AK403" s="87"/>
+      <c r="AL403" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU403" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW403" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX403" s="87" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AY403" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ403" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA403" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB403" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC403" s="87"/>
+      <c r="BD403" s="87"/>
+      <c r="BE403" s="87"/>
+      <c r="BF403" s="87"/>
+    </row>
+    <row r="404" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A404" s="87" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B404" s="88"/>
+      <c r="C404" s="87"/>
+      <c r="D404" s="89"/>
+      <c r="E404" s="87"/>
+      <c r="F404" s="87"/>
+      <c r="G404" s="87"/>
+      <c r="H404" s="90"/>
+      <c r="I404" s="87"/>
+      <c r="J404" s="87"/>
+      <c r="K404" s="91"/>
+      <c r="L404" s="88"/>
+      <c r="M404" s="88"/>
+      <c r="N404" s="88"/>
+      <c r="O404" s="91"/>
+      <c r="P404" s="91"/>
+      <c r="Q404" s="91"/>
+      <c r="R404" s="91"/>
+      <c r="S404" s="91"/>
+      <c r="T404" s="91"/>
+      <c r="U404" s="87"/>
+      <c r="V404" s="87"/>
+      <c r="W404" s="87"/>
+      <c r="X404" s="87"/>
+      <c r="Y404" s="87"/>
+      <c r="Z404" s="87"/>
+      <c r="AA404" s="87"/>
+      <c r="AB404" s="87"/>
+      <c r="AC404" s="92"/>
+      <c r="AD404" s="92"/>
+      <c r="AE404" s="87"/>
+      <c r="AF404" s="87"/>
+      <c r="AG404" s="87"/>
+      <c r="AH404" s="87"/>
+      <c r="AI404" s="87"/>
+      <c r="AJ404" s="87"/>
+      <c r="AK404" s="87"/>
+      <c r="AL404" s="87"/>
+      <c r="AM404" s="87"/>
+      <c r="AN404" s="87"/>
+      <c r="AO404" s="87"/>
+      <c r="AP404" s="87"/>
+      <c r="AQ404" s="87"/>
+      <c r="AR404" s="87"/>
+      <c r="AS404" s="87"/>
+      <c r="AT404" s="87"/>
+      <c r="AU404" s="87"/>
+      <c r="AV404" s="87"/>
+      <c r="AW404" s="87"/>
+      <c r="AX404" s="87"/>
+      <c r="AY404" s="87"/>
+      <c r="AZ404" s="87"/>
+      <c r="BA404" s="87"/>
+      <c r="BB404" s="87"/>
+      <c r="BC404" s="87"/>
+      <c r="BD404" s="87"/>
+      <c r="BE404" s="87"/>
+      <c r="BF404" s="87"/>
+    </row>
+    <row r="405" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A405" s="87"/>
+      <c r="B405" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C405" s="87">
+        <v>95</v>
+      </c>
+      <c r="D405" s="89" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E405" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F405" s="87" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G405" s="87" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H405" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I405" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J405" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K405" s="87" t="s">
+        <v>3572</v>
+      </c>
+      <c r="L405" s="87">
+        <v>90</v>
+      </c>
+      <c r="M405" s="87">
+        <v>560</v>
+      </c>
+      <c r="N405" s="87">
+        <v>0</v>
+      </c>
+      <c r="O405" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P405" s="87"/>
+      <c r="Q405" s="87"/>
+      <c r="R405" s="87"/>
+      <c r="S405" s="87"/>
+      <c r="T405" s="87"/>
+      <c r="U405" s="87"/>
+      <c r="V405" s="87"/>
+      <c r="W405" s="87"/>
+      <c r="X405" s="87"/>
+      <c r="Y405" s="87"/>
+      <c r="Z405" s="87"/>
+      <c r="AA405" s="87"/>
+      <c r="AB405" s="87"/>
+      <c r="AC405" s="87"/>
+      <c r="AD405" s="87"/>
+      <c r="AE405" s="87"/>
+      <c r="AF405" s="87"/>
+      <c r="AG405" s="87"/>
+      <c r="AH405" s="87"/>
+      <c r="AI405" s="87"/>
+      <c r="AJ405" s="87"/>
+      <c r="AK405" s="87"/>
+      <c r="AL405" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW405" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX405" s="87" t="s">
+        <v>3601</v>
+      </c>
+      <c r="AY405" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ405" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA405" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB405" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC405" s="87"/>
+      <c r="BD405" s="87"/>
+      <c r="BE405" s="87"/>
+      <c r="BF405" s="87"/>
+    </row>
+    <row r="406" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A406" s="87"/>
+      <c r="B406" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C406" s="87">
+        <v>96</v>
+      </c>
+      <c r="D406" s="89" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E406" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F406" s="87" t="s">
+        <v>3603</v>
+      </c>
+      <c r="G406" s="87" t="s">
+        <v>3604</v>
+      </c>
+      <c r="H406" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I406" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J406" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K406" s="87" t="s">
+        <v>3572</v>
+      </c>
+      <c r="L406" s="87">
+        <v>90</v>
+      </c>
+      <c r="M406" s="87">
+        <v>560</v>
+      </c>
+      <c r="N406" s="87">
+        <v>0</v>
+      </c>
+      <c r="O406" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P406" s="87"/>
+      <c r="Q406" s="87"/>
+      <c r="R406" s="87"/>
+      <c r="S406" s="87"/>
+      <c r="T406" s="87"/>
+      <c r="U406" s="87"/>
+      <c r="V406" s="87"/>
+      <c r="W406" s="87"/>
+      <c r="X406" s="87"/>
+      <c r="Y406" s="87"/>
+      <c r="Z406" s="87"/>
+      <c r="AA406" s="87"/>
+      <c r="AB406" s="87"/>
+      <c r="AC406" s="87"/>
+      <c r="AD406" s="87"/>
+      <c r="AE406" s="87"/>
+      <c r="AF406" s="87"/>
+      <c r="AG406" s="87"/>
+      <c r="AH406" s="87"/>
+      <c r="AI406" s="87"/>
+      <c r="AJ406" s="87"/>
+      <c r="AK406" s="87"/>
+      <c r="AL406" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AV406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW406" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX406" s="87" t="s">
+        <v>3605</v>
+      </c>
+      <c r="AY406" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ406" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA406" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB406" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC406" s="87"/>
+      <c r="BD406" s="87"/>
+      <c r="BE406" s="87"/>
+      <c r="BF406" s="87"/>
+    </row>
+    <row r="407" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A407" s="87"/>
+      <c r="B407" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C407" s="87">
+        <v>97</v>
+      </c>
+      <c r="D407" s="89" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E407" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F407" s="87" t="s">
+        <v>3607</v>
+      </c>
+      <c r="G407" s="87" t="s">
+        <v>3608</v>
+      </c>
+      <c r="H407" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I407" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J407" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K407" s="87" t="s">
+        <v>3572</v>
+      </c>
+      <c r="L407" s="87">
+        <v>90</v>
+      </c>
+      <c r="M407" s="87">
+        <v>540</v>
+      </c>
+      <c r="N407" s="87">
+        <v>0</v>
+      </c>
+      <c r="O407" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P407" s="87"/>
+      <c r="Q407" s="87"/>
+      <c r="R407" s="87"/>
+      <c r="S407" s="87"/>
+      <c r="T407" s="87"/>
+      <c r="U407" s="87"/>
+      <c r="V407" s="87"/>
+      <c r="W407" s="87"/>
+      <c r="X407" s="87"/>
+      <c r="Y407" s="87"/>
+      <c r="Z407" s="87"/>
+      <c r="AA407" s="87"/>
+      <c r="AB407" s="87"/>
+      <c r="AC407" s="87"/>
+      <c r="AD407" s="87"/>
+      <c r="AE407" s="87"/>
+      <c r="AF407" s="87"/>
+      <c r="AG407" s="87"/>
+      <c r="AH407" s="87"/>
+      <c r="AI407" s="87"/>
+      <c r="AJ407" s="87"/>
+      <c r="AK407" s="87"/>
+      <c r="AL407" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU407" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV407" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW407" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AX407" s="87" t="s">
+        <v>3609</v>
+      </c>
+      <c r="AY407" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ407" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA407" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB407" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC407" s="87"/>
+      <c r="BD407" s="87"/>
+      <c r="BE407" s="87"/>
+      <c r="BF407" s="87"/>
+    </row>
+    <row r="408" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A408" s="87"/>
+      <c r="B408" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C408" s="87">
+        <v>98</v>
+      </c>
+      <c r="D408" s="89" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E408" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F408" s="87" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G408" s="87" t="s">
+        <v>3612</v>
+      </c>
+      <c r="H408" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I408" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J408" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K408" s="87" t="s">
+        <v>3567</v>
+      </c>
+      <c r="L408" s="87">
+        <v>90</v>
+      </c>
+      <c r="M408" s="87">
+        <v>0</v>
+      </c>
+      <c r="N408" s="87">
+        <v>550</v>
+      </c>
+      <c r="O408" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P408" s="87"/>
+      <c r="Q408" s="87"/>
+      <c r="R408" s="87"/>
+      <c r="S408" s="87"/>
+      <c r="T408" s="87"/>
+      <c r="U408" s="87"/>
+      <c r="V408" s="87"/>
+      <c r="W408" s="87"/>
+      <c r="X408" s="87"/>
+      <c r="Y408" s="87"/>
+      <c r="Z408" s="87"/>
+      <c r="AA408" s="87"/>
+      <c r="AB408" s="87"/>
+      <c r="AC408" s="87"/>
+      <c r="AD408" s="87"/>
+      <c r="AE408" s="87"/>
+      <c r="AF408" s="87"/>
+      <c r="AG408" s="87"/>
+      <c r="AH408" s="87"/>
+      <c r="AI408" s="87"/>
+      <c r="AJ408" s="87"/>
+      <c r="AK408" s="87"/>
+      <c r="AL408" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU408" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV408" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW408" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AX408" s="87" t="s">
+        <v>3613</v>
+      </c>
+      <c r="AY408" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ408" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA408" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB408" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC408" s="87"/>
+      <c r="BD408" s="87"/>
+      <c r="BE408" s="87"/>
+      <c r="BF408" s="87"/>
+    </row>
+    <row r="409" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A409" s="87"/>
+      <c r="B409" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C409" s="87">
+        <v>99</v>
+      </c>
+      <c r="D409" s="89" t="s">
+        <v>3614</v>
+      </c>
+      <c r="E409" s="87" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F409" s="87" t="s">
+        <v>3615</v>
+      </c>
+      <c r="G409" s="87" t="s">
+        <v>3616</v>
+      </c>
+      <c r="H409" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I409" s="87" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J409" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K409" s="87" t="s">
+        <v>3575</v>
+      </c>
+      <c r="L409" s="87">
+        <v>84</v>
+      </c>
+      <c r="M409" s="87">
+        <v>0</v>
+      </c>
+      <c r="N409" s="87">
+        <v>0</v>
+      </c>
+      <c r="O409" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P409" s="87"/>
+      <c r="Q409" s="87"/>
+      <c r="R409" s="87"/>
+      <c r="S409" s="87"/>
+      <c r="T409" s="87"/>
+      <c r="U409" s="87"/>
+      <c r="V409" s="87"/>
+      <c r="W409" s="87"/>
+      <c r="X409" s="87"/>
+      <c r="Y409" s="87"/>
+      <c r="Z409" s="87"/>
+      <c r="AA409" s="87"/>
+      <c r="AB409" s="87"/>
+      <c r="AC409" s="87"/>
+      <c r="AD409" s="87"/>
+      <c r="AE409" s="87"/>
+      <c r="AF409" s="87"/>
+      <c r="AG409" s="87"/>
+      <c r="AH409" s="87"/>
+      <c r="AI409" s="87"/>
+      <c r="AJ409" s="87"/>
+      <c r="AK409" s="87"/>
+      <c r="AL409" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU409" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV409" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AW409" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AX409" s="87" t="s">
+        <v>3617</v>
+      </c>
+      <c r="AY409" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ409" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA409" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB409" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC409" s="87"/>
+      <c r="BD409" s="87"/>
+      <c r="BE409" s="87"/>
+      <c r="BF409" s="87"/>
+    </row>
+    <row r="410" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A410" s="87" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B410" s="88"/>
+      <c r="C410" s="87"/>
+      <c r="D410" s="89"/>
+      <c r="E410" s="87"/>
+      <c r="F410" s="87"/>
+      <c r="G410" s="87"/>
+      <c r="H410" s="90"/>
+      <c r="I410" s="87"/>
+      <c r="J410" s="87"/>
+      <c r="K410" s="91"/>
+      <c r="L410" s="91"/>
+      <c r="M410" s="91"/>
+      <c r="N410" s="91"/>
+      <c r="O410" s="91"/>
+      <c r="P410" s="91"/>
+      <c r="Q410" s="91"/>
+      <c r="R410" s="91"/>
+      <c r="S410" s="91"/>
+      <c r="T410" s="91"/>
+      <c r="U410" s="87"/>
+      <c r="V410" s="87"/>
+      <c r="W410" s="87"/>
+      <c r="X410" s="87"/>
+      <c r="Y410" s="87"/>
+      <c r="Z410" s="87"/>
+      <c r="AA410" s="87"/>
+      <c r="AB410" s="87"/>
+      <c r="AC410" s="92"/>
+      <c r="AD410" s="92"/>
+      <c r="AE410" s="87"/>
+      <c r="AF410" s="87"/>
+      <c r="AG410" s="87"/>
+      <c r="AH410" s="87"/>
+      <c r="AI410" s="87"/>
+      <c r="AJ410" s="87"/>
+      <c r="AK410" s="87"/>
+      <c r="AL410" s="87"/>
+      <c r="AM410" s="87"/>
+      <c r="AN410" s="87"/>
+      <c r="AO410" s="87"/>
+      <c r="AP410" s="87"/>
+      <c r="AQ410" s="87"/>
+      <c r="AR410" s="87"/>
+      <c r="AS410" s="87"/>
+      <c r="AT410" s="87"/>
+      <c r="AU410" s="87"/>
+      <c r="AV410" s="87"/>
+      <c r="AW410" s="87"/>
+      <c r="AX410" s="87"/>
+      <c r="AY410" s="87"/>
+      <c r="AZ410" s="87"/>
+      <c r="BA410" s="87"/>
+      <c r="BB410" s="87"/>
+      <c r="BC410" s="87"/>
+      <c r="BD410" s="87"/>
+      <c r="BE410" s="87"/>
+      <c r="BF410" s="87"/>
+    </row>
+    <row r="411" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A411" s="87" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B411" s="88"/>
+      <c r="C411" s="87"/>
+      <c r="D411" s="89"/>
+      <c r="E411" s="87"/>
+      <c r="F411" s="87"/>
+      <c r="G411" s="87"/>
+      <c r="H411" s="90"/>
+      <c r="I411" s="87"/>
+      <c r="J411" s="87"/>
+      <c r="K411" s="91"/>
+      <c r="L411" s="91"/>
+      <c r="M411" s="91"/>
+      <c r="N411" s="91"/>
+      <c r="O411" s="91"/>
+      <c r="P411" s="91"/>
+      <c r="Q411" s="91"/>
+      <c r="R411" s="91"/>
+      <c r="S411" s="91"/>
+      <c r="T411" s="91"/>
+      <c r="U411" s="87"/>
+      <c r="V411" s="87"/>
+      <c r="W411" s="87"/>
+      <c r="X411" s="87"/>
+      <c r="Y411" s="87"/>
+      <c r="Z411" s="87"/>
+      <c r="AA411" s="87"/>
+      <c r="AB411" s="87"/>
+      <c r="AC411" s="92"/>
+      <c r="AD411" s="92"/>
+      <c r="AE411" s="87"/>
+      <c r="AF411" s="87"/>
+      <c r="AG411" s="87"/>
+      <c r="AH411" s="87"/>
+      <c r="AI411" s="87"/>
+      <c r="AJ411" s="87"/>
+      <c r="AK411" s="87"/>
+      <c r="AL411" s="87"/>
+      <c r="AM411" s="87"/>
+      <c r="AN411" s="87"/>
+      <c r="AO411" s="87"/>
+      <c r="AP411" s="87"/>
+      <c r="AQ411" s="87"/>
+      <c r="AR411" s="87"/>
+      <c r="AS411" s="87"/>
+      <c r="AT411" s="87"/>
+      <c r="AU411" s="87"/>
+      <c r="AV411" s="87"/>
+      <c r="AW411" s="87"/>
+      <c r="AX411" s="87"/>
+      <c r="AY411" s="87"/>
+      <c r="AZ411" s="87"/>
+      <c r="BA411" s="87"/>
+      <c r="BB411" s="87"/>
+      <c r="BC411" s="87"/>
+      <c r="BD411" s="87"/>
+      <c r="BE411" s="87"/>
+      <c r="BF411" s="87"/>
+    </row>
+    <row r="412" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A412" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B412" s="88"/>
+      <c r="C412" s="87"/>
+      <c r="D412" s="89"/>
+      <c r="E412" s="87"/>
+      <c r="F412" s="87"/>
+      <c r="G412" s="87"/>
+      <c r="H412" s="90"/>
+      <c r="I412" s="87"/>
+      <c r="J412" s="87"/>
+      <c r="K412" s="91"/>
+      <c r="L412" s="91"/>
+      <c r="M412" s="91"/>
+      <c r="N412" s="91"/>
+      <c r="O412" s="91"/>
+      <c r="P412" s="91"/>
+      <c r="Q412" s="91"/>
+      <c r="R412" s="91"/>
+      <c r="S412" s="91"/>
+      <c r="T412" s="91"/>
+      <c r="U412" s="87"/>
+      <c r="V412" s="87"/>
+      <c r="W412" s="87"/>
+      <c r="X412" s="87"/>
+      <c r="Y412" s="87"/>
+      <c r="Z412" s="87"/>
+      <c r="AA412" s="87"/>
+      <c r="AB412" s="87"/>
+      <c r="AC412" s="92"/>
+      <c r="AD412" s="92"/>
+      <c r="AE412" s="87"/>
+      <c r="AF412" s="87"/>
+      <c r="AG412" s="87"/>
+      <c r="AH412" s="87"/>
+      <c r="AI412" s="87"/>
+      <c r="AJ412" s="87"/>
+      <c r="AK412" s="87"/>
+      <c r="AL412" s="87"/>
+      <c r="AM412" s="87"/>
+      <c r="AN412" s="87"/>
+      <c r="AO412" s="87"/>
+      <c r="AP412" s="87"/>
+      <c r="AQ412" s="87"/>
+      <c r="AR412" s="87"/>
+      <c r="AS412" s="87"/>
+      <c r="AT412" s="87"/>
+      <c r="AU412" s="87"/>
+      <c r="AV412" s="87"/>
+      <c r="AW412" s="87"/>
+      <c r="AX412" s="87"/>
+      <c r="AY412" s="87"/>
+      <c r="AZ412" s="87"/>
+      <c r="BA412" s="87"/>
+      <c r="BB412" s="87"/>
+      <c r="BC412" s="87"/>
+      <c r="BD412" s="87"/>
+      <c r="BE412" s="87"/>
+      <c r="BF412" s="87"/>
+    </row>
+    <row r="413" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A413" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B400" s="57"/>
-      <c r="C400" s="56"/>
-      <c r="D400" s="85"/>
-      <c r="E400" s="56"/>
-      <c r="F400" s="56"/>
-      <c r="G400" s="56"/>
-      <c r="H400" s="58"/>
-      <c r="I400" s="56"/>
-      <c r="J400" s="56"/>
-      <c r="K400" s="56"/>
-      <c r="L400" s="56"/>
-      <c r="M400" s="56"/>
-      <c r="N400" s="56"/>
-      <c r="O400" s="56"/>
-      <c r="P400" s="56"/>
-      <c r="Q400" s="56"/>
-      <c r="R400" s="56"/>
-      <c r="S400" s="56"/>
-      <c r="T400" s="56"/>
-      <c r="U400" s="56"/>
-      <c r="V400" s="56"/>
-      <c r="W400" s="56"/>
-      <c r="X400" s="56"/>
-      <c r="Y400" s="56"/>
-      <c r="Z400" s="56"/>
-      <c r="AA400" s="56"/>
-      <c r="AB400" s="56"/>
-      <c r="AC400" s="56"/>
-      <c r="AD400" s="56"/>
-      <c r="AE400" s="56"/>
-      <c r="AF400" s="56"/>
-      <c r="AG400" s="56"/>
-      <c r="AH400" s="56"/>
-      <c r="AI400" s="56"/>
-      <c r="AJ400" s="56"/>
-      <c r="AK400" s="56"/>
-      <c r="AL400" s="56"/>
-      <c r="AM400" s="56"/>
-      <c r="AN400" s="56"/>
-      <c r="AO400" s="56"/>
-      <c r="AP400" s="56"/>
-      <c r="AQ400" s="56"/>
-      <c r="AR400" s="56"/>
-      <c r="AS400" s="56"/>
-      <c r="AT400" s="56"/>
-      <c r="AU400" s="56"/>
-      <c r="AV400" s="56"/>
-      <c r="AW400" s="56"/>
-      <c r="AX400" s="56"/>
-      <c r="AY400" s="56"/>
-      <c r="AZ400" s="56"/>
-      <c r="BA400" s="56"/>
-      <c r="BB400" s="56"/>
-      <c r="BC400" s="56"/>
-      <c r="BD400" s="56"/>
-      <c r="BE400" s="56"/>
-      <c r="BF400" s="56"/>
+      <c r="B413" s="57"/>
+      <c r="C413" s="56"/>
+      <c r="D413" s="85"/>
+      <c r="E413" s="56"/>
+      <c r="F413" s="56"/>
+      <c r="G413" s="56"/>
+      <c r="H413" s="58"/>
+      <c r="I413" s="56"/>
+      <c r="J413" s="56"/>
+      <c r="K413" s="56"/>
+      <c r="L413" s="56"/>
+      <c r="M413" s="56"/>
+      <c r="N413" s="56"/>
+      <c r="O413" s="56"/>
+      <c r="P413" s="56"/>
+      <c r="Q413" s="56"/>
+      <c r="R413" s="56"/>
+      <c r="S413" s="56"/>
+      <c r="T413" s="56"/>
+      <c r="U413" s="56"/>
+      <c r="V413" s="56"/>
+      <c r="W413" s="56"/>
+      <c r="X413" s="56"/>
+      <c r="Y413" s="56"/>
+      <c r="Z413" s="56"/>
+      <c r="AA413" s="56"/>
+      <c r="AB413" s="56"/>
+      <c r="AC413" s="56"/>
+      <c r="AD413" s="56"/>
+      <c r="AE413" s="56"/>
+      <c r="AF413" s="56"/>
+      <c r="AG413" s="56"/>
+      <c r="AH413" s="56"/>
+      <c r="AI413" s="56"/>
+      <c r="AJ413" s="56"/>
+      <c r="AK413" s="56"/>
+      <c r="AL413" s="56"/>
+      <c r="AM413" s="56"/>
+      <c r="AN413" s="56"/>
+      <c r="AO413" s="56"/>
+      <c r="AP413" s="56"/>
+      <c r="AQ413" s="56"/>
+      <c r="AR413" s="56"/>
+      <c r="AS413" s="56"/>
+      <c r="AT413" s="56"/>
+      <c r="AU413" s="56"/>
+      <c r="AV413" s="56"/>
+      <c r="AW413" s="56"/>
+      <c r="AX413" s="56"/>
+      <c r="AY413" s="56"/>
+      <c r="AZ413" s="56"/>
+      <c r="BA413" s="56"/>
+      <c r="BB413" s="56"/>
+      <c r="BC413" s="56"/>
+      <c r="BD413" s="56"/>
+      <c r="BE413" s="56"/>
+      <c r="BF413" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF400" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:BF413" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
-    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="34" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="33" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F348:F355">
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:F99">
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287">
+    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F284:F286">
+    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="duplicateValues" dxfId="29" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F356:F374">
+    <cfRule type="duplicateValues" dxfId="28" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F322:F326">
     <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F286">
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F322:F326">
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F377">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288:F299">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F392:F393">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O342:O343">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O386">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O379:O381 O384">
-    <cfRule type="duplicateValues" dxfId="12" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F400:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="9" priority="69"/>
+  <conditionalFormatting sqref="F413:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
+    <cfRule type="duplicateValues" dxfId="13" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O400:O1048576 O387:O398 O346:O368 O385 O370:O377 O1:O340">
-    <cfRule type="duplicateValues" dxfId="8" priority="79"/>
+  <conditionalFormatting sqref="O413:O1048576 O387:O395 O346:O368 O385 O370:O377 O1:O340 O404 O410:O411">
+    <cfRule type="duplicateValues" dxfId="12" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O341">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O344">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O382:O383">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O383">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F399">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="F412">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O399">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="O412">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F394:F398 F300:F312 F387:F391">
-    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
+  <conditionalFormatting sqref="F394:F395 F410:F411 F404 F300:F312 F387:F391">
+    <cfRule type="duplicateValues" dxfId="4" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F396:F403">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O396:O403">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F405:F409">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O405:O409">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9553D1-E146-4C03-8693-54F0299F30FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E400673E-BF02-4D2F-881A-9FF908E7FC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="38640" windowHeight="20715" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="58245" yWindow="720" windowWidth="29640" windowHeight="21105" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18136" uniqueCount="3624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18148" uniqueCount="3642">
   <si>
     <t>date:</t>
   </si>
@@ -10915,22 +10915,76 @@
     <t>u5fa</t>
   </si>
   <si>
-    <t>Aitiaskop</t>
-  </si>
-  <si>
-    <t>aitiaskop</t>
-  </si>
-  <si>
-    <t>Turm von Babil</t>
-  </si>
-  <si>
-    <t>Turm von Zot</t>
-  </si>
-  <si>
-    <t>turm_von_zot</t>
-  </si>
-  <si>
-    <t>turm_von_babil</t>
+    <t>The_Tower_of_Zot</t>
+  </si>
+  <si>
+    <t>The_Tower_of_Babil</t>
+  </si>
+  <si>
+    <t>The_Dead_Ends</t>
+  </si>
+  <si>
+    <t>Ktisis_Hyperboreia</t>
+  </si>
+  <si>
+    <t>The_Aitiascope</t>
+  </si>
+  <si>
+    <t>The_Stigma_Dreamscape</t>
+  </si>
+  <si>
+    <t>The_Minstrel%5C%27s_Ballad:_Zodiark%5C%27s_Fall</t>
+  </si>
+  <si>
+    <t>The_Minstrel%5C%27s_Ballad:_Hydaelyn%5C%27s_Call</t>
+  </si>
+  <si>
+    <t>The_Final_Day</t>
+  </si>
+  <si>
+    <t>The_Mothercrystal</t>
+  </si>
+  <si>
+    <t>The_Dark_Inside</t>
+  </si>
+  <si>
+    <t>Sturm auf den Turm</t>
+  </si>
+  <si>
+    <t>Der Turm von Babil</t>
+  </si>
+  <si>
+    <t>Blut und Asche</t>
+  </si>
+  <si>
+    <t>Alarm im Hyperboreia</t>
+  </si>
+  <si>
+    <t>Der Wille des Planeten</t>
+  </si>
+  <si>
+    <t>Das Ende der Morgenröte</t>
+  </si>
+  <si>
+    <t>Notfall auf dem Mond</t>
+  </si>
+  <si>
+    <t>Auf dem Grund des Mondes</t>
+  </si>
+  <si>
+    <t>Der Turm von Zot</t>
+  </si>
+  <si>
+    <t>Das Aitiaskop</t>
+  </si>
+  <si>
+    <t>der_turm_von_zot</t>
+  </si>
+  <si>
+    <t>der_turm_von_babil</t>
+  </si>
+  <si>
+    <t>das_aitiaskop</t>
   </si>
 </sst>
 </file>
@@ -11348,7 +11402,17 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12068,18 +12132,18 @@
   <dimension ref="A1:BF413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D399" sqref="D399"/>
+      <selection pane="bottomRight" activeCell="F401" sqref="F401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="43.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="43.140625" style="86" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="44.28515625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="24.140625" style="1" customWidth="1" outlineLevel="1"/>
@@ -44175,7 +44239,7 @@
       <c r="BE194" s="14"/>
       <c r="BF194" s="14"/>
     </row>
-    <row r="195" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="B195" s="21">
         <v>42906</v>
@@ -44347,7 +44411,7 @@
       </c>
       <c r="BF195" s="20"/>
     </row>
-    <row r="196" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
       <c r="B196" s="21">
         <v>42906</v>
@@ -44519,7 +44583,7 @@
       </c>
       <c r="BF196" s="20"/>
     </row>
-    <row r="197" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="B197" s="21">
         <v>42906</v>
@@ -44691,7 +44755,7 @@
       </c>
       <c r="BF197" s="20"/>
     </row>
-    <row r="198" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="21">
         <v>42906</v>
@@ -44863,7 +44927,7 @@
       </c>
       <c r="BF198" s="20"/>
     </row>
-    <row r="199" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="21">
         <v>42906</v>
@@ -45035,7 +45099,7 @@
       </c>
       <c r="BF199" s="20"/>
     </row>
-    <row r="200" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="21">
         <v>42906</v>
@@ -45207,7 +45271,7 @@
       </c>
       <c r="BF200" s="20"/>
     </row>
-    <row r="201" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="21">
         <v>42906</v>
@@ -45379,7 +45443,7 @@
       </c>
       <c r="BF201" s="20"/>
     </row>
-    <row r="202" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="21">
         <v>42906</v>
@@ -45551,7 +45615,7 @@
       </c>
       <c r="BF202" s="20"/>
     </row>
-    <row r="203" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="21">
         <v>43018</v>
@@ -45723,7 +45787,7 @@
       </c>
       <c r="BF203" s="20"/>
     </row>
-    <row r="204" spans="1:58" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:58" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="21">
         <v>43130</v>
@@ -45895,7 +45959,7 @@
       </c>
       <c r="BF204" s="20"/>
     </row>
-    <row r="205" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="B205" s="21">
         <v>43130</v>
@@ -46067,7 +46131,7 @@
       </c>
       <c r="BF205" s="20"/>
     </row>
-    <row r="206" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
       <c r="B206" s="21">
         <v>43242</v>
@@ -46239,7 +46303,7 @@
       </c>
       <c r="BF206" s="20"/>
     </row>
-    <row r="207" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
       <c r="B207" s="21">
         <v>43361</v>
@@ -46411,7 +46475,7 @@
       </c>
       <c r="BF207" s="20"/>
     </row>
-    <row r="208" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
       <c r="B208" s="21">
         <v>43361</v>
@@ -46583,7 +46647,7 @@
       </c>
       <c r="BF208" s="20"/>
     </row>
-    <row r="209" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
       <c r="B209" s="21">
         <v>43473</v>
@@ -46755,7 +46819,7 @@
       </c>
       <c r="BF209" s="20"/>
     </row>
-    <row r="210" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
         <v>768</v>
       </c>
@@ -63562,7 +63626,7 @@
       <c r="BE313" s="70"/>
       <c r="BF313" s="70"/>
     </row>
-    <row r="314" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="28"/>
       <c r="B314" s="29">
         <v>43644</v>
@@ -63734,7 +63798,7 @@
       </c>
       <c r="BF314" s="28"/>
     </row>
-    <row r="315" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="28"/>
       <c r="B315" s="29">
         <v>43644</v>
@@ -63906,7 +63970,7 @@
       </c>
       <c r="BF315" s="28"/>
     </row>
-    <row r="316" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="28"/>
       <c r="B316" s="29">
         <v>43644</v>
@@ -64078,7 +64142,7 @@
       </c>
       <c r="BF316" s="28"/>
     </row>
-    <row r="317" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="28"/>
       <c r="B317" s="29">
         <v>43644</v>
@@ -64250,7 +64314,7 @@
       </c>
       <c r="BF317" s="28"/>
     </row>
-    <row r="318" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
       <c r="B318" s="29">
         <v>43644</v>
@@ -64422,7 +64486,7 @@
       </c>
       <c r="BF318" s="28"/>
     </row>
-    <row r="319" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28"/>
       <c r="B319" s="29">
         <v>43644</v>
@@ -64594,7 +64658,7 @@
       </c>
       <c r="BF319" s="28"/>
     </row>
-    <row r="320" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28"/>
       <c r="B320" s="29">
         <v>43644</v>
@@ -64766,7 +64830,7 @@
       </c>
       <c r="BF320" s="28"/>
     </row>
-    <row r="321" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
       <c r="B321" s="29">
         <v>43644</v>
@@ -64938,7 +65002,7 @@
       </c>
       <c r="BF321" s="28"/>
     </row>
-    <row r="322" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
       <c r="B322" s="29">
         <v>43767</v>
@@ -65110,7 +65174,7 @@
       </c>
       <c r="BF322" s="28"/>
     </row>
-    <row r="323" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28"/>
       <c r="B323" s="29">
         <v>43848</v>
@@ -65282,7 +65346,7 @@
       </c>
       <c r="BF323" s="28"/>
     </row>
-    <row r="324" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28"/>
       <c r="B324" s="29">
         <v>44054</v>
@@ -65454,7 +65518,7 @@
       </c>
       <c r="BF324" s="28"/>
     </row>
-    <row r="325" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="29">
         <v>44173</v>
@@ -65626,7 +65690,7 @@
       </c>
       <c r="BF325" s="28"/>
     </row>
-    <row r="326" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
       <c r="B326" s="29">
         <v>44299</v>
@@ -65794,7 +65858,7 @@
       </c>
       <c r="BF326" s="28"/>
     </row>
-    <row r="327" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>779</v>
       </c>
@@ -65856,7 +65920,7 @@
       <c r="BE327" s="28"/>
       <c r="BF327" s="28"/>
     </row>
-    <row r="328" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -66028,7 +66092,7 @@
       </c>
       <c r="BF328" s="28"/>
     </row>
-    <row r="329" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -66200,7 +66264,7 @@
       </c>
       <c r="BF329" s="28"/>
     </row>
-    <row r="330" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -66372,7 +66436,7 @@
       </c>
       <c r="BF330" s="28"/>
     </row>
-    <row r="331" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -66544,7 +66608,7 @@
       </c>
       <c r="BF331" s="28"/>
     </row>
-    <row r="332" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -66716,7 +66780,7 @@
       </c>
       <c r="BF332" s="28"/>
     </row>
-    <row r="333" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -66886,7 +66950,7 @@
       </c>
       <c r="BF333" s="28"/>
     </row>
-    <row r="334" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -67058,7 +67122,7 @@
       </c>
       <c r="BF334" s="28"/>
     </row>
-    <row r="335" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -67230,7 +67294,7 @@
       </c>
       <c r="BF335" s="28"/>
     </row>
-    <row r="336" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -67402,7 +67466,7 @@
       </c>
       <c r="BF336" s="28"/>
     </row>
-    <row r="337" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -67574,7 +67638,7 @@
       </c>
       <c r="BF337" s="28"/>
     </row>
-    <row r="338" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -67746,7 +67810,7 @@
       </c>
       <c r="BF338" s="28"/>
     </row>
-    <row r="339" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -67920,7 +67984,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="340" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -68092,7 +68156,7 @@
       </c>
       <c r="BF340" s="28"/>
     </row>
-    <row r="341" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -68264,7 +68328,7 @@
       </c>
       <c r="BF341" s="28"/>
     </row>
-    <row r="342" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -68438,7 +68502,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="343" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -68608,7 +68672,7 @@
       </c>
       <c r="BF343" s="28"/>
     </row>
-    <row r="344" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -68778,7 +68842,7 @@
       </c>
       <c r="BF344" s="28"/>
     </row>
-    <row r="345" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -68944,9 +69008,11 @@
       <c r="BE345" s="28" t="s">
         <v>3512</v>
       </c>
-      <c r="BF345" s="28"/>
+      <c r="BF345" s="28" t="s">
+        <v>2497</v>
+      </c>
     </row>
-    <row r="346" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -76531,16 +76597,16 @@
         <v>87</v>
       </c>
       <c r="D396" s="89" t="s">
-        <v>3618</v>
+        <v>3637</v>
       </c>
       <c r="E396" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F396" s="87" t="s">
-        <v>3619</v>
+        <v>3639</v>
       </c>
       <c r="G396" s="87" t="s">
-        <v>3564</v>
+        <v>3577</v>
       </c>
       <c r="H396" s="87" t="s">
         <v>3565</v>
@@ -76552,19 +76618,19 @@
         <v>75</v>
       </c>
       <c r="K396" s="87" t="s">
-        <v>3567</v>
+        <v>3578</v>
       </c>
       <c r="L396" s="87">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M396" s="87">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="N396" s="87">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="O396" s="87" t="s">
-        <v>3465</v>
+        <v>3629</v>
       </c>
       <c r="P396" s="87"/>
       <c r="Q396" s="87"/>
@@ -76625,7 +76691,7 @@
         <v>888</v>
       </c>
       <c r="AX396" s="87" t="s">
-        <v>3568</v>
+        <v>3579</v>
       </c>
       <c r="AY396" s="87" t="s">
         <v>941</v>
@@ -76639,9 +76705,15 @@
       <c r="BB396" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC396" s="87"/>
-      <c r="BD396" s="87"/>
-      <c r="BE396" s="87"/>
+      <c r="BC396" s="87">
+        <v>78</v>
+      </c>
+      <c r="BD396" s="87">
+        <v>78</v>
+      </c>
+      <c r="BE396" s="87" t="s">
+        <v>3618</v>
+      </c>
       <c r="BF396" s="87"/>
     </row>
     <row r="397" spans="1:58" x14ac:dyDescent="0.25">
@@ -76653,16 +76725,16 @@
         <v>88</v>
       </c>
       <c r="D397" s="89" t="s">
-        <v>3569</v>
+        <v>3630</v>
       </c>
       <c r="E397" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F397" s="87" t="s">
-        <v>3570</v>
+        <v>3640</v>
       </c>
       <c r="G397" s="87" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="H397" s="87" t="s">
         <v>3565</v>
@@ -76674,19 +76746,19 @@
         <v>75</v>
       </c>
       <c r="K397" s="87" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="L397" s="87">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M397" s="87">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="N397" s="87">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="O397" s="87" t="s">
-        <v>3465</v>
+        <v>3630</v>
       </c>
       <c r="P397" s="87"/>
       <c r="Q397" s="87"/>
@@ -76720,7 +76792,7 @@
         <v>888</v>
       </c>
       <c r="AO397" s="87" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AP397" s="87" t="s">
         <v>888</v>
@@ -76747,7 +76819,7 @@
         <v>888</v>
       </c>
       <c r="AX397" s="87" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="AY397" s="87" t="s">
         <v>941</v>
@@ -76761,9 +76833,15 @@
       <c r="BB397" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC397" s="87"/>
-      <c r="BD397" s="87"/>
-      <c r="BE397" s="87"/>
+      <c r="BC397" s="87">
+        <v>80</v>
+      </c>
+      <c r="BD397" s="87">
+        <v>80</v>
+      </c>
+      <c r="BE397" s="87" t="s">
+        <v>3619</v>
+      </c>
       <c r="BF397" s="87"/>
     </row>
     <row r="398" spans="1:58" x14ac:dyDescent="0.25">
@@ -76775,16 +76853,16 @@
         <v>89</v>
       </c>
       <c r="D398" s="89" t="s">
-        <v>3620</v>
+        <v>3593</v>
       </c>
       <c r="E398" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F398" s="87" t="s">
-        <v>3623</v>
+        <v>3594</v>
       </c>
       <c r="G398" s="87" t="s">
-        <v>3574</v>
+        <v>3595</v>
       </c>
       <c r="H398" s="87" t="s">
         <v>3565</v>
@@ -76796,19 +76874,19 @@
         <v>75</v>
       </c>
       <c r="K398" s="87" t="s">
-        <v>3575</v>
+        <v>3596</v>
       </c>
       <c r="L398" s="87">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M398" s="87">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="N398" s="87">
         <v>0</v>
       </c>
       <c r="O398" s="87" t="s">
-        <v>3465</v>
+        <v>3631</v>
       </c>
       <c r="P398" s="87"/>
       <c r="Q398" s="87"/>
@@ -76869,7 +76947,7 @@
         <v>888</v>
       </c>
       <c r="AX398" s="87" t="s">
-        <v>3576</v>
+        <v>3597</v>
       </c>
       <c r="AY398" s="87" t="s">
         <v>941</v>
@@ -76883,9 +76961,15 @@
       <c r="BB398" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC398" s="87"/>
-      <c r="BD398" s="87"/>
-      <c r="BE398" s="87"/>
+      <c r="BC398" s="87">
+        <v>83</v>
+      </c>
+      <c r="BD398" s="87">
+        <v>83</v>
+      </c>
+      <c r="BE398" s="87" t="s">
+        <v>3593</v>
+      </c>
       <c r="BF398" s="87"/>
     </row>
     <row r="399" spans="1:58" x14ac:dyDescent="0.25">
@@ -76897,16 +76981,16 @@
         <v>90</v>
       </c>
       <c r="D399" s="89" t="s">
-        <v>3621</v>
+        <v>3580</v>
       </c>
       <c r="E399" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F399" s="87" t="s">
-        <v>3622</v>
+        <v>3581</v>
       </c>
       <c r="G399" s="87" t="s">
-        <v>3577</v>
+        <v>3582</v>
       </c>
       <c r="H399" s="87" t="s">
         <v>3565</v>
@@ -76918,19 +77002,19 @@
         <v>75</v>
       </c>
       <c r="K399" s="87" t="s">
-        <v>3578</v>
+        <v>3583</v>
       </c>
       <c r="L399" s="87">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M399" s="87">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="N399" s="87">
         <v>0</v>
       </c>
       <c r="O399" s="87" t="s">
-        <v>3465</v>
+        <v>3632</v>
       </c>
       <c r="P399" s="87"/>
       <c r="Q399" s="87"/>
@@ -76991,7 +77075,7 @@
         <v>888</v>
       </c>
       <c r="AX399" s="87" t="s">
-        <v>3579</v>
+        <v>3584</v>
       </c>
       <c r="AY399" s="87" t="s">
         <v>941</v>
@@ -77005,9 +77089,15 @@
       <c r="BB399" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC399" s="87"/>
-      <c r="BD399" s="87"/>
-      <c r="BE399" s="87"/>
+      <c r="BC399" s="87">
+        <v>82</v>
+      </c>
+      <c r="BD399" s="87">
+        <v>82</v>
+      </c>
+      <c r="BE399" s="87" t="s">
+        <v>3621</v>
+      </c>
       <c r="BF399" s="87"/>
     </row>
     <row r="400" spans="1:58" x14ac:dyDescent="0.25">
@@ -77019,16 +77109,16 @@
         <v>91</v>
       </c>
       <c r="D400" s="89" t="s">
-        <v>3580</v>
+        <v>3638</v>
       </c>
       <c r="E400" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F400" s="87" t="s">
-        <v>3581</v>
+        <v>3641</v>
       </c>
       <c r="G400" s="87" t="s">
-        <v>3582</v>
+        <v>3564</v>
       </c>
       <c r="H400" s="87" t="s">
         <v>3565</v>
@@ -77040,19 +77130,19 @@
         <v>75</v>
       </c>
       <c r="K400" s="87" t="s">
-        <v>3583</v>
+        <v>3567</v>
       </c>
       <c r="L400" s="87">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M400" s="87">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N400" s="87">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="O400" s="87" t="s">
-        <v>3465</v>
+        <v>3633</v>
       </c>
       <c r="P400" s="87"/>
       <c r="Q400" s="87"/>
@@ -77113,7 +77203,7 @@
         <v>888</v>
       </c>
       <c r="AX400" s="87" t="s">
-        <v>3584</v>
+        <v>3568</v>
       </c>
       <c r="AY400" s="87" t="s">
         <v>941</v>
@@ -77127,9 +77217,15 @@
       <c r="BB400" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC400" s="87"/>
-      <c r="BD400" s="87"/>
-      <c r="BE400" s="87"/>
+      <c r="BC400" s="87">
+        <v>81</v>
+      </c>
+      <c r="BD400" s="87">
+        <v>81</v>
+      </c>
+      <c r="BE400" s="87" t="s">
+        <v>3622</v>
+      </c>
       <c r="BF400" s="87"/>
     </row>
     <row r="401" spans="1:58" x14ac:dyDescent="0.25">
@@ -77141,16 +77237,16 @@
         <v>92</v>
       </c>
       <c r="D401" s="89" t="s">
-        <v>3585</v>
+        <v>3569</v>
       </c>
       <c r="E401" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F401" s="87" t="s">
-        <v>3586</v>
+        <v>3570</v>
       </c>
       <c r="G401" s="87" t="s">
-        <v>3587</v>
+        <v>3571</v>
       </c>
       <c r="H401" s="87" t="s">
         <v>3565</v>
@@ -77171,10 +77267,10 @@
         <v>540</v>
       </c>
       <c r="N401" s="87">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="O401" s="87" t="s">
-        <v>3465</v>
+        <v>3634</v>
       </c>
       <c r="P401" s="87"/>
       <c r="Q401" s="87"/>
@@ -77235,7 +77331,7 @@
         <v>888</v>
       </c>
       <c r="AX401" s="87" t="s">
-        <v>3588</v>
+        <v>3573</v>
       </c>
       <c r="AY401" s="87" t="s">
         <v>941</v>
@@ -77249,9 +77345,15 @@
       <c r="BB401" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC401" s="87"/>
-      <c r="BD401" s="87"/>
-      <c r="BE401" s="87"/>
+      <c r="BC401" s="87">
+        <v>84</v>
+      </c>
+      <c r="BD401" s="87">
+        <v>84</v>
+      </c>
+      <c r="BE401" s="87" t="s">
+        <v>3620</v>
+      </c>
       <c r="BF401" s="87"/>
     </row>
     <row r="402" spans="1:58" x14ac:dyDescent="0.25">
@@ -77263,16 +77365,16 @@
         <v>93</v>
       </c>
       <c r="D402" s="89" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="E402" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F402" s="87" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="G402" s="87" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="H402" s="87" t="s">
         <v>3565</v>
@@ -77296,7 +77398,7 @@
         <v>0</v>
       </c>
       <c r="O402" s="87" t="s">
-        <v>3465</v>
+        <v>3635</v>
       </c>
       <c r="P402" s="87"/>
       <c r="Q402" s="87"/>
@@ -77357,7 +77459,7 @@
         <v>888</v>
       </c>
       <c r="AX402" s="87" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="AY402" s="87" t="s">
         <v>941</v>
@@ -77371,9 +77473,15 @@
       <c r="BB402" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC402" s="87"/>
-      <c r="BD402" s="87"/>
-      <c r="BE402" s="87"/>
+      <c r="BC402" s="87">
+        <v>85</v>
+      </c>
+      <c r="BD402" s="87">
+        <v>85</v>
+      </c>
+      <c r="BE402" s="87" t="s">
+        <v>3585</v>
+      </c>
       <c r="BF402" s="87"/>
     </row>
     <row r="403" spans="1:58" x14ac:dyDescent="0.25">
@@ -77385,16 +77493,16 @@
         <v>94</v>
       </c>
       <c r="D403" s="89" t="s">
-        <v>3593</v>
+        <v>3589</v>
       </c>
       <c r="E403" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F403" s="87" t="s">
-        <v>3594</v>
+        <v>3590</v>
       </c>
       <c r="G403" s="87" t="s">
-        <v>3595</v>
+        <v>3591</v>
       </c>
       <c r="H403" s="87" t="s">
         <v>3565</v>
@@ -77406,19 +77514,19 @@
         <v>75</v>
       </c>
       <c r="K403" s="87" t="s">
-        <v>3596</v>
+        <v>3572</v>
       </c>
       <c r="L403" s="87">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M403" s="87">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="N403" s="87">
         <v>0</v>
       </c>
       <c r="O403" s="87" t="s">
-        <v>3465</v>
+        <v>3589</v>
       </c>
       <c r="P403" s="87"/>
       <c r="Q403" s="87"/>
@@ -77452,7 +77560,7 @@
         <v>888</v>
       </c>
       <c r="AO403" s="87" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AP403" s="87" t="s">
         <v>888</v>
@@ -77479,7 +77587,7 @@
         <v>888</v>
       </c>
       <c r="AX403" s="87" t="s">
-        <v>3597</v>
+        <v>3592</v>
       </c>
       <c r="AY403" s="87" t="s">
         <v>941</v>
@@ -77493,9 +77601,15 @@
       <c r="BB403" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC403" s="87"/>
-      <c r="BD403" s="87"/>
-      <c r="BE403" s="87"/>
+      <c r="BC403" s="87">
+        <v>79</v>
+      </c>
+      <c r="BD403" s="87">
+        <v>79</v>
+      </c>
+      <c r="BE403" s="87" t="s">
+        <v>3623</v>
+      </c>
       <c r="BF403" s="87"/>
     </row>
     <row r="404" spans="1:58" x14ac:dyDescent="0.25">
@@ -77566,19 +77680,19 @@
         <v>44537</v>
       </c>
       <c r="C405" s="87">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="D405" s="89" t="s">
-        <v>3598</v>
+        <v>3614</v>
       </c>
       <c r="E405" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F405" s="87" t="s">
-        <v>3599</v>
+        <v>3615</v>
       </c>
       <c r="G405" s="87" t="s">
-        <v>3600</v>
+        <v>3616</v>
       </c>
       <c r="H405" s="87" t="s">
         <v>3565</v>
@@ -77590,19 +77704,19 @@
         <v>75</v>
       </c>
       <c r="K405" s="87" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="L405" s="87">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M405" s="87">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="N405" s="87">
         <v>0</v>
       </c>
       <c r="O405" s="87" t="s">
-        <v>3465</v>
+        <v>3636</v>
       </c>
       <c r="P405" s="87"/>
       <c r="Q405" s="87"/>
@@ -77654,16 +77768,16 @@
         <v>888</v>
       </c>
       <c r="AU405" s="87" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AV405" s="87" t="s">
         <v>888</v>
       </c>
       <c r="AW405" s="87" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AX405" s="87" t="s">
-        <v>3601</v>
+        <v>3617</v>
       </c>
       <c r="AY405" s="87" t="s">
         <v>941</v>
@@ -77677,9 +77791,15 @@
       <c r="BB405" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC405" s="87"/>
-      <c r="BD405" s="87"/>
-      <c r="BE405" s="87"/>
+      <c r="BC405" s="87">
+        <v>20080</v>
+      </c>
+      <c r="BD405" s="87">
+        <v>20080</v>
+      </c>
+      <c r="BE405" s="87" t="s">
+        <v>3628</v>
+      </c>
       <c r="BF405" s="87"/>
     </row>
     <row r="406" spans="1:58" x14ac:dyDescent="0.25">
@@ -77688,19 +77808,19 @@
         <v>44537</v>
       </c>
       <c r="C406" s="87">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="D406" s="89" t="s">
-        <v>3602</v>
+        <v>3610</v>
       </c>
       <c r="E406" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F406" s="87" t="s">
-        <v>3603</v>
+        <v>3611</v>
       </c>
       <c r="G406" s="87" t="s">
-        <v>3604</v>
+        <v>3612</v>
       </c>
       <c r="H406" s="87" t="s">
         <v>3565</v>
@@ -77712,19 +77832,19 @@
         <v>75</v>
       </c>
       <c r="K406" s="87" t="s">
-        <v>3572</v>
+        <v>3567</v>
       </c>
       <c r="L406" s="87">
         <v>90</v>
       </c>
       <c r="M406" s="87">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="N406" s="87">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="O406" s="87" t="s">
-        <v>3465</v>
+        <v>3633</v>
       </c>
       <c r="P406" s="87"/>
       <c r="Q406" s="87"/>
@@ -77776,16 +77896,16 @@
         <v>888</v>
       </c>
       <c r="AU406" s="87" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AV406" s="87" t="s">
         <v>888</v>
       </c>
       <c r="AW406" s="87" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AX406" s="87" t="s">
-        <v>3605</v>
+        <v>3613</v>
       </c>
       <c r="AY406" s="87" t="s">
         <v>941</v>
@@ -77799,9 +77919,15 @@
       <c r="BB406" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC406" s="87"/>
-      <c r="BD406" s="87"/>
-      <c r="BE406" s="87"/>
+      <c r="BC406" s="87">
+        <v>20077</v>
+      </c>
+      <c r="BD406" s="87">
+        <v>20077</v>
+      </c>
+      <c r="BE406" s="87" t="s">
+        <v>3627</v>
+      </c>
       <c r="BF406" s="87"/>
     </row>
     <row r="407" spans="1:58" x14ac:dyDescent="0.25">
@@ -77810,7 +77936,7 @@
         <v>44537</v>
       </c>
       <c r="C407" s="87">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="D407" s="89" t="s">
         <v>3606</v>
@@ -77846,7 +77972,7 @@
         <v>0</v>
       </c>
       <c r="O407" s="87" t="s">
-        <v>3465</v>
+        <v>3634</v>
       </c>
       <c r="P407" s="87"/>
       <c r="Q407" s="87"/>
@@ -77921,9 +78047,15 @@
       <c r="BB407" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC407" s="87"/>
-      <c r="BD407" s="87"/>
-      <c r="BE407" s="87"/>
+      <c r="BC407" s="87">
+        <v>20079</v>
+      </c>
+      <c r="BD407" s="87">
+        <v>20079</v>
+      </c>
+      <c r="BE407" s="87" t="s">
+        <v>3626</v>
+      </c>
       <c r="BF407" s="87"/>
     </row>
     <row r="408" spans="1:58" x14ac:dyDescent="0.25">
@@ -77932,19 +78064,19 @@
         <v>44537</v>
       </c>
       <c r="C408" s="87">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="D408" s="89" t="s">
-        <v>3610</v>
+        <v>3602</v>
       </c>
       <c r="E408" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F408" s="87" t="s">
-        <v>3611</v>
+        <v>3603</v>
       </c>
       <c r="G408" s="87" t="s">
-        <v>3612</v>
+        <v>3604</v>
       </c>
       <c r="H408" s="87" t="s">
         <v>3565</v>
@@ -77956,20 +78088,18 @@
         <v>75</v>
       </c>
       <c r="K408" s="87" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="L408" s="87">
         <v>90</v>
       </c>
       <c r="M408" s="87">
+        <v>560</v>
+      </c>
+      <c r="N408" s="87">
         <v>0</v>
       </c>
-      <c r="N408" s="87">
-        <v>550</v>
-      </c>
-      <c r="O408" s="87" t="s">
-        <v>3465</v>
-      </c>
+      <c r="O408" s="87"/>
       <c r="P408" s="87"/>
       <c r="Q408" s="87"/>
       <c r="R408" s="87"/>
@@ -78020,16 +78150,16 @@
         <v>888</v>
       </c>
       <c r="AU408" s="87" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AV408" s="87" t="s">
         <v>888</v>
       </c>
       <c r="AW408" s="87" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AX408" s="87" t="s">
-        <v>3613</v>
+        <v>3605</v>
       </c>
       <c r="AY408" s="87" t="s">
         <v>941</v>
@@ -78043,9 +78173,15 @@
       <c r="BB408" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC408" s="87"/>
-      <c r="BD408" s="87"/>
-      <c r="BE408" s="87"/>
+      <c r="BC408" s="87">
+        <v>20081</v>
+      </c>
+      <c r="BD408" s="87">
+        <v>20081</v>
+      </c>
+      <c r="BE408" s="87" t="s">
+        <v>3624</v>
+      </c>
       <c r="BF408" s="87"/>
     </row>
     <row r="409" spans="1:58" x14ac:dyDescent="0.25">
@@ -78054,19 +78190,19 @@
         <v>44537</v>
       </c>
       <c r="C409" s="87">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D409" s="89" t="s">
-        <v>3614</v>
+        <v>3598</v>
       </c>
       <c r="E409" s="87" t="s">
         <v>3563</v>
       </c>
       <c r="F409" s="87" t="s">
-        <v>3615</v>
+        <v>3599</v>
       </c>
       <c r="G409" s="87" t="s">
-        <v>3616</v>
+        <v>3600</v>
       </c>
       <c r="H409" s="87" t="s">
         <v>3565</v>
@@ -78078,20 +78214,18 @@
         <v>75</v>
       </c>
       <c r="K409" s="87" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="L409" s="87">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M409" s="87">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="N409" s="87">
         <v>0</v>
       </c>
-      <c r="O409" s="87" t="s">
-        <v>3465</v>
-      </c>
+      <c r="O409" s="87"/>
       <c r="P409" s="87"/>
       <c r="Q409" s="87"/>
       <c r="R409" s="87"/>
@@ -78142,16 +78276,16 @@
         <v>888</v>
       </c>
       <c r="AU409" s="87" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AV409" s="87" t="s">
         <v>888</v>
       </c>
       <c r="AW409" s="87" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AX409" s="87" t="s">
-        <v>3617</v>
+        <v>3601</v>
       </c>
       <c r="AY409" s="87" t="s">
         <v>941</v>
@@ -78165,9 +78299,15 @@
       <c r="BB409" s="87" t="s">
         <v>941</v>
       </c>
-      <c r="BC409" s="87"/>
-      <c r="BD409" s="87"/>
-      <c r="BE409" s="87"/>
+      <c r="BC409" s="87">
+        <v>20078</v>
+      </c>
+      <c r="BD409" s="87">
+        <v>20078</v>
+      </c>
+      <c r="BE409" s="87" t="s">
+        <v>3625</v>
+      </c>
       <c r="BF409" s="87"/>
     </row>
     <row r="410" spans="1:58" x14ac:dyDescent="0.25">
@@ -78422,124 +78562,127 @@
   <autoFilter ref="A1:BF413" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
+    <cfRule type="duplicateValues" dxfId="40" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F346 F328">
     <cfRule type="duplicateValues" dxfId="39" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="38" priority="45"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="37" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F355">
     <cfRule type="duplicateValues" dxfId="36" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348:F355">
+  <conditionalFormatting sqref="F100">
     <cfRule type="duplicateValues" dxfId="35" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F86:F99">
     <cfRule type="duplicateValues" dxfId="34" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F99">
+  <conditionalFormatting sqref="F194">
     <cfRule type="duplicateValues" dxfId="33" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="F287">
     <cfRule type="duplicateValues" dxfId="32" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+  <conditionalFormatting sqref="F284:F286">
+    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F286">
+  <conditionalFormatting sqref="F193">
     <cfRule type="duplicateValues" dxfId="30" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
+  <conditionalFormatting sqref="F356:F374">
     <cfRule type="duplicateValues" dxfId="29" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="28" priority="33"/>
+  <conditionalFormatting sqref="F322:F326">
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322:F326">
+  <conditionalFormatting sqref="F377">
     <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F377">
+  <conditionalFormatting sqref="F2">
     <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F288:F299">
     <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F299">
+  <conditionalFormatting sqref="F392:F393">
     <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F392:F393">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+  <conditionalFormatting sqref="F313">
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F313">
+  <conditionalFormatting sqref="F163:F182">
     <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O342:O343">
     <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O342:O343">
+  <conditionalFormatting sqref="O386">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O386">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O379:O381 O384">
-    <cfRule type="duplicateValues" dxfId="16" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O381">
     <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F413:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="13" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O413:O1048576 O387:O395 O346:O368 O385 O370:O377 O1:O340 O404 O410:O411">
-    <cfRule type="duplicateValues" dxfId="12" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O341">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O341">
+  <conditionalFormatting sqref="O344">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O344">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O382:O383">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O383">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F412">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O412">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F394:F395 F410:F411 F404 F300:F312 F387:F391">
-    <cfRule type="duplicateValues" dxfId="4" priority="86"/>
+  <conditionalFormatting sqref="F410:F411 F394:F395 F404 F300:F312 F387:F391">
+    <cfRule type="duplicateValues" dxfId="5" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F396:F403">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O396:O403">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="O396:O401 O403">
+    <cfRule type="duplicateValues" dxfId="3" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F405:F409">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O405:O409">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O402">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E400673E-BF02-4D2F-881A-9FF908E7FC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62E4D7E-229A-4A9C-8176-21F6CC0ABF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58245" yWindow="720" windowWidth="29640" windowHeight="21105" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="3690" yWindow="225" windowWidth="29640" windowHeight="21105" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18148" uniqueCount="3642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18148" uniqueCount="3653">
   <si>
     <t>date:</t>
   </si>
@@ -10985,6 +10985,39 @@
   </si>
   <si>
     <t>das_aitiaskop</t>
+  </si>
+  <si>
+    <t>['Proto-Omega', 'Erz-Lambda', 'Stigma-4']</t>
+  </si>
+  <si>
+    <t>['Rug', 'Dug', 'Mug']</t>
+  </si>
+  <si>
+    <t>['Zodiark']</t>
+  </si>
+  <si>
+    <t>['Hydaelyn']</t>
+  </si>
+  <si>
+    <t>['Endsängerin']</t>
+  </si>
+  <si>
+    <t>['Barnabas', 'Lugae', 'Anima']</t>
+  </si>
+  <si>
+    <t>['Terminus-Häscher', 'Terminus-Verwüster', 'Svarbhanu']</t>
+  </si>
+  <si>
+    <t>['Lyssa', 'Ladon-Lord', 'Hermes']</t>
+  </si>
+  <si>
+    <t>['Livia Die Glühende', 'Rhitahtyn Der Geplagte', 'Amon']</t>
+  </si>
+  <si>
+    <t>['Typhoid Der Endzeit', 'Friedenswächter', 'Ra-La']</t>
+  </si>
+  <si>
+    <t>['Fratze', 'Rahmenwerker', 'Bittelächeln']</t>
   </si>
 </sst>
 </file>
@@ -12132,10 +12165,10 @@
   <dimension ref="A1:BF413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AX325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F401" sqref="F401"/>
+      <selection pane="bottomRight" activeCell="AY403" sqref="AY403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -76694,7 +76727,7 @@
         <v>3579</v>
       </c>
       <c r="AY396" s="87" t="s">
-        <v>941</v>
+        <v>3643</v>
       </c>
       <c r="AZ396" s="87" t="s">
         <v>941</v>
@@ -76822,7 +76855,7 @@
         <v>3576</v>
       </c>
       <c r="AY397" s="87" t="s">
-        <v>941</v>
+        <v>3647</v>
       </c>
       <c r="AZ397" s="87" t="s">
         <v>941</v>
@@ -76950,7 +76983,7 @@
         <v>3597</v>
       </c>
       <c r="AY398" s="87" t="s">
-        <v>941</v>
+        <v>3648</v>
       </c>
       <c r="AZ398" s="87" t="s">
         <v>941</v>
@@ -77078,7 +77111,7 @@
         <v>3584</v>
       </c>
       <c r="AY399" s="87" t="s">
-        <v>941</v>
+        <v>3649</v>
       </c>
       <c r="AZ399" s="87" t="s">
         <v>941</v>
@@ -77206,7 +77239,7 @@
         <v>3568</v>
       </c>
       <c r="AY400" s="87" t="s">
-        <v>941</v>
+        <v>3650</v>
       </c>
       <c r="AZ400" s="87" t="s">
         <v>941</v>
@@ -77334,7 +77367,7 @@
         <v>3573</v>
       </c>
       <c r="AY401" s="87" t="s">
-        <v>941</v>
+        <v>3651</v>
       </c>
       <c r="AZ401" s="87" t="s">
         <v>941</v>
@@ -77462,7 +77495,7 @@
         <v>3588</v>
       </c>
       <c r="AY402" s="87" t="s">
-        <v>941</v>
+        <v>3652</v>
       </c>
       <c r="AZ402" s="87" t="s">
         <v>941</v>
@@ -77590,7 +77623,7 @@
         <v>3592</v>
       </c>
       <c r="AY403" s="87" t="s">
-        <v>941</v>
+        <v>3642</v>
       </c>
       <c r="AZ403" s="87" t="s">
         <v>941</v>
@@ -77780,7 +77813,7 @@
         <v>3617</v>
       </c>
       <c r="AY405" s="87" t="s">
-        <v>941</v>
+        <v>3644</v>
       </c>
       <c r="AZ405" s="87" t="s">
         <v>941</v>
@@ -77789,7 +77822,7 @@
         <v>941</v>
       </c>
       <c r="BB405" s="87" t="s">
-        <v>941</v>
+        <v>2292</v>
       </c>
       <c r="BC405" s="87">
         <v>20080</v>
@@ -77908,7 +77941,7 @@
         <v>3613</v>
       </c>
       <c r="AY406" s="87" t="s">
-        <v>941</v>
+        <v>3645</v>
       </c>
       <c r="AZ406" s="87" t="s">
         <v>941</v>
@@ -77917,7 +77950,7 @@
         <v>941</v>
       </c>
       <c r="BB406" s="87" t="s">
-        <v>941</v>
+        <v>2292</v>
       </c>
       <c r="BC406" s="87">
         <v>20077</v>
@@ -78036,7 +78069,7 @@
         <v>3609</v>
       </c>
       <c r="AY407" s="87" t="s">
-        <v>941</v>
+        <v>3646</v>
       </c>
       <c r="AZ407" s="87" t="s">
         <v>941</v>
@@ -78045,7 +78078,7 @@
         <v>941</v>
       </c>
       <c r="BB407" s="87" t="s">
-        <v>941</v>
+        <v>2292</v>
       </c>
       <c r="BC407" s="87">
         <v>20079</v>
@@ -78162,7 +78195,7 @@
         <v>3605</v>
       </c>
       <c r="AY408" s="87" t="s">
-        <v>941</v>
+        <v>3644</v>
       </c>
       <c r="AZ408" s="87" t="s">
         <v>941</v>
@@ -78171,7 +78204,7 @@
         <v>941</v>
       </c>
       <c r="BB408" s="87" t="s">
-        <v>941</v>
+        <v>2291</v>
       </c>
       <c r="BC408" s="87">
         <v>20081</v>
@@ -78288,7 +78321,7 @@
         <v>3601</v>
       </c>
       <c r="AY409" s="87" t="s">
-        <v>941</v>
+        <v>3645</v>
       </c>
       <c r="AZ409" s="87" t="s">
         <v>941</v>
@@ -78297,7 +78330,7 @@
         <v>941</v>
       </c>
       <c r="BB409" s="87" t="s">
-        <v>941</v>
+        <v>2291</v>
       </c>
       <c r="BC409" s="87">
         <v>20078</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62E4D7E-229A-4A9C-8176-21F6CC0ABF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150C551-6D56-401B-8EAB-159E1A721B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="225" windowWidth="29640" windowHeight="21105" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="3360" yWindow="855" windowWidth="29640" windowHeight="21105" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18148" uniqueCount="3653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18148" uniqueCount="3652">
   <si>
     <t>date:</t>
   </si>
@@ -10574,9 +10574,6 @@
   </si>
   <si>
     <t>n4fh_2</t>
-  </si>
-  <si>
-    <t>Unreal</t>
   </si>
   <si>
     <t>o1fa_3</t>
@@ -12165,10 +12162,10 @@
   <dimension ref="A1:BF413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AX325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY403" sqref="AY403"/>
+      <selection pane="bottomRight" activeCell="J345" sqref="J345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -12459,13 +12456,13 @@
         <v>1458</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>2514</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>2476</v>
@@ -12576,7 +12573,7 @@
         <v>2873</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="BF2" s="6"/>
     </row>
@@ -34918,7 +34915,7 @@
         <v>2441</v>
       </c>
       <c r="AY137" s="14" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="AZ137" s="14" t="s">
         <v>941</v>
@@ -36982,7 +36979,7 @@
         <v>1069</v>
       </c>
       <c r="AY149" s="14" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="AZ149" s="14" t="s">
         <v>941</v>
@@ -37670,7 +37667,7 @@
         <v>1077</v>
       </c>
       <c r="AY153" s="14" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="AZ153" s="14" t="s">
         <v>941</v>
@@ -54656,7 +54653,7 @@
         <v>3175</v>
       </c>
       <c r="AL256" s="20" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="AM256" s="20" t="s">
         <v>888</v>
@@ -54828,7 +54825,7 @@
         <v>3175</v>
       </c>
       <c r="AL257" s="20" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="AM257" s="20" t="s">
         <v>888</v>
@@ -65765,63 +65762,63 @@
         <v>0</v>
       </c>
       <c r="O326" s="30" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="P326" s="30"/>
       <c r="Q326" s="30"/>
       <c r="R326" s="30" t="s">
+        <v>3514</v>
+      </c>
+      <c r="S326" s="30" t="s">
         <v>3515</v>
       </c>
-      <c r="S326" s="30" t="s">
+      <c r="T326" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U326" s="28" t="s">
         <v>3516</v>
       </c>
-      <c r="T326" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="U326" s="28" t="s">
+      <c r="V326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AC326" s="33" t="s">
+        <v>3534</v>
+      </c>
+      <c r="AD326" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE326" s="30" t="s">
+        <v>3538</v>
+      </c>
+      <c r="AF326" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AG326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH326" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI326" s="28" t="s">
         <v>3517</v>
-      </c>
-      <c r="V326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="W326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="X326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="Y326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="Z326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AA326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AB326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AC326" s="33" t="s">
-        <v>3535</v>
-      </c>
-      <c r="AD326" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AE326" s="30" t="s">
-        <v>3539</v>
-      </c>
-      <c r="AF326" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AG326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AH326" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AI326" s="28" t="s">
-        <v>3518</v>
       </c>
       <c r="AJ326" s="28" t="s">
         <v>3175</v>
@@ -65869,7 +65866,7 @@
         <v>3502</v>
       </c>
       <c r="AY326" s="28" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="AZ326" s="28" t="s">
         <v>941</v>
@@ -65887,7 +65884,7 @@
         <v>77</v>
       </c>
       <c r="BE326" s="28" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="BF326" s="28"/>
     </row>
@@ -68577,7 +68574,7 @@
         <v>0</v>
       </c>
       <c r="O343" s="30" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="P343" s="30" t="s">
         <v>2343</v>
@@ -68589,7 +68586,7 @@
         <v>3175</v>
       </c>
       <c r="S343" s="30" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="T343" s="30" t="s">
         <v>3175</v>
@@ -68619,7 +68616,7 @@
         <v>3175</v>
       </c>
       <c r="AC343" s="28" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="AD343" s="28" t="s">
         <v>3175</v>
@@ -68683,7 +68680,7 @@
         <v>3503</v>
       </c>
       <c r="AY343" s="28" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="AZ343" s="28" t="s">
         <v>941</v>
@@ -68701,7 +68698,7 @@
         <v>20075</v>
       </c>
       <c r="BE343" s="28" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="BF343" s="28"/>
     </row>
@@ -68756,10 +68753,10 @@
         <v>2348</v>
       </c>
       <c r="R344" s="30" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="S344" s="30" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="T344" s="30" t="s">
         <v>3175</v>
@@ -68780,7 +68777,7 @@
         <v>3175</v>
       </c>
       <c r="Z344" s="30" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="AA344" s="28" t="s">
         <v>3175</v>
@@ -68793,13 +68790,13 @@
         <v>3175</v>
       </c>
       <c r="AE344" s="28" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="AF344" s="28" t="s">
         <v>3175</v>
       </c>
       <c r="AG344" s="30" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="AH344" s="28" t="s">
         <v>3175</v>
@@ -68853,7 +68850,7 @@
         <v>3504</v>
       </c>
       <c r="AY344" s="28" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="AZ344" s="28" t="s">
         <v>941</v>
@@ -68871,7 +68868,7 @@
         <v>20076</v>
       </c>
       <c r="BE344" s="28" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="BF344" s="28"/>
     </row>
@@ -68902,7 +68899,7 @@
         <v>3486</v>
       </c>
       <c r="J345" s="28" t="s">
-        <v>3505</v>
+        <v>1921</v>
       </c>
       <c r="K345" s="67" t="s">
         <v>1875</v>
@@ -69018,7 +69015,7 @@
         <v>888</v>
       </c>
       <c r="AX345" s="28" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="AY345" s="28" t="s">
         <v>1180</v>
@@ -69039,7 +69036,7 @@
         <v>64003</v>
       </c>
       <c r="BE345" s="28" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="BF345" s="28" t="s">
         <v>2497</v>
@@ -69493,7 +69490,7 @@
         <v>0</v>
       </c>
       <c r="O349" s="30" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="P349" s="30" t="s">
         <v>1806</v>
@@ -69502,61 +69499,61 @@
         <v>2362</v>
       </c>
       <c r="R349" s="30" t="s">
+        <v>3520</v>
+      </c>
+      <c r="S349" s="30" t="s">
         <v>3521</v>
       </c>
-      <c r="S349" s="30" t="s">
+      <c r="T349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U349" s="28" t="s">
         <v>3522</v>
       </c>
-      <c r="T349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="U349" s="28" t="s">
+      <c r="V349" s="28" t="s">
         <v>3523</v>
       </c>
-      <c r="V349" s="28" t="s">
+      <c r="W349" s="28" t="s">
         <v>3524</v>
       </c>
-      <c r="W349" s="28" t="s">
+      <c r="X349" s="28" t="s">
         <v>3525</v>
       </c>
-      <c r="X349" s="28" t="s">
+      <c r="Y349" s="28" t="s">
         <v>3526</v>
       </c>
-      <c r="Y349" s="28" t="s">
+      <c r="Z349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AC349" s="33" t="s">
+        <v>3536</v>
+      </c>
+      <c r="AD349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE349" s="30" t="s">
+        <v>3539</v>
+      </c>
+      <c r="AF349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AG349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH349" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI349" s="28" t="s">
         <v>3527</v>
       </c>
-      <c r="Z349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AA349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AB349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AC349" s="33" t="s">
-        <v>3537</v>
-      </c>
-      <c r="AD349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AE349" s="30" t="s">
-        <v>3540</v>
-      </c>
-      <c r="AF349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AG349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AH349" s="30" t="s">
-        <v>3175</v>
-      </c>
-      <c r="AI349" s="28" t="s">
+      <c r="AJ349" s="28" t="s">
         <v>3528</v>
-      </c>
-      <c r="AJ349" s="28" t="s">
-        <v>3529</v>
       </c>
       <c r="AK349" s="30" t="s">
         <v>3175</v>
@@ -69601,7 +69598,7 @@
         <v>3500</v>
       </c>
       <c r="AY349" s="28" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="AZ349" s="28" t="s">
         <v>941</v>
@@ -69619,7 +69616,7 @@
         <v>30105</v>
       </c>
       <c r="BE349" s="28" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="BF349" s="28"/>
     </row>
@@ -73860,7 +73857,7 @@
         <v>3175</v>
       </c>
       <c r="AL374" s="28" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="AM374" s="28" t="s">
         <v>888</v>
@@ -73899,7 +73896,7 @@
         <v>1433</v>
       </c>
       <c r="AY374" s="28" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="AZ374" s="28" t="s">
         <v>941</v>
@@ -74843,7 +74840,7 @@
         <v>3468</v>
       </c>
       <c r="AY381" s="28" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="AZ381" s="28" t="s">
         <v>941</v>
@@ -74870,19 +74867,19 @@
         <v>9</v>
       </c>
       <c r="D382" s="83" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="E382" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="G382" s="28" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="H382" s="59" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="I382" s="28" t="s">
         <v>3486</v>
@@ -74985,7 +74982,7 @@
       <c r="BC382" s="28"/>
       <c r="BD382" s="28"/>
       <c r="BE382" s="28" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="BF382" s="28"/>
     </row>
@@ -74998,19 +74995,19 @@
         <v>10</v>
       </c>
       <c r="D383" s="83" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="E383" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F383" s="83" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G383" s="28" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H383" s="59" t="s">
         <v>3545</v>
-      </c>
-      <c r="G383" s="28" t="s">
-        <v>3549</v>
-      </c>
-      <c r="H383" s="59" t="s">
-        <v>3546</v>
       </c>
       <c r="I383" s="28" t="s">
         <v>3486</v>
@@ -75101,7 +75098,7 @@
         <v>2741</v>
       </c>
       <c r="AY383" s="28" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="AZ383" s="28" t="s">
         <v>941</v>
@@ -75115,7 +75112,7 @@
       <c r="BC383" s="28"/>
       <c r="BD383" s="28"/>
       <c r="BE383" s="28" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="BF383" s="28"/>
     </row>
@@ -76561,7 +76558,7 @@
     </row>
     <row r="395" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A395" s="87" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B395" s="88"/>
       <c r="C395" s="87"/>
@@ -76630,28 +76627,28 @@
         <v>87</v>
       </c>
       <c r="D396" s="89" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="E396" s="87" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="F396" s="87" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="G396" s="87" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="H396" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I396" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I396" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J396" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K396" s="87" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="L396" s="87">
         <v>82</v>
@@ -76663,7 +76660,7 @@
         <v>0</v>
       </c>
       <c r="O396" s="87" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="P396" s="87"/>
       <c r="Q396" s="87"/>
@@ -76724,10 +76721,10 @@
         <v>888</v>
       </c>
       <c r="AX396" s="87" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="AY396" s="87" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="AZ396" s="87" t="s">
         <v>941</v>
@@ -76745,7 +76742,7 @@
         <v>78</v>
       </c>
       <c r="BE396" s="87" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="BF396" s="87"/>
     </row>
@@ -76758,28 +76755,28 @@
         <v>88</v>
       </c>
       <c r="D397" s="89" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="E397" s="87" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="F397" s="87" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="G397" s="87" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="H397" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I397" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I397" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J397" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K397" s="87" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="L397" s="87">
         <v>84</v>
@@ -76791,7 +76788,7 @@
         <v>0</v>
       </c>
       <c r="O397" s="87" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="P397" s="87"/>
       <c r="Q397" s="87"/>
@@ -76852,10 +76849,10 @@
         <v>888</v>
       </c>
       <c r="AX397" s="87" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="AY397" s="87" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="AZ397" s="87" t="s">
         <v>941</v>
@@ -76873,7 +76870,7 @@
         <v>80</v>
       </c>
       <c r="BE397" s="87" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="BF397" s="87"/>
     </row>
@@ -76886,28 +76883,28 @@
         <v>89</v>
       </c>
       <c r="D398" s="89" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E398" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F398" s="87" t="s">
         <v>3593</v>
       </c>
-      <c r="E398" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F398" s="87" t="s">
+      <c r="G398" s="87" t="s">
         <v>3594</v>
       </c>
-      <c r="G398" s="87" t="s">
-        <v>3595</v>
-      </c>
       <c r="H398" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I398" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I398" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J398" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K398" s="87" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="L398" s="87">
         <v>86</v>
@@ -76919,7 +76916,7 @@
         <v>0</v>
       </c>
       <c r="O398" s="87" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="P398" s="87"/>
       <c r="Q398" s="87"/>
@@ -76980,10 +76977,10 @@
         <v>888</v>
       </c>
       <c r="AX398" s="87" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="AY398" s="87" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="AZ398" s="87" t="s">
         <v>941</v>
@@ -77001,7 +76998,7 @@
         <v>83</v>
       </c>
       <c r="BE398" s="87" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="BF398" s="87"/>
     </row>
@@ -77014,28 +77011,28 @@
         <v>90</v>
       </c>
       <c r="D399" s="89" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E399" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F399" s="87" t="s">
         <v>3580</v>
       </c>
-      <c r="E399" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F399" s="87" t="s">
+      <c r="G399" s="87" t="s">
         <v>3581</v>
       </c>
-      <c r="G399" s="87" t="s">
-        <v>3582</v>
-      </c>
       <c r="H399" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I399" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I399" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J399" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K399" s="87" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="L399" s="87">
         <v>88</v>
@@ -77047,7 +77044,7 @@
         <v>0</v>
       </c>
       <c r="O399" s="87" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="P399" s="87"/>
       <c r="Q399" s="87"/>
@@ -77108,10 +77105,10 @@
         <v>888</v>
       </c>
       <c r="AX399" s="87" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="AY399" s="87" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="AZ399" s="87" t="s">
         <v>941</v>
@@ -77129,7 +77126,7 @@
         <v>82</v>
       </c>
       <c r="BE399" s="87" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="BF399" s="87"/>
     </row>
@@ -77142,28 +77139,28 @@
         <v>91</v>
       </c>
       <c r="D400" s="89" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="E400" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F400" s="87" t="s">
+        <v>3640</v>
+      </c>
+      <c r="G400" s="87" t="s">
         <v>3563</v>
       </c>
-      <c r="F400" s="87" t="s">
-        <v>3641</v>
-      </c>
-      <c r="G400" s="87" t="s">
+      <c r="H400" s="87" t="s">
         <v>3564</v>
       </c>
-      <c r="H400" s="87" t="s">
+      <c r="I400" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I400" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J400" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K400" s="87" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="L400" s="87">
         <v>90</v>
@@ -77175,7 +77172,7 @@
         <v>550</v>
       </c>
       <c r="O400" s="87" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="P400" s="87"/>
       <c r="Q400" s="87"/>
@@ -77236,10 +77233,10 @@
         <v>888</v>
       </c>
       <c r="AX400" s="87" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="AY400" s="87" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="AZ400" s="87" t="s">
         <v>941</v>
@@ -77257,7 +77254,7 @@
         <v>81</v>
       </c>
       <c r="BE400" s="87" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="BF400" s="87"/>
     </row>
@@ -77270,28 +77267,28 @@
         <v>92</v>
       </c>
       <c r="D401" s="89" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E401" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F401" s="87" t="s">
         <v>3569</v>
       </c>
-      <c r="E401" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F401" s="87" t="s">
+      <c r="G401" s="87" t="s">
         <v>3570</v>
       </c>
-      <c r="G401" s="87" t="s">
-        <v>3571</v>
-      </c>
       <c r="H401" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I401" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I401" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J401" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K401" s="87" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="L401" s="87">
         <v>90</v>
@@ -77303,7 +77300,7 @@
         <v>570</v>
       </c>
       <c r="O401" s="87" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="P401" s="87"/>
       <c r="Q401" s="87"/>
@@ -77364,10 +77361,10 @@
         <v>888</v>
       </c>
       <c r="AX401" s="87" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="AY401" s="87" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="AZ401" s="87" t="s">
         <v>941</v>
@@ -77385,7 +77382,7 @@
         <v>84</v>
       </c>
       <c r="BE401" s="87" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="BF401" s="87"/>
     </row>
@@ -77398,28 +77395,28 @@
         <v>93</v>
       </c>
       <c r="D402" s="89" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E402" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F402" s="87" t="s">
         <v>3585</v>
       </c>
-      <c r="E402" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F402" s="87" t="s">
+      <c r="G402" s="87" t="s">
         <v>3586</v>
       </c>
-      <c r="G402" s="87" t="s">
-        <v>3587</v>
-      </c>
       <c r="H402" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I402" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I402" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J402" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K402" s="87" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="L402" s="87">
         <v>90</v>
@@ -77431,7 +77428,7 @@
         <v>0</v>
       </c>
       <c r="O402" s="87" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="P402" s="87"/>
       <c r="Q402" s="87"/>
@@ -77492,10 +77489,10 @@
         <v>888</v>
       </c>
       <c r="AX402" s="87" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="AY402" s="87" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="AZ402" s="87" t="s">
         <v>941</v>
@@ -77513,7 +77510,7 @@
         <v>85</v>
       </c>
       <c r="BE402" s="87" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="BF402" s="87"/>
     </row>
@@ -77526,28 +77523,28 @@
         <v>94</v>
       </c>
       <c r="D403" s="89" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E403" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F403" s="87" t="s">
         <v>3589</v>
       </c>
-      <c r="E403" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F403" s="87" t="s">
+      <c r="G403" s="87" t="s">
         <v>3590</v>
       </c>
-      <c r="G403" s="87" t="s">
-        <v>3591</v>
-      </c>
       <c r="H403" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I403" s="87" t="s">
         <v>3565</v>
-      </c>
-      <c r="I403" s="87" t="s">
-        <v>3566</v>
       </c>
       <c r="J403" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K403" s="87" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="L403" s="87">
         <v>90</v>
@@ -77559,7 +77556,7 @@
         <v>0</v>
       </c>
       <c r="O403" s="87" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="P403" s="87"/>
       <c r="Q403" s="87"/>
@@ -77620,10 +77617,10 @@
         <v>888</v>
       </c>
       <c r="AX403" s="87" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="AY403" s="87" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="AZ403" s="87" t="s">
         <v>941</v>
@@ -77641,13 +77638,13 @@
         <v>79</v>
       </c>
       <c r="BE403" s="87" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="BF403" s="87"/>
     </row>
     <row r="404" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A404" s="87" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B404" s="88"/>
       <c r="C404" s="87"/>
@@ -77716,28 +77713,28 @@
         <v>194</v>
       </c>
       <c r="D405" s="89" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E405" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F405" s="87" t="s">
         <v>3614</v>
       </c>
-      <c r="E405" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F405" s="87" t="s">
+      <c r="G405" s="87" t="s">
         <v>3615</v>
       </c>
-      <c r="G405" s="87" t="s">
-        <v>3616</v>
-      </c>
       <c r="H405" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I405" s="87" t="s">
         <v>3565</v>
       </c>
-      <c r="I405" s="87" t="s">
-        <v>3566</v>
-      </c>
       <c r="J405" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K405" s="87" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="L405" s="87">
         <v>84</v>
@@ -77749,7 +77746,7 @@
         <v>0</v>
       </c>
       <c r="O405" s="87" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="P405" s="87"/>
       <c r="Q405" s="87"/>
@@ -77810,10 +77807,10 @@
         <v>889</v>
       </c>
       <c r="AX405" s="87" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="AY405" s="87" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="AZ405" s="87" t="s">
         <v>941</v>
@@ -77831,7 +77828,7 @@
         <v>20080</v>
       </c>
       <c r="BE405" s="87" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="BF405" s="87"/>
     </row>
@@ -77844,28 +77841,28 @@
         <v>195</v>
       </c>
       <c r="D406" s="89" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E406" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F406" s="87" t="s">
         <v>3610</v>
       </c>
-      <c r="E406" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F406" s="87" t="s">
+      <c r="G406" s="87" t="s">
         <v>3611</v>
       </c>
-      <c r="G406" s="87" t="s">
-        <v>3612</v>
-      </c>
       <c r="H406" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I406" s="87" t="s">
         <v>3565</v>
       </c>
-      <c r="I406" s="87" t="s">
+      <c r="J406" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="K406" s="87" t="s">
         <v>3566</v>
-      </c>
-      <c r="J406" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K406" s="87" t="s">
-        <v>3567</v>
       </c>
       <c r="L406" s="87">
         <v>90</v>
@@ -77877,7 +77874,7 @@
         <v>550</v>
       </c>
       <c r="O406" s="87" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="P406" s="87"/>
       <c r="Q406" s="87"/>
@@ -77938,10 +77935,10 @@
         <v>889</v>
       </c>
       <c r="AX406" s="87" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="AY406" s="87" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="AZ406" s="87" t="s">
         <v>941</v>
@@ -77959,7 +77956,7 @@
         <v>20077</v>
       </c>
       <c r="BE406" s="87" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="BF406" s="87"/>
     </row>
@@ -77972,28 +77969,28 @@
         <v>196</v>
       </c>
       <c r="D407" s="89" t="s">
+        <v>3605</v>
+      </c>
+      <c r="E407" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F407" s="87" t="s">
         <v>3606</v>
       </c>
-      <c r="E407" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F407" s="87" t="s">
+      <c r="G407" s="87" t="s">
         <v>3607</v>
       </c>
-      <c r="G407" s="87" t="s">
-        <v>3608</v>
-      </c>
       <c r="H407" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I407" s="87" t="s">
         <v>3565</v>
       </c>
-      <c r="I407" s="87" t="s">
-        <v>3566</v>
-      </c>
       <c r="J407" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K407" s="87" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="L407" s="87">
         <v>90</v>
@@ -78005,7 +78002,7 @@
         <v>0</v>
       </c>
       <c r="O407" s="87" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="P407" s="87"/>
       <c r="Q407" s="87"/>
@@ -78066,10 +78063,10 @@
         <v>889</v>
       </c>
       <c r="AX407" s="87" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="AY407" s="87" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="AZ407" s="87" t="s">
         <v>941</v>
@@ -78087,7 +78084,7 @@
         <v>20079</v>
       </c>
       <c r="BE407" s="87" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="BF407" s="87"/>
     </row>
@@ -78100,28 +78097,28 @@
         <v>197</v>
       </c>
       <c r="D408" s="89" t="s">
+        <v>3601</v>
+      </c>
+      <c r="E408" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F408" s="87" t="s">
         <v>3602</v>
       </c>
-      <c r="E408" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F408" s="87" t="s">
+      <c r="G408" s="87" t="s">
         <v>3603</v>
       </c>
-      <c r="G408" s="87" t="s">
-        <v>3604</v>
-      </c>
       <c r="H408" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I408" s="87" t="s">
         <v>3565</v>
       </c>
-      <c r="I408" s="87" t="s">
-        <v>3566</v>
-      </c>
       <c r="J408" s="87" t="s">
-        <v>75</v>
+        <v>2324</v>
       </c>
       <c r="K408" s="87" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="L408" s="87">
         <v>90</v>
@@ -78192,10 +78189,10 @@
         <v>888</v>
       </c>
       <c r="AX408" s="87" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="AY408" s="87" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="AZ408" s="87" t="s">
         <v>941</v>
@@ -78213,7 +78210,7 @@
         <v>20081</v>
       </c>
       <c r="BE408" s="87" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="BF408" s="87"/>
     </row>
@@ -78226,28 +78223,28 @@
         <v>198</v>
       </c>
       <c r="D409" s="89" t="s">
+        <v>3597</v>
+      </c>
+      <c r="E409" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F409" s="87" t="s">
         <v>3598</v>
       </c>
-      <c r="E409" s="87" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F409" s="87" t="s">
+      <c r="G409" s="87" t="s">
         <v>3599</v>
       </c>
-      <c r="G409" s="87" t="s">
-        <v>3600</v>
-      </c>
       <c r="H409" s="87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I409" s="87" t="s">
         <v>3565</v>
       </c>
-      <c r="I409" s="87" t="s">
-        <v>3566</v>
-      </c>
       <c r="J409" s="87" t="s">
-        <v>75</v>
+        <v>2324</v>
       </c>
       <c r="K409" s="87" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="L409" s="87">
         <v>90</v>
@@ -78318,10 +78315,10 @@
         <v>888</v>
       </c>
       <c r="AX409" s="87" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="AY409" s="87" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="AZ409" s="87" t="s">
         <v>941</v>
@@ -78339,13 +78336,13 @@
         <v>20078</v>
       </c>
       <c r="BE409" s="87" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="BF409" s="87"/>
     </row>
     <row r="410" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A410" s="87" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B410" s="88"/>
       <c r="C410" s="87"/>
@@ -78407,7 +78404,7 @@
     </row>
     <row r="411" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A411" s="87" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B411" s="88"/>
       <c r="C411" s="87"/>
@@ -78469,7 +78466,7 @@
     </row>
     <row r="412" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A412" s="87" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B412" s="88"/>
       <c r="C412" s="87"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150C551-6D56-401B-8EAB-159E1A721B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253378D0-699D-4860-BADC-126FF0A742DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="855" windowWidth="29640" windowHeight="21105" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="38280" yWindow="405" windowWidth="51840" windowHeight="20715" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BF$417</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18148" uniqueCount="3652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18252" uniqueCount="3669">
   <si>
     <t>date:</t>
   </si>
@@ -11015,6 +11015,57 @@
   </si>
   <si>
     <t>['Fratze', 'Rahmenwerker', 'Bittelächeln']</t>
+  </si>
+  <si>
+    <t>Asphodelos - Dritter Kreis</t>
+  </si>
+  <si>
+    <t>asphodelos_dritter_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112452.tex</t>
+  </si>
+  <si>
+    <t>n5r3</t>
+  </si>
+  <si>
+    <t>Asphodelos - Erster Kreis</t>
+  </si>
+  <si>
+    <t>asphodelos_erster_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112448.tex</t>
+  </si>
+  <si>
+    <t>n5r1</t>
+  </si>
+  <si>
+    <t>Asphodelos - Vierter Kreis</t>
+  </si>
+  <si>
+    <t>asphodelos_vierter_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112454.tex</t>
+  </si>
+  <si>
+    <t>n5r4</t>
+  </si>
+  <si>
+    <t>Asphodelos - Zweiter Kreis</t>
+  </si>
+  <si>
+    <t>asphodelos_zweiter_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112450.tex</t>
+  </si>
+  <si>
+    <t>n5r2</t>
+  </si>
+  <si>
+    <t>6.01</t>
   </si>
 </sst>
 </file>
@@ -11149,7 +11200,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11425,6 +11476,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -11432,7 +11486,27 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12159,13 +12233,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:BF413"/>
+  <dimension ref="A1:BF417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AH334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J345" sqref="J345"/>
+      <selection pane="bottomRight" activeCell="BE412" sqref="BE412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -78403,28 +78477,54 @@
       <c r="BF410" s="87"/>
     </row>
     <row r="411" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A411" s="87" t="s">
-        <v>3560</v>
-      </c>
-      <c r="B411" s="88"/>
-      <c r="C411" s="87"/>
-      <c r="D411" s="89"/>
-      <c r="E411" s="87"/>
-      <c r="F411" s="87"/>
-      <c r="G411" s="87"/>
-      <c r="H411" s="90"/>
-      <c r="I411" s="87"/>
-      <c r="J411" s="87"/>
-      <c r="K411" s="91"/>
-      <c r="L411" s="91"/>
-      <c r="M411" s="91"/>
-      <c r="N411" s="91"/>
-      <c r="O411" s="91"/>
-      <c r="P411" s="91"/>
-      <c r="Q411" s="91"/>
-      <c r="R411" s="91"/>
-      <c r="S411" s="91"/>
-      <c r="T411" s="91"/>
+      <c r="A411" s="87"/>
+      <c r="B411" s="88">
+        <v>44551</v>
+      </c>
+      <c r="C411" s="87">
+        <v>0</v>
+      </c>
+      <c r="D411" s="89" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E411" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F411" s="87" t="s">
+        <v>3653</v>
+      </c>
+      <c r="G411" s="87" t="s">
+        <v>3654</v>
+      </c>
+      <c r="H411" s="93" t="s">
+        <v>3668</v>
+      </c>
+      <c r="I411" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J411" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K411" s="87" t="s">
+        <v>3571</v>
+      </c>
+      <c r="L411" s="87">
+        <v>90</v>
+      </c>
+      <c r="M411" s="87">
+        <v>565</v>
+      </c>
+      <c r="N411" s="87">
+        <v>0</v>
+      </c>
+      <c r="O411" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P411" s="87"/>
+      <c r="Q411" s="87"/>
+      <c r="R411" s="87"/>
+      <c r="S411" s="87"/>
+      <c r="T411" s="87"/>
       <c r="U411" s="87"/>
       <c r="V411" s="87"/>
       <c r="W411" s="87"/>
@@ -78433,8 +78533,8 @@
       <c r="Z411" s="87"/>
       <c r="AA411" s="87"/>
       <c r="AB411" s="87"/>
-      <c r="AC411" s="92"/>
-      <c r="AD411" s="92"/>
+      <c r="AC411" s="87"/>
+      <c r="AD411" s="87"/>
       <c r="AE411" s="87"/>
       <c r="AF411" s="87"/>
       <c r="AG411" s="87"/>
@@ -78442,51 +78542,111 @@
       <c r="AI411" s="87"/>
       <c r="AJ411" s="87"/>
       <c r="AK411" s="87"/>
-      <c r="AL411" s="87"/>
-      <c r="AM411" s="87"/>
-      <c r="AN411" s="87"/>
-      <c r="AO411" s="87"/>
-      <c r="AP411" s="87"/>
-      <c r="AQ411" s="87"/>
-      <c r="AR411" s="87"/>
-      <c r="AS411" s="87"/>
-      <c r="AT411" s="87"/>
-      <c r="AU411" s="87"/>
-      <c r="AV411" s="87"/>
-      <c r="AW411" s="87"/>
-      <c r="AX411" s="87"/>
-      <c r="AY411" s="87"/>
-      <c r="AZ411" s="87"/>
-      <c r="BA411" s="87"/>
-      <c r="BB411" s="87"/>
+      <c r="AL411" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU411" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV411" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AW411" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX411" s="87" t="s">
+        <v>3655</v>
+      </c>
+      <c r="AY411" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ411" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA411" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB411" s="87" t="s">
+        <v>941</v>
+      </c>
       <c r="BC411" s="87"/>
       <c r="BD411" s="87"/>
       <c r="BE411" s="87"/>
       <c r="BF411" s="87"/>
     </row>
     <row r="412" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A412" s="87" t="s">
-        <v>3561</v>
-      </c>
-      <c r="B412" s="88"/>
-      <c r="C412" s="87"/>
-      <c r="D412" s="89"/>
-      <c r="E412" s="87"/>
-      <c r="F412" s="87"/>
-      <c r="G412" s="87"/>
-      <c r="H412" s="90"/>
-      <c r="I412" s="87"/>
-      <c r="J412" s="87"/>
-      <c r="K412" s="91"/>
-      <c r="L412" s="91"/>
-      <c r="M412" s="91"/>
-      <c r="N412" s="91"/>
-      <c r="O412" s="91"/>
-      <c r="P412" s="91"/>
-      <c r="Q412" s="91"/>
-      <c r="R412" s="91"/>
-      <c r="S412" s="91"/>
-      <c r="T412" s="91"/>
+      <c r="A412" s="87"/>
+      <c r="B412" s="88">
+        <v>44551</v>
+      </c>
+      <c r="C412" s="87">
+        <v>0</v>
+      </c>
+      <c r="D412" s="89" t="s">
+        <v>3656</v>
+      </c>
+      <c r="E412" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F412" s="87" t="s">
+        <v>3657</v>
+      </c>
+      <c r="G412" s="87" t="s">
+        <v>3658</v>
+      </c>
+      <c r="H412" s="93" t="s">
+        <v>3668</v>
+      </c>
+      <c r="I412" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J412" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K412" s="87" t="s">
+        <v>3571</v>
+      </c>
+      <c r="L412" s="87">
+        <v>90</v>
+      </c>
+      <c r="M412" s="87">
+        <v>565</v>
+      </c>
+      <c r="N412" s="87">
+        <v>0</v>
+      </c>
+      <c r="O412" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P412" s="87"/>
+      <c r="Q412" s="87"/>
+      <c r="R412" s="87"/>
+      <c r="S412" s="87"/>
+      <c r="T412" s="87"/>
       <c r="U412" s="87"/>
       <c r="V412" s="87"/>
       <c r="W412" s="87"/>
@@ -78495,8 +78655,8 @@
       <c r="Z412" s="87"/>
       <c r="AA412" s="87"/>
       <c r="AB412" s="87"/>
-      <c r="AC412" s="92"/>
-      <c r="AD412" s="92"/>
+      <c r="AC412" s="87"/>
+      <c r="AD412" s="87"/>
       <c r="AE412" s="87"/>
       <c r="AF412" s="87"/>
       <c r="AG412" s="87"/>
@@ -78504,215 +78664,623 @@
       <c r="AI412" s="87"/>
       <c r="AJ412" s="87"/>
       <c r="AK412" s="87"/>
-      <c r="AL412" s="87"/>
-      <c r="AM412" s="87"/>
-      <c r="AN412" s="87"/>
-      <c r="AO412" s="87"/>
-      <c r="AP412" s="87"/>
-      <c r="AQ412" s="87"/>
-      <c r="AR412" s="87"/>
-      <c r="AS412" s="87"/>
-      <c r="AT412" s="87"/>
-      <c r="AU412" s="87"/>
-      <c r="AV412" s="87"/>
-      <c r="AW412" s="87"/>
-      <c r="AX412" s="87"/>
-      <c r="AY412" s="87"/>
-      <c r="AZ412" s="87"/>
-      <c r="BA412" s="87"/>
-      <c r="BB412" s="87"/>
+      <c r="AL412" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU412" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV412" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AW412" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX412" s="87" t="s">
+        <v>3659</v>
+      </c>
+      <c r="AY412" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ412" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA412" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB412" s="87" t="s">
+        <v>941</v>
+      </c>
       <c r="BC412" s="87"/>
       <c r="BD412" s="87"/>
       <c r="BE412" s="87"/>
       <c r="BF412" s="87"/>
     </row>
     <row r="413" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A413" s="56" t="s">
+      <c r="A413" s="87"/>
+      <c r="B413" s="88">
+        <v>44551</v>
+      </c>
+      <c r="C413" s="87">
+        <v>0</v>
+      </c>
+      <c r="D413" s="89" t="s">
+        <v>3660</v>
+      </c>
+      <c r="E413" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F413" s="87" t="s">
+        <v>3661</v>
+      </c>
+      <c r="G413" s="87" t="s">
+        <v>3662</v>
+      </c>
+      <c r="H413" s="93" t="s">
+        <v>3668</v>
+      </c>
+      <c r="I413" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J413" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K413" s="87" t="s">
+        <v>3571</v>
+      </c>
+      <c r="L413" s="87">
+        <v>90</v>
+      </c>
+      <c r="M413" s="87">
+        <v>565</v>
+      </c>
+      <c r="N413" s="87">
+        <v>0</v>
+      </c>
+      <c r="O413" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P413" s="87"/>
+      <c r="Q413" s="87"/>
+      <c r="R413" s="87"/>
+      <c r="S413" s="87"/>
+      <c r="T413" s="87"/>
+      <c r="U413" s="87"/>
+      <c r="V413" s="87"/>
+      <c r="W413" s="87"/>
+      <c r="X413" s="87"/>
+      <c r="Y413" s="87"/>
+      <c r="Z413" s="87"/>
+      <c r="AA413" s="87"/>
+      <c r="AB413" s="87"/>
+      <c r="AC413" s="87"/>
+      <c r="AD413" s="87"/>
+      <c r="AE413" s="87"/>
+      <c r="AF413" s="87"/>
+      <c r="AG413" s="87"/>
+      <c r="AH413" s="87"/>
+      <c r="AI413" s="87"/>
+      <c r="AJ413" s="87"/>
+      <c r="AK413" s="87"/>
+      <c r="AL413" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU413" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV413" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AW413" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX413" s="87" t="s">
+        <v>3663</v>
+      </c>
+      <c r="AY413" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ413" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA413" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB413" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC413" s="87"/>
+      <c r="BD413" s="87"/>
+      <c r="BE413" s="87"/>
+      <c r="BF413" s="87"/>
+    </row>
+    <row r="414" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A414" s="87"/>
+      <c r="B414" s="88">
+        <v>44551</v>
+      </c>
+      <c r="C414" s="87">
+        <v>0</v>
+      </c>
+      <c r="D414" s="89" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E414" s="87" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F414" s="87" t="s">
+        <v>3665</v>
+      </c>
+      <c r="G414" s="87" t="s">
+        <v>3666</v>
+      </c>
+      <c r="H414" s="93" t="s">
+        <v>3668</v>
+      </c>
+      <c r="I414" s="87" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J414" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K414" s="87" t="s">
+        <v>3571</v>
+      </c>
+      <c r="L414" s="87">
+        <v>90</v>
+      </c>
+      <c r="M414" s="87">
+        <v>565</v>
+      </c>
+      <c r="N414" s="87">
+        <v>0</v>
+      </c>
+      <c r="O414" s="87" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P414" s="87"/>
+      <c r="Q414" s="87"/>
+      <c r="R414" s="87"/>
+      <c r="S414" s="87"/>
+      <c r="T414" s="87"/>
+      <c r="U414" s="87"/>
+      <c r="V414" s="87"/>
+      <c r="W414" s="87"/>
+      <c r="X414" s="87"/>
+      <c r="Y414" s="87"/>
+      <c r="Z414" s="87"/>
+      <c r="AA414" s="87"/>
+      <c r="AB414" s="87"/>
+      <c r="AC414" s="87"/>
+      <c r="AD414" s="87"/>
+      <c r="AE414" s="87"/>
+      <c r="AF414" s="87"/>
+      <c r="AG414" s="87"/>
+      <c r="AH414" s="87"/>
+      <c r="AI414" s="87"/>
+      <c r="AJ414" s="87"/>
+      <c r="AK414" s="87"/>
+      <c r="AL414" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AN414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AP414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AU414" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AV414" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AW414" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AX414" s="87" t="s">
+        <v>3667</v>
+      </c>
+      <c r="AY414" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="AZ414" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA414" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BB414" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC414" s="87"/>
+      <c r="BD414" s="87"/>
+      <c r="BE414" s="87"/>
+      <c r="BF414" s="87"/>
+    </row>
+    <row r="415" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A415" s="87" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B415" s="88"/>
+      <c r="C415" s="87"/>
+      <c r="D415" s="89"/>
+      <c r="E415" s="87"/>
+      <c r="F415" s="87"/>
+      <c r="G415" s="87"/>
+      <c r="H415" s="90"/>
+      <c r="I415" s="87"/>
+      <c r="J415" s="87"/>
+      <c r="K415" s="91"/>
+      <c r="L415" s="91"/>
+      <c r="M415" s="91"/>
+      <c r="N415" s="91"/>
+      <c r="O415" s="91"/>
+      <c r="P415" s="91"/>
+      <c r="Q415" s="91"/>
+      <c r="R415" s="91"/>
+      <c r="S415" s="91"/>
+      <c r="T415" s="91"/>
+      <c r="U415" s="87"/>
+      <c r="V415" s="87"/>
+      <c r="W415" s="87"/>
+      <c r="X415" s="87"/>
+      <c r="Y415" s="87"/>
+      <c r="Z415" s="87"/>
+      <c r="AA415" s="87"/>
+      <c r="AB415" s="87"/>
+      <c r="AC415" s="92"/>
+      <c r="AD415" s="92"/>
+      <c r="AE415" s="87"/>
+      <c r="AF415" s="87"/>
+      <c r="AG415" s="87"/>
+      <c r="AH415" s="87"/>
+      <c r="AI415" s="87"/>
+      <c r="AJ415" s="87"/>
+      <c r="AK415" s="87"/>
+      <c r="AL415" s="87"/>
+      <c r="AM415" s="87"/>
+      <c r="AN415" s="87"/>
+      <c r="AO415" s="87"/>
+      <c r="AP415" s="87"/>
+      <c r="AQ415" s="87"/>
+      <c r="AR415" s="87"/>
+      <c r="AS415" s="87"/>
+      <c r="AT415" s="87"/>
+      <c r="AU415" s="87"/>
+      <c r="AV415" s="87"/>
+      <c r="AW415" s="87"/>
+      <c r="AX415" s="87"/>
+      <c r="AY415" s="87"/>
+      <c r="AZ415" s="87"/>
+      <c r="BA415" s="87"/>
+      <c r="BB415" s="87"/>
+      <c r="BC415" s="87"/>
+      <c r="BD415" s="87"/>
+      <c r="BE415" s="87"/>
+      <c r="BF415" s="87"/>
+    </row>
+    <row r="416" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A416" s="87" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B416" s="88"/>
+      <c r="C416" s="87"/>
+      <c r="D416" s="89"/>
+      <c r="E416" s="87"/>
+      <c r="F416" s="87"/>
+      <c r="G416" s="87"/>
+      <c r="H416" s="90"/>
+      <c r="I416" s="87"/>
+      <c r="J416" s="87"/>
+      <c r="K416" s="91"/>
+      <c r="L416" s="91"/>
+      <c r="M416" s="91"/>
+      <c r="N416" s="91"/>
+      <c r="O416" s="91"/>
+      <c r="P416" s="91"/>
+      <c r="Q416" s="91"/>
+      <c r="R416" s="91"/>
+      <c r="S416" s="91"/>
+      <c r="T416" s="91"/>
+      <c r="U416" s="87"/>
+      <c r="V416" s="87"/>
+      <c r="W416" s="87"/>
+      <c r="X416" s="87"/>
+      <c r="Y416" s="87"/>
+      <c r="Z416" s="87"/>
+      <c r="AA416" s="87"/>
+      <c r="AB416" s="87"/>
+      <c r="AC416" s="92"/>
+      <c r="AD416" s="92"/>
+      <c r="AE416" s="87"/>
+      <c r="AF416" s="87"/>
+      <c r="AG416" s="87"/>
+      <c r="AH416" s="87"/>
+      <c r="AI416" s="87"/>
+      <c r="AJ416" s="87"/>
+      <c r="AK416" s="87"/>
+      <c r="AL416" s="87"/>
+      <c r="AM416" s="87"/>
+      <c r="AN416" s="87"/>
+      <c r="AO416" s="87"/>
+      <c r="AP416" s="87"/>
+      <c r="AQ416" s="87"/>
+      <c r="AR416" s="87"/>
+      <c r="AS416" s="87"/>
+      <c r="AT416" s="87"/>
+      <c r="AU416" s="87"/>
+      <c r="AV416" s="87"/>
+      <c r="AW416" s="87"/>
+      <c r="AX416" s="87"/>
+      <c r="AY416" s="87"/>
+      <c r="AZ416" s="87"/>
+      <c r="BA416" s="87"/>
+      <c r="BB416" s="87"/>
+      <c r="BC416" s="87"/>
+      <c r="BD416" s="87"/>
+      <c r="BE416" s="87"/>
+      <c r="BF416" s="87"/>
+    </row>
+    <row r="417" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A417" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B413" s="57"/>
-      <c r="C413" s="56"/>
-      <c r="D413" s="85"/>
-      <c r="E413" s="56"/>
-      <c r="F413" s="56"/>
-      <c r="G413" s="56"/>
-      <c r="H413" s="58"/>
-      <c r="I413" s="56"/>
-      <c r="J413" s="56"/>
-      <c r="K413" s="56"/>
-      <c r="L413" s="56"/>
-      <c r="M413" s="56"/>
-      <c r="N413" s="56"/>
-      <c r="O413" s="56"/>
-      <c r="P413" s="56"/>
-      <c r="Q413" s="56"/>
-      <c r="R413" s="56"/>
-      <c r="S413" s="56"/>
-      <c r="T413" s="56"/>
-      <c r="U413" s="56"/>
-      <c r="V413" s="56"/>
-      <c r="W413" s="56"/>
-      <c r="X413" s="56"/>
-      <c r="Y413" s="56"/>
-      <c r="Z413" s="56"/>
-      <c r="AA413" s="56"/>
-      <c r="AB413" s="56"/>
-      <c r="AC413" s="56"/>
-      <c r="AD413" s="56"/>
-      <c r="AE413" s="56"/>
-      <c r="AF413" s="56"/>
-      <c r="AG413" s="56"/>
-      <c r="AH413" s="56"/>
-      <c r="AI413" s="56"/>
-      <c r="AJ413" s="56"/>
-      <c r="AK413" s="56"/>
-      <c r="AL413" s="56"/>
-      <c r="AM413" s="56"/>
-      <c r="AN413" s="56"/>
-      <c r="AO413" s="56"/>
-      <c r="AP413" s="56"/>
-      <c r="AQ413" s="56"/>
-      <c r="AR413" s="56"/>
-      <c r="AS413" s="56"/>
-      <c r="AT413" s="56"/>
-      <c r="AU413" s="56"/>
-      <c r="AV413" s="56"/>
-      <c r="AW413" s="56"/>
-      <c r="AX413" s="56"/>
-      <c r="AY413" s="56"/>
-      <c r="AZ413" s="56"/>
-      <c r="BA413" s="56"/>
-      <c r="BB413" s="56"/>
-      <c r="BC413" s="56"/>
-      <c r="BD413" s="56"/>
-      <c r="BE413" s="56"/>
-      <c r="BF413" s="56"/>
+      <c r="B417" s="57"/>
+      <c r="C417" s="56"/>
+      <c r="D417" s="85"/>
+      <c r="E417" s="56"/>
+      <c r="F417" s="56"/>
+      <c r="G417" s="56"/>
+      <c r="H417" s="58"/>
+      <c r="I417" s="56"/>
+      <c r="J417" s="56"/>
+      <c r="K417" s="56"/>
+      <c r="L417" s="56"/>
+      <c r="M417" s="56"/>
+      <c r="N417" s="56"/>
+      <c r="O417" s="56"/>
+      <c r="P417" s="56"/>
+      <c r="Q417" s="56"/>
+      <c r="R417" s="56"/>
+      <c r="S417" s="56"/>
+      <c r="T417" s="56"/>
+      <c r="U417" s="56"/>
+      <c r="V417" s="56"/>
+      <c r="W417" s="56"/>
+      <c r="X417" s="56"/>
+      <c r="Y417" s="56"/>
+      <c r="Z417" s="56"/>
+      <c r="AA417" s="56"/>
+      <c r="AB417" s="56"/>
+      <c r="AC417" s="56"/>
+      <c r="AD417" s="56"/>
+      <c r="AE417" s="56"/>
+      <c r="AF417" s="56"/>
+      <c r="AG417" s="56"/>
+      <c r="AH417" s="56"/>
+      <c r="AI417" s="56"/>
+      <c r="AJ417" s="56"/>
+      <c r="AK417" s="56"/>
+      <c r="AL417" s="56"/>
+      <c r="AM417" s="56"/>
+      <c r="AN417" s="56"/>
+      <c r="AO417" s="56"/>
+      <c r="AP417" s="56"/>
+      <c r="AQ417" s="56"/>
+      <c r="AR417" s="56"/>
+      <c r="AS417" s="56"/>
+      <c r="AT417" s="56"/>
+      <c r="AU417" s="56"/>
+      <c r="AV417" s="56"/>
+      <c r="AW417" s="56"/>
+      <c r="AX417" s="56"/>
+      <c r="AY417" s="56"/>
+      <c r="AZ417" s="56"/>
+      <c r="BA417" s="56"/>
+      <c r="BB417" s="56"/>
+      <c r="BC417" s="56"/>
+      <c r="BD417" s="56"/>
+      <c r="BE417" s="56"/>
+      <c r="BF417" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF413" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:BF417" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
-    <cfRule type="duplicateValues" dxfId="40" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="39" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="38" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F355">
+    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
     <cfRule type="duplicateValues" dxfId="37" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348:F355">
+  <conditionalFormatting sqref="F86:F99">
     <cfRule type="duplicateValues" dxfId="36" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F194">
     <cfRule type="duplicateValues" dxfId="35" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F99">
+  <conditionalFormatting sqref="F287">
     <cfRule type="duplicateValues" dxfId="34" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
-    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+  <conditionalFormatting sqref="F284:F286">
+    <cfRule type="duplicateValues" dxfId="33" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
-    <cfRule type="duplicateValues" dxfId="32" priority="38"/>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F286">
+  <conditionalFormatting sqref="F356:F374">
     <cfRule type="duplicateValues" dxfId="31" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
-    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
+  <conditionalFormatting sqref="F322:F326">
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="29" priority="34"/>
+  <conditionalFormatting sqref="F377">
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322:F326">
+  <conditionalFormatting sqref="F2">
     <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F377">
+  <conditionalFormatting sqref="F288:F299">
     <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F392:F393">
     <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F299">
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F392:F393">
-    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O342:O343">
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O386">
     <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O342:O343">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+  <conditionalFormatting sqref="O379:O381 O384">
+    <cfRule type="duplicateValues" dxfId="19" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O386">
+  <conditionalFormatting sqref="O384">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O379:O381 O384">
-    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
+  <conditionalFormatting sqref="O381">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O384">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  <conditionalFormatting sqref="F422:F1048576 F417 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
+    <cfRule type="duplicateValues" dxfId="16" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F413:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="14" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O413:O1048576 O387:O395 O346:O368 O385 O370:O377 O1:O340 O404 O410:O411">
-    <cfRule type="duplicateValues" dxfId="13" priority="86"/>
+  <conditionalFormatting sqref="O422:O1048576 O417 O387:O395 O346:O368 O385 O370:O377 O1:O340 O404 O410 O415">
+    <cfRule type="duplicateValues" dxfId="15" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O341">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O344">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O341">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  <conditionalFormatting sqref="O382:O383">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O344">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  <conditionalFormatting sqref="O383">
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O382:O383">
+  <conditionalFormatting sqref="F416">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O383">
+  <conditionalFormatting sqref="O416">
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F412">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O412">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F410:F411 F394:F395 F404 F300:F312 F387:F391">
-    <cfRule type="duplicateValues" dxfId="5" priority="87"/>
+  <conditionalFormatting sqref="F410 F415 F394:F395 F404 F300:F312 F387:F391">
+    <cfRule type="duplicateValues" dxfId="7" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F396:F403">
-    <cfRule type="duplicateValues" dxfId="4" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O396:O401 O403">
-    <cfRule type="duplicateValues" dxfId="3" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F405:F409">
-    <cfRule type="duplicateValues" dxfId="2" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O405:O409">
-    <cfRule type="duplicateValues" dxfId="1" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O402">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F411:F414">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O411:O414">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253378D0-699D-4860-BADC-126FF0A742DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6198CA97-CF2C-4106-8766-03D6E318CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="405" windowWidth="51840" windowHeight="20715" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="53655" yWindow="1710" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18252" uniqueCount="3669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18532" uniqueCount="3723">
   <si>
     <t>date:</t>
   </si>
@@ -10921,21 +10921,12 @@
     <t>The_Dead_Ends</t>
   </si>
   <si>
-    <t>Ktisis_Hyperboreia</t>
-  </si>
-  <si>
     <t>The_Aitiascope</t>
   </si>
   <si>
     <t>The_Stigma_Dreamscape</t>
   </si>
   <si>
-    <t>The_Minstrel%5C%27s_Ballad:_Zodiark%5C%27s_Fall</t>
-  </si>
-  <si>
-    <t>The_Minstrel%5C%27s_Ballad:_Hydaelyn%5C%27s_Call</t>
-  </si>
-  <si>
     <t>The_Final_Day</t>
   </si>
   <si>
@@ -11066,6 +11057,177 @@
   </si>
   <si>
     <t>6.01</t>
+  </si>
+  <si>
+    <t>['P1']</t>
+  </si>
+  <si>
+    <t>['P2']</t>
+  </si>
+  <si>
+    <t>['P3']</t>
+  </si>
+  <si>
+    <t>['P4']</t>
+  </si>
+  <si>
+    <t>Asphodelos:_The_Second_Circle</t>
+  </si>
+  <si>
+    <t>Asphodelos:_The_First_Circle</t>
+  </si>
+  <si>
+    <t>Asphodelos:_The_Third_Circle</t>
+  </si>
+  <si>
+    <t>Asphodelos:_The_Fourth_Circle</t>
+  </si>
+  <si>
+    <t>Erichthonios-Karte</t>
+  </si>
+  <si>
+    <t>Die Tiefen der Tausend Teufel</t>
+  </si>
+  <si>
+    <t>Themis</t>
+  </si>
+  <si>
+    <t>Limbo</t>
+  </si>
+  <si>
+    <t>Ketten, Käfig und Kanäle</t>
+  </si>
+  <si>
+    <t>Erichthonios</t>
+  </si>
+  <si>
+    <t>Die Feuer von Asphodelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Herzen des Hohen Wächters	</t>
+  </si>
+  <si>
+    <t>Ewige Dunkelheit</t>
+  </si>
+  <si>
+    <t>göttlichen Lichts</t>
+  </si>
+  <si>
+    <t>Ktiseos</t>
+  </si>
+  <si>
+    <t>Palaka</t>
+  </si>
+  <si>
+    <t>Garleisch</t>
+  </si>
+  <si>
+    <t>Manusya</t>
+  </si>
+  <si>
+    <t>Nosferatu-Puppe</t>
+  </si>
+  <si>
+    <t>Hic Svnt Leones</t>
+  </si>
+  <si>
+    <t>The_Minstrel%27s_Ballad:_Hydaelyn%27s_Call</t>
+  </si>
+  <si>
+    <t>The_Minstrel%27s_Ballad:_Zodiark%27s_Fall</t>
+  </si>
+  <si>
+    <t>Astral-Luchs</t>
+  </si>
+  <si>
+    <t>Hydaelyn</t>
+  </si>
+  <si>
+    <t>Your Answer</t>
+  </si>
+  <si>
+    <t>Zodiark</t>
+  </si>
+  <si>
+    <t>Endcaller</t>
+  </si>
+  <si>
+    <t>Umbral-Luchs</t>
+  </si>
+  <si>
+    <t>Meteion</t>
+  </si>
+  <si>
+    <t>Ætheris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letzter </t>
+  </si>
+  <si>
+    <t>Magus-Schwestern</t>
+  </si>
+  <si>
+    <t>Magus-Schwestern-Puppentrio</t>
+  </si>
+  <si>
+    <t>Ancient Shackles</t>
+  </si>
+  <si>
+    <t>Tower Of Zot (Endwalker)</t>
+  </si>
+  <si>
+    <t>Garlemald Express</t>
+  </si>
+  <si>
+    <t>As The Sky Burns</t>
+  </si>
+  <si>
+    <t>Miracle Works</t>
+  </si>
+  <si>
+    <t>The Aetherial Sea</t>
+  </si>
+  <si>
+    <t>Of Countless Stars</t>
+  </si>
+  <si>
+    <t>Carrots Of Happiness</t>
+  </si>
+  <si>
+    <t>Nilpferdkalb</t>
+  </si>
+  <si>
+    <t>Caduceus</t>
+  </si>
+  <si>
+    <t>Sternenvogel</t>
+  </si>
+  <si>
+    <t>Optimus Omikron</t>
+  </si>
+  <si>
+    <t>Aufzieh-Anima</t>
+  </si>
+  <si>
+    <t>Tröllchen</t>
+  </si>
+  <si>
+    <t>Lunatender-Prinz</t>
+  </si>
+  <si>
+    <t>Anima</t>
+  </si>
+  <si>
+    <t>Splitterseele Amon</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Ktisis_Hyperboreia_(Duty)</t>
+  </si>
+  <si>
+    <t>['Erichthonios']</t>
   </si>
 </sst>
 </file>
@@ -12236,10 +12398,10 @@
   <dimension ref="A1:BF417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AH334" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE412" sqref="BE412"/>
+      <selection pane="bottomRight" activeCell="S418" sqref="S418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -63730,7 +63892,7 @@
       <c r="BE313" s="70"/>
       <c r="BF313" s="70"/>
     </row>
-    <row r="314" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="28"/>
       <c r="B314" s="29">
         <v>43644</v>
@@ -63902,7 +64064,7 @@
       </c>
       <c r="BF314" s="28"/>
     </row>
-    <row r="315" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="28"/>
       <c r="B315" s="29">
         <v>43644</v>
@@ -64074,7 +64236,7 @@
       </c>
       <c r="BF315" s="28"/>
     </row>
-    <row r="316" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="28"/>
       <c r="B316" s="29">
         <v>43644</v>
@@ -64246,7 +64408,7 @@
       </c>
       <c r="BF316" s="28"/>
     </row>
-    <row r="317" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="28"/>
       <c r="B317" s="29">
         <v>43644</v>
@@ -64418,7 +64580,7 @@
       </c>
       <c r="BF317" s="28"/>
     </row>
-    <row r="318" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
       <c r="B318" s="29">
         <v>43644</v>
@@ -64590,7 +64752,7 @@
       </c>
       <c r="BF318" s="28"/>
     </row>
-    <row r="319" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28"/>
       <c r="B319" s="29">
         <v>43644</v>
@@ -64762,7 +64924,7 @@
       </c>
       <c r="BF319" s="28"/>
     </row>
-    <row r="320" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28"/>
       <c r="B320" s="29">
         <v>43644</v>
@@ -64934,7 +65096,7 @@
       </c>
       <c r="BF320" s="28"/>
     </row>
-    <row r="321" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
       <c r="B321" s="29">
         <v>43644</v>
@@ -65106,7 +65268,7 @@
       </c>
       <c r="BF321" s="28"/>
     </row>
-    <row r="322" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
       <c r="B322" s="29">
         <v>43767</v>
@@ -65278,7 +65440,7 @@
       </c>
       <c r="BF322" s="28"/>
     </row>
-    <row r="323" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28"/>
       <c r="B323" s="29">
         <v>43848</v>
@@ -65450,7 +65612,7 @@
       </c>
       <c r="BF323" s="28"/>
     </row>
-    <row r="324" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28"/>
       <c r="B324" s="29">
         <v>44054</v>
@@ -65622,7 +65784,7 @@
       </c>
       <c r="BF324" s="28"/>
     </row>
-    <row r="325" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="29">
         <v>44173</v>
@@ -65794,7 +65956,7 @@
       </c>
       <c r="BF325" s="28"/>
     </row>
-    <row r="326" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
       <c r="B326" s="29">
         <v>44299</v>
@@ -65962,7 +66124,7 @@
       </c>
       <c r="BF326" s="28"/>
     </row>
-    <row r="327" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>779</v>
       </c>
@@ -66024,7 +66186,7 @@
       <c r="BE327" s="28"/>
       <c r="BF327" s="28"/>
     </row>
-    <row r="328" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -66196,7 +66358,7 @@
       </c>
       <c r="BF328" s="28"/>
     </row>
-    <row r="329" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -66368,7 +66530,7 @@
       </c>
       <c r="BF329" s="28"/>
     </row>
-    <row r="330" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -66540,7 +66702,7 @@
       </c>
       <c r="BF330" s="28"/>
     </row>
-    <row r="331" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -66712,7 +66874,7 @@
       </c>
       <c r="BF331" s="28"/>
     </row>
-    <row r="332" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -66884,7 +67046,7 @@
       </c>
       <c r="BF332" s="28"/>
     </row>
-    <row r="333" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -67054,7 +67216,7 @@
       </c>
       <c r="BF333" s="28"/>
     </row>
-    <row r="334" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -67226,7 +67388,7 @@
       </c>
       <c r="BF334" s="28"/>
     </row>
-    <row r="335" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -67398,7 +67560,7 @@
       </c>
       <c r="BF335" s="28"/>
     </row>
-    <row r="336" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -67570,7 +67732,7 @@
       </c>
       <c r="BF336" s="28"/>
     </row>
-    <row r="337" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -67742,7 +67904,7 @@
       </c>
       <c r="BF337" s="28"/>
     </row>
-    <row r="338" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -67914,7 +68076,7 @@
       </c>
       <c r="BF338" s="28"/>
     </row>
-    <row r="339" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -68088,7 +68250,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="340" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -68260,7 +68422,7 @@
       </c>
       <c r="BF340" s="28"/>
     </row>
-    <row r="341" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -68432,7 +68594,7 @@
       </c>
       <c r="BF341" s="28"/>
     </row>
-    <row r="342" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -68606,7 +68768,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="343" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -68776,7 +68938,7 @@
       </c>
       <c r="BF343" s="28"/>
     </row>
-    <row r="344" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -68946,7 +69108,7 @@
       </c>
       <c r="BF344" s="28"/>
     </row>
-    <row r="345" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -69116,7 +69278,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="346" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -69178,7 +69340,7 @@
       <c r="BE346" s="28"/>
       <c r="BF346" s="28"/>
     </row>
-    <row r="347" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="28"/>
       <c r="B347" s="35">
         <v>43767</v>
@@ -69350,7 +69512,7 @@
       </c>
       <c r="BF347" s="28"/>
     </row>
-    <row r="348" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="28"/>
       <c r="B348" s="35">
         <v>44054</v>
@@ -69522,7 +69684,7 @@
       </c>
       <c r="BF348" s="28"/>
     </row>
-    <row r="349" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="28"/>
       <c r="B349" s="29">
         <v>44299</v>
@@ -69694,7 +69856,7 @@
       </c>
       <c r="BF349" s="28"/>
     </row>
-    <row r="350" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28"/>
       <c r="B350" s="35">
         <v>43662</v>
@@ -69866,7 +70028,7 @@
       </c>
       <c r="BF350" s="28"/>
     </row>
-    <row r="351" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="28"/>
       <c r="B351" s="35">
         <v>43662</v>
@@ -70038,7 +70200,7 @@
       </c>
       <c r="BF351" s="28"/>
     </row>
-    <row r="352" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
         <v>43662</v>
@@ -70210,7 +70372,7 @@
       </c>
       <c r="BF352" s="28"/>
     </row>
-    <row r="353" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="28"/>
       <c r="B353" s="35">
         <v>43662</v>
@@ -70382,7 +70544,7 @@
       </c>
       <c r="BF353" s="28"/>
     </row>
-    <row r="354" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="28"/>
       <c r="B354" s="35">
         <v>43676</v>
@@ -70554,7 +70716,7 @@
       </c>
       <c r="BF354" s="28"/>
     </row>
-    <row r="355" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="28"/>
       <c r="B355" s="35">
         <v>43676</v>
@@ -70726,7 +70888,7 @@
       </c>
       <c r="BF355" s="28"/>
     </row>
-    <row r="356" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="28"/>
       <c r="B356" s="35">
         <v>43676</v>
@@ -70898,7 +71060,7 @@
       </c>
       <c r="BF356" s="28"/>
     </row>
-    <row r="357" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="28"/>
       <c r="B357" s="35">
         <v>43676</v>
@@ -71070,7 +71232,7 @@
       </c>
       <c r="BF357" s="28"/>
     </row>
-    <row r="358" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="28"/>
       <c r="B358" s="35">
         <v>43848</v>
@@ -71242,7 +71404,7 @@
       </c>
       <c r="BF358" s="28"/>
     </row>
-    <row r="359" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="28"/>
       <c r="B359" s="35">
         <v>43848</v>
@@ -71414,7 +71576,7 @@
       </c>
       <c r="BF359" s="28"/>
     </row>
-    <row r="360" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28"/>
       <c r="B360" s="35">
         <v>43848</v>
@@ -71586,7 +71748,7 @@
       </c>
       <c r="BF360" s="28"/>
     </row>
-    <row r="361" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="28"/>
       <c r="B361" s="35">
         <v>43848</v>
@@ -71758,7 +71920,7 @@
       </c>
       <c r="BF361" s="28"/>
     </row>
-    <row r="362" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="28"/>
       <c r="B362" s="35">
         <v>43848</v>
@@ -71930,7 +72092,7 @@
       </c>
       <c r="BF362" s="28"/>
     </row>
-    <row r="363" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="28"/>
       <c r="B363" s="35">
         <v>43848</v>
@@ -72102,7 +72264,7 @@
       </c>
       <c r="BF363" s="28"/>
     </row>
-    <row r="364" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="28"/>
       <c r="B364" s="35">
         <v>43848</v>
@@ -72274,7 +72436,7 @@
       </c>
       <c r="BF364" s="28"/>
     </row>
-    <row r="365" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A365" s="28"/>
       <c r="B365" s="35">
         <v>43848</v>
@@ -72446,7 +72608,7 @@
       </c>
       <c r="BF365" s="28"/>
     </row>
-    <row r="366" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A366" s="28"/>
       <c r="B366" s="35">
         <v>44173</v>
@@ -72616,7 +72778,7 @@
       </c>
       <c r="BF366" s="28"/>
     </row>
-    <row r="367" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A367" s="28"/>
       <c r="B367" s="35">
         <v>44173</v>
@@ -72788,7 +72950,7 @@
       </c>
       <c r="BF367" s="28"/>
     </row>
-    <row r="368" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
       <c r="B368" s="35">
         <v>44173</v>
@@ -72960,7 +73122,7 @@
       </c>
       <c r="BF368" s="28"/>
     </row>
-    <row r="369" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
       <c r="B369" s="35">
         <v>44173</v>
@@ -73132,7 +73294,7 @@
       </c>
       <c r="BF369" s="28"/>
     </row>
-    <row r="370" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28"/>
       <c r="B370" s="35">
         <v>44173</v>
@@ -73304,7 +73466,7 @@
       </c>
       <c r="BF370" s="28"/>
     </row>
-    <row r="371" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28"/>
       <c r="B371" s="35">
         <v>44173</v>
@@ -73476,7 +73638,7 @@
       </c>
       <c r="BF371" s="28"/>
     </row>
-    <row r="372" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
       <c r="B372" s="35">
         <v>44173</v>
@@ -73648,7 +73810,7 @@
       </c>
       <c r="BF372" s="28"/>
     </row>
-    <row r="373" spans="1:58" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:58" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
       <c r="B373" s="35">
         <v>44173</v>
@@ -73820,7 +73982,7 @@
       </c>
       <c r="BF373" s="28"/>
     </row>
-    <row r="374" spans="1:58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:58" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A374" s="28"/>
       <c r="B374" s="35">
         <v>43781</v>
@@ -73992,7 +74154,7 @@
       </c>
       <c r="BF374" s="28"/>
     </row>
-    <row r="375" spans="1:58" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>781</v>
       </c>
@@ -76701,13 +76863,13 @@
         <v>87</v>
       </c>
       <c r="D396" s="89" t="s">
-        <v>3636</v>
+        <v>3633</v>
       </c>
       <c r="E396" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F396" s="87" t="s">
-        <v>3638</v>
+        <v>3635</v>
       </c>
       <c r="G396" s="87" t="s">
         <v>3576</v>
@@ -76734,30 +76896,62 @@
         <v>0</v>
       </c>
       <c r="O396" s="87" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="P396" s="87"/>
       <c r="Q396" s="87"/>
-      <c r="R396" s="87"/>
-      <c r="S396" s="87"/>
-      <c r="T396" s="87"/>
-      <c r="U396" s="87"/>
-      <c r="V396" s="87"/>
-      <c r="W396" s="87"/>
-      <c r="X396" s="87"/>
-      <c r="Y396" s="87"/>
-      <c r="Z396" s="87"/>
-      <c r="AA396" s="87"/>
-      <c r="AB396" s="87"/>
+      <c r="R396" s="87" t="s">
+        <v>3687</v>
+      </c>
+      <c r="S396" s="87" t="s">
+        <v>3701</v>
+      </c>
+      <c r="T396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U396" s="87" t="s">
+        <v>3704</v>
+      </c>
+      <c r="V396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB396" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC396" s="87"/>
       <c r="AD396" s="87"/>
       <c r="AE396" s="87"/>
       <c r="AF396" s="87"/>
-      <c r="AG396" s="87"/>
-      <c r="AH396" s="87"/>
-      <c r="AI396" s="87"/>
-      <c r="AJ396" s="87"/>
-      <c r="AK396" s="87"/>
+      <c r="AG396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI396" s="87" t="s">
+        <v>3702</v>
+      </c>
+      <c r="AJ396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK396" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL396" s="87" t="s">
         <v>85</v>
       </c>
@@ -76798,7 +76992,7 @@
         <v>3578</v>
       </c>
       <c r="AY396" s="87" t="s">
-        <v>3642</v>
+        <v>3639</v>
       </c>
       <c r="AZ396" s="87" t="s">
         <v>941</v>
@@ -76829,13 +77023,13 @@
         <v>88</v>
       </c>
       <c r="D397" s="89" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="E397" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F397" s="87" t="s">
-        <v>3639</v>
+        <v>3636</v>
       </c>
       <c r="G397" s="87" t="s">
         <v>3573</v>
@@ -76862,30 +77056,62 @@
         <v>0</v>
       </c>
       <c r="O397" s="87" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="P397" s="87"/>
       <c r="Q397" s="87"/>
-      <c r="R397" s="87"/>
-      <c r="S397" s="87"/>
-      <c r="T397" s="87"/>
-      <c r="U397" s="87"/>
-      <c r="V397" s="87"/>
-      <c r="W397" s="87"/>
-      <c r="X397" s="87"/>
-      <c r="Y397" s="87"/>
-      <c r="Z397" s="87"/>
-      <c r="AA397" s="87"/>
-      <c r="AB397" s="87"/>
+      <c r="R397" s="87" t="s">
+        <v>3686</v>
+      </c>
+      <c r="S397" s="87" t="s">
+        <v>3718</v>
+      </c>
+      <c r="T397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U397" s="87" t="s">
+        <v>3705</v>
+      </c>
+      <c r="V397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB397" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC397" s="87"/>
       <c r="AD397" s="87"/>
       <c r="AE397" s="87"/>
       <c r="AF397" s="87"/>
-      <c r="AG397" s="87"/>
-      <c r="AH397" s="87"/>
-      <c r="AI397" s="87"/>
-      <c r="AJ397" s="87"/>
-      <c r="AK397" s="87"/>
+      <c r="AG397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI397" s="87" t="s">
+        <v>3715</v>
+      </c>
+      <c r="AJ397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK397" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL397" s="87" t="s">
         <v>85</v>
       </c>
@@ -76926,7 +77152,7 @@
         <v>3575</v>
       </c>
       <c r="AY397" s="87" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="AZ397" s="87" t="s">
         <v>941</v>
@@ -76990,30 +77216,62 @@
         <v>0</v>
       </c>
       <c r="O398" s="87" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="P398" s="87"/>
       <c r="Q398" s="87"/>
-      <c r="R398" s="87"/>
-      <c r="S398" s="87"/>
-      <c r="T398" s="87"/>
-      <c r="U398" s="87"/>
-      <c r="V398" s="87"/>
-      <c r="W398" s="87"/>
-      <c r="X398" s="87"/>
-      <c r="Y398" s="87"/>
-      <c r="Z398" s="87"/>
-      <c r="AA398" s="87"/>
-      <c r="AB398" s="87"/>
+      <c r="R398" s="87" t="s">
+        <v>3685</v>
+      </c>
+      <c r="S398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U398" s="87" t="s">
+        <v>3706</v>
+      </c>
+      <c r="V398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB398" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC398" s="87"/>
       <c r="AD398" s="87"/>
       <c r="AE398" s="87"/>
       <c r="AF398" s="87"/>
-      <c r="AG398" s="87"/>
-      <c r="AH398" s="87"/>
-      <c r="AI398" s="87"/>
-      <c r="AJ398" s="87"/>
-      <c r="AK398" s="87"/>
+      <c r="AG398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI398" s="87" t="s">
+        <v>3711</v>
+      </c>
+      <c r="AJ398" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK398" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL398" s="87" t="s">
         <v>85</v>
       </c>
@@ -77054,7 +77312,7 @@
         <v>3596</v>
       </c>
       <c r="AY398" s="87" t="s">
-        <v>3647</v>
+        <v>3644</v>
       </c>
       <c r="AZ398" s="87" t="s">
         <v>941</v>
@@ -77118,30 +77376,62 @@
         <v>0</v>
       </c>
       <c r="O399" s="87" t="s">
-        <v>3631</v>
+        <v>3628</v>
       </c>
       <c r="P399" s="87"/>
       <c r="Q399" s="87"/>
-      <c r="R399" s="87"/>
-      <c r="S399" s="87"/>
-      <c r="T399" s="87"/>
-      <c r="U399" s="87"/>
-      <c r="V399" s="87"/>
-      <c r="W399" s="87"/>
-      <c r="X399" s="87"/>
-      <c r="Y399" s="87"/>
-      <c r="Z399" s="87"/>
-      <c r="AA399" s="87"/>
-      <c r="AB399" s="87"/>
+      <c r="R399" s="87" t="s">
+        <v>3684</v>
+      </c>
+      <c r="S399" s="87" t="s">
+        <v>3720</v>
+      </c>
+      <c r="T399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U399" s="87" t="s">
+        <v>3707</v>
+      </c>
+      <c r="V399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB399" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC399" s="87"/>
       <c r="AD399" s="87"/>
       <c r="AE399" s="87"/>
       <c r="AF399" s="87"/>
-      <c r="AG399" s="87"/>
-      <c r="AH399" s="87"/>
-      <c r="AI399" s="87"/>
-      <c r="AJ399" s="87"/>
-      <c r="AK399" s="87"/>
+      <c r="AG399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI399" s="87" t="s">
+        <v>3712</v>
+      </c>
+      <c r="AJ399" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK399" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL399" s="87" t="s">
         <v>85</v>
       </c>
@@ -77182,7 +77472,7 @@
         <v>3583</v>
       </c>
       <c r="AY399" s="87" t="s">
-        <v>3648</v>
+        <v>3645</v>
       </c>
       <c r="AZ399" s="87" t="s">
         <v>941</v>
@@ -77200,7 +77490,7 @@
         <v>82</v>
       </c>
       <c r="BE399" s="87" t="s">
-        <v>3620</v>
+        <v>3721</v>
       </c>
       <c r="BF399" s="87"/>
     </row>
@@ -77213,13 +77503,13 @@
         <v>91</v>
       </c>
       <c r="D400" s="89" t="s">
-        <v>3637</v>
+        <v>3634</v>
       </c>
       <c r="E400" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F400" s="87" t="s">
-        <v>3640</v>
+        <v>3637</v>
       </c>
       <c r="G400" s="87" t="s">
         <v>3563</v>
@@ -77246,30 +77536,62 @@
         <v>550</v>
       </c>
       <c r="O400" s="87" t="s">
-        <v>3632</v>
+        <v>3629</v>
       </c>
       <c r="P400" s="87"/>
       <c r="Q400" s="87"/>
-      <c r="R400" s="87"/>
-      <c r="S400" s="87"/>
-      <c r="T400" s="87"/>
-      <c r="U400" s="87"/>
-      <c r="V400" s="87"/>
-      <c r="W400" s="87"/>
-      <c r="X400" s="87"/>
-      <c r="Y400" s="87"/>
-      <c r="Z400" s="87"/>
-      <c r="AA400" s="87"/>
-      <c r="AB400" s="87"/>
+      <c r="R400" s="87" t="s">
+        <v>3699</v>
+      </c>
+      <c r="S400" s="87" t="s">
+        <v>3719</v>
+      </c>
+      <c r="T400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U400" s="87" t="s">
+        <v>3708</v>
+      </c>
+      <c r="V400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB400" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC400" s="87"/>
       <c r="AD400" s="87"/>
       <c r="AE400" s="87"/>
       <c r="AF400" s="87"/>
-      <c r="AG400" s="87"/>
-      <c r="AH400" s="87"/>
-      <c r="AI400" s="87"/>
-      <c r="AJ400" s="87"/>
-      <c r="AK400" s="87"/>
+      <c r="AG400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI400" s="87" t="s">
+        <v>3716</v>
+      </c>
+      <c r="AJ400" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK400" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL400" s="87" t="s">
         <v>85</v>
       </c>
@@ -77310,7 +77632,7 @@
         <v>3567</v>
       </c>
       <c r="AY400" s="87" t="s">
-        <v>3649</v>
+        <v>3646</v>
       </c>
       <c r="AZ400" s="87" t="s">
         <v>941</v>
@@ -77328,7 +77650,7 @@
         <v>81</v>
       </c>
       <c r="BE400" s="87" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="BF400" s="87"/>
     </row>
@@ -77374,30 +77696,62 @@
         <v>570</v>
       </c>
       <c r="O401" s="87" t="s">
-        <v>3633</v>
+        <v>3630</v>
       </c>
       <c r="P401" s="87"/>
       <c r="Q401" s="87"/>
-      <c r="R401" s="87"/>
-      <c r="S401" s="87"/>
-      <c r="T401" s="87"/>
-      <c r="U401" s="87"/>
-      <c r="V401" s="87"/>
-      <c r="W401" s="87"/>
-      <c r="X401" s="87"/>
-      <c r="Y401" s="87"/>
-      <c r="Z401" s="87"/>
-      <c r="AA401" s="87"/>
-      <c r="AB401" s="87"/>
+      <c r="R401" s="87" t="s">
+        <v>3700</v>
+      </c>
+      <c r="S401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U401" s="87" t="s">
+        <v>3709</v>
+      </c>
+      <c r="V401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB401" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC401" s="87"/>
       <c r="AD401" s="87"/>
       <c r="AE401" s="87"/>
       <c r="AF401" s="87"/>
-      <c r="AG401" s="87"/>
-      <c r="AH401" s="87"/>
-      <c r="AI401" s="87"/>
-      <c r="AJ401" s="87"/>
-      <c r="AK401" s="87"/>
+      <c r="AG401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI401" s="87" t="s">
+        <v>3713</v>
+      </c>
+      <c r="AJ401" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK401" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL401" s="87" t="s">
         <v>85</v>
       </c>
@@ -77438,7 +77792,7 @@
         <v>3572</v>
       </c>
       <c r="AY401" s="87" t="s">
-        <v>3650</v>
+        <v>3647</v>
       </c>
       <c r="AZ401" s="87" t="s">
         <v>941</v>
@@ -77502,30 +77856,62 @@
         <v>0</v>
       </c>
       <c r="O402" s="87" t="s">
-        <v>3634</v>
+        <v>3631</v>
       </c>
       <c r="P402" s="87"/>
       <c r="Q402" s="87"/>
-      <c r="R402" s="87"/>
-      <c r="S402" s="87"/>
-      <c r="T402" s="87"/>
-      <c r="U402" s="87"/>
-      <c r="V402" s="87"/>
-      <c r="W402" s="87"/>
-      <c r="X402" s="87"/>
-      <c r="Y402" s="87"/>
-      <c r="Z402" s="87"/>
-      <c r="AA402" s="87"/>
-      <c r="AB402" s="87"/>
+      <c r="R402" s="87" t="s">
+        <v>3700</v>
+      </c>
+      <c r="S402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U402" s="87" t="s">
+        <v>3710</v>
+      </c>
+      <c r="V402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB402" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC402" s="87"/>
       <c r="AD402" s="87"/>
       <c r="AE402" s="87"/>
       <c r="AF402" s="87"/>
-      <c r="AG402" s="87"/>
-      <c r="AH402" s="87"/>
-      <c r="AI402" s="87"/>
-      <c r="AJ402" s="87"/>
-      <c r="AK402" s="87"/>
+      <c r="AG402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI402" s="87" t="s">
+        <v>3717</v>
+      </c>
+      <c r="AJ402" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK402" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL402" s="87" t="s">
         <v>85</v>
       </c>
@@ -77566,7 +77952,7 @@
         <v>3587</v>
       </c>
       <c r="AY402" s="87" t="s">
-        <v>3651</v>
+        <v>3648</v>
       </c>
       <c r="AZ402" s="87" t="s">
         <v>941</v>
@@ -77634,26 +78020,58 @@
       </c>
       <c r="P403" s="87"/>
       <c r="Q403" s="87"/>
-      <c r="R403" s="87"/>
-      <c r="S403" s="87"/>
-      <c r="T403" s="87"/>
-      <c r="U403" s="87"/>
-      <c r="V403" s="87"/>
-      <c r="W403" s="87"/>
-      <c r="X403" s="87"/>
-      <c r="Y403" s="87"/>
-      <c r="Z403" s="87"/>
-      <c r="AA403" s="87"/>
-      <c r="AB403" s="87"/>
+      <c r="R403" s="87" t="s">
+        <v>3700</v>
+      </c>
+      <c r="S403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB403" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC403" s="87"/>
       <c r="AD403" s="87"/>
       <c r="AE403" s="87"/>
       <c r="AF403" s="87"/>
-      <c r="AG403" s="87"/>
-      <c r="AH403" s="87"/>
-      <c r="AI403" s="87"/>
-      <c r="AJ403" s="87"/>
-      <c r="AK403" s="87"/>
+      <c r="AG403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI403" s="87" t="s">
+        <v>3714</v>
+      </c>
+      <c r="AJ403" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK403" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL403" s="87" t="s">
         <v>85</v>
       </c>
@@ -77694,7 +78112,7 @@
         <v>3591</v>
       </c>
       <c r="AY403" s="87" t="s">
-        <v>3641</v>
+        <v>3638</v>
       </c>
       <c r="AZ403" s="87" t="s">
         <v>941</v>
@@ -77712,7 +78130,7 @@
         <v>79</v>
       </c>
       <c r="BE403" s="87" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="BF403" s="87"/>
     </row>
@@ -77820,30 +78238,62 @@
         <v>0</v>
       </c>
       <c r="O405" s="87" t="s">
-        <v>3635</v>
+        <v>3632</v>
       </c>
       <c r="P405" s="87"/>
       <c r="Q405" s="87"/>
-      <c r="R405" s="87"/>
-      <c r="S405" s="87"/>
-      <c r="T405" s="87"/>
-      <c r="U405" s="87"/>
-      <c r="V405" s="87"/>
-      <c r="W405" s="87"/>
-      <c r="X405" s="87"/>
-      <c r="Y405" s="87"/>
-      <c r="Z405" s="87"/>
-      <c r="AA405" s="87"/>
-      <c r="AB405" s="87"/>
+      <c r="R405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="S405" s="87" t="s">
+        <v>3695</v>
+      </c>
+      <c r="T405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB405" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC405" s="87"/>
       <c r="AD405" s="87"/>
       <c r="AE405" s="87"/>
       <c r="AF405" s="87"/>
-      <c r="AG405" s="87"/>
-      <c r="AH405" s="87"/>
-      <c r="AI405" s="87"/>
-      <c r="AJ405" s="87"/>
-      <c r="AK405" s="87"/>
+      <c r="AG405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ405" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK405" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL405" s="87" t="s">
         <v>186</v>
       </c>
@@ -77884,7 +78334,7 @@
         <v>3616</v>
       </c>
       <c r="AY405" s="87" t="s">
-        <v>3643</v>
+        <v>3640</v>
       </c>
       <c r="AZ405" s="87" t="s">
         <v>941</v>
@@ -77902,7 +78352,7 @@
         <v>20080</v>
       </c>
       <c r="BE405" s="87" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="BF405" s="87"/>
     </row>
@@ -77948,30 +78398,62 @@
         <v>550</v>
       </c>
       <c r="O406" s="87" t="s">
-        <v>3632</v>
+        <v>3629</v>
       </c>
       <c r="P406" s="87"/>
       <c r="Q406" s="87"/>
-      <c r="R406" s="87"/>
-      <c r="S406" s="87"/>
-      <c r="T406" s="87"/>
-      <c r="U406" s="87"/>
-      <c r="V406" s="87"/>
-      <c r="W406" s="87"/>
-      <c r="X406" s="87"/>
-      <c r="Y406" s="87"/>
-      <c r="Z406" s="87"/>
-      <c r="AA406" s="87"/>
-      <c r="AB406" s="87"/>
+      <c r="R406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="S406" s="87" t="s">
+        <v>3693</v>
+      </c>
+      <c r="T406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB406" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC406" s="87"/>
       <c r="AD406" s="87"/>
       <c r="AE406" s="87"/>
       <c r="AF406" s="87"/>
-      <c r="AG406" s="87"/>
-      <c r="AH406" s="87"/>
-      <c r="AI406" s="87"/>
-      <c r="AJ406" s="87"/>
-      <c r="AK406" s="87"/>
+      <c r="AG406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ406" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK406" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL406" s="87" t="s">
         <v>186</v>
       </c>
@@ -78012,7 +78494,7 @@
         <v>3612</v>
       </c>
       <c r="AY406" s="87" t="s">
-        <v>3644</v>
+        <v>3641</v>
       </c>
       <c r="AZ406" s="87" t="s">
         <v>941</v>
@@ -78030,7 +78512,7 @@
         <v>20077</v>
       </c>
       <c r="BE406" s="87" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="BF406" s="87"/>
     </row>
@@ -78076,30 +78558,62 @@
         <v>0</v>
       </c>
       <c r="O407" s="87" t="s">
-        <v>3633</v>
+        <v>3630</v>
       </c>
       <c r="P407" s="87"/>
       <c r="Q407" s="87"/>
-      <c r="R407" s="87"/>
-      <c r="S407" s="87"/>
-      <c r="T407" s="87"/>
-      <c r="U407" s="87"/>
-      <c r="V407" s="87"/>
-      <c r="W407" s="87"/>
-      <c r="X407" s="87"/>
-      <c r="Y407" s="87"/>
-      <c r="Z407" s="87"/>
-      <c r="AA407" s="87"/>
-      <c r="AB407" s="87"/>
+      <c r="R407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="S407" s="87" t="s">
+        <v>3698</v>
+      </c>
+      <c r="T407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB407" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC407" s="87"/>
       <c r="AD407" s="87"/>
       <c r="AE407" s="87"/>
       <c r="AF407" s="87"/>
-      <c r="AG407" s="87"/>
-      <c r="AH407" s="87"/>
-      <c r="AI407" s="87"/>
-      <c r="AJ407" s="87"/>
-      <c r="AK407" s="87"/>
+      <c r="AG407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ407" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK407" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL407" s="87" t="s">
         <v>186</v>
       </c>
@@ -78140,7 +78654,7 @@
         <v>3608</v>
       </c>
       <c r="AY407" s="87" t="s">
-        <v>3645</v>
+        <v>3642</v>
       </c>
       <c r="AZ407" s="87" t="s">
         <v>941</v>
@@ -78158,7 +78672,7 @@
         <v>20079</v>
       </c>
       <c r="BE407" s="87" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="BF407" s="87"/>
     </row>
@@ -78206,26 +78720,58 @@
       <c r="O408" s="87"/>
       <c r="P408" s="87"/>
       <c r="Q408" s="87"/>
-      <c r="R408" s="87"/>
-      <c r="S408" s="87"/>
-      <c r="T408" s="87"/>
-      <c r="U408" s="87"/>
-      <c r="V408" s="87"/>
-      <c r="W408" s="87"/>
-      <c r="X408" s="87"/>
-      <c r="Y408" s="87"/>
-      <c r="Z408" s="87"/>
-      <c r="AA408" s="87"/>
-      <c r="AB408" s="87"/>
+      <c r="R408" s="87" t="s">
+        <v>3682</v>
+      </c>
+      <c r="S408" s="87" t="s">
+        <v>3695</v>
+      </c>
+      <c r="T408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z408" s="87" t="s">
+        <v>3696</v>
+      </c>
+      <c r="AA408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB408" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC408" s="87"/>
       <c r="AD408" s="87"/>
       <c r="AE408" s="87"/>
       <c r="AF408" s="87"/>
-      <c r="AG408" s="87"/>
-      <c r="AH408" s="87"/>
-      <c r="AI408" s="87"/>
-      <c r="AJ408" s="87"/>
-      <c r="AK408" s="87"/>
+      <c r="AG408" s="87" t="s">
+        <v>3697</v>
+      </c>
+      <c r="AH408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK408" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL408" s="87" t="s">
         <v>186</v>
       </c>
@@ -78266,7 +78812,7 @@
         <v>3604</v>
       </c>
       <c r="AY408" s="87" t="s">
-        <v>3643</v>
+        <v>3640</v>
       </c>
       <c r="AZ408" s="87" t="s">
         <v>941</v>
@@ -78284,7 +78830,7 @@
         <v>20081</v>
       </c>
       <c r="BE408" s="87" t="s">
-        <v>3623</v>
+        <v>3691</v>
       </c>
       <c r="BF408" s="87"/>
     </row>
@@ -78332,26 +78878,58 @@
       <c r="O409" s="87"/>
       <c r="P409" s="87"/>
       <c r="Q409" s="87"/>
-      <c r="R409" s="87"/>
-      <c r="S409" s="87"/>
-      <c r="T409" s="87"/>
-      <c r="U409" s="87"/>
-      <c r="V409" s="87"/>
-      <c r="W409" s="87"/>
-      <c r="X409" s="87"/>
-      <c r="Y409" s="87"/>
-      <c r="Z409" s="87"/>
-      <c r="AA409" s="87"/>
-      <c r="AB409" s="87"/>
+      <c r="R409" s="87" t="s">
+        <v>3683</v>
+      </c>
+      <c r="S409" s="87" t="s">
+        <v>3693</v>
+      </c>
+      <c r="T409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z409" s="87" t="s">
+        <v>3694</v>
+      </c>
+      <c r="AA409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB409" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC409" s="87"/>
       <c r="AD409" s="87"/>
       <c r="AE409" s="87"/>
       <c r="AF409" s="87"/>
-      <c r="AG409" s="87"/>
-      <c r="AH409" s="87"/>
-      <c r="AI409" s="87"/>
-      <c r="AJ409" s="87"/>
-      <c r="AK409" s="87"/>
+      <c r="AG409" s="87" t="s">
+        <v>3692</v>
+      </c>
+      <c r="AH409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK409" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL409" s="87" t="s">
         <v>186</v>
       </c>
@@ -78392,7 +78970,7 @@
         <v>3600</v>
       </c>
       <c r="AY409" s="87" t="s">
-        <v>3644</v>
+        <v>3641</v>
       </c>
       <c r="AZ409" s="87" t="s">
         <v>941</v>
@@ -78410,7 +78988,7 @@
         <v>20078</v>
       </c>
       <c r="BE409" s="87" t="s">
-        <v>3624</v>
+        <v>3690</v>
       </c>
       <c r="BF409" s="87"/>
     </row>
@@ -78482,22 +79060,22 @@
         <v>44551</v>
       </c>
       <c r="C411" s="87">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D411" s="89" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="E411" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F411" s="87" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="G411" s="87" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="H411" s="93" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="I411" s="87" t="s">
         <v>3565</v>
@@ -78518,30 +79096,64 @@
         <v>0</v>
       </c>
       <c r="O411" s="87" t="s">
-        <v>3465</v>
-      </c>
-      <c r="P411" s="87"/>
+        <v>3675</v>
+      </c>
+      <c r="P411" s="87" t="s">
+        <v>3676</v>
+      </c>
       <c r="Q411" s="87"/>
-      <c r="R411" s="87"/>
-      <c r="S411" s="87"/>
-      <c r="T411" s="87"/>
-      <c r="U411" s="87"/>
-      <c r="V411" s="87"/>
-      <c r="W411" s="87"/>
-      <c r="X411" s="87"/>
-      <c r="Y411" s="87"/>
-      <c r="Z411" s="87"/>
-      <c r="AA411" s="87"/>
-      <c r="AB411" s="87"/>
+      <c r="R411" s="87" t="s">
+        <v>3677</v>
+      </c>
+      <c r="S411" s="87" t="s">
+        <v>3674</v>
+      </c>
+      <c r="T411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB411" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC411" s="87"/>
       <c r="AD411" s="87"/>
       <c r="AE411" s="87"/>
       <c r="AF411" s="87"/>
-      <c r="AG411" s="87"/>
-      <c r="AH411" s="87"/>
-      <c r="AI411" s="87"/>
-      <c r="AJ411" s="87"/>
-      <c r="AK411" s="87"/>
+      <c r="AG411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK411" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL411" s="87" t="s">
         <v>310</v>
       </c>
@@ -78579,10 +79191,10 @@
         <v>888</v>
       </c>
       <c r="AX411" s="87" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="AY411" s="87" t="s">
-        <v>941</v>
+        <v>3722</v>
       </c>
       <c r="AZ411" s="87" t="s">
         <v>941</v>
@@ -78591,11 +79203,17 @@
         <v>941</v>
       </c>
       <c r="BB411" s="87" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC411" s="87"/>
-      <c r="BD411" s="87"/>
-      <c r="BE411" s="87"/>
+        <v>3666</v>
+      </c>
+      <c r="BC411" s="87">
+        <v>30111</v>
+      </c>
+      <c r="BD411" s="87">
+        <v>30111</v>
+      </c>
+      <c r="BE411" s="87" t="s">
+        <v>3671</v>
+      </c>
       <c r="BF411" s="87"/>
     </row>
     <row r="412" spans="1:58" x14ac:dyDescent="0.25">
@@ -78604,22 +79222,22 @@
         <v>44551</v>
       </c>
       <c r="C412" s="87">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D412" s="89" t="s">
-        <v>3656</v>
+        <v>3661</v>
       </c>
       <c r="E412" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F412" s="87" t="s">
-        <v>3657</v>
+        <v>3662</v>
       </c>
       <c r="G412" s="87" t="s">
-        <v>3658</v>
+        <v>3663</v>
       </c>
       <c r="H412" s="93" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="I412" s="87" t="s">
         <v>3565</v>
@@ -78640,30 +79258,64 @@
         <v>0</v>
       </c>
       <c r="O412" s="87" t="s">
-        <v>3465</v>
-      </c>
-      <c r="P412" s="87"/>
+        <v>3678</v>
+      </c>
+      <c r="P412" s="87" t="s">
+        <v>3679</v>
+      </c>
       <c r="Q412" s="87"/>
-      <c r="R412" s="87"/>
-      <c r="S412" s="87"/>
-      <c r="T412" s="87"/>
-      <c r="U412" s="87"/>
-      <c r="V412" s="87"/>
-      <c r="W412" s="87"/>
-      <c r="X412" s="87"/>
-      <c r="Y412" s="87"/>
-      <c r="Z412" s="87"/>
-      <c r="AA412" s="87"/>
-      <c r="AB412" s="87"/>
+      <c r="R412" s="87" t="s">
+        <v>3677</v>
+      </c>
+      <c r="S412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB412" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC412" s="87"/>
       <c r="AD412" s="87"/>
       <c r="AE412" s="87"/>
       <c r="AF412" s="87"/>
-      <c r="AG412" s="87"/>
-      <c r="AH412" s="87"/>
-      <c r="AI412" s="87"/>
-      <c r="AJ412" s="87"/>
-      <c r="AK412" s="87"/>
+      <c r="AG412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK412" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL412" s="87" t="s">
         <v>310</v>
       </c>
@@ -78701,7 +79353,7 @@
         <v>888</v>
       </c>
       <c r="AX412" s="87" t="s">
-        <v>3659</v>
+        <v>3664</v>
       </c>
       <c r="AY412" s="87" t="s">
         <v>941</v>
@@ -78713,11 +79365,17 @@
         <v>941</v>
       </c>
       <c r="BB412" s="87" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC412" s="87"/>
-      <c r="BD412" s="87"/>
-      <c r="BE412" s="87"/>
+        <v>3667</v>
+      </c>
+      <c r="BC412" s="87">
+        <v>30113</v>
+      </c>
+      <c r="BD412" s="87">
+        <v>30113</v>
+      </c>
+      <c r="BE412" s="87" t="s">
+        <v>3670</v>
+      </c>
       <c r="BF412" s="87"/>
     </row>
     <row r="413" spans="1:58" x14ac:dyDescent="0.25">
@@ -78726,22 +79384,22 @@
         <v>44551</v>
       </c>
       <c r="C413" s="87">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D413" s="89" t="s">
-        <v>3660</v>
+        <v>3649</v>
       </c>
       <c r="E413" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F413" s="87" t="s">
-        <v>3661</v>
+        <v>3650</v>
       </c>
       <c r="G413" s="87" t="s">
-        <v>3662</v>
+        <v>3651</v>
       </c>
       <c r="H413" s="93" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="I413" s="87" t="s">
         <v>3565</v>
@@ -78762,30 +79420,64 @@
         <v>0</v>
       </c>
       <c r="O413" s="87" t="s">
-        <v>3465</v>
-      </c>
-      <c r="P413" s="87"/>
+        <v>3680</v>
+      </c>
+      <c r="P413" s="87" t="s">
+        <v>3676</v>
+      </c>
       <c r="Q413" s="87"/>
-      <c r="R413" s="87"/>
-      <c r="S413" s="87"/>
-      <c r="T413" s="87"/>
-      <c r="U413" s="87"/>
-      <c r="V413" s="87"/>
-      <c r="W413" s="87"/>
-      <c r="X413" s="87"/>
-      <c r="Y413" s="87"/>
-      <c r="Z413" s="87"/>
-      <c r="AA413" s="87"/>
-      <c r="AB413" s="87"/>
+      <c r="R413" s="87" t="s">
+        <v>3677</v>
+      </c>
+      <c r="S413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U413" s="87" t="s">
+        <v>3703</v>
+      </c>
+      <c r="V413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB413" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC413" s="87"/>
       <c r="AD413" s="87"/>
       <c r="AE413" s="87"/>
       <c r="AF413" s="87"/>
-      <c r="AG413" s="87"/>
-      <c r="AH413" s="87"/>
-      <c r="AI413" s="87"/>
-      <c r="AJ413" s="87"/>
-      <c r="AK413" s="87"/>
+      <c r="AG413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK413" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL413" s="87" t="s">
         <v>310</v>
       </c>
@@ -78823,7 +79515,7 @@
         <v>888</v>
       </c>
       <c r="AX413" s="87" t="s">
-        <v>3663</v>
+        <v>3652</v>
       </c>
       <c r="AY413" s="87" t="s">
         <v>941</v>
@@ -78835,11 +79527,17 @@
         <v>941</v>
       </c>
       <c r="BB413" s="87" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC413" s="87"/>
-      <c r="BD413" s="87"/>
-      <c r="BE413" s="87"/>
+        <v>3668</v>
+      </c>
+      <c r="BC413" s="87">
+        <v>30109</v>
+      </c>
+      <c r="BD413" s="87">
+        <v>30109</v>
+      </c>
+      <c r="BE413" s="87" t="s">
+        <v>3672</v>
+      </c>
       <c r="BF413" s="87"/>
     </row>
     <row r="414" spans="1:58" x14ac:dyDescent="0.25">
@@ -78848,22 +79546,22 @@
         <v>44551</v>
       </c>
       <c r="C414" s="87">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D414" s="89" t="s">
-        <v>3664</v>
+        <v>3657</v>
       </c>
       <c r="E414" s="87" t="s">
         <v>3562</v>
       </c>
       <c r="F414" s="87" t="s">
+        <v>3658</v>
+      </c>
+      <c r="G414" s="87" t="s">
+        <v>3659</v>
+      </c>
+      <c r="H414" s="93" t="s">
         <v>3665</v>
-      </c>
-      <c r="G414" s="87" t="s">
-        <v>3666</v>
-      </c>
-      <c r="H414" s="93" t="s">
-        <v>3668</v>
       </c>
       <c r="I414" s="87" t="s">
         <v>3565</v>
@@ -78884,30 +79582,64 @@
         <v>0</v>
       </c>
       <c r="O414" s="87" t="s">
-        <v>3465</v>
-      </c>
-      <c r="P414" s="87"/>
+        <v>3681</v>
+      </c>
+      <c r="P414" s="87" t="s">
+        <v>3676</v>
+      </c>
       <c r="Q414" s="87"/>
-      <c r="R414" s="87"/>
-      <c r="S414" s="87"/>
-      <c r="T414" s="87"/>
-      <c r="U414" s="87"/>
-      <c r="V414" s="87"/>
-      <c r="W414" s="87"/>
-      <c r="X414" s="87"/>
-      <c r="Y414" s="87"/>
-      <c r="Z414" s="87"/>
-      <c r="AA414" s="87"/>
-      <c r="AB414" s="87"/>
+      <c r="R414" s="87" t="s">
+        <v>3677</v>
+      </c>
+      <c r="S414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="T414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U414" s="87" t="s">
+        <v>3689</v>
+      </c>
+      <c r="V414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="W414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="X414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Y414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Z414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AA414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AB414" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AC414" s="87"/>
       <c r="AD414" s="87"/>
       <c r="AE414" s="87"/>
       <c r="AF414" s="87"/>
-      <c r="AG414" s="87"/>
-      <c r="AH414" s="87"/>
-      <c r="AI414" s="87"/>
-      <c r="AJ414" s="87"/>
-      <c r="AK414" s="87"/>
+      <c r="AG414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AH414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AI414" s="87" t="s">
+        <v>3688</v>
+      </c>
+      <c r="AJ414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AK414" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AL414" s="87" t="s">
         <v>310</v>
       </c>
@@ -78945,7 +79677,7 @@
         <v>888</v>
       </c>
       <c r="AX414" s="87" t="s">
-        <v>3667</v>
+        <v>3660</v>
       </c>
       <c r="AY414" s="87" t="s">
         <v>941</v>
@@ -78957,11 +79689,17 @@
         <v>941</v>
       </c>
       <c r="BB414" s="87" t="s">
-        <v>941</v>
-      </c>
-      <c r="BC414" s="87"/>
-      <c r="BD414" s="87"/>
-      <c r="BE414" s="87"/>
+        <v>3669</v>
+      </c>
+      <c r="BC414" s="87">
+        <v>30107</v>
+      </c>
+      <c r="BD414" s="87">
+        <v>30107</v>
+      </c>
+      <c r="BE414" s="87" t="s">
+        <v>3673</v>
+      </c>
       <c r="BF414" s="87"/>
     </row>
     <row r="415" spans="1:58" x14ac:dyDescent="0.25">
@@ -79258,7 +79996,7 @@
   <conditionalFormatting sqref="O416">
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F410 F415 F394:F395 F404 F300:F312 F387:F391">
+  <conditionalFormatting sqref="F415 F410 F394:F395 F404 F300:F312 F387:F391">
     <cfRule type="duplicateValues" dxfId="7" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F396:F403">
@@ -79277,10 +80015,10 @@
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F411:F414">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O411:O414">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6198CA97-CF2C-4106-8766-03D6E318CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C404E1-B47B-4D7B-81B2-0F4D9EC745B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53655" yWindow="1710" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="46365" yWindow="2265" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18532" uniqueCount="3723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18532" uniqueCount="3726">
   <si>
     <t>date:</t>
   </si>
@@ -11228,6 +11228,15 @@
   </si>
   <si>
     <t>['Erichthonios']</t>
+  </si>
+  <si>
+    <t>['Hippokampos']</t>
+  </si>
+  <si>
+    <t>['Hesperos']</t>
+  </si>
+  <si>
+    <t>['Phoinix']</t>
   </si>
 </sst>
 </file>
@@ -12398,10 +12407,10 @@
   <dimension ref="A1:BF417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G374" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AR374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S418" sqref="S418"/>
+      <selection pane="bottomRight" activeCell="AY414" sqref="AY414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -79356,7 +79365,7 @@
         <v>3664</v>
       </c>
       <c r="AY412" s="87" t="s">
-        <v>941</v>
+        <v>3723</v>
       </c>
       <c r="AZ412" s="87" t="s">
         <v>941</v>
@@ -79518,7 +79527,7 @@
         <v>3652</v>
       </c>
       <c r="AY413" s="87" t="s">
-        <v>941</v>
+        <v>3725</v>
       </c>
       <c r="AZ413" s="87" t="s">
         <v>941</v>
@@ -79680,7 +79689,7 @@
         <v>3660</v>
       </c>
       <c r="AY414" s="87" t="s">
-        <v>941</v>
+        <v>3724</v>
       </c>
       <c r="AZ414" s="87" t="s">
         <v>941</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C404E1-B47B-4D7B-81B2-0F4D9EC745B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1574165-5FDD-44E3-8404-E5F38EEB20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46365" yWindow="2265" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-435" yWindow="3105" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18532" uniqueCount="3726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18574" uniqueCount="3734">
   <si>
     <t>date:</t>
   </si>
@@ -11237,6 +11237,30 @@
   </si>
   <si>
     <t>['Phoinix']</t>
+  </si>
+  <si>
+    <t>QGJ8pA3-n3o</t>
+  </si>
+  <si>
+    <t>m8dc8Sfhle0</t>
+  </si>
+  <si>
+    <t>BvgNaXBviRc</t>
+  </si>
+  <si>
+    <t>E53vQo-HPGc</t>
+  </si>
+  <si>
+    <t>aKNBtP3m5Cw</t>
+  </si>
+  <si>
+    <t>PXgkkoNF4_4</t>
+  </si>
+  <si>
+    <t>lOAZU9kbrQ4</t>
+  </si>
+  <si>
+    <t>NaMGchE1iIc</t>
   </si>
 </sst>
 </file>
@@ -12407,10 +12431,10 @@
   <dimension ref="A1:BF417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AR374" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="X371" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY414" sqref="AY414"/>
+      <selection pane="bottomRight" activeCell="AF400" sqref="AF400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -76943,9 +76967,15 @@
         <v>3175</v>
       </c>
       <c r="AC396" s="87"/>
-      <c r="AD396" s="87"/>
-      <c r="AE396" s="87"/>
-      <c r="AF396" s="87"/>
+      <c r="AD396" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE396" s="87" t="s">
+        <v>3730</v>
+      </c>
+      <c r="AF396" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG396" s="87" t="s">
         <v>3175</v>
       </c>
@@ -77103,9 +77133,15 @@
         <v>3175</v>
       </c>
       <c r="AC397" s="87"/>
-      <c r="AD397" s="87"/>
-      <c r="AE397" s="87"/>
-      <c r="AF397" s="87"/>
+      <c r="AD397" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE397" s="87" t="s">
+        <v>3731</v>
+      </c>
+      <c r="AF397" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG397" s="87" t="s">
         <v>3175</v>
       </c>
@@ -77263,9 +77299,13 @@
         <v>3175</v>
       </c>
       <c r="AC398" s="87"/>
-      <c r="AD398" s="87"/>
+      <c r="AD398" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE398" s="87"/>
-      <c r="AF398" s="87"/>
+      <c r="AF398" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG398" s="87" t="s">
         <v>3175</v>
       </c>
@@ -77423,9 +77463,13 @@
         <v>3175</v>
       </c>
       <c r="AC399" s="87"/>
-      <c r="AD399" s="87"/>
+      <c r="AD399" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE399" s="87"/>
-      <c r="AF399" s="87"/>
+      <c r="AF399" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG399" s="87" t="s">
         <v>3175</v>
       </c>
@@ -77583,9 +77627,13 @@
         <v>3175</v>
       </c>
       <c r="AC400" s="87"/>
-      <c r="AD400" s="87"/>
+      <c r="AD400" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE400" s="87"/>
-      <c r="AF400" s="87"/>
+      <c r="AF400" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG400" s="87" t="s">
         <v>3175</v>
       </c>
@@ -77743,9 +77791,13 @@
         <v>3175</v>
       </c>
       <c r="AC401" s="87"/>
-      <c r="AD401" s="87"/>
+      <c r="AD401" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE401" s="87"/>
-      <c r="AF401" s="87"/>
+      <c r="AF401" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG401" s="87" t="s">
         <v>3175</v>
       </c>
@@ -77903,9 +77955,13 @@
         <v>3175</v>
       </c>
       <c r="AC402" s="87"/>
-      <c r="AD402" s="87"/>
+      <c r="AD402" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE402" s="87"/>
-      <c r="AF402" s="87"/>
+      <c r="AF402" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG402" s="87" t="s">
         <v>3175</v>
       </c>
@@ -78063,9 +78119,13 @@
         <v>3175</v>
       </c>
       <c r="AC403" s="87"/>
-      <c r="AD403" s="87"/>
+      <c r="AD403" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE403" s="87"/>
-      <c r="AF403" s="87"/>
+      <c r="AF403" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG403" s="87" t="s">
         <v>3175</v>
       </c>
@@ -78285,9 +78345,13 @@
         <v>3175</v>
       </c>
       <c r="AC405" s="87"/>
-      <c r="AD405" s="87"/>
+      <c r="AD405" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE405" s="87"/>
-      <c r="AF405" s="87"/>
+      <c r="AF405" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG405" s="87" t="s">
         <v>3175</v>
       </c>
@@ -78445,9 +78509,13 @@
         <v>3175</v>
       </c>
       <c r="AC406" s="87"/>
-      <c r="AD406" s="87"/>
+      <c r="AD406" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE406" s="87"/>
-      <c r="AF406" s="87"/>
+      <c r="AF406" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG406" s="87" t="s">
         <v>3175</v>
       </c>
@@ -78605,9 +78673,13 @@
         <v>3175</v>
       </c>
       <c r="AC407" s="87"/>
-      <c r="AD407" s="87"/>
+      <c r="AD407" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AE407" s="87"/>
-      <c r="AF407" s="87"/>
+      <c r="AF407" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG407" s="87" t="s">
         <v>3175</v>
       </c>
@@ -78763,9 +78835,15 @@
         <v>3175</v>
       </c>
       <c r="AC408" s="87"/>
-      <c r="AD408" s="87"/>
-      <c r="AE408" s="87"/>
-      <c r="AF408" s="87"/>
+      <c r="AD408" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE408" s="87" t="s">
+        <v>3733</v>
+      </c>
+      <c r="AF408" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG408" s="87" t="s">
         <v>3697</v>
       </c>
@@ -78921,9 +78999,15 @@
         <v>3175</v>
       </c>
       <c r="AC409" s="87"/>
-      <c r="AD409" s="87"/>
-      <c r="AE409" s="87"/>
-      <c r="AF409" s="87"/>
+      <c r="AD409" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE409" s="87" t="s">
+        <v>3732</v>
+      </c>
+      <c r="AF409" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG409" s="87" t="s">
         <v>3692</v>
       </c>
@@ -79145,9 +79229,15 @@
         <v>3175</v>
       </c>
       <c r="AC411" s="87"/>
-      <c r="AD411" s="87"/>
-      <c r="AE411" s="87"/>
-      <c r="AF411" s="87"/>
+      <c r="AD411" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE411" s="87" t="s">
+        <v>3726</v>
+      </c>
+      <c r="AF411" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG411" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79307,9 +79397,15 @@
         <v>3175</v>
       </c>
       <c r="AC412" s="87"/>
-      <c r="AD412" s="87"/>
-      <c r="AE412" s="87"/>
-      <c r="AF412" s="87"/>
+      <c r="AD412" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE412" s="87" t="s">
+        <v>3727</v>
+      </c>
+      <c r="AF412" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG412" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79469,9 +79565,15 @@
         <v>3175</v>
       </c>
       <c r="AC413" s="87"/>
-      <c r="AD413" s="87"/>
-      <c r="AE413" s="87"/>
-      <c r="AF413" s="87"/>
+      <c r="AD413" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE413" s="87" t="s">
+        <v>3728</v>
+      </c>
+      <c r="AF413" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG413" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79631,9 +79733,15 @@
         <v>3175</v>
       </c>
       <c r="AC414" s="87"/>
-      <c r="AD414" s="87"/>
-      <c r="AE414" s="87"/>
-      <c r="AF414" s="87"/>
+      <c r="AD414" s="87" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE414" s="87" t="s">
+        <v>3729</v>
+      </c>
+      <c r="AF414" s="87" t="s">
+        <v>3175</v>
+      </c>
       <c r="AG414" s="87" t="s">
         <v>3175</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1574165-5FDD-44E3-8404-E5F38EEB20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689A94B-8D9D-42E0-9431-4007FAFB65DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-435" yWindow="3105" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18574" uniqueCount="3734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18580" uniqueCount="3740">
   <si>
     <t>date:</t>
   </si>
@@ -11261,6 +11261,24 @@
   </si>
   <si>
     <t>NaMGchE1iIc</t>
+  </si>
+  <si>
+    <t>D37pzCpyhmo</t>
+  </si>
+  <si>
+    <t>HuMNEyruE6k</t>
+  </si>
+  <si>
+    <t>WNkoH_VIkQ8</t>
+  </si>
+  <si>
+    <t>HCh0pu1SKvU</t>
+  </si>
+  <si>
+    <t>NRbd2o8VmbM</t>
+  </si>
+  <si>
+    <t>MrxswPOtmO0</t>
   </si>
 </sst>
 </file>
@@ -12434,7 +12452,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="X371" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF400" sqref="AF400"/>
+      <selection pane="bottomRight" activeCell="AE410" sqref="AE410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -78834,7 +78852,9 @@
       <c r="AB408" s="87" t="s">
         <v>3175</v>
       </c>
-      <c r="AC408" s="87"/>
+      <c r="AC408" s="87" t="s">
+        <v>3734</v>
+      </c>
       <c r="AD408" s="87" t="s">
         <v>3175</v>
       </c>
@@ -78998,7 +79018,9 @@
       <c r="AB409" s="87" t="s">
         <v>3175</v>
       </c>
-      <c r="AC409" s="87"/>
+      <c r="AC409" s="87" t="s">
+        <v>3735</v>
+      </c>
       <c r="AD409" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79228,7 +79250,9 @@
       <c r="AB411" s="87" t="s">
         <v>3175</v>
       </c>
-      <c r="AC411" s="87"/>
+      <c r="AC411" s="87" t="s">
+        <v>3737</v>
+      </c>
       <c r="AD411" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79396,7 +79420,9 @@
       <c r="AB412" s="87" t="s">
         <v>3175</v>
       </c>
-      <c r="AC412" s="87"/>
+      <c r="AC412" s="87" t="s">
+        <v>3736</v>
+      </c>
       <c r="AD412" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79564,7 +79590,9 @@
       <c r="AB413" s="87" t="s">
         <v>3175</v>
       </c>
-      <c r="AC413" s="87"/>
+      <c r="AC413" s="87" t="s">
+        <v>3738</v>
+      </c>
       <c r="AD413" s="87" t="s">
         <v>3175</v>
       </c>
@@ -79732,7 +79760,9 @@
       <c r="AB414" s="87" t="s">
         <v>3175</v>
       </c>
-      <c r="AC414" s="87"/>
+      <c r="AC414" s="87" t="s">
+        <v>3739</v>
+      </c>
       <c r="AD414" s="87" t="s">
         <v>3175</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F0051-2C9E-4FEF-92AE-EDFA9BCA5305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83FE3F0-14F6-459D-AD5B-F231AC2645A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="2985" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13523" uniqueCount="3332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13522" uniqueCount="3331">
   <si>
     <t>date:</t>
   </si>
@@ -10053,9 +10053,6 @@
   </si>
   <si>
     <t>Zadnor-Hochebene</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -11107,7 +11104,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AS423"/>
+  <dimension ref="A1:AS422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="O377" activePane="bottomRight" state="frozen"/>
@@ -64095,11 +64092,6 @@
       <c r="AQ422" s="56"/>
       <c r="AR422" s="56"/>
       <c r="AS422" s="56"/>
-    </row>
-    <row r="423" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
-        <v>3331</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AS422" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE3AD9-3D39-45D6-B9B2-9117DD03581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1672AA1-2E7A-4AFA-9A04-E23588E01722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="3465" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -10051,7 +10051,7 @@
     <t>Zadnor-Hochebene</t>
   </si>
   <si>
-    <t>['Twintania', 'Nael Deus Darnus ', 'Prim-Bahamut']</t>
+    <t>['Twintania', 'Nael Deus Darnus', 'Prim-Bahamut']</t>
   </si>
 </sst>
 </file>
@@ -11109,7 +11109,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AL237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL256" sqref="AL256"/>
+      <selection pane="bottomRight" activeCell="AL257" sqref="AL257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1672AA1-2E7A-4AFA-9A04-E23588E01722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72047479-3FEE-4A42-8E00-32B5BAAC259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="3465" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$AS$422</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$AS$454</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13522" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14020" uniqueCount="3380">
   <si>
     <t>date:</t>
   </si>
@@ -10052,6 +10052,153 @@
   </si>
   <si>
     <t>['Twintania', 'Nael Deus Darnus', 'Prim-Bahamut']</t>
+  </si>
+  <si>
+    <t>Alzadaals Vermächtnis</t>
+  </si>
+  <si>
+    <t>alzadaals_vermaechtnis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112465.tex</t>
+  </si>
+  <si>
+    <t>Newfound Adventure</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>m5d4</t>
+  </si>
+  <si>
+    <t>Eschatos - Endsängerin</t>
+  </si>
+  <si>
+    <t>eschatos_endsaengerin</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112467.tex</t>
+  </si>
+  <si>
+    <t>u5fb_2</t>
+  </si>
+  <si>
+    <t>Porta Decumana</t>
+  </si>
+  <si>
+    <t>porta_decumana</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112468.tex</t>
+  </si>
+  <si>
+    <t>w1d5_battle</t>
+  </si>
+  <si>
+    <t>Traumprüfung - Ultima</t>
+  </si>
+  <si>
+    <t>traumpruefung_ultima</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112470.tex</t>
+  </si>
+  <si>
+    <t>Unreal</t>
+  </si>
+  <si>
+    <t>w1fb_2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Crystalline Conflict: Das Herz des Vulkans (Schaukampf)</t>
+  </si>
+  <si>
+    <t>crystalline_conflict_das_herz_des_vulkans_schaukampf</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112474.tex</t>
+  </si>
+  <si>
+    <t>'30</t>
+  </si>
+  <si>
+    <t>s5p2_ctm</t>
+  </si>
+  <si>
+    <t>Crystalline Conflict: Die Palästra (Schaukampf)</t>
+  </si>
+  <si>
+    <t>crystalline_conflict_die_palaestra_schaukampf</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112473.tex</t>
+  </si>
+  <si>
+    <t>s5p1_ctm</t>
+  </si>
+  <si>
+    <t>Crystalline Conflict: Wolke Sieben (Schaukampf)</t>
+  </si>
+  <si>
+    <t>crystalline_conflict_wolke_sieben_schaukampf</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112475.tex</t>
+  </si>
+  <si>
+    <t>s5p3_ctm</t>
+  </si>
+  <si>
+    <t>Das Herz des Vulkans</t>
+  </si>
+  <si>
+    <t>das_herz_des_vulkans</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112471.tex</t>
+  </si>
+  <si>
+    <t>s5p2</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112472.tex</t>
+  </si>
+  <si>
+    <t>Die Palästra</t>
+  </si>
+  <si>
+    <t>die_palaestra</t>
+  </si>
+  <si>
+    <t>s5p1</t>
+  </si>
+  <si>
+    <t>Wolke Sieben</t>
+  </si>
+  <si>
+    <t>wolke_sieben</t>
+  </si>
+  <si>
+    <t>s5p3</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>Aglaia</t>
+  </si>
+  <si>
+    <t>aglaia</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112466.tex</t>
+  </si>
+  <si>
+    <t>z5r1</t>
   </si>
 </sst>
 </file>
@@ -10192,7 +10339,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -10457,6 +10604,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="7" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -11103,13 +11256,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AS422"/>
+  <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL257" sqref="AL257"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -11118,17 +11271,17 @@
     <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="46.5703125" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="47.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="24.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="30.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="30.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="7.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="31.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="19.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
@@ -15601,7 +15754,7 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
     </row>
-    <row r="35" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>41513</v>
@@ -15734,7 +15887,7 @@
       </c>
       <c r="AS35" s="6"/>
     </row>
-    <row r="36" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>41513</v>
@@ -15867,7 +16020,7 @@
       </c>
       <c r="AS36" s="6"/>
     </row>
-    <row r="37" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>41513</v>
@@ -16000,7 +16153,7 @@
       </c>
       <c r="AS37" s="6"/>
     </row>
-    <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>41513</v>
@@ -16133,7 +16286,7 @@
       </c>
       <c r="AS38" s="6"/>
     </row>
-    <row r="39" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>41513</v>
@@ -16266,7 +16419,7 @@
       </c>
       <c r="AS39" s="6"/>
     </row>
-    <row r="40" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>41513</v>
@@ -16399,7 +16552,7 @@
       </c>
       <c r="AS40" s="6"/>
     </row>
-    <row r="41" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>41513</v>
@@ -16532,7 +16685,7 @@
       </c>
       <c r="AS41" s="6"/>
     </row>
-    <row r="42" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41625</v>
@@ -16665,7 +16818,7 @@
       </c>
       <c r="AS42" s="6"/>
     </row>
-    <row r="43" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>41625</v>
@@ -16692,7 +16845,7 @@
         <v>56</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K43" s="8">
         <v>50</v>
@@ -16798,7 +16951,7 @@
       </c>
       <c r="AS43" s="6"/>
     </row>
-    <row r="44" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>41625</v>
@@ -16931,7 +17084,7 @@
       </c>
       <c r="AS44" s="6"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>41625</v>
@@ -17064,7 +17217,7 @@
       </c>
       <c r="AS45" s="6"/>
     </row>
-    <row r="46" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>41625</v>
@@ -17197,7 +17350,7 @@
       </c>
       <c r="AS46" s="6"/>
     </row>
-    <row r="47" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>41690</v>
@@ -17330,7 +17483,7 @@
       </c>
       <c r="AS47" s="6"/>
     </row>
-    <row r="48" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>41690</v>
@@ -17463,7 +17616,7 @@
       </c>
       <c r="AS48" s="6"/>
     </row>
-    <row r="49" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>41723</v>
@@ -17596,7 +17749,7 @@
       </c>
       <c r="AS49" s="6"/>
     </row>
-    <row r="50" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>41723</v>
@@ -17729,7 +17882,7 @@
       </c>
       <c r="AS50" s="6"/>
     </row>
-    <row r="51" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>41723</v>
@@ -17862,7 +18015,7 @@
       </c>
       <c r="AS51" s="6"/>
     </row>
-    <row r="52" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>41723</v>
@@ -17995,7 +18148,7 @@
       </c>
       <c r="AS52" s="6"/>
     </row>
-    <row r="53" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>41828</v>
@@ -18128,7 +18281,7 @@
       </c>
       <c r="AS53" s="6"/>
     </row>
-    <row r="54" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>41828</v>
@@ -18261,7 +18414,7 @@
       </c>
       <c r="AS54" s="6"/>
     </row>
-    <row r="55" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>41940</v>
@@ -18394,7 +18547,7 @@
       </c>
       <c r="AS55" s="6"/>
     </row>
-    <row r="56" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>41940</v>
@@ -18527,7 +18680,7 @@
       </c>
       <c r="AS56" s="6"/>
     </row>
-    <row r="57" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>41940</v>
@@ -18660,7 +18813,7 @@
       </c>
       <c r="AS57" s="6"/>
     </row>
-    <row r="58" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>42024</v>
@@ -18793,7 +18946,7 @@
       </c>
       <c r="AS58" s="6"/>
     </row>
-    <row r="59" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>42024</v>
@@ -18926,7 +19079,7 @@
       </c>
       <c r="AS59" s="6"/>
     </row>
-    <row r="60" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>42024</v>
@@ -19059,7 +19212,7 @@
       </c>
       <c r="AS60" s="6"/>
     </row>
-    <row r="61" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7">
         <v>42094</v>
@@ -19192,7 +19345,7 @@
       </c>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>769</v>
       </c>
@@ -40357,7 +40510,7 @@
       <c r="AR228" s="20"/>
       <c r="AS228" s="20"/>
     </row>
-    <row r="229" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="B229" s="21">
         <v>43018</v>
@@ -40490,7 +40643,7 @@
       </c>
       <c r="AS229" s="20"/>
     </row>
-    <row r="230" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="B230" s="21">
         <v>43242</v>
@@ -40623,7 +40776,7 @@
       </c>
       <c r="AS230" s="20"/>
     </row>
-    <row r="231" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="21">
         <v>43473</v>
@@ -40756,7 +40909,7 @@
       </c>
       <c r="AS231" s="20"/>
     </row>
-    <row r="232" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="B232" s="21">
         <v>42920</v>
@@ -40889,7 +41042,7 @@
       </c>
       <c r="AS232" s="20"/>
     </row>
-    <row r="233" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="B233" s="21">
         <v>42920</v>
@@ -41022,7 +41175,7 @@
       </c>
       <c r="AS233" s="20"/>
     </row>
-    <row r="234" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="B234" s="21">
         <v>42920</v>
@@ -41155,7 +41308,7 @@
       </c>
       <c r="AS234" s="20"/>
     </row>
-    <row r="235" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="21">
         <v>42920</v>
@@ -41289,7 +41442,7 @@
       </c>
       <c r="AS235" s="20"/>
     </row>
-    <row r="236" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="21">
         <v>42934</v>
@@ -41422,7 +41575,7 @@
       </c>
       <c r="AS236" s="20"/>
     </row>
-    <row r="237" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="21">
         <v>42934</v>
@@ -41555,7 +41708,7 @@
       </c>
       <c r="AS237" s="20"/>
     </row>
-    <row r="238" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="B238" s="21">
         <v>42934</v>
@@ -41688,7 +41841,7 @@
       </c>
       <c r="AS238" s="20"/>
     </row>
-    <row r="239" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="21">
         <v>42934</v>
@@ -41821,7 +41974,7 @@
       </c>
       <c r="AS239" s="20"/>
     </row>
-    <row r="240" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="21">
         <v>43130</v>
@@ -41954,7 +42107,7 @@
       </c>
       <c r="AS240" s="20"/>
     </row>
-    <row r="241" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="B241" s="21">
         <v>43130</v>
@@ -42087,7 +42240,7 @@
       </c>
       <c r="AS241" s="20"/>
     </row>
-    <row r="242" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="21">
         <v>43130</v>
@@ -42220,7 +42373,7 @@
       </c>
       <c r="AS242" s="20"/>
     </row>
-    <row r="243" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="21">
         <v>43130</v>
@@ -42353,7 +42506,7 @@
       </c>
       <c r="AS243" s="20"/>
     </row>
-    <row r="244" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="21">
         <v>43130</v>
@@ -42486,7 +42639,7 @@
       </c>
       <c r="AS244" s="20"/>
     </row>
-    <row r="245" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="21">
         <v>43130</v>
@@ -42619,7 +42772,7 @@
       </c>
       <c r="AS245" s="20"/>
     </row>
-    <row r="246" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="21">
         <v>43130</v>
@@ -42752,7 +42905,7 @@
       </c>
       <c r="AS246" s="20"/>
     </row>
-    <row r="247" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="21">
         <v>43130</v>
@@ -42885,7 +43038,7 @@
       </c>
       <c r="AS247" s="20"/>
     </row>
-    <row r="248" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="21">
         <v>43361</v>
@@ -43018,7 +43171,7 @@
       </c>
       <c r="AS248" s="20"/>
     </row>
-    <row r="249" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="21">
         <v>43361</v>
@@ -43151,7 +43304,7 @@
       </c>
       <c r="AS249" s="20"/>
     </row>
-    <row r="250" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="21">
         <v>43361</v>
@@ -43284,7 +43437,7 @@
       </c>
       <c r="AS250" s="20"/>
     </row>
-    <row r="251" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="21">
         <v>43361</v>
@@ -43417,7 +43570,7 @@
       </c>
       <c r="AS251" s="20"/>
     </row>
-    <row r="252" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="21">
         <v>43361</v>
@@ -43550,7 +43703,7 @@
       </c>
       <c r="AS252" s="20"/>
     </row>
-    <row r="253" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="21">
         <v>43361</v>
@@ -43683,7 +43836,7 @@
       </c>
       <c r="AS253" s="20"/>
     </row>
-    <row r="254" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="21">
         <v>43361</v>
@@ -43816,7 +43969,7 @@
       </c>
       <c r="AS254" s="20"/>
     </row>
-    <row r="255" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="B255" s="21">
         <v>43361</v>
@@ -43949,7 +44102,7 @@
       </c>
       <c r="AS255" s="20"/>
     </row>
-    <row r="256" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="B256" s="21">
         <v>43032</v>
@@ -44082,7 +44235,7 @@
       </c>
       <c r="AS256" s="20"/>
     </row>
-    <row r="257" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="21">
         <v>43256</v>
@@ -44215,7 +44368,7 @@
       </c>
       <c r="AS257" s="20"/>
     </row>
-    <row r="258" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
         <v>774</v>
       </c>
@@ -61958,24 +62111,50 @@
       </c>
       <c r="AS402" s="87"/>
     </row>
-    <row r="403" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="87" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B403" s="88"/>
-      <c r="C403" s="87"/>
-      <c r="D403" s="87"/>
-      <c r="E403" s="87"/>
-      <c r="F403" s="87"/>
-      <c r="G403" s="87"/>
-      <c r="H403" s="87"/>
-      <c r="I403" s="87"/>
-      <c r="J403" s="87"/>
-      <c r="K403" s="87"/>
-      <c r="L403" s="87"/>
-      <c r="M403" s="87"/>
-      <c r="N403" s="87"/>
-      <c r="O403" s="87"/>
+    <row r="403" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="87"/>
+      <c r="B403" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C403" s="87">
+        <v>95</v>
+      </c>
+      <c r="D403" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E403" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F403" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="G403" s="87" t="s">
+        <v>3333</v>
+      </c>
+      <c r="H403" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I403" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J403" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K403" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L403" s="87">
+        <v>90</v>
+      </c>
+      <c r="M403" s="87">
+        <v>560</v>
+      </c>
+      <c r="N403" s="87">
+        <v>0</v>
+      </c>
+      <c r="O403" s="87" t="s">
+        <v>3335</v>
+      </c>
       <c r="P403" s="87"/>
       <c r="Q403" s="87"/>
       <c r="R403" s="87"/>
@@ -61996,144 +62175,76 @@
       <c r="AG403" s="87"/>
       <c r="AH403" s="87"/>
       <c r="AI403" s="87"/>
-      <c r="AJ403" s="87"/>
-      <c r="AK403" s="87"/>
-      <c r="AL403" s="87"/>
-      <c r="AM403" s="87"/>
-      <c r="AN403" s="87"/>
-      <c r="AO403" s="87"/>
+      <c r="AJ403" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK403" s="87" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AL403" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM403" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN403" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO403" s="87" t="s">
+        <v>925</v>
+      </c>
       <c r="AP403" s="87"/>
       <c r="AQ403" s="87"/>
       <c r="AR403" s="87"/>
       <c r="AS403" s="87"/>
     </row>
-    <row r="404" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="87"/>
-      <c r="B404" s="88">
-        <v>44537</v>
-      </c>
-      <c r="C404" s="87">
-        <v>194</v>
-      </c>
-      <c r="D404" s="87" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E404" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F404" s="87" t="s">
-        <v>3156</v>
-      </c>
-      <c r="G404" s="87" t="s">
-        <v>3157</v>
-      </c>
-      <c r="H404" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="I404" s="87" t="s">
-        <v>3090</v>
-      </c>
-      <c r="J404" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="K404" s="87" t="s">
-        <v>3105</v>
-      </c>
-      <c r="L404" s="87" t="s">
-        <v>3106</v>
-      </c>
-      <c r="M404" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="N404" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O404" s="87">
-        <v>69934</v>
-      </c>
-      <c r="P404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Q404" s="87" t="s">
-        <v>3260</v>
-      </c>
-      <c r="R404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="T404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U404" s="87" t="s">
-        <v>2725</v>
-      </c>
+    <row r="404" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="87" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B404" s="88"/>
+      <c r="C404" s="87"/>
+      <c r="D404" s="87"/>
+      <c r="E404" s="87"/>
+      <c r="F404" s="87"/>
+      <c r="G404" s="87"/>
+      <c r="H404" s="87"/>
+      <c r="I404" s="87"/>
+      <c r="J404" s="87"/>
+      <c r="K404" s="87"/>
+      <c r="L404" s="87"/>
+      <c r="M404" s="87"/>
+      <c r="N404" s="87"/>
+      <c r="O404" s="87"/>
+      <c r="P404" s="87"/>
+      <c r="Q404" s="87"/>
+      <c r="R404" s="87"/>
+      <c r="S404" s="87"/>
+      <c r="T404" s="87"/>
+      <c r="U404" s="87"/>
       <c r="V404" s="87"/>
       <c r="W404" s="87"/>
-      <c r="X404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AB404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AD404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AH404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI404" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AJ404" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK404" s="87" t="s">
-        <v>3158</v>
-      </c>
-      <c r="AL404" s="87" t="s">
-        <v>3269</v>
-      </c>
-      <c r="AM404" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN404" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO404" s="87" t="s">
-        <v>1909</v>
-      </c>
-      <c r="AP404" s="87">
-        <v>20080</v>
-      </c>
-      <c r="AQ404" s="87">
-        <v>20080</v>
-      </c>
-      <c r="AR404" s="87" t="s">
-        <v>3274</v>
-      </c>
+      <c r="X404" s="87"/>
+      <c r="Y404" s="87"/>
+      <c r="Z404" s="87"/>
+      <c r="AA404" s="87"/>
+      <c r="AB404" s="87"/>
+      <c r="AC404" s="87"/>
+      <c r="AD404" s="87"/>
+      <c r="AE404" s="87"/>
+      <c r="AF404" s="87"/>
+      <c r="AG404" s="87"/>
+      <c r="AH404" s="87"/>
+      <c r="AI404" s="87"/>
+      <c r="AJ404" s="87"/>
+      <c r="AK404" s="87"/>
+      <c r="AL404" s="87"/>
+      <c r="AM404" s="87"/>
+      <c r="AN404" s="87"/>
+      <c r="AO404" s="87"/>
+      <c r="AP404" s="87"/>
+      <c r="AQ404" s="87"/>
+      <c r="AR404" s="87"/>
       <c r="AS404" s="87"/>
     </row>
     <row r="405" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -62142,19 +62253,19 @@
         <v>44537</v>
       </c>
       <c r="C405" s="87">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D405" s="87" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="E405" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F405" s="87" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="G405" s="87" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="H405" s="87" t="s">
         <v>3089</v>
@@ -62166,25 +62277,25 @@
         <v>76</v>
       </c>
       <c r="K405" s="87" t="s">
-        <v>3091</v>
+        <v>3105</v>
       </c>
       <c r="L405" s="87" t="s">
-        <v>3092</v>
+        <v>3106</v>
       </c>
       <c r="M405" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="N405" s="87" t="s">
-        <v>3094</v>
+        <v>1932</v>
       </c>
       <c r="O405" s="87">
-        <v>69985</v>
+        <v>69934</v>
       </c>
       <c r="P405" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="Q405" s="87" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="R405" s="87" t="s">
         <v>2725</v>
@@ -62240,10 +62351,10 @@
         <v>186</v>
       </c>
       <c r="AK405" s="87" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="AL405" s="87" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="AM405" s="87" t="s">
         <v>925</v>
@@ -62255,13 +62366,13 @@
         <v>1909</v>
       </c>
       <c r="AP405" s="87">
-        <v>20077</v>
+        <v>20080</v>
       </c>
       <c r="AQ405" s="87">
-        <v>20077</v>
+        <v>20080</v>
       </c>
       <c r="AR405" s="87" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="AS405" s="87"/>
     </row>
@@ -62271,19 +62382,19 @@
         <v>44537</v>
       </c>
       <c r="C406" s="87">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D406" s="87" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="E406" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F406" s="87" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="G406" s="87" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="H406" s="87" t="s">
         <v>3089</v>
@@ -62295,25 +62406,25 @@
         <v>76</v>
       </c>
       <c r="K406" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L406" s="87" t="s">
         <v>3092</v>
       </c>
       <c r="M406" s="87" t="s">
-        <v>3099</v>
+        <v>1932</v>
       </c>
       <c r="N406" s="87" t="s">
-        <v>1932</v>
+        <v>3094</v>
       </c>
       <c r="O406" s="87">
-        <v>70000</v>
+        <v>69985</v>
       </c>
       <c r="P406" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="Q406" s="87" t="s">
-        <v>3271</v>
+        <v>3257</v>
       </c>
       <c r="R406" s="87" t="s">
         <v>2725</v>
@@ -62339,7 +62450,7 @@
         <v>2725</v>
       </c>
       <c r="AA406" s="87" t="s">
-        <v>3273</v>
+        <v>2725</v>
       </c>
       <c r="AB406" s="87" t="s">
         <v>2725</v>
@@ -62369,10 +62480,10 @@
         <v>186</v>
       </c>
       <c r="AK406" s="87" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="AL406" s="87" t="s">
-        <v>3276</v>
+        <v>3270</v>
       </c>
       <c r="AM406" s="87" t="s">
         <v>925</v>
@@ -62384,13 +62495,13 @@
         <v>1909</v>
       </c>
       <c r="AP406" s="87">
-        <v>20079</v>
+        <v>20077</v>
       </c>
       <c r="AQ406" s="87">
-        <v>20079</v>
+        <v>20077</v>
       </c>
       <c r="AR406" s="87" t="s">
-        <v>3272</v>
+        <v>3275</v>
       </c>
       <c r="AS406" s="87"/>
     </row>
@@ -62400,19 +62511,19 @@
         <v>44537</v>
       </c>
       <c r="C407" s="87">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D407" s="87" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="E407" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F407" s="87" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="G407" s="87" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="H407" s="87" t="s">
         <v>3089</v>
@@ -62421,7 +62532,7 @@
         <v>3090</v>
       </c>
       <c r="J407" s="87" t="s">
-        <v>1941</v>
+        <v>76</v>
       </c>
       <c r="K407" s="87" t="s">
         <v>3092</v>
@@ -62430,19 +62541,19 @@
         <v>3092</v>
       </c>
       <c r="M407" s="87" t="s">
-        <v>3141</v>
+        <v>3099</v>
       </c>
       <c r="N407" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="O407" s="87">
-        <v>69707</v>
+        <v>70000</v>
       </c>
       <c r="P407" s="87" t="s">
-        <v>3259</v>
+        <v>2725</v>
       </c>
       <c r="Q407" s="87" t="s">
-        <v>3260</v>
+        <v>3271</v>
       </c>
       <c r="R407" s="87" t="s">
         <v>2725</v>
@@ -62459,7 +62570,7 @@
       <c r="V407" s="87"/>
       <c r="W407" s="87"/>
       <c r="X407" s="87" t="s">
-        <v>3261</v>
+        <v>2725</v>
       </c>
       <c r="Y407" s="87" t="s">
         <v>2725</v>
@@ -62468,19 +62579,19 @@
         <v>2725</v>
       </c>
       <c r="AA407" s="87" t="s">
-        <v>3267</v>
+        <v>3273</v>
       </c>
       <c r="AB407" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AC407" s="87" t="s">
-        <v>3268</v>
+        <v>2725</v>
       </c>
       <c r="AD407" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AE407" s="87" t="s">
-        <v>3262</v>
+        <v>2725</v>
       </c>
       <c r="AF407" s="87" t="s">
         <v>2725</v>
@@ -62498,10 +62609,10 @@
         <v>186</v>
       </c>
       <c r="AK407" s="87" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="AL407" s="87" t="s">
-        <v>3269</v>
+        <v>3276</v>
       </c>
       <c r="AM407" s="87" t="s">
         <v>925</v>
@@ -62510,16 +62621,16 @@
         <v>925</v>
       </c>
       <c r="AO407" s="87" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="AP407" s="87">
-        <v>20081</v>
+        <v>20079</v>
       </c>
       <c r="AQ407" s="87">
-        <v>20081</v>
+        <v>20079</v>
       </c>
       <c r="AR407" s="87" t="s">
-        <v>3263</v>
+        <v>3272</v>
       </c>
       <c r="AS407" s="87"/>
     </row>
@@ -62529,19 +62640,19 @@
         <v>44537</v>
       </c>
       <c r="C408" s="87">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D408" s="87" t="s">
-        <v>3138</v>
+        <v>3143</v>
       </c>
       <c r="E408" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F408" s="87" t="s">
-        <v>3139</v>
+        <v>3144</v>
       </c>
       <c r="G408" s="87" t="s">
-        <v>3140</v>
+        <v>3145</v>
       </c>
       <c r="H408" s="87" t="s">
         <v>3089</v>
@@ -62568,10 +62679,10 @@
         <v>69707</v>
       </c>
       <c r="P408" s="87" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="Q408" s="87" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="R408" s="87" t="s">
         <v>2725</v>
@@ -62588,7 +62699,7 @@
       <c r="V408" s="87"/>
       <c r="W408" s="87"/>
       <c r="X408" s="87" t="s">
-        <v>3256</v>
+        <v>3261</v>
       </c>
       <c r="Y408" s="87" t="s">
         <v>2725</v>
@@ -62597,19 +62708,19 @@
         <v>2725</v>
       </c>
       <c r="AA408" s="87" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="AB408" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AC408" s="87" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="AD408" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AE408" s="87" t="s">
-        <v>3255</v>
+        <v>3262</v>
       </c>
       <c r="AF408" s="87" t="s">
         <v>2725</v>
@@ -62627,10 +62738,10 @@
         <v>186</v>
       </c>
       <c r="AK408" s="87" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="AL408" s="87" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="AM408" s="87" t="s">
         <v>925</v>
@@ -62642,177 +62753,217 @@
         <v>1908</v>
       </c>
       <c r="AP408" s="87">
-        <v>20078</v>
+        <v>20081</v>
       </c>
       <c r="AQ408" s="87">
-        <v>20078</v>
+        <v>20081</v>
       </c>
       <c r="AR408" s="87" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="AS408" s="87"/>
     </row>
-    <row r="409" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="87" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B409" s="88"/>
-      <c r="C409" s="87"/>
-      <c r="D409" s="87"/>
-      <c r="E409" s="87"/>
-      <c r="F409" s="87"/>
-      <c r="G409" s="87"/>
-      <c r="H409" s="87"/>
-      <c r="I409" s="87"/>
-      <c r="J409" s="87"/>
-      <c r="K409" s="87"/>
-      <c r="L409" s="87"/>
-      <c r="M409" s="87"/>
-      <c r="N409" s="87"/>
-      <c r="O409" s="87"/>
-      <c r="P409" s="87"/>
-      <c r="Q409" s="87"/>
-      <c r="R409" s="87"/>
-      <c r="S409" s="87"/>
-      <c r="T409" s="87"/>
-      <c r="U409" s="87"/>
+    <row r="409" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="87"/>
+      <c r="B409" s="88">
+        <v>44537</v>
+      </c>
+      <c r="C409" s="87">
+        <v>198</v>
+      </c>
+      <c r="D409" s="87" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E409" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F409" s="87" t="s">
+        <v>3139</v>
+      </c>
+      <c r="G409" s="87" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H409" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="I409" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J409" s="87" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K409" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L409" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M409" s="87" t="s">
+        <v>3141</v>
+      </c>
+      <c r="N409" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O409" s="87">
+        <v>69707</v>
+      </c>
+      <c r="P409" s="87" t="s">
+        <v>3258</v>
+      </c>
+      <c r="Q409" s="87" t="s">
+        <v>3257</v>
+      </c>
+      <c r="R409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="T409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U409" s="87" t="s">
+        <v>2725</v>
+      </c>
       <c r="V409" s="87"/>
       <c r="W409" s="87"/>
-      <c r="X409" s="87"/>
-      <c r="Y409" s="87"/>
-      <c r="Z409" s="87"/>
-      <c r="AA409" s="87"/>
-      <c r="AB409" s="87"/>
-      <c r="AC409" s="87"/>
-      <c r="AD409" s="87"/>
-      <c r="AE409" s="87"/>
-      <c r="AF409" s="87"/>
-      <c r="AG409" s="87"/>
-      <c r="AH409" s="87"/>
-      <c r="AI409" s="87"/>
-      <c r="AJ409" s="87"/>
-      <c r="AK409" s="87"/>
-      <c r="AL409" s="87"/>
-      <c r="AM409" s="87"/>
-      <c r="AN409" s="87"/>
-      <c r="AO409" s="87"/>
-      <c r="AP409" s="87"/>
-      <c r="AQ409" s="87"/>
-      <c r="AR409" s="87"/>
+      <c r="X409" s="87" t="s">
+        <v>3256</v>
+      </c>
+      <c r="Y409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA409" s="87" t="s">
+        <v>3265</v>
+      </c>
+      <c r="AB409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC409" s="87" t="s">
+        <v>3266</v>
+      </c>
+      <c r="AD409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE409" s="87" t="s">
+        <v>3255</v>
+      </c>
+      <c r="AF409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AH409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ409" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK409" s="87" t="s">
+        <v>3142</v>
+      </c>
+      <c r="AL409" s="87" t="s">
+        <v>3270</v>
+      </c>
+      <c r="AM409" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN409" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO409" s="87" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AP409" s="87">
+        <v>20078</v>
+      </c>
+      <c r="AQ409" s="87">
+        <v>20078</v>
+      </c>
+      <c r="AR409" s="87" t="s">
+        <v>3264</v>
+      </c>
       <c r="AS409" s="87"/>
     </row>
     <row r="410" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="87"/>
       <c r="B410" s="88">
-        <v>44551</v>
+        <v>44663</v>
       </c>
       <c r="C410" s="87">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="D410" s="87" t="s">
-        <v>3164</v>
+        <v>3337</v>
       </c>
       <c r="E410" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F410" s="87" t="s">
-        <v>3165</v>
+        <v>3338</v>
       </c>
       <c r="G410" s="87" t="s">
-        <v>3166</v>
+        <v>3339</v>
       </c>
       <c r="H410" s="89" t="s">
-        <v>3193</v>
+        <v>3350</v>
       </c>
       <c r="I410" s="87" t="s">
-        <v>3090</v>
+        <v>3334</v>
       </c>
       <c r="J410" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K410" s="87" t="s">
         <v>3092</v>
       </c>
-      <c r="L410" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M410" s="87" t="s">
-        <v>3162</v>
-      </c>
-      <c r="N410" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O410" s="87">
-        <v>70012</v>
-      </c>
-      <c r="P410" s="87" t="s">
-        <v>3211</v>
-      </c>
-      <c r="Q410" s="87" t="s">
-        <v>3247</v>
-      </c>
-      <c r="R410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="T410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA410" s="87" t="s">
-        <v>3248</v>
-      </c>
-      <c r="AB410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC410" s="87" t="s">
-        <v>3249</v>
-      </c>
-      <c r="AD410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AH410" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI410" s="87" t="s">
-        <v>2725</v>
-      </c>
+      <c r="L410" s="87">
+        <v>90</v>
+      </c>
+      <c r="M410" s="87">
+        <v>580</v>
+      </c>
+      <c r="N410" s="87">
+        <v>0</v>
+      </c>
+      <c r="O410" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P410" s="87"/>
+      <c r="Q410" s="87"/>
+      <c r="R410" s="87"/>
+      <c r="S410" s="87"/>
+      <c r="T410" s="87"/>
+      <c r="U410" s="87"/>
+      <c r="V410" s="87"/>
+      <c r="W410" s="87"/>
+      <c r="X410" s="87"/>
+      <c r="Y410" s="87"/>
+      <c r="Z410" s="87"/>
+      <c r="AA410" s="87"/>
+      <c r="AB410" s="87"/>
+      <c r="AC410" s="87"/>
+      <c r="AD410" s="87"/>
+      <c r="AE410" s="87"/>
+      <c r="AF410" s="87"/>
+      <c r="AG410" s="87"/>
+      <c r="AH410" s="87"/>
+      <c r="AI410" s="87"/>
       <c r="AJ410" s="87" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="AK410" s="87" t="s">
-        <v>3167</v>
+        <v>3340</v>
       </c>
       <c r="AL410" s="87" t="s">
-        <v>3215</v>
+        <v>925</v>
       </c>
       <c r="AM410" s="87" t="s">
         <v>925</v>
@@ -62821,131 +62972,85 @@
         <v>925</v>
       </c>
       <c r="AO410" s="87" t="s">
-        <v>3250</v>
-      </c>
-      <c r="AP410" s="87">
-        <v>30111</v>
-      </c>
-      <c r="AQ410" s="87">
-        <v>30111</v>
-      </c>
-      <c r="AR410" s="87" t="s">
-        <v>3220</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AP410" s="87"/>
+      <c r="AQ410" s="87"/>
+      <c r="AR410" s="87"/>
       <c r="AS410" s="87"/>
     </row>
     <row r="411" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A411" s="87"/>
       <c r="B411" s="88">
-        <v>44551</v>
+        <v>44663</v>
       </c>
       <c r="C411" s="87">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="D411" s="87" t="s">
-        <v>3172</v>
+        <v>3341</v>
       </c>
       <c r="E411" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F411" s="87" t="s">
-        <v>3173</v>
+        <v>3342</v>
       </c>
       <c r="G411" s="87" t="s">
-        <v>3174</v>
+        <v>3343</v>
       </c>
       <c r="H411" s="89" t="s">
-        <v>3193</v>
+        <v>3350</v>
       </c>
       <c r="I411" s="87" t="s">
-        <v>3090</v>
+        <v>3334</v>
       </c>
       <c r="J411" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K411" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="L411" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M411" s="87" t="s">
-        <v>3162</v>
-      </c>
-      <c r="N411" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O411" s="87">
-        <v>70013</v>
-      </c>
-      <c r="P411" s="87" t="s">
-        <v>3211</v>
-      </c>
-      <c r="Q411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="T411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA411" s="87" t="s">
-        <v>3245</v>
-      </c>
-      <c r="AB411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC411" s="87" t="s">
-        <v>3246</v>
-      </c>
-      <c r="AD411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AH411" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI411" s="87" t="s">
-        <v>2725</v>
-      </c>
+        <v>1972</v>
+      </c>
+      <c r="L411" s="87">
+        <v>50</v>
+      </c>
+      <c r="M411" s="87">
+        <v>0</v>
+      </c>
+      <c r="N411" s="87">
+        <v>60</v>
+      </c>
+      <c r="O411" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P411" s="87"/>
+      <c r="Q411" s="87"/>
+      <c r="R411" s="87"/>
+      <c r="S411" s="87"/>
+      <c r="T411" s="87"/>
+      <c r="U411" s="87"/>
+      <c r="V411" s="87"/>
+      <c r="W411" s="87"/>
+      <c r="X411" s="87"/>
+      <c r="Y411" s="87"/>
+      <c r="Z411" s="87"/>
+      <c r="AA411" s="87"/>
+      <c r="AB411" s="87"/>
+      <c r="AC411" s="87"/>
+      <c r="AD411" s="87"/>
+      <c r="AE411" s="87"/>
+      <c r="AF411" s="87"/>
+      <c r="AG411" s="87"/>
+      <c r="AH411" s="87"/>
+      <c r="AI411" s="87"/>
       <c r="AJ411" s="87" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="AK411" s="87" t="s">
-        <v>3175</v>
+        <v>3344</v>
       </c>
       <c r="AL411" s="87" t="s">
-        <v>3214</v>
+        <v>925</v>
       </c>
       <c r="AM411" s="87" t="s">
         <v>925</v>
@@ -62954,131 +63059,85 @@
         <v>925</v>
       </c>
       <c r="AO411" s="87" t="s">
-        <v>3251</v>
-      </c>
-      <c r="AP411" s="87">
-        <v>30113</v>
-      </c>
-      <c r="AQ411" s="87">
-        <v>30113</v>
-      </c>
-      <c r="AR411" s="87" t="s">
-        <v>3221</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AP411" s="87"/>
+      <c r="AQ411" s="87"/>
+      <c r="AR411" s="87"/>
       <c r="AS411" s="87"/>
     </row>
     <row r="412" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="87"/>
       <c r="B412" s="88">
-        <v>44551</v>
+        <v>44663</v>
       </c>
       <c r="C412" s="87">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="D412" s="87" t="s">
-        <v>3159</v>
+        <v>3345</v>
       </c>
       <c r="E412" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F412" s="87" t="s">
-        <v>3160</v>
+        <v>3346</v>
       </c>
       <c r="G412" s="87" t="s">
-        <v>3161</v>
+        <v>3347</v>
       </c>
       <c r="H412" s="89" t="s">
-        <v>3193</v>
+        <v>3350</v>
       </c>
       <c r="I412" s="87" t="s">
-        <v>3090</v>
+        <v>3334</v>
       </c>
       <c r="J412" s="87" t="s">
-        <v>75</v>
+        <v>3348</v>
       </c>
       <c r="K412" s="87" t="s">
         <v>3092</v>
       </c>
-      <c r="L412" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M412" s="87" t="s">
-        <v>3162</v>
-      </c>
-      <c r="N412" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O412" s="87">
-        <v>70014</v>
-      </c>
-      <c r="P412" s="87" t="s">
-        <v>3211</v>
-      </c>
-      <c r="Q412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S412" s="87" t="s">
-        <v>3242</v>
-      </c>
-      <c r="T412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA412" s="87" t="s">
-        <v>3243</v>
-      </c>
-      <c r="AB412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC412" s="87" t="s">
-        <v>3244</v>
-      </c>
-      <c r="AD412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AH412" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI412" s="87" t="s">
-        <v>2725</v>
-      </c>
+      <c r="L412" s="87">
+        <v>90</v>
+      </c>
+      <c r="M412" s="87">
+        <v>560</v>
+      </c>
+      <c r="N412" s="87">
+        <v>565</v>
+      </c>
+      <c r="O412" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P412" s="87"/>
+      <c r="Q412" s="87"/>
+      <c r="R412" s="87"/>
+      <c r="S412" s="87"/>
+      <c r="T412" s="87"/>
+      <c r="U412" s="87"/>
+      <c r="V412" s="87"/>
+      <c r="W412" s="87"/>
+      <c r="X412" s="87"/>
+      <c r="Y412" s="87"/>
+      <c r="Z412" s="87"/>
+      <c r="AA412" s="87"/>
+      <c r="AB412" s="87"/>
+      <c r="AC412" s="87"/>
+      <c r="AD412" s="87"/>
+      <c r="AE412" s="87"/>
+      <c r="AF412" s="87"/>
+      <c r="AG412" s="87"/>
+      <c r="AH412" s="87"/>
+      <c r="AI412" s="87"/>
       <c r="AJ412" s="87" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="AK412" s="87" t="s">
-        <v>3163</v>
+        <v>3349</v>
       </c>
       <c r="AL412" s="87" t="s">
-        <v>3213</v>
+        <v>925</v>
       </c>
       <c r="AM412" s="87" t="s">
         <v>925</v>
@@ -63087,264 +63146,134 @@
         <v>925</v>
       </c>
       <c r="AO412" s="87" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AP412" s="87">
-        <v>30109</v>
-      </c>
-      <c r="AQ412" s="87">
-        <v>30109</v>
-      </c>
-      <c r="AR412" s="87" t="s">
-        <v>3222</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AP412" s="87"/>
+      <c r="AQ412" s="87"/>
+      <c r="AR412" s="87"/>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="87"/>
-      <c r="B413" s="88">
-        <v>44551</v>
-      </c>
-      <c r="C413" s="87">
-        <v>131</v>
-      </c>
-      <c r="D413" s="87" t="s">
-        <v>3168</v>
-      </c>
-      <c r="E413" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F413" s="87" t="s">
-        <v>3169</v>
-      </c>
-      <c r="G413" s="87" t="s">
-        <v>3170</v>
-      </c>
-      <c r="H413" s="89" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I413" s="87" t="s">
-        <v>3090</v>
-      </c>
-      <c r="J413" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K413" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="L413" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M413" s="87" t="s">
-        <v>3162</v>
-      </c>
-      <c r="N413" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O413" s="87">
-        <v>70015</v>
-      </c>
-      <c r="P413" s="87" t="s">
-        <v>3211</v>
-      </c>
-      <c r="Q413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S413" s="87" t="s">
-        <v>3239</v>
-      </c>
-      <c r="T413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA413" s="87" t="s">
-        <v>3240</v>
-      </c>
-      <c r="AB413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC413" s="87" t="s">
-        <v>3241</v>
-      </c>
-      <c r="AD413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG413" s="87" t="s">
-        <v>3225</v>
-      </c>
-      <c r="AH413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI413" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AJ413" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK413" s="87" t="s">
-        <v>3171</v>
-      </c>
-      <c r="AL413" s="87" t="s">
-        <v>3212</v>
-      </c>
-      <c r="AM413" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN413" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO413" s="87" t="s">
-        <v>3253</v>
-      </c>
-      <c r="AP413" s="87">
-        <v>30107</v>
-      </c>
-      <c r="AQ413" s="87">
-        <v>30107</v>
-      </c>
-      <c r="AR413" s="87" t="s">
-        <v>3223</v>
-      </c>
+    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="87" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B413" s="88"/>
+      <c r="C413" s="87"/>
+      <c r="D413" s="87"/>
+      <c r="E413" s="87"/>
+      <c r="F413" s="87"/>
+      <c r="G413" s="87"/>
+      <c r="H413" s="87"/>
+      <c r="I413" s="87"/>
+      <c r="J413" s="87"/>
+      <c r="K413" s="87"/>
+      <c r="L413" s="87"/>
+      <c r="M413" s="87"/>
+      <c r="N413" s="87"/>
+      <c r="O413" s="87"/>
+      <c r="P413" s="87"/>
+      <c r="Q413" s="87"/>
+      <c r="R413" s="87"/>
+      <c r="S413" s="87"/>
+      <c r="T413" s="87"/>
+      <c r="U413" s="87"/>
+      <c r="V413" s="87"/>
+      <c r="W413" s="87"/>
+      <c r="X413" s="87"/>
+      <c r="Y413" s="87"/>
+      <c r="Z413" s="87"/>
+      <c r="AA413" s="87"/>
+      <c r="AB413" s="87"/>
+      <c r="AC413" s="87"/>
+      <c r="AD413" s="87"/>
+      <c r="AE413" s="87"/>
+      <c r="AF413" s="87"/>
+      <c r="AG413" s="87"/>
+      <c r="AH413" s="87"/>
+      <c r="AI413" s="87"/>
+      <c r="AJ413" s="87"/>
+      <c r="AK413" s="87"/>
+      <c r="AL413" s="87"/>
+      <c r="AM413" s="87"/>
+      <c r="AN413" s="87"/>
+      <c r="AO413" s="87"/>
+      <c r="AP413" s="87"/>
+      <c r="AQ413" s="87"/>
+      <c r="AR413" s="87"/>
       <c r="AS413" s="87"/>
     </row>
     <row r="414" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
-        <v>44565</v>
+        <v>44663</v>
       </c>
       <c r="C414" s="87">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D414" s="87" t="s">
-        <v>3164</v>
+        <v>3376</v>
       </c>
       <c r="E414" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F414" s="87" t="s">
-        <v>3190</v>
+        <v>3377</v>
       </c>
       <c r="G414" s="87" t="s">
-        <v>3179</v>
-      </c>
-      <c r="H414" s="89" t="s">
-        <v>3194</v>
+        <v>3378</v>
+      </c>
+      <c r="H414" s="91" t="s">
+        <v>3350</v>
       </c>
       <c r="I414" s="87" t="s">
-        <v>3090</v>
+        <v>3334</v>
       </c>
       <c r="J414" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K414" s="87" t="s">
         <v>3092</v>
       </c>
-      <c r="L414" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M414" s="87" t="s">
-        <v>3100</v>
-      </c>
-      <c r="N414" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O414" s="87">
-        <v>70015</v>
-      </c>
-      <c r="P414" s="87" t="s">
-        <v>3210</v>
-      </c>
-      <c r="Q414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="T414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA414" s="87" t="s">
-        <v>3234</v>
-      </c>
-      <c r="AB414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC414" s="87" t="s">
-        <v>3235</v>
-      </c>
-      <c r="AD414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AH414" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI414" s="87" t="s">
-        <v>2725</v>
-      </c>
+      <c r="L414" s="87">
+        <v>90</v>
+      </c>
+      <c r="M414" s="87">
+        <v>565</v>
+      </c>
+      <c r="N414" s="87">
+        <v>0</v>
+      </c>
+      <c r="O414" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P414" s="87"/>
+      <c r="Q414" s="87"/>
+      <c r="R414" s="87"/>
+      <c r="S414" s="87"/>
+      <c r="T414" s="87"/>
+      <c r="U414" s="87"/>
+      <c r="V414" s="87"/>
+      <c r="W414" s="87"/>
+      <c r="X414" s="87"/>
+      <c r="Y414" s="87"/>
+      <c r="Z414" s="87"/>
+      <c r="AA414" s="87"/>
+      <c r="AB414" s="87"/>
+      <c r="AC414" s="87"/>
+      <c r="AD414" s="87"/>
+      <c r="AE414" s="87"/>
+      <c r="AF414" s="87"/>
+      <c r="AG414" s="87"/>
+      <c r="AH414" s="87"/>
+      <c r="AI414" s="87"/>
       <c r="AJ414" s="87" t="s">
-        <v>310</v>
+        <v>574</v>
       </c>
       <c r="AK414" s="87" t="s">
-        <v>3180</v>
+        <v>3379</v>
       </c>
       <c r="AL414" s="87" t="s">
-        <v>3215</v>
+        <v>925</v>
       </c>
       <c r="AM414" s="87" t="s">
         <v>925</v>
@@ -63353,47 +63282,41 @@
         <v>925</v>
       </c>
       <c r="AO414" s="87" t="s">
-        <v>3207</v>
-      </c>
-      <c r="AP414" s="87">
-        <v>30112</v>
-      </c>
-      <c r="AQ414" s="87">
-        <v>30112</v>
-      </c>
-      <c r="AR414" s="87" t="s">
-        <v>3219</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AP414" s="87"/>
+      <c r="AQ414" s="87"/>
+      <c r="AR414" s="87"/>
       <c r="AS414" s="87"/>
     </row>
     <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C415" s="87">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D415" s="87" t="s">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="E415" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F415" s="87" t="s">
-        <v>3192</v>
+        <v>3165</v>
       </c>
       <c r="G415" s="87" t="s">
-        <v>3183</v>
+        <v>3166</v>
       </c>
       <c r="H415" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I415" s="87" t="s">
         <v>3090</v>
       </c>
       <c r="J415" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K415" s="87" t="s">
         <v>3092</v>
@@ -63402,19 +63325,19 @@
         <v>3092</v>
       </c>
       <c r="M415" s="87" t="s">
-        <v>3184</v>
+        <v>3162</v>
       </c>
       <c r="N415" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="O415" s="87">
-        <v>70015</v>
+        <v>70012</v>
       </c>
       <c r="P415" s="87" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="Q415" s="87" t="s">
-        <v>2725</v>
+        <v>3247</v>
       </c>
       <c r="R415" s="87" t="s">
         <v>2725</v>
@@ -63444,13 +63367,13 @@
         <v>2725</v>
       </c>
       <c r="AA415" s="87" t="s">
-        <v>3232</v>
+        <v>3248</v>
       </c>
       <c r="AB415" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AC415" s="87" t="s">
-        <v>3233</v>
+        <v>3249</v>
       </c>
       <c r="AD415" s="87" t="s">
         <v>2725</v>
@@ -63474,10 +63397,10 @@
         <v>310</v>
       </c>
       <c r="AK415" s="87" t="s">
-        <v>3185</v>
+        <v>3167</v>
       </c>
       <c r="AL415" s="87" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="AM415" s="87" t="s">
         <v>925</v>
@@ -63486,47 +63409,47 @@
         <v>925</v>
       </c>
       <c r="AO415" s="87" t="s">
-        <v>3208</v>
+        <v>3250</v>
       </c>
       <c r="AP415" s="87">
-        <v>30114</v>
+        <v>30111</v>
       </c>
       <c r="AQ415" s="87">
-        <v>30114</v>
+        <v>30111</v>
       </c>
       <c r="AR415" s="87" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="AS415" s="87"/>
     </row>
     <row r="416" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C416" s="87">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D416" s="87" t="s">
-        <v>3159</v>
+        <v>3172</v>
       </c>
       <c r="E416" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F416" s="87" t="s">
-        <v>3189</v>
+        <v>3173</v>
       </c>
       <c r="G416" s="87" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="H416" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I416" s="87" t="s">
         <v>3090</v>
       </c>
       <c r="J416" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K416" s="87" t="s">
         <v>3092</v>
@@ -63535,16 +63458,16 @@
         <v>3092</v>
       </c>
       <c r="M416" s="87" t="s">
-        <v>3177</v>
+        <v>3162</v>
       </c>
       <c r="N416" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="O416" s="87">
-        <v>70015</v>
+        <v>70013</v>
       </c>
       <c r="P416" s="87" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="Q416" s="87" t="s">
         <v>2725</v>
@@ -63577,13 +63500,13 @@
         <v>2725</v>
       </c>
       <c r="AA416" s="87" t="s">
-        <v>3230</v>
+        <v>3245</v>
       </c>
       <c r="AB416" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AC416" s="87" t="s">
-        <v>3231</v>
+        <v>3246</v>
       </c>
       <c r="AD416" s="87" t="s">
         <v>2725</v>
@@ -63607,10 +63530,10 @@
         <v>310</v>
       </c>
       <c r="AK416" s="87" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="AL416" s="87" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="AM416" s="87" t="s">
         <v>925</v>
@@ -63619,47 +63542,47 @@
         <v>925</v>
       </c>
       <c r="AO416" s="87" t="s">
-        <v>3209</v>
+        <v>3251</v>
       </c>
       <c r="AP416" s="87">
-        <v>30110</v>
+        <v>30113</v>
       </c>
       <c r="AQ416" s="87">
-        <v>30110</v>
+        <v>30113</v>
       </c>
       <c r="AR416" s="87" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="AS416" s="87"/>
     </row>
     <row r="417" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A417" s="87"/>
       <c r="B417" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C417" s="87">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D417" s="87" t="s">
-        <v>3168</v>
+        <v>3159</v>
       </c>
       <c r="E417" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F417" s="87" t="s">
-        <v>3191</v>
+        <v>3160</v>
       </c>
       <c r="G417" s="87" t="s">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="H417" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I417" s="87" t="s">
         <v>3090</v>
       </c>
       <c r="J417" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K417" s="87" t="s">
         <v>3092</v>
@@ -63668,16 +63591,16 @@
         <v>3092</v>
       </c>
       <c r="M417" s="87" t="s">
-        <v>3177</v>
+        <v>3162</v>
       </c>
       <c r="N417" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="O417" s="87">
-        <v>70015</v>
+        <v>70014</v>
       </c>
       <c r="P417" s="87" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="Q417" s="87" t="s">
         <v>2725</v>
@@ -63686,7 +63609,7 @@
         <v>2725</v>
       </c>
       <c r="S417" s="87" t="s">
-        <v>2725</v>
+        <v>3242</v>
       </c>
       <c r="T417" s="87" t="s">
         <v>2725</v>
@@ -63710,25 +63633,25 @@
         <v>2725</v>
       </c>
       <c r="AA417" s="87" t="s">
-        <v>3226</v>
+        <v>3243</v>
       </c>
       <c r="AB417" s="87" t="s">
-        <v>3227</v>
+        <v>2725</v>
       </c>
       <c r="AC417" s="87" t="s">
-        <v>3228</v>
+        <v>3244</v>
       </c>
       <c r="AD417" s="87" t="s">
-        <v>3229</v>
+        <v>2725</v>
       </c>
       <c r="AE417" s="87" t="s">
-        <v>3224</v>
+        <v>2725</v>
       </c>
       <c r="AF417" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AG417" s="87" t="s">
-        <v>3225</v>
+        <v>2725</v>
       </c>
       <c r="AH417" s="87" t="s">
         <v>2725</v>
@@ -63740,10 +63663,10 @@
         <v>310</v>
       </c>
       <c r="AK417" s="87" t="s">
-        <v>3182</v>
+        <v>3163</v>
       </c>
       <c r="AL417" s="87" t="s">
-        <v>3195</v>
+        <v>3213</v>
       </c>
       <c r="AM417" s="87" t="s">
         <v>925</v>
@@ -63752,135 +63675,305 @@
         <v>925</v>
       </c>
       <c r="AO417" s="87" t="s">
-        <v>3206</v>
+        <v>3252</v>
       </c>
       <c r="AP417" s="87">
-        <v>30108</v>
+        <v>30109</v>
       </c>
       <c r="AQ417" s="87">
-        <v>30108</v>
+        <v>30109</v>
       </c>
       <c r="AR417" s="87" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="AS417" s="87"/>
     </row>
-    <row r="418" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="87" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B418" s="88"/>
-      <c r="C418" s="87"/>
-      <c r="D418" s="87"/>
-      <c r="E418" s="87"/>
-      <c r="F418" s="87"/>
-      <c r="G418" s="87"/>
-      <c r="H418" s="89"/>
-      <c r="I418" s="87"/>
-      <c r="J418" s="87"/>
-      <c r="K418" s="87"/>
-      <c r="L418" s="87"/>
-      <c r="M418" s="87"/>
-      <c r="N418" s="87"/>
-      <c r="O418" s="87"/>
-      <c r="P418" s="87"/>
-      <c r="Q418" s="87"/>
-      <c r="R418" s="87"/>
-      <c r="S418" s="87"/>
-      <c r="T418" s="87"/>
-      <c r="U418" s="87"/>
-      <c r="V418" s="87"/>
-      <c r="W418" s="87"/>
-      <c r="X418" s="87"/>
-      <c r="Y418" s="87"/>
-      <c r="Z418" s="87"/>
-      <c r="AA418" s="87"/>
-      <c r="AB418" s="87"/>
-      <c r="AC418" s="87"/>
-      <c r="AD418" s="87"/>
-      <c r="AE418" s="87"/>
-      <c r="AF418" s="87"/>
-      <c r="AG418" s="87"/>
-      <c r="AH418" s="87"/>
-      <c r="AI418" s="87"/>
-      <c r="AJ418" s="87"/>
-      <c r="AK418" s="87"/>
-      <c r="AL418" s="87"/>
-      <c r="AM418" s="87"/>
-      <c r="AN418" s="87"/>
-      <c r="AO418" s="87"/>
-      <c r="AP418" s="87"/>
-      <c r="AQ418" s="87"/>
-      <c r="AR418" s="87"/>
+    <row r="418" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="87"/>
+      <c r="B418" s="88">
+        <v>44551</v>
+      </c>
+      <c r="C418" s="87">
+        <v>131</v>
+      </c>
+      <c r="D418" s="87" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E418" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F418" s="87" t="s">
+        <v>3169</v>
+      </c>
+      <c r="G418" s="87" t="s">
+        <v>3170</v>
+      </c>
+      <c r="H418" s="89" t="s">
+        <v>3193</v>
+      </c>
+      <c r="I418" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J418" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K418" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L418" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M418" s="87" t="s">
+        <v>3162</v>
+      </c>
+      <c r="N418" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O418" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P418" s="87" t="s">
+        <v>3211</v>
+      </c>
+      <c r="Q418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S418" s="87" t="s">
+        <v>3239</v>
+      </c>
+      <c r="T418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA418" s="87" t="s">
+        <v>3240</v>
+      </c>
+      <c r="AB418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC418" s="87" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AD418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG418" s="87" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AH418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ418" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK418" s="87" t="s">
+        <v>3171</v>
+      </c>
+      <c r="AL418" s="87" t="s">
+        <v>3212</v>
+      </c>
+      <c r="AM418" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN418" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO418" s="87" t="s">
+        <v>3253</v>
+      </c>
+      <c r="AP418" s="87">
+        <v>30107</v>
+      </c>
+      <c r="AQ418" s="87">
+        <v>30107</v>
+      </c>
+      <c r="AR418" s="87" t="s">
+        <v>3223</v>
+      </c>
       <c r="AS418" s="87"/>
     </row>
-    <row r="419" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A419" s="87" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B419" s="88"/>
-      <c r="C419" s="87"/>
-      <c r="D419" s="87"/>
-      <c r="E419" s="87"/>
-      <c r="F419" s="87"/>
-      <c r="G419" s="87"/>
-      <c r="H419" s="89"/>
-      <c r="I419" s="87"/>
-      <c r="J419" s="87"/>
-      <c r="K419" s="87"/>
-      <c r="L419" s="87"/>
-      <c r="M419" s="87"/>
-      <c r="N419" s="87"/>
-      <c r="O419" s="87"/>
-      <c r="P419" s="87"/>
-      <c r="Q419" s="87"/>
-      <c r="R419" s="87"/>
-      <c r="S419" s="87"/>
-      <c r="T419" s="87"/>
-      <c r="U419" s="87"/>
-      <c r="V419" s="87"/>
-      <c r="W419" s="87"/>
-      <c r="X419" s="87"/>
-      <c r="Y419" s="87"/>
-      <c r="Z419" s="87"/>
-      <c r="AA419" s="87"/>
-      <c r="AB419" s="87"/>
-      <c r="AC419" s="87"/>
-      <c r="AD419" s="87"/>
-      <c r="AE419" s="87"/>
-      <c r="AF419" s="87"/>
-      <c r="AG419" s="87"/>
-      <c r="AH419" s="87"/>
-      <c r="AI419" s="87"/>
-      <c r="AJ419" s="87"/>
-      <c r="AK419" s="87"/>
-      <c r="AL419" s="87"/>
-      <c r="AM419" s="87"/>
-      <c r="AN419" s="87"/>
-      <c r="AO419" s="87"/>
-      <c r="AP419" s="87"/>
-      <c r="AQ419" s="87"/>
-      <c r="AR419" s="87"/>
+    <row r="419" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="87"/>
+      <c r="B419" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C419" s="87">
+        <v>132</v>
+      </c>
+      <c r="D419" s="87" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E419" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F419" s="87" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G419" s="87" t="s">
+        <v>3179</v>
+      </c>
+      <c r="H419" s="89" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I419" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J419" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="K419" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L419" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M419" s="87" t="s">
+        <v>3100</v>
+      </c>
+      <c r="N419" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O419" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P419" s="87" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Q419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="T419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA419" s="87" t="s">
+        <v>3234</v>
+      </c>
+      <c r="AB419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC419" s="87" t="s">
+        <v>3235</v>
+      </c>
+      <c r="AD419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AH419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ419" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK419" s="87" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AL419" s="87" t="s">
+        <v>3215</v>
+      </c>
+      <c r="AM419" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN419" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO419" s="87" t="s">
+        <v>3207</v>
+      </c>
+      <c r="AP419" s="87">
+        <v>30112</v>
+      </c>
+      <c r="AQ419" s="87">
+        <v>30112</v>
+      </c>
+      <c r="AR419" s="87" t="s">
+        <v>3219</v>
+      </c>
       <c r="AS419" s="87"/>
     </row>
-    <row r="420" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
         <v>44565</v>
       </c>
       <c r="C420" s="87">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D420" s="87" t="s">
-        <v>3186</v>
+        <v>3172</v>
       </c>
       <c r="E420" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F420" s="87" t="s">
-        <v>3187</v>
-      </c>
-      <c r="G420" s="87"/>
+        <v>3192</v>
+      </c>
+      <c r="G420" s="87" t="s">
+        <v>3183</v>
+      </c>
       <c r="H420" s="89" t="s">
         <v>3194</v>
       </c>
@@ -63888,25 +63981,25 @@
         <v>3090</v>
       </c>
       <c r="J420" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K420" s="87" t="s">
-        <v>2933</v>
+        <v>3092</v>
       </c>
       <c r="L420" s="87" t="s">
         <v>3092</v>
       </c>
       <c r="M420" s="87" t="s">
-        <v>1932</v>
+        <v>3184</v>
       </c>
       <c r="N420" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="O420" s="87">
-        <v>66747</v>
+        <v>70015</v>
       </c>
       <c r="P420" s="87" t="s">
-        <v>2725</v>
+        <v>3210</v>
       </c>
       <c r="Q420" s="87" t="s">
         <v>2725</v>
@@ -63915,7 +64008,7 @@
         <v>2725</v>
       </c>
       <c r="S420" s="87" t="s">
-        <v>3237</v>
+        <v>2725</v>
       </c>
       <c r="T420" s="87" t="s">
         <v>2725</v>
@@ -63939,13 +64032,13 @@
         <v>2725</v>
       </c>
       <c r="AA420" s="87" t="s">
-        <v>2725</v>
+        <v>3232</v>
       </c>
       <c r="AB420" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AC420" s="87" t="s">
-        <v>2725</v>
+        <v>3233</v>
       </c>
       <c r="AD420" s="87" t="s">
         <v>2725</v>
@@ -63957,7 +64050,7 @@
         <v>2725</v>
       </c>
       <c r="AG420" s="87" t="s">
-        <v>3236</v>
+        <v>2725</v>
       </c>
       <c r="AH420" s="87" t="s">
         <v>2725</v>
@@ -63966,13 +64059,13 @@
         <v>2725</v>
       </c>
       <c r="AJ420" s="87" t="s">
-        <v>1362</v>
+        <v>310</v>
       </c>
       <c r="AK420" s="87" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="AL420" s="87" t="s">
-        <v>3254</v>
+        <v>3214</v>
       </c>
       <c r="AM420" s="87" t="s">
         <v>925</v>
@@ -63981,119 +64074,3002 @@
         <v>925</v>
       </c>
       <c r="AO420" s="87" t="s">
-        <v>925</v>
+        <v>3208</v>
       </c>
       <c r="AP420" s="87">
-        <v>55009</v>
+        <v>30114</v>
       </c>
       <c r="AQ420" s="87">
-        <v>55009</v>
+        <v>30114</v>
       </c>
       <c r="AR420" s="87" t="s">
-        <v>3238</v>
+        <v>3218</v>
       </c>
       <c r="AS420" s="87"/>
     </row>
-    <row r="421" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A421" s="87" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B421" s="88"/>
-      <c r="C421" s="87"/>
-      <c r="D421" s="87"/>
-      <c r="E421" s="87"/>
-      <c r="F421" s="87"/>
-      <c r="G421" s="87"/>
-      <c r="H421" s="89"/>
-      <c r="I421" s="87"/>
-      <c r="J421" s="87"/>
-      <c r="K421" s="87"/>
-      <c r="L421" s="87"/>
-      <c r="M421" s="87"/>
-      <c r="N421" s="87"/>
-      <c r="O421" s="87"/>
-      <c r="P421" s="87"/>
-      <c r="Q421" s="87"/>
-      <c r="R421" s="87"/>
-      <c r="S421" s="87"/>
-      <c r="T421" s="87"/>
-      <c r="U421" s="87"/>
-      <c r="V421" s="87"/>
-      <c r="W421" s="87"/>
-      <c r="X421" s="87"/>
-      <c r="Y421" s="87"/>
-      <c r="Z421" s="87"/>
-      <c r="AA421" s="87"/>
-      <c r="AB421" s="87"/>
-      <c r="AC421" s="87"/>
-      <c r="AD421" s="87"/>
-      <c r="AE421" s="87"/>
-      <c r="AF421" s="87"/>
-      <c r="AG421" s="87"/>
-      <c r="AH421" s="87"/>
-      <c r="AI421" s="87"/>
-      <c r="AJ421" s="87"/>
-      <c r="AK421" s="87"/>
-      <c r="AL421" s="87"/>
-      <c r="AM421" s="87"/>
-      <c r="AN421" s="87"/>
-      <c r="AO421" s="87"/>
-      <c r="AP421" s="87"/>
-      <c r="AQ421" s="87"/>
-      <c r="AR421" s="87"/>
+    <row r="421" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="87"/>
+      <c r="B421" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C421" s="87">
+        <v>134</v>
+      </c>
+      <c r="D421" s="87" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E421" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F421" s="87" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G421" s="87" t="s">
+        <v>3176</v>
+      </c>
+      <c r="H421" s="89" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I421" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J421" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="K421" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L421" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M421" s="87" t="s">
+        <v>3177</v>
+      </c>
+      <c r="N421" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O421" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P421" s="87" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Q421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="T421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA421" s="87" t="s">
+        <v>3230</v>
+      </c>
+      <c r="AB421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC421" s="87" t="s">
+        <v>3231</v>
+      </c>
+      <c r="AD421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AH421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ421" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK421" s="87" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AL421" s="87" t="s">
+        <v>3213</v>
+      </c>
+      <c r="AM421" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN421" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO421" s="87" t="s">
+        <v>3209</v>
+      </c>
+      <c r="AP421" s="87">
+        <v>30110</v>
+      </c>
+      <c r="AQ421" s="87">
+        <v>30110</v>
+      </c>
+      <c r="AR421" s="87" t="s">
+        <v>3217</v>
+      </c>
       <c r="AS421" s="87"/>
     </row>
-    <row r="422" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A422" s="56" t="s">
+    <row r="422" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="87"/>
+      <c r="B422" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C422" s="87">
+        <v>135</v>
+      </c>
+      <c r="D422" s="87" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E422" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F422" s="87" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G422" s="87" t="s">
+        <v>3181</v>
+      </c>
+      <c r="H422" s="89" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I422" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J422" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="K422" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L422" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M422" s="87" t="s">
+        <v>3177</v>
+      </c>
+      <c r="N422" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O422" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P422" s="87" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Q422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="T422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA422" s="87" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AB422" s="87" t="s">
+        <v>3227</v>
+      </c>
+      <c r="AC422" s="87" t="s">
+        <v>3228</v>
+      </c>
+      <c r="AD422" s="87" t="s">
+        <v>3229</v>
+      </c>
+      <c r="AE422" s="87" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AF422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG422" s="87" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AH422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ422" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK422" s="87" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AL422" s="87" t="s">
+        <v>3195</v>
+      </c>
+      <c r="AM422" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN422" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO422" s="87" t="s">
+        <v>3206</v>
+      </c>
+      <c r="AP422" s="87">
+        <v>30108</v>
+      </c>
+      <c r="AQ422" s="87">
+        <v>30108</v>
+      </c>
+      <c r="AR422" s="87" t="s">
+        <v>3216</v>
+      </c>
+      <c r="AS422" s="87"/>
+    </row>
+    <row r="423" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="87" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B423" s="88"/>
+      <c r="C423" s="87"/>
+      <c r="D423" s="87"/>
+      <c r="E423" s="87"/>
+      <c r="F423" s="87"/>
+      <c r="G423" s="87"/>
+      <c r="H423" s="89"/>
+      <c r="I423" s="87"/>
+      <c r="J423" s="87"/>
+      <c r="K423" s="87"/>
+      <c r="L423" s="87"/>
+      <c r="M423" s="87"/>
+      <c r="N423" s="87"/>
+      <c r="O423" s="87"/>
+      <c r="P423" s="87"/>
+      <c r="Q423" s="87"/>
+      <c r="R423" s="87"/>
+      <c r="S423" s="87"/>
+      <c r="T423" s="87"/>
+      <c r="U423" s="87"/>
+      <c r="V423" s="87"/>
+      <c r="W423" s="87"/>
+      <c r="X423" s="87"/>
+      <c r="Y423" s="87"/>
+      <c r="Z423" s="87"/>
+      <c r="AA423" s="87"/>
+      <c r="AB423" s="87"/>
+      <c r="AC423" s="87"/>
+      <c r="AD423" s="87"/>
+      <c r="AE423" s="87"/>
+      <c r="AF423" s="87"/>
+      <c r="AG423" s="87"/>
+      <c r="AH423" s="87"/>
+      <c r="AI423" s="87"/>
+      <c r="AJ423" s="87"/>
+      <c r="AK423" s="87"/>
+      <c r="AL423" s="87"/>
+      <c r="AM423" s="87"/>
+      <c r="AN423" s="87"/>
+      <c r="AO423" s="87"/>
+      <c r="AP423" s="87"/>
+      <c r="AQ423" s="87"/>
+      <c r="AR423" s="87"/>
+      <c r="AS423" s="87"/>
+    </row>
+    <row r="424" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="87"/>
+      <c r="B424" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C424" s="87">
+        <v>0</v>
+      </c>
+      <c r="D424" s="87" t="s">
+        <v>3351</v>
+      </c>
+      <c r="E424" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F424" s="87" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G424" s="87" t="s">
+        <v>3353</v>
+      </c>
+      <c r="H424" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I424" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J424" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K424" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L424" s="87">
+        <v>0</v>
+      </c>
+      <c r="M424" s="87">
+        <v>0</v>
+      </c>
+      <c r="N424" s="87">
+        <v>0</v>
+      </c>
+      <c r="O424" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P424" s="87"/>
+      <c r="Q424" s="87"/>
+      <c r="R424" s="87"/>
+      <c r="S424" s="87"/>
+      <c r="T424" s="87"/>
+      <c r="U424" s="87"/>
+      <c r="V424" s="87"/>
+      <c r="W424" s="87"/>
+      <c r="X424" s="87"/>
+      <c r="Y424" s="87"/>
+      <c r="Z424" s="87"/>
+      <c r="AA424" s="87"/>
+      <c r="AB424" s="87"/>
+      <c r="AC424" s="87"/>
+      <c r="AD424" s="87"/>
+      <c r="AE424" s="87"/>
+      <c r="AF424" s="87"/>
+      <c r="AG424" s="87"/>
+      <c r="AH424" s="87"/>
+      <c r="AI424" s="87"/>
+      <c r="AJ424" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK424" s="87" t="s">
+        <v>3355</v>
+      </c>
+      <c r="AL424" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM424" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN424" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO424" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP424" s="87"/>
+      <c r="AQ424" s="87"/>
+      <c r="AR424" s="87"/>
+      <c r="AS424" s="87"/>
+    </row>
+    <row r="425" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="87"/>
+      <c r="B425" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C425" s="87">
+        <v>0</v>
+      </c>
+      <c r="D425" s="87" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E425" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F425" s="87" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G425" s="87" t="s">
+        <v>3358</v>
+      </c>
+      <c r="H425" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I425" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J425" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K425" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L425" s="87">
+        <v>0</v>
+      </c>
+      <c r="M425" s="87">
+        <v>0</v>
+      </c>
+      <c r="N425" s="87">
+        <v>0</v>
+      </c>
+      <c r="O425" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P425" s="87"/>
+      <c r="Q425" s="87"/>
+      <c r="R425" s="87"/>
+      <c r="S425" s="87"/>
+      <c r="T425" s="87"/>
+      <c r="U425" s="87"/>
+      <c r="V425" s="87"/>
+      <c r="W425" s="87"/>
+      <c r="X425" s="87"/>
+      <c r="Y425" s="87"/>
+      <c r="Z425" s="87"/>
+      <c r="AA425" s="87"/>
+      <c r="AB425" s="87"/>
+      <c r="AC425" s="87"/>
+      <c r="AD425" s="87"/>
+      <c r="AE425" s="87"/>
+      <c r="AF425" s="87"/>
+      <c r="AG425" s="87"/>
+      <c r="AH425" s="87"/>
+      <c r="AI425" s="87"/>
+      <c r="AJ425" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK425" s="87" t="s">
+        <v>3359</v>
+      </c>
+      <c r="AL425" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM425" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN425" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO425" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP425" s="87"/>
+      <c r="AQ425" s="87"/>
+      <c r="AR425" s="87"/>
+      <c r="AS425" s="87"/>
+    </row>
+    <row r="426" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="87"/>
+      <c r="B426" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C426" s="87">
+        <v>0</v>
+      </c>
+      <c r="D426" s="87" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E426" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F426" s="87" t="s">
+        <v>3361</v>
+      </c>
+      <c r="G426" s="87" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H426" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I426" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J426" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K426" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L426" s="87">
+        <v>0</v>
+      </c>
+      <c r="M426" s="87">
+        <v>0</v>
+      </c>
+      <c r="N426" s="87">
+        <v>0</v>
+      </c>
+      <c r="O426" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P426" s="87"/>
+      <c r="Q426" s="87"/>
+      <c r="R426" s="87"/>
+      <c r="S426" s="87"/>
+      <c r="T426" s="87"/>
+      <c r="U426" s="87"/>
+      <c r="V426" s="87"/>
+      <c r="W426" s="87"/>
+      <c r="X426" s="87"/>
+      <c r="Y426" s="87"/>
+      <c r="Z426" s="87"/>
+      <c r="AA426" s="87"/>
+      <c r="AB426" s="87"/>
+      <c r="AC426" s="87"/>
+      <c r="AD426" s="87"/>
+      <c r="AE426" s="87"/>
+      <c r="AF426" s="87"/>
+      <c r="AG426" s="87"/>
+      <c r="AH426" s="87"/>
+      <c r="AI426" s="87"/>
+      <c r="AJ426" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK426" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AL426" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM426" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN426" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO426" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP426" s="87"/>
+      <c r="AQ426" s="87"/>
+      <c r="AR426" s="87"/>
+      <c r="AS426" s="87"/>
+    </row>
+    <row r="427" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="87"/>
+      <c r="B427" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C427" s="87">
+        <v>0</v>
+      </c>
+      <c r="D427" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E427" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F427" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G427" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H427" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I427" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J427" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K427" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L427" s="87">
+        <v>0</v>
+      </c>
+      <c r="M427" s="87">
+        <v>0</v>
+      </c>
+      <c r="N427" s="87">
+        <v>0</v>
+      </c>
+      <c r="O427" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P427" s="87"/>
+      <c r="Q427" s="87"/>
+      <c r="R427" s="87"/>
+      <c r="S427" s="87"/>
+      <c r="T427" s="87"/>
+      <c r="U427" s="87"/>
+      <c r="V427" s="87"/>
+      <c r="W427" s="87"/>
+      <c r="X427" s="87"/>
+      <c r="Y427" s="87"/>
+      <c r="Z427" s="87"/>
+      <c r="AA427" s="87"/>
+      <c r="AB427" s="87"/>
+      <c r="AC427" s="87"/>
+      <c r="AD427" s="87"/>
+      <c r="AE427" s="87"/>
+      <c r="AF427" s="87"/>
+      <c r="AG427" s="87"/>
+      <c r="AH427" s="87"/>
+      <c r="AI427" s="87"/>
+      <c r="AJ427" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK427" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL427" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM427" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN427" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO427" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP427" s="87"/>
+      <c r="AQ427" s="87"/>
+      <c r="AR427" s="87"/>
+      <c r="AS427" s="87"/>
+    </row>
+    <row r="428" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B428" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C428" s="87">
+        <v>0</v>
+      </c>
+      <c r="D428" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E428" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F428" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G428" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H428" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I428" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J428" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K428" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L428" s="87">
+        <v>0</v>
+      </c>
+      <c r="M428" s="87">
+        <v>0</v>
+      </c>
+      <c r="N428" s="87">
+        <v>0</v>
+      </c>
+      <c r="O428" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P428" s="87"/>
+      <c r="Q428" s="87"/>
+      <c r="R428" s="87"/>
+      <c r="S428" s="87"/>
+      <c r="T428" s="87"/>
+      <c r="U428" s="87"/>
+      <c r="V428" s="87"/>
+      <c r="W428" s="87"/>
+      <c r="X428" s="87"/>
+      <c r="Y428" s="87"/>
+      <c r="Z428" s="87"/>
+      <c r="AA428" s="87"/>
+      <c r="AB428" s="87"/>
+      <c r="AC428" s="87"/>
+      <c r="AD428" s="87"/>
+      <c r="AE428" s="87"/>
+      <c r="AF428" s="87"/>
+      <c r="AG428" s="87"/>
+      <c r="AH428" s="87"/>
+      <c r="AI428" s="87"/>
+      <c r="AJ428" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK428" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL428" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM428" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN428" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO428" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP428" s="87"/>
+      <c r="AQ428" s="87"/>
+      <c r="AR428" s="87"/>
+      <c r="AS428" s="87"/>
+    </row>
+    <row r="429" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B429" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C429" s="87">
+        <v>0</v>
+      </c>
+      <c r="D429" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E429" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F429" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G429" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H429" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I429" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J429" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K429" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L429" s="87">
+        <v>0</v>
+      </c>
+      <c r="M429" s="87">
+        <v>0</v>
+      </c>
+      <c r="N429" s="87">
+        <v>0</v>
+      </c>
+      <c r="O429" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P429" s="87"/>
+      <c r="Q429" s="87"/>
+      <c r="R429" s="87"/>
+      <c r="S429" s="87"/>
+      <c r="T429" s="87"/>
+      <c r="U429" s="87"/>
+      <c r="V429" s="87"/>
+      <c r="W429" s="87"/>
+      <c r="X429" s="87"/>
+      <c r="Y429" s="87"/>
+      <c r="Z429" s="87"/>
+      <c r="AA429" s="87"/>
+      <c r="AB429" s="87"/>
+      <c r="AC429" s="87"/>
+      <c r="AD429" s="87"/>
+      <c r="AE429" s="87"/>
+      <c r="AF429" s="87"/>
+      <c r="AG429" s="87"/>
+      <c r="AH429" s="87"/>
+      <c r="AI429" s="87"/>
+      <c r="AJ429" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK429" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL429" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM429" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN429" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO429" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP429" s="87"/>
+      <c r="AQ429" s="87"/>
+      <c r="AR429" s="87"/>
+      <c r="AS429" s="87"/>
+    </row>
+    <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="87"/>
+      <c r="B430" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C430" s="87">
+        <v>0</v>
+      </c>
+      <c r="D430" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E430" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F430" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G430" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H430" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I430" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J430" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K430" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L430" s="87">
+        <v>0</v>
+      </c>
+      <c r="M430" s="87">
+        <v>0</v>
+      </c>
+      <c r="N430" s="87">
+        <v>0</v>
+      </c>
+      <c r="O430" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P430" s="87"/>
+      <c r="Q430" s="87"/>
+      <c r="R430" s="87"/>
+      <c r="S430" s="87"/>
+      <c r="T430" s="87"/>
+      <c r="U430" s="87"/>
+      <c r="V430" s="87"/>
+      <c r="W430" s="87"/>
+      <c r="X430" s="87"/>
+      <c r="Y430" s="87"/>
+      <c r="Z430" s="87"/>
+      <c r="AA430" s="87"/>
+      <c r="AB430" s="87"/>
+      <c r="AC430" s="87"/>
+      <c r="AD430" s="87"/>
+      <c r="AE430" s="87"/>
+      <c r="AF430" s="87"/>
+      <c r="AG430" s="87"/>
+      <c r="AH430" s="87"/>
+      <c r="AI430" s="87"/>
+      <c r="AJ430" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK430" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL430" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM430" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN430" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO430" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP430" s="87"/>
+      <c r="AQ430" s="87"/>
+      <c r="AR430" s="87"/>
+      <c r="AS430" s="87"/>
+    </row>
+    <row r="431" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B431" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C431" s="87">
+        <v>0</v>
+      </c>
+      <c r="D431" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E431" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F431" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G431" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H431" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I431" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J431" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K431" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L431" s="87">
+        <v>0</v>
+      </c>
+      <c r="M431" s="87">
+        <v>0</v>
+      </c>
+      <c r="N431" s="87">
+        <v>0</v>
+      </c>
+      <c r="O431" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P431" s="87"/>
+      <c r="Q431" s="87"/>
+      <c r="R431" s="87"/>
+      <c r="S431" s="87"/>
+      <c r="T431" s="87"/>
+      <c r="U431" s="87"/>
+      <c r="V431" s="87"/>
+      <c r="W431" s="87"/>
+      <c r="X431" s="87"/>
+      <c r="Y431" s="87"/>
+      <c r="Z431" s="87"/>
+      <c r="AA431" s="87"/>
+      <c r="AB431" s="87"/>
+      <c r="AC431" s="87"/>
+      <c r="AD431" s="87"/>
+      <c r="AE431" s="87"/>
+      <c r="AF431" s="87"/>
+      <c r="AG431" s="87"/>
+      <c r="AH431" s="87"/>
+      <c r="AI431" s="87"/>
+      <c r="AJ431" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK431" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL431" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM431" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN431" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO431" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP431" s="87"/>
+      <c r="AQ431" s="87"/>
+      <c r="AR431" s="87"/>
+      <c r="AS431" s="87"/>
+    </row>
+    <row r="432" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B432" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C432" s="87">
+        <v>0</v>
+      </c>
+      <c r="D432" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E432" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F432" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G432" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H432" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I432" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J432" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K432" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L432" s="87">
+        <v>0</v>
+      </c>
+      <c r="M432" s="87">
+        <v>0</v>
+      </c>
+      <c r="N432" s="87">
+        <v>0</v>
+      </c>
+      <c r="O432" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P432" s="87"/>
+      <c r="Q432" s="87"/>
+      <c r="R432" s="87"/>
+      <c r="S432" s="87"/>
+      <c r="T432" s="87"/>
+      <c r="U432" s="87"/>
+      <c r="V432" s="87"/>
+      <c r="W432" s="87"/>
+      <c r="X432" s="87"/>
+      <c r="Y432" s="87"/>
+      <c r="Z432" s="87"/>
+      <c r="AA432" s="87"/>
+      <c r="AB432" s="87"/>
+      <c r="AC432" s="87"/>
+      <c r="AD432" s="87"/>
+      <c r="AE432" s="87"/>
+      <c r="AF432" s="87"/>
+      <c r="AG432" s="87"/>
+      <c r="AH432" s="87"/>
+      <c r="AI432" s="87"/>
+      <c r="AJ432" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK432" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL432" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM432" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN432" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO432" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP432" s="87"/>
+      <c r="AQ432" s="87"/>
+      <c r="AR432" s="87"/>
+      <c r="AS432" s="87"/>
+    </row>
+    <row r="433" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B433" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C433" s="87">
+        <v>0</v>
+      </c>
+      <c r="D433" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E433" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F433" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G433" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H433" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I433" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J433" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K433" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L433" s="87">
+        <v>0</v>
+      </c>
+      <c r="M433" s="87">
+        <v>0</v>
+      </c>
+      <c r="N433" s="87">
+        <v>0</v>
+      </c>
+      <c r="O433" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P433" s="87"/>
+      <c r="Q433" s="87"/>
+      <c r="R433" s="87"/>
+      <c r="S433" s="87"/>
+      <c r="T433" s="87"/>
+      <c r="U433" s="87"/>
+      <c r="V433" s="87"/>
+      <c r="W433" s="87"/>
+      <c r="X433" s="87"/>
+      <c r="Y433" s="87"/>
+      <c r="Z433" s="87"/>
+      <c r="AA433" s="87"/>
+      <c r="AB433" s="87"/>
+      <c r="AC433" s="87"/>
+      <c r="AD433" s="87"/>
+      <c r="AE433" s="87"/>
+      <c r="AF433" s="87"/>
+      <c r="AG433" s="87"/>
+      <c r="AH433" s="87"/>
+      <c r="AI433" s="87"/>
+      <c r="AJ433" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK433" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL433" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM433" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN433" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO433" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP433" s="87"/>
+      <c r="AQ433" s="87"/>
+      <c r="AR433" s="87"/>
+      <c r="AS433" s="87"/>
+    </row>
+    <row r="434" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B434" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C434" s="87">
+        <v>0</v>
+      </c>
+      <c r="D434" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E434" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F434" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="G434" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H434" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I434" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J434" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K434" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L434" s="87">
+        <v>0</v>
+      </c>
+      <c r="M434" s="87">
+        <v>0</v>
+      </c>
+      <c r="N434" s="87">
+        <v>0</v>
+      </c>
+      <c r="O434" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P434" s="87"/>
+      <c r="Q434" s="87"/>
+      <c r="R434" s="87"/>
+      <c r="S434" s="87"/>
+      <c r="T434" s="87"/>
+      <c r="U434" s="87"/>
+      <c r="V434" s="87"/>
+      <c r="W434" s="87"/>
+      <c r="X434" s="87"/>
+      <c r="Y434" s="87"/>
+      <c r="Z434" s="87"/>
+      <c r="AA434" s="87"/>
+      <c r="AB434" s="87"/>
+      <c r="AC434" s="87"/>
+      <c r="AD434" s="87"/>
+      <c r="AE434" s="87"/>
+      <c r="AF434" s="87"/>
+      <c r="AG434" s="87"/>
+      <c r="AH434" s="87"/>
+      <c r="AI434" s="87"/>
+      <c r="AJ434" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK434" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL434" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM434" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN434" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO434" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP434" s="87"/>
+      <c r="AQ434" s="87"/>
+      <c r="AR434" s="87"/>
+      <c r="AS434" s="87"/>
+    </row>
+    <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="87"/>
+      <c r="B435" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C435" s="87">
+        <v>0</v>
+      </c>
+      <c r="D435" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E435" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F435" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G435" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H435" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I435" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J435" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K435" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L435" s="87">
+        <v>0</v>
+      </c>
+      <c r="M435" s="87">
+        <v>0</v>
+      </c>
+      <c r="N435" s="87">
+        <v>0</v>
+      </c>
+      <c r="O435" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P435" s="87"/>
+      <c r="Q435" s="87"/>
+      <c r="R435" s="87"/>
+      <c r="S435" s="87"/>
+      <c r="T435" s="87"/>
+      <c r="U435" s="87"/>
+      <c r="V435" s="87"/>
+      <c r="W435" s="87"/>
+      <c r="X435" s="87"/>
+      <c r="Y435" s="87"/>
+      <c r="Z435" s="87"/>
+      <c r="AA435" s="87"/>
+      <c r="AB435" s="87"/>
+      <c r="AC435" s="87"/>
+      <c r="AD435" s="87"/>
+      <c r="AE435" s="87"/>
+      <c r="AF435" s="87"/>
+      <c r="AG435" s="87"/>
+      <c r="AH435" s="87"/>
+      <c r="AI435" s="87"/>
+      <c r="AJ435" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK435" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL435" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM435" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN435" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO435" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP435" s="87"/>
+      <c r="AQ435" s="87"/>
+      <c r="AR435" s="87"/>
+      <c r="AS435" s="87"/>
+    </row>
+    <row r="436" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B436" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C436" s="87">
+        <v>0</v>
+      </c>
+      <c r="D436" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E436" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F436" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G436" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H436" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I436" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J436" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K436" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L436" s="87">
+        <v>0</v>
+      </c>
+      <c r="M436" s="87">
+        <v>0</v>
+      </c>
+      <c r="N436" s="87">
+        <v>0</v>
+      </c>
+      <c r="O436" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P436" s="87"/>
+      <c r="Q436" s="87"/>
+      <c r="R436" s="87"/>
+      <c r="S436" s="87"/>
+      <c r="T436" s="87"/>
+      <c r="U436" s="87"/>
+      <c r="V436" s="87"/>
+      <c r="W436" s="87"/>
+      <c r="X436" s="87"/>
+      <c r="Y436" s="87"/>
+      <c r="Z436" s="87"/>
+      <c r="AA436" s="87"/>
+      <c r="AB436" s="87"/>
+      <c r="AC436" s="87"/>
+      <c r="AD436" s="87"/>
+      <c r="AE436" s="87"/>
+      <c r="AF436" s="87"/>
+      <c r="AG436" s="87"/>
+      <c r="AH436" s="87"/>
+      <c r="AI436" s="87"/>
+      <c r="AJ436" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK436" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL436" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM436" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN436" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO436" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP436" s="87"/>
+      <c r="AQ436" s="87"/>
+      <c r="AR436" s="87"/>
+      <c r="AS436" s="87"/>
+    </row>
+    <row r="437" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B437" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C437" s="87">
+        <v>0</v>
+      </c>
+      <c r="D437" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E437" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F437" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G437" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H437" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I437" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J437" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K437" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L437" s="87">
+        <v>0</v>
+      </c>
+      <c r="M437" s="87">
+        <v>0</v>
+      </c>
+      <c r="N437" s="87">
+        <v>0</v>
+      </c>
+      <c r="O437" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P437" s="87"/>
+      <c r="Q437" s="87"/>
+      <c r="R437" s="87"/>
+      <c r="S437" s="87"/>
+      <c r="T437" s="87"/>
+      <c r="U437" s="87"/>
+      <c r="V437" s="87"/>
+      <c r="W437" s="87"/>
+      <c r="X437" s="87"/>
+      <c r="Y437" s="87"/>
+      <c r="Z437" s="87"/>
+      <c r="AA437" s="87"/>
+      <c r="AB437" s="87"/>
+      <c r="AC437" s="87"/>
+      <c r="AD437" s="87"/>
+      <c r="AE437" s="87"/>
+      <c r="AF437" s="87"/>
+      <c r="AG437" s="87"/>
+      <c r="AH437" s="87"/>
+      <c r="AI437" s="87"/>
+      <c r="AJ437" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK437" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL437" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM437" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN437" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO437" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP437" s="87"/>
+      <c r="AQ437" s="87"/>
+      <c r="AR437" s="87"/>
+      <c r="AS437" s="87"/>
+    </row>
+    <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="87"/>
+      <c r="B438" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C438" s="87">
+        <v>0</v>
+      </c>
+      <c r="D438" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E438" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F438" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G438" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H438" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I438" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J438" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K438" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L438" s="87">
+        <v>0</v>
+      </c>
+      <c r="M438" s="87">
+        <v>0</v>
+      </c>
+      <c r="N438" s="87">
+        <v>0</v>
+      </c>
+      <c r="O438" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P438" s="87"/>
+      <c r="Q438" s="87"/>
+      <c r="R438" s="87"/>
+      <c r="S438" s="87"/>
+      <c r="T438" s="87"/>
+      <c r="U438" s="87"/>
+      <c r="V438" s="87"/>
+      <c r="W438" s="87"/>
+      <c r="X438" s="87"/>
+      <c r="Y438" s="87"/>
+      <c r="Z438" s="87"/>
+      <c r="AA438" s="87"/>
+      <c r="AB438" s="87"/>
+      <c r="AC438" s="87"/>
+      <c r="AD438" s="87"/>
+      <c r="AE438" s="87"/>
+      <c r="AF438" s="87"/>
+      <c r="AG438" s="87"/>
+      <c r="AH438" s="87"/>
+      <c r="AI438" s="87"/>
+      <c r="AJ438" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK438" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL438" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM438" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN438" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO438" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP438" s="87"/>
+      <c r="AQ438" s="87"/>
+      <c r="AR438" s="87"/>
+      <c r="AS438" s="87"/>
+    </row>
+    <row r="439" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B439" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C439" s="87">
+        <v>0</v>
+      </c>
+      <c r="D439" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E439" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F439" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G439" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H439" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I439" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J439" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K439" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L439" s="87">
+        <v>0</v>
+      </c>
+      <c r="M439" s="87">
+        <v>0</v>
+      </c>
+      <c r="N439" s="87">
+        <v>0</v>
+      </c>
+      <c r="O439" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P439" s="87"/>
+      <c r="Q439" s="87"/>
+      <c r="R439" s="87"/>
+      <c r="S439" s="87"/>
+      <c r="T439" s="87"/>
+      <c r="U439" s="87"/>
+      <c r="V439" s="87"/>
+      <c r="W439" s="87"/>
+      <c r="X439" s="87"/>
+      <c r="Y439" s="87"/>
+      <c r="Z439" s="87"/>
+      <c r="AA439" s="87"/>
+      <c r="AB439" s="87"/>
+      <c r="AC439" s="87"/>
+      <c r="AD439" s="87"/>
+      <c r="AE439" s="87"/>
+      <c r="AF439" s="87"/>
+      <c r="AG439" s="87"/>
+      <c r="AH439" s="87"/>
+      <c r="AI439" s="87"/>
+      <c r="AJ439" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK439" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL439" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM439" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN439" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO439" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP439" s="87"/>
+      <c r="AQ439" s="87"/>
+      <c r="AR439" s="87"/>
+      <c r="AS439" s="87"/>
+    </row>
+    <row r="440" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B440" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C440" s="87">
+        <v>0</v>
+      </c>
+      <c r="D440" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E440" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F440" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G440" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H440" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I440" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J440" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K440" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L440" s="87">
+        <v>0</v>
+      </c>
+      <c r="M440" s="87">
+        <v>0</v>
+      </c>
+      <c r="N440" s="87">
+        <v>0</v>
+      </c>
+      <c r="O440" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P440" s="87"/>
+      <c r="Q440" s="87"/>
+      <c r="R440" s="87"/>
+      <c r="S440" s="87"/>
+      <c r="T440" s="87"/>
+      <c r="U440" s="87"/>
+      <c r="V440" s="87"/>
+      <c r="W440" s="87"/>
+      <c r="X440" s="87"/>
+      <c r="Y440" s="87"/>
+      <c r="Z440" s="87"/>
+      <c r="AA440" s="87"/>
+      <c r="AB440" s="87"/>
+      <c r="AC440" s="87"/>
+      <c r="AD440" s="87"/>
+      <c r="AE440" s="87"/>
+      <c r="AF440" s="87"/>
+      <c r="AG440" s="87"/>
+      <c r="AH440" s="87"/>
+      <c r="AI440" s="87"/>
+      <c r="AJ440" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK440" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL440" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM440" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN440" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO440" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP440" s="87"/>
+      <c r="AQ440" s="87"/>
+      <c r="AR440" s="87"/>
+      <c r="AS440" s="87"/>
+    </row>
+    <row r="441" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B441" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C441" s="87">
+        <v>0</v>
+      </c>
+      <c r="D441" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E441" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F441" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G441" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H441" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I441" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J441" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K441" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L441" s="87">
+        <v>0</v>
+      </c>
+      <c r="M441" s="87">
+        <v>0</v>
+      </c>
+      <c r="N441" s="87">
+        <v>0</v>
+      </c>
+      <c r="O441" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P441" s="87"/>
+      <c r="Q441" s="87"/>
+      <c r="R441" s="87"/>
+      <c r="S441" s="87"/>
+      <c r="T441" s="87"/>
+      <c r="U441" s="87"/>
+      <c r="V441" s="87"/>
+      <c r="W441" s="87"/>
+      <c r="X441" s="87"/>
+      <c r="Y441" s="87"/>
+      <c r="Z441" s="87"/>
+      <c r="AA441" s="87"/>
+      <c r="AB441" s="87"/>
+      <c r="AC441" s="87"/>
+      <c r="AD441" s="87"/>
+      <c r="AE441" s="87"/>
+      <c r="AF441" s="87"/>
+      <c r="AG441" s="87"/>
+      <c r="AH441" s="87"/>
+      <c r="AI441" s="87"/>
+      <c r="AJ441" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK441" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL441" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM441" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN441" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO441" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP441" s="87"/>
+      <c r="AQ441" s="87"/>
+      <c r="AR441" s="87"/>
+      <c r="AS441" s="87"/>
+    </row>
+    <row r="442" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B442" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C442" s="87">
+        <v>0</v>
+      </c>
+      <c r="D442" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E442" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F442" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G442" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H442" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I442" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J442" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K442" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L442" s="87">
+        <v>0</v>
+      </c>
+      <c r="M442" s="87">
+        <v>0</v>
+      </c>
+      <c r="N442" s="87">
+        <v>0</v>
+      </c>
+      <c r="O442" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P442" s="87"/>
+      <c r="Q442" s="87"/>
+      <c r="R442" s="87"/>
+      <c r="S442" s="87"/>
+      <c r="T442" s="87"/>
+      <c r="U442" s="87"/>
+      <c r="V442" s="87"/>
+      <c r="W442" s="87"/>
+      <c r="X442" s="87"/>
+      <c r="Y442" s="87"/>
+      <c r="Z442" s="87"/>
+      <c r="AA442" s="87"/>
+      <c r="AB442" s="87"/>
+      <c r="AC442" s="87"/>
+      <c r="AD442" s="87"/>
+      <c r="AE442" s="87"/>
+      <c r="AF442" s="87"/>
+      <c r="AG442" s="87"/>
+      <c r="AH442" s="87"/>
+      <c r="AI442" s="87"/>
+      <c r="AJ442" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK442" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AL442" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM442" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN442" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO442" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP442" s="87"/>
+      <c r="AQ442" s="87"/>
+      <c r="AR442" s="87"/>
+      <c r="AS442" s="87"/>
+    </row>
+    <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="87"/>
+      <c r="B443" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C443" s="87">
+        <v>0</v>
+      </c>
+      <c r="D443" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E443" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F443" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G443" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H443" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I443" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J443" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K443" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L443" s="87">
+        <v>0</v>
+      </c>
+      <c r="M443" s="87">
+        <v>0</v>
+      </c>
+      <c r="N443" s="87">
+        <v>0</v>
+      </c>
+      <c r="O443" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P443" s="87"/>
+      <c r="Q443" s="87"/>
+      <c r="R443" s="87"/>
+      <c r="S443" s="87"/>
+      <c r="T443" s="87"/>
+      <c r="U443" s="87"/>
+      <c r="V443" s="87"/>
+      <c r="W443" s="87"/>
+      <c r="X443" s="87"/>
+      <c r="Y443" s="87"/>
+      <c r="Z443" s="87"/>
+      <c r="AA443" s="87"/>
+      <c r="AB443" s="87"/>
+      <c r="AC443" s="87"/>
+      <c r="AD443" s="87"/>
+      <c r="AE443" s="87"/>
+      <c r="AF443" s="87"/>
+      <c r="AG443" s="87"/>
+      <c r="AH443" s="87"/>
+      <c r="AI443" s="87"/>
+      <c r="AJ443" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK443" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL443" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM443" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN443" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO443" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP443" s="87"/>
+      <c r="AQ443" s="87"/>
+      <c r="AR443" s="87"/>
+      <c r="AS443" s="87"/>
+    </row>
+    <row r="444" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B444" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C444" s="87">
+        <v>0</v>
+      </c>
+      <c r="D444" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E444" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F444" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G444" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H444" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I444" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J444" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K444" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L444" s="87">
+        <v>0</v>
+      </c>
+      <c r="M444" s="87">
+        <v>0</v>
+      </c>
+      <c r="N444" s="87">
+        <v>0</v>
+      </c>
+      <c r="O444" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P444" s="87"/>
+      <c r="Q444" s="87"/>
+      <c r="R444" s="87"/>
+      <c r="S444" s="87"/>
+      <c r="T444" s="87"/>
+      <c r="U444" s="87"/>
+      <c r="V444" s="87"/>
+      <c r="W444" s="87"/>
+      <c r="X444" s="87"/>
+      <c r="Y444" s="87"/>
+      <c r="Z444" s="87"/>
+      <c r="AA444" s="87"/>
+      <c r="AB444" s="87"/>
+      <c r="AC444" s="87"/>
+      <c r="AD444" s="87"/>
+      <c r="AE444" s="87"/>
+      <c r="AF444" s="87"/>
+      <c r="AG444" s="87"/>
+      <c r="AH444" s="87"/>
+      <c r="AI444" s="87"/>
+      <c r="AJ444" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK444" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL444" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM444" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN444" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO444" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP444" s="87"/>
+      <c r="AQ444" s="87"/>
+      <c r="AR444" s="87"/>
+      <c r="AS444" s="87"/>
+    </row>
+    <row r="445" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B445" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C445" s="87">
+        <v>0</v>
+      </c>
+      <c r="D445" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E445" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F445" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G445" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H445" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I445" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J445" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K445" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L445" s="87">
+        <v>0</v>
+      </c>
+      <c r="M445" s="87">
+        <v>0</v>
+      </c>
+      <c r="N445" s="87">
+        <v>0</v>
+      </c>
+      <c r="O445" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P445" s="87"/>
+      <c r="Q445" s="87"/>
+      <c r="R445" s="87"/>
+      <c r="S445" s="87"/>
+      <c r="T445" s="87"/>
+      <c r="U445" s="87"/>
+      <c r="V445" s="87"/>
+      <c r="W445" s="87"/>
+      <c r="X445" s="87"/>
+      <c r="Y445" s="87"/>
+      <c r="Z445" s="87"/>
+      <c r="AA445" s="87"/>
+      <c r="AB445" s="87"/>
+      <c r="AC445" s="87"/>
+      <c r="AD445" s="87"/>
+      <c r="AE445" s="87"/>
+      <c r="AF445" s="87"/>
+      <c r="AG445" s="87"/>
+      <c r="AH445" s="87"/>
+      <c r="AI445" s="87"/>
+      <c r="AJ445" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK445" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL445" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM445" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN445" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO445" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP445" s="87"/>
+      <c r="AQ445" s="87"/>
+      <c r="AR445" s="87"/>
+      <c r="AS445" s="87"/>
+    </row>
+    <row r="446" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="87"/>
+      <c r="B446" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C446" s="87">
+        <v>0</v>
+      </c>
+      <c r="D446" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E446" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F446" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G446" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H446" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I446" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J446" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K446" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L446" s="87">
+        <v>0</v>
+      </c>
+      <c r="M446" s="87">
+        <v>0</v>
+      </c>
+      <c r="N446" s="87">
+        <v>0</v>
+      </c>
+      <c r="O446" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P446" s="87"/>
+      <c r="Q446" s="87"/>
+      <c r="R446" s="87"/>
+      <c r="S446" s="87"/>
+      <c r="T446" s="87"/>
+      <c r="U446" s="87"/>
+      <c r="V446" s="87"/>
+      <c r="W446" s="87"/>
+      <c r="X446" s="87"/>
+      <c r="Y446" s="87"/>
+      <c r="Z446" s="87"/>
+      <c r="AA446" s="87"/>
+      <c r="AB446" s="87"/>
+      <c r="AC446" s="87"/>
+      <c r="AD446" s="87"/>
+      <c r="AE446" s="87"/>
+      <c r="AF446" s="87"/>
+      <c r="AG446" s="87"/>
+      <c r="AH446" s="87"/>
+      <c r="AI446" s="87"/>
+      <c r="AJ446" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK446" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL446" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM446" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN446" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO446" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP446" s="87"/>
+      <c r="AQ446" s="87"/>
+      <c r="AR446" s="87"/>
+      <c r="AS446" s="87"/>
+    </row>
+    <row r="447" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B447" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C447" s="87">
+        <v>0</v>
+      </c>
+      <c r="D447" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E447" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F447" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G447" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H447" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I447" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J447" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K447" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L447" s="87">
+        <v>0</v>
+      </c>
+      <c r="M447" s="87">
+        <v>0</v>
+      </c>
+      <c r="N447" s="87">
+        <v>0</v>
+      </c>
+      <c r="O447" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P447" s="87"/>
+      <c r="Q447" s="87"/>
+      <c r="R447" s="87"/>
+      <c r="S447" s="87"/>
+      <c r="T447" s="87"/>
+      <c r="U447" s="87"/>
+      <c r="V447" s="87"/>
+      <c r="W447" s="87"/>
+      <c r="X447" s="87"/>
+      <c r="Y447" s="87"/>
+      <c r="Z447" s="87"/>
+      <c r="AA447" s="87"/>
+      <c r="AB447" s="87"/>
+      <c r="AC447" s="87"/>
+      <c r="AD447" s="87"/>
+      <c r="AE447" s="87"/>
+      <c r="AF447" s="87"/>
+      <c r="AG447" s="87"/>
+      <c r="AH447" s="87"/>
+      <c r="AI447" s="87"/>
+      <c r="AJ447" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK447" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL447" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM447" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN447" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO447" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP447" s="87"/>
+      <c r="AQ447" s="87"/>
+      <c r="AR447" s="87"/>
+      <c r="AS447" s="87"/>
+    </row>
+    <row r="448" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B448" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C448" s="87">
+        <v>0</v>
+      </c>
+      <c r="D448" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E448" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F448" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G448" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H448" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I448" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J448" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K448" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L448" s="87">
+        <v>0</v>
+      </c>
+      <c r="M448" s="87">
+        <v>0</v>
+      </c>
+      <c r="N448" s="87">
+        <v>0</v>
+      </c>
+      <c r="O448" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P448" s="87"/>
+      <c r="Q448" s="87"/>
+      <c r="R448" s="87"/>
+      <c r="S448" s="87"/>
+      <c r="T448" s="87"/>
+      <c r="U448" s="87"/>
+      <c r="V448" s="87"/>
+      <c r="W448" s="87"/>
+      <c r="X448" s="87"/>
+      <c r="Y448" s="87"/>
+      <c r="Z448" s="87"/>
+      <c r="AA448" s="87"/>
+      <c r="AB448" s="87"/>
+      <c r="AC448" s="87"/>
+      <c r="AD448" s="87"/>
+      <c r="AE448" s="87"/>
+      <c r="AF448" s="87"/>
+      <c r="AG448" s="87"/>
+      <c r="AH448" s="87"/>
+      <c r="AI448" s="87"/>
+      <c r="AJ448" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK448" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL448" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM448" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN448" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO448" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP448" s="87"/>
+      <c r="AQ448" s="87"/>
+      <c r="AR448" s="87"/>
+      <c r="AS448" s="87"/>
+    </row>
+    <row r="449" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B449" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C449" s="87">
+        <v>0</v>
+      </c>
+      <c r="D449" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E449" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F449" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G449" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H449" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I449" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J449" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K449" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L449" s="87">
+        <v>0</v>
+      </c>
+      <c r="M449" s="87">
+        <v>0</v>
+      </c>
+      <c r="N449" s="87">
+        <v>0</v>
+      </c>
+      <c r="O449" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P449" s="87"/>
+      <c r="Q449" s="87"/>
+      <c r="R449" s="87"/>
+      <c r="S449" s="87"/>
+      <c r="T449" s="87"/>
+      <c r="U449" s="87"/>
+      <c r="V449" s="87"/>
+      <c r="W449" s="87"/>
+      <c r="X449" s="87"/>
+      <c r="Y449" s="87"/>
+      <c r="Z449" s="87"/>
+      <c r="AA449" s="87"/>
+      <c r="AB449" s="87"/>
+      <c r="AC449" s="87"/>
+      <c r="AD449" s="87"/>
+      <c r="AE449" s="87"/>
+      <c r="AF449" s="87"/>
+      <c r="AG449" s="87"/>
+      <c r="AH449" s="87"/>
+      <c r="AI449" s="87"/>
+      <c r="AJ449" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK449" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL449" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM449" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN449" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO449" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP449" s="87"/>
+      <c r="AQ449" s="87"/>
+      <c r="AR449" s="87"/>
+      <c r="AS449" s="87"/>
+    </row>
+    <row r="450" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B450" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C450" s="87">
+        <v>0</v>
+      </c>
+      <c r="D450" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E450" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F450" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G450" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H450" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I450" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J450" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K450" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L450" s="87">
+        <v>0</v>
+      </c>
+      <c r="M450" s="87">
+        <v>0</v>
+      </c>
+      <c r="N450" s="87">
+        <v>0</v>
+      </c>
+      <c r="O450" s="87" t="s">
+        <v>3335</v>
+      </c>
+      <c r="P450" s="87"/>
+      <c r="Q450" s="87"/>
+      <c r="R450" s="87"/>
+      <c r="S450" s="87"/>
+      <c r="T450" s="87"/>
+      <c r="U450" s="87"/>
+      <c r="V450" s="87"/>
+      <c r="W450" s="87"/>
+      <c r="X450" s="87"/>
+      <c r="Y450" s="87"/>
+      <c r="Z450" s="87"/>
+      <c r="AA450" s="87"/>
+      <c r="AB450" s="87"/>
+      <c r="AC450" s="87"/>
+      <c r="AD450" s="87"/>
+      <c r="AE450" s="87"/>
+      <c r="AF450" s="87"/>
+      <c r="AG450" s="87"/>
+      <c r="AH450" s="87"/>
+      <c r="AI450" s="87"/>
+      <c r="AJ450" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK450" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL450" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM450" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN450" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO450" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP450" s="87"/>
+      <c r="AQ450" s="87"/>
+      <c r="AR450" s="87"/>
+      <c r="AS450" s="87"/>
+    </row>
+    <row r="451" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="87" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B451" s="88"/>
+      <c r="C451" s="87"/>
+      <c r="D451" s="87"/>
+      <c r="E451" s="87"/>
+      <c r="F451" s="87"/>
+      <c r="G451" s="87"/>
+      <c r="H451" s="89"/>
+      <c r="I451" s="87"/>
+      <c r="J451" s="87"/>
+      <c r="K451" s="87"/>
+      <c r="L451" s="87"/>
+      <c r="M451" s="87"/>
+      <c r="N451" s="87"/>
+      <c r="O451" s="87"/>
+      <c r="P451" s="87"/>
+      <c r="Q451" s="87"/>
+      <c r="R451" s="87"/>
+      <c r="S451" s="87"/>
+      <c r="T451" s="87"/>
+      <c r="U451" s="87"/>
+      <c r="V451" s="87"/>
+      <c r="W451" s="87"/>
+      <c r="X451" s="87"/>
+      <c r="Y451" s="87"/>
+      <c r="Z451" s="87"/>
+      <c r="AA451" s="87"/>
+      <c r="AB451" s="87"/>
+      <c r="AC451" s="87"/>
+      <c r="AD451" s="87"/>
+      <c r="AE451" s="87"/>
+      <c r="AF451" s="87"/>
+      <c r="AG451" s="87"/>
+      <c r="AH451" s="87"/>
+      <c r="AI451" s="87"/>
+      <c r="AJ451" s="87"/>
+      <c r="AK451" s="87"/>
+      <c r="AL451" s="87"/>
+      <c r="AM451" s="87"/>
+      <c r="AN451" s="87"/>
+      <c r="AO451" s="87"/>
+      <c r="AP451" s="87"/>
+      <c r="AQ451" s="87"/>
+      <c r="AR451" s="87"/>
+      <c r="AS451" s="87"/>
+    </row>
+    <row r="452" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A452" s="87"/>
+      <c r="B452" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C452" s="87">
+        <v>0</v>
+      </c>
+      <c r="D452" s="87" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E452" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F452" s="87" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G452" s="87"/>
+      <c r="H452" s="89" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I452" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J452" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K452" s="87" t="s">
+        <v>2933</v>
+      </c>
+      <c r="L452" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M452" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="N452" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O452" s="87">
+        <v>66747</v>
+      </c>
+      <c r="P452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Q452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S452" s="87" t="s">
+        <v>3237</v>
+      </c>
+      <c r="T452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AB452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AD452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG452" s="87" t="s">
+        <v>3236</v>
+      </c>
+      <c r="AH452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI452" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ452" s="87" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AK452" s="87" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AL452" s="87" t="s">
+        <v>3254</v>
+      </c>
+      <c r="AM452" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN452" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO452" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP452" s="87">
+        <v>55009</v>
+      </c>
+      <c r="AQ452" s="87">
+        <v>55009</v>
+      </c>
+      <c r="AR452" s="87" t="s">
+        <v>3238</v>
+      </c>
+      <c r="AS452" s="87"/>
+    </row>
+    <row r="453" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A453" s="87" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B453" s="88"/>
+      <c r="C453" s="87"/>
+      <c r="D453" s="87"/>
+      <c r="E453" s="87"/>
+      <c r="F453" s="87"/>
+      <c r="G453" s="87"/>
+      <c r="H453" s="89"/>
+      <c r="I453" s="87"/>
+      <c r="J453" s="87"/>
+      <c r="K453" s="87"/>
+      <c r="L453" s="87"/>
+      <c r="M453" s="87"/>
+      <c r="N453" s="87"/>
+      <c r="O453" s="87"/>
+      <c r="P453" s="87"/>
+      <c r="Q453" s="87"/>
+      <c r="R453" s="87"/>
+      <c r="S453" s="87"/>
+      <c r="T453" s="87"/>
+      <c r="U453" s="87"/>
+      <c r="V453" s="87"/>
+      <c r="W453" s="87"/>
+      <c r="X453" s="87"/>
+      <c r="Y453" s="87"/>
+      <c r="Z453" s="87"/>
+      <c r="AA453" s="87"/>
+      <c r="AB453" s="87"/>
+      <c r="AC453" s="87"/>
+      <c r="AD453" s="87"/>
+      <c r="AE453" s="87"/>
+      <c r="AF453" s="87"/>
+      <c r="AG453" s="87"/>
+      <c r="AH453" s="87"/>
+      <c r="AI453" s="87"/>
+      <c r="AJ453" s="87"/>
+      <c r="AK453" s="87"/>
+      <c r="AL453" s="87"/>
+      <c r="AM453" s="87"/>
+      <c r="AN453" s="87"/>
+      <c r="AO453" s="87"/>
+      <c r="AP453" s="87"/>
+      <c r="AQ453" s="87"/>
+      <c r="AR453" s="87"/>
+      <c r="AS453" s="87"/>
+    </row>
+    <row r="454" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A454" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B422" s="57"/>
-      <c r="C422" s="56"/>
-      <c r="D422" s="85"/>
-      <c r="E422" s="56"/>
-      <c r="F422" s="56"/>
-      <c r="G422" s="56"/>
-      <c r="H422" s="58"/>
-      <c r="I422" s="56"/>
-      <c r="J422" s="56"/>
-      <c r="K422" s="56"/>
-      <c r="L422" s="56"/>
-      <c r="M422" s="56"/>
-      <c r="N422" s="56"/>
-      <c r="O422" s="56"/>
-      <c r="P422" s="56"/>
-      <c r="Q422" s="56"/>
-      <c r="R422" s="56"/>
-      <c r="S422" s="56"/>
-      <c r="T422" s="56"/>
-      <c r="U422" s="56"/>
-      <c r="V422" s="56"/>
-      <c r="W422" s="56"/>
-      <c r="X422" s="56"/>
-      <c r="Y422" s="56"/>
-      <c r="Z422" s="56"/>
-      <c r="AA422" s="56"/>
-      <c r="AB422" s="56"/>
-      <c r="AC422" s="56"/>
-      <c r="AD422" s="56"/>
-      <c r="AE422" s="56"/>
-      <c r="AF422" s="56"/>
-      <c r="AG422" s="56"/>
-      <c r="AH422" s="56"/>
-      <c r="AI422" s="56"/>
-      <c r="AJ422" s="56"/>
-      <c r="AK422" s="56"/>
-      <c r="AL422" s="56"/>
-      <c r="AM422" s="56"/>
-      <c r="AN422" s="56"/>
-      <c r="AO422" s="56"/>
-      <c r="AP422" s="56"/>
-      <c r="AQ422" s="56"/>
-      <c r="AR422" s="56"/>
-      <c r="AS422" s="56"/>
+      <c r="B454" s="57"/>
+      <c r="C454" s="56"/>
+      <c r="D454" s="85"/>
+      <c r="E454" s="56"/>
+      <c r="F454" s="56"/>
+      <c r="G454" s="56"/>
+      <c r="H454" s="58"/>
+      <c r="I454" s="56"/>
+      <c r="J454" s="56"/>
+      <c r="K454" s="56"/>
+      <c r="L454" s="56"/>
+      <c r="M454" s="56"/>
+      <c r="N454" s="56"/>
+      <c r="O454" s="56"/>
+      <c r="P454" s="56"/>
+      <c r="Q454" s="56"/>
+      <c r="R454" s="56"/>
+      <c r="S454" s="56"/>
+      <c r="T454" s="56"/>
+      <c r="U454" s="56"/>
+      <c r="V454" s="56"/>
+      <c r="W454" s="56"/>
+      <c r="X454" s="56"/>
+      <c r="Y454" s="56"/>
+      <c r="Z454" s="56"/>
+      <c r="AA454" s="56"/>
+      <c r="AB454" s="56"/>
+      <c r="AC454" s="56"/>
+      <c r="AD454" s="56"/>
+      <c r="AE454" s="56"/>
+      <c r="AF454" s="56"/>
+      <c r="AG454" s="56"/>
+      <c r="AH454" s="56"/>
+      <c r="AI454" s="56"/>
+      <c r="AJ454" s="56"/>
+      <c r="AK454" s="56"/>
+      <c r="AL454" s="56"/>
+      <c r="AM454" s="56"/>
+      <c r="AN454" s="56"/>
+      <c r="AO454" s="56"/>
+      <c r="AP454" s="56"/>
+      <c r="AQ454" s="56"/>
+      <c r="AR454" s="56"/>
+      <c r="AS454" s="56"/>
+    </row>
+    <row r="456" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="H456" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS422" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:AS454" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
     <cfRule type="duplicateValues" dxfId="31" priority="39"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72047479-3FEE-4A42-8E00-32B5BAAC259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B38D15B-C56F-4A2E-8E59-9554608CD324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="3465" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="3015" yWindow="4200" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14020" uniqueCount="3380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14020" uniqueCount="3390">
   <si>
     <t>date:</t>
   </si>
@@ -10199,6 +10199,36 @@
   </si>
   <si>
     <t>z5r1</t>
+  </si>
+  <si>
+    <t>Alzadaal%5C%27s_Legacy</t>
+  </si>
+  <si>
+    <t>The_Minstrel%5C%27s_Ballad:_Endsinger%5C%27s_Aria</t>
+  </si>
+  <si>
+    <t>The_Porta_Decumana</t>
+  </si>
+  <si>
+    <t>Ultima%5C%27s_Bane_(Unreal)</t>
+  </si>
+  <si>
+    <t>das_herz_des_vulkans1</t>
+  </si>
+  <si>
+    <t>das_herz_des_vulkans2</t>
+  </si>
+  <si>
+    <t>die_palaestra1</t>
+  </si>
+  <si>
+    <t>die_palaestra2</t>
+  </si>
+  <si>
+    <t>wolke_sieben1</t>
+  </si>
+  <si>
+    <t>wolke_sieben2</t>
   </si>
 </sst>
 </file>
@@ -11259,16 +11289,16 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AJ377" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="AL410" sqref="AL410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="10.140625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="46.5703125" style="86" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1" outlineLevel="1"/>
@@ -11283,27 +11313,27 @@
     <col min="14" max="14" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="58.5703125" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="33" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="38.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="36.140625" style="1" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="23" max="23" width="24.42578125" style="1" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="26" width="23.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="15.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="2" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="30" max="30" width="12.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="31" max="31" width="18.85546875" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="10.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="28.85546875" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="17" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="58.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="33" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="38.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="36.140625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="23" max="23" width="24.42578125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="24" max="24" width="27.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="26" width="23.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="29" max="29" width="14.85546875" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="30" max="30" width="12.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="31" max="31" width="18.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="28.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="11.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="106.28515625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="56.140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -15754,7 +15784,7 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
     </row>
-    <row r="35" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>41513</v>
@@ -15887,7 +15917,7 @@
       </c>
       <c r="AS35" s="6"/>
     </row>
-    <row r="36" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>41513</v>
@@ -16020,7 +16050,7 @@
       </c>
       <c r="AS36" s="6"/>
     </row>
-    <row r="37" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>41513</v>
@@ -16153,7 +16183,7 @@
       </c>
       <c r="AS37" s="6"/>
     </row>
-    <row r="38" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>41513</v>
@@ -16286,7 +16316,7 @@
       </c>
       <c r="AS38" s="6"/>
     </row>
-    <row r="39" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>41513</v>
@@ -16419,7 +16449,7 @@
       </c>
       <c r="AS39" s="6"/>
     </row>
-    <row r="40" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>41513</v>
@@ -16552,7 +16582,7 @@
       </c>
       <c r="AS40" s="6"/>
     </row>
-    <row r="41" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>41513</v>
@@ -16685,7 +16715,7 @@
       </c>
       <c r="AS41" s="6"/>
     </row>
-    <row r="42" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41625</v>
@@ -16818,7 +16848,7 @@
       </c>
       <c r="AS42" s="6"/>
     </row>
-    <row r="43" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>41625</v>
@@ -16951,7 +16981,7 @@
       </c>
       <c r="AS43" s="6"/>
     </row>
-    <row r="44" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>41625</v>
@@ -17084,7 +17114,7 @@
       </c>
       <c r="AS44" s="6"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>41625</v>
@@ -17217,7 +17247,7 @@
       </c>
       <c r="AS45" s="6"/>
     </row>
-    <row r="46" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>41625</v>
@@ -17350,7 +17380,7 @@
       </c>
       <c r="AS46" s="6"/>
     </row>
-    <row r="47" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>41690</v>
@@ -17483,7 +17513,7 @@
       </c>
       <c r="AS47" s="6"/>
     </row>
-    <row r="48" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>41690</v>
@@ -17616,7 +17646,7 @@
       </c>
       <c r="AS48" s="6"/>
     </row>
-    <row r="49" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>41723</v>
@@ -17749,7 +17779,7 @@
       </c>
       <c r="AS49" s="6"/>
     </row>
-    <row r="50" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>41723</v>
@@ -17882,7 +17912,7 @@
       </c>
       <c r="AS50" s="6"/>
     </row>
-    <row r="51" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>41723</v>
@@ -18015,7 +18045,7 @@
       </c>
       <c r="AS51" s="6"/>
     </row>
-    <row r="52" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>41723</v>
@@ -18148,7 +18178,7 @@
       </c>
       <c r="AS52" s="6"/>
     </row>
-    <row r="53" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>41828</v>
@@ -18281,7 +18311,7 @@
       </c>
       <c r="AS53" s="6"/>
     </row>
-    <row r="54" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>41828</v>
@@ -18414,7 +18444,7 @@
       </c>
       <c r="AS54" s="6"/>
     </row>
-    <row r="55" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>41940</v>
@@ -18547,7 +18577,7 @@
       </c>
       <c r="AS55" s="6"/>
     </row>
-    <row r="56" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>41940</v>
@@ -18680,7 +18710,7 @@
       </c>
       <c r="AS56" s="6"/>
     </row>
-    <row r="57" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>41940</v>
@@ -18813,7 +18843,7 @@
       </c>
       <c r="AS57" s="6"/>
     </row>
-    <row r="58" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>42024</v>
@@ -18946,7 +18976,7 @@
       </c>
       <c r="AS58" s="6"/>
     </row>
-    <row r="59" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>42024</v>
@@ -19079,7 +19109,7 @@
       </c>
       <c r="AS59" s="6"/>
     </row>
-    <row r="60" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>42024</v>
@@ -19212,7 +19242,7 @@
       </c>
       <c r="AS60" s="6"/>
     </row>
-    <row r="61" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7">
         <v>42094</v>
@@ -19345,7 +19375,7 @@
       </c>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>769</v>
       </c>
@@ -52888,7 +52918,7 @@
       <c r="AR327" s="28"/>
       <c r="AS327" s="28"/>
     </row>
-    <row r="328" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -53021,7 +53051,7 @@
       </c>
       <c r="AS328" s="28"/>
     </row>
-    <row r="329" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -53154,7 +53184,7 @@
       </c>
       <c r="AS329" s="28"/>
     </row>
-    <row r="330" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -53287,7 +53317,7 @@
       </c>
       <c r="AS330" s="28"/>
     </row>
-    <row r="331" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -53420,7 +53450,7 @@
       </c>
       <c r="AS331" s="28"/>
     </row>
-    <row r="332" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -53553,7 +53583,7 @@
       </c>
       <c r="AS332" s="28"/>
     </row>
-    <row r="333" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -53684,7 +53714,7 @@
       </c>
       <c r="AS333" s="28"/>
     </row>
-    <row r="334" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -53817,7 +53847,7 @@
       </c>
       <c r="AS334" s="28"/>
     </row>
-    <row r="335" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -53950,7 +53980,7 @@
       </c>
       <c r="AS335" s="28"/>
     </row>
-    <row r="336" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -54083,7 +54113,7 @@
       </c>
       <c r="AS336" s="28"/>
     </row>
-    <row r="337" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -54216,7 +54246,7 @@
       </c>
       <c r="AS337" s="28"/>
     </row>
-    <row r="338" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -54349,7 +54379,7 @@
       </c>
       <c r="AS338" s="28"/>
     </row>
-    <row r="339" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -54484,7 +54514,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="340" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -54617,7 +54647,7 @@
       </c>
       <c r="AS340" s="28"/>
     </row>
-    <row r="341" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -54750,7 +54780,7 @@
       </c>
       <c r="AS341" s="28"/>
     </row>
-    <row r="342" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -54885,7 +54915,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="343" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -55016,7 +55046,7 @@
       </c>
       <c r="AS343" s="28"/>
     </row>
-    <row r="344" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -55147,7 +55177,7 @@
       </c>
       <c r="AS344" s="28"/>
     </row>
-    <row r="345" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -55276,7 +55306,7 @@
       </c>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -62152,8 +62182,8 @@
       <c r="N403" s="87">
         <v>0</v>
       </c>
-      <c r="O403" s="87" t="s">
-        <v>3335</v>
+      <c r="O403" s="87">
+        <v>70065</v>
       </c>
       <c r="P403" s="87"/>
       <c r="Q403" s="87"/>
@@ -62193,9 +62223,15 @@
       <c r="AO403" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP403" s="87"/>
-      <c r="AQ403" s="87"/>
-      <c r="AR403" s="87"/>
+      <c r="AP403" s="87">
+        <v>87</v>
+      </c>
+      <c r="AQ403" s="87">
+        <v>87</v>
+      </c>
+      <c r="AR403" s="87" t="s">
+        <v>3380</v>
+      </c>
       <c r="AS403" s="87"/>
     </row>
     <row r="404" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
@@ -62247,7 +62283,7 @@
       <c r="AR404" s="87"/>
       <c r="AS404" s="87"/>
     </row>
-    <row r="405" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A405" s="87"/>
       <c r="B405" s="88">
         <v>44537</v>
@@ -62376,7 +62412,7 @@
       </c>
       <c r="AS405" s="87"/>
     </row>
-    <row r="406" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A406" s="87"/>
       <c r="B406" s="88">
         <v>44537</v>
@@ -62505,7 +62541,7 @@
       </c>
       <c r="AS406" s="87"/>
     </row>
-    <row r="407" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A407" s="87"/>
       <c r="B407" s="88">
         <v>44537</v>
@@ -62634,7 +62670,7 @@
       </c>
       <c r="AS407" s="87"/>
     </row>
-    <row r="408" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="87"/>
       <c r="B408" s="88">
         <v>44537</v>
@@ -62763,7 +62799,7 @@
       </c>
       <c r="AS408" s="87"/>
     </row>
-    <row r="409" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="87"/>
       <c r="B409" s="88">
         <v>44537</v>
@@ -62892,7 +62928,7 @@
       </c>
       <c r="AS409" s="87"/>
     </row>
-    <row r="410" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="87"/>
       <c r="B410" s="88">
         <v>44663</v>
@@ -62933,8 +62969,8 @@
       <c r="N410" s="87">
         <v>0</v>
       </c>
-      <c r="O410" s="87" t="s">
-        <v>3335</v>
+      <c r="O410" s="87">
+        <v>69707</v>
       </c>
       <c r="P410" s="87"/>
       <c r="Q410" s="87"/>
@@ -62963,7 +62999,7 @@
         <v>3340</v>
       </c>
       <c r="AL410" s="87" t="s">
-        <v>925</v>
+        <v>3276</v>
       </c>
       <c r="AM410" s="87" t="s">
         <v>925</v>
@@ -62974,12 +63010,18 @@
       <c r="AO410" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP410" s="87"/>
-      <c r="AQ410" s="87"/>
-      <c r="AR410" s="87"/>
+      <c r="AP410" s="87">
+        <v>20083</v>
+      </c>
+      <c r="AQ410" s="87">
+        <v>20083</v>
+      </c>
+      <c r="AR410" s="87" t="s">
+        <v>3381</v>
+      </c>
       <c r="AS410" s="87"/>
     </row>
-    <row r="411" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A411" s="87"/>
       <c r="B411" s="88">
         <v>44663</v>
@@ -63020,8 +63062,8 @@
       <c r="N411" s="87">
         <v>60</v>
       </c>
-      <c r="O411" s="87" t="s">
-        <v>3335</v>
+      <c r="O411" s="87">
+        <v>70058</v>
       </c>
       <c r="P411" s="87"/>
       <c r="Q411" s="87"/>
@@ -63061,12 +63103,18 @@
       <c r="AO411" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP411" s="87"/>
-      <c r="AQ411" s="87"/>
-      <c r="AR411" s="87"/>
+      <c r="AP411" s="87">
+        <v>20082</v>
+      </c>
+      <c r="AQ411" s="87">
+        <v>20082</v>
+      </c>
+      <c r="AR411" s="87" t="s">
+        <v>3382</v>
+      </c>
       <c r="AS411" s="87"/>
     </row>
-    <row r="412" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="87"/>
       <c r="B412" s="88">
         <v>44663</v>
@@ -63107,8 +63155,8 @@
       <c r="N412" s="87">
         <v>565</v>
       </c>
-      <c r="O412" s="87" t="s">
-        <v>3335</v>
+      <c r="O412" s="87">
+        <v>69501</v>
       </c>
       <c r="P412" s="87"/>
       <c r="Q412" s="87"/>
@@ -63148,12 +63196,18 @@
       <c r="AO412" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP412" s="87"/>
-      <c r="AQ412" s="87"/>
-      <c r="AR412" s="87"/>
+      <c r="AP412" s="87">
+        <v>64004</v>
+      </c>
+      <c r="AQ412" s="87">
+        <v>64004</v>
+      </c>
+      <c r="AR412" s="87" t="s">
+        <v>3383</v>
+      </c>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
         <v>3201</v>
       </c>
@@ -63243,8 +63297,8 @@
       <c r="N414" s="87">
         <v>0</v>
       </c>
-      <c r="O414" s="87" t="s">
-        <v>3335</v>
+      <c r="O414" s="87">
+        <v>70073</v>
       </c>
       <c r="P414" s="87"/>
       <c r="Q414" s="87"/>
@@ -63284,9 +63338,15 @@
       <c r="AO414" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP414" s="87"/>
-      <c r="AQ414" s="87"/>
-      <c r="AR414" s="87"/>
+      <c r="AP414" s="87">
+        <v>30115</v>
+      </c>
+      <c r="AQ414" s="87">
+        <v>30115</v>
+      </c>
+      <c r="AR414" s="87" t="s">
+        <v>3376</v>
+      </c>
       <c r="AS414" s="87"/>
     </row>
     <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -64402,7 +64462,7 @@
       <c r="AR423" s="87"/>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="87"/>
       <c r="B424" s="88">
         <v>44663</v>
@@ -64489,7 +64549,7 @@
       <c r="AR424" s="87"/>
       <c r="AS424" s="87"/>
     </row>
-    <row r="425" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A425" s="87"/>
       <c r="B425" s="88">
         <v>44663</v>
@@ -64576,7 +64636,7 @@
       <c r="AR425" s="87"/>
       <c r="AS425" s="87"/>
     </row>
-    <row r="426" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="87"/>
       <c r="B426" s="88">
         <v>44663</v>
@@ -64663,13 +64723,13 @@
       <c r="AR426" s="87"/>
       <c r="AS426" s="87"/>
     </row>
-    <row r="427" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A427" s="87"/>
       <c r="B427" s="88">
         <v>44663</v>
       </c>
       <c r="C427" s="87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D427" s="87" t="s">
         <v>3364</v>
@@ -64678,7 +64738,7 @@
         <v>3086</v>
       </c>
       <c r="F427" s="87" t="s">
-        <v>3365</v>
+        <v>3384</v>
       </c>
       <c r="G427" s="87" t="s">
         <v>3366</v>
@@ -64750,7 +64810,7 @@
       <c r="AR427" s="87"/>
       <c r="AS427" s="87"/>
     </row>
-    <row r="428" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A428" s="87" t="s">
         <v>3375</v>
       </c>
@@ -64839,7 +64899,7 @@
       <c r="AR428" s="87"/>
       <c r="AS428" s="87"/>
     </row>
-    <row r="429" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A429" s="87" t="s">
         <v>3375</v>
       </c>
@@ -64928,13 +64988,13 @@
       <c r="AR429" s="87"/>
       <c r="AS429" s="87"/>
     </row>
-    <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A430" s="87"/>
       <c r="B430" s="88">
         <v>44663</v>
       </c>
       <c r="C430" s="87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D430" s="87" t="s">
         <v>3364</v>
@@ -64943,7 +65003,7 @@
         <v>3086</v>
       </c>
       <c r="F430" s="87" t="s">
-        <v>3365</v>
+        <v>3385</v>
       </c>
       <c r="G430" s="87" t="s">
         <v>3368</v>
@@ -65015,7 +65075,7 @@
       <c r="AR430" s="87"/>
       <c r="AS430" s="87"/>
     </row>
-    <row r="431" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A431" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65104,7 +65164,7 @@
       <c r="AR431" s="87"/>
       <c r="AS431" s="87"/>
     </row>
-    <row r="432" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A432" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65193,7 +65253,7 @@
       <c r="AR432" s="87"/>
       <c r="AS432" s="87"/>
     </row>
-    <row r="433" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A433" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65282,7 +65342,7 @@
       <c r="AR433" s="87"/>
       <c r="AS433" s="87"/>
     </row>
-    <row r="434" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A434" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65371,13 +65431,13 @@
       <c r="AR434" s="87"/>
       <c r="AS434" s="87"/>
     </row>
-    <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A435" s="87"/>
       <c r="B435" s="88">
         <v>44663</v>
       </c>
       <c r="C435" s="87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D435" s="87" t="s">
         <v>3369</v>
@@ -65386,7 +65446,7 @@
         <v>3086</v>
       </c>
       <c r="F435" s="87" t="s">
-        <v>3370</v>
+        <v>3386</v>
       </c>
       <c r="G435" s="87" t="s">
         <v>3366</v>
@@ -65458,7 +65518,7 @@
       <c r="AR435" s="87"/>
       <c r="AS435" s="87"/>
     </row>
-    <row r="436" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A436" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65547,7 +65607,7 @@
       <c r="AR436" s="87"/>
       <c r="AS436" s="87"/>
     </row>
-    <row r="437" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A437" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65636,13 +65696,13 @@
       <c r="AR437" s="87"/>
       <c r="AS437" s="87"/>
     </row>
-    <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A438" s="87"/>
       <c r="B438" s="88">
         <v>44663</v>
       </c>
       <c r="C438" s="87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D438" s="87" t="s">
         <v>3369</v>
@@ -65651,7 +65711,7 @@
         <v>3086</v>
       </c>
       <c r="F438" s="87" t="s">
-        <v>3370</v>
+        <v>3387</v>
       </c>
       <c r="G438" s="87" t="s">
         <v>3368</v>
@@ -65723,7 +65783,7 @@
       <c r="AR438" s="87"/>
       <c r="AS438" s="87"/>
     </row>
-    <row r="439" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A439" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65812,7 +65872,7 @@
       <c r="AR439" s="87"/>
       <c r="AS439" s="87"/>
     </row>
-    <row r="440" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65901,7 +65961,7 @@
       <c r="AR440" s="87"/>
       <c r="AS440" s="87"/>
     </row>
-    <row r="441" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A441" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65990,7 +66050,7 @@
       <c r="AR441" s="87"/>
       <c r="AS441" s="87"/>
     </row>
-    <row r="442" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A442" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66079,13 +66139,13 @@
       <c r="AR442" s="87"/>
       <c r="AS442" s="87"/>
     </row>
-    <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A443" s="87"/>
       <c r="B443" s="88">
         <v>44663</v>
       </c>
       <c r="C443" s="87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D443" s="87" t="s">
         <v>3372</v>
@@ -66094,7 +66154,7 @@
         <v>3086</v>
       </c>
       <c r="F443" s="87" t="s">
-        <v>3373</v>
+        <v>3388</v>
       </c>
       <c r="G443" s="87" t="s">
         <v>3366</v>
@@ -66166,7 +66226,7 @@
       <c r="AR443" s="87"/>
       <c r="AS443" s="87"/>
     </row>
-    <row r="444" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A444" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66255,7 +66315,7 @@
       <c r="AR444" s="87"/>
       <c r="AS444" s="87"/>
     </row>
-    <row r="445" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A445" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66344,13 +66404,13 @@
       <c r="AR445" s="87"/>
       <c r="AS445" s="87"/>
     </row>
-    <row r="446" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="87"/>
       <c r="B446" s="88">
         <v>44663</v>
       </c>
       <c r="C446" s="87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D446" s="87" t="s">
         <v>3372</v>
@@ -66359,7 +66419,7 @@
         <v>3086</v>
       </c>
       <c r="F446" s="87" t="s">
-        <v>3373</v>
+        <v>3389</v>
       </c>
       <c r="G446" s="87" t="s">
         <v>3368</v>
@@ -66431,7 +66491,7 @@
       <c r="AR446" s="87"/>
       <c r="AS446" s="87"/>
     </row>
-    <row r="447" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A447" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66520,7 +66580,7 @@
       <c r="AR447" s="87"/>
       <c r="AS447" s="87"/>
     </row>
-    <row r="448" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A448" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66609,7 +66669,7 @@
       <c r="AR448" s="87"/>
       <c r="AS448" s="87"/>
     </row>
-    <row r="449" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A449" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66698,7 +66758,7 @@
       <c r="AR449" s="87"/>
       <c r="AS449" s="87"/>
     </row>
-    <row r="450" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66787,7 +66847,7 @@
       <c r="AR450" s="87"/>
       <c r="AS450" s="87"/>
     </row>
-    <row r="451" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A451" s="87" t="s">
         <v>3205</v>
       </c>
@@ -67152,7 +67212,7 @@
   <conditionalFormatting sqref="F395:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
     <cfRule type="duplicateValues" dxfId="5" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O385:O1048576 O1:O341 O346:O368 O370:O377">
+  <conditionalFormatting sqref="O1:O341 O346:O368 O370:O377 O385:O1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B38D15B-C56F-4A2E-8E59-9554608CD324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559C565-9860-4E2C-BD28-7FB7712320C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="4200" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -11289,10 +11289,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AJ377" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL410" sqref="AL410"/>
+      <selection pane="bottomRight" activeCell="A446" sqref="A446:F446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -11313,25 +11313,25 @@
     <col min="14" max="14" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="58.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="33" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="38.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="36.140625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="23" max="23" width="24.42578125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="24" max="24" width="27.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="26" width="23.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="15.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="29" max="29" width="14.85546875" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="30" max="30" width="12.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="31" max="31" width="18.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="10.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="28.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="58.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="33" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="38.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="36.140625" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="23" max="23" width="24.42578125" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="24" max="24" width="27.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="26" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.28515625" style="1" customWidth="1" outlineLevel="2" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="29" max="29" width="14.85546875" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="31" max="31" width="18.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="28.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="17" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="56.140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -63092,7 +63092,7 @@
         <v>3344</v>
       </c>
       <c r="AL411" s="87" t="s">
-        <v>925</v>
+        <v>1146</v>
       </c>
       <c r="AM411" s="87" t="s">
         <v>925</v>
@@ -63185,7 +63185,7 @@
         <v>3349</v>
       </c>
       <c r="AL412" s="87" t="s">
-        <v>925</v>
+        <v>1146</v>
       </c>
       <c r="AM412" s="87" t="s">
         <v>925</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559C565-9860-4E2C-BD28-7FB7712320C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE5AC43-9326-4431-BD93-947B9B88191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4200" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="105" yWindow="3375" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14020" uniqueCount="3390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14021" uniqueCount="3390">
   <si>
     <t>date:</t>
   </si>
@@ -11289,10 +11289,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E426" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A446" sqref="A446:F446"/>
+      <selection pane="bottomRight" activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8">
-        <v>66060</v>
+        <v>70058</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>2725</v>
@@ -16184,7 +16184,9 @@
       <c r="AS37" s="6"/>
     </row>
     <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>3375</v>
+      </c>
       <c r="B38" s="7">
         <v>41513</v>
       </c>
@@ -52918,7 +52920,7 @@
       <c r="AR327" s="28"/>
       <c r="AS327" s="28"/>
     </row>
-    <row r="328" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -53051,7 +53053,7 @@
       </c>
       <c r="AS328" s="28"/>
     </row>
-    <row r="329" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -53184,7 +53186,7 @@
       </c>
       <c r="AS329" s="28"/>
     </row>
-    <row r="330" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -53317,7 +53319,7 @@
       </c>
       <c r="AS330" s="28"/>
     </row>
-    <row r="331" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -53450,7 +53452,7 @@
       </c>
       <c r="AS331" s="28"/>
     </row>
-    <row r="332" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -53583,7 +53585,7 @@
       </c>
       <c r="AS332" s="28"/>
     </row>
-    <row r="333" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -53714,7 +53716,7 @@
       </c>
       <c r="AS333" s="28"/>
     </row>
-    <row r="334" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -53847,7 +53849,7 @@
       </c>
       <c r="AS334" s="28"/>
     </row>
-    <row r="335" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -53980,7 +53982,7 @@
       </c>
       <c r="AS335" s="28"/>
     </row>
-    <row r="336" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -54113,7 +54115,7 @@
       </c>
       <c r="AS336" s="28"/>
     </row>
-    <row r="337" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -54246,7 +54248,7 @@
       </c>
       <c r="AS337" s="28"/>
     </row>
-    <row r="338" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -54379,7 +54381,7 @@
       </c>
       <c r="AS338" s="28"/>
     </row>
-    <row r="339" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -54514,7 +54516,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="340" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -54647,7 +54649,7 @@
       </c>
       <c r="AS340" s="28"/>
     </row>
-    <row r="341" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -54780,7 +54782,7 @@
       </c>
       <c r="AS341" s="28"/>
     </row>
-    <row r="342" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -54915,7 +54917,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="343" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -55046,7 +55048,7 @@
       </c>
       <c r="AS343" s="28"/>
     </row>
-    <row r="344" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -55177,7 +55179,7 @@
       </c>
       <c r="AS344" s="28"/>
     </row>
-    <row r="345" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -55306,7 +55308,7 @@
       </c>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -62283,7 +62285,7 @@
       <c r="AR404" s="87"/>
       <c r="AS404" s="87"/>
     </row>
-    <row r="405" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A405" s="87"/>
       <c r="B405" s="88">
         <v>44537</v>
@@ -62412,7 +62414,7 @@
       </c>
       <c r="AS405" s="87"/>
     </row>
-    <row r="406" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A406" s="87"/>
       <c r="B406" s="88">
         <v>44537</v>
@@ -62541,7 +62543,7 @@
       </c>
       <c r="AS406" s="87"/>
     </row>
-    <row r="407" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A407" s="87"/>
       <c r="B407" s="88">
         <v>44537</v>
@@ -62670,7 +62672,7 @@
       </c>
       <c r="AS407" s="87"/>
     </row>
-    <row r="408" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="87"/>
       <c r="B408" s="88">
         <v>44537</v>
@@ -62799,7 +62801,7 @@
       </c>
       <c r="AS408" s="87"/>
     </row>
-    <row r="409" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="87"/>
       <c r="B409" s="88">
         <v>44537</v>
@@ -62928,7 +62930,7 @@
       </c>
       <c r="AS409" s="87"/>
     </row>
-    <row r="410" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="87"/>
       <c r="B410" s="88">
         <v>44663</v>
@@ -63021,7 +63023,7 @@
       </c>
       <c r="AS410" s="87"/>
     </row>
-    <row r="411" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A411" s="87"/>
       <c r="B411" s="88">
         <v>44663</v>
@@ -63114,7 +63116,7 @@
       </c>
       <c r="AS411" s="87"/>
     </row>
-    <row r="412" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="87"/>
       <c r="B412" s="88">
         <v>44663</v>
@@ -63207,7 +63209,7 @@
       </c>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
         <v>3201</v>
       </c>
@@ -64462,7 +64464,7 @@
       <c r="AR423" s="87"/>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="87"/>
       <c r="B424" s="88">
         <v>44663</v>
@@ -64549,7 +64551,7 @@
       <c r="AR424" s="87"/>
       <c r="AS424" s="87"/>
     </row>
-    <row r="425" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A425" s="87"/>
       <c r="B425" s="88">
         <v>44663</v>
@@ -64636,7 +64638,7 @@
       <c r="AR425" s="87"/>
       <c r="AS425" s="87"/>
     </row>
-    <row r="426" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="87"/>
       <c r="B426" s="88">
         <v>44663</v>
@@ -64723,7 +64725,7 @@
       <c r="AR426" s="87"/>
       <c r="AS426" s="87"/>
     </row>
-    <row r="427" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A427" s="87"/>
       <c r="B427" s="88">
         <v>44663</v>
@@ -64810,7 +64812,7 @@
       <c r="AR427" s="87"/>
       <c r="AS427" s="87"/>
     </row>
-    <row r="428" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A428" s="87" t="s">
         <v>3375</v>
       </c>
@@ -64899,7 +64901,7 @@
       <c r="AR428" s="87"/>
       <c r="AS428" s="87"/>
     </row>
-    <row r="429" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A429" s="87" t="s">
         <v>3375</v>
       </c>
@@ -64988,7 +64990,7 @@
       <c r="AR429" s="87"/>
       <c r="AS429" s="87"/>
     </row>
-    <row r="430" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A430" s="87"/>
       <c r="B430" s="88">
         <v>44663</v>
@@ -65075,7 +65077,7 @@
       <c r="AR430" s="87"/>
       <c r="AS430" s="87"/>
     </row>
-    <row r="431" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A431" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65164,7 +65166,7 @@
       <c r="AR431" s="87"/>
       <c r="AS431" s="87"/>
     </row>
-    <row r="432" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A432" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65253,7 +65255,7 @@
       <c r="AR432" s="87"/>
       <c r="AS432" s="87"/>
     </row>
-    <row r="433" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A433" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65342,7 +65344,7 @@
       <c r="AR433" s="87"/>
       <c r="AS433" s="87"/>
     </row>
-    <row r="434" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A434" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65431,7 +65433,7 @@
       <c r="AR434" s="87"/>
       <c r="AS434" s="87"/>
     </row>
-    <row r="435" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A435" s="87"/>
       <c r="B435" s="88">
         <v>44663</v>
@@ -65518,7 +65520,7 @@
       <c r="AR435" s="87"/>
       <c r="AS435" s="87"/>
     </row>
-    <row r="436" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A436" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65607,7 +65609,7 @@
       <c r="AR436" s="87"/>
       <c r="AS436" s="87"/>
     </row>
-    <row r="437" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A437" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65696,7 +65698,7 @@
       <c r="AR437" s="87"/>
       <c r="AS437" s="87"/>
     </row>
-    <row r="438" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A438" s="87"/>
       <c r="B438" s="88">
         <v>44663</v>
@@ -65783,7 +65785,7 @@
       <c r="AR438" s="87"/>
       <c r="AS438" s="87"/>
     </row>
-    <row r="439" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A439" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65872,7 +65874,7 @@
       <c r="AR439" s="87"/>
       <c r="AS439" s="87"/>
     </row>
-    <row r="440" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="87" t="s">
         <v>3375</v>
       </c>
@@ -65961,7 +65963,7 @@
       <c r="AR440" s="87"/>
       <c r="AS440" s="87"/>
     </row>
-    <row r="441" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A441" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66050,7 +66052,7 @@
       <c r="AR441" s="87"/>
       <c r="AS441" s="87"/>
     </row>
-    <row r="442" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A442" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66139,7 +66141,7 @@
       <c r="AR442" s="87"/>
       <c r="AS442" s="87"/>
     </row>
-    <row r="443" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A443" s="87"/>
       <c r="B443" s="88">
         <v>44663</v>
@@ -66226,7 +66228,7 @@
       <c r="AR443" s="87"/>
       <c r="AS443" s="87"/>
     </row>
-    <row r="444" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A444" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66315,7 +66317,7 @@
       <c r="AR444" s="87"/>
       <c r="AS444" s="87"/>
     </row>
-    <row r="445" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A445" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66404,7 +66406,7 @@
       <c r="AR445" s="87"/>
       <c r="AS445" s="87"/>
     </row>
-    <row r="446" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="87"/>
       <c r="B446" s="88">
         <v>44663</v>
@@ -66491,7 +66493,7 @@
       <c r="AR446" s="87"/>
       <c r="AS446" s="87"/>
     </row>
-    <row r="447" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A447" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66580,7 +66582,7 @@
       <c r="AR447" s="87"/>
       <c r="AS447" s="87"/>
     </row>
-    <row r="448" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A448" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66669,7 +66671,7 @@
       <c r="AR448" s="87"/>
       <c r="AS448" s="87"/>
     </row>
-    <row r="449" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A449" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66758,7 +66760,7 @@
       <c r="AR449" s="87"/>
       <c r="AS449" s="87"/>
     </row>
-    <row r="450" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="87" t="s">
         <v>3375</v>
       </c>
@@ -66847,7 +66849,7 @@
       <c r="AR450" s="87"/>
       <c r="AS450" s="87"/>
     </row>
-    <row r="451" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A451" s="87" t="s">
         <v>3205</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE5AC43-9326-4431-BD93-947B9B88191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED220D-B3DA-4220-8E63-5A971329BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="3375" windowWidth="31230" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$AS$454</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$AS$455</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14021" uniqueCount="3390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="3397">
   <si>
     <t>date:</t>
   </si>
@@ -10229,6 +10229,27 @@
   </si>
   <si>
     <t>wolke_sieben2</t>
+  </si>
+  <si>
+    <t>Drachenkrieg</t>
+  </si>
+  <si>
+    <t>drachenkrieg</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112469.tex</t>
+  </si>
+  <si>
+    <t>fataler_raid</t>
+  </si>
+  <si>
+    <t>r1fz</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>['DSR', 'DSWU']</t>
   </si>
 </sst>
 </file>
@@ -10649,7 +10670,27 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{1C4B43FA-7260-408A-8148-908495596B84}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11289,10 +11330,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AM258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D451" sqref="D451"/>
+      <selection pane="bottomRight" activeCell="AP423" sqref="AP423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -63258,7 +63299,7 @@
       <c r="AR413" s="87"/>
       <c r="AS413" s="87"/>
     </row>
-    <row r="414" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
         <v>44663</v>
@@ -63351,7 +63392,7 @@
       </c>
       <c r="AS414" s="87"/>
     </row>
-    <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
         <v>44551</v>
@@ -63484,7 +63525,7 @@
       </c>
       <c r="AS415" s="87"/>
     </row>
-    <row r="416" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
         <v>44551</v>
@@ -63617,7 +63658,7 @@
       </c>
       <c r="AS416" s="87"/>
     </row>
-    <row r="417" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A417" s="87"/>
       <c r="B417" s="88">
         <v>44551</v>
@@ -63750,7 +63791,7 @@
       </c>
       <c r="AS417" s="87"/>
     </row>
-    <row r="418" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="87"/>
       <c r="B418" s="88">
         <v>44551</v>
@@ -63883,7 +63924,7 @@
       </c>
       <c r="AS418" s="87"/>
     </row>
-    <row r="419" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="87"/>
       <c r="B419" s="88">
         <v>44565</v>
@@ -64016,7 +64057,7 @@
       </c>
       <c r="AS419" s="87"/>
     </row>
-    <row r="420" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
         <v>44565</v>
@@ -64149,7 +64190,7 @@
       </c>
       <c r="AS420" s="87"/>
     </row>
-    <row r="421" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="87"/>
       <c r="B421" s="88">
         <v>44565</v>
@@ -64282,7 +64323,7 @@
       </c>
       <c r="AS421" s="87"/>
     </row>
-    <row r="422" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="87"/>
       <c r="B422" s="88">
         <v>44565</v>
@@ -64415,24 +64456,50 @@
       </c>
       <c r="AS422" s="87"/>
     </row>
-    <row r="423" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="87" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B423" s="88"/>
-      <c r="C423" s="87"/>
-      <c r="D423" s="87"/>
-      <c r="E423" s="87"/>
-      <c r="F423" s="87"/>
-      <c r="G423" s="87"/>
-      <c r="H423" s="89"/>
-      <c r="I423" s="87"/>
-      <c r="J423" s="87"/>
-      <c r="K423" s="87"/>
-      <c r="L423" s="87"/>
-      <c r="M423" s="87"/>
-      <c r="N423" s="87"/>
-      <c r="O423" s="87"/>
+    <row r="423" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="87"/>
+      <c r="B423" s="88">
+        <v>44677</v>
+      </c>
+      <c r="C423" s="87">
+        <v>137</v>
+      </c>
+      <c r="D423" s="87" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E423" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F423" s="87" t="s">
+        <v>3391</v>
+      </c>
+      <c r="G423" s="87" t="s">
+        <v>3392</v>
+      </c>
+      <c r="H423" s="89" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I423" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J423" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="K423" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L423" s="87">
+        <v>90</v>
+      </c>
+      <c r="M423" s="87">
+        <v>0</v>
+      </c>
+      <c r="N423" s="87">
+        <v>605</v>
+      </c>
+      <c r="O423" s="87" t="s">
+        <v>3335</v>
+      </c>
       <c r="P423" s="87"/>
       <c r="Q423" s="87"/>
       <c r="R423" s="87"/>
@@ -64453,61 +64520,47 @@
       <c r="AG423" s="87"/>
       <c r="AH423" s="87"/>
       <c r="AI423" s="87"/>
-      <c r="AJ423" s="87"/>
-      <c r="AK423" s="87"/>
-      <c r="AL423" s="87"/>
-      <c r="AM423" s="87"/>
-      <c r="AN423" s="87"/>
-      <c r="AO423" s="87"/>
+      <c r="AJ423" s="87" t="s">
+        <v>3393</v>
+      </c>
+      <c r="AK423" s="87" t="s">
+        <v>3394</v>
+      </c>
+      <c r="AL423" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM423" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN423" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO423" s="87" t="s">
+        <v>3396</v>
+      </c>
       <c r="AP423" s="87"/>
       <c r="AQ423" s="87"/>
       <c r="AR423" s="87"/>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="87"/>
-      <c r="B424" s="88">
-        <v>44663</v>
-      </c>
-      <c r="C424" s="87">
-        <v>0</v>
-      </c>
-      <c r="D424" s="87" t="s">
-        <v>3351</v>
-      </c>
-      <c r="E424" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F424" s="87" t="s">
-        <v>3352</v>
-      </c>
-      <c r="G424" s="87" t="s">
-        <v>3353</v>
-      </c>
-      <c r="H424" s="89" t="s">
-        <v>3350</v>
-      </c>
-      <c r="I424" s="87" t="s">
-        <v>3334</v>
-      </c>
-      <c r="J424" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K424" s="87" t="s">
-        <v>3354</v>
-      </c>
-      <c r="L424" s="87">
-        <v>0</v>
-      </c>
-      <c r="M424" s="87">
-        <v>0</v>
-      </c>
-      <c r="N424" s="87">
-        <v>0</v>
-      </c>
-      <c r="O424" s="87" t="s">
-        <v>3335</v>
-      </c>
+    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A424" s="87" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B424" s="88"/>
+      <c r="C424" s="87"/>
+      <c r="D424" s="87"/>
+      <c r="E424" s="87"/>
+      <c r="F424" s="87"/>
+      <c r="G424" s="87"/>
+      <c r="H424" s="89"/>
+      <c r="I424" s="87"/>
+      <c r="J424" s="87"/>
+      <c r="K424" s="87"/>
+      <c r="L424" s="87"/>
+      <c r="M424" s="87"/>
+      <c r="N424" s="87"/>
+      <c r="O424" s="87"/>
       <c r="P424" s="87"/>
       <c r="Q424" s="87"/>
       <c r="R424" s="87"/>
@@ -64528,24 +64581,12 @@
       <c r="AG424" s="87"/>
       <c r="AH424" s="87"/>
       <c r="AI424" s="87"/>
-      <c r="AJ424" s="87" t="s">
-        <v>575</v>
-      </c>
-      <c r="AK424" s="87" t="s">
-        <v>3355</v>
-      </c>
-      <c r="AL424" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AM424" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN424" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO424" s="87" t="s">
-        <v>925</v>
-      </c>
+      <c r="AJ424" s="87"/>
+      <c r="AK424" s="87"/>
+      <c r="AL424" s="87"/>
+      <c r="AM424" s="87"/>
+      <c r="AN424" s="87"/>
+      <c r="AO424" s="87"/>
       <c r="AP424" s="87"/>
       <c r="AQ424" s="87"/>
       <c r="AR424" s="87"/>
@@ -64560,16 +64601,16 @@
         <v>0</v>
       </c>
       <c r="D425" s="87" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="E425" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F425" s="87" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
       <c r="G425" s="87" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
       <c r="H425" s="89" t="s">
         <v>3350</v>
@@ -64619,7 +64660,7 @@
         <v>575</v>
       </c>
       <c r="AK425" s="87" t="s">
-        <v>3359</v>
+        <v>3355</v>
       </c>
       <c r="AL425" s="87" t="s">
         <v>925</v>
@@ -64647,16 +64688,16 @@
         <v>0</v>
       </c>
       <c r="D426" s="87" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="E426" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F426" s="87" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
       <c r="G426" s="87" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
       <c r="H426" s="89" t="s">
         <v>3350</v>
@@ -64706,7 +64747,7 @@
         <v>575</v>
       </c>
       <c r="AK426" s="87" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
       <c r="AL426" s="87" t="s">
         <v>925</v>
@@ -64731,19 +64772,19 @@
         <v>44663</v>
       </c>
       <c r="C427" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D427" s="87" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
       <c r="E427" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F427" s="87" t="s">
-        <v>3384</v>
+        <v>3361</v>
       </c>
       <c r="G427" s="87" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
       <c r="H427" s="89" t="s">
         <v>3350</v>
@@ -64793,7 +64834,7 @@
         <v>575</v>
       </c>
       <c r="AK427" s="87" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="AL427" s="87" t="s">
         <v>925</v>
@@ -64813,14 +64854,12 @@
       <c r="AS427" s="87"/>
     </row>
     <row r="428" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="87" t="s">
-        <v>3375</v>
-      </c>
+      <c r="A428" s="87"/>
       <c r="B428" s="88">
         <v>44663</v>
       </c>
       <c r="C428" s="87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428" s="87" t="s">
         <v>3364</v>
@@ -64829,7 +64868,7 @@
         <v>3086</v>
       </c>
       <c r="F428" s="87" t="s">
-        <v>3365</v>
+        <v>3384</v>
       </c>
       <c r="G428" s="87" t="s">
         <v>3366</v>
@@ -64991,12 +65030,14 @@
       <c r="AS429" s="87"/>
     </row>
     <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="87"/>
+      <c r="A430" s="87" t="s">
+        <v>3375</v>
+      </c>
       <c r="B430" s="88">
         <v>44663</v>
       </c>
       <c r="C430" s="87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D430" s="87" t="s">
         <v>3364</v>
@@ -65005,10 +65046,10 @@
         <v>3086</v>
       </c>
       <c r="F430" s="87" t="s">
-        <v>3385</v>
+        <v>3365</v>
       </c>
       <c r="G430" s="87" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="H430" s="89" t="s">
         <v>3350</v>
@@ -65078,14 +65119,12 @@
       <c r="AS430" s="87"/>
     </row>
     <row r="431" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="87" t="s">
-        <v>3375</v>
-      </c>
+      <c r="A431" s="87"/>
       <c r="B431" s="88">
         <v>44663</v>
       </c>
       <c r="C431" s="87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D431" s="87" t="s">
         <v>3364</v>
@@ -65094,7 +65133,7 @@
         <v>3086</v>
       </c>
       <c r="F431" s="87" t="s">
-        <v>3365</v>
+        <v>3385</v>
       </c>
       <c r="G431" s="87" t="s">
         <v>3368</v>
@@ -65434,24 +65473,26 @@
       <c r="AS434" s="87"/>
     </row>
     <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="87"/>
+      <c r="A435" s="87" t="s">
+        <v>3375</v>
+      </c>
       <c r="B435" s="88">
         <v>44663</v>
       </c>
       <c r="C435" s="87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D435" s="87" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
       <c r="E435" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F435" s="87" t="s">
-        <v>3386</v>
+        <v>3365</v>
       </c>
       <c r="G435" s="87" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="H435" s="89" t="s">
         <v>3350</v>
@@ -65501,7 +65542,7 @@
         <v>575</v>
       </c>
       <c r="AK435" s="87" t="s">
-        <v>3371</v>
+        <v>3367</v>
       </c>
       <c r="AL435" s="87" t="s">
         <v>925</v>
@@ -65521,14 +65562,12 @@
       <c r="AS435" s="87"/>
     </row>
     <row r="436" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="87" t="s">
-        <v>3375</v>
-      </c>
+      <c r="A436" s="87"/>
       <c r="B436" s="88">
         <v>44663</v>
       </c>
       <c r="C436" s="87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D436" s="87" t="s">
         <v>3369</v>
@@ -65537,7 +65576,7 @@
         <v>3086</v>
       </c>
       <c r="F436" s="87" t="s">
-        <v>3370</v>
+        <v>3386</v>
       </c>
       <c r="G436" s="87" t="s">
         <v>3366</v>
@@ -65699,12 +65738,14 @@
       <c r="AS437" s="87"/>
     </row>
     <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="87"/>
+      <c r="A438" s="87" t="s">
+        <v>3375</v>
+      </c>
       <c r="B438" s="88">
         <v>44663</v>
       </c>
       <c r="C438" s="87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D438" s="87" t="s">
         <v>3369</v>
@@ -65713,10 +65754,10 @@
         <v>3086</v>
       </c>
       <c r="F438" s="87" t="s">
-        <v>3387</v>
+        <v>3370</v>
       </c>
       <c r="G438" s="87" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="H438" s="89" t="s">
         <v>3350</v>
@@ -65786,14 +65827,12 @@
       <c r="AS438" s="87"/>
     </row>
     <row r="439" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="87" t="s">
-        <v>3375</v>
-      </c>
+      <c r="A439" s="87"/>
       <c r="B439" s="88">
         <v>44663</v>
       </c>
       <c r="C439" s="87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D439" s="87" t="s">
         <v>3369</v>
@@ -65802,7 +65841,7 @@
         <v>3086</v>
       </c>
       <c r="F439" s="87" t="s">
-        <v>3370</v>
+        <v>3387</v>
       </c>
       <c r="G439" s="87" t="s">
         <v>3368</v>
@@ -66142,24 +66181,26 @@
       <c r="AS442" s="87"/>
     </row>
     <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="87"/>
+      <c r="A443" s="87" t="s">
+        <v>3375</v>
+      </c>
       <c r="B443" s="88">
         <v>44663</v>
       </c>
       <c r="C443" s="87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D443" s="87" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="E443" s="87" t="s">
         <v>3086</v>
       </c>
       <c r="F443" s="87" t="s">
-        <v>3388</v>
+        <v>3370</v>
       </c>
       <c r="G443" s="87" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="H443" s="89" t="s">
         <v>3350</v>
@@ -66209,7 +66250,7 @@
         <v>575</v>
       </c>
       <c r="AK443" s="87" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="AL443" s="87" t="s">
         <v>925</v>
@@ -66229,14 +66270,12 @@
       <c r="AS443" s="87"/>
     </row>
     <row r="444" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="87" t="s">
-        <v>3375</v>
-      </c>
+      <c r="A444" s="87"/>
       <c r="B444" s="88">
         <v>44663</v>
       </c>
       <c r="C444" s="87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D444" s="87" t="s">
         <v>3372</v>
@@ -66245,7 +66284,7 @@
         <v>3086</v>
       </c>
       <c r="F444" s="87" t="s">
-        <v>3373</v>
+        <v>3388</v>
       </c>
       <c r="G444" s="87" t="s">
         <v>3366</v>
@@ -66407,12 +66446,14 @@
       <c r="AS445" s="87"/>
     </row>
     <row r="446" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="87"/>
+      <c r="A446" s="87" t="s">
+        <v>3375</v>
+      </c>
       <c r="B446" s="88">
         <v>44663</v>
       </c>
       <c r="C446" s="87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D446" s="87" t="s">
         <v>3372</v>
@@ -66421,10 +66462,10 @@
         <v>3086</v>
       </c>
       <c r="F446" s="87" t="s">
-        <v>3389</v>
+        <v>3373</v>
       </c>
       <c r="G446" s="87" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="H446" s="89" t="s">
         <v>3350</v>
@@ -66494,14 +66535,12 @@
       <c r="AS446" s="87"/>
     </row>
     <row r="447" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="87" t="s">
-        <v>3375</v>
-      </c>
+      <c r="A447" s="87"/>
       <c r="B447" s="88">
         <v>44663</v>
       </c>
       <c r="C447" s="87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D447" s="87" t="s">
         <v>3372</v>
@@ -66510,7 +66549,7 @@
         <v>3086</v>
       </c>
       <c r="F447" s="87" t="s">
-        <v>3373</v>
+        <v>3389</v>
       </c>
       <c r="G447" s="87" t="s">
         <v>3368</v>
@@ -66849,24 +66888,52 @@
       <c r="AR450" s="87"/>
       <c r="AS450" s="87"/>
     </row>
-    <row r="451" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A451" s="87" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B451" s="88"/>
-      <c r="C451" s="87"/>
-      <c r="D451" s="87"/>
-      <c r="E451" s="87"/>
-      <c r="F451" s="87"/>
-      <c r="G451" s="87"/>
-      <c r="H451" s="89"/>
-      <c r="I451" s="87"/>
-      <c r="J451" s="87"/>
-      <c r="K451" s="87"/>
-      <c r="L451" s="87"/>
-      <c r="M451" s="87"/>
-      <c r="N451" s="87"/>
-      <c r="O451" s="87"/>
+        <v>3375</v>
+      </c>
+      <c r="B451" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C451" s="87">
+        <v>0</v>
+      </c>
+      <c r="D451" s="87" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E451" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F451" s="87" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G451" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H451" s="89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I451" s="87" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J451" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K451" s="87" t="s">
+        <v>3354</v>
+      </c>
+      <c r="L451" s="87">
+        <v>0</v>
+      </c>
+      <c r="M451" s="87">
+        <v>0</v>
+      </c>
+      <c r="N451" s="87">
+        <v>0</v>
+      </c>
+      <c r="O451" s="87" t="s">
+        <v>3335</v>
+      </c>
       <c r="P451" s="87"/>
       <c r="Q451" s="87"/>
       <c r="R451" s="87"/>
@@ -66887,347 +66954,414 @@
       <c r="AG451" s="87"/>
       <c r="AH451" s="87"/>
       <c r="AI451" s="87"/>
-      <c r="AJ451" s="87"/>
-      <c r="AK451" s="87"/>
-      <c r="AL451" s="87"/>
-      <c r="AM451" s="87"/>
-      <c r="AN451" s="87"/>
-      <c r="AO451" s="87"/>
+      <c r="AJ451" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK451" s="87" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AL451" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM451" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN451" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO451" s="87" t="s">
+        <v>925</v>
+      </c>
       <c r="AP451" s="87"/>
       <c r="AQ451" s="87"/>
       <c r="AR451" s="87"/>
       <c r="AS451" s="87"/>
     </row>
-    <row r="452" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A452" s="87"/>
-      <c r="B452" s="88">
-        <v>44565</v>
-      </c>
-      <c r="C452" s="87">
-        <v>0</v>
-      </c>
-      <c r="D452" s="87" t="s">
-        <v>3186</v>
-      </c>
-      <c r="E452" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F452" s="87" t="s">
-        <v>3187</v>
-      </c>
+    <row r="452" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="87" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B452" s="88"/>
+      <c r="C452" s="87"/>
+      <c r="D452" s="87"/>
+      <c r="E452" s="87"/>
+      <c r="F452" s="87"/>
       <c r="G452" s="87"/>
-      <c r="H452" s="89" t="s">
-        <v>3194</v>
-      </c>
-      <c r="I452" s="87" t="s">
-        <v>3090</v>
-      </c>
-      <c r="J452" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K452" s="87" t="s">
-        <v>2933</v>
-      </c>
-      <c r="L452" s="87" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M452" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="N452" s="87" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O452" s="87">
-        <v>66747</v>
-      </c>
-      <c r="P452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Q452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S452" s="87" t="s">
-        <v>3237</v>
-      </c>
-      <c r="T452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AB452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AD452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG452" s="87" t="s">
-        <v>3236</v>
-      </c>
-      <c r="AH452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AI452" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AJ452" s="87" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AK452" s="87" t="s">
-        <v>3188</v>
-      </c>
-      <c r="AL452" s="87" t="s">
-        <v>3254</v>
-      </c>
-      <c r="AM452" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN452" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO452" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP452" s="87">
-        <v>55009</v>
-      </c>
-      <c r="AQ452" s="87">
-        <v>55009</v>
-      </c>
-      <c r="AR452" s="87" t="s">
-        <v>3238</v>
-      </c>
+      <c r="H452" s="89"/>
+      <c r="I452" s="87"/>
+      <c r="J452" s="87"/>
+      <c r="K452" s="87"/>
+      <c r="L452" s="87"/>
+      <c r="M452" s="87"/>
+      <c r="N452" s="87"/>
+      <c r="O452" s="87"/>
+      <c r="P452" s="87"/>
+      <c r="Q452" s="87"/>
+      <c r="R452" s="87"/>
+      <c r="S452" s="87"/>
+      <c r="T452" s="87"/>
+      <c r="U452" s="87"/>
+      <c r="V452" s="87"/>
+      <c r="W452" s="87"/>
+      <c r="X452" s="87"/>
+      <c r="Y452" s="87"/>
+      <c r="Z452" s="87"/>
+      <c r="AA452" s="87"/>
+      <c r="AB452" s="87"/>
+      <c r="AC452" s="87"/>
+      <c r="AD452" s="87"/>
+      <c r="AE452" s="87"/>
+      <c r="AF452" s="87"/>
+      <c r="AG452" s="87"/>
+      <c r="AH452" s="87"/>
+      <c r="AI452" s="87"/>
+      <c r="AJ452" s="87"/>
+      <c r="AK452" s="87"/>
+      <c r="AL452" s="87"/>
+      <c r="AM452" s="87"/>
+      <c r="AN452" s="87"/>
+      <c r="AO452" s="87"/>
+      <c r="AP452" s="87"/>
+      <c r="AQ452" s="87"/>
+      <c r="AR452" s="87"/>
       <c r="AS452" s="87"/>
     </row>
     <row r="453" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A453" s="87" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B453" s="88"/>
-      <c r="C453" s="87"/>
-      <c r="D453" s="87"/>
-      <c r="E453" s="87"/>
-      <c r="F453" s="87"/>
+      <c r="A453" s="87"/>
+      <c r="B453" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C453" s="87">
+        <v>0</v>
+      </c>
+      <c r="D453" s="87" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E453" s="87" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F453" s="87" t="s">
+        <v>3187</v>
+      </c>
       <c r="G453" s="87"/>
-      <c r="H453" s="89"/>
-      <c r="I453" s="87"/>
-      <c r="J453" s="87"/>
-      <c r="K453" s="87"/>
-      <c r="L453" s="87"/>
-      <c r="M453" s="87"/>
-      <c r="N453" s="87"/>
-      <c r="O453" s="87"/>
-      <c r="P453" s="87"/>
-      <c r="Q453" s="87"/>
-      <c r="R453" s="87"/>
-      <c r="S453" s="87"/>
-      <c r="T453" s="87"/>
-      <c r="U453" s="87"/>
-      <c r="V453" s="87"/>
-      <c r="W453" s="87"/>
-      <c r="X453" s="87"/>
-      <c r="Y453" s="87"/>
-      <c r="Z453" s="87"/>
-      <c r="AA453" s="87"/>
-      <c r="AB453" s="87"/>
-      <c r="AC453" s="87"/>
-      <c r="AD453" s="87"/>
-      <c r="AE453" s="87"/>
-      <c r="AF453" s="87"/>
-      <c r="AG453" s="87"/>
-      <c r="AH453" s="87"/>
-      <c r="AI453" s="87"/>
-      <c r="AJ453" s="87"/>
-      <c r="AK453" s="87"/>
-      <c r="AL453" s="87"/>
-      <c r="AM453" s="87"/>
-      <c r="AN453" s="87"/>
-      <c r="AO453" s="87"/>
-      <c r="AP453" s="87"/>
-      <c r="AQ453" s="87"/>
-      <c r="AR453" s="87"/>
+      <c r="H453" s="89" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I453" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J453" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K453" s="87" t="s">
+        <v>2933</v>
+      </c>
+      <c r="L453" s="87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M453" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="N453" s="87" t="s">
+        <v>1932</v>
+      </c>
+      <c r="O453" s="87">
+        <v>66747</v>
+      </c>
+      <c r="P453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Q453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S453" s="87" t="s">
+        <v>3237</v>
+      </c>
+      <c r="T453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AB453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AD453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG453" s="87" t="s">
+        <v>3236</v>
+      </c>
+      <c r="AH453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AI453" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AJ453" s="87" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AK453" s="87" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AL453" s="87" t="s">
+        <v>3254</v>
+      </c>
+      <c r="AM453" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN453" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO453" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP453" s="87">
+        <v>55009</v>
+      </c>
+      <c r="AQ453" s="87">
+        <v>55009</v>
+      </c>
+      <c r="AR453" s="87" t="s">
+        <v>3238</v>
+      </c>
       <c r="AS453" s="87"/>
     </row>
     <row r="454" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A454" s="56" t="s">
+      <c r="A454" s="87" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B454" s="88"/>
+      <c r="C454" s="87"/>
+      <c r="D454" s="87"/>
+      <c r="E454" s="87"/>
+      <c r="F454" s="87"/>
+      <c r="G454" s="87"/>
+      <c r="H454" s="89"/>
+      <c r="I454" s="87"/>
+      <c r="J454" s="87"/>
+      <c r="K454" s="87"/>
+      <c r="L454" s="87"/>
+      <c r="M454" s="87"/>
+      <c r="N454" s="87"/>
+      <c r="O454" s="87"/>
+      <c r="P454" s="87"/>
+      <c r="Q454" s="87"/>
+      <c r="R454" s="87"/>
+      <c r="S454" s="87"/>
+      <c r="T454" s="87"/>
+      <c r="U454" s="87"/>
+      <c r="V454" s="87"/>
+      <c r="W454" s="87"/>
+      <c r="X454" s="87"/>
+      <c r="Y454" s="87"/>
+      <c r="Z454" s="87"/>
+      <c r="AA454" s="87"/>
+      <c r="AB454" s="87"/>
+      <c r="AC454" s="87"/>
+      <c r="AD454" s="87"/>
+      <c r="AE454" s="87"/>
+      <c r="AF454" s="87"/>
+      <c r="AG454" s="87"/>
+      <c r="AH454" s="87"/>
+      <c r="AI454" s="87"/>
+      <c r="AJ454" s="87"/>
+      <c r="AK454" s="87"/>
+      <c r="AL454" s="87"/>
+      <c r="AM454" s="87"/>
+      <c r="AN454" s="87"/>
+      <c r="AO454" s="87"/>
+      <c r="AP454" s="87"/>
+      <c r="AQ454" s="87"/>
+      <c r="AR454" s="87"/>
+      <c r="AS454" s="87"/>
+    </row>
+    <row r="455" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A455" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B454" s="57"/>
-      <c r="C454" s="56"/>
-      <c r="D454" s="85"/>
-      <c r="E454" s="56"/>
-      <c r="F454" s="56"/>
-      <c r="G454" s="56"/>
-      <c r="H454" s="58"/>
-      <c r="I454" s="56"/>
-      <c r="J454" s="56"/>
-      <c r="K454" s="56"/>
-      <c r="L454" s="56"/>
-      <c r="M454" s="56"/>
-      <c r="N454" s="56"/>
-      <c r="O454" s="56"/>
-      <c r="P454" s="56"/>
-      <c r="Q454" s="56"/>
-      <c r="R454" s="56"/>
-      <c r="S454" s="56"/>
-      <c r="T454" s="56"/>
-      <c r="U454" s="56"/>
-      <c r="V454" s="56"/>
-      <c r="W454" s="56"/>
-      <c r="X454" s="56"/>
-      <c r="Y454" s="56"/>
-      <c r="Z454" s="56"/>
-      <c r="AA454" s="56"/>
-      <c r="AB454" s="56"/>
-      <c r="AC454" s="56"/>
-      <c r="AD454" s="56"/>
-      <c r="AE454" s="56"/>
-      <c r="AF454" s="56"/>
-      <c r="AG454" s="56"/>
-      <c r="AH454" s="56"/>
-      <c r="AI454" s="56"/>
-      <c r="AJ454" s="56"/>
-      <c r="AK454" s="56"/>
-      <c r="AL454" s="56"/>
-      <c r="AM454" s="56"/>
-      <c r="AN454" s="56"/>
-      <c r="AO454" s="56"/>
-      <c r="AP454" s="56"/>
-      <c r="AQ454" s="56"/>
-      <c r="AR454" s="56"/>
-      <c r="AS454" s="56"/>
+      <c r="B455" s="57"/>
+      <c r="C455" s="56"/>
+      <c r="D455" s="85"/>
+      <c r="E455" s="56"/>
+      <c r="F455" s="56"/>
+      <c r="G455" s="56"/>
+      <c r="H455" s="58"/>
+      <c r="I455" s="56"/>
+      <c r="J455" s="56"/>
+      <c r="K455" s="56"/>
+      <c r="L455" s="56"/>
+      <c r="M455" s="56"/>
+      <c r="N455" s="56"/>
+      <c r="O455" s="56"/>
+      <c r="P455" s="56"/>
+      <c r="Q455" s="56"/>
+      <c r="R455" s="56"/>
+      <c r="S455" s="56"/>
+      <c r="T455" s="56"/>
+      <c r="U455" s="56"/>
+      <c r="V455" s="56"/>
+      <c r="W455" s="56"/>
+      <c r="X455" s="56"/>
+      <c r="Y455" s="56"/>
+      <c r="Z455" s="56"/>
+      <c r="AA455" s="56"/>
+      <c r="AB455" s="56"/>
+      <c r="AC455" s="56"/>
+      <c r="AD455" s="56"/>
+      <c r="AE455" s="56"/>
+      <c r="AF455" s="56"/>
+      <c r="AG455" s="56"/>
+      <c r="AH455" s="56"/>
+      <c r="AI455" s="56"/>
+      <c r="AJ455" s="56"/>
+      <c r="AK455" s="56"/>
+      <c r="AL455" s="56"/>
+      <c r="AM455" s="56"/>
+      <c r="AN455" s="56"/>
+      <c r="AO455" s="56"/>
+      <c r="AP455" s="56"/>
+      <c r="AQ455" s="56"/>
+      <c r="AR455" s="56"/>
+      <c r="AS455" s="56"/>
     </row>
     <row r="456" spans="1:45" x14ac:dyDescent="0.25">
       <c r="H456" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS454" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:AS455" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
-    <cfRule type="duplicateValues" dxfId="31" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346 F328">
-    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="29" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348:F355">
+    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
     <cfRule type="duplicateValues" dxfId="28" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348:F355">
+  <conditionalFormatting sqref="F86:F99">
     <cfRule type="duplicateValues" dxfId="27" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F194">
     <cfRule type="duplicateValues" dxfId="26" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F99">
+  <conditionalFormatting sqref="F287">
     <cfRule type="duplicateValues" dxfId="25" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="F300:F312 F387:F391 F394">
     <cfRule type="duplicateValues" dxfId="24" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+  <conditionalFormatting sqref="F284:F286">
     <cfRule type="duplicateValues" dxfId="23" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F300:F312 F387:F391 F394">
+  <conditionalFormatting sqref="F193">
     <cfRule type="duplicateValues" dxfId="22" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F286">
+  <conditionalFormatting sqref="F356:F374">
     <cfRule type="duplicateValues" dxfId="21" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
-    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
+  <conditionalFormatting sqref="F322:F326">
+    <cfRule type="duplicateValues" dxfId="20" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F356:F374">
-    <cfRule type="duplicateValues" dxfId="19" priority="26"/>
+  <conditionalFormatting sqref="F377">
+    <cfRule type="duplicateValues" dxfId="19" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322:F326">
+  <conditionalFormatting sqref="F2">
     <cfRule type="duplicateValues" dxfId="18" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F377">
+  <conditionalFormatting sqref="F288:F299">
     <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F392:F393">
     <cfRule type="duplicateValues" dxfId="16" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F299">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F392:F393">
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F182">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O378:O379">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O342:O343">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O379:O381 O384">
-    <cfRule type="duplicateValues" dxfId="8" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O381">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F395:F1048576 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
-    <cfRule type="duplicateValues" dxfId="5" priority="68"/>
+  <conditionalFormatting sqref="F395:F422 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192 F424:F1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O341 O346:O368 O370:O377 O385:O1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="78"/>
+  <conditionalFormatting sqref="O1:O341 O346:O368 O370:O377 O385:O422 O424:O1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O382:O383">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O383">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O344">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F423">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O423">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED220D-B3DA-4220-8E63-5A971329BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C404C-6A68-47C0-A21A-A39D845EE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="3397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="3396">
   <si>
     <t>date:</t>
   </si>
@@ -10238,9 +10238,6 @@
   </si>
   <si>
     <t>ui/icon/112000/112469.tex</t>
-  </si>
-  <si>
-    <t>fataler_raid</t>
   </si>
   <si>
     <t>r1fz</t>
@@ -11330,10 +11327,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AM258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AI367" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP423" sqref="AP423"/>
+      <selection pane="bottomRight" activeCell="AJ452" sqref="AJ452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -55398,7 +55395,7 @@
       <c r="AR346" s="28"/>
       <c r="AS346" s="28"/>
     </row>
-    <row r="347" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="28"/>
       <c r="B347" s="35">
         <v>43767</v>
@@ -55531,7 +55528,7 @@
       </c>
       <c r="AS347" s="28"/>
     </row>
-    <row r="348" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="28"/>
       <c r="B348" s="35">
         <v>44054</v>
@@ -55664,7 +55661,7 @@
       </c>
       <c r="AS348" s="28"/>
     </row>
-    <row r="349" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="28"/>
       <c r="B349" s="29">
         <v>44299</v>
@@ -55797,7 +55794,7 @@
       </c>
       <c r="AS349" s="28"/>
     </row>
-    <row r="350" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28"/>
       <c r="B350" s="35">
         <v>43662</v>
@@ -55930,7 +55927,7 @@
       </c>
       <c r="AS350" s="28"/>
     </row>
-    <row r="351" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="28"/>
       <c r="B351" s="35">
         <v>43662</v>
@@ -56063,7 +56060,7 @@
       </c>
       <c r="AS351" s="28"/>
     </row>
-    <row r="352" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
         <v>43662</v>
@@ -56196,7 +56193,7 @@
       </c>
       <c r="AS352" s="28"/>
     </row>
-    <row r="353" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="28"/>
       <c r="B353" s="35">
         <v>43662</v>
@@ -56329,7 +56326,7 @@
       </c>
       <c r="AS353" s="28"/>
     </row>
-    <row r="354" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="28"/>
       <c r="B354" s="35">
         <v>43676</v>
@@ -56462,7 +56459,7 @@
       </c>
       <c r="AS354" s="28"/>
     </row>
-    <row r="355" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="28"/>
       <c r="B355" s="35">
         <v>43676</v>
@@ -56595,7 +56592,7 @@
       </c>
       <c r="AS355" s="28"/>
     </row>
-    <row r="356" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="28"/>
       <c r="B356" s="35">
         <v>43676</v>
@@ -56728,7 +56725,7 @@
       </c>
       <c r="AS356" s="28"/>
     </row>
-    <row r="357" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="28"/>
       <c r="B357" s="35">
         <v>43676</v>
@@ -56861,7 +56858,7 @@
       </c>
       <c r="AS357" s="28"/>
     </row>
-    <row r="358" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="28"/>
       <c r="B358" s="35">
         <v>43848</v>
@@ -56994,7 +56991,7 @@
       </c>
       <c r="AS358" s="28"/>
     </row>
-    <row r="359" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="28"/>
       <c r="B359" s="35">
         <v>43848</v>
@@ -57127,7 +57124,7 @@
       </c>
       <c r="AS359" s="28"/>
     </row>
-    <row r="360" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28"/>
       <c r="B360" s="35">
         <v>43848</v>
@@ -57260,7 +57257,7 @@
       </c>
       <c r="AS360" s="28"/>
     </row>
-    <row r="361" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="28"/>
       <c r="B361" s="35">
         <v>43848</v>
@@ -57393,7 +57390,7 @@
       </c>
       <c r="AS361" s="28"/>
     </row>
-    <row r="362" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="28"/>
       <c r="B362" s="35">
         <v>43848</v>
@@ -57526,7 +57523,7 @@
       </c>
       <c r="AS362" s="28"/>
     </row>
-    <row r="363" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="28"/>
       <c r="B363" s="35">
         <v>43848</v>
@@ -57659,7 +57656,7 @@
       </c>
       <c r="AS363" s="28"/>
     </row>
-    <row r="364" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="28"/>
       <c r="B364" s="35">
         <v>43848</v>
@@ -57792,7 +57789,7 @@
       </c>
       <c r="AS364" s="28"/>
     </row>
-    <row r="365" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A365" s="28"/>
       <c r="B365" s="35">
         <v>43848</v>
@@ -57925,7 +57922,7 @@
       </c>
       <c r="AS365" s="28"/>
     </row>
-    <row r="366" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A366" s="28"/>
       <c r="B366" s="35">
         <v>44173</v>
@@ -58056,7 +58053,7 @@
       </c>
       <c r="AS366" s="28"/>
     </row>
-    <row r="367" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A367" s="28"/>
       <c r="B367" s="35">
         <v>44173</v>
@@ -58189,7 +58186,7 @@
       </c>
       <c r="AS367" s="28"/>
     </row>
-    <row r="368" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
       <c r="B368" s="35">
         <v>44173</v>
@@ -58322,7 +58319,7 @@
       </c>
       <c r="AS368" s="28"/>
     </row>
-    <row r="369" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
       <c r="B369" s="35">
         <v>44173</v>
@@ -58455,7 +58452,7 @@
       </c>
       <c r="AS369" s="28"/>
     </row>
-    <row r="370" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28"/>
       <c r="B370" s="35">
         <v>44173</v>
@@ -58588,7 +58585,7 @@
       </c>
       <c r="AS370" s="28"/>
     </row>
-    <row r="371" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28"/>
       <c r="B371" s="35">
         <v>44173</v>
@@ -58721,7 +58718,7 @@
       </c>
       <c r="AS371" s="28"/>
     </row>
-    <row r="372" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
       <c r="B372" s="35">
         <v>44173</v>
@@ -58854,7 +58851,7 @@
       </c>
       <c r="AS372" s="28"/>
     </row>
-    <row r="373" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
       <c r="B373" s="35">
         <v>44173</v>
@@ -58987,7 +58984,7 @@
       </c>
       <c r="AS373" s="28"/>
     </row>
-    <row r="374" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A374" s="28"/>
       <c r="B374" s="35">
         <v>43781</v>
@@ -59120,7 +59117,7 @@
       </c>
       <c r="AS374" s="28"/>
     </row>
-    <row r="375" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>781</v>
       </c>
@@ -64477,7 +64474,7 @@
         <v>3392</v>
       </c>
       <c r="H423" s="89" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I423" s="87" t="s">
         <v>3334</v>
@@ -64521,11 +64518,11 @@
       <c r="AH423" s="87"/>
       <c r="AI423" s="87"/>
       <c r="AJ423" s="87" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AK423" s="87" t="s">
         <v>3393</v>
       </c>
-      <c r="AK423" s="87" t="s">
-        <v>3394</v>
-      </c>
       <c r="AL423" s="87" t="s">
         <v>925</v>
       </c>
@@ -64536,7 +64533,7 @@
         <v>925</v>
       </c>
       <c r="AO423" s="87" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AP423" s="87"/>
       <c r="AQ423" s="87"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C404C-6A68-47C0-A21A-A39D845EE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F1C85-2464-4716-A991-D6179C1E6A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="39960" yWindow="1560" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="3396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="3397">
   <si>
     <t>date:</t>
   </si>
@@ -10247,6 +10247,9 @@
   </si>
   <si>
     <t>['DSR', 'DSWU']</t>
+  </si>
+  <si>
+    <t>['Adelphel', 'Grinnaux', 'Thordan']</t>
   </si>
 </sst>
 </file>
@@ -11327,10 +11330,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AI367" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AI373" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ452" sqref="AJ452"/>
+      <selection pane="bottomRight" activeCell="AL424" sqref="AL424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -64524,7 +64527,7 @@
         <v>3393</v>
       </c>
       <c r="AL423" s="87" t="s">
-        <v>925</v>
+        <v>3396</v>
       </c>
       <c r="AM423" s="87" t="s">
         <v>925</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F1C85-2464-4716-A991-D6179C1E6A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF78AD-FE8B-4814-B5D0-0C00F9CD0100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="1560" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="43470" yWindow="5070" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10249,7 +10249,7 @@
     <t>['DSR', 'DSWU']</t>
   </si>
   <si>
-    <t>['Adelphel', 'Grinnaux', 'Thordan']</t>
+    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg']</t>
   </si>
 </sst>
 </file>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF78AD-FE8B-4814-B5D0-0C00F9CD0100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB621E96-8627-4E7C-B136-5450069F7C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43470" yWindow="5070" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="39180" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -9292,9 +9292,6 @@
     <t>Die Dalriada</t>
   </si>
   <si>
-    <t xml:space="preserve">zadnor_hochebene </t>
-  </si>
-  <si>
     <t>die_dalriada</t>
   </si>
   <si>
@@ -10250,6 +10247,9 @@
   </si>
   <si>
     <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg']</t>
+  </si>
+  <si>
+    <t>zadnor_hochebene</t>
   </si>
 </sst>
 </file>
@@ -11330,10 +11330,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AI373" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AH373" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL424" sqref="AL424"/>
+      <selection pane="bottomRight" activeCell="AK380" sqref="AK380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -11429,7 +11429,7 @@
         <v>874</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>2420</v>
@@ -11565,13 +11565,13 @@
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>2076</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>2053</v>
@@ -11649,7 +11649,7 @@
         <v>2423</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="AS2" s="6"/>
     </row>
@@ -16226,7 +16226,7 @@
     </row>
     <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B38" s="7">
         <v>41513</v>
@@ -30590,7 +30590,7 @@
         <v>1047</v>
       </c>
       <c r="AL149" s="14" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="AM149" s="14" t="s">
         <v>925</v>
@@ -31122,7 +31122,7 @@
         <v>1055</v>
       </c>
       <c r="AL153" s="14" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="AM153" s="14" t="s">
         <v>925</v>
@@ -44280,13 +44280,13 @@
         <v>2725</v>
       </c>
       <c r="AJ256" s="20" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="AK256" s="20" t="s">
         <v>1083</v>
       </c>
       <c r="AL256" s="20" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="AM256" s="20" t="s">
         <v>925</v>
@@ -44413,7 +44413,7 @@
         <v>2725</v>
       </c>
       <c r="AJ257" s="20" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="AK257" s="20" t="s">
         <v>1081</v>
@@ -59092,13 +59092,13 @@
         <v>2725</v>
       </c>
       <c r="AJ374" s="28" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="AK374" s="28" t="s">
         <v>1410</v>
       </c>
       <c r="AL374" s="28" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="AM374" s="28" t="s">
         <v>925</v>
@@ -59351,7 +59351,7 @@
       <c r="AR377" s="28"/>
       <c r="AS377" s="28"/>
     </row>
-    <row r="378" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A378" s="28"/>
       <c r="B378" s="35">
         <v>44117</v>
@@ -59480,7 +59480,7 @@
       </c>
       <c r="AS378" s="28"/>
     </row>
-    <row r="379" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="28"/>
       <c r="B379" s="35">
         <v>44117</v>
@@ -59609,7 +59609,7 @@
       </c>
       <c r="AS379" s="28"/>
     </row>
-    <row r="380" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A380" s="28"/>
       <c r="B380" s="35">
         <v>44229</v>
@@ -59728,7 +59728,7 @@
       </c>
       <c r="AS380" s="28"/>
     </row>
-    <row r="381" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A381" s="28"/>
       <c r="B381" s="35">
         <v>44229</v>
@@ -59829,7 +59829,7 @@
         <v>3006</v>
       </c>
       <c r="AL381" s="28" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="AM381" s="28" t="s">
         <v>925</v>
@@ -59847,7 +59847,7 @@
       </c>
       <c r="AS381" s="28"/>
     </row>
-    <row r="382" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A382" s="28"/>
       <c r="B382" s="35">
         <v>44117</v>
@@ -59856,19 +59856,19 @@
         <v>9</v>
       </c>
       <c r="D382" s="83" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="E382" s="28" t="s">
         <v>782</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>3077</v>
+        <v>3396</v>
       </c>
       <c r="G382" s="28" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="H382" s="59" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="I382" s="28" t="s">
         <v>3024</v>
@@ -59932,11 +59932,11 @@
       <c r="AP382" s="28"/>
       <c r="AQ382" s="28"/>
       <c r="AR382" s="28" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="AS382" s="28"/>
     </row>
-    <row r="383" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A383" s="28"/>
       <c r="B383" s="35">
         <v>44117</v>
@@ -59951,13 +59951,13 @@
         <v>782</v>
       </c>
       <c r="F383" s="83" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G383" s="28" t="s">
+        <v>3081</v>
+      </c>
+      <c r="H383" s="59" t="s">
         <v>3078</v>
-      </c>
-      <c r="G383" s="28" t="s">
-        <v>3082</v>
-      </c>
-      <c r="H383" s="59" t="s">
-        <v>3079</v>
       </c>
       <c r="I383" s="28" t="s">
         <v>3024</v>
@@ -60009,7 +60009,7 @@
         <v>2294</v>
       </c>
       <c r="AL383" s="28" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="AM383" s="28" t="s">
         <v>925</v>
@@ -60023,11 +60023,11 @@
       <c r="AP383" s="28"/>
       <c r="AQ383" s="28"/>
       <c r="AR383" s="28" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="AS383" s="28"/>
     </row>
-    <row r="384" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A384" s="35" t="s">
         <v>3015</v>
       </c>
@@ -60260,7 +60260,7 @@
         <v>55008</v>
       </c>
       <c r="AR386" s="28" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="AS386" s="28"/>
     </row>
@@ -61129,34 +61129,34 @@
         <v>87</v>
       </c>
       <c r="D395" s="87" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E395" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F395" s="87" t="s">
         <v>3109</v>
       </c>
-      <c r="E395" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F395" s="87" t="s">
+      <c r="G395" s="87" t="s">
         <v>3110</v>
       </c>
-      <c r="G395" s="87" t="s">
-        <v>3111</v>
-      </c>
       <c r="H395" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I395" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I395" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J395" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K395" s="87" t="s">
+        <v>3111</v>
+      </c>
+      <c r="L395" s="87" t="s">
         <v>3112</v>
       </c>
-      <c r="L395" s="87" t="s">
+      <c r="M395" s="87" t="s">
         <v>3113</v>
-      </c>
-      <c r="M395" s="87" t="s">
-        <v>3114</v>
       </c>
       <c r="N395" s="87" t="s">
         <v>1932</v>
@@ -61165,58 +61165,58 @@
         <v>69913</v>
       </c>
       <c r="P395" s="87" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Q395" s="87" t="s">
         <v>3303</v>
       </c>
-      <c r="Q395" s="87" t="s">
+      <c r="R395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S395" s="87" t="s">
         <v>3304</v>
       </c>
-      <c r="R395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S395" s="87" t="s">
+      <c r="T395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA395" s="87" t="s">
+        <v>3306</v>
+      </c>
+      <c r="AB395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC395" s="87" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF395" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG395" s="87" t="s">
         <v>3305</v>
-      </c>
-      <c r="T395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA395" s="87" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AB395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC395" s="87" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AD395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF395" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG395" s="87" t="s">
-        <v>3306</v>
       </c>
       <c r="AH395" s="87" t="s">
         <v>2725</v>
@@ -61228,10 +61228,10 @@
         <v>85</v>
       </c>
       <c r="AK395" s="87" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="AL395" s="87" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="AM395" s="87" t="s">
         <v>925</v>
@@ -61249,7 +61249,7 @@
         <v>78</v>
       </c>
       <c r="AR395" s="87" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="AS395" s="87"/>
     </row>
@@ -61262,34 +61262,34 @@
         <v>88</v>
       </c>
       <c r="D396" s="87" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E396" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F396" s="87" t="s">
         <v>3102</v>
       </c>
-      <c r="E396" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F396" s="87" t="s">
+      <c r="G396" s="87" t="s">
         <v>3103</v>
       </c>
-      <c r="G396" s="87" t="s">
-        <v>3104</v>
-      </c>
       <c r="H396" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I396" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I396" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J396" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K396" s="87" t="s">
+        <v>3104</v>
+      </c>
+      <c r="L396" s="87" t="s">
         <v>3105</v>
       </c>
-      <c r="L396" s="87" t="s">
+      <c r="M396" s="87" t="s">
         <v>3106</v>
-      </c>
-      <c r="M396" s="87" t="s">
-        <v>3107</v>
       </c>
       <c r="N396" s="87" t="s">
         <v>1932</v>
@@ -61298,17 +61298,17 @@
         <v>69931</v>
       </c>
       <c r="P396" s="87" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Q396" s="87" t="s">
+        <v>3299</v>
+      </c>
+      <c r="R396" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S396" s="87" t="s">
         <v>3300</v>
       </c>
-      <c r="R396" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S396" s="87" t="s">
-        <v>3301</v>
-      </c>
       <c r="T396" s="87" t="s">
         <v>2725</v>
       </c>
@@ -61331,14 +61331,14 @@
         <v>2725</v>
       </c>
       <c r="AA396" s="87" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB396" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC396" s="87" t="s">
         <v>3313</v>
       </c>
-      <c r="AB396" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC396" s="87" t="s">
-        <v>3314</v>
-      </c>
       <c r="AD396" s="87" t="s">
         <v>2725</v>
       </c>
@@ -61349,7 +61349,7 @@
         <v>2725</v>
       </c>
       <c r="AG396" s="87" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="AH396" s="87" t="s">
         <v>2725</v>
@@ -61361,10 +61361,10 @@
         <v>85</v>
       </c>
       <c r="AK396" s="87" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="AL396" s="87" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AM396" s="87" t="s">
         <v>925</v>
@@ -61382,7 +61382,7 @@
         <v>80</v>
       </c>
       <c r="AR396" s="87" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="AS396" s="87"/>
     </row>
@@ -61395,34 +61395,34 @@
         <v>89</v>
       </c>
       <c r="D397" s="87" t="s">
+        <v>3130</v>
+      </c>
+      <c r="E397" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F397" s="87" t="s">
         <v>3131</v>
       </c>
-      <c r="E397" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F397" s="87" t="s">
+      <c r="G397" s="87" t="s">
         <v>3132</v>
       </c>
-      <c r="G397" s="87" t="s">
-        <v>3133</v>
-      </c>
       <c r="H397" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I397" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I397" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J397" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K397" s="87" t="s">
+        <v>3133</v>
+      </c>
+      <c r="L397" s="87" t="s">
         <v>3134</v>
       </c>
-      <c r="L397" s="87" t="s">
+      <c r="M397" s="87" t="s">
         <v>3135</v>
-      </c>
-      <c r="M397" s="87" t="s">
-        <v>3136</v>
       </c>
       <c r="N397" s="87" t="s">
         <v>1932</v>
@@ -61431,17 +61431,17 @@
         <v>69945</v>
       </c>
       <c r="P397" s="87" t="s">
+        <v>3297</v>
+      </c>
+      <c r="Q397" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R397" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S397" s="87" t="s">
         <v>3298</v>
       </c>
-      <c r="Q397" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R397" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S397" s="87" t="s">
-        <v>3299</v>
-      </c>
       <c r="T397" s="87" t="s">
         <v>2725</v>
       </c>
@@ -61464,7 +61464,7 @@
         <v>2725</v>
       </c>
       <c r="AA397" s="87" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="AB397" s="87" t="s">
         <v>2725</v>
@@ -61482,7 +61482,7 @@
         <v>2725</v>
       </c>
       <c r="AG397" s="87" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="AH397" s="87" t="s">
         <v>2725</v>
@@ -61494,10 +61494,10 @@
         <v>85</v>
       </c>
       <c r="AK397" s="87" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="AL397" s="87" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AM397" s="87" t="s">
         <v>925</v>
@@ -61515,7 +61515,7 @@
         <v>83</v>
       </c>
       <c r="AR397" s="87" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="AS397" s="87"/>
     </row>
@@ -61528,34 +61528,34 @@
         <v>90</v>
       </c>
       <c r="D398" s="87" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E398" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F398" s="87" t="s">
         <v>3116</v>
       </c>
-      <c r="E398" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F398" s="87" t="s">
+      <c r="G398" s="87" t="s">
         <v>3117</v>
       </c>
-      <c r="G398" s="87" t="s">
-        <v>3118</v>
-      </c>
       <c r="H398" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I398" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I398" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J398" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K398" s="87" t="s">
+        <v>3118</v>
+      </c>
+      <c r="L398" s="87" t="s">
         <v>3119</v>
       </c>
-      <c r="L398" s="87" t="s">
+      <c r="M398" s="87" t="s">
         <v>3120</v>
-      </c>
-      <c r="M398" s="87" t="s">
-        <v>3121</v>
       </c>
       <c r="N398" s="87" t="s">
         <v>1932</v>
@@ -61564,17 +61564,17 @@
         <v>69973</v>
       </c>
       <c r="P398" s="87" t="s">
+        <v>3294</v>
+      </c>
+      <c r="Q398" s="87" t="s">
         <v>3295</v>
       </c>
-      <c r="Q398" s="87" t="s">
+      <c r="R398" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S398" s="87" t="s">
         <v>3296</v>
       </c>
-      <c r="R398" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S398" s="87" t="s">
-        <v>3297</v>
-      </c>
       <c r="T398" s="87" t="s">
         <v>2725</v>
       </c>
@@ -61597,7 +61597,7 @@
         <v>2725</v>
       </c>
       <c r="AA398" s="87" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="AB398" s="87" t="s">
         <v>2725</v>
@@ -61615,7 +61615,7 @@
         <v>2725</v>
       </c>
       <c r="AG398" s="87" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="AH398" s="87" t="s">
         <v>2725</v>
@@ -61627,10 +61627,10 @@
         <v>85</v>
       </c>
       <c r="AK398" s="87" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="AL398" s="87" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="AM398" s="87" t="s">
         <v>925</v>
@@ -61648,7 +61648,7 @@
         <v>82</v>
       </c>
       <c r="AR398" s="87" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="AS398" s="87"/>
     </row>
@@ -61661,53 +61661,53 @@
         <v>91</v>
       </c>
       <c r="D399" s="87" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E399" s="87" t="s">
         <v>3085</v>
       </c>
-      <c r="E399" s="87" t="s">
+      <c r="F399" s="87" t="s">
         <v>3086</v>
       </c>
-      <c r="F399" s="87" t="s">
+      <c r="G399" s="87" t="s">
         <v>3087</v>
       </c>
-      <c r="G399" s="87" t="s">
+      <c r="H399" s="87" t="s">
         <v>3088</v>
       </c>
-      <c r="H399" s="87" t="s">
+      <c r="I399" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I399" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J399" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K399" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="L399" s="87" t="s">
         <v>3091</v>
       </c>
-      <c r="L399" s="87" t="s">
+      <c r="M399" s="87" t="s">
         <v>3092</v>
       </c>
-      <c r="M399" s="87" t="s">
+      <c r="N399" s="87" t="s">
         <v>3093</v>
-      </c>
-      <c r="N399" s="87" t="s">
-        <v>3094</v>
       </c>
       <c r="O399" s="87">
         <v>69985</v>
       </c>
       <c r="P399" s="87" t="s">
+        <v>3290</v>
+      </c>
+      <c r="Q399" s="87" t="s">
         <v>3291</v>
       </c>
-      <c r="Q399" s="87" t="s">
+      <c r="R399" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S399" s="87" t="s">
         <v>3292</v>
       </c>
-      <c r="R399" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S399" s="87" t="s">
-        <v>3293</v>
-      </c>
       <c r="T399" s="87" t="s">
         <v>2725</v>
       </c>
@@ -61730,7 +61730,7 @@
         <v>2725</v>
       </c>
       <c r="AA399" s="87" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="AB399" s="87" t="s">
         <v>2725</v>
@@ -61748,7 +61748,7 @@
         <v>2725</v>
       </c>
       <c r="AG399" s="87" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="AH399" s="87" t="s">
         <v>2725</v>
@@ -61760,10 +61760,10 @@
         <v>85</v>
       </c>
       <c r="AK399" s="87" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="AL399" s="87" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="AM399" s="87" t="s">
         <v>925</v>
@@ -61781,7 +61781,7 @@
         <v>81</v>
       </c>
       <c r="AR399" s="87" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AS399" s="87"/>
     </row>
@@ -61794,43 +61794,43 @@
         <v>92</v>
       </c>
       <c r="D400" s="87" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E400" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F400" s="87" t="s">
         <v>3096</v>
       </c>
-      <c r="E400" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F400" s="87" t="s">
+      <c r="G400" s="87" t="s">
         <v>3097</v>
       </c>
-      <c r="G400" s="87" t="s">
-        <v>3098</v>
-      </c>
       <c r="H400" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I400" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I400" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J400" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K400" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L400" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M400" s="87" t="s">
+        <v>3098</v>
+      </c>
+      <c r="N400" s="87" t="s">
         <v>3099</v>
-      </c>
-      <c r="N400" s="87" t="s">
-        <v>3100</v>
       </c>
       <c r="O400" s="87">
         <v>70000</v>
       </c>
       <c r="P400" s="87" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="Q400" s="87" t="s">
         <v>2725</v>
@@ -61839,49 +61839,49 @@
         <v>2725</v>
       </c>
       <c r="S400" s="87" t="s">
+        <v>3279</v>
+      </c>
+      <c r="T400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA400" s="87" t="s">
+        <v>3285</v>
+      </c>
+      <c r="AB400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AD400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF400" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG400" s="87" t="s">
         <v>3280</v>
-      </c>
-      <c r="T400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA400" s="87" t="s">
-        <v>3286</v>
-      </c>
-      <c r="AB400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AD400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AF400" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG400" s="87" t="s">
-        <v>3281</v>
       </c>
       <c r="AH400" s="87" t="s">
         <v>2725</v>
@@ -61893,10 +61893,10 @@
         <v>85</v>
       </c>
       <c r="AK400" s="87" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="AL400" s="87" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="AM400" s="87" t="s">
         <v>925</v>
@@ -61914,7 +61914,7 @@
         <v>84</v>
       </c>
       <c r="AR400" s="87" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="AS400" s="87"/>
     </row>
@@ -61927,34 +61927,34 @@
         <v>93</v>
       </c>
       <c r="D401" s="87" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E401" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F401" s="87" t="s">
         <v>3123</v>
       </c>
-      <c r="E401" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F401" s="87" t="s">
+      <c r="G401" s="87" t="s">
         <v>3124</v>
       </c>
-      <c r="G401" s="87" t="s">
-        <v>3125</v>
-      </c>
       <c r="H401" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I401" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I401" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J401" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K401" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L401" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M401" s="87" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="N401" s="87" t="s">
         <v>1932</v>
@@ -61963,17 +61963,17 @@
         <v>69703</v>
       </c>
       <c r="P401" s="87" t="s">
+        <v>3277</v>
+      </c>
+      <c r="Q401" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R401" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S401" s="87" t="s">
         <v>3278</v>
       </c>
-      <c r="Q401" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="R401" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S401" s="87" t="s">
-        <v>3279</v>
-      </c>
       <c r="T401" s="87" t="s">
         <v>2725</v>
       </c>
@@ -61996,7 +61996,7 @@
         <v>2725</v>
       </c>
       <c r="AA401" s="87" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="AB401" s="87" t="s">
         <v>2725</v>
@@ -62014,7 +62014,7 @@
         <v>2725</v>
       </c>
       <c r="AG401" s="87" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="AH401" s="87" t="s">
         <v>2725</v>
@@ -62026,10 +62026,10 @@
         <v>85</v>
       </c>
       <c r="AK401" s="87" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="AL401" s="87" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="AM401" s="87" t="s">
         <v>925</v>
@@ -62047,7 +62047,7 @@
         <v>85</v>
       </c>
       <c r="AR401" s="87" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="AS401" s="87"/>
     </row>
@@ -62060,34 +62060,34 @@
         <v>94</v>
       </c>
       <c r="D402" s="87" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E402" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F402" s="87" t="s">
         <v>3127</v>
       </c>
-      <c r="E402" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F402" s="87" t="s">
+      <c r="G402" s="87" t="s">
         <v>3128</v>
       </c>
-      <c r="G402" s="87" t="s">
-        <v>3129</v>
-      </c>
       <c r="H402" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I402" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I402" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J402" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K402" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L402" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M402" s="87" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="N402" s="87" t="s">
         <v>1932</v>
@@ -62096,7 +62096,7 @@
         <v>69704</v>
       </c>
       <c r="P402" s="87" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="Q402" s="87" t="s">
         <v>2725</v>
@@ -62129,7 +62129,7 @@
         <v>2725</v>
       </c>
       <c r="AA402" s="87" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="AB402" s="87" t="s">
         <v>2725</v>
@@ -62147,7 +62147,7 @@
         <v>2725</v>
       </c>
       <c r="AG402" s="87" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="AH402" s="87" t="s">
         <v>2725</v>
@@ -62159,10 +62159,10 @@
         <v>85</v>
       </c>
       <c r="AK402" s="87" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="AL402" s="87" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="AM402" s="87" t="s">
         <v>925</v>
@@ -62180,7 +62180,7 @@
         <v>79</v>
       </c>
       <c r="AR402" s="87" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="AS402" s="87"/>
     </row>
@@ -62193,28 +62193,28 @@
         <v>95</v>
       </c>
       <c r="D403" s="87" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E403" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F403" s="87" t="s">
         <v>3331</v>
       </c>
-      <c r="E403" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F403" s="87" t="s">
+      <c r="G403" s="87" t="s">
         <v>3332</v>
       </c>
-      <c r="G403" s="87" t="s">
+      <c r="H403" s="89" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I403" s="87" t="s">
         <v>3333</v>
-      </c>
-      <c r="H403" s="89" t="s">
-        <v>3350</v>
-      </c>
-      <c r="I403" s="87" t="s">
-        <v>3334</v>
       </c>
       <c r="J403" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K403" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L403" s="87">
         <v>90</v>
@@ -62252,7 +62252,7 @@
         <v>85</v>
       </c>
       <c r="AK403" s="87" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="AL403" s="87" t="s">
         <v>925</v>
@@ -62273,13 +62273,13 @@
         <v>87</v>
       </c>
       <c r="AR403" s="87" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="AS403" s="87"/>
     </row>
     <row r="404" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A404" s="87" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B404" s="88"/>
       <c r="C404" s="87"/>
@@ -62335,31 +62335,31 @@
         <v>194</v>
       </c>
       <c r="D405" s="87" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E405" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F405" s="87" t="s">
         <v>3155</v>
       </c>
-      <c r="E405" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F405" s="87" t="s">
+      <c r="G405" s="87" t="s">
         <v>3156</v>
       </c>
-      <c r="G405" s="87" t="s">
-        <v>3157</v>
-      </c>
       <c r="H405" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I405" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I405" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J405" s="87" t="s">
         <v>76</v>
       </c>
       <c r="K405" s="87" t="s">
+        <v>3104</v>
+      </c>
+      <c r="L405" s="87" t="s">
         <v>3105</v>
-      </c>
-      <c r="L405" s="87" t="s">
-        <v>3106</v>
       </c>
       <c r="M405" s="87" t="s">
         <v>1932</v>
@@ -62374,7 +62374,7 @@
         <v>2725</v>
       </c>
       <c r="Q405" s="87" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="R405" s="87" t="s">
         <v>2725</v>
@@ -62430,10 +62430,10 @@
         <v>186</v>
       </c>
       <c r="AK405" s="87" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="AL405" s="87" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="AM405" s="87" t="s">
         <v>925</v>
@@ -62451,7 +62451,7 @@
         <v>20080</v>
       </c>
       <c r="AR405" s="87" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="AS405" s="87"/>
     </row>
@@ -62464,37 +62464,37 @@
         <v>195</v>
       </c>
       <c r="D406" s="87" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E406" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F406" s="87" t="s">
         <v>3151</v>
       </c>
-      <c r="E406" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F406" s="87" t="s">
+      <c r="G406" s="87" t="s">
         <v>3152</v>
       </c>
-      <c r="G406" s="87" t="s">
-        <v>3153</v>
-      </c>
       <c r="H406" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I406" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I406" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J406" s="87" t="s">
         <v>76</v>
       </c>
       <c r="K406" s="87" t="s">
+        <v>3090</v>
+      </c>
+      <c r="L406" s="87" t="s">
         <v>3091</v>
-      </c>
-      <c r="L406" s="87" t="s">
-        <v>3092</v>
       </c>
       <c r="M406" s="87" t="s">
         <v>1932</v>
       </c>
       <c r="N406" s="87" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="O406" s="87">
         <v>69985</v>
@@ -62503,7 +62503,7 @@
         <v>2725</v>
       </c>
       <c r="Q406" s="87" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="R406" s="87" t="s">
         <v>2725</v>
@@ -62559,10 +62559,10 @@
         <v>186</v>
       </c>
       <c r="AK406" s="87" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="AL406" s="87" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="AM406" s="87" t="s">
         <v>925</v>
@@ -62580,7 +62580,7 @@
         <v>20077</v>
       </c>
       <c r="AR406" s="87" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="AS406" s="87"/>
     </row>
@@ -62593,34 +62593,34 @@
         <v>196</v>
       </c>
       <c r="D407" s="87" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E407" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F407" s="87" t="s">
         <v>3147</v>
       </c>
-      <c r="E407" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F407" s="87" t="s">
+      <c r="G407" s="87" t="s">
         <v>3148</v>
       </c>
-      <c r="G407" s="87" t="s">
-        <v>3149</v>
-      </c>
       <c r="H407" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I407" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I407" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J407" s="87" t="s">
         <v>76</v>
       </c>
       <c r="K407" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L407" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M407" s="87" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="N407" s="87" t="s">
         <v>1932</v>
@@ -62632,7 +62632,7 @@
         <v>2725</v>
       </c>
       <c r="Q407" s="87" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="R407" s="87" t="s">
         <v>2725</v>
@@ -62658,7 +62658,7 @@
         <v>2725</v>
       </c>
       <c r="AA407" s="87" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="AB407" s="87" t="s">
         <v>2725</v>
@@ -62688,10 +62688,10 @@
         <v>186</v>
       </c>
       <c r="AK407" s="87" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="AL407" s="87" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="AM407" s="87" t="s">
         <v>925</v>
@@ -62709,7 +62709,7 @@
         <v>20079</v>
       </c>
       <c r="AR407" s="87" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="AS407" s="87"/>
     </row>
@@ -62722,34 +62722,34 @@
         <v>197</v>
       </c>
       <c r="D408" s="87" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E408" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F408" s="87" t="s">
         <v>3143</v>
       </c>
-      <c r="E408" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F408" s="87" t="s">
+      <c r="G408" s="87" t="s">
         <v>3144</v>
       </c>
-      <c r="G408" s="87" t="s">
-        <v>3145</v>
-      </c>
       <c r="H408" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I408" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I408" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J408" s="87" t="s">
         <v>1941</v>
       </c>
       <c r="K408" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L408" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M408" s="87" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="N408" s="87" t="s">
         <v>1932</v>
@@ -62758,10 +62758,10 @@
         <v>69707</v>
       </c>
       <c r="P408" s="87" t="s">
+        <v>3258</v>
+      </c>
+      <c r="Q408" s="87" t="s">
         <v>3259</v>
-      </c>
-      <c r="Q408" s="87" t="s">
-        <v>3260</v>
       </c>
       <c r="R408" s="87" t="s">
         <v>2725</v>
@@ -62778,28 +62778,28 @@
       <c r="V408" s="87"/>
       <c r="W408" s="87"/>
       <c r="X408" s="87" t="s">
+        <v>3260</v>
+      </c>
+      <c r="Y408" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z408" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA408" s="87" t="s">
+        <v>3266</v>
+      </c>
+      <c r="AB408" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC408" s="87" t="s">
+        <v>3267</v>
+      </c>
+      <c r="AD408" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AE408" s="87" t="s">
         <v>3261</v>
-      </c>
-      <c r="Y408" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z408" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA408" s="87" t="s">
-        <v>3267</v>
-      </c>
-      <c r="AB408" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC408" s="87" t="s">
-        <v>3268</v>
-      </c>
-      <c r="AD408" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AE408" s="87" t="s">
-        <v>3262</v>
       </c>
       <c r="AF408" s="87" t="s">
         <v>2725</v>
@@ -62817,10 +62817,10 @@
         <v>186</v>
       </c>
       <c r="AK408" s="87" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="AL408" s="87" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="AM408" s="87" t="s">
         <v>925</v>
@@ -62838,7 +62838,7 @@
         <v>20081</v>
       </c>
       <c r="AR408" s="87" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="AS408" s="87"/>
     </row>
@@ -62851,34 +62851,34 @@
         <v>198</v>
       </c>
       <c r="D409" s="87" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E409" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F409" s="87" t="s">
         <v>3138</v>
       </c>
-      <c r="E409" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F409" s="87" t="s">
+      <c r="G409" s="87" t="s">
         <v>3139</v>
       </c>
-      <c r="G409" s="87" t="s">
-        <v>3140</v>
-      </c>
       <c r="H409" s="87" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I409" s="87" t="s">
         <v>3089</v>
-      </c>
-      <c r="I409" s="87" t="s">
-        <v>3090</v>
       </c>
       <c r="J409" s="87" t="s">
         <v>1941</v>
       </c>
       <c r="K409" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L409" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M409" s="87" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="N409" s="87" t="s">
         <v>1932</v>
@@ -62887,10 +62887,10 @@
         <v>69707</v>
       </c>
       <c r="P409" s="87" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="Q409" s="87" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="R409" s="87" t="s">
         <v>2725</v>
@@ -62907,7 +62907,7 @@
       <c r="V409" s="87"/>
       <c r="W409" s="87"/>
       <c r="X409" s="87" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="Y409" s="87" t="s">
         <v>2725</v>
@@ -62916,19 +62916,19 @@
         <v>2725</v>
       </c>
       <c r="AA409" s="87" t="s">
+        <v>3264</v>
+      </c>
+      <c r="AB409" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC409" s="87" t="s">
         <v>3265</v>
       </c>
-      <c r="AB409" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC409" s="87" t="s">
-        <v>3266</v>
-      </c>
       <c r="AD409" s="87" t="s">
         <v>2725</v>
       </c>
       <c r="AE409" s="87" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="AF409" s="87" t="s">
         <v>2725</v>
@@ -62946,10 +62946,10 @@
         <v>186</v>
       </c>
       <c r="AK409" s="87" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="AL409" s="87" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="AM409" s="87" t="s">
         <v>925</v>
@@ -62967,7 +62967,7 @@
         <v>20078</v>
       </c>
       <c r="AR409" s="87" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="AS409" s="87"/>
     </row>
@@ -62980,28 +62980,28 @@
         <v>199</v>
       </c>
       <c r="D410" s="87" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E410" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F410" s="87" t="s">
         <v>3337</v>
       </c>
-      <c r="E410" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F410" s="87" t="s">
+      <c r="G410" s="87" t="s">
         <v>3338</v>
       </c>
-      <c r="G410" s="87" t="s">
-        <v>3339</v>
-      </c>
       <c r="H410" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I410" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J410" s="87" t="s">
         <v>76</v>
       </c>
       <c r="K410" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L410" s="87">
         <v>90</v>
@@ -63039,10 +63039,10 @@
         <v>186</v>
       </c>
       <c r="AK410" s="87" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="AL410" s="87" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="AM410" s="87" t="s">
         <v>925</v>
@@ -63060,7 +63060,7 @@
         <v>20083</v>
       </c>
       <c r="AR410" s="87" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="AS410" s="87"/>
     </row>
@@ -63073,22 +63073,22 @@
         <v>200</v>
       </c>
       <c r="D411" s="87" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E411" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F411" s="87" t="s">
         <v>3341</v>
       </c>
-      <c r="E411" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F411" s="87" t="s">
+      <c r="G411" s="87" t="s">
         <v>3342</v>
       </c>
-      <c r="G411" s="87" t="s">
-        <v>3343</v>
-      </c>
       <c r="H411" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I411" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J411" s="87" t="s">
         <v>75</v>
@@ -63132,7 +63132,7 @@
         <v>186</v>
       </c>
       <c r="AK411" s="87" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="AL411" s="87" t="s">
         <v>1146</v>
@@ -63153,7 +63153,7 @@
         <v>20082</v>
       </c>
       <c r="AR411" s="87" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="AS411" s="87"/>
     </row>
@@ -63166,28 +63166,28 @@
         <v>201</v>
       </c>
       <c r="D412" s="87" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E412" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F412" s="87" t="s">
         <v>3345</v>
       </c>
-      <c r="E412" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F412" s="87" t="s">
+      <c r="G412" s="87" t="s">
         <v>3346</v>
       </c>
-      <c r="G412" s="87" t="s">
+      <c r="H412" s="89" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I412" s="87" t="s">
+        <v>3333</v>
+      </c>
+      <c r="J412" s="87" t="s">
         <v>3347</v>
       </c>
-      <c r="H412" s="89" t="s">
-        <v>3350</v>
-      </c>
-      <c r="I412" s="87" t="s">
-        <v>3334</v>
-      </c>
-      <c r="J412" s="87" t="s">
-        <v>3348</v>
-      </c>
       <c r="K412" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L412" s="87">
         <v>90</v>
@@ -63225,7 +63225,7 @@
         <v>186</v>
       </c>
       <c r="AK412" s="87" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="AL412" s="87" t="s">
         <v>1146</v>
@@ -63246,13 +63246,13 @@
         <v>64004</v>
       </c>
       <c r="AR412" s="87" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="AS412" s="87"/>
     </row>
     <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B413" s="88"/>
       <c r="C413" s="87"/>
@@ -63308,28 +63308,28 @@
         <v>136</v>
       </c>
       <c r="D414" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E414" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F414" s="87" t="s">
         <v>3376</v>
       </c>
-      <c r="E414" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F414" s="87" t="s">
+      <c r="G414" s="87" t="s">
         <v>3377</v>
       </c>
-      <c r="G414" s="87" t="s">
-        <v>3378</v>
-      </c>
       <c r="H414" s="91" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I414" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J414" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K414" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L414" s="87">
         <v>90</v>
@@ -63367,7 +63367,7 @@
         <v>574</v>
       </c>
       <c r="AK414" s="87" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="AL414" s="87" t="s">
         <v>925</v>
@@ -63388,7 +63388,7 @@
         <v>30115</v>
       </c>
       <c r="AR414" s="87" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="AS414" s="87"/>
     </row>
@@ -63401,34 +63401,34 @@
         <v>128</v>
       </c>
       <c r="D415" s="87" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E415" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F415" s="87" t="s">
         <v>3164</v>
       </c>
-      <c r="E415" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F415" s="87" t="s">
+      <c r="G415" s="87" t="s">
         <v>3165</v>
       </c>
-      <c r="G415" s="87" t="s">
-        <v>3166</v>
-      </c>
       <c r="H415" s="89" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="I415" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J415" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K415" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L415" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M415" s="87" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="N415" s="87" t="s">
         <v>1932</v>
@@ -63437,46 +63437,46 @@
         <v>70012</v>
       </c>
       <c r="P415" s="87" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="Q415" s="87" t="s">
+        <v>3246</v>
+      </c>
+      <c r="R415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="S415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="T415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA415" s="87" t="s">
         <v>3247</v>
       </c>
-      <c r="R415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="S415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="T415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA415" s="87" t="s">
+      <c r="AB415" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC415" s="87" t="s">
         <v>3248</v>
-      </c>
-      <c r="AB415" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC415" s="87" t="s">
-        <v>3249</v>
       </c>
       <c r="AD415" s="87" t="s">
         <v>2725</v>
@@ -63500,10 +63500,10 @@
         <v>310</v>
       </c>
       <c r="AK415" s="87" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="AL415" s="87" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="AM415" s="87" t="s">
         <v>925</v>
@@ -63512,7 +63512,7 @@
         <v>925</v>
       </c>
       <c r="AO415" s="87" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="AP415" s="87">
         <v>30111</v>
@@ -63521,7 +63521,7 @@
         <v>30111</v>
       </c>
       <c r="AR415" s="87" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="AS415" s="87"/>
     </row>
@@ -63534,34 +63534,34 @@
         <v>129</v>
       </c>
       <c r="D416" s="87" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E416" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F416" s="87" t="s">
         <v>3172</v>
       </c>
-      <c r="E416" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F416" s="87" t="s">
+      <c r="G416" s="87" t="s">
         <v>3173</v>
       </c>
-      <c r="G416" s="87" t="s">
-        <v>3174</v>
-      </c>
       <c r="H416" s="89" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="I416" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J416" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K416" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L416" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M416" s="87" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="N416" s="87" t="s">
         <v>1932</v>
@@ -63570,7 +63570,7 @@
         <v>70013</v>
       </c>
       <c r="P416" s="87" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="Q416" s="87" t="s">
         <v>2725</v>
@@ -63603,13 +63603,13 @@
         <v>2725</v>
       </c>
       <c r="AA416" s="87" t="s">
+        <v>3244</v>
+      </c>
+      <c r="AB416" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC416" s="87" t="s">
         <v>3245</v>
-      </c>
-      <c r="AB416" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC416" s="87" t="s">
-        <v>3246</v>
       </c>
       <c r="AD416" s="87" t="s">
         <v>2725</v>
@@ -63633,10 +63633,10 @@
         <v>310</v>
       </c>
       <c r="AK416" s="87" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="AL416" s="87" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="AM416" s="87" t="s">
         <v>925</v>
@@ -63645,7 +63645,7 @@
         <v>925</v>
       </c>
       <c r="AO416" s="87" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="AP416" s="87">
         <v>30113</v>
@@ -63654,7 +63654,7 @@
         <v>30113</v>
       </c>
       <c r="AR416" s="87" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="AS416" s="87"/>
     </row>
@@ -63667,34 +63667,34 @@
         <v>130</v>
       </c>
       <c r="D417" s="87" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E417" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F417" s="87" t="s">
         <v>3159</v>
       </c>
-      <c r="E417" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F417" s="87" t="s">
+      <c r="G417" s="87" t="s">
         <v>3160</v>
       </c>
-      <c r="G417" s="87" t="s">
-        <v>3161</v>
-      </c>
       <c r="H417" s="89" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="I417" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J417" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K417" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L417" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M417" s="87" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="N417" s="87" t="s">
         <v>1932</v>
@@ -63703,7 +63703,7 @@
         <v>70014</v>
       </c>
       <c r="P417" s="87" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="Q417" s="87" t="s">
         <v>2725</v>
@@ -63712,37 +63712,37 @@
         <v>2725</v>
       </c>
       <c r="S417" s="87" t="s">
+        <v>3241</v>
+      </c>
+      <c r="T417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA417" s="87" t="s">
         <v>3242</v>
       </c>
-      <c r="T417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA417" s="87" t="s">
+      <c r="AB417" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC417" s="87" t="s">
         <v>3243</v>
-      </c>
-      <c r="AB417" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC417" s="87" t="s">
-        <v>3244</v>
       </c>
       <c r="AD417" s="87" t="s">
         <v>2725</v>
@@ -63766,10 +63766,10 @@
         <v>310</v>
       </c>
       <c r="AK417" s="87" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="AL417" s="87" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="AM417" s="87" t="s">
         <v>925</v>
@@ -63778,7 +63778,7 @@
         <v>925</v>
       </c>
       <c r="AO417" s="87" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="AP417" s="87">
         <v>30109</v>
@@ -63787,7 +63787,7 @@
         <v>30109</v>
       </c>
       <c r="AR417" s="87" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="AS417" s="87"/>
     </row>
@@ -63800,34 +63800,34 @@
         <v>131</v>
       </c>
       <c r="D418" s="87" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E418" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F418" s="87" t="s">
         <v>3168</v>
       </c>
-      <c r="E418" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F418" s="87" t="s">
+      <c r="G418" s="87" t="s">
         <v>3169</v>
       </c>
-      <c r="G418" s="87" t="s">
-        <v>3170</v>
-      </c>
       <c r="H418" s="89" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="I418" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J418" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K418" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L418" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M418" s="87" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="N418" s="87" t="s">
         <v>1932</v>
@@ -63836,7 +63836,7 @@
         <v>70015</v>
       </c>
       <c r="P418" s="87" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="Q418" s="87" t="s">
         <v>2725</v>
@@ -63845,38 +63845,38 @@
         <v>2725</v>
       </c>
       <c r="S418" s="87" t="s">
+        <v>3238</v>
+      </c>
+      <c r="T418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="W418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="X418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Y418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Z418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AA418" s="87" t="s">
         <v>3239</v>
       </c>
-      <c r="T418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="U418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="V418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="X418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Y418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="Z418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AA418" s="87" t="s">
+      <c r="AB418" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC418" s="87" t="s">
         <v>3240</v>
       </c>
-      <c r="AB418" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC418" s="87" t="s">
-        <v>3241</v>
-      </c>
       <c r="AD418" s="87" t="s">
         <v>2725</v>
       </c>
@@ -63887,7 +63887,7 @@
         <v>2725</v>
       </c>
       <c r="AG418" s="87" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="AH418" s="87" t="s">
         <v>2725</v>
@@ -63899,10 +63899,10 @@
         <v>310</v>
       </c>
       <c r="AK418" s="87" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="AL418" s="87" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="AM418" s="87" t="s">
         <v>925</v>
@@ -63911,7 +63911,7 @@
         <v>925</v>
       </c>
       <c r="AO418" s="87" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="AP418" s="87">
         <v>30107</v>
@@ -63920,7 +63920,7 @@
         <v>30107</v>
       </c>
       <c r="AR418" s="87" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="AS418" s="87"/>
     </row>
@@ -63933,34 +63933,34 @@
         <v>132</v>
       </c>
       <c r="D419" s="87" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E419" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F419" s="87" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="G419" s="87" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="H419" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I419" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J419" s="87" t="s">
         <v>311</v>
       </c>
       <c r="K419" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L419" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M419" s="87" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="N419" s="87" t="s">
         <v>1932</v>
@@ -63969,7 +63969,7 @@
         <v>70015</v>
       </c>
       <c r="P419" s="87" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="Q419" s="87" t="s">
         <v>2725</v>
@@ -64002,13 +64002,13 @@
         <v>2725</v>
       </c>
       <c r="AA419" s="87" t="s">
+        <v>3233</v>
+      </c>
+      <c r="AB419" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC419" s="87" t="s">
         <v>3234</v>
-      </c>
-      <c r="AB419" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC419" s="87" t="s">
-        <v>3235</v>
       </c>
       <c r="AD419" s="87" t="s">
         <v>2725</v>
@@ -64032,10 +64032,10 @@
         <v>310</v>
       </c>
       <c r="AK419" s="87" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="AL419" s="87" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="AM419" s="87" t="s">
         <v>925</v>
@@ -64044,7 +64044,7 @@
         <v>925</v>
       </c>
       <c r="AO419" s="87" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="AP419" s="87">
         <v>30112</v>
@@ -64053,7 +64053,7 @@
         <v>30112</v>
       </c>
       <c r="AR419" s="87" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="AS419" s="87"/>
     </row>
@@ -64066,34 +64066,34 @@
         <v>133</v>
       </c>
       <c r="D420" s="87" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="E420" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F420" s="87" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="G420" s="87" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="H420" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I420" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J420" s="87" t="s">
         <v>311</v>
       </c>
       <c r="K420" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L420" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M420" s="87" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="N420" s="87" t="s">
         <v>1932</v>
@@ -64102,7 +64102,7 @@
         <v>70015</v>
       </c>
       <c r="P420" s="87" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="Q420" s="87" t="s">
         <v>2725</v>
@@ -64135,13 +64135,13 @@
         <v>2725</v>
       </c>
       <c r="AA420" s="87" t="s">
+        <v>3231</v>
+      </c>
+      <c r="AB420" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC420" s="87" t="s">
         <v>3232</v>
-      </c>
-      <c r="AB420" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC420" s="87" t="s">
-        <v>3233</v>
       </c>
       <c r="AD420" s="87" t="s">
         <v>2725</v>
@@ -64165,10 +64165,10 @@
         <v>310</v>
       </c>
       <c r="AK420" s="87" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="AL420" s="87" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="AM420" s="87" t="s">
         <v>925</v>
@@ -64177,7 +64177,7 @@
         <v>925</v>
       </c>
       <c r="AO420" s="87" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="AP420" s="87">
         <v>30114</v>
@@ -64186,7 +64186,7 @@
         <v>30114</v>
       </c>
       <c r="AR420" s="87" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="AS420" s="87"/>
     </row>
@@ -64199,34 +64199,34 @@
         <v>134</v>
       </c>
       <c r="D421" s="87" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="E421" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F421" s="87" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="G421" s="87" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="H421" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I421" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J421" s="87" t="s">
         <v>311</v>
       </c>
       <c r="K421" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L421" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M421" s="87" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="N421" s="87" t="s">
         <v>1932</v>
@@ -64235,7 +64235,7 @@
         <v>70015</v>
       </c>
       <c r="P421" s="87" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="Q421" s="87" t="s">
         <v>2725</v>
@@ -64268,13 +64268,13 @@
         <v>2725</v>
       </c>
       <c r="AA421" s="87" t="s">
+        <v>3229</v>
+      </c>
+      <c r="AB421" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AC421" s="87" t="s">
         <v>3230</v>
-      </c>
-      <c r="AB421" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AC421" s="87" t="s">
-        <v>3231</v>
       </c>
       <c r="AD421" s="87" t="s">
         <v>2725</v>
@@ -64298,10 +64298,10 @@
         <v>310</v>
       </c>
       <c r="AK421" s="87" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="AL421" s="87" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="AM421" s="87" t="s">
         <v>925</v>
@@ -64310,7 +64310,7 @@
         <v>925</v>
       </c>
       <c r="AO421" s="87" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="AP421" s="87">
         <v>30110</v>
@@ -64319,7 +64319,7 @@
         <v>30110</v>
       </c>
       <c r="AR421" s="87" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="AS421" s="87"/>
     </row>
@@ -64332,34 +64332,34 @@
         <v>135</v>
       </c>
       <c r="D422" s="87" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="E422" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F422" s="87" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="G422" s="87" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="H422" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I422" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J422" s="87" t="s">
         <v>311</v>
       </c>
       <c r="K422" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L422" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M422" s="87" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="N422" s="87" t="s">
         <v>1932</v>
@@ -64368,7 +64368,7 @@
         <v>70015</v>
       </c>
       <c r="P422" s="87" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="Q422" s="87" t="s">
         <v>2725</v>
@@ -64401,25 +64401,25 @@
         <v>2725</v>
       </c>
       <c r="AA422" s="87" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AB422" s="87" t="s">
         <v>3226</v>
       </c>
-      <c r="AB422" s="87" t="s">
+      <c r="AC422" s="87" t="s">
         <v>3227</v>
       </c>
-      <c r="AC422" s="87" t="s">
+      <c r="AD422" s="87" t="s">
         <v>3228</v>
       </c>
-      <c r="AD422" s="87" t="s">
-        <v>3229</v>
-      </c>
       <c r="AE422" s="87" t="s">
+        <v>3223</v>
+      </c>
+      <c r="AF422" s="87" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AG422" s="87" t="s">
         <v>3224</v>
-      </c>
-      <c r="AF422" s="87" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AG422" s="87" t="s">
-        <v>3225</v>
       </c>
       <c r="AH422" s="87" t="s">
         <v>2725</v>
@@ -64431,10 +64431,10 @@
         <v>310</v>
       </c>
       <c r="AK422" s="87" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="AL422" s="87" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="AM422" s="87" t="s">
         <v>925</v>
@@ -64443,7 +64443,7 @@
         <v>925</v>
       </c>
       <c r="AO422" s="87" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="AP422" s="87">
         <v>30108</v>
@@ -64452,7 +64452,7 @@
         <v>30108</v>
       </c>
       <c r="AR422" s="87" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="AS422" s="87"/>
     </row>
@@ -64465,28 +64465,28 @@
         <v>137</v>
       </c>
       <c r="D423" s="87" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E423" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F423" s="87" t="s">
         <v>3390</v>
       </c>
-      <c r="E423" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F423" s="87" t="s">
+      <c r="G423" s="87" t="s">
         <v>3391</v>
       </c>
-      <c r="G423" s="87" t="s">
-        <v>3392</v>
-      </c>
       <c r="H423" s="89" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="I423" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J423" s="87" t="s">
         <v>312</v>
       </c>
       <c r="K423" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="L423" s="87">
         <v>90</v>
@@ -64498,7 +64498,7 @@
         <v>605</v>
       </c>
       <c r="O423" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P423" s="87"/>
       <c r="Q423" s="87"/>
@@ -64521,13 +64521,13 @@
       <c r="AH423" s="87"/>
       <c r="AI423" s="87"/>
       <c r="AJ423" s="87" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="AK423" s="87" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="AL423" s="87" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AM423" s="87" t="s">
         <v>925</v>
@@ -64536,7 +64536,7 @@
         <v>925</v>
       </c>
       <c r="AO423" s="87" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP423" s="87"/>
       <c r="AQ423" s="87"/>
@@ -64545,7 +64545,7 @@
     </row>
     <row r="424" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A424" s="87" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B424" s="88"/>
       <c r="C424" s="87"/>
@@ -64601,28 +64601,28 @@
         <v>0</v>
       </c>
       <c r="D425" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E425" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F425" s="87" t="s">
         <v>3351</v>
       </c>
-      <c r="E425" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F425" s="87" t="s">
+      <c r="G425" s="87" t="s">
         <v>3352</v>
       </c>
-      <c r="G425" s="87" t="s">
-        <v>3353</v>
-      </c>
       <c r="H425" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I425" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J425" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K425" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L425" s="87">
         <v>0</v>
@@ -64634,7 +64634,7 @@
         <v>0</v>
       </c>
       <c r="O425" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P425" s="87"/>
       <c r="Q425" s="87"/>
@@ -64660,7 +64660,7 @@
         <v>575</v>
       </c>
       <c r="AK425" s="87" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="AL425" s="87" t="s">
         <v>925</v>
@@ -64688,28 +64688,28 @@
         <v>0</v>
       </c>
       <c r="D426" s="87" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E426" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F426" s="87" t="s">
         <v>3356</v>
       </c>
-      <c r="E426" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F426" s="87" t="s">
+      <c r="G426" s="87" t="s">
         <v>3357</v>
       </c>
-      <c r="G426" s="87" t="s">
-        <v>3358</v>
-      </c>
       <c r="H426" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I426" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J426" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K426" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L426" s="87">
         <v>0</v>
@@ -64721,7 +64721,7 @@
         <v>0</v>
       </c>
       <c r="O426" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P426" s="87"/>
       <c r="Q426" s="87"/>
@@ -64747,7 +64747,7 @@
         <v>575</v>
       </c>
       <c r="AK426" s="87" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="AL426" s="87" t="s">
         <v>925</v>
@@ -64775,28 +64775,28 @@
         <v>0</v>
       </c>
       <c r="D427" s="87" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E427" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F427" s="87" t="s">
         <v>3360</v>
       </c>
-      <c r="E427" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F427" s="87" t="s">
+      <c r="G427" s="87" t="s">
         <v>3361</v>
       </c>
-      <c r="G427" s="87" t="s">
-        <v>3362</v>
-      </c>
       <c r="H427" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I427" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J427" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K427" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L427" s="87">
         <v>0</v>
@@ -64808,7 +64808,7 @@
         <v>0</v>
       </c>
       <c r="O427" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P427" s="87"/>
       <c r="Q427" s="87"/>
@@ -64834,7 +64834,7 @@
         <v>575</v>
       </c>
       <c r="AK427" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="AL427" s="87" t="s">
         <v>925</v>
@@ -64862,28 +64862,28 @@
         <v>1</v>
       </c>
       <c r="D428" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="E428" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F428" s="87" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="G428" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H428" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I428" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J428" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K428" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L428" s="87">
         <v>0</v>
@@ -64895,7 +64895,7 @@
         <v>0</v>
       </c>
       <c r="O428" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P428" s="87"/>
       <c r="Q428" s="87"/>
@@ -64921,7 +64921,7 @@
         <v>575</v>
       </c>
       <c r="AK428" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL428" s="87" t="s">
         <v>925</v>
@@ -64942,7 +64942,7 @@
     </row>
     <row r="429" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A429" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B429" s="88">
         <v>44663</v>
@@ -64951,28 +64951,28 @@
         <v>0</v>
       </c>
       <c r="D429" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E429" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F429" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="E429" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F429" s="87" t="s">
+      <c r="G429" s="87" t="s">
         <v>3365</v>
       </c>
-      <c r="G429" s="87" t="s">
-        <v>3366</v>
-      </c>
       <c r="H429" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I429" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J429" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K429" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L429" s="87">
         <v>0</v>
@@ -64984,7 +64984,7 @@
         <v>0</v>
       </c>
       <c r="O429" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P429" s="87"/>
       <c r="Q429" s="87"/>
@@ -65010,7 +65010,7 @@
         <v>575</v>
       </c>
       <c r="AK429" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL429" s="87" t="s">
         <v>925</v>
@@ -65031,7 +65031,7 @@
     </row>
     <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A430" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B430" s="88">
         <v>44663</v>
@@ -65040,28 +65040,28 @@
         <v>0</v>
       </c>
       <c r="D430" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E430" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F430" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="E430" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F430" s="87" t="s">
+      <c r="G430" s="87" t="s">
         <v>3365</v>
       </c>
-      <c r="G430" s="87" t="s">
-        <v>3366</v>
-      </c>
       <c r="H430" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I430" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J430" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K430" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L430" s="87">
         <v>0</v>
@@ -65073,7 +65073,7 @@
         <v>0</v>
       </c>
       <c r="O430" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P430" s="87"/>
       <c r="Q430" s="87"/>
@@ -65099,7 +65099,7 @@
         <v>575</v>
       </c>
       <c r="AK430" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL430" s="87" t="s">
         <v>925</v>
@@ -65127,28 +65127,28 @@
         <v>2</v>
       </c>
       <c r="D431" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="E431" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F431" s="87" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="G431" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H431" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I431" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J431" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K431" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L431" s="87">
         <v>0</v>
@@ -65160,7 +65160,7 @@
         <v>0</v>
       </c>
       <c r="O431" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P431" s="87"/>
       <c r="Q431" s="87"/>
@@ -65186,7 +65186,7 @@
         <v>575</v>
       </c>
       <c r="AK431" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL431" s="87" t="s">
         <v>925</v>
@@ -65207,7 +65207,7 @@
     </row>
     <row r="432" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A432" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B432" s="88">
         <v>44663</v>
@@ -65216,28 +65216,28 @@
         <v>0</v>
       </c>
       <c r="D432" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E432" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F432" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="E432" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F432" s="87" t="s">
-        <v>3365</v>
-      </c>
       <c r="G432" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H432" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I432" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J432" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K432" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L432" s="87">
         <v>0</v>
@@ -65249,7 +65249,7 @@
         <v>0</v>
       </c>
       <c r="O432" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P432" s="87"/>
       <c r="Q432" s="87"/>
@@ -65275,7 +65275,7 @@
         <v>575</v>
       </c>
       <c r="AK432" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL432" s="87" t="s">
         <v>925</v>
@@ -65296,7 +65296,7 @@
     </row>
     <row r="433" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A433" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B433" s="88">
         <v>44663</v>
@@ -65305,28 +65305,28 @@
         <v>0</v>
       </c>
       <c r="D433" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E433" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F433" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="E433" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F433" s="87" t="s">
-        <v>3365</v>
-      </c>
       <c r="G433" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H433" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I433" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J433" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K433" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L433" s="87">
         <v>0</v>
@@ -65338,7 +65338,7 @@
         <v>0</v>
       </c>
       <c r="O433" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P433" s="87"/>
       <c r="Q433" s="87"/>
@@ -65364,7 +65364,7 @@
         <v>575</v>
       </c>
       <c r="AK433" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL433" s="87" t="s">
         <v>925</v>
@@ -65385,7 +65385,7 @@
     </row>
     <row r="434" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A434" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B434" s="88">
         <v>44663</v>
@@ -65394,28 +65394,28 @@
         <v>0</v>
       </c>
       <c r="D434" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E434" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F434" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="E434" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F434" s="87" t="s">
-        <v>3365</v>
-      </c>
       <c r="G434" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H434" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I434" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J434" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K434" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L434" s="87">
         <v>0</v>
@@ -65427,7 +65427,7 @@
         <v>0</v>
       </c>
       <c r="O434" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P434" s="87"/>
       <c r="Q434" s="87"/>
@@ -65453,7 +65453,7 @@
         <v>575</v>
       </c>
       <c r="AK434" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL434" s="87" t="s">
         <v>925</v>
@@ -65474,7 +65474,7 @@
     </row>
     <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A435" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B435" s="88">
         <v>44663</v>
@@ -65483,28 +65483,28 @@
         <v>0</v>
       </c>
       <c r="D435" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E435" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F435" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="E435" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F435" s="87" t="s">
-        <v>3365</v>
-      </c>
       <c r="G435" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H435" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I435" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J435" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K435" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L435" s="87">
         <v>0</v>
@@ -65516,7 +65516,7 @@
         <v>0</v>
       </c>
       <c r="O435" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P435" s="87"/>
       <c r="Q435" s="87"/>
@@ -65542,7 +65542,7 @@
         <v>575</v>
       </c>
       <c r="AK435" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="AL435" s="87" t="s">
         <v>925</v>
@@ -65570,28 +65570,28 @@
         <v>3</v>
       </c>
       <c r="D436" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E436" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F436" s="87" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="G436" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H436" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I436" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J436" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K436" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L436" s="87">
         <v>0</v>
@@ -65603,7 +65603,7 @@
         <v>0</v>
       </c>
       <c r="O436" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P436" s="87"/>
       <c r="Q436" s="87"/>
@@ -65629,7 +65629,7 @@
         <v>575</v>
       </c>
       <c r="AK436" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL436" s="87" t="s">
         <v>925</v>
@@ -65650,7 +65650,7 @@
     </row>
     <row r="437" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A437" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B437" s="88">
         <v>44663</v>
@@ -65659,28 +65659,28 @@
         <v>0</v>
       </c>
       <c r="D437" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E437" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F437" s="87" t="s">
         <v>3369</v>
       </c>
-      <c r="E437" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F437" s="87" t="s">
-        <v>3370</v>
-      </c>
       <c r="G437" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H437" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I437" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J437" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K437" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L437" s="87">
         <v>0</v>
@@ -65692,7 +65692,7 @@
         <v>0</v>
       </c>
       <c r="O437" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P437" s="87"/>
       <c r="Q437" s="87"/>
@@ -65718,7 +65718,7 @@
         <v>575</v>
       </c>
       <c r="AK437" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL437" s="87" t="s">
         <v>925</v>
@@ -65739,7 +65739,7 @@
     </row>
     <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A438" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B438" s="88">
         <v>44663</v>
@@ -65748,28 +65748,28 @@
         <v>0</v>
       </c>
       <c r="D438" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E438" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F438" s="87" t="s">
         <v>3369</v>
       </c>
-      <c r="E438" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F438" s="87" t="s">
-        <v>3370</v>
-      </c>
       <c r="G438" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H438" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I438" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J438" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K438" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L438" s="87">
         <v>0</v>
@@ -65781,7 +65781,7 @@
         <v>0</v>
       </c>
       <c r="O438" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P438" s="87"/>
       <c r="Q438" s="87"/>
@@ -65807,7 +65807,7 @@
         <v>575</v>
       </c>
       <c r="AK438" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL438" s="87" t="s">
         <v>925</v>
@@ -65835,28 +65835,28 @@
         <v>4</v>
       </c>
       <c r="D439" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E439" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F439" s="87" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="G439" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H439" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I439" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J439" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K439" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L439" s="87">
         <v>0</v>
@@ -65868,7 +65868,7 @@
         <v>0</v>
       </c>
       <c r="O439" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P439" s="87"/>
       <c r="Q439" s="87"/>
@@ -65894,7 +65894,7 @@
         <v>575</v>
       </c>
       <c r="AK439" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL439" s="87" t="s">
         <v>925</v>
@@ -65915,7 +65915,7 @@
     </row>
     <row r="440" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B440" s="88">
         <v>44663</v>
@@ -65924,28 +65924,28 @@
         <v>0</v>
       </c>
       <c r="D440" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E440" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F440" s="87" t="s">
         <v>3369</v>
       </c>
-      <c r="E440" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F440" s="87" t="s">
-        <v>3370</v>
-      </c>
       <c r="G440" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H440" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I440" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J440" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K440" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L440" s="87">
         <v>0</v>
@@ -65957,7 +65957,7 @@
         <v>0</v>
       </c>
       <c r="O440" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P440" s="87"/>
       <c r="Q440" s="87"/>
@@ -65983,7 +65983,7 @@
         <v>575</v>
       </c>
       <c r="AK440" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL440" s="87" t="s">
         <v>925</v>
@@ -66004,7 +66004,7 @@
     </row>
     <row r="441" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A441" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B441" s="88">
         <v>44663</v>
@@ -66013,28 +66013,28 @@
         <v>0</v>
       </c>
       <c r="D441" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E441" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F441" s="87" t="s">
         <v>3369</v>
       </c>
-      <c r="E441" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F441" s="87" t="s">
-        <v>3370</v>
-      </c>
       <c r="G441" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H441" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I441" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J441" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K441" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L441" s="87">
         <v>0</v>
@@ -66046,7 +66046,7 @@
         <v>0</v>
       </c>
       <c r="O441" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P441" s="87"/>
       <c r="Q441" s="87"/>
@@ -66072,7 +66072,7 @@
         <v>575</v>
       </c>
       <c r="AK441" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL441" s="87" t="s">
         <v>925</v>
@@ -66093,7 +66093,7 @@
     </row>
     <row r="442" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A442" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B442" s="88">
         <v>44663</v>
@@ -66102,28 +66102,28 @@
         <v>0</v>
       </c>
       <c r="D442" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E442" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F442" s="87" t="s">
         <v>3369</v>
       </c>
-      <c r="E442" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F442" s="87" t="s">
-        <v>3370</v>
-      </c>
       <c r="G442" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H442" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I442" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J442" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K442" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L442" s="87">
         <v>0</v>
@@ -66135,7 +66135,7 @@
         <v>0</v>
       </c>
       <c r="O442" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P442" s="87"/>
       <c r="Q442" s="87"/>
@@ -66161,7 +66161,7 @@
         <v>575</v>
       </c>
       <c r="AK442" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL442" s="87" t="s">
         <v>925</v>
@@ -66182,7 +66182,7 @@
     </row>
     <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A443" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B443" s="88">
         <v>44663</v>
@@ -66191,28 +66191,28 @@
         <v>0</v>
       </c>
       <c r="D443" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E443" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F443" s="87" t="s">
         <v>3369</v>
       </c>
-      <c r="E443" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F443" s="87" t="s">
-        <v>3370</v>
-      </c>
       <c r="G443" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H443" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I443" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J443" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K443" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L443" s="87">
         <v>0</v>
@@ -66224,7 +66224,7 @@
         <v>0</v>
       </c>
       <c r="O443" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P443" s="87"/>
       <c r="Q443" s="87"/>
@@ -66250,7 +66250,7 @@
         <v>575</v>
       </c>
       <c r="AK443" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="AL443" s="87" t="s">
         <v>925</v>
@@ -66278,28 +66278,28 @@
         <v>5</v>
       </c>
       <c r="D444" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="E444" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F444" s="87" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="G444" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H444" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I444" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J444" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K444" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L444" s="87">
         <v>0</v>
@@ -66311,7 +66311,7 @@
         <v>0</v>
       </c>
       <c r="O444" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P444" s="87"/>
       <c r="Q444" s="87"/>
@@ -66337,7 +66337,7 @@
         <v>575</v>
       </c>
       <c r="AK444" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL444" s="87" t="s">
         <v>925</v>
@@ -66358,7 +66358,7 @@
     </row>
     <row r="445" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A445" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B445" s="88">
         <v>44663</v>
@@ -66367,28 +66367,28 @@
         <v>0</v>
       </c>
       <c r="D445" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E445" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F445" s="87" t="s">
         <v>3372</v>
       </c>
-      <c r="E445" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F445" s="87" t="s">
-        <v>3373</v>
-      </c>
       <c r="G445" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H445" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I445" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J445" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K445" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L445" s="87">
         <v>0</v>
@@ -66400,7 +66400,7 @@
         <v>0</v>
       </c>
       <c r="O445" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P445" s="87"/>
       <c r="Q445" s="87"/>
@@ -66426,7 +66426,7 @@
         <v>575</v>
       </c>
       <c r="AK445" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL445" s="87" t="s">
         <v>925</v>
@@ -66447,7 +66447,7 @@
     </row>
     <row r="446" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B446" s="88">
         <v>44663</v>
@@ -66456,28 +66456,28 @@
         <v>0</v>
       </c>
       <c r="D446" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E446" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F446" s="87" t="s">
         <v>3372</v>
       </c>
-      <c r="E446" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F446" s="87" t="s">
-        <v>3373</v>
-      </c>
       <c r="G446" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="H446" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I446" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J446" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K446" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L446" s="87">
         <v>0</v>
@@ -66489,7 +66489,7 @@
         <v>0</v>
       </c>
       <c r="O446" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P446" s="87"/>
       <c r="Q446" s="87"/>
@@ -66515,7 +66515,7 @@
         <v>575</v>
       </c>
       <c r="AK446" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL446" s="87" t="s">
         <v>925</v>
@@ -66543,28 +66543,28 @@
         <v>6</v>
       </c>
       <c r="D447" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="E447" s="87" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F447" s="87" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="G447" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H447" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I447" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J447" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K447" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L447" s="87">
         <v>0</v>
@@ -66576,7 +66576,7 @@
         <v>0</v>
       </c>
       <c r="O447" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P447" s="87"/>
       <c r="Q447" s="87"/>
@@ -66602,7 +66602,7 @@
         <v>575</v>
       </c>
       <c r="AK447" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL447" s="87" t="s">
         <v>925</v>
@@ -66623,7 +66623,7 @@
     </row>
     <row r="448" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A448" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B448" s="88">
         <v>44663</v>
@@ -66632,28 +66632,28 @@
         <v>0</v>
       </c>
       <c r="D448" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E448" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F448" s="87" t="s">
         <v>3372</v>
       </c>
-      <c r="E448" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F448" s="87" t="s">
-        <v>3373</v>
-      </c>
       <c r="G448" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H448" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I448" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J448" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K448" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L448" s="87">
         <v>0</v>
@@ -66665,7 +66665,7 @@
         <v>0</v>
       </c>
       <c r="O448" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P448" s="87"/>
       <c r="Q448" s="87"/>
@@ -66691,7 +66691,7 @@
         <v>575</v>
       </c>
       <c r="AK448" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL448" s="87" t="s">
         <v>925</v>
@@ -66712,7 +66712,7 @@
     </row>
     <row r="449" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A449" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B449" s="88">
         <v>44663</v>
@@ -66721,28 +66721,28 @@
         <v>0</v>
       </c>
       <c r="D449" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E449" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F449" s="87" t="s">
         <v>3372</v>
       </c>
-      <c r="E449" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F449" s="87" t="s">
-        <v>3373</v>
-      </c>
       <c r="G449" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H449" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I449" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J449" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K449" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L449" s="87">
         <v>0</v>
@@ -66754,7 +66754,7 @@
         <v>0</v>
       </c>
       <c r="O449" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P449" s="87"/>
       <c r="Q449" s="87"/>
@@ -66780,7 +66780,7 @@
         <v>575</v>
       </c>
       <c r="AK449" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL449" s="87" t="s">
         <v>925</v>
@@ -66801,7 +66801,7 @@
     </row>
     <row r="450" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B450" s="88">
         <v>44663</v>
@@ -66810,28 +66810,28 @@
         <v>0</v>
       </c>
       <c r="D450" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E450" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F450" s="87" t="s">
         <v>3372</v>
       </c>
-      <c r="E450" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F450" s="87" t="s">
-        <v>3373</v>
-      </c>
       <c r="G450" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H450" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I450" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J450" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K450" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L450" s="87">
         <v>0</v>
@@ -66843,7 +66843,7 @@
         <v>0</v>
       </c>
       <c r="O450" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P450" s="87"/>
       <c r="Q450" s="87"/>
@@ -66869,7 +66869,7 @@
         <v>575</v>
       </c>
       <c r="AK450" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL450" s="87" t="s">
         <v>925</v>
@@ -66890,7 +66890,7 @@
     </row>
     <row r="451" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A451" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B451" s="88">
         <v>44663</v>
@@ -66899,28 +66899,28 @@
         <v>0</v>
       </c>
       <c r="D451" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E451" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F451" s="87" t="s">
         <v>3372</v>
       </c>
-      <c r="E451" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F451" s="87" t="s">
-        <v>3373</v>
-      </c>
       <c r="G451" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="H451" s="89" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="I451" s="87" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="J451" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K451" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="L451" s="87">
         <v>0</v>
@@ -66932,7 +66932,7 @@
         <v>0</v>
       </c>
       <c r="O451" s="87" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P451" s="87"/>
       <c r="Q451" s="87"/>
@@ -66958,7 +66958,7 @@
         <v>575</v>
       </c>
       <c r="AK451" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="AL451" s="87" t="s">
         <v>925</v>
@@ -66979,7 +66979,7 @@
     </row>
     <row r="452" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A452" s="87" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B452" s="88"/>
       <c r="C452" s="87"/>
@@ -67035,20 +67035,20 @@
         <v>0</v>
       </c>
       <c r="D453" s="87" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E453" s="87" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F453" s="87" t="s">
         <v>3186</v>
-      </c>
-      <c r="E453" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F453" s="87" t="s">
-        <v>3187</v>
       </c>
       <c r="G453" s="87"/>
       <c r="H453" s="89" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="I453" s="87" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J453" s="87" t="s">
         <v>75</v>
@@ -67057,7 +67057,7 @@
         <v>2933</v>
       </c>
       <c r="L453" s="87" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="M453" s="87" t="s">
         <v>1932</v>
@@ -67078,7 +67078,7 @@
         <v>2725</v>
       </c>
       <c r="S453" s="87" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="T453" s="87" t="s">
         <v>2725</v>
@@ -67120,7 +67120,7 @@
         <v>2725</v>
       </c>
       <c r="AG453" s="87" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="AH453" s="87" t="s">
         <v>2725</v>
@@ -67132,10 +67132,10 @@
         <v>1362</v>
       </c>
       <c r="AK453" s="87" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="AL453" s="87" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="AM453" s="87" t="s">
         <v>925</v>
@@ -67153,13 +67153,13 @@
         <v>55009</v>
       </c>
       <c r="AR453" s="87" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="AS453" s="87"/>
     </row>
     <row r="454" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A454" s="87" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B454" s="88"/>
       <c r="C454" s="87"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB621E96-8627-4E7C-B136-5450069F7C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68F895-2701-4274-AA42-4B9D3ECDB902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="35730" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="3397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14034" uniqueCount="3397">
   <si>
     <t>date:</t>
   </si>
@@ -11326,14 +11326,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" filterMode="1"/>
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AH373" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK380" sqref="AK380"/>
+      <selection pane="bottomRight" activeCell="AS84" sqref="AS84:AS376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="AS33" s="6"/>
     </row>
-    <row r="34" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>766</v>
       </c>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>769</v>
       </c>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="AS82" s="6"/>
     </row>
-    <row r="83" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>772</v>
       </c>
@@ -22177,7 +22177,7 @@
       <c r="AR83" s="6"/>
       <c r="AS83" s="6"/>
     </row>
-    <row r="84" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>41828</v>
@@ -22302,7 +22302,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="85" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>776</v>
       </c>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="AS99" s="6"/>
     </row>
-    <row r="100" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>1951</v>
       </c>
@@ -26656,7 +26656,7 @@
       </c>
       <c r="AS118" s="14"/>
     </row>
-    <row r="119" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>767</v>
       </c>
@@ -28568,7 +28568,7 @@
       </c>
       <c r="AS133" s="14"/>
     </row>
-    <row r="134" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>770</v>
       </c>
@@ -32208,7 +32208,7 @@
       </c>
       <c r="AS161" s="14"/>
     </row>
-    <row r="162" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>773</v>
       </c>
@@ -34917,7 +34917,7 @@
       </c>
       <c r="AS182" s="14"/>
     </row>
-    <row r="183" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>2049</v>
       </c>
@@ -34966,7 +34966,7 @@
       <c r="AR183" s="14"/>
       <c r="AS183" s="14"/>
     </row>
-    <row r="184" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="15">
         <v>42206</v>
@@ -35101,7 +35101,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="185" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="15">
         <v>42458</v>
@@ -35234,7 +35234,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="186" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="15">
         <v>42458</v>
@@ -35367,7 +35367,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="187" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="15">
         <v>42528</v>
@@ -35502,7 +35502,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="188" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="15">
         <v>42640</v>
@@ -35635,7 +35635,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="189" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="15">
         <v>42794</v>
@@ -35768,7 +35768,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="190" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="15">
         <v>42794</v>
@@ -35901,7 +35901,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="191" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="15">
         <v>42794</v>
@@ -36034,7 +36034,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="192" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>777</v>
       </c>
@@ -36180,7 +36180,7 @@
       </c>
       <c r="AS193" s="14"/>
     </row>
-    <row r="194" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>1387</v>
       </c>
@@ -38224,7 +38224,7 @@
       </c>
       <c r="AS209" s="20"/>
     </row>
-    <row r="210" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
         <v>768</v>
       </c>
@@ -40534,7 +40534,7 @@
       </c>
       <c r="AS227" s="20"/>
     </row>
-    <row r="228" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
         <v>771</v>
       </c>
@@ -44441,7 +44441,7 @@
       </c>
       <c r="AS257" s="20"/>
     </row>
-    <row r="258" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
         <v>774</v>
       </c>
@@ -45820,7 +45820,7 @@
       </c>
       <c r="AS268" s="20"/>
     </row>
-    <row r="269" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
         <v>775</v>
       </c>
@@ -45869,7 +45869,7 @@
       <c r="AR269" s="20"/>
       <c r="AS269" s="20"/>
     </row>
-    <row r="270" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="21">
         <v>43060</v>
@@ -46004,7 +46004,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="271" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="21">
         <v>43130</v>
@@ -46137,7 +46137,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="272" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="21">
         <v>43130</v>
@@ -46270,7 +46270,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="273" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="B273" s="21">
         <v>43130</v>
@@ -46403,7 +46403,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="274" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="21">
         <v>43130</v>
@@ -46536,7 +46536,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="275" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="B275" s="21">
         <v>43130</v>
@@ -46669,7 +46669,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="276" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="21">
         <v>43477</v>
@@ -46804,7 +46804,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="277" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20" t="s">
         <v>778</v>
       </c>
@@ -47309,7 +47309,7 @@
       </c>
       <c r="AS281" s="20"/>
     </row>
-    <row r="282" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="21">
         <v>43477</v>
@@ -47420,7 +47420,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="283" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20" t="s">
         <v>2299</v>
       </c>
@@ -47760,7 +47760,7 @@
       </c>
       <c r="AS286" s="20"/>
     </row>
-    <row r="287" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="s">
         <v>1388</v>
       </c>
@@ -51134,7 +51134,7 @@
       </c>
       <c r="AS312" s="70"/>
     </row>
-    <row r="313" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A313" s="70" t="s">
         <v>1486</v>
       </c>
@@ -52912,7 +52912,7 @@
       </c>
       <c r="AS326" s="28"/>
     </row>
-    <row r="327" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>779</v>
       </c>
@@ -54422,7 +54422,7 @@
       </c>
       <c r="AS338" s="28"/>
     </row>
-    <row r="339" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -54553,9 +54553,7 @@
       <c r="AR339" s="28" t="s">
         <v>2509</v>
       </c>
-      <c r="AS339" s="28" t="s">
-        <v>2074</v>
-      </c>
+      <c r="AS339" s="28"/>
     </row>
     <row r="340" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
@@ -54823,7 +54821,7 @@
       </c>
       <c r="AS341" s="28"/>
     </row>
-    <row r="342" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -54954,9 +54952,7 @@
       <c r="AR342" s="28" t="s">
         <v>2942</v>
       </c>
-      <c r="AS342" s="28" t="s">
-        <v>2074</v>
-      </c>
+      <c r="AS342" s="28"/>
     </row>
     <row r="343" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
@@ -55349,7 +55345,7 @@
       </c>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -55398,7 +55394,7 @@
       <c r="AR346" s="28"/>
       <c r="AS346" s="28"/>
     </row>
-    <row r="347" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="28"/>
       <c r="B347" s="35">
         <v>43767</v>
@@ -55531,7 +55527,7 @@
       </c>
       <c r="AS347" s="28"/>
     </row>
-    <row r="348" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="28"/>
       <c r="B348" s="35">
         <v>44054</v>
@@ -55664,7 +55660,7 @@
       </c>
       <c r="AS348" s="28"/>
     </row>
-    <row r="349" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="28"/>
       <c r="B349" s="29">
         <v>44299</v>
@@ -55797,7 +55793,7 @@
       </c>
       <c r="AS349" s="28"/>
     </row>
-    <row r="350" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28"/>
       <c r="B350" s="35">
         <v>43662</v>
@@ -55930,7 +55926,7 @@
       </c>
       <c r="AS350" s="28"/>
     </row>
-    <row r="351" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="28"/>
       <c r="B351" s="35">
         <v>43662</v>
@@ -56063,7 +56059,7 @@
       </c>
       <c r="AS351" s="28"/>
     </row>
-    <row r="352" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="28"/>
       <c r="B352" s="35">
         <v>43662</v>
@@ -56196,7 +56192,7 @@
       </c>
       <c r="AS352" s="28"/>
     </row>
-    <row r="353" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="28"/>
       <c r="B353" s="35">
         <v>43662</v>
@@ -56329,7 +56325,7 @@
       </c>
       <c r="AS353" s="28"/>
     </row>
-    <row r="354" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="28"/>
       <c r="B354" s="35">
         <v>43676</v>
@@ -56462,7 +56458,7 @@
       </c>
       <c r="AS354" s="28"/>
     </row>
-    <row r="355" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="28"/>
       <c r="B355" s="35">
         <v>43676</v>
@@ -56595,7 +56591,7 @@
       </c>
       <c r="AS355" s="28"/>
     </row>
-    <row r="356" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="28"/>
       <c r="B356" s="35">
         <v>43676</v>
@@ -56728,7 +56724,7 @@
       </c>
       <c r="AS356" s="28"/>
     </row>
-    <row r="357" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="28"/>
       <c r="B357" s="35">
         <v>43676</v>
@@ -56861,7 +56857,7 @@
       </c>
       <c r="AS357" s="28"/>
     </row>
-    <row r="358" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="28"/>
       <c r="B358" s="35">
         <v>43848</v>
@@ -56994,7 +56990,7 @@
       </c>
       <c r="AS358" s="28"/>
     </row>
-    <row r="359" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="28"/>
       <c r="B359" s="35">
         <v>43848</v>
@@ -57127,7 +57123,7 @@
       </c>
       <c r="AS359" s="28"/>
     </row>
-    <row r="360" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28"/>
       <c r="B360" s="35">
         <v>43848</v>
@@ -57260,7 +57256,7 @@
       </c>
       <c r="AS360" s="28"/>
     </row>
-    <row r="361" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="28"/>
       <c r="B361" s="35">
         <v>43848</v>
@@ -57393,7 +57389,7 @@
       </c>
       <c r="AS361" s="28"/>
     </row>
-    <row r="362" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="28"/>
       <c r="B362" s="35">
         <v>43848</v>
@@ -57526,7 +57522,7 @@
       </c>
       <c r="AS362" s="28"/>
     </row>
-    <row r="363" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="28"/>
       <c r="B363" s="35">
         <v>43848</v>
@@ -57659,7 +57655,7 @@
       </c>
       <c r="AS363" s="28"/>
     </row>
-    <row r="364" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="28"/>
       <c r="B364" s="35">
         <v>43848</v>
@@ -57792,7 +57788,7 @@
       </c>
       <c r="AS364" s="28"/>
     </row>
-    <row r="365" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A365" s="28"/>
       <c r="B365" s="35">
         <v>43848</v>
@@ -57925,7 +57921,7 @@
       </c>
       <c r="AS365" s="28"/>
     </row>
-    <row r="366" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A366" s="28"/>
       <c r="B366" s="35">
         <v>44173</v>
@@ -58056,7 +58052,7 @@
       </c>
       <c r="AS366" s="28"/>
     </row>
-    <row r="367" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A367" s="28"/>
       <c r="B367" s="35">
         <v>44173</v>
@@ -58189,7 +58185,7 @@
       </c>
       <c r="AS367" s="28"/>
     </row>
-    <row r="368" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
       <c r="B368" s="35">
         <v>44173</v>
@@ -58322,7 +58318,7 @@
       </c>
       <c r="AS368" s="28"/>
     </row>
-    <row r="369" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
       <c r="B369" s="35">
         <v>44173</v>
@@ -58455,7 +58451,7 @@
       </c>
       <c r="AS369" s="28"/>
     </row>
-    <row r="370" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28"/>
       <c r="B370" s="35">
         <v>44173</v>
@@ -58588,7 +58584,7 @@
       </c>
       <c r="AS370" s="28"/>
     </row>
-    <row r="371" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28"/>
       <c r="B371" s="35">
         <v>44173</v>
@@ -58721,7 +58717,7 @@
       </c>
       <c r="AS371" s="28"/>
     </row>
-    <row r="372" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
       <c r="B372" s="35">
         <v>44173</v>
@@ -58854,7 +58850,7 @@
       </c>
       <c r="AS372" s="28"/>
     </row>
-    <row r="373" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
       <c r="B373" s="35">
         <v>44173</v>
@@ -58987,7 +58983,7 @@
       </c>
       <c r="AS373" s="28"/>
     </row>
-    <row r="374" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A374" s="28"/>
       <c r="B374" s="35">
         <v>43781</v>
@@ -59120,7 +59116,7 @@
       </c>
       <c r="AS374" s="28"/>
     </row>
-    <row r="375" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>781</v>
       </c>
@@ -59169,7 +59165,7 @@
       <c r="AR375" s="28"/>
       <c r="AS375" s="28"/>
     </row>
-    <row r="376" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A376" s="28"/>
       <c r="B376" s="35">
         <v>43809</v>
@@ -59302,7 +59298,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="377" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>1411</v>
       </c>
@@ -59351,7 +59347,7 @@
       <c r="AR377" s="28"/>
       <c r="AS377" s="28"/>
     </row>
-    <row r="378" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A378" s="28"/>
       <c r="B378" s="35">
         <v>44117</v>
@@ -59480,7 +59476,7 @@
       </c>
       <c r="AS378" s="28"/>
     </row>
-    <row r="379" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="28"/>
       <c r="B379" s="35">
         <v>44117</v>
@@ -59609,7 +59605,7 @@
       </c>
       <c r="AS379" s="28"/>
     </row>
-    <row r="380" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A380" s="28"/>
       <c r="B380" s="35">
         <v>44229</v>
@@ -59728,7 +59724,7 @@
       </c>
       <c r="AS380" s="28"/>
     </row>
-    <row r="381" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A381" s="28"/>
       <c r="B381" s="35">
         <v>44229</v>
@@ -59847,7 +59843,7 @@
       </c>
       <c r="AS381" s="28"/>
     </row>
-    <row r="382" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A382" s="28"/>
       <c r="B382" s="35">
         <v>44117</v>
@@ -59936,7 +59932,7 @@
       </c>
       <c r="AS382" s="28"/>
     </row>
-    <row r="383" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A383" s="28"/>
       <c r="B383" s="35">
         <v>44117</v>
@@ -60027,7 +60023,7 @@
       </c>
       <c r="AS383" s="28"/>
     </row>
-    <row r="384" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A384" s="35" t="s">
         <v>3015</v>
       </c>
@@ -60264,7 +60260,7 @@
       </c>
       <c r="AS386" s="28"/>
     </row>
-    <row r="387" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>1389</v>
       </c>
@@ -61071,7 +61067,7 @@
       </c>
       <c r="AS393" s="70"/>
     </row>
-    <row r="394" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A394" s="70" t="s">
         <v>1460</v>
       </c>
@@ -62277,7 +62273,7 @@
       </c>
       <c r="AS403" s="87"/>
     </row>
-    <row r="404" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A404" s="87" t="s">
         <v>3201</v>
       </c>
@@ -63250,7 +63246,7 @@
       </c>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
         <v>3200</v>
       </c>
@@ -63299,7 +63295,7 @@
       <c r="AR413" s="87"/>
       <c r="AS413" s="87"/>
     </row>
-    <row r="414" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
         <v>44663</v>
@@ -63392,7 +63388,7 @@
       </c>
       <c r="AS414" s="87"/>
     </row>
-    <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
         <v>44551</v>
@@ -63525,7 +63521,7 @@
       </c>
       <c r="AS415" s="87"/>
     </row>
-    <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
         <v>44551</v>
@@ -63658,7 +63654,7 @@
       </c>
       <c r="AS416" s="87"/>
     </row>
-    <row r="417" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A417" s="87"/>
       <c r="B417" s="88">
         <v>44551</v>
@@ -63791,7 +63787,7 @@
       </c>
       <c r="AS417" s="87"/>
     </row>
-    <row r="418" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="87"/>
       <c r="B418" s="88">
         <v>44551</v>
@@ -63924,7 +63920,7 @@
       </c>
       <c r="AS418" s="87"/>
     </row>
-    <row r="419" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="87"/>
       <c r="B419" s="88">
         <v>44565</v>
@@ -64057,7 +64053,7 @@
       </c>
       <c r="AS419" s="87"/>
     </row>
-    <row r="420" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
         <v>44565</v>
@@ -64190,7 +64186,7 @@
       </c>
       <c r="AS420" s="87"/>
     </row>
-    <row r="421" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="87"/>
       <c r="B421" s="88">
         <v>44565</v>
@@ -64323,7 +64319,7 @@
       </c>
       <c r="AS421" s="87"/>
     </row>
-    <row r="422" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="87"/>
       <c r="B422" s="88">
         <v>44565</v>
@@ -64456,7 +64452,7 @@
       </c>
       <c r="AS422" s="87"/>
     </row>
-    <row r="423" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A423" s="87"/>
       <c r="B423" s="88">
         <v>44677</v>
@@ -64543,7 +64539,7 @@
       <c r="AR423" s="87"/>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A424" s="87" t="s">
         <v>3199</v>
       </c>
@@ -66977,7 +66973,7 @@
       <c r="AR451" s="87"/>
       <c r="AS451" s="87"/>
     </row>
-    <row r="452" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A452" s="87" t="s">
         <v>3204</v>
       </c>
@@ -67026,7 +67022,7 @@
       <c r="AR452" s="87"/>
       <c r="AS452" s="87"/>
     </row>
-    <row r="453" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="87"/>
       <c r="B453" s="88">
         <v>44565</v>
@@ -67157,7 +67153,7 @@
       </c>
       <c r="AS453" s="87"/>
     </row>
-    <row r="454" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="87" t="s">
         <v>3198</v>
       </c>
@@ -67206,7 +67202,7 @@
       <c r="AR454" s="87"/>
       <c r="AS454" s="87"/>
     </row>
-    <row r="455" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="56" t="s">
         <v>832</v>
       </c>
@@ -67259,7 +67255,13 @@
       <c r="H456" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS455" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:AS455" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}">
+    <filterColumn colId="44">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
     <cfRule type="duplicateValues" dxfId="33" priority="41"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68F895-2701-4274-AA42-4B9D3ECDB902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171719F-484D-40B2-B784-09A73F3C672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="35730" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14034" uniqueCount="3397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14035" uniqueCount="3398">
   <si>
     <t>date:</t>
   </si>
@@ -10250,6 +10250,9 @@
   </si>
   <si>
     <t>zadnor_hochebene</t>
+  </si>
+  <si>
+    <t>Dragonsong%27s_Reprise_(Ultimate)</t>
   </si>
 </sst>
 </file>
@@ -11330,10 +11333,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS84" sqref="AS84:AS376"/>
+      <selection pane="bottomRight" activeCell="AS282" sqref="AS282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -16267,9 +16270,7 @@
       <c r="N38" s="8">
         <v>0</v>
       </c>
-      <c r="O38" s="13">
-        <v>66572</v>
-      </c>
+      <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
         <v>2725</v>
       </c>
@@ -54422,7 +54423,7 @@
       </c>
       <c r="AS338" s="28"/>
     </row>
-    <row r="339" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -54821,7 +54822,7 @@
       </c>
       <c r="AS341" s="28"/>
     </row>
-    <row r="342" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -55345,7 +55346,7 @@
       </c>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -64534,9 +64535,15 @@
       <c r="AO423" s="87" t="s">
         <v>3394</v>
       </c>
-      <c r="AP423" s="87"/>
-      <c r="AQ423" s="87"/>
-      <c r="AR423" s="87"/>
+      <c r="AP423" s="87">
+        <v>30106</v>
+      </c>
+      <c r="AQ423" s="87">
+        <v>30106</v>
+      </c>
+      <c r="AR423" s="87" t="s">
+        <v>3397</v>
+      </c>
       <c r="AS423" s="87"/>
     </row>
     <row r="424" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171719F-484D-40B2-B784-09A73F3C672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D9777-ABD3-4F4D-8E4D-0DEF1959DED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="35730" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="2640" yWindow="165" windowWidth="34725" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10246,13 +10246,13 @@
     <t>['DSR', 'DSWU']</t>
   </si>
   <si>
-    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg']</t>
-  </si>
-  <si>
     <t>zadnor_hochebene</t>
   </si>
   <si>
     <t>Dragonsong%27s_Reprise_(Ultimate)</t>
+  </si>
+  <si>
+    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Linkes Auge', 'Rechtes Auge']</t>
   </si>
 </sst>
 </file>
@@ -11329,14 +11329,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
-  <sheetPr codeName="Tabelle1" filterMode="1"/>
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AK228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS282" sqref="AS282"/>
+      <selection pane="bottomRight" activeCell="AL424" sqref="AL424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="AS33" s="6"/>
     </row>
-    <row r="34" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>766</v>
       </c>
@@ -19419,7 +19419,7 @@
       </c>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>769</v>
       </c>
@@ -22129,7 +22129,7 @@
       </c>
       <c r="AS82" s="6"/>
     </row>
-    <row r="83" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>772</v>
       </c>
@@ -22178,7 +22178,7 @@
       <c r="AR83" s="6"/>
       <c r="AS83" s="6"/>
     </row>
-    <row r="84" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>41828</v>
@@ -22303,7 +22303,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="85" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>776</v>
       </c>
@@ -24214,7 +24214,7 @@
       </c>
       <c r="AS99" s="6"/>
     </row>
-    <row r="100" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>1951</v>
       </c>
@@ -26657,7 +26657,7 @@
       </c>
       <c r="AS118" s="14"/>
     </row>
-    <row r="119" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>767</v>
       </c>
@@ -28569,7 +28569,7 @@
       </c>
       <c r="AS133" s="14"/>
     </row>
-    <row r="134" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>770</v>
       </c>
@@ -32209,7 +32209,7 @@
       </c>
       <c r="AS161" s="14"/>
     </row>
-    <row r="162" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>773</v>
       </c>
@@ -34918,7 +34918,7 @@
       </c>
       <c r="AS182" s="14"/>
     </row>
-    <row r="183" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>2049</v>
       </c>
@@ -34967,7 +34967,7 @@
       <c r="AR183" s="14"/>
       <c r="AS183" s="14"/>
     </row>
-    <row r="184" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="15">
         <v>42206</v>
@@ -35102,7 +35102,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="185" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="15">
         <v>42458</v>
@@ -35235,7 +35235,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="186" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="15">
         <v>42458</v>
@@ -35368,7 +35368,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="187" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="15">
         <v>42528</v>
@@ -35503,7 +35503,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="188" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="15">
         <v>42640</v>
@@ -35636,7 +35636,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="189" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="15">
         <v>42794</v>
@@ -35769,7 +35769,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="190" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="15">
         <v>42794</v>
@@ -35902,7 +35902,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="191" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="15">
         <v>42794</v>
@@ -36035,7 +36035,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="192" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>777</v>
       </c>
@@ -36181,7 +36181,7 @@
       </c>
       <c r="AS193" s="14"/>
     </row>
-    <row r="194" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>1387</v>
       </c>
@@ -38225,7 +38225,7 @@
       </c>
       <c r="AS209" s="20"/>
     </row>
-    <row r="210" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
         <v>768</v>
       </c>
@@ -40535,7 +40535,7 @@
       </c>
       <c r="AS227" s="20"/>
     </row>
-    <row r="228" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
         <v>771</v>
       </c>
@@ -44442,7 +44442,7 @@
       </c>
       <c r="AS257" s="20"/>
     </row>
-    <row r="258" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
         <v>774</v>
       </c>
@@ -45821,7 +45821,7 @@
       </c>
       <c r="AS268" s="20"/>
     </row>
-    <row r="269" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
         <v>775</v>
       </c>
@@ -45870,7 +45870,7 @@
       <c r="AR269" s="20"/>
       <c r="AS269" s="20"/>
     </row>
-    <row r="270" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="21">
         <v>43060</v>
@@ -46005,7 +46005,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="271" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="21">
         <v>43130</v>
@@ -46138,7 +46138,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="272" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="21">
         <v>43130</v>
@@ -46271,7 +46271,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="273" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="B273" s="21">
         <v>43130</v>
@@ -46404,7 +46404,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="274" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="21">
         <v>43130</v>
@@ -46537,7 +46537,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="275" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="B275" s="21">
         <v>43130</v>
@@ -46670,7 +46670,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="276" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="21">
         <v>43477</v>
@@ -46805,7 +46805,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="277" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20" t="s">
         <v>778</v>
       </c>
@@ -47310,7 +47310,7 @@
       </c>
       <c r="AS281" s="20"/>
     </row>
-    <row r="282" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="21">
         <v>43477</v>
@@ -47421,7 +47421,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="283" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20" t="s">
         <v>2299</v>
       </c>
@@ -47761,7 +47761,7 @@
       </c>
       <c r="AS286" s="20"/>
     </row>
-    <row r="287" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="s">
         <v>1388</v>
       </c>
@@ -51135,7 +51135,7 @@
       </c>
       <c r="AS312" s="70"/>
     </row>
-    <row r="313" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A313" s="70" t="s">
         <v>1486</v>
       </c>
@@ -52913,7 +52913,7 @@
       </c>
       <c r="AS326" s="28"/>
     </row>
-    <row r="327" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>779</v>
       </c>
@@ -55346,7 +55346,7 @@
       </c>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -59117,7 +59117,7 @@
       </c>
       <c r="AS374" s="28"/>
     </row>
-    <row r="375" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>781</v>
       </c>
@@ -59166,7 +59166,7 @@
       <c r="AR375" s="28"/>
       <c r="AS375" s="28"/>
     </row>
-    <row r="376" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A376" s="28"/>
       <c r="B376" s="35">
         <v>43809</v>
@@ -59299,7 +59299,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="377" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>1411</v>
       </c>
@@ -59859,7 +59859,7 @@
         <v>782</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="G382" s="28" t="s">
         <v>3081</v>
@@ -60024,7 +60024,7 @@
       </c>
       <c r="AS383" s="28"/>
     </row>
-    <row r="384" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A384" s="35" t="s">
         <v>3015</v>
       </c>
@@ -60261,7 +60261,7 @@
       </c>
       <c r="AS386" s="28"/>
     </row>
-    <row r="387" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>1389</v>
       </c>
@@ -61068,7 +61068,7 @@
       </c>
       <c r="AS393" s="70"/>
     </row>
-    <row r="394" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A394" s="70" t="s">
         <v>1460</v>
       </c>
@@ -62274,7 +62274,7 @@
       </c>
       <c r="AS403" s="87"/>
     </row>
-    <row r="404" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A404" s="87" t="s">
         <v>3201</v>
       </c>
@@ -63247,7 +63247,7 @@
       </c>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
         <v>3200</v>
       </c>
@@ -63296,7 +63296,7 @@
       <c r="AR413" s="87"/>
       <c r="AS413" s="87"/>
     </row>
-    <row r="414" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
         <v>44663</v>
@@ -63389,7 +63389,7 @@
       </c>
       <c r="AS414" s="87"/>
     </row>
-    <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
         <v>44551</v>
@@ -63522,7 +63522,7 @@
       </c>
       <c r="AS415" s="87"/>
     </row>
-    <row r="416" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
         <v>44551</v>
@@ -63655,7 +63655,7 @@
       </c>
       <c r="AS416" s="87"/>
     </row>
-    <row r="417" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A417" s="87"/>
       <c r="B417" s="88">
         <v>44551</v>
@@ -63788,7 +63788,7 @@
       </c>
       <c r="AS417" s="87"/>
     </row>
-    <row r="418" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="87"/>
       <c r="B418" s="88">
         <v>44551</v>
@@ -63921,7 +63921,7 @@
       </c>
       <c r="AS418" s="87"/>
     </row>
-    <row r="419" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="87"/>
       <c r="B419" s="88">
         <v>44565</v>
@@ -64054,7 +64054,7 @@
       </c>
       <c r="AS419" s="87"/>
     </row>
-    <row r="420" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
         <v>44565</v>
@@ -64187,7 +64187,7 @@
       </c>
       <c r="AS420" s="87"/>
     </row>
-    <row r="421" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="87"/>
       <c r="B421" s="88">
         <v>44565</v>
@@ -64320,7 +64320,7 @@
       </c>
       <c r="AS421" s="87"/>
     </row>
-    <row r="422" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="87"/>
       <c r="B422" s="88">
         <v>44565</v>
@@ -64453,7 +64453,7 @@
       </c>
       <c r="AS422" s="87"/>
     </row>
-    <row r="423" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A423" s="87"/>
       <c r="B423" s="88">
         <v>44677</v>
@@ -64524,7 +64524,7 @@
         <v>3392</v>
       </c>
       <c r="AL423" s="87" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="AM423" s="87" t="s">
         <v>925</v>
@@ -64542,11 +64542,11 @@
         <v>30106</v>
       </c>
       <c r="AR423" s="87" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A424" s="87" t="s">
         <v>3199</v>
       </c>
@@ -66980,7 +66980,7 @@
       <c r="AR451" s="87"/>
       <c r="AS451" s="87"/>
     </row>
-    <row r="452" spans="1:45" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A452" s="87" t="s">
         <v>3204</v>
       </c>
@@ -67029,7 +67029,7 @@
       <c r="AR452" s="87"/>
       <c r="AS452" s="87"/>
     </row>
-    <row r="453" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A453" s="87"/>
       <c r="B453" s="88">
         <v>44565</v>
@@ -67160,7 +67160,7 @@
       </c>
       <c r="AS453" s="87"/>
     </row>
-    <row r="454" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A454" s="87" t="s">
         <v>3198</v>
       </c>
@@ -67209,7 +67209,7 @@
       <c r="AR454" s="87"/>
       <c r="AS454" s="87"/>
     </row>
-    <row r="455" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A455" s="56" t="s">
         <v>832</v>
       </c>
@@ -67262,13 +67262,7 @@
       <c r="H456" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS455" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}">
-    <filterColumn colId="44">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS455" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
     <cfRule type="duplicateValues" dxfId="33" priority="41"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D9777-ABD3-4F4D-8E4D-0DEF1959DED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8D07C-7E86-4537-9928-5542FDBA63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="165" windowWidth="34725" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="39180" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10252,7 +10252,7 @@
     <t>Dragonsong%27s_Reprise_(Ultimate)</t>
   </si>
   <si>
-    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Linkes Auge', 'Rechtes Auge']</t>
+    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Rechtes Auge']</t>
   </si>
 </sst>
 </file>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8D07C-7E86-4537-9928-5542FDBA63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5C1821-C8B0-40D7-8EC8-040D8EC6EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="495" yWindow="1905" windowWidth="38700" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14035" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14034" uniqueCount="3397">
   <si>
     <t>date:</t>
   </si>
@@ -10100,9 +10100,6 @@
   </si>
   <si>
     <t>ui/icon/112000/112470.tex</t>
-  </si>
-  <si>
-    <t>Unreal</t>
   </si>
   <si>
     <t>w1fb_2</t>
@@ -11333,18 +11330,18 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AK228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E330" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL424" sqref="AL424"/>
+      <selection pane="bottomRight" activeCell="I411" sqref="I411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="46.5703125" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="46.5703125" style="86" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="47.85546875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
@@ -11357,25 +11354,25 @@
     <col min="14" max="14" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="58.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="33" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="38.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="36.140625" style="1" customWidth="1" outlineLevel="2"/>
-    <col min="23" max="23" width="24.42578125" style="1" customWidth="1" outlineLevel="2"/>
-    <col min="24" max="24" width="27.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="26" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="15.28515625" style="1" customWidth="1" outlineLevel="2" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" customWidth="1" outlineLevel="2"/>
-    <col min="29" max="29" width="14.85546875" style="1" customWidth="1" outlineLevel="2"/>
-    <col min="30" max="30" width="12.28515625" style="1" customWidth="1" outlineLevel="2"/>
-    <col min="31" max="31" width="18.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="28.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="17" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="58.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="33" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="38.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="36.140625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="23" max="23" width="24.42578125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="24" max="24" width="27.140625" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="25" max="26" width="23.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="29" max="29" width="14.85546875" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="30" max="30" width="12.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="31" max="31" width="18.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="28.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="11.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="56.140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -16228,9 +16225,7 @@
       <c r="AS37" s="6"/>
     </row>
     <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>3374</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>41513</v>
       </c>
@@ -52962,7 +52957,7 @@
       <c r="AR327" s="28"/>
       <c r="AS327" s="28"/>
     </row>
-    <row r="328" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="38">
         <v>43644</v>
@@ -53095,7 +53090,7 @@
       </c>
       <c r="AS328" s="28"/>
     </row>
-    <row r="329" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="38">
         <v>43644</v>
@@ -53228,7 +53223,7 @@
       </c>
       <c r="AS329" s="28"/>
     </row>
-    <row r="330" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
       <c r="B330" s="38">
         <v>43644</v>
@@ -53361,7 +53356,7 @@
       </c>
       <c r="AS330" s="28"/>
     </row>
-    <row r="331" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="38">
         <v>43644</v>
@@ -53494,7 +53489,7 @@
       </c>
       <c r="AS331" s="28"/>
     </row>
-    <row r="332" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="38">
         <v>43644</v>
@@ -53627,7 +53622,7 @@
       </c>
       <c r="AS332" s="28"/>
     </row>
-    <row r="333" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="38">
         <v>43767</v>
@@ -53758,7 +53753,7 @@
       </c>
       <c r="AS333" s="28"/>
     </row>
-    <row r="334" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="38">
         <v>43848</v>
@@ -53891,7 +53886,7 @@
       </c>
       <c r="AS334" s="28"/>
     </row>
-    <row r="335" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="38">
         <v>43848</v>
@@ -54024,7 +54019,7 @@
       </c>
       <c r="AS335" s="28"/>
     </row>
-    <row r="336" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="38">
         <v>43928</v>
@@ -54157,7 +54152,7 @@
       </c>
       <c r="AS336" s="28"/>
     </row>
-    <row r="337" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
       <c r="B337" s="38">
         <v>44054</v>
@@ -54290,7 +54285,7 @@
       </c>
       <c r="AS337" s="28"/>
     </row>
-    <row r="338" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="38">
         <v>44054</v>
@@ -54423,7 +54418,7 @@
       </c>
       <c r="AS338" s="28"/>
     </row>
-    <row r="339" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="38">
         <v>44054</v>
@@ -54556,7 +54551,7 @@
       </c>
       <c r="AS339" s="28"/>
     </row>
-    <row r="340" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
       <c r="B340" s="38">
         <v>44173</v>
@@ -54689,7 +54684,7 @@
       </c>
       <c r="AS340" s="28"/>
     </row>
-    <row r="341" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="38">
         <v>44173</v>
@@ -54822,7 +54817,7 @@
       </c>
       <c r="AS341" s="28"/>
     </row>
-    <row r="342" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="38">
         <v>44173</v>
@@ -54955,7 +54950,7 @@
       </c>
       <c r="AS342" s="28"/>
     </row>
-    <row r="343" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
       <c r="B343" s="29">
         <v>44299</v>
@@ -55086,7 +55081,7 @@
       </c>
       <c r="AS343" s="28"/>
     </row>
-    <row r="344" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
       <c r="B344" s="29">
         <v>44299</v>
@@ -55217,7 +55212,7 @@
       </c>
       <c r="AS344" s="28"/>
     </row>
-    <row r="345" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
       <c r="B345" s="29">
         <v>44299</v>
@@ -55346,7 +55341,7 @@
       </c>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>780</v>
       </c>
@@ -59859,7 +59854,7 @@
         <v>782</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G382" s="28" t="s">
         <v>3081</v>
@@ -62202,7 +62197,7 @@
         <v>3332</v>
       </c>
       <c r="H403" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I403" s="87" t="s">
         <v>3333</v>
@@ -62270,7 +62265,7 @@
         <v>87</v>
       </c>
       <c r="AR403" s="87" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="AS403" s="87"/>
     </row>
@@ -62323,7 +62318,7 @@
       <c r="AR404" s="87"/>
       <c r="AS404" s="87"/>
     </row>
-    <row r="405" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A405" s="87"/>
       <c r="B405" s="88">
         <v>44537</v>
@@ -62452,7 +62447,7 @@
       </c>
       <c r="AS405" s="87"/>
     </row>
-    <row r="406" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A406" s="87"/>
       <c r="B406" s="88">
         <v>44537</v>
@@ -62581,7 +62576,7 @@
       </c>
       <c r="AS406" s="87"/>
     </row>
-    <row r="407" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A407" s="87"/>
       <c r="B407" s="88">
         <v>44537</v>
@@ -62710,7 +62705,7 @@
       </c>
       <c r="AS407" s="87"/>
     </row>
-    <row r="408" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="87"/>
       <c r="B408" s="88">
         <v>44537</v>
@@ -62839,7 +62834,7 @@
       </c>
       <c r="AS408" s="87"/>
     </row>
-    <row r="409" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="87"/>
       <c r="B409" s="88">
         <v>44537</v>
@@ -62968,7 +62963,7 @@
       </c>
       <c r="AS409" s="87"/>
     </row>
-    <row r="410" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="87"/>
       <c r="B410" s="88">
         <v>44663</v>
@@ -62989,7 +62984,7 @@
         <v>3338</v>
       </c>
       <c r="H410" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I410" s="87" t="s">
         <v>3333</v>
@@ -63057,11 +63052,11 @@
         <v>20083</v>
       </c>
       <c r="AR410" s="87" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="AS410" s="87"/>
     </row>
-    <row r="411" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A411" s="87"/>
       <c r="B411" s="88">
         <v>44663</v>
@@ -63082,7 +63077,7 @@
         <v>3342</v>
       </c>
       <c r="H411" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I411" s="87" t="s">
         <v>3333</v>
@@ -63150,11 +63145,11 @@
         <v>20082</v>
       </c>
       <c r="AR411" s="87" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="AS411" s="87"/>
     </row>
-    <row r="412" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="87"/>
       <c r="B412" s="88">
         <v>44663</v>
@@ -63175,13 +63170,13 @@
         <v>3346</v>
       </c>
       <c r="H412" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I412" s="87" t="s">
         <v>3333</v>
       </c>
       <c r="J412" s="87" t="s">
-        <v>3347</v>
+        <v>1538</v>
       </c>
       <c r="K412" s="87" t="s">
         <v>3091</v>
@@ -63222,7 +63217,7 @@
         <v>186</v>
       </c>
       <c r="AK412" s="87" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="AL412" s="87" t="s">
         <v>1146</v>
@@ -63243,11 +63238,11 @@
         <v>64004</v>
       </c>
       <c r="AR412" s="87" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A413" s="87" t="s">
         <v>3200</v>
       </c>
@@ -63296,7 +63291,7 @@
       <c r="AR413" s="87"/>
       <c r="AS413" s="87"/>
     </row>
-    <row r="414" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
         <v>44663</v>
@@ -63305,19 +63300,19 @@
         <v>136</v>
       </c>
       <c r="D414" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="E414" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F414" s="87" t="s">
+        <v>3375</v>
+      </c>
+      <c r="G414" s="87" t="s">
         <v>3376</v>
       </c>
-      <c r="G414" s="87" t="s">
-        <v>3377</v>
-      </c>
       <c r="H414" s="91" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I414" s="87" t="s">
         <v>3333</v>
@@ -63364,7 +63359,7 @@
         <v>574</v>
       </c>
       <c r="AK414" s="87" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="AL414" s="87" t="s">
         <v>925</v>
@@ -63385,11 +63380,11 @@
         <v>30115</v>
       </c>
       <c r="AR414" s="87" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="AS414" s="87"/>
     </row>
-    <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
         <v>44551</v>
@@ -63522,7 +63517,7 @@
       </c>
       <c r="AS415" s="87"/>
     </row>
-    <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
         <v>44551</v>
@@ -63655,7 +63650,7 @@
       </c>
       <c r="AS416" s="87"/>
     </row>
-    <row r="417" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A417" s="87"/>
       <c r="B417" s="88">
         <v>44551</v>
@@ -63788,7 +63783,7 @@
       </c>
       <c r="AS417" s="87"/>
     </row>
-    <row r="418" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="87"/>
       <c r="B418" s="88">
         <v>44551</v>
@@ -63921,7 +63916,7 @@
       </c>
       <c r="AS418" s="87"/>
     </row>
-    <row r="419" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="87"/>
       <c r="B419" s="88">
         <v>44565</v>
@@ -64054,7 +64049,7 @@
       </c>
       <c r="AS419" s="87"/>
     </row>
-    <row r="420" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
         <v>44565</v>
@@ -64187,7 +64182,7 @@
       </c>
       <c r="AS420" s="87"/>
     </row>
-    <row r="421" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="87"/>
       <c r="B421" s="88">
         <v>44565</v>
@@ -64320,7 +64315,7 @@
       </c>
       <c r="AS421" s="87"/>
     </row>
-    <row r="422" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="87"/>
       <c r="B422" s="88">
         <v>44565</v>
@@ -64453,7 +64448,7 @@
       </c>
       <c r="AS422" s="87"/>
     </row>
-    <row r="423" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A423" s="87"/>
       <c r="B423" s="88">
         <v>44677</v>
@@ -64462,19 +64457,19 @@
         <v>137</v>
       </c>
       <c r="D423" s="87" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E423" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F423" s="87" t="s">
+        <v>3389</v>
+      </c>
+      <c r="G423" s="87" t="s">
         <v>3390</v>
       </c>
-      <c r="G423" s="87" t="s">
-        <v>3391</v>
-      </c>
       <c r="H423" s="89" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="I423" s="87" t="s">
         <v>3333</v>
@@ -64521,10 +64516,10 @@
         <v>3325</v>
       </c>
       <c r="AK423" s="87" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AL423" s="87" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AM423" s="87" t="s">
         <v>925</v>
@@ -64533,7 +64528,7 @@
         <v>925</v>
       </c>
       <c r="AO423" s="87" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AP423" s="87">
         <v>30106</v>
@@ -64542,11 +64537,11 @@
         <v>30106</v>
       </c>
       <c r="AR423" s="87" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A424" s="87" t="s">
         <v>3199</v>
       </c>
@@ -64604,19 +64599,19 @@
         <v>0</v>
       </c>
       <c r="D425" s="87" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E425" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F425" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G425" s="87" t="s">
         <v>3351</v>
       </c>
-      <c r="G425" s="87" t="s">
-        <v>3352</v>
-      </c>
       <c r="H425" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I425" s="87" t="s">
         <v>3333</v>
@@ -64625,7 +64620,7 @@
         <v>75</v>
       </c>
       <c r="K425" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L425" s="87">
         <v>0</v>
@@ -64663,7 +64658,7 @@
         <v>575</v>
       </c>
       <c r="AK425" s="87" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="AL425" s="87" t="s">
         <v>925</v>
@@ -64691,19 +64686,19 @@
         <v>0</v>
       </c>
       <c r="D426" s="87" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="E426" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F426" s="87" t="s">
+        <v>3355</v>
+      </c>
+      <c r="G426" s="87" t="s">
         <v>3356</v>
       </c>
-      <c r="G426" s="87" t="s">
-        <v>3357</v>
-      </c>
       <c r="H426" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I426" s="87" t="s">
         <v>3333</v>
@@ -64712,7 +64707,7 @@
         <v>75</v>
       </c>
       <c r="K426" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L426" s="87">
         <v>0</v>
@@ -64750,7 +64745,7 @@
         <v>575</v>
       </c>
       <c r="AK426" s="87" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="AL426" s="87" t="s">
         <v>925</v>
@@ -64778,19 +64773,19 @@
         <v>0</v>
       </c>
       <c r="D427" s="87" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E427" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F427" s="87" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G427" s="87" t="s">
         <v>3360</v>
       </c>
-      <c r="G427" s="87" t="s">
-        <v>3361</v>
-      </c>
       <c r="H427" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I427" s="87" t="s">
         <v>3333</v>
@@ -64799,7 +64794,7 @@
         <v>75</v>
       </c>
       <c r="K427" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L427" s="87">
         <v>0</v>
@@ -64837,7 +64832,7 @@
         <v>575</v>
       </c>
       <c r="AK427" s="87" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="AL427" s="87" t="s">
         <v>925</v>
@@ -64865,19 +64860,19 @@
         <v>1</v>
       </c>
       <c r="D428" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E428" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F428" s="87" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="G428" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H428" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I428" s="87" t="s">
         <v>3333</v>
@@ -64886,7 +64881,7 @@
         <v>75</v>
       </c>
       <c r="K428" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L428" s="87">
         <v>0</v>
@@ -64924,7 +64919,7 @@
         <v>575</v>
       </c>
       <c r="AK428" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL428" s="87" t="s">
         <v>925</v>
@@ -64945,7 +64940,7 @@
     </row>
     <row r="429" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A429" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B429" s="88">
         <v>44663</v>
@@ -64954,19 +64949,19 @@
         <v>0</v>
       </c>
       <c r="D429" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E429" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F429" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="G429" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="G429" s="87" t="s">
-        <v>3365</v>
-      </c>
       <c r="H429" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I429" s="87" t="s">
         <v>3333</v>
@@ -64975,7 +64970,7 @@
         <v>75</v>
       </c>
       <c r="K429" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L429" s="87">
         <v>0</v>
@@ -65013,7 +65008,7 @@
         <v>575</v>
       </c>
       <c r="AK429" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL429" s="87" t="s">
         <v>925</v>
@@ -65034,7 +65029,7 @@
     </row>
     <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A430" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B430" s="88">
         <v>44663</v>
@@ -65043,19 +65038,19 @@
         <v>0</v>
       </c>
       <c r="D430" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E430" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F430" s="87" t="s">
+        <v>3363</v>
+      </c>
+      <c r="G430" s="87" t="s">
         <v>3364</v>
       </c>
-      <c r="G430" s="87" t="s">
-        <v>3365</v>
-      </c>
       <c r="H430" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I430" s="87" t="s">
         <v>3333</v>
@@ -65064,7 +65059,7 @@
         <v>75</v>
       </c>
       <c r="K430" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L430" s="87">
         <v>0</v>
@@ -65102,7 +65097,7 @@
         <v>575</v>
       </c>
       <c r="AK430" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL430" s="87" t="s">
         <v>925</v>
@@ -65130,19 +65125,19 @@
         <v>2</v>
       </c>
       <c r="D431" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E431" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F431" s="87" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="G431" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H431" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I431" s="87" t="s">
         <v>3333</v>
@@ -65151,7 +65146,7 @@
         <v>75</v>
       </c>
       <c r="K431" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L431" s="87">
         <v>0</v>
@@ -65189,7 +65184,7 @@
         <v>575</v>
       </c>
       <c r="AK431" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL431" s="87" t="s">
         <v>925</v>
@@ -65210,7 +65205,7 @@
     </row>
     <row r="432" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A432" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B432" s="88">
         <v>44663</v>
@@ -65219,19 +65214,19 @@
         <v>0</v>
       </c>
       <c r="D432" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E432" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F432" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="G432" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H432" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I432" s="87" t="s">
         <v>3333</v>
@@ -65240,7 +65235,7 @@
         <v>75</v>
       </c>
       <c r="K432" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L432" s="87">
         <v>0</v>
@@ -65278,7 +65273,7 @@
         <v>575</v>
       </c>
       <c r="AK432" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL432" s="87" t="s">
         <v>925</v>
@@ -65299,7 +65294,7 @@
     </row>
     <row r="433" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A433" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B433" s="88">
         <v>44663</v>
@@ -65308,19 +65303,19 @@
         <v>0</v>
       </c>
       <c r="D433" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E433" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F433" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="G433" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H433" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I433" s="87" t="s">
         <v>3333</v>
@@ -65329,7 +65324,7 @@
         <v>75</v>
       </c>
       <c r="K433" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L433" s="87">
         <v>0</v>
@@ -65367,7 +65362,7 @@
         <v>575</v>
       </c>
       <c r="AK433" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL433" s="87" t="s">
         <v>925</v>
@@ -65388,7 +65383,7 @@
     </row>
     <row r="434" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A434" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B434" s="88">
         <v>44663</v>
@@ -65397,19 +65392,19 @@
         <v>0</v>
       </c>
       <c r="D434" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E434" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F434" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="G434" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H434" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I434" s="87" t="s">
         <v>3333</v>
@@ -65418,7 +65413,7 @@
         <v>75</v>
       </c>
       <c r="K434" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L434" s="87">
         <v>0</v>
@@ -65456,7 +65451,7 @@
         <v>575</v>
       </c>
       <c r="AK434" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL434" s="87" t="s">
         <v>925</v>
@@ -65477,7 +65472,7 @@
     </row>
     <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A435" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B435" s="88">
         <v>44663</v>
@@ -65486,19 +65481,19 @@
         <v>0</v>
       </c>
       <c r="D435" s="87" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E435" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F435" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="G435" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H435" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I435" s="87" t="s">
         <v>3333</v>
@@ -65507,7 +65502,7 @@
         <v>75</v>
       </c>
       <c r="K435" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L435" s="87">
         <v>0</v>
@@ -65545,7 +65540,7 @@
         <v>575</v>
       </c>
       <c r="AK435" s="87" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="AL435" s="87" t="s">
         <v>925</v>
@@ -65573,19 +65568,19 @@
         <v>3</v>
       </c>
       <c r="D436" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E436" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F436" s="87" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="G436" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H436" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I436" s="87" t="s">
         <v>3333</v>
@@ -65594,7 +65589,7 @@
         <v>75</v>
       </c>
       <c r="K436" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L436" s="87">
         <v>0</v>
@@ -65632,7 +65627,7 @@
         <v>575</v>
       </c>
       <c r="AK436" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL436" s="87" t="s">
         <v>925</v>
@@ -65653,7 +65648,7 @@
     </row>
     <row r="437" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A437" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B437" s="88">
         <v>44663</v>
@@ -65662,19 +65657,19 @@
         <v>0</v>
       </c>
       <c r="D437" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E437" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F437" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G437" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H437" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I437" s="87" t="s">
         <v>3333</v>
@@ -65683,7 +65678,7 @@
         <v>75</v>
       </c>
       <c r="K437" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L437" s="87">
         <v>0</v>
@@ -65721,7 +65716,7 @@
         <v>575</v>
       </c>
       <c r="AK437" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL437" s="87" t="s">
         <v>925</v>
@@ -65742,7 +65737,7 @@
     </row>
     <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A438" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B438" s="88">
         <v>44663</v>
@@ -65751,19 +65746,19 @@
         <v>0</v>
       </c>
       <c r="D438" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E438" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F438" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G438" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H438" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I438" s="87" t="s">
         <v>3333</v>
@@ -65772,7 +65767,7 @@
         <v>75</v>
       </c>
       <c r="K438" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L438" s="87">
         <v>0</v>
@@ -65810,7 +65805,7 @@
         <v>575</v>
       </c>
       <c r="AK438" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL438" s="87" t="s">
         <v>925</v>
@@ -65838,19 +65833,19 @@
         <v>4</v>
       </c>
       <c r="D439" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E439" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F439" s="87" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="G439" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H439" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I439" s="87" t="s">
         <v>3333</v>
@@ -65859,7 +65854,7 @@
         <v>75</v>
       </c>
       <c r="K439" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L439" s="87">
         <v>0</v>
@@ -65897,7 +65892,7 @@
         <v>575</v>
       </c>
       <c r="AK439" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL439" s="87" t="s">
         <v>925</v>
@@ -65918,7 +65913,7 @@
     </row>
     <row r="440" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B440" s="88">
         <v>44663</v>
@@ -65927,19 +65922,19 @@
         <v>0</v>
       </c>
       <c r="D440" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E440" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F440" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G440" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H440" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I440" s="87" t="s">
         <v>3333</v>
@@ -65948,7 +65943,7 @@
         <v>75</v>
       </c>
       <c r="K440" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L440" s="87">
         <v>0</v>
@@ -65986,7 +65981,7 @@
         <v>575</v>
       </c>
       <c r="AK440" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL440" s="87" t="s">
         <v>925</v>
@@ -66007,7 +66002,7 @@
     </row>
     <row r="441" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A441" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B441" s="88">
         <v>44663</v>
@@ -66016,19 +66011,19 @@
         <v>0</v>
       </c>
       <c r="D441" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E441" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F441" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G441" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H441" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I441" s="87" t="s">
         <v>3333</v>
@@ -66037,7 +66032,7 @@
         <v>75</v>
       </c>
       <c r="K441" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L441" s="87">
         <v>0</v>
@@ -66075,7 +66070,7 @@
         <v>575</v>
       </c>
       <c r="AK441" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL441" s="87" t="s">
         <v>925</v>
@@ -66096,7 +66091,7 @@
     </row>
     <row r="442" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A442" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B442" s="88">
         <v>44663</v>
@@ -66105,19 +66100,19 @@
         <v>0</v>
       </c>
       <c r="D442" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E442" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F442" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G442" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H442" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I442" s="87" t="s">
         <v>3333</v>
@@ -66126,7 +66121,7 @@
         <v>75</v>
       </c>
       <c r="K442" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L442" s="87">
         <v>0</v>
@@ -66164,7 +66159,7 @@
         <v>575</v>
       </c>
       <c r="AK442" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL442" s="87" t="s">
         <v>925</v>
@@ -66185,7 +66180,7 @@
     </row>
     <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A443" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B443" s="88">
         <v>44663</v>
@@ -66194,19 +66189,19 @@
         <v>0</v>
       </c>
       <c r="D443" s="87" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E443" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F443" s="87" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G443" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H443" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I443" s="87" t="s">
         <v>3333</v>
@@ -66215,7 +66210,7 @@
         <v>75</v>
       </c>
       <c r="K443" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L443" s="87">
         <v>0</v>
@@ -66253,7 +66248,7 @@
         <v>575</v>
       </c>
       <c r="AK443" s="87" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="AL443" s="87" t="s">
         <v>925</v>
@@ -66281,19 +66276,19 @@
         <v>5</v>
       </c>
       <c r="D444" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E444" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F444" s="87" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="G444" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H444" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I444" s="87" t="s">
         <v>3333</v>
@@ -66302,7 +66297,7 @@
         <v>75</v>
       </c>
       <c r="K444" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L444" s="87">
         <v>0</v>
@@ -66340,7 +66335,7 @@
         <v>575</v>
       </c>
       <c r="AK444" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL444" s="87" t="s">
         <v>925</v>
@@ -66361,7 +66356,7 @@
     </row>
     <row r="445" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A445" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B445" s="88">
         <v>44663</v>
@@ -66370,19 +66365,19 @@
         <v>0</v>
       </c>
       <c r="D445" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E445" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F445" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G445" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H445" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I445" s="87" t="s">
         <v>3333</v>
@@ -66391,7 +66386,7 @@
         <v>75</v>
       </c>
       <c r="K445" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L445" s="87">
         <v>0</v>
@@ -66429,7 +66424,7 @@
         <v>575</v>
       </c>
       <c r="AK445" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL445" s="87" t="s">
         <v>925</v>
@@ -66450,7 +66445,7 @@
     </row>
     <row r="446" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B446" s="88">
         <v>44663</v>
@@ -66459,19 +66454,19 @@
         <v>0</v>
       </c>
       <c r="D446" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E446" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F446" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G446" s="87" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="H446" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I446" s="87" t="s">
         <v>3333</v>
@@ -66480,7 +66475,7 @@
         <v>75</v>
       </c>
       <c r="K446" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L446" s="87">
         <v>0</v>
@@ -66518,7 +66513,7 @@
         <v>575</v>
       </c>
       <c r="AK446" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL446" s="87" t="s">
         <v>925</v>
@@ -66546,19 +66541,19 @@
         <v>6</v>
       </c>
       <c r="D447" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E447" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F447" s="87" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="G447" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H447" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I447" s="87" t="s">
         <v>3333</v>
@@ -66567,7 +66562,7 @@
         <v>75</v>
       </c>
       <c r="K447" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L447" s="87">
         <v>0</v>
@@ -66605,7 +66600,7 @@
         <v>575</v>
       </c>
       <c r="AK447" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL447" s="87" t="s">
         <v>925</v>
@@ -66626,7 +66621,7 @@
     </row>
     <row r="448" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A448" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B448" s="88">
         <v>44663</v>
@@ -66635,19 +66630,19 @@
         <v>0</v>
       </c>
       <c r="D448" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E448" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F448" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G448" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H448" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I448" s="87" t="s">
         <v>3333</v>
@@ -66656,7 +66651,7 @@
         <v>75</v>
       </c>
       <c r="K448" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L448" s="87">
         <v>0</v>
@@ -66694,7 +66689,7 @@
         <v>575</v>
       </c>
       <c r="AK448" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL448" s="87" t="s">
         <v>925</v>
@@ -66715,7 +66710,7 @@
     </row>
     <row r="449" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A449" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B449" s="88">
         <v>44663</v>
@@ -66724,19 +66719,19 @@
         <v>0</v>
       </c>
       <c r="D449" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E449" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F449" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G449" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H449" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I449" s="87" t="s">
         <v>3333</v>
@@ -66745,7 +66740,7 @@
         <v>75</v>
       </c>
       <c r="K449" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L449" s="87">
         <v>0</v>
@@ -66783,7 +66778,7 @@
         <v>575</v>
       </c>
       <c r="AK449" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL449" s="87" t="s">
         <v>925</v>
@@ -66804,7 +66799,7 @@
     </row>
     <row r="450" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B450" s="88">
         <v>44663</v>
@@ -66813,19 +66808,19 @@
         <v>0</v>
       </c>
       <c r="D450" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E450" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F450" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G450" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H450" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I450" s="87" t="s">
         <v>3333</v>
@@ -66834,7 +66829,7 @@
         <v>75</v>
       </c>
       <c r="K450" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L450" s="87">
         <v>0</v>
@@ -66872,7 +66867,7 @@
         <v>575</v>
       </c>
       <c r="AK450" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL450" s="87" t="s">
         <v>925</v>
@@ -66893,7 +66888,7 @@
     </row>
     <row r="451" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A451" s="87" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B451" s="88">
         <v>44663</v>
@@ -66902,19 +66897,19 @@
         <v>0</v>
       </c>
       <c r="D451" s="87" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E451" s="87" t="s">
         <v>3085</v>
       </c>
       <c r="F451" s="87" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G451" s="87" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="H451" s="89" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I451" s="87" t="s">
         <v>3333</v>
@@ -66923,7 +66918,7 @@
         <v>75</v>
       </c>
       <c r="K451" s="87" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="L451" s="87">
         <v>0</v>
@@ -66961,7 +66956,7 @@
         <v>575</v>
       </c>
       <c r="AK451" s="87" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="AL451" s="87" t="s">
         <v>925</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C61E4F-F51A-44F9-A58A-0F38AB2BD745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62771296-10A3-4EDD-9EDB-DB7212071C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14034" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14034" uniqueCount="3397">
   <si>
     <t>date:</t>
   </si>
@@ -10250,9 +10250,6 @@
   </si>
   <si>
     <t>['Nael Deus Darnus']</t>
-  </si>
-  <si>
-    <t>['Nael deus Darnus']</t>
   </si>
 </sst>
 </file>
@@ -21573,7 +21570,7 @@
         <v>1017</v>
       </c>
       <c r="AL78" s="6" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AM78" s="6" t="s">
         <v>925</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62771296-10A3-4EDD-9EDB-DB7212071C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF2BD8-E747-4BA5-AE90-7711C6C447AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="34065" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10246,10 +10246,10 @@
     <t>Dragonsong%27s_Reprise_(Ultimate)</t>
   </si>
   <si>
-    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Rechtes Auge']</t>
-  </si>
-  <si>
     <t>['Nael Deus Darnus']</t>
+  </si>
+  <si>
+    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Rechtes Auge', 'Nidhogg', 'Hraesvelgr']</t>
   </si>
 </sst>
 </file>
@@ -11330,10 +11330,10 @@
   <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AL183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL78" sqref="AL78"/>
+      <selection pane="bottomRight" activeCell="AL424" sqref="AL424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -19463,7 +19463,7 @@
       <c r="AR62" s="6"/>
       <c r="AS62" s="6"/>
     </row>
-    <row r="63" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7">
         <v>41625</v>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="AS63" s="6"/>
     </row>
-    <row r="64" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>41828</v>
@@ -19730,7 +19730,7 @@
       </c>
       <c r="AS64" s="6"/>
     </row>
-    <row r="65" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7">
         <v>42024</v>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="AS65" s="6"/>
     </row>
-    <row r="66" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7">
         <v>41513</v>
@@ -19996,7 +19996,7 @@
       </c>
       <c r="AS66" s="6"/>
     </row>
-    <row r="67" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7">
         <v>41513</v>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="AS67" s="6"/>
     </row>
-    <row r="68" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>41513</v>
@@ -20262,7 +20262,7 @@
       </c>
       <c r="AS68" s="6"/>
     </row>
-    <row r="69" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7">
         <v>41513</v>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="AS69" s="6"/>
     </row>
-    <row r="70" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>41513</v>
@@ -20528,7 +20528,7 @@
       </c>
       <c r="AS70" s="6"/>
     </row>
-    <row r="71" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7">
         <v>41723</v>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="AS71" s="6"/>
     </row>
-    <row r="72" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7">
         <v>41723</v>
@@ -20794,7 +20794,7 @@
       </c>
       <c r="AS72" s="6"/>
     </row>
-    <row r="73" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7">
         <v>41723</v>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="AS73" s="6"/>
     </row>
-    <row r="74" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7">
         <v>41723</v>
@@ -21038,7 +21038,7 @@
         <v>1013</v>
       </c>
       <c r="AL74" s="6" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AM74" s="6" t="s">
         <v>925</v>
@@ -21060,7 +21060,7 @@
       </c>
       <c r="AS74" s="6"/>
     </row>
-    <row r="75" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7">
         <v>41828</v>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="AS75" s="6"/>
     </row>
-    <row r="76" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7">
         <v>41828</v>
@@ -21326,7 +21326,7 @@
       </c>
       <c r="AS76" s="6"/>
     </row>
-    <row r="77" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7">
         <v>41828</v>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="AS77" s="6"/>
     </row>
-    <row r="78" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7">
         <v>41828</v>
@@ -21570,7 +21570,7 @@
         <v>1017</v>
       </c>
       <c r="AL78" s="6" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AM78" s="6" t="s">
         <v>925</v>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="AS78" s="6"/>
     </row>
-    <row r="79" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7">
         <v>41940</v>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="AS79" s="6"/>
     </row>
-    <row r="80" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7">
         <v>41940</v>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="AS80" s="6"/>
     </row>
-    <row r="81" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7">
         <v>41940</v>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="AS81" s="6"/>
     </row>
-    <row r="82" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>41940</v>
@@ -22124,7 +22124,7 @@
       </c>
       <c r="AS82" s="6"/>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>772</v>
       </c>
@@ -63291,7 +63291,7 @@
       <c r="AR413" s="87"/>
       <c r="AS413" s="87"/>
     </row>
-    <row r="414" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
         <v>44663</v>
@@ -63384,7 +63384,7 @@
       </c>
       <c r="AS414" s="87"/>
     </row>
-    <row r="415" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
         <v>44551</v>
@@ -63517,7 +63517,7 @@
       </c>
       <c r="AS415" s="87"/>
     </row>
-    <row r="416" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
         <v>44551</v>
@@ -63650,7 +63650,7 @@
       </c>
       <c r="AS416" s="87"/>
     </row>
-    <row r="417" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A417" s="87"/>
       <c r="B417" s="88">
         <v>44551</v>
@@ -63783,7 +63783,7 @@
       </c>
       <c r="AS417" s="87"/>
     </row>
-    <row r="418" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="87"/>
       <c r="B418" s="88">
         <v>44551</v>
@@ -63916,7 +63916,7 @@
       </c>
       <c r="AS418" s="87"/>
     </row>
-    <row r="419" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="87"/>
       <c r="B419" s="88">
         <v>44565</v>
@@ -64049,7 +64049,7 @@
       </c>
       <c r="AS419" s="87"/>
     </row>
-    <row r="420" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
         <v>44565</v>
@@ -64182,7 +64182,7 @@
       </c>
       <c r="AS420" s="87"/>
     </row>
-    <row r="421" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="87"/>
       <c r="B421" s="88">
         <v>44565</v>
@@ -64315,7 +64315,7 @@
       </c>
       <c r="AS421" s="87"/>
     </row>
-    <row r="422" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="87"/>
       <c r="B422" s="88">
         <v>44565</v>
@@ -64448,7 +64448,7 @@
       </c>
       <c r="AS422" s="87"/>
     </row>
-    <row r="423" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A423" s="87"/>
       <c r="B423" s="88">
         <v>44677</v>
@@ -64519,7 +64519,7 @@
         <v>3390</v>
       </c>
       <c r="AL423" s="87" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="AM423" s="87" t="s">
         <v>925</v>
@@ -64541,7 +64541,7 @@
       </c>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A424" s="87" t="s">
         <v>3198</v>
       </c>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF2BD8-E747-4BA5-AE90-7711C6C447AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551C34D-AC7E-4DD8-B832-73B937F2EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="34065" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="38640" windowHeight="20715" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -10249,7 +10249,7 @@
     <t>['Nael Deus Darnus']</t>
   </si>
   <si>
-    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Rechtes Auge', 'Nidhogg', 'Hraesvelgr']</t>
+    <t>['Adelphel', 'Grinnaux', 'Thordan', 'Nidhogg', 'Linkes Auge', 'Rechtes Auge', 'Thordan', 'Nidhogg', 'Hraesvelgr', 'König Thordan']</t>
   </si>
 </sst>
 </file>
@@ -11333,7 +11333,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AL183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL424" sqref="AL424"/>
+      <selection pane="bottomRight" activeCell="AL423" sqref="AL423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C395A70-AF73-437A-BAC3-B837BCED07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DF511-9EC6-4558-9694-018CB61436FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2970" windowWidth="29070" windowHeight="15390" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$AS$455</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$AS$467</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14034" uniqueCount="3397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14216" uniqueCount="3444">
   <si>
     <t>date:</t>
   </si>
@@ -10250,6 +10250,147 @@
   </si>
   <si>
     <t>['Wüterix Der Söldner']</t>
+  </si>
+  <si>
+    <t>Der Schwarze Hof von Troia</t>
+  </si>
+  <si>
+    <t>der_schwarze_hof_von_troia</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112481.tex</t>
+  </si>
+  <si>
+    <t>Burried Memories</t>
+  </si>
+  <si>
+    <t>z5d1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Eschatos - Barbarizia</t>
+  </si>
+  <si>
+    <t>eschatos_barbarizia</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112483.tex</t>
+  </si>
+  <si>
+    <t>z5fa_2</t>
+  </si>
+  <si>
+    <t>Prophetie - Barbarizia</t>
+  </si>
+  <si>
+    <t>prophetie_barbarizia</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112482.tex</t>
+  </si>
+  <si>
+    <t>z5fa</t>
+  </si>
+  <si>
+    <t>Traumprüfung - Sephirot</t>
+  </si>
+  <si>
+    <t>traumpruefung_sephirot</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112492.tex</t>
+  </si>
+  <si>
+    <t>a2fd_3</t>
+  </si>
+  <si>
+    <t>Abyssos - Achter Kreis</t>
+  </si>
+  <si>
+    <t>abyssos_achter_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112490.tex</t>
+  </si>
+  <si>
+    <t>n5r8</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112491.tex</t>
+  </si>
+  <si>
+    <t>n5r8_2</t>
+  </si>
+  <si>
+    <t>Abyssos - Fünfter Kreis</t>
+  </si>
+  <si>
+    <t>abyssos_fuenfter_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112484.tex</t>
+  </si>
+  <si>
+    <t>n5r5</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112485.tex</t>
+  </si>
+  <si>
+    <t>n5r5_2</t>
+  </si>
+  <si>
+    <t>Abyssos - Sechster Kreis</t>
+  </si>
+  <si>
+    <t>abyssos_sechster_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112486.tex</t>
+  </si>
+  <si>
+    <t>n5r6</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112487.tex</t>
+  </si>
+  <si>
+    <t>n5r6_2</t>
+  </si>
+  <si>
+    <t>Abyssos - Siebter Kreis</t>
+  </si>
+  <si>
+    <t>abyssos_siebter_kreis</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112488.tex</t>
+  </si>
+  <si>
+    <t>n5r7</t>
+  </si>
+  <si>
+    <t>ui/icon/112000/112489.tex</t>
+  </si>
+  <si>
+    <t>n5r7_2</t>
+  </si>
+  <si>
+    <t>abyssos_fuenfter_kreis_episch</t>
+  </si>
+  <si>
+    <t>abyssos_sechster_kreis_episch</t>
+  </si>
+  <si>
+    <t>abyssos_siebter_kreis_episch</t>
+  </si>
+  <si>
+    <t>abyssos_achter_kreis_episch</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -11327,13 +11468,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88280F-F23E-48B4-9B91-E7EC59D48F52}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AS456"/>
+  <dimension ref="A1:AS468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL158" sqref="AL158"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -11522,8 +11663,10 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3443</v>
+      </c>
       <c r="B2" s="7">
         <v>25569</v>
       </c>
@@ -11653,7 +11796,7 @@
       </c>
       <c r="AS2" s="6"/>
     </row>
-    <row r="3" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>41513</v>
@@ -11786,7 +11929,7 @@
       </c>
       <c r="AS3" s="6"/>
     </row>
-    <row r="4" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>41513</v>
@@ -11919,7 +12062,7 @@
       </c>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>41513</v>
@@ -12052,7 +12195,7 @@
       </c>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>41513</v>
@@ -12185,7 +12328,7 @@
       </c>
       <c r="AS6" s="6"/>
     </row>
-    <row r="7" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>41513</v>
@@ -12318,7 +12461,7 @@
       </c>
       <c r="AS7" s="6"/>
     </row>
-    <row r="8" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>41513</v>
@@ -12451,7 +12594,7 @@
       </c>
       <c r="AS8" s="6"/>
     </row>
-    <row r="9" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>41513</v>
@@ -12584,7 +12727,7 @@
       </c>
       <c r="AS9" s="6"/>
     </row>
-    <row r="10" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>41513</v>
@@ -12717,7 +12860,7 @@
       </c>
       <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>41513</v>
@@ -12850,7 +12993,7 @@
       </c>
       <c r="AS11" s="6"/>
     </row>
-    <row r="12" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>41513</v>
@@ -12983,7 +13126,7 @@
       </c>
       <c r="AS12" s="6"/>
     </row>
-    <row r="13" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>41513</v>
@@ -13116,7 +13259,7 @@
       </c>
       <c r="AS13" s="6"/>
     </row>
-    <row r="14" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>41513</v>
@@ -13249,7 +13392,7 @@
       </c>
       <c r="AS14" s="6"/>
     </row>
-    <row r="15" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>41513</v>
@@ -13382,7 +13525,7 @@
       </c>
       <c r="AS15" s="6"/>
     </row>
-    <row r="16" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>41513</v>
@@ -13515,7 +13658,7 @@
       </c>
       <c r="AS16" s="6"/>
     </row>
-    <row r="17" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>41513</v>
@@ -13648,7 +13791,7 @@
       </c>
       <c r="AS17" s="6"/>
     </row>
-    <row r="18" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>41625</v>
@@ -13781,7 +13924,7 @@
       </c>
       <c r="AS18" s="6"/>
     </row>
-    <row r="19" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7">
         <v>41625</v>
@@ -13914,7 +14057,7 @@
       </c>
       <c r="AS19" s="6"/>
     </row>
-    <row r="20" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7">
         <v>41625</v>
@@ -14047,7 +14190,7 @@
       </c>
       <c r="AS20" s="6"/>
     </row>
-    <row r="21" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>41625</v>
@@ -14180,7 +14323,7 @@
       </c>
       <c r="AS21" s="6"/>
     </row>
-    <row r="22" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>41753</v>
@@ -14313,7 +14456,7 @@
       </c>
       <c r="AS22" s="6"/>
     </row>
-    <row r="23" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>41753</v>
@@ -14446,7 +14589,7 @@
       </c>
       <c r="AS23" s="6"/>
     </row>
-    <row r="24" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>41753</v>
@@ -14579,7 +14722,7 @@
       </c>
       <c r="AS24" s="6"/>
     </row>
-    <row r="25" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>41828</v>
@@ -14712,7 +14855,7 @@
       </c>
       <c r="AS25" s="6"/>
     </row>
-    <row r="26" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>41828</v>
@@ -14845,7 +14988,7 @@
       </c>
       <c r="AS26" s="6"/>
     </row>
-    <row r="27" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>41828</v>
@@ -14978,7 +15121,7 @@
       </c>
       <c r="AS27" s="6"/>
     </row>
-    <row r="28" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>41940</v>
@@ -15111,7 +15254,7 @@
       </c>
       <c r="AS28" s="6"/>
     </row>
-    <row r="29" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7">
         <v>41940</v>
@@ -15244,7 +15387,7 @@
       </c>
       <c r="AS29" s="6"/>
     </row>
-    <row r="30" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7">
         <v>41940</v>
@@ -15377,7 +15520,7 @@
       </c>
       <c r="AS30" s="6"/>
     </row>
-    <row r="31" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>42024</v>
@@ -15510,7 +15653,7 @@
       </c>
       <c r="AS31" s="6"/>
     </row>
-    <row r="32" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>42024</v>
@@ -15643,7 +15786,7 @@
       </c>
       <c r="AS32" s="6"/>
     </row>
-    <row r="33" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>42024</v>
@@ -15776,7 +15919,7 @@
       </c>
       <c r="AS33" s="6"/>
     </row>
-    <row r="34" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>766</v>
       </c>
@@ -15825,7 +15968,7 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
     </row>
-    <row r="35" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>41513</v>
@@ -15958,7 +16101,7 @@
       </c>
       <c r="AS35" s="6"/>
     </row>
-    <row r="36" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>41513</v>
@@ -16091,7 +16234,7 @@
       </c>
       <c r="AS36" s="6"/>
     </row>
-    <row r="37" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>41513</v>
@@ -16224,7 +16367,7 @@
       </c>
       <c r="AS37" s="6"/>
     </row>
-    <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>41513</v>
@@ -16355,7 +16498,7 @@
       </c>
       <c r="AS38" s="6"/>
     </row>
-    <row r="39" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>41513</v>
@@ -16488,7 +16631,7 @@
       </c>
       <c r="AS39" s="6"/>
     </row>
-    <row r="40" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>41513</v>
@@ -16621,7 +16764,7 @@
       </c>
       <c r="AS40" s="6"/>
     </row>
-    <row r="41" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>41513</v>
@@ -16754,7 +16897,7 @@
       </c>
       <c r="AS41" s="6"/>
     </row>
-    <row r="42" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41625</v>
@@ -16887,7 +17030,7 @@
       </c>
       <c r="AS42" s="6"/>
     </row>
-    <row r="43" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>41625</v>
@@ -17020,7 +17163,7 @@
       </c>
       <c r="AS43" s="6"/>
     </row>
-    <row r="44" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>41625</v>
@@ -17153,7 +17296,7 @@
       </c>
       <c r="AS44" s="6"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>41625</v>
@@ -17286,7 +17429,7 @@
       </c>
       <c r="AS45" s="6"/>
     </row>
-    <row r="46" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>41625</v>
@@ -17419,7 +17562,7 @@
       </c>
       <c r="AS46" s="6"/>
     </row>
-    <row r="47" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>41690</v>
@@ -17552,7 +17695,7 @@
       </c>
       <c r="AS47" s="6"/>
     </row>
-    <row r="48" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>41690</v>
@@ -17685,7 +17828,7 @@
       </c>
       <c r="AS48" s="6"/>
     </row>
-    <row r="49" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>41723</v>
@@ -17818,7 +17961,7 @@
       </c>
       <c r="AS49" s="6"/>
     </row>
-    <row r="50" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>41723</v>
@@ -17951,7 +18094,7 @@
       </c>
       <c r="AS50" s="6"/>
     </row>
-    <row r="51" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>41723</v>
@@ -18084,7 +18227,7 @@
       </c>
       <c r="AS51" s="6"/>
     </row>
-    <row r="52" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>41723</v>
@@ -18217,7 +18360,7 @@
       </c>
       <c r="AS52" s="6"/>
     </row>
-    <row r="53" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>41828</v>
@@ -18350,7 +18493,7 @@
       </c>
       <c r="AS53" s="6"/>
     </row>
-    <row r="54" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>41828</v>
@@ -18483,7 +18626,7 @@
       </c>
       <c r="AS54" s="6"/>
     </row>
-    <row r="55" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>41940</v>
@@ -18616,7 +18759,7 @@
       </c>
       <c r="AS55" s="6"/>
     </row>
-    <row r="56" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>41940</v>
@@ -18749,7 +18892,7 @@
       </c>
       <c r="AS56" s="6"/>
     </row>
-    <row r="57" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>41940</v>
@@ -18882,7 +19025,7 @@
       </c>
       <c r="AS57" s="6"/>
     </row>
-    <row r="58" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>42024</v>
@@ -19015,7 +19158,7 @@
       </c>
       <c r="AS58" s="6"/>
     </row>
-    <row r="59" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>42024</v>
@@ -19148,7 +19291,7 @@
       </c>
       <c r="AS59" s="6"/>
     </row>
-    <row r="60" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>42024</v>
@@ -19281,8 +19424,10 @@
       </c>
       <c r="AS60" s="6"/>
     </row>
-    <row r="61" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+    <row r="61" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>3443</v>
+      </c>
       <c r="B61" s="7">
         <v>42094</v>
       </c>
@@ -19322,9 +19467,7 @@
       <c r="N61" s="8">
         <v>0</v>
       </c>
-      <c r="O61" s="13">
-        <v>65955</v>
-      </c>
+      <c r="O61" s="13"/>
       <c r="P61" s="13" t="s">
         <v>2723</v>
       </c>
@@ -19414,7 +19557,7 @@
       </c>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>769</v>
       </c>
@@ -28613,7 +28756,7 @@
       <c r="AR134" s="14"/>
       <c r="AS134" s="14"/>
     </row>
-    <row r="135" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="15">
         <v>42318</v>
@@ -28746,7 +28889,7 @@
       </c>
       <c r="AS135" s="14"/>
     </row>
-    <row r="136" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="15">
         <v>42528</v>
@@ -28879,7 +29022,7 @@
       </c>
       <c r="AS136" s="14"/>
     </row>
-    <row r="137" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="15">
         <v>42752</v>
@@ -29012,7 +29155,7 @@
       </c>
       <c r="AS137" s="14"/>
     </row>
-    <row r="138" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="15">
         <v>42192</v>
@@ -29145,7 +29288,7 @@
       </c>
       <c r="AS138" s="14"/>
     </row>
-    <row r="139" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="15">
         <v>42192</v>
@@ -29278,7 +29421,7 @@
       </c>
       <c r="AS139" s="14"/>
     </row>
-    <row r="140" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="15">
         <v>42192</v>
@@ -29411,7 +29554,7 @@
       </c>
       <c r="AS140" s="14"/>
     </row>
-    <row r="141" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="15">
         <v>42192</v>
@@ -29544,7 +29687,7 @@
       </c>
       <c r="AS141" s="14"/>
     </row>
-    <row r="142" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="15">
         <v>42206</v>
@@ -29677,7 +29820,7 @@
       </c>
       <c r="AS142" s="14"/>
     </row>
-    <row r="143" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="15">
         <v>42206</v>
@@ -29810,7 +29953,7 @@
       </c>
       <c r="AS143" s="14"/>
     </row>
-    <row r="144" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="15">
         <v>42206</v>
@@ -29943,7 +30086,7 @@
       </c>
       <c r="AS144" s="14"/>
     </row>
-    <row r="145" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="15">
         <v>42206</v>
@@ -30076,7 +30219,7 @@
       </c>
       <c r="AS145" s="14"/>
     </row>
-    <row r="146" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="15">
         <v>42423</v>
@@ -30209,7 +30352,7 @@
       </c>
       <c r="AS146" s="14"/>
     </row>
-    <row r="147" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="15">
         <v>42423</v>
@@ -30342,7 +30485,7 @@
       </c>
       <c r="AS147" s="14"/>
     </row>
-    <row r="148" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="15">
         <v>42423</v>
@@ -30475,7 +30618,7 @@
       </c>
       <c r="AS148" s="14"/>
     </row>
-    <row r="149" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="15">
         <v>42423</v>
@@ -30608,7 +30751,7 @@
       </c>
       <c r="AS149" s="14"/>
     </row>
-    <row r="150" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="15">
         <v>42423</v>
@@ -30741,7 +30884,7 @@
       </c>
       <c r="AS150" s="14"/>
     </row>
-    <row r="151" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="15">
         <v>42423</v>
@@ -30874,7 +31017,7 @@
       </c>
       <c r="AS151" s="14"/>
     </row>
-    <row r="152" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="15">
         <v>42423</v>
@@ -31007,7 +31150,7 @@
       </c>
       <c r="AS152" s="14"/>
     </row>
-    <row r="153" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="15">
         <v>42423</v>
@@ -31140,7 +31283,7 @@
       </c>
       <c r="AS153" s="14"/>
     </row>
-    <row r="154" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="15">
         <v>42640</v>
@@ -31273,7 +31416,7 @@
       </c>
       <c r="AS154" s="14"/>
     </row>
-    <row r="155" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="15">
         <v>42640</v>
@@ -31406,7 +31549,7 @@
       </c>
       <c r="AS155" s="14"/>
     </row>
-    <row r="156" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="15">
         <v>42640</v>
@@ -31539,7 +31682,7 @@
       </c>
       <c r="AS156" s="14"/>
     </row>
-    <row r="157" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="15">
         <v>42640</v>
@@ -31672,7 +31815,7 @@
       </c>
       <c r="AS157" s="14"/>
     </row>
-    <row r="158" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="15">
         <v>42640</v>
@@ -31805,7 +31948,7 @@
       </c>
       <c r="AS158" s="14"/>
     </row>
-    <row r="159" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="15">
         <v>42640</v>
@@ -31938,7 +32081,7 @@
       </c>
       <c r="AS159" s="14"/>
     </row>
-    <row r="160" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="15">
         <v>42640</v>
@@ -32071,7 +32214,7 @@
       </c>
       <c r="AS160" s="14"/>
     </row>
-    <row r="161" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="15">
         <v>42640</v>
@@ -32204,7 +32347,7 @@
       </c>
       <c r="AS161" s="14"/>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>773</v>
       </c>
@@ -61112,7 +61255,7 @@
       <c r="AR394" s="70"/>
       <c r="AS394" s="70"/>
     </row>
-    <row r="395" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A395" s="87"/>
       <c r="B395" s="88">
         <v>44537</v>
@@ -61245,7 +61388,7 @@
       </c>
       <c r="AS395" s="87"/>
     </row>
-    <row r="396" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A396" s="87"/>
       <c r="B396" s="88">
         <v>44537</v>
@@ -61378,7 +61521,7 @@
       </c>
       <c r="AS396" s="87"/>
     </row>
-    <row r="397" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A397" s="87"/>
       <c r="B397" s="88">
         <v>44537</v>
@@ -61511,7 +61654,7 @@
       </c>
       <c r="AS397" s="87"/>
     </row>
-    <row r="398" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A398" s="87"/>
       <c r="B398" s="88">
         <v>44537</v>
@@ -61644,7 +61787,7 @@
       </c>
       <c r="AS398" s="87"/>
     </row>
-    <row r="399" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A399" s="87"/>
       <c r="B399" s="88">
         <v>44537</v>
@@ -61777,7 +61920,7 @@
       </c>
       <c r="AS399" s="87"/>
     </row>
-    <row r="400" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A400" s="87"/>
       <c r="B400" s="88">
         <v>44537</v>
@@ -61910,7 +62053,7 @@
       </c>
       <c r="AS400" s="87"/>
     </row>
-    <row r="401" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A401" s="87"/>
       <c r="B401" s="88">
         <v>44537</v>
@@ -62043,7 +62186,7 @@
       </c>
       <c r="AS401" s="87"/>
     </row>
-    <row r="402" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A402" s="87"/>
       <c r="B402" s="88">
         <v>44537</v>
@@ -62176,7 +62319,7 @@
       </c>
       <c r="AS402" s="87"/>
     </row>
-    <row r="403" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A403" s="87"/>
       <c r="B403" s="88">
         <v>44663</v>
@@ -62269,24 +62412,50 @@
       </c>
       <c r="AS403" s="87"/>
     </row>
-    <row r="404" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="87" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B404" s="88"/>
-      <c r="C404" s="87"/>
-      <c r="D404" s="87"/>
-      <c r="E404" s="87"/>
-      <c r="F404" s="87"/>
-      <c r="G404" s="87"/>
-      <c r="H404" s="87"/>
-      <c r="I404" s="87"/>
-      <c r="J404" s="87"/>
-      <c r="K404" s="87"/>
-      <c r="L404" s="87"/>
-      <c r="M404" s="87"/>
-      <c r="N404" s="87"/>
-      <c r="O404" s="87"/>
+    <row r="404" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="87"/>
+      <c r="B404" s="88">
+        <v>44796</v>
+      </c>
+      <c r="C404" s="87">
+        <v>0</v>
+      </c>
+      <c r="D404" s="87" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E404" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F404" s="87" t="s">
+        <v>3398</v>
+      </c>
+      <c r="G404" s="87" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H404" s="89" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I404" s="87" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J404" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K404" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="L404" s="87">
+        <v>90</v>
+      </c>
+      <c r="M404" s="87">
+        <v>575</v>
+      </c>
+      <c r="N404" s="87">
+        <v>0</v>
+      </c>
+      <c r="O404" s="87" t="s">
+        <v>3332</v>
+      </c>
       <c r="P404" s="87"/>
       <c r="Q404" s="87"/>
       <c r="R404" s="87"/>
@@ -62307,165 +62476,97 @@
       <c r="AG404" s="87"/>
       <c r="AH404" s="87"/>
       <c r="AI404" s="87"/>
-      <c r="AJ404" s="87"/>
-      <c r="AK404" s="87"/>
-      <c r="AL404" s="87"/>
-      <c r="AM404" s="87"/>
-      <c r="AN404" s="87"/>
-      <c r="AO404" s="87"/>
+      <c r="AJ404" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK404" s="87" t="s">
+        <v>3401</v>
+      </c>
+      <c r="AL404" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM404" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN404" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO404" s="87" t="s">
+        <v>925</v>
+      </c>
       <c r="AP404" s="87"/>
       <c r="AQ404" s="87"/>
       <c r="AR404" s="87"/>
       <c r="AS404" s="87"/>
     </row>
-    <row r="405" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="87"/>
-      <c r="B405" s="88">
-        <v>44537</v>
-      </c>
-      <c r="C405" s="87">
-        <v>194</v>
-      </c>
-      <c r="D405" s="87" t="s">
-        <v>3152</v>
-      </c>
-      <c r="E405" s="87" t="s">
-        <v>3083</v>
-      </c>
-      <c r="F405" s="87" t="s">
-        <v>3153</v>
-      </c>
-      <c r="G405" s="87" t="s">
-        <v>3154</v>
-      </c>
-      <c r="H405" s="87" t="s">
-        <v>3086</v>
-      </c>
-      <c r="I405" s="87" t="s">
-        <v>3087</v>
-      </c>
-      <c r="J405" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="K405" s="87" t="s">
-        <v>3102</v>
-      </c>
-      <c r="L405" s="87" t="s">
-        <v>3103</v>
-      </c>
-      <c r="M405" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="N405" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O405" s="87">
-        <v>69934</v>
-      </c>
-      <c r="P405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Q405" s="87" t="s">
-        <v>3257</v>
-      </c>
-      <c r="R405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="S405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="T405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U405" s="87" t="s">
-        <v>2723</v>
-      </c>
+    <row r="405" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A405" s="87" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B405" s="88"/>
+      <c r="C405" s="87"/>
+      <c r="D405" s="87"/>
+      <c r="E405" s="87"/>
+      <c r="F405" s="87"/>
+      <c r="G405" s="87"/>
+      <c r="H405" s="87"/>
+      <c r="I405" s="87"/>
+      <c r="J405" s="87"/>
+      <c r="K405" s="87"/>
+      <c r="L405" s="87"/>
+      <c r="M405" s="87"/>
+      <c r="N405" s="87"/>
+      <c r="O405" s="87"/>
+      <c r="P405" s="87"/>
+      <c r="Q405" s="87"/>
+      <c r="R405" s="87"/>
+      <c r="S405" s="87"/>
+      <c r="T405" s="87"/>
+      <c r="U405" s="87"/>
       <c r="V405" s="87"/>
       <c r="W405" s="87"/>
-      <c r="X405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Y405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Z405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AA405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AB405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AC405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AD405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AE405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AG405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AH405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI405" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AJ405" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK405" s="87" t="s">
-        <v>3155</v>
-      </c>
-      <c r="AL405" s="87" t="s">
-        <v>3266</v>
-      </c>
-      <c r="AM405" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN405" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO405" s="87" t="s">
-        <v>1907</v>
-      </c>
-      <c r="AP405" s="87">
-        <v>20080</v>
-      </c>
-      <c r="AQ405" s="87">
-        <v>20080</v>
-      </c>
-      <c r="AR405" s="87" t="s">
-        <v>3271</v>
-      </c>
+      <c r="X405" s="87"/>
+      <c r="Y405" s="87"/>
+      <c r="Z405" s="87"/>
+      <c r="AA405" s="87"/>
+      <c r="AB405" s="87"/>
+      <c r="AC405" s="87"/>
+      <c r="AD405" s="87"/>
+      <c r="AE405" s="87"/>
+      <c r="AF405" s="87"/>
+      <c r="AG405" s="87"/>
+      <c r="AH405" s="87"/>
+      <c r="AI405" s="87"/>
+      <c r="AJ405" s="87"/>
+      <c r="AK405" s="87"/>
+      <c r="AL405" s="87"/>
+      <c r="AM405" s="87"/>
+      <c r="AN405" s="87"/>
+      <c r="AO405" s="87"/>
+      <c r="AP405" s="87"/>
+      <c r="AQ405" s="87"/>
+      <c r="AR405" s="87"/>
       <c r="AS405" s="87"/>
     </row>
-    <row r="406" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A406" s="87"/>
       <c r="B406" s="88">
         <v>44537</v>
       </c>
       <c r="C406" s="87">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D406" s="87" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="E406" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F406" s="87" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="G406" s="87" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="H406" s="87" t="s">
         <v>3086</v>
@@ -62477,25 +62578,25 @@
         <v>76</v>
       </c>
       <c r="K406" s="87" t="s">
-        <v>3088</v>
+        <v>3102</v>
       </c>
       <c r="L406" s="87" t="s">
-        <v>3089</v>
+        <v>3103</v>
       </c>
       <c r="M406" s="87" t="s">
         <v>1930</v>
       </c>
       <c r="N406" s="87" t="s">
-        <v>3091</v>
+        <v>1930</v>
       </c>
       <c r="O406" s="87">
-        <v>69985</v>
+        <v>69934</v>
       </c>
       <c r="P406" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="Q406" s="87" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="R406" s="87" t="s">
         <v>2723</v>
@@ -62551,10 +62652,10 @@
         <v>186</v>
       </c>
       <c r="AK406" s="87" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="AL406" s="87" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="AM406" s="87" t="s">
         <v>925</v>
@@ -62566,35 +62667,35 @@
         <v>1907</v>
       </c>
       <c r="AP406" s="87">
-        <v>20077</v>
+        <v>20080</v>
       </c>
       <c r="AQ406" s="87">
-        <v>20077</v>
+        <v>20080</v>
       </c>
       <c r="AR406" s="87" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="AS406" s="87"/>
     </row>
-    <row r="407" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A407" s="87"/>
       <c r="B407" s="88">
         <v>44537</v>
       </c>
       <c r="C407" s="87">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D407" s="87" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="E407" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F407" s="87" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="G407" s="87" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="H407" s="87" t="s">
         <v>3086</v>
@@ -62606,25 +62707,25 @@
         <v>76</v>
       </c>
       <c r="K407" s="87" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="L407" s="87" t="s">
         <v>3089</v>
       </c>
       <c r="M407" s="87" t="s">
-        <v>3096</v>
+        <v>1930</v>
       </c>
       <c r="N407" s="87" t="s">
-        <v>1930</v>
+        <v>3091</v>
       </c>
       <c r="O407" s="87">
-        <v>70000</v>
+        <v>69985</v>
       </c>
       <c r="P407" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="Q407" s="87" t="s">
-        <v>3268</v>
+        <v>3254</v>
       </c>
       <c r="R407" s="87" t="s">
         <v>2723</v>
@@ -62650,7 +62751,7 @@
         <v>2723</v>
       </c>
       <c r="AA407" s="87" t="s">
-        <v>3270</v>
+        <v>2723</v>
       </c>
       <c r="AB407" s="87" t="s">
         <v>2723</v>
@@ -62680,10 +62781,10 @@
         <v>186</v>
       </c>
       <c r="AK407" s="87" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="AL407" s="87" t="s">
-        <v>3273</v>
+        <v>3267</v>
       </c>
       <c r="AM407" s="87" t="s">
         <v>925</v>
@@ -62695,35 +62796,35 @@
         <v>1907</v>
       </c>
       <c r="AP407" s="87">
-        <v>20079</v>
+        <v>20077</v>
       </c>
       <c r="AQ407" s="87">
-        <v>20079</v>
+        <v>20077</v>
       </c>
       <c r="AR407" s="87" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="AS407" s="87"/>
     </row>
-    <row r="408" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="87"/>
       <c r="B408" s="88">
         <v>44537</v>
       </c>
       <c r="C408" s="87">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D408" s="87" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="E408" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F408" s="87" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="G408" s="87" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="H408" s="87" t="s">
         <v>3086</v>
@@ -62732,7 +62833,7 @@
         <v>3087</v>
       </c>
       <c r="J408" s="87" t="s">
-        <v>1939</v>
+        <v>76</v>
       </c>
       <c r="K408" s="87" t="s">
         <v>3089</v>
@@ -62741,19 +62842,19 @@
         <v>3089</v>
       </c>
       <c r="M408" s="87" t="s">
-        <v>3138</v>
+        <v>3096</v>
       </c>
       <c r="N408" s="87" t="s">
         <v>1930</v>
       </c>
       <c r="O408" s="87">
-        <v>69707</v>
+        <v>70000</v>
       </c>
       <c r="P408" s="87" t="s">
-        <v>3256</v>
+        <v>2723</v>
       </c>
       <c r="Q408" s="87" t="s">
-        <v>3257</v>
+        <v>3268</v>
       </c>
       <c r="R408" s="87" t="s">
         <v>2723</v>
@@ -62770,7 +62871,7 @@
       <c r="V408" s="87"/>
       <c r="W408" s="87"/>
       <c r="X408" s="87" t="s">
-        <v>3258</v>
+        <v>2723</v>
       </c>
       <c r="Y408" s="87" t="s">
         <v>2723</v>
@@ -62779,19 +62880,19 @@
         <v>2723</v>
       </c>
       <c r="AA408" s="87" t="s">
-        <v>3264</v>
+        <v>3270</v>
       </c>
       <c r="AB408" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AC408" s="87" t="s">
-        <v>3265</v>
+        <v>2723</v>
       </c>
       <c r="AD408" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AE408" s="87" t="s">
-        <v>3259</v>
+        <v>2723</v>
       </c>
       <c r="AF408" s="87" t="s">
         <v>2723</v>
@@ -62809,10 +62910,10 @@
         <v>186</v>
       </c>
       <c r="AK408" s="87" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="AL408" s="87" t="s">
-        <v>3266</v>
+        <v>3273</v>
       </c>
       <c r="AM408" s="87" t="s">
         <v>925</v>
@@ -62821,38 +62922,38 @@
         <v>925</v>
       </c>
       <c r="AO408" s="87" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="AP408" s="87">
-        <v>20081</v>
+        <v>20079</v>
       </c>
       <c r="AQ408" s="87">
-        <v>20081</v>
+        <v>20079</v>
       </c>
       <c r="AR408" s="87" t="s">
-        <v>3260</v>
+        <v>3269</v>
       </c>
       <c r="AS408" s="87"/>
     </row>
-    <row r="409" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="87"/>
       <c r="B409" s="88">
         <v>44537</v>
       </c>
       <c r="C409" s="87">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D409" s="87" t="s">
-        <v>3135</v>
+        <v>3140</v>
       </c>
       <c r="E409" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F409" s="87" t="s">
-        <v>3136</v>
+        <v>3141</v>
       </c>
       <c r="G409" s="87" t="s">
-        <v>3137</v>
+        <v>3142</v>
       </c>
       <c r="H409" s="87" t="s">
         <v>3086</v>
@@ -62879,10 +62980,10 @@
         <v>69707</v>
       </c>
       <c r="P409" s="87" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="Q409" s="87" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="R409" s="87" t="s">
         <v>2723</v>
@@ -62899,7 +63000,7 @@
       <c r="V409" s="87"/>
       <c r="W409" s="87"/>
       <c r="X409" s="87" t="s">
-        <v>3253</v>
+        <v>3258</v>
       </c>
       <c r="Y409" s="87" t="s">
         <v>2723</v>
@@ -62908,19 +63009,19 @@
         <v>2723</v>
       </c>
       <c r="AA409" s="87" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
       <c r="AB409" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AC409" s="87" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="AD409" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AE409" s="87" t="s">
-        <v>3252</v>
+        <v>3259</v>
       </c>
       <c r="AF409" s="87" t="s">
         <v>2723</v>
@@ -62938,10 +63039,10 @@
         <v>186</v>
       </c>
       <c r="AK409" s="87" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
       <c r="AL409" s="87" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="AM409" s="87" t="s">
         <v>925</v>
@@ -62953,88 +63054,124 @@
         <v>1906</v>
       </c>
       <c r="AP409" s="87">
-        <v>20078</v>
+        <v>20081</v>
       </c>
       <c r="AQ409" s="87">
-        <v>20078</v>
+        <v>20081</v>
       </c>
       <c r="AR409" s="87" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="AS409" s="87"/>
     </row>
-    <row r="410" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="87"/>
       <c r="B410" s="88">
-        <v>44663</v>
+        <v>44537</v>
       </c>
       <c r="C410" s="87">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D410" s="87" t="s">
-        <v>3334</v>
+        <v>3135</v>
       </c>
       <c r="E410" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F410" s="87" t="s">
-        <v>3335</v>
+        <v>3136</v>
       </c>
       <c r="G410" s="87" t="s">
-        <v>3336</v>
-      </c>
-      <c r="H410" s="89" t="s">
-        <v>3346</v>
+        <v>3137</v>
+      </c>
+      <c r="H410" s="87" t="s">
+        <v>3086</v>
       </c>
       <c r="I410" s="87" t="s">
-        <v>3331</v>
+        <v>3087</v>
       </c>
       <c r="J410" s="87" t="s">
-        <v>76</v>
+        <v>1939</v>
       </c>
       <c r="K410" s="87" t="s">
         <v>3089</v>
       </c>
-      <c r="L410" s="87">
-        <v>90</v>
-      </c>
-      <c r="M410" s="87">
-        <v>580</v>
-      </c>
-      <c r="N410" s="87">
-        <v>0</v>
+      <c r="L410" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M410" s="87" t="s">
+        <v>3138</v>
+      </c>
+      <c r="N410" s="87" t="s">
+        <v>1930</v>
       </c>
       <c r="O410" s="87">
         <v>69707</v>
       </c>
-      <c r="P410" s="87"/>
-      <c r="Q410" s="87"/>
-      <c r="R410" s="87"/>
-      <c r="S410" s="87"/>
-      <c r="T410" s="87"/>
-      <c r="U410" s="87"/>
+      <c r="P410" s="87" t="s">
+        <v>3255</v>
+      </c>
+      <c r="Q410" s="87" t="s">
+        <v>3254</v>
+      </c>
+      <c r="R410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="T410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U410" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="V410" s="87"/>
       <c r="W410" s="87"/>
-      <c r="X410" s="87"/>
-      <c r="Y410" s="87"/>
-      <c r="Z410" s="87"/>
-      <c r="AA410" s="87"/>
-      <c r="AB410" s="87"/>
-      <c r="AC410" s="87"/>
-      <c r="AD410" s="87"/>
-      <c r="AE410" s="87"/>
-      <c r="AF410" s="87"/>
-      <c r="AG410" s="87"/>
-      <c r="AH410" s="87"/>
-      <c r="AI410" s="87"/>
+      <c r="X410" s="87" t="s">
+        <v>3253</v>
+      </c>
+      <c r="Y410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AA410" s="87" t="s">
+        <v>3262</v>
+      </c>
+      <c r="AB410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AC410" s="87" t="s">
+        <v>3263</v>
+      </c>
+      <c r="AD410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE410" s="87" t="s">
+        <v>3252</v>
+      </c>
+      <c r="AF410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH410" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI410" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ410" s="87" t="s">
         <v>186</v>
       </c>
       <c r="AK410" s="87" t="s">
-        <v>3337</v>
+        <v>3139</v>
       </c>
       <c r="AL410" s="87" t="s">
-        <v>3273</v>
+        <v>3267</v>
       </c>
       <c r="AM410" s="87" t="s">
         <v>925</v>
@@ -63043,38 +63180,38 @@
         <v>925</v>
       </c>
       <c r="AO410" s="87" t="s">
-        <v>925</v>
+        <v>1906</v>
       </c>
       <c r="AP410" s="87">
-        <v>20083</v>
+        <v>20078</v>
       </c>
       <c r="AQ410" s="87">
-        <v>20083</v>
+        <v>20078</v>
       </c>
       <c r="AR410" s="87" t="s">
-        <v>3377</v>
+        <v>3261</v>
       </c>
       <c r="AS410" s="87"/>
     </row>
-    <row r="411" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A411" s="87"/>
       <c r="B411" s="88">
         <v>44663</v>
       </c>
       <c r="C411" s="87">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D411" s="87" t="s">
-        <v>3338</v>
+        <v>3334</v>
       </c>
       <c r="E411" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F411" s="87" t="s">
-        <v>3339</v>
+        <v>3335</v>
       </c>
       <c r="G411" s="87" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
       <c r="H411" s="89" t="s">
         <v>3346</v>
@@ -63083,22 +63220,22 @@
         <v>3331</v>
       </c>
       <c r="J411" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K411" s="87" t="s">
-        <v>1970</v>
+        <v>3089</v>
       </c>
       <c r="L411" s="87">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M411" s="87">
+        <v>580</v>
+      </c>
+      <c r="N411" s="87">
         <v>0</v>
       </c>
-      <c r="N411" s="87">
-        <v>60</v>
-      </c>
       <c r="O411" s="87">
-        <v>70058</v>
+        <v>69707</v>
       </c>
       <c r="P411" s="87"/>
       <c r="Q411" s="87"/>
@@ -63124,10 +63261,10 @@
         <v>186</v>
       </c>
       <c r="AK411" s="87" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="AL411" s="87" t="s">
-        <v>1144</v>
+        <v>3273</v>
       </c>
       <c r="AM411" s="87" t="s">
         <v>925</v>
@@ -63139,35 +63276,35 @@
         <v>925</v>
       </c>
       <c r="AP411" s="87">
-        <v>20082</v>
+        <v>20083</v>
       </c>
       <c r="AQ411" s="87">
-        <v>20082</v>
+        <v>20083</v>
       </c>
       <c r="AR411" s="87" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="AS411" s="87"/>
     </row>
-    <row r="412" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="87"/>
       <c r="B412" s="88">
         <v>44663</v>
       </c>
       <c r="C412" s="87">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D412" s="87" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="E412" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F412" s="87" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="G412" s="87" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
       <c r="H412" s="89" t="s">
         <v>3346</v>
@@ -63176,22 +63313,22 @@
         <v>3331</v>
       </c>
       <c r="J412" s="87" t="s">
-        <v>1536</v>
+        <v>75</v>
       </c>
       <c r="K412" s="87" t="s">
-        <v>3089</v>
+        <v>1970</v>
       </c>
       <c r="L412" s="87">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M412" s="87">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="N412" s="87">
-        <v>565</v>
+        <v>60</v>
       </c>
       <c r="O412" s="87">
-        <v>69501</v>
+        <v>70058</v>
       </c>
       <c r="P412" s="87"/>
       <c r="Q412" s="87"/>
@@ -63217,7 +63354,7 @@
         <v>186</v>
       </c>
       <c r="AK412" s="87" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="AL412" s="87" t="s">
         <v>1144</v>
@@ -63232,34 +63369,60 @@
         <v>925</v>
       </c>
       <c r="AP412" s="87">
-        <v>64004</v>
+        <v>20082</v>
       </c>
       <c r="AQ412" s="87">
-        <v>64004</v>
+        <v>20082</v>
       </c>
       <c r="AR412" s="87" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="AS412" s="87"/>
     </row>
-    <row r="413" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="87" t="s">
-        <v>3198</v>
-      </c>
-      <c r="B413" s="88"/>
-      <c r="C413" s="87"/>
-      <c r="D413" s="87"/>
-      <c r="E413" s="87"/>
-      <c r="F413" s="87"/>
-      <c r="G413" s="87"/>
-      <c r="H413" s="87"/>
-      <c r="I413" s="87"/>
-      <c r="J413" s="87"/>
-      <c r="K413" s="87"/>
-      <c r="L413" s="87"/>
-      <c r="M413" s="87"/>
-      <c r="N413" s="87"/>
-      <c r="O413" s="87"/>
+    <row r="413" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="87"/>
+      <c r="B413" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C413" s="87">
+        <v>201</v>
+      </c>
+      <c r="D413" s="87" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E413" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F413" s="87" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G413" s="87" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H413" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I413" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J413" s="87" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K413" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="L413" s="87">
+        <v>90</v>
+      </c>
+      <c r="M413" s="87">
+        <v>560</v>
+      </c>
+      <c r="N413" s="87">
+        <v>565</v>
+      </c>
+      <c r="O413" s="87">
+        <v>69501</v>
+      </c>
       <c r="P413" s="87"/>
       <c r="Q413" s="87"/>
       <c r="R413" s="87"/>
@@ -63280,45 +63443,63 @@
       <c r="AG413" s="87"/>
       <c r="AH413" s="87"/>
       <c r="AI413" s="87"/>
-      <c r="AJ413" s="87"/>
-      <c r="AK413" s="87"/>
-      <c r="AL413" s="87"/>
-      <c r="AM413" s="87"/>
-      <c r="AN413" s="87"/>
-      <c r="AO413" s="87"/>
-      <c r="AP413" s="87"/>
-      <c r="AQ413" s="87"/>
-      <c r="AR413" s="87"/>
+      <c r="AJ413" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK413" s="87" t="s">
+        <v>3345</v>
+      </c>
+      <c r="AL413" s="87" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AM413" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN413" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO413" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP413" s="87">
+        <v>64004</v>
+      </c>
+      <c r="AQ413" s="87">
+        <v>64004</v>
+      </c>
+      <c r="AR413" s="87" t="s">
+        <v>3379</v>
+      </c>
       <c r="AS413" s="87"/>
     </row>
     <row r="414" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87"/>
       <c r="B414" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C414" s="87">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D414" s="87" t="s">
-        <v>3372</v>
+        <v>3407</v>
       </c>
       <c r="E414" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F414" s="87" t="s">
-        <v>3373</v>
+        <v>3408</v>
       </c>
       <c r="G414" s="87" t="s">
-        <v>3374</v>
-      </c>
-      <c r="H414" s="91" t="s">
-        <v>3346</v>
+        <v>3409</v>
+      </c>
+      <c r="H414" s="89" t="s">
+        <v>3402</v>
       </c>
       <c r="I414" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J414" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K414" s="87" t="s">
         <v>3089</v>
@@ -63327,13 +63508,13 @@
         <v>90</v>
       </c>
       <c r="M414" s="87">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="N414" s="87">
         <v>0</v>
       </c>
-      <c r="O414" s="87">
-        <v>70073</v>
+      <c r="O414" s="87" t="s">
+        <v>3332</v>
       </c>
       <c r="P414" s="87"/>
       <c r="Q414" s="87"/>
@@ -63356,10 +63537,10 @@
       <c r="AH414" s="87"/>
       <c r="AI414" s="87"/>
       <c r="AJ414" s="87" t="s">
-        <v>574</v>
+        <v>186</v>
       </c>
       <c r="AK414" s="87" t="s">
-        <v>3375</v>
+        <v>3410</v>
       </c>
       <c r="AL414" s="87" t="s">
         <v>925</v>
@@ -63373,129 +63554,83 @@
       <c r="AO414" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP414" s="87">
-        <v>30115</v>
-      </c>
-      <c r="AQ414" s="87">
-        <v>30115</v>
-      </c>
-      <c r="AR414" s="87" t="s">
-        <v>3372</v>
-      </c>
+      <c r="AP414" s="87"/>
+      <c r="AQ414" s="87"/>
+      <c r="AR414" s="87"/>
       <c r="AS414" s="87"/>
     </row>
     <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87"/>
       <c r="B415" s="88">
-        <v>44551</v>
+        <v>44796</v>
       </c>
       <c r="C415" s="87">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D415" s="87" t="s">
-        <v>3161</v>
+        <v>3403</v>
       </c>
       <c r="E415" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F415" s="87" t="s">
-        <v>3162</v>
+        <v>3404</v>
       </c>
       <c r="G415" s="87" t="s">
-        <v>3163</v>
+        <v>3405</v>
       </c>
       <c r="H415" s="89" t="s">
-        <v>3190</v>
+        <v>3402</v>
       </c>
       <c r="I415" s="87" t="s">
-        <v>3087</v>
+        <v>3400</v>
       </c>
       <c r="J415" s="87" t="s">
-        <v>75</v>
+        <v>1939</v>
       </c>
       <c r="K415" s="87" t="s">
         <v>3089</v>
       </c>
-      <c r="L415" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="M415" s="87" t="s">
-        <v>3159</v>
-      </c>
-      <c r="N415" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O415" s="87">
-        <v>70012</v>
-      </c>
-      <c r="P415" s="87" t="s">
-        <v>3208</v>
-      </c>
-      <c r="Q415" s="87" t="s">
-        <v>3244</v>
-      </c>
-      <c r="R415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="S415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="T415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="V415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="W415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="X415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Y415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Z415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AA415" s="87" t="s">
-        <v>3245</v>
-      </c>
-      <c r="AB415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AC415" s="87" t="s">
-        <v>3246</v>
-      </c>
-      <c r="AD415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AE415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AG415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AH415" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI415" s="87" t="s">
-        <v>2723</v>
-      </c>
+      <c r="L415" s="87">
+        <v>90</v>
+      </c>
+      <c r="M415" s="87">
+        <v>600</v>
+      </c>
+      <c r="N415" s="87">
+        <v>0</v>
+      </c>
+      <c r="O415" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P415" s="87"/>
+      <c r="Q415" s="87"/>
+      <c r="R415" s="87"/>
+      <c r="S415" s="87"/>
+      <c r="T415" s="87"/>
+      <c r="U415" s="87"/>
+      <c r="V415" s="87"/>
+      <c r="W415" s="87"/>
+      <c r="X415" s="87"/>
+      <c r="Y415" s="87"/>
+      <c r="Z415" s="87"/>
+      <c r="AA415" s="87"/>
+      <c r="AB415" s="87"/>
+      <c r="AC415" s="87"/>
+      <c r="AD415" s="87"/>
+      <c r="AE415" s="87"/>
+      <c r="AF415" s="87"/>
+      <c r="AG415" s="87"/>
+      <c r="AH415" s="87"/>
+      <c r="AI415" s="87"/>
       <c r="AJ415" s="87" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="AK415" s="87" t="s">
-        <v>3164</v>
+        <v>3406</v>
       </c>
       <c r="AL415" s="87" t="s">
-        <v>3212</v>
+        <v>925</v>
       </c>
       <c r="AM415" s="87" t="s">
         <v>925</v>
@@ -63504,131 +63639,85 @@
         <v>925</v>
       </c>
       <c r="AO415" s="87" t="s">
-        <v>3247</v>
-      </c>
-      <c r="AP415" s="87">
-        <v>30111</v>
-      </c>
-      <c r="AQ415" s="87">
-        <v>30111</v>
-      </c>
-      <c r="AR415" s="87" t="s">
-        <v>3217</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AP415" s="87"/>
+      <c r="AQ415" s="87"/>
+      <c r="AR415" s="87"/>
       <c r="AS415" s="87"/>
     </row>
     <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87"/>
       <c r="B416" s="88">
-        <v>44551</v>
+        <v>44796</v>
       </c>
       <c r="C416" s="87">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D416" s="87" t="s">
-        <v>3169</v>
+        <v>3411</v>
       </c>
       <c r="E416" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F416" s="87" t="s">
-        <v>3170</v>
+        <v>3412</v>
       </c>
       <c r="G416" s="87" t="s">
-        <v>3171</v>
+        <v>3413</v>
       </c>
       <c r="H416" s="89" t="s">
-        <v>3190</v>
+        <v>3402</v>
       </c>
       <c r="I416" s="87" t="s">
-        <v>3087</v>
+        <v>3400</v>
       </c>
       <c r="J416" s="87" t="s">
-        <v>75</v>
+        <v>1536</v>
       </c>
       <c r="K416" s="87" t="s">
         <v>3089</v>
       </c>
-      <c r="L416" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="M416" s="87" t="s">
-        <v>3159</v>
-      </c>
-      <c r="N416" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O416" s="87">
-        <v>70013</v>
-      </c>
-      <c r="P416" s="87" t="s">
-        <v>3208</v>
-      </c>
-      <c r="Q416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="R416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="S416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="T416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="V416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="W416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="X416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Y416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Z416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AA416" s="87" t="s">
-        <v>3242</v>
-      </c>
-      <c r="AB416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AC416" s="87" t="s">
-        <v>3243</v>
-      </c>
-      <c r="AD416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AE416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AG416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AH416" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI416" s="87" t="s">
-        <v>2723</v>
-      </c>
+      <c r="L416" s="87">
+        <v>90</v>
+      </c>
+      <c r="M416" s="87">
+        <v>560</v>
+      </c>
+      <c r="N416" s="87">
+        <v>565</v>
+      </c>
+      <c r="O416" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P416" s="87"/>
+      <c r="Q416" s="87"/>
+      <c r="R416" s="87"/>
+      <c r="S416" s="87"/>
+      <c r="T416" s="87"/>
+      <c r="U416" s="87"/>
+      <c r="V416" s="87"/>
+      <c r="W416" s="87"/>
+      <c r="X416" s="87"/>
+      <c r="Y416" s="87"/>
+      <c r="Z416" s="87"/>
+      <c r="AA416" s="87"/>
+      <c r="AB416" s="87"/>
+      <c r="AC416" s="87"/>
+      <c r="AD416" s="87"/>
+      <c r="AE416" s="87"/>
+      <c r="AF416" s="87"/>
+      <c r="AG416" s="87"/>
+      <c r="AH416" s="87"/>
+      <c r="AI416" s="87"/>
       <c r="AJ416" s="87" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="AK416" s="87" t="s">
-        <v>3172</v>
+        <v>3414</v>
       </c>
       <c r="AL416" s="87" t="s">
-        <v>3211</v>
+        <v>925</v>
       </c>
       <c r="AM416" s="87" t="s">
         <v>925</v>
@@ -63637,177 +63726,87 @@
         <v>925</v>
       </c>
       <c r="AO416" s="87" t="s">
-        <v>3248</v>
-      </c>
-      <c r="AP416" s="87">
-        <v>30113</v>
-      </c>
-      <c r="AQ416" s="87">
-        <v>30113</v>
-      </c>
-      <c r="AR416" s="87" t="s">
-        <v>3218</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AP416" s="87"/>
+      <c r="AQ416" s="87"/>
+      <c r="AR416" s="87"/>
       <c r="AS416" s="87"/>
     </row>
-    <row r="417" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="87"/>
-      <c r="B417" s="88">
-        <v>44551</v>
-      </c>
-      <c r="C417" s="87">
-        <v>130</v>
-      </c>
-      <c r="D417" s="87" t="s">
-        <v>3156</v>
-      </c>
-      <c r="E417" s="87" t="s">
-        <v>3083</v>
-      </c>
-      <c r="F417" s="87" t="s">
-        <v>3157</v>
-      </c>
-      <c r="G417" s="87" t="s">
-        <v>3158</v>
-      </c>
-      <c r="H417" s="89" t="s">
-        <v>3190</v>
-      </c>
-      <c r="I417" s="87" t="s">
-        <v>3087</v>
-      </c>
-      <c r="J417" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K417" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="L417" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="M417" s="87" t="s">
-        <v>3159</v>
-      </c>
-      <c r="N417" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O417" s="87">
-        <v>70014</v>
-      </c>
-      <c r="P417" s="87" t="s">
-        <v>3208</v>
-      </c>
-      <c r="Q417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="R417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="S417" s="87" t="s">
-        <v>3239</v>
-      </c>
-      <c r="T417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="V417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="W417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="X417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Y417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Z417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AA417" s="87" t="s">
-        <v>3240</v>
-      </c>
-      <c r="AB417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AC417" s="87" t="s">
-        <v>3241</v>
-      </c>
-      <c r="AD417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AE417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AG417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AH417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI417" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AJ417" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK417" s="87" t="s">
-        <v>3160</v>
-      </c>
-      <c r="AL417" s="87" t="s">
-        <v>3210</v>
-      </c>
-      <c r="AM417" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN417" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO417" s="87" t="s">
-        <v>3249</v>
-      </c>
-      <c r="AP417" s="87">
-        <v>30109</v>
-      </c>
-      <c r="AQ417" s="87">
-        <v>30109</v>
-      </c>
-      <c r="AR417" s="87" t="s">
-        <v>3219</v>
-      </c>
+    <row r="417" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A417" s="87" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B417" s="88"/>
+      <c r="C417" s="87"/>
+      <c r="D417" s="87"/>
+      <c r="E417" s="87"/>
+      <c r="F417" s="87"/>
+      <c r="G417" s="87"/>
+      <c r="H417" s="87"/>
+      <c r="I417" s="87"/>
+      <c r="J417" s="87"/>
+      <c r="K417" s="87"/>
+      <c r="L417" s="87"/>
+      <c r="M417" s="87"/>
+      <c r="N417" s="87"/>
+      <c r="O417" s="87"/>
+      <c r="P417" s="87"/>
+      <c r="Q417" s="87"/>
+      <c r="R417" s="87"/>
+      <c r="S417" s="87"/>
+      <c r="T417" s="87"/>
+      <c r="U417" s="87"/>
+      <c r="V417" s="87"/>
+      <c r="W417" s="87"/>
+      <c r="X417" s="87"/>
+      <c r="Y417" s="87"/>
+      <c r="Z417" s="87"/>
+      <c r="AA417" s="87"/>
+      <c r="AB417" s="87"/>
+      <c r="AC417" s="87"/>
+      <c r="AD417" s="87"/>
+      <c r="AE417" s="87"/>
+      <c r="AF417" s="87"/>
+      <c r="AG417" s="87"/>
+      <c r="AH417" s="87"/>
+      <c r="AI417" s="87"/>
+      <c r="AJ417" s="87"/>
+      <c r="AK417" s="87"/>
+      <c r="AL417" s="87"/>
+      <c r="AM417" s="87"/>
+      <c r="AN417" s="87"/>
+      <c r="AO417" s="87"/>
+      <c r="AP417" s="87"/>
+      <c r="AQ417" s="87"/>
+      <c r="AR417" s="87"/>
       <c r="AS417" s="87"/>
     </row>
     <row r="418" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="87"/>
       <c r="B418" s="88">
-        <v>44551</v>
+        <v>44663</v>
       </c>
       <c r="C418" s="87">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D418" s="87" t="s">
-        <v>3165</v>
+        <v>3372</v>
       </c>
       <c r="E418" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F418" s="87" t="s">
-        <v>3166</v>
+        <v>3373</v>
       </c>
       <c r="G418" s="87" t="s">
-        <v>3167</v>
-      </c>
-      <c r="H418" s="89" t="s">
-        <v>3190</v>
+        <v>3374</v>
+      </c>
+      <c r="H418" s="91" t="s">
+        <v>3346</v>
       </c>
       <c r="I418" s="87" t="s">
-        <v>3087</v>
+        <v>3331</v>
       </c>
       <c r="J418" s="87" t="s">
         <v>75</v>
@@ -63815,86 +63814,46 @@
       <c r="K418" s="87" t="s">
         <v>3089</v>
       </c>
-      <c r="L418" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="M418" s="87" t="s">
-        <v>3159</v>
-      </c>
-      <c r="N418" s="87" t="s">
-        <v>1930</v>
+      <c r="L418" s="87">
+        <v>90</v>
+      </c>
+      <c r="M418" s="87">
+        <v>565</v>
+      </c>
+      <c r="N418" s="87">
+        <v>0</v>
       </c>
       <c r="O418" s="87">
-        <v>70015</v>
-      </c>
-      <c r="P418" s="87" t="s">
-        <v>3208</v>
-      </c>
-      <c r="Q418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="R418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="S418" s="87" t="s">
-        <v>3236</v>
-      </c>
-      <c r="T418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="V418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="W418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="X418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Y418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Z418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AA418" s="87" t="s">
-        <v>3237</v>
-      </c>
-      <c r="AB418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AC418" s="87" t="s">
-        <v>3238</v>
-      </c>
-      <c r="AD418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AE418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AG418" s="87" t="s">
-        <v>3222</v>
-      </c>
-      <c r="AH418" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI418" s="87" t="s">
-        <v>2723</v>
-      </c>
+        <v>70073</v>
+      </c>
+      <c r="P418" s="87"/>
+      <c r="Q418" s="87"/>
+      <c r="R418" s="87"/>
+      <c r="S418" s="87"/>
+      <c r="T418" s="87"/>
+      <c r="U418" s="87"/>
+      <c r="V418" s="87"/>
+      <c r="W418" s="87"/>
+      <c r="X418" s="87"/>
+      <c r="Y418" s="87"/>
+      <c r="Z418" s="87"/>
+      <c r="AA418" s="87"/>
+      <c r="AB418" s="87"/>
+      <c r="AC418" s="87"/>
+      <c r="AD418" s="87"/>
+      <c r="AE418" s="87"/>
+      <c r="AF418" s="87"/>
+      <c r="AG418" s="87"/>
+      <c r="AH418" s="87"/>
+      <c r="AI418" s="87"/>
       <c r="AJ418" s="87" t="s">
-        <v>310</v>
+        <v>574</v>
       </c>
       <c r="AK418" s="87" t="s">
-        <v>3168</v>
+        <v>3375</v>
       </c>
       <c r="AL418" s="87" t="s">
-        <v>3209</v>
+        <v>925</v>
       </c>
       <c r="AM418" s="87" t="s">
         <v>925</v>
@@ -63903,26 +63862,26 @@
         <v>925</v>
       </c>
       <c r="AO418" s="87" t="s">
-        <v>3250</v>
+        <v>925</v>
       </c>
       <c r="AP418" s="87">
-        <v>30107</v>
+        <v>30115</v>
       </c>
       <c r="AQ418" s="87">
-        <v>30107</v>
+        <v>30115</v>
       </c>
       <c r="AR418" s="87" t="s">
-        <v>3220</v>
+        <v>3372</v>
       </c>
       <c r="AS418" s="87"/>
     </row>
     <row r="419" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="87"/>
       <c r="B419" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C419" s="87">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D419" s="87" t="s">
         <v>3161</v>
@@ -63931,19 +63890,19 @@
         <v>3083</v>
       </c>
       <c r="F419" s="87" t="s">
-        <v>3187</v>
+        <v>3162</v>
       </c>
       <c r="G419" s="87" t="s">
-        <v>3176</v>
+        <v>3163</v>
       </c>
       <c r="H419" s="89" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="I419" s="87" t="s">
         <v>3087</v>
       </c>
       <c r="J419" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K419" s="87" t="s">
         <v>3089</v>
@@ -63952,19 +63911,19 @@
         <v>3089</v>
       </c>
       <c r="M419" s="87" t="s">
-        <v>3097</v>
+        <v>3159</v>
       </c>
       <c r="N419" s="87" t="s">
         <v>1930</v>
       </c>
       <c r="O419" s="87">
-        <v>70015</v>
+        <v>70012</v>
       </c>
       <c r="P419" s="87" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="Q419" s="87" t="s">
-        <v>2723</v>
+        <v>3244</v>
       </c>
       <c r="R419" s="87" t="s">
         <v>2723</v>
@@ -63994,13 +63953,13 @@
         <v>2723</v>
       </c>
       <c r="AA419" s="87" t="s">
-        <v>3231</v>
+        <v>3245</v>
       </c>
       <c r="AB419" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AC419" s="87" t="s">
-        <v>3232</v>
+        <v>3246</v>
       </c>
       <c r="AD419" s="87" t="s">
         <v>2723</v>
@@ -64024,7 +63983,7 @@
         <v>310</v>
       </c>
       <c r="AK419" s="87" t="s">
-        <v>3177</v>
+        <v>3164</v>
       </c>
       <c r="AL419" s="87" t="s">
         <v>3212</v>
@@ -64036,26 +63995,26 @@
         <v>925</v>
       </c>
       <c r="AO419" s="87" t="s">
-        <v>3204</v>
+        <v>3247</v>
       </c>
       <c r="AP419" s="87">
-        <v>30112</v>
+        <v>30111</v>
       </c>
       <c r="AQ419" s="87">
-        <v>30112</v>
+        <v>30111</v>
       </c>
       <c r="AR419" s="87" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="AS419" s="87"/>
     </row>
     <row r="420" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A420" s="87"/>
       <c r="B420" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C420" s="87">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D420" s="87" t="s">
         <v>3169</v>
@@ -64064,19 +64023,19 @@
         <v>3083</v>
       </c>
       <c r="F420" s="87" t="s">
-        <v>3189</v>
+        <v>3170</v>
       </c>
       <c r="G420" s="87" t="s">
-        <v>3180</v>
+        <v>3171</v>
       </c>
       <c r="H420" s="89" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="I420" s="87" t="s">
         <v>3087</v>
       </c>
       <c r="J420" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K420" s="87" t="s">
         <v>3089</v>
@@ -64085,16 +64044,16 @@
         <v>3089</v>
       </c>
       <c r="M420" s="87" t="s">
-        <v>3181</v>
+        <v>3159</v>
       </c>
       <c r="N420" s="87" t="s">
         <v>1930</v>
       </c>
       <c r="O420" s="87">
-        <v>70015</v>
+        <v>70013</v>
       </c>
       <c r="P420" s="87" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="Q420" s="87" t="s">
         <v>2723</v>
@@ -64127,13 +64086,13 @@
         <v>2723</v>
       </c>
       <c r="AA420" s="87" t="s">
-        <v>3229</v>
+        <v>3242</v>
       </c>
       <c r="AB420" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AC420" s="87" t="s">
-        <v>3230</v>
+        <v>3243</v>
       </c>
       <c r="AD420" s="87" t="s">
         <v>2723</v>
@@ -64157,7 +64116,7 @@
         <v>310</v>
       </c>
       <c r="AK420" s="87" t="s">
-        <v>3182</v>
+        <v>3172</v>
       </c>
       <c r="AL420" s="87" t="s">
         <v>3211</v>
@@ -64169,26 +64128,26 @@
         <v>925</v>
       </c>
       <c r="AO420" s="87" t="s">
-        <v>3205</v>
+        <v>3248</v>
       </c>
       <c r="AP420" s="87">
-        <v>30114</v>
+        <v>30113</v>
       </c>
       <c r="AQ420" s="87">
-        <v>30114</v>
+        <v>30113</v>
       </c>
       <c r="AR420" s="87" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="AS420" s="87"/>
     </row>
     <row r="421" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="87"/>
       <c r="B421" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C421" s="87">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D421" s="87" t="s">
         <v>3156</v>
@@ -64197,19 +64156,19 @@
         <v>3083</v>
       </c>
       <c r="F421" s="87" t="s">
-        <v>3186</v>
+        <v>3157</v>
       </c>
       <c r="G421" s="87" t="s">
-        <v>3173</v>
+        <v>3158</v>
       </c>
       <c r="H421" s="89" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="I421" s="87" t="s">
         <v>3087</v>
       </c>
       <c r="J421" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K421" s="87" t="s">
         <v>3089</v>
@@ -64218,16 +64177,16 @@
         <v>3089</v>
       </c>
       <c r="M421" s="87" t="s">
-        <v>3174</v>
+        <v>3159</v>
       </c>
       <c r="N421" s="87" t="s">
         <v>1930</v>
       </c>
       <c r="O421" s="87">
-        <v>70015</v>
+        <v>70014</v>
       </c>
       <c r="P421" s="87" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="Q421" s="87" t="s">
         <v>2723</v>
@@ -64236,7 +64195,7 @@
         <v>2723</v>
       </c>
       <c r="S421" s="87" t="s">
-        <v>2723</v>
+        <v>3239</v>
       </c>
       <c r="T421" s="87" t="s">
         <v>2723</v>
@@ -64260,13 +64219,13 @@
         <v>2723</v>
       </c>
       <c r="AA421" s="87" t="s">
-        <v>3227</v>
+        <v>3240</v>
       </c>
       <c r="AB421" s="87" t="s">
         <v>2723</v>
       </c>
       <c r="AC421" s="87" t="s">
-        <v>3228</v>
+        <v>3241</v>
       </c>
       <c r="AD421" s="87" t="s">
         <v>2723</v>
@@ -64290,7 +64249,7 @@
         <v>310</v>
       </c>
       <c r="AK421" s="87" t="s">
-        <v>3175</v>
+        <v>3160</v>
       </c>
       <c r="AL421" s="87" t="s">
         <v>3210</v>
@@ -64302,26 +64261,26 @@
         <v>925</v>
       </c>
       <c r="AO421" s="87" t="s">
-        <v>3206</v>
+        <v>3249</v>
       </c>
       <c r="AP421" s="87">
-        <v>30110</v>
+        <v>30109</v>
       </c>
       <c r="AQ421" s="87">
-        <v>30110</v>
+        <v>30109</v>
       </c>
       <c r="AR421" s="87" t="s">
-        <v>3214</v>
+        <v>3219</v>
       </c>
       <c r="AS421" s="87"/>
     </row>
     <row r="422" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A422" s="87"/>
       <c r="B422" s="88">
-        <v>44565</v>
+        <v>44551</v>
       </c>
       <c r="C422" s="87">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D422" s="87" t="s">
         <v>3165</v>
@@ -64330,19 +64289,19 @@
         <v>3083</v>
       </c>
       <c r="F422" s="87" t="s">
-        <v>3188</v>
+        <v>3166</v>
       </c>
       <c r="G422" s="87" t="s">
-        <v>3178</v>
+        <v>3167</v>
       </c>
       <c r="H422" s="89" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="I422" s="87" t="s">
         <v>3087</v>
       </c>
       <c r="J422" s="87" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="K422" s="87" t="s">
         <v>3089</v>
@@ -64351,7 +64310,7 @@
         <v>3089</v>
       </c>
       <c r="M422" s="87" t="s">
-        <v>3174</v>
+        <v>3159</v>
       </c>
       <c r="N422" s="87" t="s">
         <v>1930</v>
@@ -64360,7 +64319,7 @@
         <v>70015</v>
       </c>
       <c r="P422" s="87" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="Q422" s="87" t="s">
         <v>2723</v>
@@ -64369,7 +64328,7 @@
         <v>2723</v>
       </c>
       <c r="S422" s="87" t="s">
-        <v>2723</v>
+        <v>3236</v>
       </c>
       <c r="T422" s="87" t="s">
         <v>2723</v>
@@ -64393,19 +64352,19 @@
         <v>2723</v>
       </c>
       <c r="AA422" s="87" t="s">
-        <v>3223</v>
+        <v>3237</v>
       </c>
       <c r="AB422" s="87" t="s">
-        <v>3224</v>
+        <v>2723</v>
       </c>
       <c r="AC422" s="87" t="s">
-        <v>3225</v>
+        <v>3238</v>
       </c>
       <c r="AD422" s="87" t="s">
-        <v>3226</v>
+        <v>2723</v>
       </c>
       <c r="AE422" s="87" t="s">
-        <v>3221</v>
+        <v>2723</v>
       </c>
       <c r="AF422" s="87" t="s">
         <v>2723</v>
@@ -64423,10 +64382,10 @@
         <v>310</v>
       </c>
       <c r="AK422" s="87" t="s">
-        <v>3179</v>
+        <v>3168</v>
       </c>
       <c r="AL422" s="87" t="s">
-        <v>3192</v>
+        <v>3209</v>
       </c>
       <c r="AM422" s="87" t="s">
         <v>925</v>
@@ -64435,91 +64394,131 @@
         <v>925</v>
       </c>
       <c r="AO422" s="87" t="s">
-        <v>3203</v>
+        <v>3250</v>
       </c>
       <c r="AP422" s="87">
-        <v>30108</v>
+        <v>30107</v>
       </c>
       <c r="AQ422" s="87">
-        <v>30108</v>
+        <v>30107</v>
       </c>
       <c r="AR422" s="87" t="s">
-        <v>3213</v>
+        <v>3220</v>
       </c>
       <c r="AS422" s="87"/>
     </row>
     <row r="423" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A423" s="87"/>
       <c r="B423" s="88">
-        <v>44677</v>
+        <v>44565</v>
       </c>
       <c r="C423" s="87">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D423" s="87" t="s">
-        <v>3386</v>
+        <v>3161</v>
       </c>
       <c r="E423" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F423" s="87" t="s">
-        <v>3387</v>
+        <v>3187</v>
       </c>
       <c r="G423" s="87" t="s">
-        <v>3388</v>
+        <v>3176</v>
       </c>
       <c r="H423" s="89" t="s">
-        <v>3390</v>
+        <v>3191</v>
       </c>
       <c r="I423" s="87" t="s">
-        <v>3331</v>
+        <v>3087</v>
       </c>
       <c r="J423" s="87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K423" s="87" t="s">
         <v>3089</v>
       </c>
-      <c r="L423" s="87">
-        <v>90</v>
-      </c>
-      <c r="M423" s="87">
-        <v>0</v>
-      </c>
-      <c r="N423" s="87">
-        <v>605</v>
-      </c>
-      <c r="O423" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P423" s="87"/>
-      <c r="Q423" s="87"/>
-      <c r="R423" s="87"/>
-      <c r="S423" s="87"/>
-      <c r="T423" s="87"/>
-      <c r="U423" s="87"/>
-      <c r="V423" s="87"/>
-      <c r="W423" s="87"/>
-      <c r="X423" s="87"/>
-      <c r="Y423" s="87"/>
-      <c r="Z423" s="87"/>
-      <c r="AA423" s="87"/>
-      <c r="AB423" s="87"/>
-      <c r="AC423" s="87"/>
-      <c r="AD423" s="87"/>
-      <c r="AE423" s="87"/>
-      <c r="AF423" s="87"/>
-      <c r="AG423" s="87"/>
-      <c r="AH423" s="87"/>
-      <c r="AI423" s="87"/>
+      <c r="L423" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M423" s="87" t="s">
+        <v>3097</v>
+      </c>
+      <c r="N423" s="87" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O423" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P423" s="87" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Q423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="T423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="V423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="W423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Y423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AA423" s="87" t="s">
+        <v>3231</v>
+      </c>
+      <c r="AB423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AC423" s="87" t="s">
+        <v>3232</v>
+      </c>
+      <c r="AD423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH423" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI423" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ423" s="87" t="s">
-        <v>3323</v>
+        <v>310</v>
       </c>
       <c r="AK423" s="87" t="s">
-        <v>3389</v>
+        <v>3177</v>
       </c>
       <c r="AL423" s="87" t="s">
-        <v>3395</v>
+        <v>3212</v>
       </c>
       <c r="AM423" s="87" t="s">
         <v>925</v>
@@ -64528,140 +64527,264 @@
         <v>925</v>
       </c>
       <c r="AO423" s="87" t="s">
-        <v>3391</v>
+        <v>3204</v>
       </c>
       <c r="AP423" s="87">
-        <v>30106</v>
+        <v>30112</v>
       </c>
       <c r="AQ423" s="87">
-        <v>30106</v>
+        <v>30112</v>
       </c>
       <c r="AR423" s="87" t="s">
-        <v>3393</v>
+        <v>3216</v>
       </c>
       <c r="AS423" s="87"/>
     </row>
-    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A424" s="87" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B424" s="88"/>
-      <c r="C424" s="87"/>
-      <c r="D424" s="87"/>
-      <c r="E424" s="87"/>
-      <c r="F424" s="87"/>
-      <c r="G424" s="87"/>
-      <c r="H424" s="89"/>
-      <c r="I424" s="87"/>
-      <c r="J424" s="87"/>
-      <c r="K424" s="87"/>
-      <c r="L424" s="87"/>
-      <c r="M424" s="87"/>
-      <c r="N424" s="87"/>
-      <c r="O424" s="87"/>
-      <c r="P424" s="87"/>
-      <c r="Q424" s="87"/>
-      <c r="R424" s="87"/>
-      <c r="S424" s="87"/>
-      <c r="T424" s="87"/>
-      <c r="U424" s="87"/>
-      <c r="V424" s="87"/>
-      <c r="W424" s="87"/>
-      <c r="X424" s="87"/>
-      <c r="Y424" s="87"/>
-      <c r="Z424" s="87"/>
-      <c r="AA424" s="87"/>
-      <c r="AB424" s="87"/>
-      <c r="AC424" s="87"/>
-      <c r="AD424" s="87"/>
-      <c r="AE424" s="87"/>
-      <c r="AF424" s="87"/>
-      <c r="AG424" s="87"/>
-      <c r="AH424" s="87"/>
-      <c r="AI424" s="87"/>
-      <c r="AJ424" s="87"/>
-      <c r="AK424" s="87"/>
-      <c r="AL424" s="87"/>
-      <c r="AM424" s="87"/>
-      <c r="AN424" s="87"/>
-      <c r="AO424" s="87"/>
-      <c r="AP424" s="87"/>
-      <c r="AQ424" s="87"/>
-      <c r="AR424" s="87"/>
+    <row r="424" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="87"/>
+      <c r="B424" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C424" s="87">
+        <v>133</v>
+      </c>
+      <c r="D424" s="87" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E424" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F424" s="87" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G424" s="87" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H424" s="89" t="s">
+        <v>3191</v>
+      </c>
+      <c r="I424" s="87" t="s">
+        <v>3087</v>
+      </c>
+      <c r="J424" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="K424" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="L424" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M424" s="87" t="s">
+        <v>3181</v>
+      </c>
+      <c r="N424" s="87" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O424" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P424" s="87" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Q424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="T424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="V424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="W424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Y424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AA424" s="87" t="s">
+        <v>3229</v>
+      </c>
+      <c r="AB424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AC424" s="87" t="s">
+        <v>3230</v>
+      </c>
+      <c r="AD424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI424" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AJ424" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK424" s="87" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AL424" s="87" t="s">
+        <v>3211</v>
+      </c>
+      <c r="AM424" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN424" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO424" s="87" t="s">
+        <v>3205</v>
+      </c>
+      <c r="AP424" s="87">
+        <v>30114</v>
+      </c>
+      <c r="AQ424" s="87">
+        <v>30114</v>
+      </c>
+      <c r="AR424" s="87" t="s">
+        <v>3215</v>
+      </c>
       <c r="AS424" s="87"/>
     </row>
-    <row r="425" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A425" s="87"/>
       <c r="B425" s="88">
-        <v>44663</v>
+        <v>44565</v>
       </c>
       <c r="C425" s="87">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D425" s="87" t="s">
-        <v>3347</v>
+        <v>3156</v>
       </c>
       <c r="E425" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F425" s="87" t="s">
-        <v>3348</v>
+        <v>3186</v>
       </c>
       <c r="G425" s="87" t="s">
-        <v>3349</v>
+        <v>3173</v>
       </c>
       <c r="H425" s="89" t="s">
-        <v>3346</v>
+        <v>3191</v>
       </c>
       <c r="I425" s="87" t="s">
-        <v>3331</v>
+        <v>3087</v>
       </c>
       <c r="J425" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K425" s="87" t="s">
-        <v>3350</v>
-      </c>
-      <c r="L425" s="87">
-        <v>0</v>
-      </c>
-      <c r="M425" s="87">
-        <v>0</v>
-      </c>
-      <c r="N425" s="87">
-        <v>0</v>
-      </c>
-      <c r="O425" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P425" s="87"/>
-      <c r="Q425" s="87"/>
-      <c r="R425" s="87"/>
-      <c r="S425" s="87"/>
-      <c r="T425" s="87"/>
-      <c r="U425" s="87"/>
-      <c r="V425" s="87"/>
-      <c r="W425" s="87"/>
-      <c r="X425" s="87"/>
-      <c r="Y425" s="87"/>
-      <c r="Z425" s="87"/>
-      <c r="AA425" s="87"/>
-      <c r="AB425" s="87"/>
-      <c r="AC425" s="87"/>
-      <c r="AD425" s="87"/>
-      <c r="AE425" s="87"/>
-      <c r="AF425" s="87"/>
-      <c r="AG425" s="87"/>
-      <c r="AH425" s="87"/>
-      <c r="AI425" s="87"/>
+        <v>3089</v>
+      </c>
+      <c r="L425" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M425" s="87" t="s">
+        <v>3174</v>
+      </c>
+      <c r="N425" s="87" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O425" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P425" s="87" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Q425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="T425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="V425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="W425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Y425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AA425" s="87" t="s">
+        <v>3227</v>
+      </c>
+      <c r="AB425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AC425" s="87" t="s">
+        <v>3228</v>
+      </c>
+      <c r="AD425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH425" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI425" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ425" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK425" s="87" t="s">
-        <v>3351</v>
+        <v>3175</v>
       </c>
       <c r="AL425" s="87" t="s">
-        <v>925</v>
+        <v>3210</v>
       </c>
       <c r="AM425" s="87" t="s">
         <v>925</v>
@@ -64670,85 +64793,131 @@
         <v>925</v>
       </c>
       <c r="AO425" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP425" s="87"/>
-      <c r="AQ425" s="87"/>
-      <c r="AR425" s="87"/>
+        <v>3206</v>
+      </c>
+      <c r="AP425" s="87">
+        <v>30110</v>
+      </c>
+      <c r="AQ425" s="87">
+        <v>30110</v>
+      </c>
+      <c r="AR425" s="87" t="s">
+        <v>3214</v>
+      </c>
       <c r="AS425" s="87"/>
     </row>
-    <row r="426" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="87"/>
       <c r="B426" s="88">
-        <v>44663</v>
+        <v>44565</v>
       </c>
       <c r="C426" s="87">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D426" s="87" t="s">
-        <v>3352</v>
+        <v>3165</v>
       </c>
       <c r="E426" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F426" s="87" t="s">
-        <v>3353</v>
+        <v>3188</v>
       </c>
       <c r="G426" s="87" t="s">
-        <v>3354</v>
+        <v>3178</v>
       </c>
       <c r="H426" s="89" t="s">
-        <v>3346</v>
+        <v>3191</v>
       </c>
       <c r="I426" s="87" t="s">
-        <v>3331</v>
+        <v>3087</v>
       </c>
       <c r="J426" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K426" s="87" t="s">
-        <v>3350</v>
-      </c>
-      <c r="L426" s="87">
-        <v>0</v>
-      </c>
-      <c r="M426" s="87">
-        <v>0</v>
-      </c>
-      <c r="N426" s="87">
-        <v>0</v>
-      </c>
-      <c r="O426" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P426" s="87"/>
-      <c r="Q426" s="87"/>
-      <c r="R426" s="87"/>
-      <c r="S426" s="87"/>
-      <c r="T426" s="87"/>
-      <c r="U426" s="87"/>
-      <c r="V426" s="87"/>
-      <c r="W426" s="87"/>
-      <c r="X426" s="87"/>
-      <c r="Y426" s="87"/>
-      <c r="Z426" s="87"/>
-      <c r="AA426" s="87"/>
-      <c r="AB426" s="87"/>
-      <c r="AC426" s="87"/>
-      <c r="AD426" s="87"/>
-      <c r="AE426" s="87"/>
-      <c r="AF426" s="87"/>
-      <c r="AG426" s="87"/>
-      <c r="AH426" s="87"/>
-      <c r="AI426" s="87"/>
+        <v>3089</v>
+      </c>
+      <c r="L426" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M426" s="87" t="s">
+        <v>3174</v>
+      </c>
+      <c r="N426" s="87" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O426" s="87">
+        <v>70015</v>
+      </c>
+      <c r="P426" s="87" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Q426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="T426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="V426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="W426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Y426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AA426" s="87" t="s">
+        <v>3223</v>
+      </c>
+      <c r="AB426" s="87" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AC426" s="87" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AD426" s="87" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AE426" s="87" t="s">
+        <v>3221</v>
+      </c>
+      <c r="AF426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG426" s="87" t="s">
+        <v>3222</v>
+      </c>
+      <c r="AH426" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI426" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ426" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK426" s="87" t="s">
-        <v>3355</v>
+        <v>3179</v>
       </c>
       <c r="AL426" s="87" t="s">
-        <v>925</v>
+        <v>3192</v>
       </c>
       <c r="AM426" s="87" t="s">
         <v>925</v>
@@ -64757,50 +64926,56 @@
         <v>925</v>
       </c>
       <c r="AO426" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP426" s="87"/>
-      <c r="AQ426" s="87"/>
-      <c r="AR426" s="87"/>
+        <v>3203</v>
+      </c>
+      <c r="AP426" s="87">
+        <v>30108</v>
+      </c>
+      <c r="AQ426" s="87">
+        <v>30108</v>
+      </c>
+      <c r="AR426" s="87" t="s">
+        <v>3213</v>
+      </c>
       <c r="AS426" s="87"/>
     </row>
-    <row r="427" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A427" s="87"/>
       <c r="B427" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C427" s="87">
         <v>0</v>
       </c>
       <c r="D427" s="87" t="s">
-        <v>3356</v>
+        <v>3421</v>
       </c>
       <c r="E427" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F427" s="87" t="s">
-        <v>3357</v>
+        <v>3422</v>
       </c>
       <c r="G427" s="87" t="s">
-        <v>3358</v>
+        <v>3423</v>
       </c>
       <c r="H427" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I427" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J427" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K427" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L427" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M427" s="87">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="N427" s="87">
         <v>0</v>
@@ -64829,10 +65004,10 @@
       <c r="AH427" s="87"/>
       <c r="AI427" s="87"/>
       <c r="AJ427" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK427" s="87" t="s">
-        <v>3359</v>
+        <v>3424</v>
       </c>
       <c r="AL427" s="87" t="s">
         <v>925</v>
@@ -64851,43 +65026,43 @@
       <c r="AR427" s="87"/>
       <c r="AS427" s="87"/>
     </row>
-    <row r="428" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A428" s="87"/>
       <c r="B428" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C428" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D428" s="87" t="s">
-        <v>3360</v>
+        <v>3427</v>
       </c>
       <c r="E428" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F428" s="87" t="s">
-        <v>3380</v>
+        <v>3428</v>
       </c>
       <c r="G428" s="87" t="s">
-        <v>3362</v>
+        <v>3429</v>
       </c>
       <c r="H428" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I428" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J428" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K428" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L428" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M428" s="87">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="N428" s="87">
         <v>0</v>
@@ -64916,10 +65091,10 @@
       <c r="AH428" s="87"/>
       <c r="AI428" s="87"/>
       <c r="AJ428" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK428" s="87" t="s">
-        <v>3363</v>
+        <v>3430</v>
       </c>
       <c r="AL428" s="87" t="s">
         <v>925</v>
@@ -64938,45 +65113,43 @@
       <c r="AR428" s="87"/>
       <c r="AS428" s="87"/>
     </row>
-    <row r="429" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="87" t="s">
-        <v>3371</v>
-      </c>
+    <row r="429" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="87"/>
       <c r="B429" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C429" s="87">
         <v>0</v>
       </c>
       <c r="D429" s="87" t="s">
-        <v>3360</v>
+        <v>3433</v>
       </c>
       <c r="E429" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F429" s="87" t="s">
-        <v>3361</v>
+        <v>3434</v>
       </c>
       <c r="G429" s="87" t="s">
-        <v>3362</v>
+        <v>3435</v>
       </c>
       <c r="H429" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I429" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J429" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K429" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L429" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M429" s="87">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="N429" s="87">
         <v>0</v>
@@ -65005,10 +65178,10 @@
       <c r="AH429" s="87"/>
       <c r="AI429" s="87"/>
       <c r="AJ429" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK429" s="87" t="s">
-        <v>3363</v>
+        <v>3436</v>
       </c>
       <c r="AL429" s="87" t="s">
         <v>925</v>
@@ -65027,45 +65200,43 @@
       <c r="AR429" s="87"/>
       <c r="AS429" s="87"/>
     </row>
-    <row r="430" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="87" t="s">
-        <v>3371</v>
-      </c>
+    <row r="430" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="87"/>
       <c r="B430" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C430" s="87">
         <v>0</v>
       </c>
       <c r="D430" s="87" t="s">
-        <v>3360</v>
+        <v>3415</v>
       </c>
       <c r="E430" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F430" s="87" t="s">
-        <v>3361</v>
+        <v>3416</v>
       </c>
       <c r="G430" s="87" t="s">
-        <v>3362</v>
+        <v>3417</v>
       </c>
       <c r="H430" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I430" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J430" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K430" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L430" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M430" s="87">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="N430" s="87">
         <v>0</v>
@@ -65094,10 +65265,10 @@
       <c r="AH430" s="87"/>
       <c r="AI430" s="87"/>
       <c r="AJ430" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK430" s="87" t="s">
-        <v>3363</v>
+        <v>3418</v>
       </c>
       <c r="AL430" s="87" t="s">
         <v>925</v>
@@ -65116,43 +65287,43 @@
       <c r="AR430" s="87"/>
       <c r="AS430" s="87"/>
     </row>
-    <row r="431" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A431" s="87"/>
       <c r="B431" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C431" s="87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D431" s="87" t="s">
-        <v>3360</v>
+        <v>3421</v>
       </c>
       <c r="E431" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F431" s="87" t="s">
-        <v>3381</v>
+        <v>3439</v>
       </c>
       <c r="G431" s="87" t="s">
-        <v>3364</v>
+        <v>3425</v>
       </c>
       <c r="H431" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I431" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J431" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K431" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L431" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M431" s="87">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N431" s="87">
         <v>0</v>
@@ -65181,10 +65352,10 @@
       <c r="AH431" s="87"/>
       <c r="AI431" s="87"/>
       <c r="AJ431" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK431" s="87" t="s">
-        <v>3363</v>
+        <v>3426</v>
       </c>
       <c r="AL431" s="87" t="s">
         <v>925</v>
@@ -65203,45 +65374,43 @@
       <c r="AR431" s="87"/>
       <c r="AS431" s="87"/>
     </row>
-    <row r="432" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="87" t="s">
-        <v>3371</v>
-      </c>
+    <row r="432" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="87"/>
       <c r="B432" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C432" s="87">
         <v>0</v>
       </c>
       <c r="D432" s="87" t="s">
-        <v>3360</v>
+        <v>3427</v>
       </c>
       <c r="E432" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F432" s="87" t="s">
-        <v>3361</v>
+        <v>3440</v>
       </c>
       <c r="G432" s="87" t="s">
-        <v>3364</v>
+        <v>3431</v>
       </c>
       <c r="H432" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I432" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J432" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K432" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L432" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M432" s="87">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="N432" s="87">
         <v>0</v>
@@ -65270,10 +65439,10 @@
       <c r="AH432" s="87"/>
       <c r="AI432" s="87"/>
       <c r="AJ432" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK432" s="87" t="s">
-        <v>3363</v>
+        <v>3432</v>
       </c>
       <c r="AL432" s="87" t="s">
         <v>925</v>
@@ -65292,45 +65461,43 @@
       <c r="AR432" s="87"/>
       <c r="AS432" s="87"/>
     </row>
-    <row r="433" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="87" t="s">
-        <v>3371</v>
-      </c>
+    <row r="433" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="87"/>
       <c r="B433" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C433" s="87">
         <v>0</v>
       </c>
       <c r="D433" s="87" t="s">
-        <v>3360</v>
+        <v>3433</v>
       </c>
       <c r="E433" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F433" s="87" t="s">
-        <v>3361</v>
+        <v>3441</v>
       </c>
       <c r="G433" s="87" t="s">
-        <v>3364</v>
+        <v>3437</v>
       </c>
       <c r="H433" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I433" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J433" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K433" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L433" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M433" s="87">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="N433" s="87">
         <v>0</v>
@@ -65359,10 +65526,10 @@
       <c r="AH433" s="87"/>
       <c r="AI433" s="87"/>
       <c r="AJ433" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK433" s="87" t="s">
-        <v>3363</v>
+        <v>3438</v>
       </c>
       <c r="AL433" s="87" t="s">
         <v>925</v>
@@ -65381,45 +65548,43 @@
       <c r="AR433" s="87"/>
       <c r="AS433" s="87"/>
     </row>
-    <row r="434" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="87" t="s">
-        <v>3371</v>
-      </c>
+    <row r="434" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="87"/>
       <c r="B434" s="88">
-        <v>44663</v>
+        <v>44796</v>
       </c>
       <c r="C434" s="87">
         <v>0</v>
       </c>
       <c r="D434" s="87" t="s">
-        <v>3360</v>
+        <v>3415</v>
       </c>
       <c r="E434" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F434" s="87" t="s">
-        <v>3361</v>
+        <v>3442</v>
       </c>
       <c r="G434" s="87" t="s">
-        <v>3364</v>
+        <v>3419</v>
       </c>
       <c r="H434" s="89" t="s">
-        <v>3346</v>
+        <v>3402</v>
       </c>
       <c r="I434" s="87" t="s">
-        <v>3331</v>
+        <v>3400</v>
       </c>
       <c r="J434" s="87" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="K434" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L434" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M434" s="87">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="N434" s="87">
         <v>0</v>
@@ -65448,10 +65613,10 @@
       <c r="AH434" s="87"/>
       <c r="AI434" s="87"/>
       <c r="AJ434" s="87" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AK434" s="87" t="s">
-        <v>3363</v>
+        <v>3420</v>
       </c>
       <c r="AL434" s="87" t="s">
         <v>925</v>
@@ -65470,48 +65635,46 @@
       <c r="AR434" s="87"/>
       <c r="AS434" s="87"/>
     </row>
-    <row r="435" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="87" t="s">
-        <v>3371</v>
-      </c>
+    <row r="435" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="87"/>
       <c r="B435" s="88">
-        <v>44663</v>
+        <v>44677</v>
       </c>
       <c r="C435" s="87">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D435" s="87" t="s">
-        <v>3360</v>
+        <v>3386</v>
       </c>
       <c r="E435" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F435" s="87" t="s">
-        <v>3361</v>
+        <v>3387</v>
       </c>
       <c r="G435" s="87" t="s">
-        <v>3364</v>
+        <v>3388</v>
       </c>
       <c r="H435" s="89" t="s">
-        <v>3346</v>
+        <v>3390</v>
       </c>
       <c r="I435" s="87" t="s">
         <v>3331</v>
       </c>
       <c r="J435" s="87" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="K435" s="87" t="s">
-        <v>3350</v>
+        <v>3089</v>
       </c>
       <c r="L435" s="87">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M435" s="87">
         <v>0</v>
       </c>
       <c r="N435" s="87">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="O435" s="87" t="s">
         <v>3332</v>
@@ -65537,13 +65700,13 @@
       <c r="AH435" s="87"/>
       <c r="AI435" s="87"/>
       <c r="AJ435" s="87" t="s">
-        <v>575</v>
+        <v>3323</v>
       </c>
       <c r="AK435" s="87" t="s">
-        <v>3363</v>
+        <v>3389</v>
       </c>
       <c r="AL435" s="87" t="s">
-        <v>925</v>
+        <v>3395</v>
       </c>
       <c r="AM435" s="87" t="s">
         <v>925</v>
@@ -65552,57 +65715,37 @@
         <v>925</v>
       </c>
       <c r="AO435" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP435" s="87"/>
-      <c r="AQ435" s="87"/>
-      <c r="AR435" s="87"/>
+        <v>3391</v>
+      </c>
+      <c r="AP435" s="87">
+        <v>30106</v>
+      </c>
+      <c r="AQ435" s="87">
+        <v>30106</v>
+      </c>
+      <c r="AR435" s="87" t="s">
+        <v>3393</v>
+      </c>
       <c r="AS435" s="87"/>
     </row>
-    <row r="436" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="87"/>
-      <c r="B436" s="88">
-        <v>44663</v>
-      </c>
-      <c r="C436" s="87">
-        <v>3</v>
-      </c>
-      <c r="D436" s="87" t="s">
-        <v>3365</v>
-      </c>
-      <c r="E436" s="87" t="s">
-        <v>3083</v>
-      </c>
-      <c r="F436" s="87" t="s">
-        <v>3382</v>
-      </c>
-      <c r="G436" s="87" t="s">
-        <v>3362</v>
-      </c>
-      <c r="H436" s="89" t="s">
-        <v>3346</v>
-      </c>
-      <c r="I436" s="87" t="s">
-        <v>3331</v>
-      </c>
-      <c r="J436" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="K436" s="87" t="s">
-        <v>3350</v>
-      </c>
-      <c r="L436" s="87">
-        <v>0</v>
-      </c>
-      <c r="M436" s="87">
-        <v>0</v>
-      </c>
-      <c r="N436" s="87">
-        <v>0</v>
-      </c>
-      <c r="O436" s="87" t="s">
-        <v>3332</v>
-      </c>
+    <row r="436" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A436" s="87" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B436" s="88"/>
+      <c r="C436" s="87"/>
+      <c r="D436" s="87"/>
+      <c r="E436" s="87"/>
+      <c r="F436" s="87"/>
+      <c r="G436" s="87"/>
+      <c r="H436" s="89"/>
+      <c r="I436" s="87"/>
+      <c r="J436" s="87"/>
+      <c r="K436" s="87"/>
+      <c r="L436" s="87"/>
+      <c r="M436" s="87"/>
+      <c r="N436" s="87"/>
+      <c r="O436" s="87"/>
       <c r="P436" s="87"/>
       <c r="Q436" s="87"/>
       <c r="R436" s="87"/>
@@ -65623,33 +65766,19 @@
       <c r="AG436" s="87"/>
       <c r="AH436" s="87"/>
       <c r="AI436" s="87"/>
-      <c r="AJ436" s="87" t="s">
-        <v>575</v>
-      </c>
-      <c r="AK436" s="87" t="s">
-        <v>3367</v>
-      </c>
-      <c r="AL436" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AM436" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AN436" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO436" s="87" t="s">
-        <v>925</v>
-      </c>
+      <c r="AJ436" s="87"/>
+      <c r="AK436" s="87"/>
+      <c r="AL436" s="87"/>
+      <c r="AM436" s="87"/>
+      <c r="AN436" s="87"/>
+      <c r="AO436" s="87"/>
       <c r="AP436" s="87"/>
       <c r="AQ436" s="87"/>
       <c r="AR436" s="87"/>
       <c r="AS436" s="87"/>
     </row>
     <row r="437" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="87" t="s">
-        <v>3371</v>
-      </c>
+      <c r="A437" s="87"/>
       <c r="B437" s="88">
         <v>44663</v>
       </c>
@@ -65657,16 +65786,16 @@
         <v>0</v>
       </c>
       <c r="D437" s="87" t="s">
-        <v>3365</v>
+        <v>3347</v>
       </c>
       <c r="E437" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F437" s="87" t="s">
-        <v>3366</v>
+        <v>3348</v>
       </c>
       <c r="G437" s="87" t="s">
-        <v>3362</v>
+        <v>3349</v>
       </c>
       <c r="H437" s="89" t="s">
         <v>3346</v>
@@ -65716,7 +65845,7 @@
         <v>575</v>
       </c>
       <c r="AK437" s="87" t="s">
-        <v>3367</v>
+        <v>3351</v>
       </c>
       <c r="AL437" s="87" t="s">
         <v>925</v>
@@ -65736,9 +65865,7 @@
       <c r="AS437" s="87"/>
     </row>
     <row r="438" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="87" t="s">
-        <v>3371</v>
-      </c>
+      <c r="A438" s="87"/>
       <c r="B438" s="88">
         <v>44663</v>
       </c>
@@ -65746,16 +65873,16 @@
         <v>0</v>
       </c>
       <c r="D438" s="87" t="s">
-        <v>3365</v>
+        <v>3352</v>
       </c>
       <c r="E438" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F438" s="87" t="s">
-        <v>3366</v>
+        <v>3353</v>
       </c>
       <c r="G438" s="87" t="s">
-        <v>3362</v>
+        <v>3354</v>
       </c>
       <c r="H438" s="89" t="s">
         <v>3346</v>
@@ -65805,7 +65932,7 @@
         <v>575</v>
       </c>
       <c r="AK438" s="87" t="s">
-        <v>3367</v>
+        <v>3355</v>
       </c>
       <c r="AL438" s="87" t="s">
         <v>925</v>
@@ -65830,19 +65957,19 @@
         <v>44663</v>
       </c>
       <c r="C439" s="87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D439" s="87" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="E439" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F439" s="87" t="s">
-        <v>3383</v>
+        <v>3357</v>
       </c>
       <c r="G439" s="87" t="s">
-        <v>3364</v>
+        <v>3358</v>
       </c>
       <c r="H439" s="89" t="s">
         <v>3346</v>
@@ -65892,7 +66019,7 @@
         <v>575</v>
       </c>
       <c r="AK439" s="87" t="s">
-        <v>3367</v>
+        <v>3359</v>
       </c>
       <c r="AL439" s="87" t="s">
         <v>925</v>
@@ -65912,26 +66039,24 @@
       <c r="AS439" s="87"/>
     </row>
     <row r="440" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="87" t="s">
-        <v>3371</v>
-      </c>
+      <c r="A440" s="87"/>
       <c r="B440" s="88">
         <v>44663</v>
       </c>
       <c r="C440" s="87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D440" s="87" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="E440" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F440" s="87" t="s">
-        <v>3366</v>
+        <v>3380</v>
       </c>
       <c r="G440" s="87" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="H440" s="89" t="s">
         <v>3346</v>
@@ -65981,7 +66106,7 @@
         <v>575</v>
       </c>
       <c r="AK440" s="87" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="AL440" s="87" t="s">
         <v>925</v>
@@ -66011,16 +66136,16 @@
         <v>0</v>
       </c>
       <c r="D441" s="87" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="E441" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F441" s="87" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
       <c r="G441" s="87" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="H441" s="89" t="s">
         <v>3346</v>
@@ -66070,7 +66195,7 @@
         <v>575</v>
       </c>
       <c r="AK441" s="87" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="AL441" s="87" t="s">
         <v>925</v>
@@ -66100,16 +66225,16 @@
         <v>0</v>
       </c>
       <c r="D442" s="87" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="E442" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F442" s="87" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
       <c r="G442" s="87" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="H442" s="89" t="s">
         <v>3346</v>
@@ -66159,7 +66284,7 @@
         <v>575</v>
       </c>
       <c r="AK442" s="87" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="AL442" s="87" t="s">
         <v>925</v>
@@ -66179,23 +66304,21 @@
       <c r="AS442" s="87"/>
     </row>
     <row r="443" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="87" t="s">
-        <v>3371</v>
-      </c>
+      <c r="A443" s="87"/>
       <c r="B443" s="88">
         <v>44663</v>
       </c>
       <c r="C443" s="87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D443" s="87" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="E443" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F443" s="87" t="s">
-        <v>3366</v>
+        <v>3381</v>
       </c>
       <c r="G443" s="87" t="s">
         <v>3364</v>
@@ -66248,7 +66371,7 @@
         <v>575</v>
       </c>
       <c r="AK443" s="87" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="AL443" s="87" t="s">
         <v>925</v>
@@ -66268,24 +66391,26 @@
       <c r="AS443" s="87"/>
     </row>
     <row r="444" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="87"/>
+      <c r="A444" s="87" t="s">
+        <v>3371</v>
+      </c>
       <c r="B444" s="88">
         <v>44663</v>
       </c>
       <c r="C444" s="87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D444" s="87" t="s">
-        <v>3368</v>
+        <v>3360</v>
       </c>
       <c r="E444" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F444" s="87" t="s">
-        <v>3384</v>
+        <v>3361</v>
       </c>
       <c r="G444" s="87" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="H444" s="89" t="s">
         <v>3346</v>
@@ -66335,7 +66460,7 @@
         <v>575</v>
       </c>
       <c r="AK444" s="87" t="s">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="AL444" s="87" t="s">
         <v>925</v>
@@ -66365,16 +66490,16 @@
         <v>0</v>
       </c>
       <c r="D445" s="87" t="s">
-        <v>3368</v>
+        <v>3360</v>
       </c>
       <c r="E445" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F445" s="87" t="s">
-        <v>3369</v>
+        <v>3361</v>
       </c>
       <c r="G445" s="87" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="H445" s="89" t="s">
         <v>3346</v>
@@ -66424,7 +66549,7 @@
         <v>575</v>
       </c>
       <c r="AK445" s="87" t="s">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="AL445" s="87" t="s">
         <v>925</v>
@@ -66454,16 +66579,16 @@
         <v>0</v>
       </c>
       <c r="D446" s="87" t="s">
-        <v>3368</v>
+        <v>3360</v>
       </c>
       <c r="E446" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F446" s="87" t="s">
-        <v>3369</v>
+        <v>3361</v>
       </c>
       <c r="G446" s="87" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="H446" s="89" t="s">
         <v>3346</v>
@@ -66513,7 +66638,7 @@
         <v>575</v>
       </c>
       <c r="AK446" s="87" t="s">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="AL446" s="87" t="s">
         <v>925</v>
@@ -66533,21 +66658,23 @@
       <c r="AS446" s="87"/>
     </row>
     <row r="447" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="87"/>
+      <c r="A447" s="87" t="s">
+        <v>3371</v>
+      </c>
       <c r="B447" s="88">
         <v>44663</v>
       </c>
       <c r="C447" s="87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D447" s="87" t="s">
-        <v>3368</v>
+        <v>3360</v>
       </c>
       <c r="E447" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F447" s="87" t="s">
-        <v>3385</v>
+        <v>3361</v>
       </c>
       <c r="G447" s="87" t="s">
         <v>3364</v>
@@ -66600,7 +66727,7 @@
         <v>575</v>
       </c>
       <c r="AK447" s="87" t="s">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="AL447" s="87" t="s">
         <v>925</v>
@@ -66620,26 +66747,24 @@
       <c r="AS447" s="87"/>
     </row>
     <row r="448" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="87" t="s">
-        <v>3371</v>
-      </c>
+      <c r="A448" s="87"/>
       <c r="B448" s="88">
         <v>44663</v>
       </c>
       <c r="C448" s="87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D448" s="87" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="E448" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F448" s="87" t="s">
-        <v>3369</v>
+        <v>3382</v>
       </c>
       <c r="G448" s="87" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="H448" s="89" t="s">
         <v>3346</v>
@@ -66689,7 +66814,7 @@
         <v>575</v>
       </c>
       <c r="AK448" s="87" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="AL448" s="87" t="s">
         <v>925</v>
@@ -66719,16 +66844,16 @@
         <v>0</v>
       </c>
       <c r="D449" s="87" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="E449" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F449" s="87" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="G449" s="87" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="H449" s="89" t="s">
         <v>3346</v>
@@ -66778,7 +66903,7 @@
         <v>575</v>
       </c>
       <c r="AK449" s="87" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="AL449" s="87" t="s">
         <v>925</v>
@@ -66808,16 +66933,16 @@
         <v>0</v>
       </c>
       <c r="D450" s="87" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="E450" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F450" s="87" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="G450" s="87" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="H450" s="89" t="s">
         <v>3346</v>
@@ -66867,7 +66992,7 @@
         <v>575</v>
       </c>
       <c r="AK450" s="87" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="AL450" s="87" t="s">
         <v>925</v>
@@ -66887,23 +67012,21 @@
       <c r="AS450" s="87"/>
     </row>
     <row r="451" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="87" t="s">
-        <v>3371</v>
-      </c>
+      <c r="A451" s="87"/>
       <c r="B451" s="88">
         <v>44663</v>
       </c>
       <c r="C451" s="87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D451" s="87" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="E451" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F451" s="87" t="s">
-        <v>3369</v>
+        <v>3383</v>
       </c>
       <c r="G451" s="87" t="s">
         <v>3364</v>
@@ -66956,7 +67079,7 @@
         <v>575</v>
       </c>
       <c r="AK451" s="87" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="AL451" s="87" t="s">
         <v>925</v>
@@ -66975,24 +67098,52 @@
       <c r="AR451" s="87"/>
       <c r="AS451" s="87"/>
     </row>
-    <row r="452" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A452" s="87" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B452" s="88"/>
-      <c r="C452" s="87"/>
-      <c r="D452" s="87"/>
-      <c r="E452" s="87"/>
-      <c r="F452" s="87"/>
-      <c r="G452" s="87"/>
-      <c r="H452" s="89"/>
-      <c r="I452" s="87"/>
-      <c r="J452" s="87"/>
-      <c r="K452" s="87"/>
-      <c r="L452" s="87"/>
-      <c r="M452" s="87"/>
-      <c r="N452" s="87"/>
-      <c r="O452" s="87"/>
+        <v>3371</v>
+      </c>
+      <c r="B452" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C452" s="87">
+        <v>0</v>
+      </c>
+      <c r="D452" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E452" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F452" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G452" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H452" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I452" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J452" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K452" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L452" s="87">
+        <v>0</v>
+      </c>
+      <c r="M452" s="87">
+        <v>0</v>
+      </c>
+      <c r="N452" s="87">
+        <v>0</v>
+      </c>
+      <c r="O452" s="87" t="s">
+        <v>3332</v>
+      </c>
       <c r="P452" s="87"/>
       <c r="Q452" s="87"/>
       <c r="R452" s="87"/>
@@ -67013,127 +67164,103 @@
       <c r="AG452" s="87"/>
       <c r="AH452" s="87"/>
       <c r="AI452" s="87"/>
-      <c r="AJ452" s="87"/>
-      <c r="AK452" s="87"/>
-      <c r="AL452" s="87"/>
-      <c r="AM452" s="87"/>
-      <c r="AN452" s="87"/>
-      <c r="AO452" s="87"/>
+      <c r="AJ452" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK452" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL452" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM452" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN452" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO452" s="87" t="s">
+        <v>925</v>
+      </c>
       <c r="AP452" s="87"/>
       <c r="AQ452" s="87"/>
       <c r="AR452" s="87"/>
       <c r="AS452" s="87"/>
     </row>
-    <row r="453" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A453" s="87"/>
+    <row r="453" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="87" t="s">
+        <v>3371</v>
+      </c>
       <c r="B453" s="88">
-        <v>44565</v>
+        <v>44663</v>
       </c>
       <c r="C453" s="87">
         <v>0</v>
       </c>
       <c r="D453" s="87" t="s">
-        <v>3183</v>
+        <v>3365</v>
       </c>
       <c r="E453" s="87" t="s">
         <v>3083</v>
       </c>
       <c r="F453" s="87" t="s">
-        <v>3184</v>
-      </c>
-      <c r="G453" s="87"/>
+        <v>3366</v>
+      </c>
+      <c r="G453" s="87" t="s">
+        <v>3364</v>
+      </c>
       <c r="H453" s="89" t="s">
-        <v>3191</v>
+        <v>3346</v>
       </c>
       <c r="I453" s="87" t="s">
-        <v>3087</v>
+        <v>3331</v>
       </c>
       <c r="J453" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K453" s="87" t="s">
-        <v>2931</v>
-      </c>
-      <c r="L453" s="87" t="s">
-        <v>3089</v>
-      </c>
-      <c r="M453" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="N453" s="87" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O453" s="87">
-        <v>66747</v>
-      </c>
-      <c r="P453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Q453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="R453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="S453" s="87" t="s">
-        <v>3234</v>
-      </c>
-      <c r="T453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="V453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="W453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="X453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Y453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="Z453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AA453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AB453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AC453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AD453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AE453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AF453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AG453" s="87" t="s">
-        <v>3233</v>
-      </c>
-      <c r="AH453" s="87" t="s">
-        <v>2723</v>
-      </c>
-      <c r="AI453" s="87" t="s">
-        <v>2723</v>
-      </c>
+        <v>3350</v>
+      </c>
+      <c r="L453" s="87">
+        <v>0</v>
+      </c>
+      <c r="M453" s="87">
+        <v>0</v>
+      </c>
+      <c r="N453" s="87">
+        <v>0</v>
+      </c>
+      <c r="O453" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P453" s="87"/>
+      <c r="Q453" s="87"/>
+      <c r="R453" s="87"/>
+      <c r="S453" s="87"/>
+      <c r="T453" s="87"/>
+      <c r="U453" s="87"/>
+      <c r="V453" s="87"/>
+      <c r="W453" s="87"/>
+      <c r="X453" s="87"/>
+      <c r="Y453" s="87"/>
+      <c r="Z453" s="87"/>
+      <c r="AA453" s="87"/>
+      <c r="AB453" s="87"/>
+      <c r="AC453" s="87"/>
+      <c r="AD453" s="87"/>
+      <c r="AE453" s="87"/>
+      <c r="AF453" s="87"/>
+      <c r="AG453" s="87"/>
+      <c r="AH453" s="87"/>
+      <c r="AI453" s="87"/>
       <c r="AJ453" s="87" t="s">
-        <v>1360</v>
+        <v>575</v>
       </c>
       <c r="AK453" s="87" t="s">
-        <v>3185</v>
+        <v>3367</v>
       </c>
       <c r="AL453" s="87" t="s">
-        <v>3251</v>
+        <v>925</v>
       </c>
       <c r="AM453" s="87" t="s">
         <v>925</v>
@@ -67144,35 +67271,57 @@
       <c r="AO453" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP453" s="87">
-        <v>55009</v>
-      </c>
-      <c r="AQ453" s="87">
-        <v>55009</v>
-      </c>
-      <c r="AR453" s="87" t="s">
-        <v>3235</v>
-      </c>
+      <c r="AP453" s="87"/>
+      <c r="AQ453" s="87"/>
+      <c r="AR453" s="87"/>
       <c r="AS453" s="87"/>
     </row>
-    <row r="454" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A454" s="87" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B454" s="88"/>
-      <c r="C454" s="87"/>
-      <c r="D454" s="87"/>
-      <c r="E454" s="87"/>
-      <c r="F454" s="87"/>
-      <c r="G454" s="87"/>
-      <c r="H454" s="89"/>
-      <c r="I454" s="87"/>
-      <c r="J454" s="87"/>
-      <c r="K454" s="87"/>
-      <c r="L454" s="87"/>
-      <c r="M454" s="87"/>
-      <c r="N454" s="87"/>
-      <c r="O454" s="87"/>
+        <v>3371</v>
+      </c>
+      <c r="B454" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C454" s="87">
+        <v>0</v>
+      </c>
+      <c r="D454" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E454" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F454" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G454" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H454" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I454" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J454" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K454" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L454" s="87">
+        <v>0</v>
+      </c>
+      <c r="M454" s="87">
+        <v>0</v>
+      </c>
+      <c r="N454" s="87">
+        <v>0</v>
+      </c>
+      <c r="O454" s="87" t="s">
+        <v>3332</v>
+      </c>
       <c r="P454" s="87"/>
       <c r="Q454" s="87"/>
       <c r="R454" s="87"/>
@@ -67193,71 +67342,1109 @@
       <c r="AG454" s="87"/>
       <c r="AH454" s="87"/>
       <c r="AI454" s="87"/>
-      <c r="AJ454" s="87"/>
-      <c r="AK454" s="87"/>
-      <c r="AL454" s="87"/>
-      <c r="AM454" s="87"/>
-      <c r="AN454" s="87"/>
-      <c r="AO454" s="87"/>
+      <c r="AJ454" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK454" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL454" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM454" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN454" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO454" s="87" t="s">
+        <v>925</v>
+      </c>
       <c r="AP454" s="87"/>
       <c r="AQ454" s="87"/>
       <c r="AR454" s="87"/>
       <c r="AS454" s="87"/>
     </row>
-    <row r="455" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A455" s="56" t="s">
+    <row r="455" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B455" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C455" s="87">
+        <v>0</v>
+      </c>
+      <c r="D455" s="87" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E455" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F455" s="87" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G455" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H455" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I455" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J455" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K455" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L455" s="87">
+        <v>0</v>
+      </c>
+      <c r="M455" s="87">
+        <v>0</v>
+      </c>
+      <c r="N455" s="87">
+        <v>0</v>
+      </c>
+      <c r="O455" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P455" s="87"/>
+      <c r="Q455" s="87"/>
+      <c r="R455" s="87"/>
+      <c r="S455" s="87"/>
+      <c r="T455" s="87"/>
+      <c r="U455" s="87"/>
+      <c r="V455" s="87"/>
+      <c r="W455" s="87"/>
+      <c r="X455" s="87"/>
+      <c r="Y455" s="87"/>
+      <c r="Z455" s="87"/>
+      <c r="AA455" s="87"/>
+      <c r="AB455" s="87"/>
+      <c r="AC455" s="87"/>
+      <c r="AD455" s="87"/>
+      <c r="AE455" s="87"/>
+      <c r="AF455" s="87"/>
+      <c r="AG455" s="87"/>
+      <c r="AH455" s="87"/>
+      <c r="AI455" s="87"/>
+      <c r="AJ455" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK455" s="87" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AL455" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM455" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN455" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO455" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP455" s="87"/>
+      <c r="AQ455" s="87"/>
+      <c r="AR455" s="87"/>
+      <c r="AS455" s="87"/>
+    </row>
+    <row r="456" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="87"/>
+      <c r="B456" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C456" s="87">
+        <v>5</v>
+      </c>
+      <c r="D456" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E456" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F456" s="87" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G456" s="87" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H456" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I456" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J456" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K456" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L456" s="87">
+        <v>0</v>
+      </c>
+      <c r="M456" s="87">
+        <v>0</v>
+      </c>
+      <c r="N456" s="87">
+        <v>0</v>
+      </c>
+      <c r="O456" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P456" s="87"/>
+      <c r="Q456" s="87"/>
+      <c r="R456" s="87"/>
+      <c r="S456" s="87"/>
+      <c r="T456" s="87"/>
+      <c r="U456" s="87"/>
+      <c r="V456" s="87"/>
+      <c r="W456" s="87"/>
+      <c r="X456" s="87"/>
+      <c r="Y456" s="87"/>
+      <c r="Z456" s="87"/>
+      <c r="AA456" s="87"/>
+      <c r="AB456" s="87"/>
+      <c r="AC456" s="87"/>
+      <c r="AD456" s="87"/>
+      <c r="AE456" s="87"/>
+      <c r="AF456" s="87"/>
+      <c r="AG456" s="87"/>
+      <c r="AH456" s="87"/>
+      <c r="AI456" s="87"/>
+      <c r="AJ456" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK456" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL456" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM456" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN456" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO456" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP456" s="87"/>
+      <c r="AQ456" s="87"/>
+      <c r="AR456" s="87"/>
+      <c r="AS456" s="87"/>
+    </row>
+    <row r="457" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B457" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C457" s="87">
+        <v>0</v>
+      </c>
+      <c r="D457" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E457" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F457" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G457" s="87" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H457" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I457" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J457" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K457" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L457" s="87">
+        <v>0</v>
+      </c>
+      <c r="M457" s="87">
+        <v>0</v>
+      </c>
+      <c r="N457" s="87">
+        <v>0</v>
+      </c>
+      <c r="O457" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P457" s="87"/>
+      <c r="Q457" s="87"/>
+      <c r="R457" s="87"/>
+      <c r="S457" s="87"/>
+      <c r="T457" s="87"/>
+      <c r="U457" s="87"/>
+      <c r="V457" s="87"/>
+      <c r="W457" s="87"/>
+      <c r="X457" s="87"/>
+      <c r="Y457" s="87"/>
+      <c r="Z457" s="87"/>
+      <c r="AA457" s="87"/>
+      <c r="AB457" s="87"/>
+      <c r="AC457" s="87"/>
+      <c r="AD457" s="87"/>
+      <c r="AE457" s="87"/>
+      <c r="AF457" s="87"/>
+      <c r="AG457" s="87"/>
+      <c r="AH457" s="87"/>
+      <c r="AI457" s="87"/>
+      <c r="AJ457" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK457" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL457" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM457" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN457" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO457" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP457" s="87"/>
+      <c r="AQ457" s="87"/>
+      <c r="AR457" s="87"/>
+      <c r="AS457" s="87"/>
+    </row>
+    <row r="458" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B458" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C458" s="87">
+        <v>0</v>
+      </c>
+      <c r="D458" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E458" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F458" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G458" s="87" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H458" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I458" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J458" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K458" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L458" s="87">
+        <v>0</v>
+      </c>
+      <c r="M458" s="87">
+        <v>0</v>
+      </c>
+      <c r="N458" s="87">
+        <v>0</v>
+      </c>
+      <c r="O458" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P458" s="87"/>
+      <c r="Q458" s="87"/>
+      <c r="R458" s="87"/>
+      <c r="S458" s="87"/>
+      <c r="T458" s="87"/>
+      <c r="U458" s="87"/>
+      <c r="V458" s="87"/>
+      <c r="W458" s="87"/>
+      <c r="X458" s="87"/>
+      <c r="Y458" s="87"/>
+      <c r="Z458" s="87"/>
+      <c r="AA458" s="87"/>
+      <c r="AB458" s="87"/>
+      <c r="AC458" s="87"/>
+      <c r="AD458" s="87"/>
+      <c r="AE458" s="87"/>
+      <c r="AF458" s="87"/>
+      <c r="AG458" s="87"/>
+      <c r="AH458" s="87"/>
+      <c r="AI458" s="87"/>
+      <c r="AJ458" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK458" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL458" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM458" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN458" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO458" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP458" s="87"/>
+      <c r="AQ458" s="87"/>
+      <c r="AR458" s="87"/>
+      <c r="AS458" s="87"/>
+    </row>
+    <row r="459" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="87"/>
+      <c r="B459" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C459" s="87">
+        <v>6</v>
+      </c>
+      <c r="D459" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E459" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F459" s="87" t="s">
+        <v>3385</v>
+      </c>
+      <c r="G459" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H459" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I459" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J459" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K459" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L459" s="87">
+        <v>0</v>
+      </c>
+      <c r="M459" s="87">
+        <v>0</v>
+      </c>
+      <c r="N459" s="87">
+        <v>0</v>
+      </c>
+      <c r="O459" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P459" s="87"/>
+      <c r="Q459" s="87"/>
+      <c r="R459" s="87"/>
+      <c r="S459" s="87"/>
+      <c r="T459" s="87"/>
+      <c r="U459" s="87"/>
+      <c r="V459" s="87"/>
+      <c r="W459" s="87"/>
+      <c r="X459" s="87"/>
+      <c r="Y459" s="87"/>
+      <c r="Z459" s="87"/>
+      <c r="AA459" s="87"/>
+      <c r="AB459" s="87"/>
+      <c r="AC459" s="87"/>
+      <c r="AD459" s="87"/>
+      <c r="AE459" s="87"/>
+      <c r="AF459" s="87"/>
+      <c r="AG459" s="87"/>
+      <c r="AH459" s="87"/>
+      <c r="AI459" s="87"/>
+      <c r="AJ459" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK459" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL459" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM459" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN459" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO459" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP459" s="87"/>
+      <c r="AQ459" s="87"/>
+      <c r="AR459" s="87"/>
+      <c r="AS459" s="87"/>
+    </row>
+    <row r="460" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B460" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C460" s="87">
+        <v>0</v>
+      </c>
+      <c r="D460" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E460" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F460" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G460" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H460" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I460" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J460" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K460" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L460" s="87">
+        <v>0</v>
+      </c>
+      <c r="M460" s="87">
+        <v>0</v>
+      </c>
+      <c r="N460" s="87">
+        <v>0</v>
+      </c>
+      <c r="O460" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P460" s="87"/>
+      <c r="Q460" s="87"/>
+      <c r="R460" s="87"/>
+      <c r="S460" s="87"/>
+      <c r="T460" s="87"/>
+      <c r="U460" s="87"/>
+      <c r="V460" s="87"/>
+      <c r="W460" s="87"/>
+      <c r="X460" s="87"/>
+      <c r="Y460" s="87"/>
+      <c r="Z460" s="87"/>
+      <c r="AA460" s="87"/>
+      <c r="AB460" s="87"/>
+      <c r="AC460" s="87"/>
+      <c r="AD460" s="87"/>
+      <c r="AE460" s="87"/>
+      <c r="AF460" s="87"/>
+      <c r="AG460" s="87"/>
+      <c r="AH460" s="87"/>
+      <c r="AI460" s="87"/>
+      <c r="AJ460" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK460" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL460" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM460" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN460" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO460" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP460" s="87"/>
+      <c r="AQ460" s="87"/>
+      <c r="AR460" s="87"/>
+      <c r="AS460" s="87"/>
+    </row>
+    <row r="461" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B461" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C461" s="87">
+        <v>0</v>
+      </c>
+      <c r="D461" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E461" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F461" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G461" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H461" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I461" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J461" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K461" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L461" s="87">
+        <v>0</v>
+      </c>
+      <c r="M461" s="87">
+        <v>0</v>
+      </c>
+      <c r="N461" s="87">
+        <v>0</v>
+      </c>
+      <c r="O461" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P461" s="87"/>
+      <c r="Q461" s="87"/>
+      <c r="R461" s="87"/>
+      <c r="S461" s="87"/>
+      <c r="T461" s="87"/>
+      <c r="U461" s="87"/>
+      <c r="V461" s="87"/>
+      <c r="W461" s="87"/>
+      <c r="X461" s="87"/>
+      <c r="Y461" s="87"/>
+      <c r="Z461" s="87"/>
+      <c r="AA461" s="87"/>
+      <c r="AB461" s="87"/>
+      <c r="AC461" s="87"/>
+      <c r="AD461" s="87"/>
+      <c r="AE461" s="87"/>
+      <c r="AF461" s="87"/>
+      <c r="AG461" s="87"/>
+      <c r="AH461" s="87"/>
+      <c r="AI461" s="87"/>
+      <c r="AJ461" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK461" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL461" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM461" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN461" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO461" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP461" s="87"/>
+      <c r="AQ461" s="87"/>
+      <c r="AR461" s="87"/>
+      <c r="AS461" s="87"/>
+    </row>
+    <row r="462" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B462" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C462" s="87">
+        <v>0</v>
+      </c>
+      <c r="D462" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E462" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F462" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G462" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H462" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I462" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J462" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K462" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L462" s="87">
+        <v>0</v>
+      </c>
+      <c r="M462" s="87">
+        <v>0</v>
+      </c>
+      <c r="N462" s="87">
+        <v>0</v>
+      </c>
+      <c r="O462" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P462" s="87"/>
+      <c r="Q462" s="87"/>
+      <c r="R462" s="87"/>
+      <c r="S462" s="87"/>
+      <c r="T462" s="87"/>
+      <c r="U462" s="87"/>
+      <c r="V462" s="87"/>
+      <c r="W462" s="87"/>
+      <c r="X462" s="87"/>
+      <c r="Y462" s="87"/>
+      <c r="Z462" s="87"/>
+      <c r="AA462" s="87"/>
+      <c r="AB462" s="87"/>
+      <c r="AC462" s="87"/>
+      <c r="AD462" s="87"/>
+      <c r="AE462" s="87"/>
+      <c r="AF462" s="87"/>
+      <c r="AG462" s="87"/>
+      <c r="AH462" s="87"/>
+      <c r="AI462" s="87"/>
+      <c r="AJ462" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK462" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL462" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM462" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN462" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO462" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP462" s="87"/>
+      <c r="AQ462" s="87"/>
+      <c r="AR462" s="87"/>
+      <c r="AS462" s="87"/>
+    </row>
+    <row r="463" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="87" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B463" s="88">
+        <v>44663</v>
+      </c>
+      <c r="C463" s="87">
+        <v>0</v>
+      </c>
+      <c r="D463" s="87" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E463" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F463" s="87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G463" s="87" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H463" s="89" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I463" s="87" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J463" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K463" s="87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L463" s="87">
+        <v>0</v>
+      </c>
+      <c r="M463" s="87">
+        <v>0</v>
+      </c>
+      <c r="N463" s="87">
+        <v>0</v>
+      </c>
+      <c r="O463" s="87" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P463" s="87"/>
+      <c r="Q463" s="87"/>
+      <c r="R463" s="87"/>
+      <c r="S463" s="87"/>
+      <c r="T463" s="87"/>
+      <c r="U463" s="87"/>
+      <c r="V463" s="87"/>
+      <c r="W463" s="87"/>
+      <c r="X463" s="87"/>
+      <c r="Y463" s="87"/>
+      <c r="Z463" s="87"/>
+      <c r="AA463" s="87"/>
+      <c r="AB463" s="87"/>
+      <c r="AC463" s="87"/>
+      <c r="AD463" s="87"/>
+      <c r="AE463" s="87"/>
+      <c r="AF463" s="87"/>
+      <c r="AG463" s="87"/>
+      <c r="AH463" s="87"/>
+      <c r="AI463" s="87"/>
+      <c r="AJ463" s="87" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK463" s="87" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AL463" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM463" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN463" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO463" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP463" s="87"/>
+      <c r="AQ463" s="87"/>
+      <c r="AR463" s="87"/>
+      <c r="AS463" s="87"/>
+    </row>
+    <row r="464" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="87" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B464" s="88"/>
+      <c r="C464" s="87"/>
+      <c r="D464" s="87"/>
+      <c r="E464" s="87"/>
+      <c r="F464" s="87"/>
+      <c r="G464" s="87"/>
+      <c r="H464" s="89"/>
+      <c r="I464" s="87"/>
+      <c r="J464" s="87"/>
+      <c r="K464" s="87"/>
+      <c r="L464" s="87"/>
+      <c r="M464" s="87"/>
+      <c r="N464" s="87"/>
+      <c r="O464" s="87"/>
+      <c r="P464" s="87"/>
+      <c r="Q464" s="87"/>
+      <c r="R464" s="87"/>
+      <c r="S464" s="87"/>
+      <c r="T464" s="87"/>
+      <c r="U464" s="87"/>
+      <c r="V464" s="87"/>
+      <c r="W464" s="87"/>
+      <c r="X464" s="87"/>
+      <c r="Y464" s="87"/>
+      <c r="Z464" s="87"/>
+      <c r="AA464" s="87"/>
+      <c r="AB464" s="87"/>
+      <c r="AC464" s="87"/>
+      <c r="AD464" s="87"/>
+      <c r="AE464" s="87"/>
+      <c r="AF464" s="87"/>
+      <c r="AG464" s="87"/>
+      <c r="AH464" s="87"/>
+      <c r="AI464" s="87"/>
+      <c r="AJ464" s="87"/>
+      <c r="AK464" s="87"/>
+      <c r="AL464" s="87"/>
+      <c r="AM464" s="87"/>
+      <c r="AN464" s="87"/>
+      <c r="AO464" s="87"/>
+      <c r="AP464" s="87"/>
+      <c r="AQ464" s="87"/>
+      <c r="AR464" s="87"/>
+      <c r="AS464" s="87"/>
+    </row>
+    <row r="465" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A465" s="87"/>
+      <c r="B465" s="88">
+        <v>44565</v>
+      </c>
+      <c r="C465" s="87">
+        <v>0</v>
+      </c>
+      <c r="D465" s="87" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E465" s="87" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F465" s="87" t="s">
+        <v>3184</v>
+      </c>
+      <c r="G465" s="87"/>
+      <c r="H465" s="89" t="s">
+        <v>3191</v>
+      </c>
+      <c r="I465" s="87" t="s">
+        <v>3087</v>
+      </c>
+      <c r="J465" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K465" s="87" t="s">
+        <v>2931</v>
+      </c>
+      <c r="L465" s="87" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M465" s="87" t="s">
+        <v>1930</v>
+      </c>
+      <c r="N465" s="87" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O465" s="87">
+        <v>66747</v>
+      </c>
+      <c r="P465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Q465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S465" s="87" t="s">
+        <v>3234</v>
+      </c>
+      <c r="T465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="V465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="W465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Y465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AA465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AB465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AC465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AD465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG465" s="87" t="s">
+        <v>3233</v>
+      </c>
+      <c r="AH465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI465" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AJ465" s="87" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AK465" s="87" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AL465" s="87" t="s">
+        <v>3251</v>
+      </c>
+      <c r="AM465" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AN465" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO465" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP465" s="87">
+        <v>55009</v>
+      </c>
+      <c r="AQ465" s="87">
+        <v>55009</v>
+      </c>
+      <c r="AR465" s="87" t="s">
+        <v>3235</v>
+      </c>
+      <c r="AS465" s="87"/>
+    </row>
+    <row r="466" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A466" s="87" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B466" s="88"/>
+      <c r="C466" s="87"/>
+      <c r="D466" s="87"/>
+      <c r="E466" s="87"/>
+      <c r="F466" s="87"/>
+      <c r="G466" s="87"/>
+      <c r="H466" s="89"/>
+      <c r="I466" s="87"/>
+      <c r="J466" s="87"/>
+      <c r="K466" s="87"/>
+      <c r="L466" s="87"/>
+      <c r="M466" s="87"/>
+      <c r="N466" s="87"/>
+      <c r="O466" s="87"/>
+      <c r="P466" s="87"/>
+      <c r="Q466" s="87"/>
+      <c r="R466" s="87"/>
+      <c r="S466" s="87"/>
+      <c r="T466" s="87"/>
+      <c r="U466" s="87"/>
+      <c r="V466" s="87"/>
+      <c r="W466" s="87"/>
+      <c r="X466" s="87"/>
+      <c r="Y466" s="87"/>
+      <c r="Z466" s="87"/>
+      <c r="AA466" s="87"/>
+      <c r="AB466" s="87"/>
+      <c r="AC466" s="87"/>
+      <c r="AD466" s="87"/>
+      <c r="AE466" s="87"/>
+      <c r="AF466" s="87"/>
+      <c r="AG466" s="87"/>
+      <c r="AH466" s="87"/>
+      <c r="AI466" s="87"/>
+      <c r="AJ466" s="87"/>
+      <c r="AK466" s="87"/>
+      <c r="AL466" s="87"/>
+      <c r="AM466" s="87"/>
+      <c r="AN466" s="87"/>
+      <c r="AO466" s="87"/>
+      <c r="AP466" s="87"/>
+      <c r="AQ466" s="87"/>
+      <c r="AR466" s="87"/>
+      <c r="AS466" s="87"/>
+    </row>
+    <row r="467" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A467" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="B455" s="57"/>
-      <c r="C455" s="56"/>
-      <c r="D455" s="85"/>
-      <c r="E455" s="56"/>
-      <c r="F455" s="56"/>
-      <c r="G455" s="56"/>
-      <c r="H455" s="58"/>
-      <c r="I455" s="56"/>
-      <c r="J455" s="56"/>
-      <c r="K455" s="56"/>
-      <c r="L455" s="56"/>
-      <c r="M455" s="56"/>
-      <c r="N455" s="56"/>
-      <c r="O455" s="56"/>
-      <c r="P455" s="56"/>
-      <c r="Q455" s="56"/>
-      <c r="R455" s="56"/>
-      <c r="S455" s="56"/>
-      <c r="T455" s="56"/>
-      <c r="U455" s="56"/>
-      <c r="V455" s="56"/>
-      <c r="W455" s="56"/>
-      <c r="X455" s="56"/>
-      <c r="Y455" s="56"/>
-      <c r="Z455" s="56"/>
-      <c r="AA455" s="56"/>
-      <c r="AB455" s="56"/>
-      <c r="AC455" s="56"/>
-      <c r="AD455" s="56"/>
-      <c r="AE455" s="56"/>
-      <c r="AF455" s="56"/>
-      <c r="AG455" s="56"/>
-      <c r="AH455" s="56"/>
-      <c r="AI455" s="56"/>
-      <c r="AJ455" s="56"/>
-      <c r="AK455" s="56"/>
-      <c r="AL455" s="56"/>
-      <c r="AM455" s="56"/>
-      <c r="AN455" s="56"/>
-      <c r="AO455" s="56"/>
-      <c r="AP455" s="56"/>
-      <c r="AQ455" s="56"/>
-      <c r="AR455" s="56"/>
-      <c r="AS455" s="56"/>
+      <c r="B467" s="57"/>
+      <c r="C467" s="56"/>
+      <c r="D467" s="85"/>
+      <c r="E467" s="56"/>
+      <c r="F467" s="56"/>
+      <c r="G467" s="56"/>
+      <c r="H467" s="58"/>
+      <c r="I467" s="56"/>
+      <c r="J467" s="56"/>
+      <c r="K467" s="56"/>
+      <c r="L467" s="56"/>
+      <c r="M467" s="56"/>
+      <c r="N467" s="56"/>
+      <c r="O467" s="56"/>
+      <c r="P467" s="56"/>
+      <c r="Q467" s="56"/>
+      <c r="R467" s="56"/>
+      <c r="S467" s="56"/>
+      <c r="T467" s="56"/>
+      <c r="U467" s="56"/>
+      <c r="V467" s="56"/>
+      <c r="W467" s="56"/>
+      <c r="X467" s="56"/>
+      <c r="Y467" s="56"/>
+      <c r="Z467" s="56"/>
+      <c r="AA467" s="56"/>
+      <c r="AB467" s="56"/>
+      <c r="AC467" s="56"/>
+      <c r="AD467" s="56"/>
+      <c r="AE467" s="56"/>
+      <c r="AF467" s="56"/>
+      <c r="AG467" s="56"/>
+      <c r="AH467" s="56"/>
+      <c r="AI467" s="56"/>
+      <c r="AJ467" s="56"/>
+      <c r="AK467" s="56"/>
+      <c r="AL467" s="56"/>
+      <c r="AM467" s="56"/>
+      <c r="AN467" s="56"/>
+      <c r="AO467" s="56"/>
+      <c r="AP467" s="56"/>
+      <c r="AQ467" s="56"/>
+      <c r="AR467" s="56"/>
+      <c r="AS467" s="56"/>
     </row>
-    <row r="456" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="H456" s="90"/>
+    <row r="468" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="H468" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS455" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
+  <autoFilter ref="A1:AS467" xr:uid="{A6EE1CE3-DC85-4AC8-ADB1-E8F1B02F8C62}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F281">
     <cfRule type="duplicateValues" dxfId="33" priority="41"/>
@@ -67337,10 +68524,10 @@
   <conditionalFormatting sqref="O381">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F395:F422 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192 F424:F1048576">
+  <conditionalFormatting sqref="F436:F1048576 F395:F434 F1 F327 F3:F85 F101:F162 F195:F280 F282:F283 F314:F321 F183:F192">
     <cfRule type="duplicateValues" dxfId="7" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O341 O346:O368 O370:O377 O385:O422 O424:O1048576">
+  <conditionalFormatting sqref="O436:O1048576 O1:O341 O346:O368 O370:O377 O385:O434">
     <cfRule type="duplicateValues" dxfId="6" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O345">
@@ -67355,10 +68542,10 @@
   <conditionalFormatting sqref="O344">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F423">
+  <conditionalFormatting sqref="F435">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O423">
+  <conditionalFormatting sqref="O435">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DF511-9EC6-4558-9694-018CB61436FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E093BD6-8D66-46C5-B774-AB803DF3EF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
@@ -11471,18 +11471,18 @@
   <dimension ref="A1:AS468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="46.5703125" style="86" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="46.5703125" style="86" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="47.85546875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
@@ -11663,7 +11663,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3443</v>
       </c>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="AS2" s="6"/>
     </row>
-    <row r="3" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>41513</v>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="AS3" s="6"/>
     </row>
-    <row r="4" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>41513</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>41513</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>41513</v>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="AS6" s="6"/>
     </row>
-    <row r="7" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>41513</v>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="AS7" s="6"/>
     </row>
-    <row r="8" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>41513</v>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="AS8" s="6"/>
     </row>
-    <row r="9" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>41513</v>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="AS9" s="6"/>
     </row>
-    <row r="10" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>41513</v>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>41513</v>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="AS11" s="6"/>
     </row>
-    <row r="12" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>41513</v>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="AS12" s="6"/>
     </row>
-    <row r="13" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>41513</v>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="AS13" s="6"/>
     </row>
-    <row r="14" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>41513</v>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="AS14" s="6"/>
     </row>
-    <row r="15" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>41513</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="AS15" s="6"/>
     </row>
-    <row r="16" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>41513</v>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="AS16" s="6"/>
     </row>
-    <row r="17" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>41513</v>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="AS17" s="6"/>
     </row>
-    <row r="18" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>41625</v>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="AS18" s="6"/>
     </row>
-    <row r="19" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7">
         <v>41625</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="AS19" s="6"/>
     </row>
-    <row r="20" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7">
         <v>41625</v>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="AS20" s="6"/>
     </row>
-    <row r="21" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>41625</v>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="AS21" s="6"/>
     </row>
-    <row r="22" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>41753</v>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="AS22" s="6"/>
     </row>
-    <row r="23" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>41753</v>
@@ -14589,7 +14589,7 @@
       </c>
       <c r="AS23" s="6"/>
     </row>
-    <row r="24" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>41753</v>
@@ -14722,7 +14722,7 @@
       </c>
       <c r="AS24" s="6"/>
     </row>
-    <row r="25" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
         <v>41828</v>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="AS25" s="6"/>
     </row>
-    <row r="26" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>41828</v>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="AS26" s="6"/>
     </row>
-    <row r="27" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>41828</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="AS27" s="6"/>
     </row>
-    <row r="28" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>41940</v>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="AS28" s="6"/>
     </row>
-    <row r="29" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7">
         <v>41940</v>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="AS29" s="6"/>
     </row>
-    <row r="30" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7">
         <v>41940</v>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="AS30" s="6"/>
     </row>
-    <row r="31" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>42024</v>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="AS31" s="6"/>
     </row>
-    <row r="32" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>42024</v>
@@ -15786,7 +15786,7 @@
       </c>
       <c r="AS32" s="6"/>
     </row>
-    <row r="33" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
         <v>42024</v>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="AS33" s="6"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>766</v>
       </c>
@@ -15968,7 +15968,7 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
     </row>
-    <row r="35" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7">
         <v>41513</v>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="AS35" s="6"/>
     </row>
-    <row r="36" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>41513</v>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="AS36" s="6"/>
     </row>
-    <row r="37" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7">
         <v>41513</v>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="AS37" s="6"/>
     </row>
-    <row r="38" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>41513</v>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="AS38" s="6"/>
     </row>
-    <row r="39" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7">
         <v>41513</v>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="AS39" s="6"/>
     </row>
-    <row r="40" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7">
         <v>41513</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="AS40" s="6"/>
     </row>
-    <row r="41" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7">
         <v>41513</v>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="AS41" s="6"/>
     </row>
-    <row r="42" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41625</v>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="AS42" s="6"/>
     </row>
-    <row r="43" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7">
         <v>41625</v>
@@ -17163,7 +17163,7 @@
       </c>
       <c r="AS43" s="6"/>
     </row>
-    <row r="44" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>41625</v>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="AS44" s="6"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7">
         <v>41625</v>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="AS45" s="6"/>
     </row>
-    <row r="46" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>41625</v>
@@ -17562,7 +17562,7 @@
       </c>
       <c r="AS46" s="6"/>
     </row>
-    <row r="47" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7">
         <v>41690</v>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="AS47" s="6"/>
     </row>
-    <row r="48" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>41690</v>
@@ -17828,7 +17828,7 @@
       </c>
       <c r="AS48" s="6"/>
     </row>
-    <row r="49" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7">
         <v>41723</v>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="AS49" s="6"/>
     </row>
-    <row r="50" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>41723</v>
@@ -18094,7 +18094,7 @@
       </c>
       <c r="AS50" s="6"/>
     </row>
-    <row r="51" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7">
         <v>41723</v>
@@ -18227,7 +18227,7 @@
       </c>
       <c r="AS51" s="6"/>
     </row>
-    <row r="52" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>41723</v>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="AS52" s="6"/>
     </row>
-    <row r="53" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7">
         <v>41828</v>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="AS53" s="6"/>
     </row>
-    <row r="54" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>41828</v>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="AS54" s="6"/>
     </row>
-    <row r="55" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7">
         <v>41940</v>
@@ -18759,7 +18759,7 @@
       </c>
       <c r="AS55" s="6"/>
     </row>
-    <row r="56" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>41940</v>
@@ -18892,7 +18892,7 @@
       </c>
       <c r="AS56" s="6"/>
     </row>
-    <row r="57" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7">
         <v>41940</v>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="AS57" s="6"/>
     </row>
-    <row r="58" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>42024</v>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="AS58" s="6"/>
     </row>
-    <row r="59" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7">
         <v>42024</v>
@@ -19291,7 +19291,7 @@
       </c>
       <c r="AS59" s="6"/>
     </row>
-    <row r="60" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>42024</v>
@@ -19424,7 +19424,7 @@
       </c>
       <c r="AS60" s="6"/>
     </row>
-    <row r="61" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>3443</v>
       </c>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>769</v>
       </c>
@@ -62418,7 +62418,7 @@
         <v>44796</v>
       </c>
       <c r="C404" s="87">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D404" s="87" t="s">
         <v>3397</v>
@@ -63478,7 +63478,7 @@
         <v>44796</v>
       </c>
       <c r="C414" s="87">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D414" s="87" t="s">
         <v>3407</v>
@@ -63565,7 +63565,7 @@
         <v>44796</v>
       </c>
       <c r="C415" s="87">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D415" s="87" t="s">
         <v>3403</v>
@@ -63652,7 +63652,7 @@
         <v>44796</v>
       </c>
       <c r="C416" s="87">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D416" s="87" t="s">
         <v>3411</v>
@@ -64945,7 +64945,7 @@
         <v>44796</v>
       </c>
       <c r="C427" s="87">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D427" s="87" t="s">
         <v>3421</v>
@@ -65032,7 +65032,7 @@
         <v>44796</v>
       </c>
       <c r="C428" s="87">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D428" s="87" t="s">
         <v>3427</v>
@@ -65119,7 +65119,7 @@
         <v>44796</v>
       </c>
       <c r="C429" s="87">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D429" s="87" t="s">
         <v>3433</v>
@@ -65206,7 +65206,7 @@
         <v>44796</v>
       </c>
       <c r="C430" s="87">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D430" s="87" t="s">
         <v>3415</v>
@@ -65293,7 +65293,7 @@
         <v>44796</v>
       </c>
       <c r="C431" s="87">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D431" s="87" t="s">
         <v>3421</v>
@@ -65380,7 +65380,7 @@
         <v>44796</v>
       </c>
       <c r="C432" s="87">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D432" s="87" t="s">
         <v>3427</v>
@@ -65467,7 +65467,7 @@
         <v>44796</v>
       </c>
       <c r="C433" s="87">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D433" s="87" t="s">
         <v>3433</v>
@@ -65554,7 +65554,7 @@
         <v>44796</v>
       </c>
       <c r="C434" s="87">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D434" s="87" t="s">
         <v>3415</v>

--- a/guide_ffxiv.xlsx
+++ b/guide_ffxiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Github\DevFFXIVPocketGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E093BD6-8D66-46C5-B774-AB803DF3EF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751FEFF2-10D1-4637-9F3A-6BCC2B5C599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
+    <workbookView xWindow="-2055" yWindow="-18810" windowWidth="42525" windowHeight="15345" xr2:uid="{3F3FA391-F620-48D4-9F69-F3B9E653815F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14216" uniqueCount="3444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14359" uniqueCount="3491">
   <si>
     <t>date:</t>
   </si>
@@ -10391,6 +10391,147 @@
   </si>
   <si>
     <t>old</t>
+  </si>
+  <si>
+    <t>Blaufeder</t>
+  </si>
+  <si>
+    <t>Fegefeuer</t>
+  </si>
+  <si>
+    <t>Abyssos</t>
+  </si>
+  <si>
+    <t>des Himmels</t>
+  </si>
+  <si>
+    <t>Windstoß</t>
+  </si>
+  <si>
+    <t>['Barbarizia']</t>
+  </si>
+  <si>
+    <t>['Proto-Karfunkel']</t>
+  </si>
+  <si>
+    <t>['Hegemone']</t>
+  </si>
+  <si>
+    <t>['Agdistis']</t>
+  </si>
+  <si>
+    <t>['Hephaistos']</t>
+  </si>
+  <si>
+    <t>Troianisch</t>
+  </si>
+  <si>
+    <t>Darbar</t>
+  </si>
+  <si>
+    <t>Pantheon</t>
+  </si>
+  <si>
+    <t>['Byregot','Rhalgr','Azeyma','Nald'Thal']</t>
+  </si>
+  <si>
+    <t>['Beatrice','Scarmiglio']</t>
+  </si>
+  <si>
+    <t>['P5N']</t>
+  </si>
+  <si>
+    <t>['P6N']</t>
+  </si>
+  <si>
+    <t>['P7N']</t>
+  </si>
+  <si>
+    <t>['P8N']</t>
+  </si>
+  <si>
+    <t>['P5S']</t>
+  </si>
+  <si>
+    <t>['P6S']</t>
+  </si>
+  <si>
+    <t>['P7S']</t>
+  </si>
+  <si>
+    <t>['P8S']</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Eighth_Circle_(Savage)</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Seventh_Circle_(Savage)</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Sixth_Circle_(Savage)</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Fifth_Circle_(Savage)</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Eighth_Circle</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Sixth_Circle</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Seventh_Circle</t>
+  </si>
+  <si>
+    <t>Abyssos:_The_Fifth_Circle</t>
+  </si>
+  <si>
+    <t>The_Fell_Court_of_Troia</t>
+  </si>
+  <si>
+    <t>Containment_Bay_S1T7_(Unreal)</t>
+  </si>
+  <si>
+    <t>Storm%5C%27s_Crown_(Extreme)</t>
+  </si>
+  <si>
+    <t>Storm%5C%27s_Crown</t>
+  </si>
+  <si>
+    <t>Sturmwind-Luchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Glutgeborene</t>
+  </si>
+  <si>
+    <t>Blaufeder-Luchs</t>
+  </si>
+  <si>
+    <t>Erichthonios-Puppe</t>
+  </si>
+  <si>
+    <t>Scarmiglione-Puppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kapipikulu</t>
+  </si>
+  <si>
+    <t>Hephaistos</t>
+  </si>
+  <si>
+    <t>Barbarizia</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>Schutzwall</t>
+  </si>
+  <si>
+    <t>Nald</t>
+  </si>
+  <si>
+    <t>6BRDigt5EaQ</t>
   </si>
 </sst>
 </file>
@@ -11471,10 +11612,10 @@
   <dimension ref="A1:AS468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U400" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C473" sqref="C473"/>
+      <selection pane="bottomRight" activeCell="AD427" sqref="AD427:AD434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -11495,25 +11636,25 @@
     <col min="14" max="14" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="58.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="33" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="38.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="58.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="33" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="38.7109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="36.140625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="23" max="23" width="24.42578125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="24" max="24" width="27.140625" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="25" max="26" width="23.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="15.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="29" max="29" width="14.85546875" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="30" max="30" width="12.28515625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="31" max="31" width="18.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="32" max="32" width="10.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="28.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="25" max="26" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.28515625" style="1" customWidth="1" outlineLevel="2" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="29" max="29" width="14.85546875" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="31" max="31" width="18.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="28.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="17" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="11.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="56.140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -62363,9 +62504,15 @@
       <c r="O403" s="87">
         <v>70065</v>
       </c>
-      <c r="P403" s="87"/>
-      <c r="Q403" s="87"/>
-      <c r="R403" s="87"/>
+      <c r="P403" s="87" t="s">
+        <v>3455</v>
+      </c>
+      <c r="Q403" s="87" t="s">
+        <v>3488</v>
+      </c>
+      <c r="R403" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S403" s="87"/>
       <c r="T403" s="87"/>
       <c r="U403" s="87"/>
@@ -62378,11 +62525,21 @@
       <c r="AB403" s="87"/>
       <c r="AC403" s="87"/>
       <c r="AD403" s="87"/>
-      <c r="AE403" s="87"/>
-      <c r="AF403" s="87"/>
-      <c r="AG403" s="87"/>
-      <c r="AH403" s="87"/>
-      <c r="AI403" s="87"/>
+      <c r="AE403" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF403" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG403" s="87" t="s">
+        <v>3484</v>
+      </c>
+      <c r="AH403" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI403" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ403" s="87" t="s">
         <v>85</v>
       </c>
@@ -62453,12 +62610,18 @@
       <c r="N404" s="87">
         <v>0</v>
       </c>
-      <c r="O404" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P404" s="87"/>
-      <c r="Q404" s="87"/>
-      <c r="R404" s="87"/>
+      <c r="O404" s="87">
+        <v>70128</v>
+      </c>
+      <c r="P404" s="87" t="s">
+        <v>3454</v>
+      </c>
+      <c r="Q404" s="87" t="s">
+        <v>3487</v>
+      </c>
+      <c r="R404" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S404" s="87"/>
       <c r="T404" s="87"/>
       <c r="U404" s="87"/>
@@ -62471,11 +62634,21 @@
       <c r="AB404" s="87"/>
       <c r="AC404" s="87"/>
       <c r="AD404" s="87"/>
-      <c r="AE404" s="87"/>
-      <c r="AF404" s="87"/>
-      <c r="AG404" s="87"/>
-      <c r="AH404" s="87"/>
-      <c r="AI404" s="87"/>
+      <c r="AE404" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF404" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG404" s="87" t="s">
+        <v>3483</v>
+      </c>
+      <c r="AH404" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI404" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ404" s="87" t="s">
         <v>85</v>
       </c>
@@ -62483,7 +62656,7 @@
         <v>3401</v>
       </c>
       <c r="AL404" s="87" t="s">
-        <v>925</v>
+        <v>3458</v>
       </c>
       <c r="AM404" s="87" t="s">
         <v>925</v>
@@ -62494,9 +62667,15 @@
       <c r="AO404" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP404" s="87"/>
-      <c r="AQ404" s="87"/>
-      <c r="AR404" s="87"/>
+      <c r="AP404" s="87">
+        <v>88</v>
+      </c>
+      <c r="AQ404" s="87">
+        <v>88</v>
+      </c>
+      <c r="AR404" s="87" t="s">
+        <v>3475</v>
+      </c>
       <c r="AS404" s="87"/>
     </row>
     <row r="405" spans="1:45" x14ac:dyDescent="0.25">
@@ -63237,9 +63416,13 @@
       <c r="O411" s="87">
         <v>69707</v>
       </c>
-      <c r="P411" s="87"/>
+      <c r="P411" s="87" t="s">
+        <v>3444</v>
+      </c>
       <c r="Q411" s="87"/>
-      <c r="R411" s="87"/>
+      <c r="R411" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S411" s="87"/>
       <c r="T411" s="87"/>
       <c r="U411" s="87"/>
@@ -63249,14 +63432,28 @@
       <c r="Y411" s="87"/>
       <c r="Z411" s="87"/>
       <c r="AA411" s="87"/>
-      <c r="AB411" s="87"/>
+      <c r="AB411" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC411" s="87"/>
-      <c r="AD411" s="87"/>
-      <c r="AE411" s="87"/>
-      <c r="AF411" s="87"/>
-      <c r="AG411" s="87"/>
-      <c r="AH411" s="87"/>
-      <c r="AI411" s="87"/>
+      <c r="AD411" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE411" s="87" t="s">
+        <v>3481</v>
+      </c>
+      <c r="AF411" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG411" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH411" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI411" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ411" s="87" t="s">
         <v>186</v>
       </c>
@@ -63330,9 +63527,13 @@
       <c r="O412" s="87">
         <v>70058</v>
       </c>
-      <c r="P412" s="87"/>
+      <c r="P412" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="Q412" s="87"/>
-      <c r="R412" s="87"/>
+      <c r="R412" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S412" s="87"/>
       <c r="T412" s="87"/>
       <c r="U412" s="87"/>
@@ -63342,14 +63543,28 @@
       <c r="Y412" s="87"/>
       <c r="Z412" s="87"/>
       <c r="AA412" s="87"/>
-      <c r="AB412" s="87"/>
+      <c r="AB412" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC412" s="87"/>
-      <c r="AD412" s="87"/>
-      <c r="AE412" s="87"/>
-      <c r="AF412" s="87"/>
-      <c r="AG412" s="87"/>
-      <c r="AH412" s="87"/>
-      <c r="AI412" s="87"/>
+      <c r="AD412" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE412" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF412" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG412" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH412" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI412" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ412" s="87" t="s">
         <v>186</v>
       </c>
@@ -63423,9 +63638,15 @@
       <c r="O413" s="87">
         <v>69501</v>
       </c>
-      <c r="P413" s="87"/>
-      <c r="Q413" s="87"/>
-      <c r="R413" s="87"/>
+      <c r="P413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Q413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R413" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S413" s="87"/>
       <c r="T413" s="87"/>
       <c r="U413" s="87"/>
@@ -63435,14 +63656,28 @@
       <c r="Y413" s="87"/>
       <c r="Z413" s="87"/>
       <c r="AA413" s="87"/>
-      <c r="AB413" s="87"/>
+      <c r="AB413" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC413" s="87"/>
-      <c r="AD413" s="87"/>
-      <c r="AE413" s="87"/>
-      <c r="AF413" s="87"/>
-      <c r="AG413" s="87"/>
-      <c r="AH413" s="87"/>
-      <c r="AI413" s="87"/>
+      <c r="AD413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH413" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI413" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ413" s="87" t="s">
         <v>186</v>
       </c>
@@ -63513,12 +63748,18 @@
       <c r="N414" s="87">
         <v>0</v>
       </c>
-      <c r="O414" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P414" s="87"/>
-      <c r="Q414" s="87"/>
-      <c r="R414" s="87"/>
+      <c r="O414" s="87">
+        <v>70133</v>
+      </c>
+      <c r="P414" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Q414" s="87" t="s">
+        <v>3486</v>
+      </c>
+      <c r="R414" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S414" s="87"/>
       <c r="T414" s="87"/>
       <c r="U414" s="87"/>
@@ -63528,14 +63769,28 @@
       <c r="Y414" s="87"/>
       <c r="Z414" s="87"/>
       <c r="AA414" s="87"/>
-      <c r="AB414" s="87"/>
+      <c r="AB414" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC414" s="87"/>
-      <c r="AD414" s="87"/>
-      <c r="AE414" s="87"/>
-      <c r="AF414" s="87"/>
-      <c r="AG414" s="87"/>
-      <c r="AH414" s="87"/>
-      <c r="AI414" s="87"/>
+      <c r="AD414" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE414" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF414" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG414" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH414" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI414" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ414" s="87" t="s">
         <v>186</v>
       </c>
@@ -63543,7 +63798,7 @@
         <v>3410</v>
       </c>
       <c r="AL414" s="87" t="s">
-        <v>925</v>
+        <v>3449</v>
       </c>
       <c r="AM414" s="87" t="s">
         <v>925</v>
@@ -63554,9 +63809,15 @@
       <c r="AO414" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP414" s="87"/>
-      <c r="AQ414" s="87"/>
-      <c r="AR414" s="87"/>
+      <c r="AP414" s="87">
+        <v>20084</v>
+      </c>
+      <c r="AQ414" s="87">
+        <v>20084</v>
+      </c>
+      <c r="AR414" s="87" t="s">
+        <v>3478</v>
+      </c>
       <c r="AS414" s="87"/>
     </row>
     <row r="415" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -63600,12 +63861,16 @@
       <c r="N415" s="87">
         <v>0</v>
       </c>
-      <c r="O415" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P415" s="87"/>
+      <c r="O415" s="87">
+        <v>69707</v>
+      </c>
+      <c r="P415" s="87" t="s">
+        <v>3448</v>
+      </c>
       <c r="Q415" s="87"/>
-      <c r="R415" s="87"/>
+      <c r="R415" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S415" s="87"/>
       <c r="T415" s="87"/>
       <c r="U415" s="87"/>
@@ -63615,14 +63880,30 @@
       <c r="Y415" s="87"/>
       <c r="Z415" s="87"/>
       <c r="AA415" s="87"/>
-      <c r="AB415" s="87"/>
-      <c r="AC415" s="87"/>
-      <c r="AD415" s="87"/>
-      <c r="AE415" s="87"/>
-      <c r="AF415" s="87"/>
-      <c r="AG415" s="87"/>
-      <c r="AH415" s="87"/>
-      <c r="AI415" s="87"/>
+      <c r="AB415" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AC415" s="87" t="s">
+        <v>3490</v>
+      </c>
+      <c r="AD415" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE415" s="87" t="s">
+        <v>3479</v>
+      </c>
+      <c r="AF415" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG415" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH415" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI415" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ415" s="87" t="s">
         <v>186</v>
       </c>
@@ -63630,7 +63911,7 @@
         <v>3406</v>
       </c>
       <c r="AL415" s="87" t="s">
-        <v>925</v>
+        <v>3449</v>
       </c>
       <c r="AM415" s="87" t="s">
         <v>925</v>
@@ -63641,9 +63922,15 @@
       <c r="AO415" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP415" s="87"/>
-      <c r="AQ415" s="87"/>
-      <c r="AR415" s="87"/>
+      <c r="AP415" s="87">
+        <v>20085</v>
+      </c>
+      <c r="AQ415" s="87">
+        <v>20085</v>
+      </c>
+      <c r="AR415" s="87" t="s">
+        <v>3477</v>
+      </c>
       <c r="AS415" s="87"/>
     </row>
     <row r="416" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -63687,12 +63974,18 @@
       <c r="N416" s="87">
         <v>565</v>
       </c>
-      <c r="O416" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P416" s="87"/>
-      <c r="Q416" s="87"/>
-      <c r="R416" s="87"/>
+      <c r="O416" s="87">
+        <v>69501</v>
+      </c>
+      <c r="P416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Q416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R416" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S416" s="87"/>
       <c r="T416" s="87"/>
       <c r="U416" s="87"/>
@@ -63702,14 +63995,28 @@
       <c r="Y416" s="87"/>
       <c r="Z416" s="87"/>
       <c r="AA416" s="87"/>
-      <c r="AB416" s="87"/>
+      <c r="AB416" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC416" s="87"/>
-      <c r="AD416" s="87"/>
-      <c r="AE416" s="87"/>
-      <c r="AF416" s="87"/>
-      <c r="AG416" s="87"/>
-      <c r="AH416" s="87"/>
-      <c r="AI416" s="87"/>
+      <c r="AD416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH416" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI416" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ416" s="87" t="s">
         <v>186</v>
       </c>
@@ -63717,7 +64024,7 @@
         <v>3414</v>
       </c>
       <c r="AL416" s="87" t="s">
-        <v>925</v>
+        <v>1182</v>
       </c>
       <c r="AM416" s="87" t="s">
         <v>925</v>
@@ -63728,9 +64035,15 @@
       <c r="AO416" s="87" t="s">
         <v>925</v>
       </c>
-      <c r="AP416" s="87"/>
-      <c r="AQ416" s="87"/>
-      <c r="AR416" s="87"/>
+      <c r="AP416" s="87">
+        <v>64005</v>
+      </c>
+      <c r="AQ416" s="87">
+        <v>64005</v>
+      </c>
+      <c r="AR416" s="87" t="s">
+        <v>3476</v>
+      </c>
       <c r="AS416" s="87"/>
     </row>
     <row r="417" spans="1:45" x14ac:dyDescent="0.25">
@@ -63826,9 +64139,15 @@
       <c r="O418" s="87">
         <v>70073</v>
       </c>
-      <c r="P418" s="87"/>
-      <c r="Q418" s="87"/>
-      <c r="R418" s="87"/>
+      <c r="P418" s="87" t="s">
+        <v>3456</v>
+      </c>
+      <c r="Q418" s="87" t="s">
+        <v>3489</v>
+      </c>
+      <c r="R418" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="S418" s="87"/>
       <c r="T418" s="87"/>
       <c r="U418" s="87"/>
@@ -63853,7 +64172,7 @@
         <v>3375</v>
       </c>
       <c r="AL418" s="87" t="s">
-        <v>925</v>
+        <v>3457</v>
       </c>
       <c r="AM418" s="87" t="s">
         <v>925</v>
@@ -64980,10 +65299,12 @@
       <c r="N427" s="87">
         <v>0</v>
       </c>
-      <c r="O427" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P427" s="87"/>
+      <c r="O427" s="87">
+        <v>70172</v>
+      </c>
+      <c r="P427" s="87" t="s">
+        <v>3445</v>
+      </c>
       <c r="Q427" s="87"/>
       <c r="R427" s="87"/>
       <c r="S427" s="87"/>
@@ -64995,14 +65316,28 @@
       <c r="Y427" s="87"/>
       <c r="Z427" s="87"/>
       <c r="AA427" s="87"/>
-      <c r="AB427" s="87"/>
+      <c r="AB427" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC427" s="87"/>
-      <c r="AD427" s="87"/>
-      <c r="AE427" s="87"/>
-      <c r="AF427" s="87"/>
-      <c r="AG427" s="87"/>
-      <c r="AH427" s="87"/>
-      <c r="AI427" s="87"/>
+      <c r="AD427" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE427" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF427" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG427" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH427" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI427" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ427" s="87" t="s">
         <v>310</v>
       </c>
@@ -65010,7 +65345,7 @@
         <v>3424</v>
       </c>
       <c r="AL427" s="87" t="s">
-        <v>925</v>
+        <v>3450</v>
       </c>
       <c r="AM427" s="87" t="s">
         <v>925</v>
@@ -65019,11 +65354,17 @@
         <v>925</v>
       </c>
       <c r="AO427" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP427" s="87"/>
-      <c r="AQ427" s="87"/>
-      <c r="AR427" s="87"/>
+        <v>3459</v>
+      </c>
+      <c r="AP427" s="87">
+        <v>30116</v>
+      </c>
+      <c r="AQ427" s="87">
+        <v>30116</v>
+      </c>
+      <c r="AR427" s="87" t="s">
+        <v>3474</v>
+      </c>
       <c r="AS427" s="87"/>
     </row>
     <row r="428" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65067,10 +65408,12 @@
       <c r="N428" s="87">
         <v>0</v>
       </c>
-      <c r="O428" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P428" s="87"/>
+      <c r="O428" s="87">
+        <v>70173</v>
+      </c>
+      <c r="P428" s="87" t="s">
+        <v>3445</v>
+      </c>
       <c r="Q428" s="87"/>
       <c r="R428" s="87"/>
       <c r="S428" s="87"/>
@@ -65082,14 +65425,28 @@
       <c r="Y428" s="87"/>
       <c r="Z428" s="87"/>
       <c r="AA428" s="87"/>
-      <c r="AB428" s="87"/>
+      <c r="AB428" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC428" s="87"/>
-      <c r="AD428" s="87"/>
-      <c r="AE428" s="87"/>
-      <c r="AF428" s="87"/>
-      <c r="AG428" s="87"/>
-      <c r="AH428" s="87"/>
-      <c r="AI428" s="87"/>
+      <c r="AD428" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE428" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF428" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG428" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH428" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI428" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ428" s="87" t="s">
         <v>310</v>
       </c>
@@ -65097,7 +65454,7 @@
         <v>3430</v>
       </c>
       <c r="AL428" s="87" t="s">
-        <v>925</v>
+        <v>3451</v>
       </c>
       <c r="AM428" s="87" t="s">
         <v>925</v>
@@ -65106,11 +65463,17 @@
         <v>925</v>
       </c>
       <c r="AO428" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP428" s="87"/>
-      <c r="AQ428" s="87"/>
-      <c r="AR428" s="87"/>
+        <v>3460</v>
+      </c>
+      <c r="AP428" s="87">
+        <v>30120</v>
+      </c>
+      <c r="AQ428" s="87">
+        <v>30120</v>
+      </c>
+      <c r="AR428" s="87" t="s">
+        <v>3472</v>
+      </c>
       <c r="AS428" s="87"/>
     </row>
     <row r="429" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65154,10 +65517,12 @@
       <c r="N429" s="87">
         <v>0</v>
       </c>
-      <c r="O429" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P429" s="87"/>
+      <c r="O429" s="87">
+        <v>70174</v>
+      </c>
+      <c r="P429" s="87" t="s">
+        <v>3445</v>
+      </c>
       <c r="Q429" s="87"/>
       <c r="R429" s="87"/>
       <c r="S429" s="87"/>
@@ -65169,14 +65534,28 @@
       <c r="Y429" s="87"/>
       <c r="Z429" s="87"/>
       <c r="AA429" s="87"/>
-      <c r="AB429" s="87"/>
+      <c r="AB429" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC429" s="87"/>
-      <c r="AD429" s="87"/>
-      <c r="AE429" s="87"/>
-      <c r="AF429" s="87"/>
-      <c r="AG429" s="87"/>
-      <c r="AH429" s="87"/>
-      <c r="AI429" s="87"/>
+      <c r="AD429" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE429" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF429" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG429" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH429" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI429" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ429" s="87" t="s">
         <v>310</v>
       </c>
@@ -65184,7 +65563,7 @@
         <v>3436</v>
       </c>
       <c r="AL429" s="87" t="s">
-        <v>925</v>
+        <v>3452</v>
       </c>
       <c r="AM429" s="87" t="s">
         <v>925</v>
@@ -65193,11 +65572,17 @@
         <v>925</v>
       </c>
       <c r="AO429" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP429" s="87"/>
-      <c r="AQ429" s="87"/>
-      <c r="AR429" s="87"/>
+        <v>3461</v>
+      </c>
+      <c r="AP429" s="87">
+        <v>30118</v>
+      </c>
+      <c r="AQ429" s="87">
+        <v>30118</v>
+      </c>
+      <c r="AR429" s="87" t="s">
+        <v>3473</v>
+      </c>
       <c r="AS429" s="87"/>
     </row>
     <row r="430" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65241,11 +65626,15 @@
       <c r="N430" s="87">
         <v>0</v>
       </c>
-      <c r="O430" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P430" s="87"/>
-      <c r="Q430" s="87"/>
+      <c r="O430" s="87">
+        <v>70175</v>
+      </c>
+      <c r="P430" s="87" t="s">
+        <v>3445</v>
+      </c>
+      <c r="Q430" s="87" t="s">
+        <v>3485</v>
+      </c>
       <c r="R430" s="87"/>
       <c r="S430" s="87"/>
       <c r="T430" s="87"/>
@@ -65256,14 +65645,28 @@
       <c r="Y430" s="87"/>
       <c r="Z430" s="87"/>
       <c r="AA430" s="87"/>
-      <c r="AB430" s="87"/>
+      <c r="AB430" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC430" s="87"/>
-      <c r="AD430" s="87"/>
-      <c r="AE430" s="87"/>
-      <c r="AF430" s="87"/>
-      <c r="AG430" s="87"/>
-      <c r="AH430" s="87"/>
-      <c r="AI430" s="87"/>
+      <c r="AD430" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE430" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF430" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG430" s="87" t="s">
+        <v>3482</v>
+      </c>
+      <c r="AH430" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI430" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ430" s="87" t="s">
         <v>310</v>
       </c>
@@ -65271,7 +65674,7 @@
         <v>3418</v>
       </c>
       <c r="AL430" s="87" t="s">
-        <v>925</v>
+        <v>3453</v>
       </c>
       <c r="AM430" s="87" t="s">
         <v>925</v>
@@ -65280,11 +65683,17 @@
         <v>925</v>
       </c>
       <c r="AO430" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP430" s="87"/>
-      <c r="AQ430" s="87"/>
-      <c r="AR430" s="87"/>
+        <v>3462</v>
+      </c>
+      <c r="AP430" s="87">
+        <v>30122</v>
+      </c>
+      <c r="AQ430" s="87">
+        <v>30122</v>
+      </c>
+      <c r="AR430" s="87" t="s">
+        <v>3471</v>
+      </c>
       <c r="AS430" s="87"/>
     </row>
     <row r="431" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65328,10 +65737,12 @@
       <c r="N431" s="87">
         <v>0</v>
       </c>
-      <c r="O431" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P431" s="87"/>
+      <c r="O431" s="87">
+        <v>70175</v>
+      </c>
+      <c r="P431" s="87" t="s">
+        <v>3446</v>
+      </c>
       <c r="Q431" s="87"/>
       <c r="R431" s="87"/>
       <c r="S431" s="87"/>
@@ -65343,14 +65754,28 @@
       <c r="Y431" s="87"/>
       <c r="Z431" s="87"/>
       <c r="AA431" s="87"/>
-      <c r="AB431" s="87"/>
+      <c r="AB431" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC431" s="87"/>
-      <c r="AD431" s="87"/>
-      <c r="AE431" s="87"/>
-      <c r="AF431" s="87"/>
-      <c r="AG431" s="87"/>
-      <c r="AH431" s="87"/>
-      <c r="AI431" s="87"/>
+      <c r="AD431" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE431" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF431" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG431" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH431" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI431" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ431" s="87" t="s">
         <v>310</v>
       </c>
@@ -65358,7 +65783,7 @@
         <v>3426</v>
       </c>
       <c r="AL431" s="87" t="s">
-        <v>925</v>
+        <v>3450</v>
       </c>
       <c r="AM431" s="87" t="s">
         <v>925</v>
@@ -65367,11 +65792,17 @@
         <v>925</v>
       </c>
       <c r="AO431" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP431" s="87"/>
-      <c r="AQ431" s="87"/>
-      <c r="AR431" s="87"/>
+        <v>3463</v>
+      </c>
+      <c r="AP431" s="87">
+        <v>30117</v>
+      </c>
+      <c r="AQ431" s="87">
+        <v>30117</v>
+      </c>
+      <c r="AR431" s="87" t="s">
+        <v>3470</v>
+      </c>
       <c r="AS431" s="87"/>
     </row>
     <row r="432" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65415,10 +65846,12 @@
       <c r="N432" s="87">
         <v>0</v>
       </c>
-      <c r="O432" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P432" s="87"/>
+      <c r="O432" s="87">
+        <v>70175</v>
+      </c>
+      <c r="P432" s="87" t="s">
+        <v>3446</v>
+      </c>
       <c r="Q432" s="87"/>
       <c r="R432" s="87"/>
       <c r="S432" s="87"/>
@@ -65430,14 +65863,28 @@
       <c r="Y432" s="87"/>
       <c r="Z432" s="87"/>
       <c r="AA432" s="87"/>
-      <c r="AB432" s="87"/>
+      <c r="AB432" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC432" s="87"/>
-      <c r="AD432" s="87"/>
-      <c r="AE432" s="87"/>
-      <c r="AF432" s="87"/>
-      <c r="AG432" s="87"/>
-      <c r="AH432" s="87"/>
-      <c r="AI432" s="87"/>
+      <c r="AD432" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE432" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF432" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG432" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH432" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI432" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ432" s="87" t="s">
         <v>310</v>
       </c>
@@ -65445,7 +65892,7 @@
         <v>3432</v>
       </c>
       <c r="AL432" s="87" t="s">
-        <v>925</v>
+        <v>3451</v>
       </c>
       <c r="AM432" s="87" t="s">
         <v>925</v>
@@ -65454,11 +65901,17 @@
         <v>925</v>
       </c>
       <c r="AO432" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP432" s="87"/>
-      <c r="AQ432" s="87"/>
-      <c r="AR432" s="87"/>
+        <v>3464</v>
+      </c>
+      <c r="AP432" s="87">
+        <v>30121</v>
+      </c>
+      <c r="AQ432" s="87">
+        <v>30121</v>
+      </c>
+      <c r="AR432" s="87" t="s">
+        <v>3469</v>
+      </c>
       <c r="AS432" s="87"/>
     </row>
     <row r="433" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65502,10 +65955,12 @@
       <c r="N433" s="87">
         <v>0</v>
       </c>
-      <c r="O433" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P433" s="87"/>
+      <c r="O433" s="87">
+        <v>70175</v>
+      </c>
+      <c r="P433" s="87" t="s">
+        <v>3446</v>
+      </c>
       <c r="Q433" s="87"/>
       <c r="R433" s="87"/>
       <c r="S433" s="87"/>
@@ -65517,14 +65972,28 @@
       <c r="Y433" s="87"/>
       <c r="Z433" s="87"/>
       <c r="AA433" s="87"/>
-      <c r="AB433" s="87"/>
+      <c r="AB433" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC433" s="87"/>
-      <c r="AD433" s="87"/>
-      <c r="AE433" s="87"/>
-      <c r="AF433" s="87"/>
-      <c r="AG433" s="87"/>
-      <c r="AH433" s="87"/>
-      <c r="AI433" s="87"/>
+      <c r="AD433" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE433" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AF433" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG433" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AH433" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI433" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ433" s="87" t="s">
         <v>310</v>
       </c>
@@ -65532,7 +66001,7 @@
         <v>3438</v>
       </c>
       <c r="AL433" s="87" t="s">
-        <v>925</v>
+        <v>3452</v>
       </c>
       <c r="AM433" s="87" t="s">
         <v>925</v>
@@ -65541,11 +66010,17 @@
         <v>925</v>
       </c>
       <c r="AO433" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP433" s="87"/>
-      <c r="AQ433" s="87"/>
-      <c r="AR433" s="87"/>
+        <v>3465</v>
+      </c>
+      <c r="AP433" s="87">
+        <v>30119</v>
+      </c>
+      <c r="AQ433" s="87">
+        <v>30119</v>
+      </c>
+      <c r="AR433" s="87" t="s">
+        <v>3468</v>
+      </c>
       <c r="AS433" s="87"/>
     </row>
     <row r="434" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65589,10 +66064,12 @@
       <c r="N434" s="87">
         <v>0</v>
       </c>
-      <c r="O434" s="87" t="s">
-        <v>3332</v>
-      </c>
-      <c r="P434" s="87"/>
+      <c r="O434" s="87">
+        <v>70175</v>
+      </c>
+      <c r="P434" s="87" t="s">
+        <v>3446</v>
+      </c>
       <c r="Q434" s="87"/>
       <c r="R434" s="87"/>
       <c r="S434" s="87"/>
@@ -65604,14 +66081,28 @@
       <c r="Y434" s="87"/>
       <c r="Z434" s="87"/>
       <c r="AA434" s="87"/>
-      <c r="AB434" s="87"/>
+      <c r="AB434" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AC434" s="87"/>
-      <c r="AD434" s="87"/>
-      <c r="AE434" s="87"/>
-      <c r="AF434" s="87"/>
-      <c r="AG434" s="87"/>
-      <c r="AH434" s="87"/>
-      <c r="AI434" s="87"/>
+      <c r="AD434" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AE434" s="87" t="s">
+        <v>3480</v>
+      </c>
+      <c r="AF434" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AG434" s="87" t="s">
+        <v>3482</v>
+      </c>
+      <c r="AH434" s="87" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AI434" s="87" t="s">
+        <v>2723</v>
+      </c>
       <c r="AJ434" s="87" t="s">
         <v>310</v>
       </c>
@@ -65619,7 +66110,7 @@
         <v>3420</v>
       </c>
       <c r="AL434" s="87" t="s">
-        <v>925</v>
+        <v>3453</v>
       </c>
       <c r="AM434" s="87" t="s">
         <v>925</v>
@@ -65628,11 +66119,17 @@
         <v>925</v>
       </c>
       <c r="AO434" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP434" s="87"/>
-      <c r="AQ434" s="87"/>
-      <c r="AR434" s="87"/>
+        <v>3466</v>
+      </c>
+      <c r="AP434" s="87">
+        <v>30123</v>
+      </c>
+      <c r="AQ434" s="87">
+        <v>30123</v>
+      </c>
+      <c r="AR434" s="87" t="s">
+        <v>3467</v>
+      </c>
       <c r="AS434" s="87"/>
     </row>
     <row r="435" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -65679,7 +66176,9 @@
       <c r="O435" s="87" t="s">
         <v>3332</v>
       </c>
-      <c r="P435" s="87"/>
+      <c r="P435" s="87" t="s">
+        <v>3447</v>
+      </c>
       <c r="Q435" s="87"/>
       <c r="R435" s="87"/>
       <c r="S435" s="87"/>
